--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C065B7-90C1-47ED-BE5B-6466D7B0767F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01B540E-015D-44A5-859B-16A3002C0287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
   <si>
     <t>英文名稱</t>
   </si>
@@ -319,6 +319,102 @@
   </si>
   <si>
     <t>銀火龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜刃冰牙龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金火龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰魚龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥魚龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貝西摩斯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰咒龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滅盡龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殲世滅盡龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屍套龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霧瘴屍套龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎王龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎妃龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麒麟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥燈龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溟波龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天地煌啼龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>絢輝龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥赤龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煌黑龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龍</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -696,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:T53"/>
+  <dimension ref="A2:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1033,83 +1129,307 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="C38" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="2" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="2" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="2" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="2" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="2" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="2" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="2" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="2" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C48" s="2" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="2" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="2" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="2" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="2" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="2" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01B540E-015D-44A5-859B-16A3002C0287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4127F6A-817E-407A-BFAB-61C74AECDD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
   <si>
     <t>英文名稱</t>
   </si>
@@ -415,6 +415,18 @@
   </si>
   <si>
     <t>黑龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遺存物種</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿首精</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古代鹿首精</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -444,6 +456,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -468,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +495,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,13 +814,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:T75"/>
+  <dimension ref="A2:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="8" style="2" bestFit="1" customWidth="1"/>
@@ -810,7 +832,7 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
@@ -818,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="E3" s="2">
         <v>150</v>
       </c>
@@ -826,7 +848,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -888,7 +910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -896,7 +918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -904,7 +926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -912,7 +934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -920,7 +942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -928,7 +950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -936,7 +958,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -944,7 +966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -952,7 +974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -960,7 +982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -968,7 +990,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -976,7 +998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -984,7 +1006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -992,7 +1014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1000,7 +1022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1008,7 +1030,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1016,7 +1038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1024,7 +1046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1032,7 +1054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1040,7 +1062,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -1048,7 +1070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
@@ -1056,7 +1078,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
@@ -1064,7 +1086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
@@ -1072,7 +1094,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
@@ -1080,7 +1102,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
@@ -1088,7 +1110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -1096,7 +1118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
@@ -1104,7 +1126,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
@@ -1112,7 +1134,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -1120,7 +1142,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
@@ -1128,7 +1150,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
@@ -1136,7 +1158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
@@ -1144,7 +1166,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>55</v>
       </c>
@@ -1152,7 +1174,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
@@ -1160,7 +1182,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>55</v>
       </c>
@@ -1168,7 +1190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
@@ -1176,7 +1198,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -1184,7 +1206,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
@@ -1192,7 +1214,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>55</v>
       </c>
@@ -1200,7 +1222,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -1208,7 +1230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
@@ -1216,7 +1238,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
@@ -1224,7 +1246,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
@@ -1232,7 +1254,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -1240,7 +1262,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
@@ -1248,7 +1270,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
@@ -1256,7 +1278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -1264,7 +1286,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -1272,7 +1294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>75</v>
       </c>
@@ -1280,7 +1302,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>75</v>
       </c>
@@ -1288,7 +1310,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
@@ -1296,7 +1318,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>79</v>
       </c>
@@ -1304,7 +1326,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
         <v>79</v>
       </c>
@@ -1312,7 +1334,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
@@ -1320,7 +1342,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
         <v>79</v>
       </c>
@@ -1328,7 +1350,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
         <v>79</v>
       </c>
@@ -1336,7 +1358,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
         <v>79</v>
       </c>
@@ -1344,7 +1366,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
         <v>79</v>
       </c>
@@ -1352,7 +1374,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>79</v>
       </c>
@@ -1360,7 +1382,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
         <v>79</v>
       </c>
@@ -1368,7 +1390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
         <v>79</v>
       </c>
@@ -1376,7 +1398,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
         <v>79</v>
       </c>
@@ -1384,7 +1406,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
         <v>79</v>
       </c>
@@ -1392,7 +1414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
         <v>79</v>
       </c>
@@ -1400,7 +1422,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
         <v>79</v>
       </c>
@@ -1408,7 +1430,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
         <v>79</v>
       </c>
@@ -1416,7 +1438,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
@@ -1424,12 +1446,28 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4127F6A-817E-407A-BFAB-61C74AECDD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13248F5-7371-46A8-AFBE-421E3E29E9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="170">
   <si>
     <t>英文名稱</t>
   </si>
@@ -427,6 +427,286 @@
   </si>
   <si>
     <t>古代鹿首精</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ancient Leshen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leshen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fatalis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kulu Ya Ku</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pukei Pukei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coral Pukei Pukei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tzitzi Ya Ku</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yian Garuga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scarred Yian Garuga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anjanath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fulgur Anjanath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Banbaro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barroth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deviljho</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Savage Deviljho</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glavenus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acidic Glavenus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radobaan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uragaan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brachydios</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raging Brachydios</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rajang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furious Rajang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodogama</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great Girros</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great Jagras</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odogaron</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ebony Odogaron</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tobi Kadachi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viper Tobi Kadachi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zinogre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stygian Zinogre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barioth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frostfang Barioth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bazelgeuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seething Bazelgeuse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diablos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black Diablos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legiana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shrieking Legiana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nargacuga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paolumu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nightshade Paolumu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rathalos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure Rathalos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rathian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pink Rathian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tigrex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brute Tigrex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silver Rathalos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Rathian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beotodus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jyuratodus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lavasioth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behemoth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kushala Daora</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velkhana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nergigante</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruiner Nergigante</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vaal Hazak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackveil Vaal Hazak</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teostra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lunastra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kirin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xeno'jiiva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namielle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sharalshvalda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kulve Taroth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safi'jiiva</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alatreon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -816,14 +1096,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
   <dimension ref="A2:T77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="11.375" style="2" bestFit="1" customWidth="1"/>
@@ -914,6 +1194,9 @@
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
@@ -922,6 +1205,9 @@
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
@@ -930,6 +1216,9 @@
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
@@ -938,6 +1227,9 @@
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
@@ -946,6 +1238,9 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
@@ -954,6 +1249,9 @@
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
@@ -962,6 +1260,9 @@
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B14" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
@@ -970,6 +1271,9 @@
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
@@ -978,6 +1282,9 @@
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
@@ -986,6 +1293,9 @@
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B17" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
@@ -994,6 +1304,9 @@
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1002,6 +1315,9 @@
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1010,6 +1326,9 @@
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1018,6 +1337,9 @@
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1026,6 +1348,9 @@
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
@@ -1034,6 +1359,9 @@
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B23" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>39</v>
       </c>
@@ -1042,6 +1370,9 @@
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B24" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>40</v>
       </c>
@@ -1050,6 +1381,9 @@
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>41</v>
       </c>
@@ -1058,6 +1392,9 @@
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B26" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>43</v>
       </c>
@@ -1066,6 +1403,9 @@
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>44</v>
       </c>
@@ -1074,6 +1414,9 @@
       <c r="A28" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>46</v>
       </c>
@@ -1082,6 +1425,9 @@
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>47</v>
       </c>
@@ -1090,6 +1436,9 @@
       <c r="A30" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B30" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>48</v>
       </c>
@@ -1098,6 +1447,9 @@
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>49</v>
       </c>
@@ -1106,6 +1458,9 @@
       <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B32" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>50</v>
       </c>
@@ -1114,6 +1469,9 @@
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B33" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>51</v>
       </c>
@@ -1122,6 +1480,9 @@
       <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B34" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>52</v>
       </c>
@@ -1130,6 +1491,9 @@
       <c r="A35" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B35" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>53</v>
       </c>
@@ -1138,6 +1502,9 @@
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B36" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>54</v>
       </c>
@@ -1146,6 +1513,9 @@
       <c r="A37" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B37" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>56</v>
       </c>
@@ -1154,6 +1524,9 @@
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B38" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>73</v>
       </c>
@@ -1162,6 +1535,9 @@
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B39" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>57</v>
       </c>
@@ -1170,6 +1546,9 @@
       <c r="A40" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B40" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>58</v>
       </c>
@@ -1178,6 +1557,9 @@
       <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B41" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>59</v>
       </c>
@@ -1186,6 +1568,9 @@
       <c r="A42" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B42" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>60</v>
       </c>
@@ -1194,6 +1579,9 @@
       <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B43" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>61</v>
       </c>
@@ -1202,6 +1590,9 @@
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B44" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="C44" s="2" t="s">
         <v>62</v>
       </c>
@@ -1210,6 +1601,9 @@
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B45" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>63</v>
       </c>
@@ -1218,6 +1612,9 @@
       <c r="A46" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B46" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="C46" s="2" t="s">
         <v>64</v>
       </c>
@@ -1226,6 +1623,9 @@
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B47" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="C47" s="2" t="s">
         <v>65</v>
       </c>
@@ -1234,6 +1634,9 @@
       <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B48" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="C48" s="2" t="s">
         <v>66</v>
       </c>
@@ -1242,6 +1645,9 @@
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B49" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>67</v>
       </c>
@@ -1250,6 +1656,9 @@
       <c r="A50" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B50" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C50" s="2" t="s">
         <v>69</v>
       </c>
@@ -1258,6 +1667,9 @@
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B51" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="C51" s="2" t="s">
         <v>68</v>
       </c>
@@ -1266,6 +1678,9 @@
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B52" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="C52" s="2" t="s">
         <v>70</v>
       </c>
@@ -1274,6 +1689,9 @@
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B53" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="C53" s="2" t="s">
         <v>71</v>
       </c>
@@ -1282,6 +1700,9 @@
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B54" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="C54" s="2" t="s">
         <v>72</v>
       </c>
@@ -1290,6 +1711,9 @@
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B55" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="C55" s="2" t="s">
         <v>74</v>
       </c>
@@ -1298,6 +1722,9 @@
       <c r="A56" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="B56" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="C56" s="2" t="s">
         <v>76</v>
       </c>
@@ -1306,6 +1733,9 @@
       <c r="A57" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="B57" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="C57" s="2" t="s">
         <v>77</v>
       </c>
@@ -1314,6 +1744,9 @@
       <c r="A58" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="B58" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="C58" s="2" t="s">
         <v>78</v>
       </c>
@@ -1322,6 +1755,9 @@
       <c r="A59" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B59" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="C59" s="2" t="s">
         <v>80</v>
       </c>
@@ -1330,6 +1766,9 @@
       <c r="A60" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B60" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="C60" s="2" t="s">
         <v>81</v>
       </c>
@@ -1338,6 +1777,9 @@
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="C61" s="2" t="s">
         <v>82</v>
       </c>
@@ -1346,6 +1788,9 @@
       <c r="A62" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B62" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="C62" s="2" t="s">
         <v>83</v>
       </c>
@@ -1354,6 +1799,9 @@
       <c r="A63" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B63" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="C63" s="2" t="s">
         <v>84</v>
       </c>
@@ -1362,6 +1810,9 @@
       <c r="A64" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B64" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="C64" s="2" t="s">
         <v>85</v>
       </c>
@@ -1370,6 +1821,9 @@
       <c r="A65" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B65" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="C65" s="2" t="s">
         <v>86</v>
       </c>
@@ -1378,6 +1832,9 @@
       <c r="A66" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B66" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C66" s="2" t="s">
         <v>87</v>
       </c>
@@ -1386,6 +1843,9 @@
       <c r="A67" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B67" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="C67" s="2" t="s">
         <v>88</v>
       </c>
@@ -1394,6 +1854,9 @@
       <c r="A68" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B68" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="C68" s="2" t="s">
         <v>89</v>
       </c>
@@ -1402,6 +1865,9 @@
       <c r="A69" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B69" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="C69" s="2" t="s">
         <v>90</v>
       </c>
@@ -1410,6 +1876,9 @@
       <c r="A70" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B70" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="C70" s="2" t="s">
         <v>91</v>
       </c>
@@ -1418,6 +1887,9 @@
       <c r="A71" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B71" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="C71" s="2" t="s">
         <v>92</v>
       </c>
@@ -1426,6 +1898,9 @@
       <c r="A72" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B72" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="C72" s="2" t="s">
         <v>93</v>
       </c>
@@ -1434,6 +1909,9 @@
       <c r="A73" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B73" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="C73" s="2" t="s">
         <v>94</v>
       </c>
@@ -1442,6 +1920,9 @@
       <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B74" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="C74" s="2" t="s">
         <v>95</v>
       </c>
@@ -1450,6 +1931,9 @@
       <c r="A75" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="B75" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="C75" s="2" t="s">
         <v>96</v>
       </c>
@@ -1458,6 +1942,9 @@
       <c r="A76" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="B76" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="C76" s="2" t="s">
         <v>98</v>
       </c>
@@ -1465,6 +1952,9 @@
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
         <v>97</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>99</v>

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13248F5-7371-46A8-AFBE-421E3E29E9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FF48B2-8D1A-40F8-8D53-0EDE22F0C239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="182">
   <si>
     <t>英文名稱</t>
   </si>
@@ -707,6 +707,54 @@
   </si>
   <si>
     <t>Alatreon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大回復藥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歷戰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超級</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般資訊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式資訊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>難度係數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>難度換算後傷害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近戰承受傷害比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠程承受傷害比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>危險度評估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>體力衣裝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -714,7 +762,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -744,6 +792,14 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -762,12 +818,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,9 +839,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1094,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:T77"/>
+  <dimension ref="A2:W77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1112,23 +1178,86 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:23">
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="H2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="E3" s="2">
         <v>150</v>
       </c>
       <c r="F3" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="H3" s="2">
+        <v>70</v>
+      </c>
+      <c r="I3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="H4" s="4">
+        <f>H3/E3</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="I4" s="4">
+        <f>I3/E3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1187,10 +1316,19 @@
         <v>19</v>
       </c>
       <c r="T7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:23">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1201,7 +1339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:23">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1212,7 +1350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:23">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1223,7 +1361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:23">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1234,7 +1372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:23">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1245,7 +1383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:23">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1256,7 +1394,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:23">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1267,7 +1405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:23">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1278,7 +1416,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:23">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1961,6 +2099,15 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FF48B2-8D1A-40F8-8D53-0EDE22F0C239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6977614E-C998-4981-996F-07442307807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="179">
   <si>
     <t>英文名稱</t>
   </si>
@@ -53,15 +53,6 @@
     <t>遠程傷害</t>
   </si>
   <si>
-    <t>一般乘數</t>
-  </si>
-  <si>
-    <t>歷戰乘數</t>
-  </si>
-  <si>
-    <t>超級乘數</t>
-  </si>
-  <si>
     <t>玩家血量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -70,46 +61,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一般物理傷害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>歷戰物理傷害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超級物理傷害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>元素傷害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一般近戰傷害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>歷戰近戰傷害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超級近戰傷害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般遠程傷害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>歷戰遠程傷害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>超級遠程傷害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>附註</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -738,10 +693,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>難度換算後傷害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>近戰承受傷害比例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -750,11 +701,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>危險度評估</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>體力衣裝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般攻擊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素屬性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>難度換算後物理傷害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素傷害比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>難度換算後元素傷害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>減傷比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素抗性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>難度換算後遠程傷害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>近戰危險度評估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠程危險度評估</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -826,7 +817,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,6 +831,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1160,106 +1154,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:W77"/>
+  <dimension ref="A2:AJ395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="4" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="2" customWidth="1"/>
+    <col min="10" max="11" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="8" style="2" customWidth="1"/>
+    <col min="15" max="17" width="8.375" style="5" customWidth="1"/>
+    <col min="18" max="19" width="8.75" style="5" customWidth="1"/>
+    <col min="20" max="20" width="8.75" style="2" customWidth="1"/>
+    <col min="21" max="23" width="7.375" style="2" customWidth="1"/>
+    <col min="24" max="26" width="7.25" style="5" customWidth="1"/>
+    <col min="27" max="29" width="7.375" style="2" customWidth="1"/>
+    <col min="30" max="32" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="4.75" style="5" customWidth="1"/>
+    <col min="36" max="36" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:36">
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="E3" s="2">
         <v>150</v>
       </c>
       <c r="F3" s="2">
         <v>1000</v>
       </c>
-      <c r="H3" s="2">
+      <c r="G3" s="5">
+        <f>80/(80+F3)</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
         <v>70</v>
       </c>
-      <c r="I3" s="2">
+      <c r="K3" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="H4" s="4">
-        <f>H3/E3</f>
+    <row r="4" spans="1:36">
+      <c r="J4" s="4">
+        <f>J3/E3</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="I4" s="4">
-        <f>I3/E3</f>
+      <c r="K4" s="4">
+        <f>K3/E3</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
+    <row r="5" spans="1:36">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
@@ -1277,836 +1315,5118 @@
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="2">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2">
+        <v>33</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <f>E8*I8</f>
+        <v>192</v>
+      </c>
+      <c r="M8" s="2">
+        <f>E8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <f>E8*K8</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <f>F8*I8</f>
+        <v>264</v>
+      </c>
+      <c r="P8" s="5">
+        <f>F8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <f>F8*K8</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <f>H8*I8</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="5">
+        <f>H8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <f>H8*K8</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="4">
+        <f>L8*$G$3/$E$3</f>
+        <v>9.481481481481481E-2</v>
+      </c>
+      <c r="V8" s="4">
+        <f>M8*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
+        <f>N8*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <f>R8*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <f>S8*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="4">
+        <f>T8*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <f>O8*$G$3/$E$3</f>
+        <v>0.13037037037037036</v>
+      </c>
+      <c r="AB8" s="4">
+        <f>P8*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <f>Q8*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2" t="str">
+        <f>IF((U8+X8)&lt;($J$4/2),"低",IF((U8+X8)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE8" s="5" t="str">
+        <f>IF((V8+Y8)&lt;($J$4/2),"低",IF((V8+Y8)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF8" s="5" t="str">
+        <f>IF((W8+Z8)&lt;($J$4/2),"低",IF((W8+Z8)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG8" s="5" t="str">
+        <f>IF((X8+AA8)&lt;($J$4/2),"低",IF((X8+AA8)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AH8" s="5" t="str">
+        <f>IF((Y8+AB8)&lt;($J$4/2),"低",IF((Y8+AB8)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI8" s="5" t="str">
+        <f>IF((Z8+AC8)&lt;($J$4/2),"低",IF((Z8+AC8)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" s="5" customFormat="1">
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+    </row>
+    <row r="10" spans="1:36" s="5" customFormat="1">
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+    </row>
+    <row r="11" spans="1:36" s="5" customFormat="1">
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+    </row>
+    <row r="12" spans="1:36" s="5" customFormat="1">
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+    </row>
+    <row r="13" spans="1:36" s="5" customFormat="1">
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+    </row>
+    <row r="14" spans="1:36" s="5" customFormat="1">
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="W7" s="2" t="s">
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="2" t="s">
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+    </row>
+    <row r="39" spans="1:29">
+      <c r="A39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+    </row>
+    <row r="41" spans="1:29">
+      <c r="A41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="A47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+    </row>
+    <row r="48" spans="1:29">
+      <c r="A48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="A49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+    </row>
+    <row r="50" spans="1:29">
+      <c r="A50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+    </row>
+    <row r="51" spans="1:29">
+      <c r="A51" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+    </row>
+    <row r="52" spans="1:29">
+      <c r="A52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+    </row>
+    <row r="53" spans="1:29">
+      <c r="A53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+    </row>
+    <row r="54" spans="1:29">
+      <c r="A54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+    </row>
+    <row r="55" spans="1:29">
+      <c r="A55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+    </row>
+    <row r="56" spans="1:29">
+      <c r="A56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+    </row>
+    <row r="57" spans="1:29">
+      <c r="A57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+    </row>
+    <row r="58" spans="1:29">
+      <c r="A58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+    </row>
+    <row r="59" spans="1:29">
+      <c r="A59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+    </row>
+    <row r="60" spans="1:29">
+      <c r="A60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+    </row>
+    <row r="61" spans="1:29">
+      <c r="A61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+    </row>
+    <row r="62" spans="1:29">
+      <c r="A62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+    </row>
+    <row r="63" spans="1:29">
+      <c r="A63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+    </row>
+    <row r="64" spans="1:29">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+    </row>
+    <row r="65" spans="1:29">
+      <c r="A65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+    </row>
+    <row r="66" spans="1:29">
+      <c r="A66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+    </row>
+    <row r="67" spans="1:29">
+      <c r="A67" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+    </row>
+    <row r="68" spans="1:29">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+    </row>
+    <row r="69" spans="1:29">
+      <c r="A69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="4"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+    </row>
+    <row r="70" spans="1:29">
+      <c r="A70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+    </row>
+    <row r="71" spans="1:29">
+      <c r="A71" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="C71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+    </row>
+    <row r="72" spans="1:29">
+      <c r="A72" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+    </row>
+    <row r="73" spans="1:29">
+      <c r="A73" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="C73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+    </row>
+    <row r="74" spans="1:29">
+      <c r="A74" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+    </row>
+    <row r="75" spans="1:29">
+      <c r="A75" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="C75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+    </row>
+    <row r="76" spans="1:29">
+      <c r="A76" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+    </row>
+    <row r="77" spans="1:29">
+      <c r="A77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+    </row>
+    <row r="78" spans="1:29">
+      <c r="A78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+    </row>
+    <row r="79" spans="1:29">
+      <c r="A79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+    </row>
+    <row r="80" spans="1:29">
+      <c r="A80" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+    </row>
+    <row r="81" spans="1:29">
+      <c r="A81" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+    </row>
+    <row r="82" spans="1:29">
+      <c r="A82" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="B82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+    </row>
+    <row r="83" spans="1:29">
+      <c r="A83" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+    </row>
+    <row r="84" spans="1:29">
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="4"/>
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="4"/>
+    </row>
+    <row r="85" spans="1:29">
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="4"/>
+      <c r="AB85" s="4"/>
+      <c r="AC85" s="4"/>
+    </row>
+    <row r="86" spans="1:29">
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
+      <c r="AA86" s="4"/>
+      <c r="AB86" s="4"/>
+      <c r="AC86" s="4"/>
+    </row>
+    <row r="87" spans="1:29">
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="4"/>
+      <c r="AB87" s="4"/>
+      <c r="AC87" s="4"/>
+    </row>
+    <row r="88" spans="1:29">
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4"/>
+      <c r="AA88" s="4"/>
+      <c r="AB88" s="4"/>
+      <c r="AC88" s="4"/>
+    </row>
+    <row r="89" spans="1:29">
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="4"/>
+      <c r="AB89" s="4"/>
+      <c r="AC89" s="4"/>
+    </row>
+    <row r="90" spans="1:29">
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
+      <c r="AA90" s="4"/>
+      <c r="AB90" s="4"/>
+      <c r="AC90" s="4"/>
+    </row>
+    <row r="91" spans="1:29">
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+    </row>
+    <row r="92" spans="1:29">
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+    </row>
+    <row r="93" spans="1:29">
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="4"/>
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="4"/>
+    </row>
+    <row r="94" spans="1:29">
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" s="4"/>
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="4"/>
+    </row>
+    <row r="95" spans="1:29">
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+    </row>
+    <row r="96" spans="1:29">
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="4"/>
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="4"/>
+    </row>
+    <row r="97" spans="21:29">
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="4"/>
+    </row>
+    <row r="98" spans="21:29">
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
+      <c r="AA98" s="4"/>
+      <c r="AB98" s="4"/>
+      <c r="AC98" s="4"/>
+    </row>
+    <row r="99" spans="21:29">
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
+      <c r="AA99" s="4"/>
+      <c r="AB99" s="4"/>
+      <c r="AC99" s="4"/>
+    </row>
+    <row r="100" spans="21:29">
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
+      <c r="AA100" s="4"/>
+      <c r="AB100" s="4"/>
+      <c r="AC100" s="4"/>
+    </row>
+    <row r="101" spans="21:29">
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
+      <c r="AA101" s="4"/>
+      <c r="AB101" s="4"/>
+      <c r="AC101" s="4"/>
+    </row>
+    <row r="102" spans="21:29">
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
+      <c r="AA102" s="4"/>
+      <c r="AB102" s="4"/>
+      <c r="AC102" s="4"/>
+    </row>
+    <row r="103" spans="21:29">
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
+      <c r="AA103" s="4"/>
+      <c r="AB103" s="4"/>
+      <c r="AC103" s="4"/>
+    </row>
+    <row r="104" spans="21:29">
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4"/>
+      <c r="AA104" s="4"/>
+      <c r="AB104" s="4"/>
+      <c r="AC104" s="4"/>
+    </row>
+    <row r="105" spans="21:29">
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
+      <c r="AA105" s="4"/>
+      <c r="AB105" s="4"/>
+      <c r="AC105" s="4"/>
+    </row>
+    <row r="106" spans="21:29">
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4"/>
+      <c r="AA106" s="4"/>
+      <c r="AB106" s="4"/>
+      <c r="AC106" s="4"/>
+    </row>
+    <row r="107" spans="21:29">
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="4"/>
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="4"/>
+      <c r="AA107" s="4"/>
+      <c r="AB107" s="4"/>
+      <c r="AC107" s="4"/>
+    </row>
+    <row r="108" spans="21:29">
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4"/>
+      <c r="AA108" s="4"/>
+      <c r="AB108" s="4"/>
+      <c r="AC108" s="4"/>
+    </row>
+    <row r="109" spans="21:29">
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4"/>
+      <c r="AA109" s="4"/>
+      <c r="AB109" s="4"/>
+      <c r="AC109" s="4"/>
+    </row>
+    <row r="110" spans="21:29">
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
+      <c r="AA110" s="4"/>
+      <c r="AB110" s="4"/>
+      <c r="AC110" s="4"/>
+    </row>
+    <row r="111" spans="21:29">
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
+      <c r="AA111" s="4"/>
+      <c r="AB111" s="4"/>
+      <c r="AC111" s="4"/>
+    </row>
+    <row r="112" spans="21:29">
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="4"/>
+      <c r="AB112" s="4"/>
+      <c r="AC112" s="4"/>
+    </row>
+    <row r="113" spans="21:29">
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
+      <c r="AA113" s="4"/>
+      <c r="AB113" s="4"/>
+      <c r="AC113" s="4"/>
+    </row>
+    <row r="114" spans="21:29">
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+      <c r="AA114" s="4"/>
+      <c r="AB114" s="4"/>
+      <c r="AC114" s="4"/>
+    </row>
+    <row r="115" spans="21:29">
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
+      <c r="AA115" s="4"/>
+      <c r="AB115" s="4"/>
+      <c r="AC115" s="4"/>
+    </row>
+    <row r="116" spans="21:29">
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="4"/>
+      <c r="X116" s="4"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4"/>
+      <c r="AA116" s="4"/>
+      <c r="AB116" s="4"/>
+      <c r="AC116" s="4"/>
+    </row>
+    <row r="117" spans="21:29">
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4"/>
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4"/>
+      <c r="AA117" s="4"/>
+      <c r="AB117" s="4"/>
+      <c r="AC117" s="4"/>
+    </row>
+    <row r="118" spans="21:29">
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
+      <c r="AA118" s="4"/>
+      <c r="AB118" s="4"/>
+      <c r="AC118" s="4"/>
+    </row>
+    <row r="119" spans="21:29">
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="4"/>
+      <c r="X119" s="4"/>
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="4"/>
+      <c r="AA119" s="4"/>
+      <c r="AB119" s="4"/>
+      <c r="AC119" s="4"/>
+    </row>
+    <row r="120" spans="21:29">
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="4"/>
+      <c r="AA120" s="4"/>
+      <c r="AB120" s="4"/>
+      <c r="AC120" s="4"/>
+    </row>
+    <row r="121" spans="21:29">
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+      <c r="X121" s="4"/>
+      <c r="Y121" s="4"/>
+      <c r="Z121" s="4"/>
+      <c r="AA121" s="4"/>
+      <c r="AB121" s="4"/>
+      <c r="AC121" s="4"/>
+    </row>
+    <row r="122" spans="21:29">
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="4"/>
+      <c r="AA122" s="4"/>
+      <c r="AB122" s="4"/>
+      <c r="AC122" s="4"/>
+    </row>
+    <row r="123" spans="21:29">
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="4"/>
+      <c r="AA123" s="4"/>
+      <c r="AB123" s="4"/>
+      <c r="AC123" s="4"/>
+    </row>
+    <row r="124" spans="21:29">
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
+      <c r="AA124" s="4"/>
+      <c r="AB124" s="4"/>
+      <c r="AC124" s="4"/>
+    </row>
+    <row r="125" spans="21:29">
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="4"/>
+      <c r="AB125" s="4"/>
+      <c r="AC125" s="4"/>
+    </row>
+    <row r="126" spans="21:29">
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="4"/>
+      <c r="AA126" s="4"/>
+      <c r="AB126" s="4"/>
+      <c r="AC126" s="4"/>
+    </row>
+    <row r="127" spans="21:29">
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
+      <c r="AA127" s="4"/>
+      <c r="AB127" s="4"/>
+      <c r="AC127" s="4"/>
+    </row>
+    <row r="128" spans="21:29">
+      <c r="U128" s="4"/>
+      <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="4"/>
+      <c r="AA128" s="4"/>
+      <c r="AB128" s="4"/>
+      <c r="AC128" s="4"/>
+    </row>
+    <row r="129" spans="21:29">
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
+      <c r="AA129" s="4"/>
+      <c r="AB129" s="4"/>
+      <c r="AC129" s="4"/>
+    </row>
+    <row r="130" spans="21:29">
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="4"/>
+      <c r="AA130" s="4"/>
+      <c r="AB130" s="4"/>
+      <c r="AC130" s="4"/>
+    </row>
+    <row r="131" spans="21:29">
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="4"/>
+      <c r="AA131" s="4"/>
+      <c r="AB131" s="4"/>
+      <c r="AC131" s="4"/>
+    </row>
+    <row r="132" spans="21:29">
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+      <c r="Z132" s="4"/>
+      <c r="AA132" s="4"/>
+      <c r="AB132" s="4"/>
+      <c r="AC132" s="4"/>
+    </row>
+    <row r="133" spans="21:29">
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="4"/>
+      <c r="AA133" s="4"/>
+      <c r="AB133" s="4"/>
+      <c r="AC133" s="4"/>
+    </row>
+    <row r="134" spans="21:29">
+      <c r="U134" s="4"/>
+      <c r="V134" s="4"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
+      <c r="Z134" s="4"/>
+      <c r="AA134" s="4"/>
+      <c r="AB134" s="4"/>
+      <c r="AC134" s="4"/>
+    </row>
+    <row r="135" spans="21:29">
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
+      <c r="AA135" s="4"/>
+      <c r="AB135" s="4"/>
+      <c r="AC135" s="4"/>
+    </row>
+    <row r="136" spans="21:29">
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="4"/>
+      <c r="AA136" s="4"/>
+      <c r="AB136" s="4"/>
+      <c r="AC136" s="4"/>
+    </row>
+    <row r="137" spans="21:29">
+      <c r="U137" s="4"/>
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+      <c r="Z137" s="4"/>
+      <c r="AA137" s="4"/>
+      <c r="AB137" s="4"/>
+      <c r="AC137" s="4"/>
+    </row>
+    <row r="138" spans="21:29">
+      <c r="U138" s="4"/>
+      <c r="V138" s="4"/>
+      <c r="W138" s="4"/>
+      <c r="X138" s="4"/>
+      <c r="Y138" s="4"/>
+      <c r="Z138" s="4"/>
+      <c r="AA138" s="4"/>
+      <c r="AB138" s="4"/>
+      <c r="AC138" s="4"/>
+    </row>
+    <row r="139" spans="21:29">
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+      <c r="X139" s="4"/>
+      <c r="Y139" s="4"/>
+      <c r="Z139" s="4"/>
+      <c r="AA139" s="4"/>
+      <c r="AB139" s="4"/>
+      <c r="AC139" s="4"/>
+    </row>
+    <row r="140" spans="21:29">
+      <c r="U140" s="4"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="4"/>
+      <c r="X140" s="4"/>
+      <c r="Y140" s="4"/>
+      <c r="Z140" s="4"/>
+      <c r="AA140" s="4"/>
+      <c r="AB140" s="4"/>
+      <c r="AC140" s="4"/>
+    </row>
+    <row r="141" spans="21:29">
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="4"/>
+      <c r="X141" s="4"/>
+      <c r="Y141" s="4"/>
+      <c r="Z141" s="4"/>
+      <c r="AA141" s="4"/>
+      <c r="AB141" s="4"/>
+      <c r="AC141" s="4"/>
+    </row>
+    <row r="142" spans="21:29">
+      <c r="U142" s="4"/>
+      <c r="V142" s="4"/>
+      <c r="W142" s="4"/>
+      <c r="X142" s="4"/>
+      <c r="Y142" s="4"/>
+      <c r="Z142" s="4"/>
+      <c r="AA142" s="4"/>
+      <c r="AB142" s="4"/>
+      <c r="AC142" s="4"/>
+    </row>
+    <row r="143" spans="21:29">
+      <c r="U143" s="4"/>
+      <c r="V143" s="4"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
+      <c r="Z143" s="4"/>
+      <c r="AA143" s="4"/>
+      <c r="AB143" s="4"/>
+      <c r="AC143" s="4"/>
+    </row>
+    <row r="144" spans="21:29">
+      <c r="U144" s="4"/>
+      <c r="V144" s="4"/>
+      <c r="W144" s="4"/>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="4"/>
+      <c r="Z144" s="4"/>
+      <c r="AA144" s="4"/>
+      <c r="AB144" s="4"/>
+      <c r="AC144" s="4"/>
+    </row>
+    <row r="145" spans="21:29">
+      <c r="U145" s="4"/>
+      <c r="V145" s="4"/>
+      <c r="W145" s="4"/>
+      <c r="X145" s="4"/>
+      <c r="Y145" s="4"/>
+      <c r="Z145" s="4"/>
+      <c r="AA145" s="4"/>
+      <c r="AB145" s="4"/>
+      <c r="AC145" s="4"/>
+    </row>
+    <row r="146" spans="21:29">
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
+      <c r="Z146" s="4"/>
+      <c r="AA146" s="4"/>
+      <c r="AB146" s="4"/>
+      <c r="AC146" s="4"/>
+    </row>
+    <row r="147" spans="21:29">
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
+      <c r="Z147" s="4"/>
+      <c r="AA147" s="4"/>
+      <c r="AB147" s="4"/>
+      <c r="AC147" s="4"/>
+    </row>
+    <row r="148" spans="21:29">
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
+      <c r="Z148" s="4"/>
+      <c r="AA148" s="4"/>
+      <c r="AB148" s="4"/>
+      <c r="AC148" s="4"/>
+    </row>
+    <row r="149" spans="21:29">
+      <c r="U149" s="4"/>
+      <c r="V149" s="4"/>
+      <c r="W149" s="4"/>
+      <c r="X149" s="4"/>
+      <c r="Y149" s="4"/>
+      <c r="Z149" s="4"/>
+      <c r="AA149" s="4"/>
+      <c r="AB149" s="4"/>
+      <c r="AC149" s="4"/>
+    </row>
+    <row r="150" spans="21:29">
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+      <c r="Y150" s="4"/>
+      <c r="Z150" s="4"/>
+      <c r="AA150" s="4"/>
+      <c r="AB150" s="4"/>
+      <c r="AC150" s="4"/>
+    </row>
+    <row r="151" spans="21:29">
+      <c r="U151" s="4"/>
+      <c r="V151" s="4"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="4"/>
+      <c r="Z151" s="4"/>
+      <c r="AA151" s="4"/>
+      <c r="AB151" s="4"/>
+      <c r="AC151" s="4"/>
+    </row>
+    <row r="152" spans="21:29">
+      <c r="U152" s="4"/>
+      <c r="V152" s="4"/>
+      <c r="W152" s="4"/>
+      <c r="X152" s="4"/>
+      <c r="Y152" s="4"/>
+      <c r="Z152" s="4"/>
+      <c r="AA152" s="4"/>
+      <c r="AB152" s="4"/>
+      <c r="AC152" s="4"/>
+    </row>
+    <row r="153" spans="21:29">
+      <c r="U153" s="4"/>
+      <c r="V153" s="4"/>
+      <c r="W153" s="4"/>
+      <c r="X153" s="4"/>
+      <c r="Y153" s="4"/>
+      <c r="Z153" s="4"/>
+      <c r="AA153" s="4"/>
+      <c r="AB153" s="4"/>
+      <c r="AC153" s="4"/>
+    </row>
+    <row r="154" spans="21:29">
+      <c r="U154" s="4"/>
+      <c r="V154" s="4"/>
+      <c r="W154" s="4"/>
+      <c r="X154" s="4"/>
+      <c r="Y154" s="4"/>
+      <c r="Z154" s="4"/>
+      <c r="AA154" s="4"/>
+      <c r="AB154" s="4"/>
+      <c r="AC154" s="4"/>
+    </row>
+    <row r="155" spans="21:29">
+      <c r="U155" s="4"/>
+      <c r="V155" s="4"/>
+      <c r="W155" s="4"/>
+      <c r="X155" s="4"/>
+      <c r="Y155" s="4"/>
+      <c r="Z155" s="4"/>
+      <c r="AA155" s="4"/>
+      <c r="AB155" s="4"/>
+      <c r="AC155" s="4"/>
+    </row>
+    <row r="156" spans="21:29">
+      <c r="U156" s="4"/>
+      <c r="V156" s="4"/>
+      <c r="W156" s="4"/>
+      <c r="X156" s="4"/>
+      <c r="Y156" s="4"/>
+      <c r="Z156" s="4"/>
+      <c r="AA156" s="4"/>
+      <c r="AB156" s="4"/>
+      <c r="AC156" s="4"/>
+    </row>
+    <row r="157" spans="21:29">
+      <c r="U157" s="4"/>
+      <c r="V157" s="4"/>
+      <c r="W157" s="4"/>
+      <c r="X157" s="4"/>
+      <c r="Y157" s="4"/>
+      <c r="Z157" s="4"/>
+      <c r="AA157" s="4"/>
+      <c r="AB157" s="4"/>
+      <c r="AC157" s="4"/>
+    </row>
+    <row r="158" spans="21:29">
+      <c r="U158" s="4"/>
+      <c r="V158" s="4"/>
+      <c r="W158" s="4"/>
+      <c r="X158" s="4"/>
+      <c r="Y158" s="4"/>
+      <c r="Z158" s="4"/>
+      <c r="AA158" s="4"/>
+      <c r="AB158" s="4"/>
+      <c r="AC158" s="4"/>
+    </row>
+    <row r="159" spans="21:29">
+      <c r="U159" s="4"/>
+      <c r="V159" s="4"/>
+      <c r="W159" s="4"/>
+      <c r="X159" s="4"/>
+      <c r="Y159" s="4"/>
+      <c r="Z159" s="4"/>
+      <c r="AA159" s="4"/>
+      <c r="AB159" s="4"/>
+      <c r="AC159" s="4"/>
+    </row>
+    <row r="160" spans="21:29">
+      <c r="U160" s="4"/>
+      <c r="V160" s="4"/>
+      <c r="W160" s="4"/>
+      <c r="X160" s="4"/>
+      <c r="Y160" s="4"/>
+      <c r="Z160" s="4"/>
+      <c r="AA160" s="4"/>
+      <c r="AB160" s="4"/>
+      <c r="AC160" s="4"/>
+    </row>
+    <row r="161" spans="21:29">
+      <c r="U161" s="4"/>
+      <c r="V161" s="4"/>
+      <c r="W161" s="4"/>
+      <c r="X161" s="4"/>
+      <c r="Y161" s="4"/>
+      <c r="Z161" s="4"/>
+      <c r="AA161" s="4"/>
+      <c r="AB161" s="4"/>
+      <c r="AC161" s="4"/>
+    </row>
+    <row r="162" spans="21:29">
+      <c r="U162" s="4"/>
+      <c r="V162" s="4"/>
+      <c r="W162" s="4"/>
+      <c r="X162" s="4"/>
+      <c r="Y162" s="4"/>
+      <c r="Z162" s="4"/>
+      <c r="AA162" s="4"/>
+      <c r="AB162" s="4"/>
+      <c r="AC162" s="4"/>
+    </row>
+    <row r="163" spans="21:29">
+      <c r="U163" s="4"/>
+      <c r="V163" s="4"/>
+      <c r="W163" s="4"/>
+      <c r="X163" s="4"/>
+      <c r="Y163" s="4"/>
+      <c r="Z163" s="4"/>
+      <c r="AA163" s="4"/>
+      <c r="AB163" s="4"/>
+      <c r="AC163" s="4"/>
+    </row>
+    <row r="164" spans="21:29">
+      <c r="U164" s="4"/>
+      <c r="V164" s="4"/>
+      <c r="W164" s="4"/>
+      <c r="X164" s="4"/>
+      <c r="Y164" s="4"/>
+      <c r="Z164" s="4"/>
+      <c r="AA164" s="4"/>
+      <c r="AB164" s="4"/>
+      <c r="AC164" s="4"/>
+    </row>
+    <row r="165" spans="21:29">
+      <c r="U165" s="4"/>
+      <c r="V165" s="4"/>
+      <c r="W165" s="4"/>
+      <c r="X165" s="4"/>
+      <c r="Y165" s="4"/>
+      <c r="Z165" s="4"/>
+      <c r="AA165" s="4"/>
+      <c r="AB165" s="4"/>
+      <c r="AC165" s="4"/>
+    </row>
+    <row r="166" spans="21:29">
+      <c r="U166" s="4"/>
+      <c r="V166" s="4"/>
+      <c r="W166" s="4"/>
+      <c r="X166" s="4"/>
+      <c r="Y166" s="4"/>
+      <c r="Z166" s="4"/>
+      <c r="AA166" s="4"/>
+      <c r="AB166" s="4"/>
+      <c r="AC166" s="4"/>
+    </row>
+    <row r="167" spans="21:29">
+      <c r="U167" s="4"/>
+      <c r="V167" s="4"/>
+      <c r="W167" s="4"/>
+      <c r="X167" s="4"/>
+      <c r="Y167" s="4"/>
+      <c r="Z167" s="4"/>
+      <c r="AA167" s="4"/>
+      <c r="AB167" s="4"/>
+      <c r="AC167" s="4"/>
+    </row>
+    <row r="168" spans="21:29">
+      <c r="U168" s="4"/>
+      <c r="V168" s="4"/>
+      <c r="W168" s="4"/>
+      <c r="X168" s="4"/>
+      <c r="Y168" s="4"/>
+      <c r="Z168" s="4"/>
+      <c r="AA168" s="4"/>
+      <c r="AB168" s="4"/>
+      <c r="AC168" s="4"/>
+    </row>
+    <row r="169" spans="21:29">
+      <c r="U169" s="4"/>
+      <c r="V169" s="4"/>
+      <c r="W169" s="4"/>
+      <c r="X169" s="4"/>
+      <c r="Y169" s="4"/>
+      <c r="Z169" s="4"/>
+      <c r="AA169" s="4"/>
+      <c r="AB169" s="4"/>
+      <c r="AC169" s="4"/>
+    </row>
+    <row r="170" spans="21:29">
+      <c r="U170" s="4"/>
+      <c r="V170" s="4"/>
+      <c r="W170" s="4"/>
+      <c r="X170" s="4"/>
+      <c r="Y170" s="4"/>
+      <c r="Z170" s="4"/>
+      <c r="AA170" s="4"/>
+      <c r="AB170" s="4"/>
+      <c r="AC170" s="4"/>
+    </row>
+    <row r="171" spans="21:29">
+      <c r="U171" s="4"/>
+      <c r="V171" s="4"/>
+      <c r="W171" s="4"/>
+      <c r="X171" s="4"/>
+      <c r="Y171" s="4"/>
+      <c r="Z171" s="4"/>
+      <c r="AA171" s="4"/>
+      <c r="AB171" s="4"/>
+      <c r="AC171" s="4"/>
+    </row>
+    <row r="172" spans="21:29">
+      <c r="U172" s="4"/>
+      <c r="V172" s="4"/>
+      <c r="W172" s="4"/>
+      <c r="X172" s="4"/>
+      <c r="Y172" s="4"/>
+      <c r="Z172" s="4"/>
+      <c r="AA172" s="4"/>
+      <c r="AB172" s="4"/>
+      <c r="AC172" s="4"/>
+    </row>
+    <row r="173" spans="21:29">
+      <c r="U173" s="4"/>
+      <c r="V173" s="4"/>
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+      <c r="Y173" s="4"/>
+      <c r="Z173" s="4"/>
+      <c r="AA173" s="4"/>
+      <c r="AB173" s="4"/>
+      <c r="AC173" s="4"/>
+    </row>
+    <row r="174" spans="21:29">
+      <c r="U174" s="4"/>
+      <c r="V174" s="4"/>
+      <c r="W174" s="4"/>
+      <c r="X174" s="4"/>
+      <c r="Y174" s="4"/>
+      <c r="Z174" s="4"/>
+      <c r="AA174" s="4"/>
+      <c r="AB174" s="4"/>
+      <c r="AC174" s="4"/>
+    </row>
+    <row r="175" spans="21:29">
+      <c r="U175" s="4"/>
+      <c r="V175" s="4"/>
+      <c r="W175" s="4"/>
+      <c r="X175" s="4"/>
+      <c r="Y175" s="4"/>
+      <c r="Z175" s="4"/>
+      <c r="AA175" s="4"/>
+      <c r="AB175" s="4"/>
+      <c r="AC175" s="4"/>
+    </row>
+    <row r="176" spans="21:29">
+      <c r="U176" s="4"/>
+      <c r="V176" s="4"/>
+      <c r="W176" s="4"/>
+      <c r="X176" s="4"/>
+      <c r="Y176" s="4"/>
+      <c r="Z176" s="4"/>
+      <c r="AA176" s="4"/>
+      <c r="AB176" s="4"/>
+      <c r="AC176" s="4"/>
+    </row>
+    <row r="177" spans="21:29">
+      <c r="U177" s="4"/>
+      <c r="V177" s="4"/>
+      <c r="W177" s="4"/>
+      <c r="X177" s="4"/>
+      <c r="Y177" s="4"/>
+      <c r="Z177" s="4"/>
+      <c r="AA177" s="4"/>
+      <c r="AB177" s="4"/>
+      <c r="AC177" s="4"/>
+    </row>
+    <row r="178" spans="21:29">
+      <c r="U178" s="4"/>
+      <c r="V178" s="4"/>
+      <c r="W178" s="4"/>
+      <c r="X178" s="4"/>
+      <c r="Y178" s="4"/>
+      <c r="Z178" s="4"/>
+      <c r="AA178" s="4"/>
+      <c r="AB178" s="4"/>
+      <c r="AC178" s="4"/>
+    </row>
+    <row r="179" spans="21:29">
+      <c r="U179" s="4"/>
+      <c r="V179" s="4"/>
+      <c r="W179" s="4"/>
+      <c r="X179" s="4"/>
+      <c r="Y179" s="4"/>
+      <c r="Z179" s="4"/>
+      <c r="AA179" s="4"/>
+      <c r="AB179" s="4"/>
+      <c r="AC179" s="4"/>
+    </row>
+    <row r="180" spans="21:29">
+      <c r="U180" s="4"/>
+      <c r="V180" s="4"/>
+      <c r="W180" s="4"/>
+      <c r="X180" s="4"/>
+      <c r="Y180" s="4"/>
+      <c r="Z180" s="4"/>
+      <c r="AA180" s="4"/>
+      <c r="AB180" s="4"/>
+      <c r="AC180" s="4"/>
+    </row>
+    <row r="181" spans="21:29">
+      <c r="U181" s="4"/>
+      <c r="V181" s="4"/>
+      <c r="W181" s="4"/>
+      <c r="X181" s="4"/>
+      <c r="Y181" s="4"/>
+      <c r="Z181" s="4"/>
+      <c r="AA181" s="4"/>
+      <c r="AB181" s="4"/>
+      <c r="AC181" s="4"/>
+    </row>
+    <row r="182" spans="21:29">
+      <c r="U182" s="4"/>
+      <c r="V182" s="4"/>
+      <c r="W182" s="4"/>
+      <c r="X182" s="4"/>
+      <c r="Y182" s="4"/>
+      <c r="Z182" s="4"/>
+      <c r="AA182" s="4"/>
+      <c r="AB182" s="4"/>
+      <c r="AC182" s="4"/>
+    </row>
+    <row r="183" spans="21:29">
+      <c r="U183" s="4"/>
+      <c r="V183" s="4"/>
+      <c r="W183" s="4"/>
+      <c r="X183" s="4"/>
+      <c r="Y183" s="4"/>
+      <c r="Z183" s="4"/>
+      <c r="AA183" s="4"/>
+      <c r="AB183" s="4"/>
+      <c r="AC183" s="4"/>
+    </row>
+    <row r="184" spans="21:29">
+      <c r="U184" s="4"/>
+      <c r="V184" s="4"/>
+      <c r="W184" s="4"/>
+      <c r="X184" s="4"/>
+      <c r="Y184" s="4"/>
+      <c r="Z184" s="4"/>
+      <c r="AA184" s="4"/>
+      <c r="AB184" s="4"/>
+      <c r="AC184" s="4"/>
+    </row>
+    <row r="185" spans="21:29">
+      <c r="U185" s="4"/>
+      <c r="V185" s="4"/>
+      <c r="W185" s="4"/>
+      <c r="X185" s="4"/>
+      <c r="Y185" s="4"/>
+      <c r="Z185" s="4"/>
+      <c r="AA185" s="4"/>
+      <c r="AB185" s="4"/>
+      <c r="AC185" s="4"/>
+    </row>
+    <row r="186" spans="21:29">
+      <c r="U186" s="4"/>
+      <c r="V186" s="4"/>
+      <c r="W186" s="4"/>
+      <c r="X186" s="4"/>
+      <c r="Y186" s="4"/>
+      <c r="Z186" s="4"/>
+      <c r="AA186" s="4"/>
+      <c r="AB186" s="4"/>
+      <c r="AC186" s="4"/>
+    </row>
+    <row r="187" spans="21:29">
+      <c r="U187" s="4"/>
+      <c r="V187" s="4"/>
+      <c r="W187" s="4"/>
+      <c r="X187" s="4"/>
+      <c r="Y187" s="4"/>
+      <c r="Z187" s="4"/>
+      <c r="AA187" s="4"/>
+      <c r="AB187" s="4"/>
+      <c r="AC187" s="4"/>
+    </row>
+    <row r="188" spans="21:29">
+      <c r="U188" s="4"/>
+      <c r="V188" s="4"/>
+      <c r="W188" s="4"/>
+      <c r="X188" s="4"/>
+      <c r="Y188" s="4"/>
+      <c r="Z188" s="4"/>
+      <c r="AA188" s="4"/>
+      <c r="AB188" s="4"/>
+      <c r="AC188" s="4"/>
+    </row>
+    <row r="189" spans="21:29">
+      <c r="U189" s="4"/>
+      <c r="V189" s="4"/>
+      <c r="W189" s="4"/>
+      <c r="X189" s="4"/>
+      <c r="Y189" s="4"/>
+      <c r="Z189" s="4"/>
+      <c r="AA189" s="4"/>
+      <c r="AB189" s="4"/>
+      <c r="AC189" s="4"/>
+    </row>
+    <row r="190" spans="21:29">
+      <c r="U190" s="4"/>
+      <c r="V190" s="4"/>
+      <c r="W190" s="4"/>
+      <c r="X190" s="4"/>
+      <c r="Y190" s="4"/>
+      <c r="Z190" s="4"/>
+      <c r="AA190" s="4"/>
+      <c r="AB190" s="4"/>
+      <c r="AC190" s="4"/>
+    </row>
+    <row r="191" spans="21:29">
+      <c r="U191" s="4"/>
+      <c r="V191" s="4"/>
+      <c r="W191" s="4"/>
+      <c r="X191" s="4"/>
+      <c r="Y191" s="4"/>
+      <c r="Z191" s="4"/>
+      <c r="AA191" s="4"/>
+      <c r="AB191" s="4"/>
+      <c r="AC191" s="4"/>
+    </row>
+    <row r="192" spans="21:29">
+      <c r="U192" s="4"/>
+      <c r="V192" s="4"/>
+      <c r="W192" s="4"/>
+      <c r="X192" s="4"/>
+      <c r="Y192" s="4"/>
+      <c r="Z192" s="4"/>
+      <c r="AA192" s="4"/>
+      <c r="AB192" s="4"/>
+      <c r="AC192" s="4"/>
+    </row>
+    <row r="193" spans="21:29">
+      <c r="U193" s="4"/>
+      <c r="V193" s="4"/>
+      <c r="W193" s="4"/>
+      <c r="X193" s="4"/>
+      <c r="Y193" s="4"/>
+      <c r="Z193" s="4"/>
+      <c r="AA193" s="4"/>
+      <c r="AB193" s="4"/>
+      <c r="AC193" s="4"/>
+    </row>
+    <row r="194" spans="21:29">
+      <c r="U194" s="4"/>
+      <c r="V194" s="4"/>
+      <c r="W194" s="4"/>
+      <c r="X194" s="4"/>
+      <c r="Y194" s="4"/>
+      <c r="Z194" s="4"/>
+      <c r="AA194" s="4"/>
+      <c r="AB194" s="4"/>
+      <c r="AC194" s="4"/>
+    </row>
+    <row r="195" spans="21:29">
+      <c r="U195" s="4"/>
+      <c r="V195" s="4"/>
+      <c r="W195" s="4"/>
+      <c r="X195" s="4"/>
+      <c r="Y195" s="4"/>
+      <c r="Z195" s="4"/>
+      <c r="AA195" s="4"/>
+      <c r="AB195" s="4"/>
+      <c r="AC195" s="4"/>
+    </row>
+    <row r="196" spans="21:29">
+      <c r="U196" s="4"/>
+      <c r="V196" s="4"/>
+      <c r="W196" s="4"/>
+      <c r="X196" s="4"/>
+      <c r="Y196" s="4"/>
+      <c r="Z196" s="4"/>
+      <c r="AA196" s="4"/>
+      <c r="AB196" s="4"/>
+      <c r="AC196" s="4"/>
+    </row>
+    <row r="197" spans="21:29">
+      <c r="U197" s="4"/>
+      <c r="V197" s="4"/>
+      <c r="W197" s="4"/>
+      <c r="X197" s="4"/>
+      <c r="Y197" s="4"/>
+      <c r="Z197" s="4"/>
+      <c r="AA197" s="4"/>
+      <c r="AB197" s="4"/>
+      <c r="AC197" s="4"/>
+    </row>
+    <row r="198" spans="21:29">
+      <c r="U198" s="4"/>
+      <c r="V198" s="4"/>
+      <c r="W198" s="4"/>
+      <c r="X198" s="4"/>
+      <c r="Y198" s="4"/>
+      <c r="Z198" s="4"/>
+      <c r="AA198" s="4"/>
+      <c r="AB198" s="4"/>
+      <c r="AC198" s="4"/>
+    </row>
+    <row r="199" spans="21:29">
+      <c r="U199" s="4"/>
+      <c r="V199" s="4"/>
+      <c r="W199" s="4"/>
+      <c r="X199" s="4"/>
+      <c r="Y199" s="4"/>
+      <c r="Z199" s="4"/>
+      <c r="AA199" s="4"/>
+      <c r="AB199" s="4"/>
+      <c r="AC199" s="4"/>
+    </row>
+    <row r="200" spans="21:29">
+      <c r="U200" s="4"/>
+      <c r="V200" s="4"/>
+      <c r="W200" s="4"/>
+      <c r="X200" s="4"/>
+      <c r="Y200" s="4"/>
+      <c r="Z200" s="4"/>
+      <c r="AA200" s="4"/>
+      <c r="AB200" s="4"/>
+      <c r="AC200" s="4"/>
+    </row>
+    <row r="201" spans="21:29">
+      <c r="U201" s="4"/>
+      <c r="V201" s="4"/>
+      <c r="W201" s="4"/>
+      <c r="X201" s="4"/>
+      <c r="Y201" s="4"/>
+      <c r="Z201" s="4"/>
+      <c r="AA201" s="4"/>
+      <c r="AB201" s="4"/>
+      <c r="AC201" s="4"/>
+    </row>
+    <row r="202" spans="21:29">
+      <c r="U202" s="4"/>
+      <c r="V202" s="4"/>
+      <c r="W202" s="4"/>
+      <c r="X202" s="4"/>
+      <c r="Y202" s="4"/>
+      <c r="Z202" s="4"/>
+      <c r="AA202" s="4"/>
+      <c r="AB202" s="4"/>
+      <c r="AC202" s="4"/>
+    </row>
+    <row r="203" spans="21:29">
+      <c r="U203" s="4"/>
+      <c r="V203" s="4"/>
+      <c r="W203" s="4"/>
+      <c r="X203" s="4"/>
+      <c r="Y203" s="4"/>
+      <c r="Z203" s="4"/>
+      <c r="AA203" s="4"/>
+      <c r="AB203" s="4"/>
+      <c r="AC203" s="4"/>
+    </row>
+    <row r="204" spans="21:29">
+      <c r="U204" s="4"/>
+      <c r="V204" s="4"/>
+      <c r="W204" s="4"/>
+      <c r="X204" s="4"/>
+      <c r="Y204" s="4"/>
+      <c r="Z204" s="4"/>
+      <c r="AA204" s="4"/>
+      <c r="AB204" s="4"/>
+      <c r="AC204" s="4"/>
+    </row>
+    <row r="205" spans="21:29">
+      <c r="U205" s="4"/>
+      <c r="V205" s="4"/>
+      <c r="W205" s="4"/>
+      <c r="X205" s="4"/>
+      <c r="Y205" s="4"/>
+      <c r="Z205" s="4"/>
+      <c r="AA205" s="4"/>
+      <c r="AB205" s="4"/>
+      <c r="AC205" s="4"/>
+    </row>
+    <row r="206" spans="21:29">
+      <c r="U206" s="4"/>
+      <c r="V206" s="4"/>
+      <c r="W206" s="4"/>
+      <c r="X206" s="4"/>
+      <c r="Y206" s="4"/>
+      <c r="Z206" s="4"/>
+      <c r="AA206" s="4"/>
+      <c r="AB206" s="4"/>
+      <c r="AC206" s="4"/>
+    </row>
+    <row r="207" spans="21:29">
+      <c r="U207" s="4"/>
+      <c r="V207" s="4"/>
+      <c r="W207" s="4"/>
+      <c r="X207" s="4"/>
+      <c r="Y207" s="4"/>
+      <c r="Z207" s="4"/>
+      <c r="AA207" s="4"/>
+      <c r="AB207" s="4"/>
+      <c r="AC207" s="4"/>
+    </row>
+    <row r="208" spans="21:29">
+      <c r="U208" s="4"/>
+      <c r="V208" s="4"/>
+      <c r="W208" s="4"/>
+      <c r="X208" s="4"/>
+      <c r="Y208" s="4"/>
+      <c r="Z208" s="4"/>
+      <c r="AA208" s="4"/>
+      <c r="AB208" s="4"/>
+      <c r="AC208" s="4"/>
+    </row>
+    <row r="209" spans="21:29">
+      <c r="U209" s="4"/>
+      <c r="V209" s="4"/>
+      <c r="W209" s="4"/>
+      <c r="X209" s="4"/>
+      <c r="Y209" s="4"/>
+      <c r="Z209" s="4"/>
+      <c r="AA209" s="4"/>
+      <c r="AB209" s="4"/>
+      <c r="AC209" s="4"/>
+    </row>
+    <row r="210" spans="21:29">
+      <c r="U210" s="4"/>
+      <c r="V210" s="4"/>
+      <c r="W210" s="4"/>
+      <c r="X210" s="4"/>
+      <c r="Y210" s="4"/>
+      <c r="Z210" s="4"/>
+      <c r="AA210" s="4"/>
+      <c r="AB210" s="4"/>
+      <c r="AC210" s="4"/>
+    </row>
+    <row r="211" spans="21:29">
+      <c r="U211" s="4"/>
+      <c r="V211" s="4"/>
+      <c r="W211" s="4"/>
+      <c r="X211" s="4"/>
+      <c r="Y211" s="4"/>
+      <c r="Z211" s="4"/>
+      <c r="AA211" s="4"/>
+      <c r="AB211" s="4"/>
+      <c r="AC211" s="4"/>
+    </row>
+    <row r="212" spans="21:29">
+      <c r="U212" s="4"/>
+      <c r="V212" s="4"/>
+      <c r="W212" s="4"/>
+      <c r="X212" s="4"/>
+      <c r="Y212" s="4"/>
+      <c r="Z212" s="4"/>
+      <c r="AA212" s="4"/>
+      <c r="AB212" s="4"/>
+      <c r="AC212" s="4"/>
+    </row>
+    <row r="213" spans="21:29">
+      <c r="U213" s="4"/>
+      <c r="V213" s="4"/>
+      <c r="W213" s="4"/>
+      <c r="X213" s="4"/>
+      <c r="Y213" s="4"/>
+      <c r="Z213" s="4"/>
+      <c r="AA213" s="4"/>
+      <c r="AB213" s="4"/>
+      <c r="AC213" s="4"/>
+    </row>
+    <row r="214" spans="21:29">
+      <c r="U214" s="4"/>
+      <c r="V214" s="4"/>
+      <c r="W214" s="4"/>
+      <c r="X214" s="4"/>
+      <c r="Y214" s="4"/>
+      <c r="Z214" s="4"/>
+      <c r="AA214" s="4"/>
+      <c r="AB214" s="4"/>
+      <c r="AC214" s="4"/>
+    </row>
+    <row r="215" spans="21:29">
+      <c r="U215" s="4"/>
+      <c r="V215" s="4"/>
+      <c r="W215" s="4"/>
+      <c r="X215" s="4"/>
+      <c r="Y215" s="4"/>
+      <c r="Z215" s="4"/>
+      <c r="AA215" s="4"/>
+      <c r="AB215" s="4"/>
+      <c r="AC215" s="4"/>
+    </row>
+    <row r="216" spans="21:29">
+      <c r="U216" s="4"/>
+      <c r="V216" s="4"/>
+      <c r="W216" s="4"/>
+      <c r="X216" s="4"/>
+      <c r="Y216" s="4"/>
+      <c r="Z216" s="4"/>
+      <c r="AA216" s="4"/>
+      <c r="AB216" s="4"/>
+      <c r="AC216" s="4"/>
+    </row>
+    <row r="217" spans="21:29">
+      <c r="U217" s="4"/>
+      <c r="V217" s="4"/>
+      <c r="W217" s="4"/>
+      <c r="X217" s="4"/>
+      <c r="Y217" s="4"/>
+      <c r="Z217" s="4"/>
+      <c r="AA217" s="4"/>
+      <c r="AB217" s="4"/>
+      <c r="AC217" s="4"/>
+    </row>
+    <row r="218" spans="21:29">
+      <c r="U218" s="4"/>
+      <c r="V218" s="4"/>
+      <c r="W218" s="4"/>
+      <c r="X218" s="4"/>
+      <c r="Y218" s="4"/>
+      <c r="Z218" s="4"/>
+      <c r="AA218" s="4"/>
+      <c r="AB218" s="4"/>
+      <c r="AC218" s="4"/>
+    </row>
+    <row r="219" spans="21:29">
+      <c r="U219" s="4"/>
+      <c r="V219" s="4"/>
+      <c r="W219" s="4"/>
+      <c r="X219" s="4"/>
+      <c r="Y219" s="4"/>
+      <c r="Z219" s="4"/>
+      <c r="AA219" s="4"/>
+      <c r="AB219" s="4"/>
+      <c r="AC219" s="4"/>
+    </row>
+    <row r="220" spans="21:29">
+      <c r="U220" s="4"/>
+      <c r="V220" s="4"/>
+      <c r="W220" s="4"/>
+      <c r="X220" s="4"/>
+      <c r="Y220" s="4"/>
+      <c r="Z220" s="4"/>
+      <c r="AA220" s="4"/>
+      <c r="AB220" s="4"/>
+      <c r="AC220" s="4"/>
+    </row>
+    <row r="221" spans="21:29">
+      <c r="U221" s="4"/>
+      <c r="V221" s="4"/>
+      <c r="W221" s="4"/>
+      <c r="X221" s="4"/>
+      <c r="Y221" s="4"/>
+      <c r="Z221" s="4"/>
+      <c r="AA221" s="4"/>
+      <c r="AB221" s="4"/>
+      <c r="AC221" s="4"/>
+    </row>
+    <row r="222" spans="21:29">
+      <c r="U222" s="4"/>
+      <c r="V222" s="4"/>
+      <c r="W222" s="4"/>
+      <c r="X222" s="4"/>
+      <c r="Y222" s="4"/>
+      <c r="Z222" s="4"/>
+      <c r="AA222" s="4"/>
+      <c r="AB222" s="4"/>
+      <c r="AC222" s="4"/>
+    </row>
+    <row r="223" spans="21:29">
+      <c r="U223" s="4"/>
+      <c r="V223" s="4"/>
+      <c r="W223" s="4"/>
+      <c r="X223" s="4"/>
+      <c r="Y223" s="4"/>
+      <c r="Z223" s="4"/>
+      <c r="AA223" s="4"/>
+      <c r="AB223" s="4"/>
+      <c r="AC223" s="4"/>
+    </row>
+    <row r="224" spans="21:29">
+      <c r="U224" s="4"/>
+      <c r="V224" s="4"/>
+      <c r="W224" s="4"/>
+      <c r="X224" s="4"/>
+      <c r="Y224" s="4"/>
+      <c r="Z224" s="4"/>
+      <c r="AA224" s="4"/>
+      <c r="AB224" s="4"/>
+      <c r="AC224" s="4"/>
+    </row>
+    <row r="225" spans="21:29">
+      <c r="U225" s="4"/>
+      <c r="V225" s="4"/>
+      <c r="W225" s="4"/>
+      <c r="X225" s="4"/>
+      <c r="Y225" s="4"/>
+      <c r="Z225" s="4"/>
+      <c r="AA225" s="4"/>
+      <c r="AB225" s="4"/>
+      <c r="AC225" s="4"/>
+    </row>
+    <row r="226" spans="21:29">
+      <c r="U226" s="4"/>
+      <c r="V226" s="4"/>
+      <c r="W226" s="4"/>
+      <c r="X226" s="4"/>
+      <c r="Y226" s="4"/>
+      <c r="Z226" s="4"/>
+      <c r="AA226" s="4"/>
+      <c r="AB226" s="4"/>
+      <c r="AC226" s="4"/>
+    </row>
+    <row r="227" spans="21:29">
+      <c r="U227" s="4"/>
+      <c r="V227" s="4"/>
+      <c r="W227" s="4"/>
+      <c r="X227" s="4"/>
+      <c r="Y227" s="4"/>
+      <c r="Z227" s="4"/>
+      <c r="AA227" s="4"/>
+      <c r="AB227" s="4"/>
+      <c r="AC227" s="4"/>
+    </row>
+    <row r="228" spans="21:29">
+      <c r="U228" s="4"/>
+      <c r="V228" s="4"/>
+      <c r="W228" s="4"/>
+      <c r="X228" s="4"/>
+      <c r="Y228" s="4"/>
+      <c r="Z228" s="4"/>
+      <c r="AA228" s="4"/>
+      <c r="AB228" s="4"/>
+      <c r="AC228" s="4"/>
+    </row>
+    <row r="229" spans="21:29">
+      <c r="U229" s="4"/>
+      <c r="V229" s="4"/>
+      <c r="W229" s="4"/>
+      <c r="X229" s="4"/>
+      <c r="Y229" s="4"/>
+      <c r="Z229" s="4"/>
+      <c r="AA229" s="4"/>
+      <c r="AB229" s="4"/>
+      <c r="AC229" s="4"/>
+    </row>
+    <row r="230" spans="21:29">
+      <c r="U230" s="4"/>
+      <c r="V230" s="4"/>
+      <c r="W230" s="4"/>
+      <c r="X230" s="4"/>
+      <c r="Y230" s="4"/>
+      <c r="Z230" s="4"/>
+      <c r="AA230" s="4"/>
+      <c r="AB230" s="4"/>
+      <c r="AC230" s="4"/>
+    </row>
+    <row r="231" spans="21:29">
+      <c r="U231" s="4"/>
+      <c r="V231" s="4"/>
+      <c r="W231" s="4"/>
+      <c r="X231" s="4"/>
+      <c r="Y231" s="4"/>
+      <c r="Z231" s="4"/>
+      <c r="AA231" s="4"/>
+      <c r="AB231" s="4"/>
+      <c r="AC231" s="4"/>
+    </row>
+    <row r="232" spans="21:29">
+      <c r="U232" s="4"/>
+      <c r="V232" s="4"/>
+      <c r="W232" s="4"/>
+      <c r="X232" s="4"/>
+      <c r="Y232" s="4"/>
+      <c r="Z232" s="4"/>
+      <c r="AA232" s="4"/>
+      <c r="AB232" s="4"/>
+      <c r="AC232" s="4"/>
+    </row>
+    <row r="233" spans="21:29">
+      <c r="U233" s="4"/>
+      <c r="V233" s="4"/>
+      <c r="W233" s="4"/>
+      <c r="X233" s="4"/>
+      <c r="Y233" s="4"/>
+      <c r="Z233" s="4"/>
+      <c r="AA233" s="4"/>
+      <c r="AB233" s="4"/>
+      <c r="AC233" s="4"/>
+    </row>
+    <row r="234" spans="21:29">
+      <c r="U234" s="4"/>
+      <c r="V234" s="4"/>
+      <c r="W234" s="4"/>
+      <c r="X234" s="4"/>
+      <c r="Y234" s="4"/>
+      <c r="Z234" s="4"/>
+      <c r="AA234" s="4"/>
+      <c r="AB234" s="4"/>
+      <c r="AC234" s="4"/>
+    </row>
+    <row r="235" spans="21:29">
+      <c r="U235" s="4"/>
+      <c r="V235" s="4"/>
+      <c r="W235" s="4"/>
+      <c r="X235" s="4"/>
+      <c r="Y235" s="4"/>
+      <c r="Z235" s="4"/>
+      <c r="AA235" s="4"/>
+      <c r="AB235" s="4"/>
+      <c r="AC235" s="4"/>
+    </row>
+    <row r="236" spans="21:29">
+      <c r="U236" s="4"/>
+      <c r="V236" s="4"/>
+      <c r="W236" s="4"/>
+      <c r="X236" s="4"/>
+      <c r="Y236" s="4"/>
+      <c r="Z236" s="4"/>
+      <c r="AA236" s="4"/>
+      <c r="AB236" s="4"/>
+      <c r="AC236" s="4"/>
+    </row>
+    <row r="237" spans="21:29">
+      <c r="U237" s="4"/>
+      <c r="V237" s="4"/>
+      <c r="W237" s="4"/>
+      <c r="X237" s="4"/>
+      <c r="Y237" s="4"/>
+      <c r="Z237" s="4"/>
+      <c r="AA237" s="4"/>
+      <c r="AB237" s="4"/>
+      <c r="AC237" s="4"/>
+    </row>
+    <row r="238" spans="21:29">
+      <c r="U238" s="4"/>
+      <c r="V238" s="4"/>
+      <c r="W238" s="4"/>
+      <c r="X238" s="4"/>
+      <c r="Y238" s="4"/>
+      <c r="Z238" s="4"/>
+      <c r="AA238" s="4"/>
+      <c r="AB238" s="4"/>
+      <c r="AC238" s="4"/>
+    </row>
+    <row r="239" spans="21:29">
+      <c r="U239" s="4"/>
+      <c r="V239" s="4"/>
+      <c r="W239" s="4"/>
+      <c r="X239" s="4"/>
+      <c r="Y239" s="4"/>
+      <c r="Z239" s="4"/>
+      <c r="AA239" s="4"/>
+      <c r="AB239" s="4"/>
+      <c r="AC239" s="4"/>
+    </row>
+    <row r="240" spans="21:29">
+      <c r="U240" s="4"/>
+      <c r="V240" s="4"/>
+      <c r="W240" s="4"/>
+      <c r="X240" s="4"/>
+      <c r="Y240" s="4"/>
+      <c r="Z240" s="4"/>
+      <c r="AA240" s="4"/>
+      <c r="AB240" s="4"/>
+      <c r="AC240" s="4"/>
+    </row>
+    <row r="241" spans="21:29">
+      <c r="U241" s="4"/>
+      <c r="V241" s="4"/>
+      <c r="W241" s="4"/>
+      <c r="X241" s="4"/>
+      <c r="Y241" s="4"/>
+      <c r="Z241" s="4"/>
+      <c r="AA241" s="4"/>
+      <c r="AB241" s="4"/>
+      <c r="AC241" s="4"/>
+    </row>
+    <row r="242" spans="21:29">
+      <c r="U242" s="4"/>
+      <c r="V242" s="4"/>
+      <c r="W242" s="4"/>
+      <c r="X242" s="4"/>
+      <c r="Y242" s="4"/>
+      <c r="Z242" s="4"/>
+      <c r="AA242" s="4"/>
+      <c r="AB242" s="4"/>
+      <c r="AC242" s="4"/>
+    </row>
+    <row r="243" spans="21:29">
+      <c r="U243" s="4"/>
+      <c r="V243" s="4"/>
+      <c r="W243" s="4"/>
+      <c r="X243" s="4"/>
+      <c r="Y243" s="4"/>
+      <c r="Z243" s="4"/>
+      <c r="AA243" s="4"/>
+      <c r="AB243" s="4"/>
+      <c r="AC243" s="4"/>
+    </row>
+    <row r="244" spans="21:29">
+      <c r="U244" s="4"/>
+      <c r="V244" s="4"/>
+      <c r="W244" s="4"/>
+      <c r="X244" s="4"/>
+      <c r="Y244" s="4"/>
+      <c r="Z244" s="4"/>
+      <c r="AA244" s="4"/>
+      <c r="AB244" s="4"/>
+      <c r="AC244" s="4"/>
+    </row>
+    <row r="245" spans="21:29">
+      <c r="U245" s="4"/>
+      <c r="V245" s="4"/>
+      <c r="W245" s="4"/>
+      <c r="X245" s="4"/>
+      <c r="Y245" s="4"/>
+      <c r="Z245" s="4"/>
+      <c r="AA245" s="4"/>
+      <c r="AB245" s="4"/>
+      <c r="AC245" s="4"/>
+    </row>
+    <row r="246" spans="21:29">
+      <c r="U246" s="4"/>
+      <c r="V246" s="4"/>
+      <c r="W246" s="4"/>
+      <c r="X246" s="4"/>
+      <c r="Y246" s="4"/>
+      <c r="Z246" s="4"/>
+      <c r="AA246" s="4"/>
+      <c r="AB246" s="4"/>
+      <c r="AC246" s="4"/>
+    </row>
+    <row r="247" spans="21:29">
+      <c r="U247" s="4"/>
+      <c r="V247" s="4"/>
+      <c r="W247" s="4"/>
+      <c r="X247" s="4"/>
+      <c r="Y247" s="4"/>
+      <c r="Z247" s="4"/>
+      <c r="AA247" s="4"/>
+      <c r="AB247" s="4"/>
+      <c r="AC247" s="4"/>
+    </row>
+    <row r="248" spans="21:29">
+      <c r="U248" s="4"/>
+      <c r="V248" s="4"/>
+      <c r="W248" s="4"/>
+      <c r="X248" s="4"/>
+      <c r="Y248" s="4"/>
+      <c r="Z248" s="4"/>
+      <c r="AA248" s="4"/>
+      <c r="AB248" s="4"/>
+      <c r="AC248" s="4"/>
+    </row>
+    <row r="249" spans="21:29">
+      <c r="U249" s="4"/>
+      <c r="V249" s="4"/>
+      <c r="W249" s="4"/>
+      <c r="X249" s="4"/>
+      <c r="Y249" s="4"/>
+      <c r="Z249" s="4"/>
+      <c r="AA249" s="4"/>
+      <c r="AB249" s="4"/>
+      <c r="AC249" s="4"/>
+    </row>
+    <row r="250" spans="21:29">
+      <c r="U250" s="4"/>
+      <c r="V250" s="4"/>
+      <c r="W250" s="4"/>
+      <c r="X250" s="4"/>
+      <c r="Y250" s="4"/>
+      <c r="Z250" s="4"/>
+      <c r="AA250" s="4"/>
+      <c r="AB250" s="4"/>
+      <c r="AC250" s="4"/>
+    </row>
+    <row r="251" spans="21:29">
+      <c r="U251" s="4"/>
+      <c r="V251" s="4"/>
+      <c r="W251" s="4"/>
+      <c r="X251" s="4"/>
+      <c r="Y251" s="4"/>
+      <c r="Z251" s="4"/>
+      <c r="AA251" s="4"/>
+      <c r="AB251" s="4"/>
+      <c r="AC251" s="4"/>
+    </row>
+    <row r="252" spans="21:29">
+      <c r="U252" s="4"/>
+      <c r="V252" s="4"/>
+      <c r="W252" s="4"/>
+      <c r="X252" s="4"/>
+      <c r="Y252" s="4"/>
+      <c r="Z252" s="4"/>
+      <c r="AA252" s="4"/>
+      <c r="AB252" s="4"/>
+      <c r="AC252" s="4"/>
+    </row>
+    <row r="253" spans="21:29">
+      <c r="U253" s="4"/>
+      <c r="V253" s="4"/>
+      <c r="W253" s="4"/>
+      <c r="X253" s="4"/>
+      <c r="Y253" s="4"/>
+      <c r="Z253" s="4"/>
+      <c r="AA253" s="4"/>
+      <c r="AB253" s="4"/>
+      <c r="AC253" s="4"/>
+    </row>
+    <row r="254" spans="21:29">
+      <c r="U254" s="4"/>
+      <c r="V254" s="4"/>
+      <c r="W254" s="4"/>
+      <c r="X254" s="4"/>
+      <c r="Y254" s="4"/>
+      <c r="Z254" s="4"/>
+      <c r="AA254" s="4"/>
+      <c r="AB254" s="4"/>
+      <c r="AC254" s="4"/>
+    </row>
+    <row r="255" spans="21:29">
+      <c r="U255" s="4"/>
+      <c r="V255" s="4"/>
+      <c r="W255" s="4"/>
+      <c r="X255" s="4"/>
+      <c r="Y255" s="4"/>
+      <c r="Z255" s="4"/>
+      <c r="AA255" s="4"/>
+      <c r="AB255" s="4"/>
+      <c r="AC255" s="4"/>
+    </row>
+    <row r="256" spans="21:29">
+      <c r="U256" s="4"/>
+      <c r="V256" s="4"/>
+      <c r="W256" s="4"/>
+      <c r="X256" s="4"/>
+      <c r="Y256" s="4"/>
+      <c r="Z256" s="4"/>
+      <c r="AA256" s="4"/>
+      <c r="AB256" s="4"/>
+      <c r="AC256" s="4"/>
+    </row>
+    <row r="257" spans="21:29">
+      <c r="U257" s="4"/>
+      <c r="V257" s="4"/>
+      <c r="W257" s="4"/>
+      <c r="X257" s="4"/>
+      <c r="Y257" s="4"/>
+      <c r="Z257" s="4"/>
+      <c r="AA257" s="4"/>
+      <c r="AB257" s="4"/>
+      <c r="AC257" s="4"/>
+    </row>
+    <row r="258" spans="21:29">
+      <c r="U258" s="4"/>
+      <c r="V258" s="4"/>
+      <c r="W258" s="4"/>
+      <c r="X258" s="4"/>
+      <c r="Y258" s="4"/>
+      <c r="Z258" s="4"/>
+      <c r="AA258" s="4"/>
+      <c r="AB258" s="4"/>
+      <c r="AC258" s="4"/>
+    </row>
+    <row r="259" spans="21:29">
+      <c r="U259" s="4"/>
+      <c r="V259" s="4"/>
+      <c r="W259" s="4"/>
+      <c r="X259" s="4"/>
+      <c r="Y259" s="4"/>
+      <c r="Z259" s="4"/>
+      <c r="AA259" s="4"/>
+      <c r="AB259" s="4"/>
+      <c r="AC259" s="4"/>
+    </row>
+    <row r="260" spans="21:29">
+      <c r="U260" s="4"/>
+      <c r="V260" s="4"/>
+      <c r="W260" s="4"/>
+      <c r="X260" s="4"/>
+      <c r="Y260" s="4"/>
+      <c r="Z260" s="4"/>
+      <c r="AA260" s="4"/>
+      <c r="AB260" s="4"/>
+      <c r="AC260" s="4"/>
+    </row>
+    <row r="261" spans="21:29">
+      <c r="U261" s="4"/>
+      <c r="V261" s="4"/>
+      <c r="W261" s="4"/>
+      <c r="X261" s="4"/>
+      <c r="Y261" s="4"/>
+      <c r="Z261" s="4"/>
+      <c r="AA261" s="4"/>
+      <c r="AB261" s="4"/>
+      <c r="AC261" s="4"/>
+    </row>
+    <row r="262" spans="21:29">
+      <c r="U262" s="4"/>
+      <c r="V262" s="4"/>
+      <c r="W262" s="4"/>
+      <c r="X262" s="4"/>
+      <c r="Y262" s="4"/>
+      <c r="Z262" s="4"/>
+      <c r="AA262" s="4"/>
+      <c r="AB262" s="4"/>
+      <c r="AC262" s="4"/>
+    </row>
+    <row r="263" spans="21:29">
+      <c r="U263" s="4"/>
+      <c r="V263" s="4"/>
+      <c r="W263" s="4"/>
+      <c r="X263" s="4"/>
+      <c r="Y263" s="4"/>
+      <c r="Z263" s="4"/>
+      <c r="AA263" s="4"/>
+      <c r="AB263" s="4"/>
+      <c r="AC263" s="4"/>
+    </row>
+    <row r="264" spans="21:29">
+      <c r="U264" s="4"/>
+      <c r="V264" s="4"/>
+      <c r="W264" s="4"/>
+      <c r="X264" s="4"/>
+      <c r="Y264" s="4"/>
+      <c r="Z264" s="4"/>
+      <c r="AA264" s="4"/>
+      <c r="AB264" s="4"/>
+      <c r="AC264" s="4"/>
+    </row>
+    <row r="265" spans="21:29">
+      <c r="U265" s="4"/>
+      <c r="V265" s="4"/>
+      <c r="W265" s="4"/>
+      <c r="X265" s="4"/>
+      <c r="Y265" s="4"/>
+      <c r="Z265" s="4"/>
+      <c r="AA265" s="4"/>
+      <c r="AB265" s="4"/>
+      <c r="AC265" s="4"/>
+    </row>
+    <row r="266" spans="21:29">
+      <c r="U266" s="4"/>
+      <c r="V266" s="4"/>
+      <c r="W266" s="4"/>
+      <c r="X266" s="4"/>
+      <c r="Y266" s="4"/>
+      <c r="Z266" s="4"/>
+      <c r="AA266" s="4"/>
+      <c r="AB266" s="4"/>
+      <c r="AC266" s="4"/>
+    </row>
+    <row r="267" spans="21:29">
+      <c r="U267" s="4"/>
+      <c r="V267" s="4"/>
+      <c r="W267" s="4"/>
+      <c r="X267" s="4"/>
+      <c r="Y267" s="4"/>
+      <c r="Z267" s="4"/>
+      <c r="AA267" s="4"/>
+      <c r="AB267" s="4"/>
+      <c r="AC267" s="4"/>
+    </row>
+    <row r="268" spans="21:29">
+      <c r="U268" s="4"/>
+      <c r="V268" s="4"/>
+      <c r="W268" s="4"/>
+      <c r="X268" s="4"/>
+      <c r="Y268" s="4"/>
+      <c r="Z268" s="4"/>
+      <c r="AA268" s="4"/>
+      <c r="AB268" s="4"/>
+      <c r="AC268" s="4"/>
+    </row>
+    <row r="269" spans="21:29">
+      <c r="U269" s="4"/>
+      <c r="V269" s="4"/>
+      <c r="W269" s="4"/>
+      <c r="X269" s="4"/>
+      <c r="Y269" s="4"/>
+      <c r="Z269" s="4"/>
+      <c r="AA269" s="4"/>
+      <c r="AB269" s="4"/>
+      <c r="AC269" s="4"/>
+    </row>
+    <row r="270" spans="21:29">
+      <c r="U270" s="4"/>
+      <c r="V270" s="4"/>
+      <c r="W270" s="4"/>
+      <c r="X270" s="4"/>
+      <c r="Y270" s="4"/>
+      <c r="Z270" s="4"/>
+      <c r="AA270" s="4"/>
+      <c r="AB270" s="4"/>
+      <c r="AC270" s="4"/>
+    </row>
+    <row r="271" spans="21:29">
+      <c r="U271" s="4"/>
+      <c r="V271" s="4"/>
+      <c r="W271" s="4"/>
+      <c r="X271" s="4"/>
+      <c r="Y271" s="4"/>
+      <c r="Z271" s="4"/>
+      <c r="AA271" s="4"/>
+      <c r="AB271" s="4"/>
+      <c r="AC271" s="4"/>
+    </row>
+    <row r="272" spans="21:29">
+      <c r="U272" s="4"/>
+      <c r="V272" s="4"/>
+      <c r="W272" s="4"/>
+      <c r="X272" s="4"/>
+      <c r="Y272" s="4"/>
+      <c r="Z272" s="4"/>
+      <c r="AA272" s="4"/>
+      <c r="AB272" s="4"/>
+      <c r="AC272" s="4"/>
+    </row>
+    <row r="273" spans="21:29">
+      <c r="U273" s="4"/>
+      <c r="V273" s="4"/>
+      <c r="W273" s="4"/>
+      <c r="X273" s="4"/>
+      <c r="Y273" s="4"/>
+      <c r="Z273" s="4"/>
+      <c r="AA273" s="4"/>
+      <c r="AB273" s="4"/>
+      <c r="AC273" s="4"/>
+    </row>
+    <row r="274" spans="21:29">
+      <c r="U274" s="4"/>
+      <c r="V274" s="4"/>
+      <c r="W274" s="4"/>
+      <c r="X274" s="4"/>
+      <c r="Y274" s="4"/>
+      <c r="Z274" s="4"/>
+      <c r="AA274" s="4"/>
+      <c r="AB274" s="4"/>
+      <c r="AC274" s="4"/>
+    </row>
+    <row r="275" spans="21:29">
+      <c r="U275" s="4"/>
+      <c r="V275" s="4"/>
+      <c r="W275" s="4"/>
+      <c r="X275" s="4"/>
+      <c r="Y275" s="4"/>
+      <c r="Z275" s="4"/>
+      <c r="AA275" s="4"/>
+      <c r="AB275" s="4"/>
+      <c r="AC275" s="4"/>
+    </row>
+    <row r="276" spans="21:29">
+      <c r="U276" s="4"/>
+      <c r="V276" s="4"/>
+      <c r="W276" s="4"/>
+      <c r="X276" s="4"/>
+      <c r="Y276" s="4"/>
+      <c r="Z276" s="4"/>
+      <c r="AA276" s="4"/>
+      <c r="AB276" s="4"/>
+      <c r="AC276" s="4"/>
+    </row>
+    <row r="277" spans="21:29">
+      <c r="U277" s="4"/>
+      <c r="V277" s="4"/>
+      <c r="W277" s="4"/>
+      <c r="X277" s="4"/>
+      <c r="Y277" s="4"/>
+      <c r="Z277" s="4"/>
+      <c r="AA277" s="4"/>
+      <c r="AB277" s="4"/>
+      <c r="AC277" s="4"/>
+    </row>
+    <row r="278" spans="21:29">
+      <c r="U278" s="4"/>
+      <c r="V278" s="4"/>
+      <c r="W278" s="4"/>
+      <c r="X278" s="4"/>
+      <c r="Y278" s="4"/>
+      <c r="Z278" s="4"/>
+      <c r="AA278" s="4"/>
+      <c r="AB278" s="4"/>
+      <c r="AC278" s="4"/>
+    </row>
+    <row r="279" spans="21:29">
+      <c r="U279" s="4"/>
+      <c r="V279" s="4"/>
+      <c r="W279" s="4"/>
+      <c r="X279" s="4"/>
+      <c r="Y279" s="4"/>
+      <c r="Z279" s="4"/>
+      <c r="AA279" s="4"/>
+      <c r="AB279" s="4"/>
+      <c r="AC279" s="4"/>
+    </row>
+    <row r="280" spans="21:29">
+      <c r="U280" s="4"/>
+      <c r="V280" s="4"/>
+      <c r="W280" s="4"/>
+      <c r="X280" s="4"/>
+      <c r="Y280" s="4"/>
+      <c r="Z280" s="4"/>
+      <c r="AA280" s="4"/>
+      <c r="AB280" s="4"/>
+      <c r="AC280" s="4"/>
+    </row>
+    <row r="281" spans="21:29">
+      <c r="U281" s="4"/>
+      <c r="V281" s="4"/>
+      <c r="W281" s="4"/>
+      <c r="X281" s="4"/>
+      <c r="Y281" s="4"/>
+      <c r="Z281" s="4"/>
+      <c r="AA281" s="4"/>
+      <c r="AB281" s="4"/>
+      <c r="AC281" s="4"/>
+    </row>
+    <row r="282" spans="21:29">
+      <c r="U282" s="4"/>
+      <c r="V282" s="4"/>
+      <c r="W282" s="4"/>
+      <c r="X282" s="4"/>
+      <c r="Y282" s="4"/>
+      <c r="Z282" s="4"/>
+      <c r="AA282" s="4"/>
+      <c r="AB282" s="4"/>
+      <c r="AC282" s="4"/>
+    </row>
+    <row r="283" spans="21:29">
+      <c r="U283" s="4"/>
+      <c r="V283" s="4"/>
+      <c r="W283" s="4"/>
+      <c r="X283" s="4"/>
+      <c r="Y283" s="4"/>
+      <c r="Z283" s="4"/>
+      <c r="AA283" s="4"/>
+      <c r="AB283" s="4"/>
+      <c r="AC283" s="4"/>
+    </row>
+    <row r="284" spans="21:29">
+      <c r="U284" s="4"/>
+      <c r="V284" s="4"/>
+      <c r="W284" s="4"/>
+      <c r="X284" s="4"/>
+      <c r="Y284" s="4"/>
+      <c r="Z284" s="4"/>
+      <c r="AA284" s="4"/>
+      <c r="AB284" s="4"/>
+      <c r="AC284" s="4"/>
+    </row>
+    <row r="285" spans="21:29">
+      <c r="U285" s="4"/>
+      <c r="V285" s="4"/>
+      <c r="W285" s="4"/>
+      <c r="X285" s="4"/>
+      <c r="Y285" s="4"/>
+      <c r="Z285" s="4"/>
+      <c r="AA285" s="4"/>
+      <c r="AB285" s="4"/>
+      <c r="AC285" s="4"/>
+    </row>
+    <row r="286" spans="21:29">
+      <c r="U286" s="4"/>
+      <c r="V286" s="4"/>
+      <c r="W286" s="4"/>
+      <c r="X286" s="4"/>
+      <c r="Y286" s="4"/>
+      <c r="Z286" s="4"/>
+      <c r="AA286" s="4"/>
+      <c r="AB286" s="4"/>
+      <c r="AC286" s="4"/>
+    </row>
+    <row r="287" spans="21:29">
+      <c r="U287" s="4"/>
+      <c r="V287" s="4"/>
+      <c r="W287" s="4"/>
+      <c r="X287" s="4"/>
+      <c r="Y287" s="4"/>
+      <c r="Z287" s="4"/>
+      <c r="AA287" s="4"/>
+      <c r="AB287" s="4"/>
+      <c r="AC287" s="4"/>
+    </row>
+    <row r="288" spans="21:29">
+      <c r="U288" s="4"/>
+      <c r="V288" s="4"/>
+      <c r="W288" s="4"/>
+      <c r="X288" s="4"/>
+      <c r="Y288" s="4"/>
+      <c r="Z288" s="4"/>
+      <c r="AA288" s="4"/>
+      <c r="AB288" s="4"/>
+      <c r="AC288" s="4"/>
+    </row>
+    <row r="289" spans="21:29">
+      <c r="U289" s="4"/>
+      <c r="V289" s="4"/>
+      <c r="W289" s="4"/>
+      <c r="X289" s="4"/>
+      <c r="Y289" s="4"/>
+      <c r="Z289" s="4"/>
+      <c r="AA289" s="4"/>
+      <c r="AB289" s="4"/>
+      <c r="AC289" s="4"/>
+    </row>
+    <row r="290" spans="21:29">
+      <c r="U290" s="4"/>
+      <c r="V290" s="4"/>
+      <c r="W290" s="4"/>
+      <c r="X290" s="4"/>
+      <c r="Y290" s="4"/>
+      <c r="Z290" s="4"/>
+      <c r="AA290" s="4"/>
+      <c r="AB290" s="4"/>
+      <c r="AC290" s="4"/>
+    </row>
+    <row r="291" spans="21:29">
+      <c r="U291" s="4"/>
+      <c r="V291" s="4"/>
+      <c r="W291" s="4"/>
+      <c r="X291" s="4"/>
+      <c r="Y291" s="4"/>
+      <c r="Z291" s="4"/>
+      <c r="AA291" s="4"/>
+      <c r="AB291" s="4"/>
+      <c r="AC291" s="4"/>
+    </row>
+    <row r="292" spans="21:29">
+      <c r="U292" s="4"/>
+      <c r="V292" s="4"/>
+      <c r="W292" s="4"/>
+      <c r="X292" s="4"/>
+      <c r="Y292" s="4"/>
+      <c r="Z292" s="4"/>
+      <c r="AA292" s="4"/>
+      <c r="AB292" s="4"/>
+      <c r="AC292" s="4"/>
+    </row>
+    <row r="293" spans="21:29">
+      <c r="U293" s="4"/>
+      <c r="V293" s="4"/>
+      <c r="W293" s="4"/>
+      <c r="X293" s="4"/>
+      <c r="Y293" s="4"/>
+      <c r="Z293" s="4"/>
+      <c r="AA293" s="4"/>
+      <c r="AB293" s="4"/>
+      <c r="AC293" s="4"/>
+    </row>
+    <row r="294" spans="21:29">
+      <c r="U294" s="4"/>
+      <c r="V294" s="4"/>
+      <c r="W294" s="4"/>
+      <c r="X294" s="4"/>
+      <c r="Y294" s="4"/>
+      <c r="Z294" s="4"/>
+      <c r="AA294" s="4"/>
+      <c r="AB294" s="4"/>
+      <c r="AC294" s="4"/>
+    </row>
+    <row r="295" spans="21:29">
+      <c r="U295" s="4"/>
+      <c r="V295" s="4"/>
+      <c r="W295" s="4"/>
+      <c r="X295" s="4"/>
+      <c r="Y295" s="4"/>
+      <c r="Z295" s="4"/>
+      <c r="AA295" s="4"/>
+      <c r="AB295" s="4"/>
+      <c r="AC295" s="4"/>
+    </row>
+    <row r="296" spans="21:29">
+      <c r="U296" s="4"/>
+      <c r="V296" s="4"/>
+      <c r="W296" s="4"/>
+      <c r="X296" s="4"/>
+      <c r="Y296" s="4"/>
+      <c r="Z296" s="4"/>
+      <c r="AA296" s="4"/>
+      <c r="AB296" s="4"/>
+      <c r="AC296" s="4"/>
+    </row>
+    <row r="297" spans="21:29">
+      <c r="U297" s="4"/>
+      <c r="V297" s="4"/>
+      <c r="W297" s="4"/>
+      <c r="X297" s="4"/>
+      <c r="Y297" s="4"/>
+      <c r="Z297" s="4"/>
+      <c r="AA297" s="4"/>
+      <c r="AB297" s="4"/>
+      <c r="AC297" s="4"/>
+    </row>
+    <row r="298" spans="21:29">
+      <c r="U298" s="4"/>
+      <c r="V298" s="4"/>
+      <c r="W298" s="4"/>
+      <c r="X298" s="4"/>
+      <c r="Y298" s="4"/>
+      <c r="Z298" s="4"/>
+      <c r="AA298" s="4"/>
+      <c r="AB298" s="4"/>
+      <c r="AC298" s="4"/>
+    </row>
+    <row r="299" spans="21:29">
+      <c r="U299" s="4"/>
+      <c r="V299" s="4"/>
+      <c r="W299" s="4"/>
+      <c r="X299" s="4"/>
+      <c r="Y299" s="4"/>
+      <c r="Z299" s="4"/>
+      <c r="AA299" s="4"/>
+      <c r="AB299" s="4"/>
+      <c r="AC299" s="4"/>
+    </row>
+    <row r="300" spans="21:29">
+      <c r="U300" s="4"/>
+      <c r="V300" s="4"/>
+      <c r="W300" s="4"/>
+      <c r="X300" s="4"/>
+      <c r="Y300" s="4"/>
+      <c r="Z300" s="4"/>
+      <c r="AA300" s="4"/>
+      <c r="AB300" s="4"/>
+      <c r="AC300" s="4"/>
+    </row>
+    <row r="301" spans="21:29">
+      <c r="U301" s="4"/>
+      <c r="V301" s="4"/>
+      <c r="W301" s="4"/>
+      <c r="X301" s="4"/>
+      <c r="Y301" s="4"/>
+      <c r="Z301" s="4"/>
+      <c r="AA301" s="4"/>
+      <c r="AB301" s="4"/>
+      <c r="AC301" s="4"/>
+    </row>
+    <row r="302" spans="21:29">
+      <c r="U302" s="4"/>
+      <c r="V302" s="4"/>
+      <c r="W302" s="4"/>
+      <c r="X302" s="4"/>
+      <c r="Y302" s="4"/>
+      <c r="Z302" s="4"/>
+      <c r="AA302" s="4"/>
+      <c r="AB302" s="4"/>
+      <c r="AC302" s="4"/>
+    </row>
+    <row r="303" spans="21:29">
+      <c r="U303" s="4"/>
+      <c r="V303" s="4"/>
+      <c r="W303" s="4"/>
+      <c r="X303" s="4"/>
+      <c r="Y303" s="4"/>
+      <c r="Z303" s="4"/>
+      <c r="AA303" s="4"/>
+      <c r="AB303" s="4"/>
+      <c r="AC303" s="4"/>
+    </row>
+    <row r="304" spans="21:29">
+      <c r="U304" s="4"/>
+      <c r="V304" s="4"/>
+      <c r="W304" s="4"/>
+      <c r="X304" s="4"/>
+      <c r="Y304" s="4"/>
+      <c r="Z304" s="4"/>
+      <c r="AA304" s="4"/>
+      <c r="AB304" s="4"/>
+      <c r="AC304" s="4"/>
+    </row>
+    <row r="305" spans="21:29">
+      <c r="U305" s="4"/>
+      <c r="V305" s="4"/>
+      <c r="W305" s="4"/>
+      <c r="X305" s="4"/>
+      <c r="Y305" s="4"/>
+      <c r="Z305" s="4"/>
+      <c r="AA305" s="4"/>
+      <c r="AB305" s="4"/>
+      <c r="AC305" s="4"/>
+    </row>
+    <row r="306" spans="21:29">
+      <c r="U306" s="4"/>
+      <c r="V306" s="4"/>
+      <c r="W306" s="4"/>
+      <c r="X306" s="4"/>
+      <c r="Y306" s="4"/>
+      <c r="Z306" s="4"/>
+      <c r="AA306" s="4"/>
+      <c r="AB306" s="4"/>
+      <c r="AC306" s="4"/>
+    </row>
+    <row r="307" spans="21:29">
+      <c r="U307" s="4"/>
+      <c r="V307" s="4"/>
+      <c r="W307" s="4"/>
+      <c r="X307" s="4"/>
+      <c r="Y307" s="4"/>
+      <c r="Z307" s="4"/>
+      <c r="AA307" s="4"/>
+      <c r="AB307" s="4"/>
+      <c r="AC307" s="4"/>
+    </row>
+    <row r="308" spans="21:29">
+      <c r="U308" s="4"/>
+      <c r="V308" s="4"/>
+      <c r="W308" s="4"/>
+      <c r="X308" s="4"/>
+      <c r="Y308" s="4"/>
+      <c r="Z308" s="4"/>
+      <c r="AA308" s="4"/>
+      <c r="AB308" s="4"/>
+      <c r="AC308" s="4"/>
+    </row>
+    <row r="309" spans="21:29">
+      <c r="U309" s="4"/>
+      <c r="V309" s="4"/>
+      <c r="W309" s="4"/>
+      <c r="X309" s="4"/>
+      <c r="Y309" s="4"/>
+      <c r="Z309" s="4"/>
+      <c r="AA309" s="4"/>
+      <c r="AB309" s="4"/>
+      <c r="AC309" s="4"/>
+    </row>
+    <row r="310" spans="21:29">
+      <c r="U310" s="4"/>
+      <c r="V310" s="4"/>
+      <c r="W310" s="4"/>
+      <c r="X310" s="4"/>
+      <c r="Y310" s="4"/>
+      <c r="Z310" s="4"/>
+      <c r="AA310" s="4"/>
+      <c r="AB310" s="4"/>
+      <c r="AC310" s="4"/>
+    </row>
+    <row r="311" spans="21:29">
+      <c r="U311" s="4"/>
+      <c r="V311" s="4"/>
+      <c r="W311" s="4"/>
+      <c r="X311" s="4"/>
+      <c r="Y311" s="4"/>
+      <c r="Z311" s="4"/>
+      <c r="AA311" s="4"/>
+      <c r="AB311" s="4"/>
+      <c r="AC311" s="4"/>
+    </row>
+    <row r="312" spans="21:29">
+      <c r="U312" s="4"/>
+      <c r="V312" s="4"/>
+      <c r="W312" s="4"/>
+      <c r="X312" s="4"/>
+      <c r="Y312" s="4"/>
+      <c r="Z312" s="4"/>
+      <c r="AA312" s="4"/>
+      <c r="AB312" s="4"/>
+      <c r="AC312" s="4"/>
+    </row>
+    <row r="313" spans="21:29">
+      <c r="U313" s="4"/>
+      <c r="V313" s="4"/>
+      <c r="W313" s="4"/>
+      <c r="X313" s="4"/>
+      <c r="Y313" s="4"/>
+      <c r="Z313" s="4"/>
+      <c r="AA313" s="4"/>
+      <c r="AB313" s="4"/>
+      <c r="AC313" s="4"/>
+    </row>
+    <row r="314" spans="21:29">
+      <c r="U314" s="4"/>
+      <c r="V314" s="4"/>
+      <c r="W314" s="4"/>
+      <c r="X314" s="4"/>
+      <c r="Y314" s="4"/>
+      <c r="Z314" s="4"/>
+      <c r="AA314" s="4"/>
+      <c r="AB314" s="4"/>
+      <c r="AC314" s="4"/>
+    </row>
+    <row r="315" spans="21:29">
+      <c r="U315" s="4"/>
+      <c r="V315" s="4"/>
+      <c r="W315" s="4"/>
+      <c r="X315" s="4"/>
+      <c r="Y315" s="4"/>
+      <c r="Z315" s="4"/>
+      <c r="AA315" s="4"/>
+      <c r="AB315" s="4"/>
+      <c r="AC315" s="4"/>
+    </row>
+    <row r="316" spans="21:29">
+      <c r="U316" s="4"/>
+      <c r="V316" s="4"/>
+      <c r="W316" s="4"/>
+      <c r="X316" s="4"/>
+      <c r="Y316" s="4"/>
+      <c r="Z316" s="4"/>
+      <c r="AA316" s="4"/>
+      <c r="AB316" s="4"/>
+      <c r="AC316" s="4"/>
+    </row>
+    <row r="317" spans="21:29">
+      <c r="U317" s="4"/>
+      <c r="V317" s="4"/>
+      <c r="W317" s="4"/>
+      <c r="X317" s="4"/>
+      <c r="Y317" s="4"/>
+      <c r="Z317" s="4"/>
+      <c r="AA317" s="4"/>
+      <c r="AB317" s="4"/>
+      <c r="AC317" s="4"/>
+    </row>
+    <row r="318" spans="21:29">
+      <c r="U318" s="4"/>
+      <c r="V318" s="4"/>
+      <c r="W318" s="4"/>
+      <c r="X318" s="4"/>
+      <c r="Y318" s="4"/>
+      <c r="Z318" s="4"/>
+      <c r="AA318" s="4"/>
+      <c r="AB318" s="4"/>
+      <c r="AC318" s="4"/>
+    </row>
+    <row r="319" spans="21:29">
+      <c r="U319" s="4"/>
+      <c r="V319" s="4"/>
+      <c r="W319" s="4"/>
+      <c r="X319" s="4"/>
+      <c r="Y319" s="4"/>
+      <c r="Z319" s="4"/>
+      <c r="AA319" s="4"/>
+      <c r="AB319" s="4"/>
+      <c r="AC319" s="4"/>
+    </row>
+    <row r="320" spans="21:29">
+      <c r="U320" s="4"/>
+      <c r="V320" s="4"/>
+      <c r="W320" s="4"/>
+      <c r="X320" s="4"/>
+      <c r="Y320" s="4"/>
+      <c r="Z320" s="4"/>
+      <c r="AA320" s="4"/>
+      <c r="AB320" s="4"/>
+      <c r="AC320" s="4"/>
+    </row>
+    <row r="321" spans="21:29">
+      <c r="U321" s="4"/>
+      <c r="V321" s="4"/>
+      <c r="W321" s="4"/>
+      <c r="X321" s="4"/>
+      <c r="Y321" s="4"/>
+      <c r="Z321" s="4"/>
+      <c r="AA321" s="4"/>
+      <c r="AB321" s="4"/>
+      <c r="AC321" s="4"/>
+    </row>
+    <row r="322" spans="21:29">
+      <c r="U322" s="4"/>
+      <c r="V322" s="4"/>
+      <c r="W322" s="4"/>
+      <c r="X322" s="4"/>
+      <c r="Y322" s="4"/>
+      <c r="Z322" s="4"/>
+      <c r="AA322" s="4"/>
+      <c r="AB322" s="4"/>
+      <c r="AC322" s="4"/>
+    </row>
+    <row r="323" spans="21:29">
+      <c r="U323" s="4"/>
+      <c r="V323" s="4"/>
+      <c r="W323" s="4"/>
+      <c r="X323" s="4"/>
+      <c r="Y323" s="4"/>
+      <c r="Z323" s="4"/>
+      <c r="AA323" s="4"/>
+      <c r="AB323" s="4"/>
+      <c r="AC323" s="4"/>
+    </row>
+    <row r="324" spans="21:29">
+      <c r="U324" s="4"/>
+      <c r="V324" s="4"/>
+      <c r="W324" s="4"/>
+      <c r="X324" s="4"/>
+      <c r="Y324" s="4"/>
+      <c r="Z324" s="4"/>
+      <c r="AA324" s="4"/>
+      <c r="AB324" s="4"/>
+      <c r="AC324" s="4"/>
+    </row>
+    <row r="325" spans="21:29">
+      <c r="U325" s="4"/>
+      <c r="V325" s="4"/>
+      <c r="W325" s="4"/>
+      <c r="X325" s="4"/>
+      <c r="Y325" s="4"/>
+      <c r="Z325" s="4"/>
+      <c r="AA325" s="4"/>
+      <c r="AB325" s="4"/>
+      <c r="AC325" s="4"/>
+    </row>
+    <row r="326" spans="21:29">
+      <c r="U326" s="4"/>
+      <c r="V326" s="4"/>
+      <c r="W326" s="4"/>
+      <c r="X326" s="4"/>
+      <c r="Y326" s="4"/>
+      <c r="Z326" s="4"/>
+      <c r="AA326" s="4"/>
+      <c r="AB326" s="4"/>
+      <c r="AC326" s="4"/>
+    </row>
+    <row r="327" spans="21:29">
+      <c r="U327" s="4"/>
+      <c r="V327" s="4"/>
+      <c r="W327" s="4"/>
+      <c r="X327" s="4"/>
+      <c r="Y327" s="4"/>
+      <c r="Z327" s="4"/>
+      <c r="AA327" s="4"/>
+      <c r="AB327" s="4"/>
+      <c r="AC327" s="4"/>
+    </row>
+    <row r="328" spans="21:29">
+      <c r="U328" s="4"/>
+      <c r="V328" s="4"/>
+      <c r="W328" s="4"/>
+      <c r="X328" s="4"/>
+      <c r="Y328" s="4"/>
+      <c r="Z328" s="4"/>
+      <c r="AA328" s="4"/>
+      <c r="AB328" s="4"/>
+      <c r="AC328" s="4"/>
+    </row>
+    <row r="329" spans="21:29">
+      <c r="U329" s="4"/>
+      <c r="V329" s="4"/>
+      <c r="W329" s="4"/>
+      <c r="X329" s="4"/>
+      <c r="Y329" s="4"/>
+      <c r="Z329" s="4"/>
+      <c r="AA329" s="4"/>
+      <c r="AB329" s="4"/>
+      <c r="AC329" s="4"/>
+    </row>
+    <row r="330" spans="21:29">
+      <c r="U330" s="4"/>
+      <c r="V330" s="4"/>
+      <c r="W330" s="4"/>
+      <c r="X330" s="4"/>
+      <c r="Y330" s="4"/>
+      <c r="Z330" s="4"/>
+      <c r="AA330" s="4"/>
+      <c r="AB330" s="4"/>
+      <c r="AC330" s="4"/>
+    </row>
+    <row r="331" spans="21:29">
+      <c r="U331" s="4"/>
+      <c r="V331" s="4"/>
+      <c r="W331" s="4"/>
+      <c r="X331" s="4"/>
+      <c r="Y331" s="4"/>
+      <c r="Z331" s="4"/>
+      <c r="AA331" s="4"/>
+      <c r="AB331" s="4"/>
+      <c r="AC331" s="4"/>
+    </row>
+    <row r="332" spans="21:29">
+      <c r="U332" s="4"/>
+      <c r="V332" s="4"/>
+      <c r="W332" s="4"/>
+      <c r="X332" s="4"/>
+      <c r="Y332" s="4"/>
+      <c r="Z332" s="4"/>
+      <c r="AA332" s="4"/>
+      <c r="AB332" s="4"/>
+      <c r="AC332" s="4"/>
+    </row>
+    <row r="333" spans="21:29">
+      <c r="U333" s="4"/>
+      <c r="V333" s="4"/>
+      <c r="W333" s="4"/>
+      <c r="X333" s="4"/>
+      <c r="Y333" s="4"/>
+      <c r="Z333" s="4"/>
+      <c r="AA333" s="4"/>
+      <c r="AB333" s="4"/>
+      <c r="AC333" s="4"/>
+    </row>
+    <row r="334" spans="21:29">
+      <c r="U334" s="4"/>
+      <c r="V334" s="4"/>
+      <c r="W334" s="4"/>
+      <c r="X334" s="4"/>
+      <c r="Y334" s="4"/>
+      <c r="Z334" s="4"/>
+      <c r="AA334" s="4"/>
+      <c r="AB334" s="4"/>
+      <c r="AC334" s="4"/>
+    </row>
+    <row r="335" spans="21:29">
+      <c r="U335" s="4"/>
+      <c r="V335" s="4"/>
+      <c r="W335" s="4"/>
+      <c r="X335" s="4"/>
+      <c r="Y335" s="4"/>
+      <c r="Z335" s="4"/>
+      <c r="AA335" s="4"/>
+      <c r="AB335" s="4"/>
+      <c r="AC335" s="4"/>
+    </row>
+    <row r="336" spans="21:29">
+      <c r="U336" s="4"/>
+      <c r="V336" s="4"/>
+      <c r="W336" s="4"/>
+      <c r="X336" s="4"/>
+      <c r="Y336" s="4"/>
+      <c r="Z336" s="4"/>
+      <c r="AA336" s="4"/>
+      <c r="AB336" s="4"/>
+      <c r="AC336" s="4"/>
+    </row>
+    <row r="337" spans="21:29">
+      <c r="U337" s="4"/>
+      <c r="V337" s="4"/>
+      <c r="W337" s="4"/>
+      <c r="X337" s="4"/>
+      <c r="Y337" s="4"/>
+      <c r="Z337" s="4"/>
+      <c r="AA337" s="4"/>
+      <c r="AB337" s="4"/>
+      <c r="AC337" s="4"/>
+    </row>
+    <row r="338" spans="21:29">
+      <c r="U338" s="4"/>
+      <c r="V338" s="4"/>
+      <c r="W338" s="4"/>
+      <c r="X338" s="4"/>
+      <c r="Y338" s="4"/>
+      <c r="Z338" s="4"/>
+      <c r="AA338" s="4"/>
+      <c r="AB338" s="4"/>
+      <c r="AC338" s="4"/>
+    </row>
+    <row r="339" spans="21:29">
+      <c r="U339" s="4"/>
+      <c r="V339" s="4"/>
+      <c r="W339" s="4"/>
+      <c r="X339" s="4"/>
+      <c r="Y339" s="4"/>
+      <c r="Z339" s="4"/>
+      <c r="AA339" s="4"/>
+      <c r="AB339" s="4"/>
+      <c r="AC339" s="4"/>
+    </row>
+    <row r="340" spans="21:29">
+      <c r="U340" s="4"/>
+      <c r="V340" s="4"/>
+      <c r="W340" s="4"/>
+      <c r="X340" s="4"/>
+      <c r="Y340" s="4"/>
+      <c r="Z340" s="4"/>
+      <c r="AA340" s="4"/>
+      <c r="AB340" s="4"/>
+      <c r="AC340" s="4"/>
+    </row>
+    <row r="341" spans="21:29">
+      <c r="U341" s="4"/>
+      <c r="V341" s="4"/>
+      <c r="W341" s="4"/>
+      <c r="X341" s="4"/>
+      <c r="Y341" s="4"/>
+      <c r="Z341" s="4"/>
+      <c r="AA341" s="4"/>
+      <c r="AB341" s="4"/>
+      <c r="AC341" s="4"/>
+    </row>
+    <row r="342" spans="21:29">
+      <c r="U342" s="4"/>
+      <c r="V342" s="4"/>
+      <c r="W342" s="4"/>
+      <c r="X342" s="4"/>
+      <c r="Y342" s="4"/>
+      <c r="Z342" s="4"/>
+      <c r="AA342" s="4"/>
+      <c r="AB342" s="4"/>
+      <c r="AC342" s="4"/>
+    </row>
+    <row r="343" spans="21:29">
+      <c r="U343" s="4"/>
+      <c r="V343" s="4"/>
+      <c r="W343" s="4"/>
+      <c r="X343" s="4"/>
+      <c r="Y343" s="4"/>
+      <c r="Z343" s="4"/>
+      <c r="AA343" s="4"/>
+      <c r="AB343" s="4"/>
+      <c r="AC343" s="4"/>
+    </row>
+    <row r="344" spans="21:29">
+      <c r="U344" s="4"/>
+      <c r="V344" s="4"/>
+      <c r="W344" s="4"/>
+      <c r="X344" s="4"/>
+      <c r="Y344" s="4"/>
+      <c r="Z344" s="4"/>
+      <c r="AA344" s="4"/>
+      <c r="AB344" s="4"/>
+      <c r="AC344" s="4"/>
+    </row>
+    <row r="345" spans="21:29">
+      <c r="U345" s="4"/>
+      <c r="V345" s="4"/>
+      <c r="W345" s="4"/>
+      <c r="X345" s="4"/>
+      <c r="Y345" s="4"/>
+      <c r="Z345" s="4"/>
+      <c r="AA345" s="4"/>
+      <c r="AB345" s="4"/>
+      <c r="AC345" s="4"/>
+    </row>
+    <row r="346" spans="21:29">
+      <c r="U346" s="4"/>
+      <c r="V346" s="4"/>
+      <c r="W346" s="4"/>
+      <c r="X346" s="4"/>
+      <c r="Y346" s="4"/>
+      <c r="Z346" s="4"/>
+      <c r="AA346" s="4"/>
+      <c r="AB346" s="4"/>
+      <c r="AC346" s="4"/>
+    </row>
+    <row r="347" spans="21:29">
+      <c r="U347" s="4"/>
+      <c r="V347" s="4"/>
+      <c r="W347" s="4"/>
+      <c r="X347" s="4"/>
+      <c r="Y347" s="4"/>
+      <c r="Z347" s="4"/>
+      <c r="AA347" s="4"/>
+      <c r="AB347" s="4"/>
+      <c r="AC347" s="4"/>
+    </row>
+    <row r="348" spans="21:29">
+      <c r="U348" s="4"/>
+      <c r="V348" s="4"/>
+      <c r="W348" s="4"/>
+      <c r="X348" s="4"/>
+      <c r="Y348" s="4"/>
+      <c r="Z348" s="4"/>
+      <c r="AA348" s="4"/>
+      <c r="AB348" s="4"/>
+      <c r="AC348" s="4"/>
+    </row>
+    <row r="349" spans="21:29">
+      <c r="U349" s="4"/>
+      <c r="V349" s="4"/>
+      <c r="W349" s="4"/>
+      <c r="X349" s="4"/>
+      <c r="Y349" s="4"/>
+      <c r="Z349" s="4"/>
+      <c r="AA349" s="4"/>
+      <c r="AB349" s="4"/>
+      <c r="AC349" s="4"/>
+    </row>
+    <row r="350" spans="21:29">
+      <c r="U350" s="4"/>
+      <c r="V350" s="4"/>
+      <c r="W350" s="4"/>
+      <c r="X350" s="4"/>
+      <c r="Y350" s="4"/>
+      <c r="Z350" s="4"/>
+      <c r="AA350" s="4"/>
+      <c r="AB350" s="4"/>
+      <c r="AC350" s="4"/>
+    </row>
+    <row r="351" spans="21:29">
+      <c r="U351" s="4"/>
+      <c r="V351" s="4"/>
+      <c r="W351" s="4"/>
+      <c r="X351" s="4"/>
+      <c r="Y351" s="4"/>
+      <c r="Z351" s="4"/>
+      <c r="AA351" s="4"/>
+      <c r="AB351" s="4"/>
+      <c r="AC351" s="4"/>
+    </row>
+    <row r="352" spans="21:29">
+      <c r="U352" s="4"/>
+      <c r="V352" s="4"/>
+      <c r="W352" s="4"/>
+      <c r="X352" s="4"/>
+      <c r="Y352" s="4"/>
+      <c r="Z352" s="4"/>
+      <c r="AA352" s="4"/>
+      <c r="AB352" s="4"/>
+      <c r="AC352" s="4"/>
+    </row>
+    <row r="353" spans="21:29">
+      <c r="U353" s="4"/>
+      <c r="V353" s="4"/>
+      <c r="W353" s="4"/>
+      <c r="X353" s="4"/>
+      <c r="Y353" s="4"/>
+      <c r="Z353" s="4"/>
+      <c r="AA353" s="4"/>
+      <c r="AB353" s="4"/>
+      <c r="AC353" s="4"/>
+    </row>
+    <row r="354" spans="21:29">
+      <c r="U354" s="4"/>
+      <c r="V354" s="4"/>
+      <c r="W354" s="4"/>
+      <c r="X354" s="4"/>
+      <c r="Y354" s="4"/>
+      <c r="Z354" s="4"/>
+      <c r="AA354" s="4"/>
+      <c r="AB354" s="4"/>
+      <c r="AC354" s="4"/>
+    </row>
+    <row r="355" spans="21:29">
+      <c r="U355" s="4"/>
+      <c r="V355" s="4"/>
+      <c r="W355" s="4"/>
+      <c r="X355" s="4"/>
+      <c r="Y355" s="4"/>
+      <c r="Z355" s="4"/>
+      <c r="AA355" s="4"/>
+      <c r="AB355" s="4"/>
+      <c r="AC355" s="4"/>
+    </row>
+    <row r="356" spans="21:29">
+      <c r="U356" s="4"/>
+      <c r="V356" s="4"/>
+      <c r="W356" s="4"/>
+      <c r="X356" s="4"/>
+      <c r="Y356" s="4"/>
+      <c r="Z356" s="4"/>
+      <c r="AA356" s="4"/>
+      <c r="AB356" s="4"/>
+      <c r="AC356" s="4"/>
+    </row>
+    <row r="357" spans="21:29">
+      <c r="U357" s="4"/>
+      <c r="V357" s="4"/>
+      <c r="W357" s="4"/>
+      <c r="X357" s="4"/>
+      <c r="Y357" s="4"/>
+      <c r="Z357" s="4"/>
+      <c r="AA357" s="4"/>
+      <c r="AB357" s="4"/>
+      <c r="AC357" s="4"/>
+    </row>
+    <row r="358" spans="21:29">
+      <c r="U358" s="4"/>
+      <c r="V358" s="4"/>
+      <c r="W358" s="4"/>
+      <c r="X358" s="4"/>
+      <c r="Y358" s="4"/>
+      <c r="Z358" s="4"/>
+      <c r="AA358" s="4"/>
+      <c r="AB358" s="4"/>
+      <c r="AC358" s="4"/>
+    </row>
+    <row r="359" spans="21:29">
+      <c r="U359" s="4"/>
+      <c r="V359" s="4"/>
+      <c r="W359" s="4"/>
+      <c r="X359" s="4"/>
+      <c r="Y359" s="4"/>
+      <c r="Z359" s="4"/>
+      <c r="AA359" s="4"/>
+      <c r="AB359" s="4"/>
+      <c r="AC359" s="4"/>
+    </row>
+    <row r="360" spans="21:29">
+      <c r="U360" s="4"/>
+      <c r="V360" s="4"/>
+      <c r="W360" s="4"/>
+      <c r="X360" s="4"/>
+      <c r="Y360" s="4"/>
+      <c r="Z360" s="4"/>
+      <c r="AA360" s="4"/>
+      <c r="AB360" s="4"/>
+      <c r="AC360" s="4"/>
+    </row>
+    <row r="361" spans="21:29">
+      <c r="U361" s="4"/>
+      <c r="V361" s="4"/>
+      <c r="W361" s="4"/>
+      <c r="X361" s="4"/>
+      <c r="Y361" s="4"/>
+      <c r="Z361" s="4"/>
+      <c r="AA361" s="4"/>
+      <c r="AB361" s="4"/>
+      <c r="AC361" s="4"/>
+    </row>
+    <row r="362" spans="21:29">
+      <c r="U362" s="4"/>
+      <c r="V362" s="4"/>
+      <c r="W362" s="4"/>
+      <c r="X362" s="4"/>
+      <c r="Y362" s="4"/>
+      <c r="Z362" s="4"/>
+      <c r="AA362" s="4"/>
+      <c r="AB362" s="4"/>
+      <c r="AC362" s="4"/>
+    </row>
+    <row r="363" spans="21:29">
+      <c r="U363" s="4"/>
+      <c r="V363" s="4"/>
+      <c r="W363" s="4"/>
+      <c r="X363" s="4"/>
+      <c r="Y363" s="4"/>
+      <c r="Z363" s="4"/>
+      <c r="AA363" s="4"/>
+      <c r="AB363" s="4"/>
+      <c r="AC363" s="4"/>
+    </row>
+    <row r="364" spans="21:29">
+      <c r="U364" s="4"/>
+      <c r="V364" s="4"/>
+      <c r="W364" s="4"/>
+      <c r="X364" s="4"/>
+      <c r="Y364" s="4"/>
+      <c r="Z364" s="4"/>
+      <c r="AA364" s="4"/>
+      <c r="AB364" s="4"/>
+      <c r="AC364" s="4"/>
+    </row>
+    <row r="365" spans="21:29">
+      <c r="U365" s="4"/>
+      <c r="V365" s="4"/>
+      <c r="W365" s="4"/>
+      <c r="X365" s="4"/>
+      <c r="Y365" s="4"/>
+      <c r="Z365" s="4"/>
+      <c r="AA365" s="4"/>
+      <c r="AB365" s="4"/>
+      <c r="AC365" s="4"/>
+    </row>
+    <row r="366" spans="21:29">
+      <c r="U366" s="4"/>
+      <c r="V366" s="4"/>
+      <c r="W366" s="4"/>
+      <c r="X366" s="4"/>
+      <c r="Y366" s="4"/>
+      <c r="Z366" s="4"/>
+      <c r="AA366" s="4"/>
+      <c r="AB366" s="4"/>
+      <c r="AC366" s="4"/>
+    </row>
+    <row r="367" spans="21:29">
+      <c r="U367" s="4"/>
+      <c r="V367" s="4"/>
+      <c r="W367" s="4"/>
+      <c r="X367" s="4"/>
+      <c r="Y367" s="4"/>
+      <c r="Z367" s="4"/>
+      <c r="AA367" s="4"/>
+      <c r="AB367" s="4"/>
+      <c r="AC367" s="4"/>
+    </row>
+    <row r="368" spans="21:29">
+      <c r="U368" s="4"/>
+      <c r="V368" s="4"/>
+      <c r="W368" s="4"/>
+      <c r="X368" s="4"/>
+      <c r="Y368" s="4"/>
+      <c r="Z368" s="4"/>
+      <c r="AA368" s="4"/>
+      <c r="AB368" s="4"/>
+      <c r="AC368" s="4"/>
+    </row>
+    <row r="369" spans="21:29">
+      <c r="U369" s="4"/>
+      <c r="V369" s="4"/>
+      <c r="W369" s="4"/>
+      <c r="X369" s="4"/>
+      <c r="Y369" s="4"/>
+      <c r="Z369" s="4"/>
+      <c r="AA369" s="4"/>
+      <c r="AB369" s="4"/>
+      <c r="AC369" s="4"/>
+    </row>
+    <row r="370" spans="21:29">
+      <c r="U370" s="4"/>
+      <c r="V370" s="4"/>
+      <c r="W370" s="4"/>
+      <c r="X370" s="4"/>
+      <c r="Y370" s="4"/>
+      <c r="Z370" s="4"/>
+      <c r="AA370" s="4"/>
+      <c r="AB370" s="4"/>
+      <c r="AC370" s="4"/>
+    </row>
+    <row r="371" spans="21:29">
+      <c r="U371" s="4"/>
+      <c r="V371" s="4"/>
+      <c r="W371" s="4"/>
+      <c r="X371" s="4"/>
+      <c r="Y371" s="4"/>
+      <c r="Z371" s="4"/>
+      <c r="AA371" s="4"/>
+      <c r="AB371" s="4"/>
+      <c r="AC371" s="4"/>
+    </row>
+    <row r="372" spans="21:29">
+      <c r="U372" s="4"/>
+      <c r="V372" s="4"/>
+      <c r="W372" s="4"/>
+      <c r="X372" s="4"/>
+      <c r="Y372" s="4"/>
+      <c r="Z372" s="4"/>
+      <c r="AA372" s="4"/>
+      <c r="AB372" s="4"/>
+      <c r="AC372" s="4"/>
+    </row>
+    <row r="373" spans="21:29">
+      <c r="U373" s="4"/>
+      <c r="V373" s="4"/>
+      <c r="W373" s="4"/>
+      <c r="X373" s="4"/>
+      <c r="Y373" s="4"/>
+      <c r="Z373" s="4"/>
+      <c r="AA373" s="4"/>
+      <c r="AB373" s="4"/>
+      <c r="AC373" s="4"/>
+    </row>
+    <row r="374" spans="21:29">
+      <c r="U374" s="4"/>
+      <c r="V374" s="4"/>
+      <c r="W374" s="4"/>
+      <c r="X374" s="4"/>
+      <c r="Y374" s="4"/>
+      <c r="Z374" s="4"/>
+      <c r="AA374" s="4"/>
+      <c r="AB374" s="4"/>
+      <c r="AC374" s="4"/>
+    </row>
+    <row r="375" spans="21:29">
+      <c r="U375" s="4"/>
+      <c r="V375" s="4"/>
+      <c r="W375" s="4"/>
+      <c r="X375" s="4"/>
+      <c r="Y375" s="4"/>
+      <c r="Z375" s="4"/>
+      <c r="AA375" s="4"/>
+      <c r="AB375" s="4"/>
+      <c r="AC375" s="4"/>
+    </row>
+    <row r="376" spans="21:29">
+      <c r="U376" s="4"/>
+      <c r="V376" s="4"/>
+      <c r="W376" s="4"/>
+      <c r="X376" s="4"/>
+      <c r="Y376" s="4"/>
+      <c r="Z376" s="4"/>
+      <c r="AA376" s="4"/>
+      <c r="AB376" s="4"/>
+      <c r="AC376" s="4"/>
+    </row>
+    <row r="377" spans="21:29">
+      <c r="U377" s="4"/>
+      <c r="V377" s="4"/>
+      <c r="W377" s="4"/>
+      <c r="X377" s="4"/>
+      <c r="Y377" s="4"/>
+      <c r="Z377" s="4"/>
+      <c r="AA377" s="4"/>
+      <c r="AB377" s="4"/>
+      <c r="AC377" s="4"/>
+    </row>
+    <row r="378" spans="21:29">
+      <c r="U378" s="4"/>
+      <c r="V378" s="4"/>
+      <c r="W378" s="4"/>
+      <c r="X378" s="4"/>
+      <c r="Y378" s="4"/>
+      <c r="Z378" s="4"/>
+      <c r="AA378" s="4"/>
+      <c r="AB378" s="4"/>
+      <c r="AC378" s="4"/>
+    </row>
+    <row r="379" spans="21:29">
+      <c r="U379" s="4"/>
+      <c r="V379" s="4"/>
+      <c r="W379" s="4"/>
+      <c r="X379" s="4"/>
+      <c r="Y379" s="4"/>
+      <c r="Z379" s="4"/>
+      <c r="AA379" s="4"/>
+      <c r="AB379" s="4"/>
+      <c r="AC379" s="4"/>
+    </row>
+    <row r="380" spans="21:29">
+      <c r="U380" s="4"/>
+      <c r="V380" s="4"/>
+      <c r="W380" s="4"/>
+      <c r="X380" s="4"/>
+      <c r="Y380" s="4"/>
+      <c r="Z380" s="4"/>
+      <c r="AA380" s="4"/>
+      <c r="AB380" s="4"/>
+      <c r="AC380" s="4"/>
+    </row>
+    <row r="381" spans="21:29">
+      <c r="U381" s="4"/>
+      <c r="V381" s="4"/>
+      <c r="W381" s="4"/>
+      <c r="X381" s="4"/>
+      <c r="Y381" s="4"/>
+      <c r="Z381" s="4"/>
+      <c r="AA381" s="4"/>
+      <c r="AB381" s="4"/>
+      <c r="AC381" s="4"/>
+    </row>
+    <row r="382" spans="21:29">
+      <c r="U382" s="4"/>
+      <c r="V382" s="4"/>
+      <c r="W382" s="4"/>
+      <c r="X382" s="4"/>
+      <c r="Y382" s="4"/>
+      <c r="Z382" s="4"/>
+      <c r="AA382" s="4"/>
+      <c r="AB382" s="4"/>
+      <c r="AC382" s="4"/>
+    </row>
+    <row r="383" spans="21:29">
+      <c r="U383" s="4"/>
+      <c r="V383" s="4"/>
+      <c r="W383" s="4"/>
+      <c r="X383" s="4"/>
+      <c r="Y383" s="4"/>
+      <c r="Z383" s="4"/>
+      <c r="AA383" s="4"/>
+      <c r="AB383" s="4"/>
+      <c r="AC383" s="4"/>
+    </row>
+    <row r="384" spans="21:29">
+      <c r="U384" s="4"/>
+      <c r="V384" s="4"/>
+      <c r="W384" s="4"/>
+      <c r="X384" s="4"/>
+      <c r="Y384" s="4"/>
+      <c r="Z384" s="4"/>
+      <c r="AA384" s="4"/>
+      <c r="AB384" s="4"/>
+      <c r="AC384" s="4"/>
+    </row>
+    <row r="385" spans="21:29">
+      <c r="U385" s="4"/>
+      <c r="V385" s="4"/>
+      <c r="W385" s="4"/>
+      <c r="X385" s="4"/>
+      <c r="Y385" s="4"/>
+      <c r="Z385" s="4"/>
+      <c r="AA385" s="4"/>
+      <c r="AB385" s="4"/>
+      <c r="AC385" s="4"/>
+    </row>
+    <row r="386" spans="21:29">
+      <c r="U386" s="4"/>
+      <c r="V386" s="4"/>
+      <c r="W386" s="4"/>
+      <c r="X386" s="4"/>
+      <c r="Y386" s="4"/>
+      <c r="Z386" s="4"/>
+      <c r="AA386" s="4"/>
+      <c r="AB386" s="4"/>
+      <c r="AC386" s="4"/>
+    </row>
+    <row r="387" spans="21:29">
+      <c r="U387" s="4"/>
+      <c r="V387" s="4"/>
+      <c r="W387" s="4"/>
+      <c r="X387" s="4"/>
+      <c r="Y387" s="4"/>
+      <c r="Z387" s="4"/>
+      <c r="AA387" s="4"/>
+      <c r="AB387" s="4"/>
+      <c r="AC387" s="4"/>
+    </row>
+    <row r="388" spans="21:29">
+      <c r="U388" s="4"/>
+      <c r="V388" s="4"/>
+      <c r="W388" s="4"/>
+      <c r="X388" s="4"/>
+      <c r="Y388" s="4"/>
+      <c r="Z388" s="4"/>
+      <c r="AA388" s="4"/>
+      <c r="AB388" s="4"/>
+      <c r="AC388" s="4"/>
+    </row>
+    <row r="389" spans="21:29">
+      <c r="U389" s="4"/>
+      <c r="V389" s="4"/>
+      <c r="W389" s="4"/>
+      <c r="X389" s="4"/>
+      <c r="Y389" s="4"/>
+      <c r="Z389" s="4"/>
+      <c r="AA389" s="4"/>
+      <c r="AB389" s="4"/>
+      <c r="AC389" s="4"/>
+    </row>
+    <row r="390" spans="21:29">
+      <c r="U390" s="4"/>
+      <c r="V390" s="4"/>
+      <c r="W390" s="4"/>
+      <c r="X390" s="4"/>
+      <c r="Y390" s="4"/>
+      <c r="Z390" s="4"/>
+      <c r="AA390" s="4"/>
+      <c r="AB390" s="4"/>
+      <c r="AC390" s="4"/>
+    </row>
+    <row r="391" spans="21:29">
+      <c r="U391" s="4"/>
+      <c r="V391" s="4"/>
+      <c r="W391" s="4"/>
+      <c r="X391" s="4"/>
+      <c r="Y391" s="4"/>
+      <c r="Z391" s="4"/>
+      <c r="AA391" s="4"/>
+      <c r="AB391" s="4"/>
+      <c r="AC391" s="4"/>
+    </row>
+    <row r="392" spans="21:29">
+      <c r="U392" s="4"/>
+      <c r="V392" s="4"/>
+      <c r="W392" s="4"/>
+      <c r="X392" s="4"/>
+      <c r="Y392" s="4"/>
+      <c r="Z392" s="4"/>
+      <c r="AA392" s="4"/>
+      <c r="AB392" s="4"/>
+      <c r="AC392" s="4"/>
+    </row>
+    <row r="393" spans="21:29">
+      <c r="U393" s="4"/>
+      <c r="V393" s="4"/>
+      <c r="W393" s="4"/>
+      <c r="X393" s="4"/>
+      <c r="Y393" s="4"/>
+      <c r="Z393" s="4"/>
+      <c r="AA393" s="4"/>
+      <c r="AB393" s="4"/>
+      <c r="AC393" s="4"/>
+    </row>
+    <row r="394" spans="21:29">
+      <c r="U394" s="4"/>
+      <c r="V394" s="4"/>
+      <c r="W394" s="4"/>
+      <c r="X394" s="4"/>
+      <c r="Y394" s="4"/>
+      <c r="Z394" s="4"/>
+      <c r="AA394" s="4"/>
+      <c r="AB394" s="4"/>
+      <c r="AC394" s="4"/>
+    </row>
+    <row r="395" spans="21:29">
+      <c r="U395" s="4"/>
+      <c r="V395" s="4"/>
+      <c r="W395" s="4"/>
+      <c r="X395" s="4"/>
+      <c r="Y395" s="4"/>
+      <c r="Z395" s="4"/>
+      <c r="AA395" s="4"/>
+      <c r="AB395" s="4"/>
+      <c r="AC395" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
+  <mergeCells count="11">
+    <mergeCell ref="AG6:AI6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="O6:Q6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6977614E-C998-4981-996F-07442307807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A839BC-FDCD-48C1-BE08-538CC2ADFC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="186">
   <si>
     <t>英文名稱</t>
   </si>
@@ -746,6 +746,34 @@
   </si>
   <si>
     <t>遠程危險度評估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石頭砸擊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳躍砸擊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>石頭投擲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸石砸擊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬石砸擊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊暈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸石存在其他強力派生攻擊，如:爆炸投擲、地雷等附加火屬性且高傷害之技能，由於爆炸石本身出現條件嚴苛，故暫且不計</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -817,7 +845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,6 +859,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1154,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:AJ395"/>
+  <dimension ref="A2:AJ394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1165,7 +1196,8 @@
     <col min="1" max="1" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8" style="5" customWidth="1"/>
     <col min="9" max="9" width="8.375" style="2" customWidth="1"/>
     <col min="10" max="11" width="8" style="2" bestFit="1" customWidth="1"/>
@@ -1178,7 +1210,7 @@
     <col min="27" max="29" width="7.375" style="2" customWidth="1"/>
     <col min="30" max="32" width="4.75" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="35" width="4.75" style="5" customWidth="1"/>
-    <col min="36" max="36" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="98.375" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1237,63 +1269,63 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:36">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6" t="s">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6" t="s">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6" t="s">
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6" t="s">
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6" t="s">
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6" t="s">
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6" t="s">
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
@@ -1512,86 +1544,653 @@
         <v>0</v>
       </c>
       <c r="AD8" s="2" t="str">
-        <f>IF((U8+X8)&lt;($J$4/2),"低",IF((U8+X8)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD8:AI8" si="0">IF((U8+X8)&lt;($J$4/2),"低",IF((U8+X8)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE8" s="5" t="str">
-        <f>IF((V8+Y8)&lt;($J$4/2),"低",IF((V8+Y8)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="0"/>
         <v>低</v>
       </c>
       <c r="AF8" s="5" t="str">
-        <f>IF((W8+Z8)&lt;($J$4/2),"低",IF((W8+Z8)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="0"/>
         <v>低</v>
       </c>
       <c r="AG8" s="5" t="str">
-        <f>IF((X8+AA8)&lt;($J$4/2),"低",IF((X8+AA8)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="0"/>
         <v>低</v>
       </c>
       <c r="AH8" s="5" t="str">
-        <f>IF((Y8+AB8)&lt;($J$4/2),"低",IF((Y8+AB8)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="0"/>
         <v>低</v>
       </c>
       <c r="AI8" s="5" t="str">
-        <f>IF((Z8+AC8)&lt;($J$4/2),"低",IF((Z8+AC8)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="0"/>
         <v>低</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="5" customFormat="1">
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-    </row>
-    <row r="10" spans="1:36" s="5" customFormat="1">
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-    </row>
-    <row r="11" spans="1:36" s="5" customFormat="1">
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-    </row>
-    <row r="12" spans="1:36" s="5" customFormat="1">
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-    </row>
-    <row r="13" spans="1:36" s="5" customFormat="1">
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-    </row>
-    <row r="14" spans="1:36" s="5" customFormat="1">
+    <row r="9" spans="1:36" s="6" customFormat="1">
+      <c r="D9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="6">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>8</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <f>E9*I9</f>
+        <v>256</v>
+      </c>
+      <c r="M9" s="6">
+        <f>E9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <f>E9*K9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <f>F9*I9</f>
+        <v>360</v>
+      </c>
+      <c r="P9" s="6">
+        <f>F9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <f>F9*K9</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <f>H9*I9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <f>H9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <f>H9*K9</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="4">
+        <f>L9*$G$3/$E$3</f>
+        <v>0.12641975308641976</v>
+      </c>
+      <c r="V9" s="4">
+        <f>M9*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <f>N9*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <f>R9*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <f>S9*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <f>T9*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <f>O9*$G$3/$E$3</f>
+        <v>0.17777777777777776</v>
+      </c>
+      <c r="AB9" s="4">
+        <f>P9*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <f>Q9*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="6" t="str">
+        <f t="shared" ref="AD9" si="1">IF((U9+X9)&lt;($J$4/2),"低",IF((U9+X9)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE9" s="6" t="str">
+        <f t="shared" ref="AE9" si="2">IF((V9+Y9)&lt;($J$4/2),"低",IF((V9+Y9)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF9" s="6" t="str">
+        <f t="shared" ref="AF9" si="3">IF((W9+Z9)&lt;($J$4/2),"低",IF((W9+Z9)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG9" s="6" t="str">
+        <f t="shared" ref="AG9" si="4">IF((X9+AA9)&lt;($J$4/2),"低",IF((X9+AA9)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AH9" s="6" t="str">
+        <f t="shared" ref="AH9" si="5">IF((Y9+AB9)&lt;($J$4/2),"低",IF((Y9+AB9)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI9" s="6" t="str">
+        <f t="shared" ref="AI9" si="6">IF((Z9+AC9)&lt;($J$4/2),"低",IF((Z9+AC9)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="6" customFormat="1">
+      <c r="D10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="6">
+        <v>65</v>
+      </c>
+      <c r="F10" s="6">
+        <v>90</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <v>8</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <f>E10*I10</f>
+        <v>520</v>
+      </c>
+      <c r="M10" s="6">
+        <f>E10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <f>E10*K10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <f>F10*I10</f>
+        <v>720</v>
+      </c>
+      <c r="P10" s="6">
+        <f>F10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <f>F10*K10</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <f>H10*I10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <f>H10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <f>H10*K10</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <f>L10*$G$3/$E$3</f>
+        <v>0.25679012345679014</v>
+      </c>
+      <c r="V10" s="4">
+        <f>M10*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
+        <f>N10*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <f>R10*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <f>S10*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="4">
+        <f>T10*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
+        <f>O10*$G$3/$E$3</f>
+        <v>0.35555555555555551</v>
+      </c>
+      <c r="AB10" s="4">
+        <f>P10*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <f>Q10*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="6" t="str">
+        <f t="shared" ref="AD10:AD12" si="7">IF((U10+X10)&lt;($J$4/2),"低",IF((U10+X10)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AE10" s="6" t="str">
+        <f t="shared" ref="AE10:AE12" si="8">IF((V10+Y10)&lt;($J$4/2),"低",IF((V10+Y10)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF10" s="6" t="str">
+        <f t="shared" ref="AF10:AF12" si="9">IF((W10+Z10)&lt;($J$4/2),"低",IF((W10+Z10)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG10" s="6" t="str">
+        <f t="shared" ref="AG10:AG12" si="10">IF((X10+AA10)&lt;($J$4/2),"低",IF((X10+AA10)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AH10" s="6" t="str">
+        <f t="shared" ref="AH10:AH12" si="11">IF((Y10+AB10)&lt;($J$4/2),"低",IF((Y10+AB10)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI10" s="6" t="str">
+        <f t="shared" ref="AI10:AI12" si="12">IF((Z10+AC10)&lt;($J$4/2),"低",IF((Z10+AC10)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" s="6" customFormat="1">
+      <c r="D11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>8</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <f>E11*I11</f>
+        <v>160</v>
+      </c>
+      <c r="M11" s="6">
+        <f>E11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f>E11*K11</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <f>F11*I11</f>
+        <v>224</v>
+      </c>
+      <c r="P11" s="6">
+        <f>F11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>F11*K11</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <f>H11*I11</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <f>H11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <f>H11*K11</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <f>L11*$G$3/$E$3</f>
+        <v>7.9012345679012344E-2</v>
+      </c>
+      <c r="V11" s="4">
+        <f>M11*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <f>N11*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <f>R11*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <f>S11*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <f>T11*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <f>O11*$G$3/$E$3</f>
+        <v>0.11061728395061728</v>
+      </c>
+      <c r="AB11" s="4">
+        <f>P11*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <f>Q11*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>低</v>
+      </c>
+      <c r="AE11" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>低</v>
+      </c>
+      <c r="AF11" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>低</v>
+      </c>
+      <c r="AG11" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>低</v>
+      </c>
+      <c r="AH11" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>低</v>
+      </c>
+      <c r="AI11" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="6" customFormat="1">
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="6">
+        <v>36</v>
+      </c>
+      <c r="F12" s="6">
+        <v>50</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>8</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <f>E12*I12</f>
+        <v>288</v>
+      </c>
+      <c r="M12" s="6">
+        <f>E12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <f>E12*K12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <f>F12*I12</f>
+        <v>400</v>
+      </c>
+      <c r="P12" s="6">
+        <f>F12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <f>F12*K12</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <f>H12*I12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <f>H12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <f>H12*K12</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <f>L12*$G$3/$E$3</f>
+        <v>0.14222222222222222</v>
+      </c>
+      <c r="V12" s="4">
+        <f>M12*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <f>N12*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="4">
+        <f>R12*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>S12*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="4">
+        <f>T12*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <f>O12*$G$3/$E$3</f>
+        <v>0.19753086419753085</v>
+      </c>
+      <c r="AB12" s="4">
+        <f>P12*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <f>Q12*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>低</v>
+      </c>
+      <c r="AE12" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>低</v>
+      </c>
+      <c r="AF12" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>低</v>
+      </c>
+      <c r="AG12" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>低</v>
+      </c>
+      <c r="AH12" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>低</v>
+      </c>
+      <c r="AI12" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>低</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" s="6" customFormat="1">
+      <c r="D13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="6">
+        <v>40</v>
+      </c>
+      <c r="F13" s="6">
+        <v>56</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>8</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <f>E13*I13</f>
+        <v>320</v>
+      </c>
+      <c r="M13" s="6">
+        <f>E13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <f>E13*K13</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <f>F13*I13</f>
+        <v>448</v>
+      </c>
+      <c r="P13" s="6">
+        <f>F13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <f>F13*K13</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <f>H13*I13</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <f>H13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <f>H13*K13</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <f>L13*$G$3/$E$3</f>
+        <v>0.15802469135802469</v>
+      </c>
+      <c r="V13" s="4">
+        <f>M13*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <f>N13*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <f>R13*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <f>S13*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4">
+        <f>T13*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4">
+        <f>O13*$G$3/$E$3</f>
+        <v>0.22123456790123455</v>
+      </c>
+      <c r="AB13" s="4">
+        <f>P13*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <f>Q13*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="6" t="str">
+        <f t="shared" ref="AD13" si="13">IF((U13+X13)&lt;($J$4/2),"低",IF((U13+X13)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE13" s="6" t="str">
+        <f t="shared" ref="AE13" si="14">IF((V13+Y13)&lt;($J$4/2),"低",IF((V13+Y13)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF13" s="6" t="str">
+        <f t="shared" ref="AF13" si="15">IF((W13+Z13)&lt;($J$4/2),"低",IF((W13+Z13)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG13" s="6" t="str">
+        <f t="shared" ref="AG13" si="16">IF((X13+AA13)&lt;($J$4/2),"低",IF((X13+AA13)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AH13" s="6" t="str">
+        <f t="shared" ref="AH13" si="17">IF((Y13+AB13)&lt;($J$4/2),"低",IF((Y13+AB13)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI13" s="6" t="str">
+        <f t="shared" ref="AI13" si="18">IF((Z13+AC13)&lt;($J$4/2),"低",IF((Z13+AC13)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
@@ -1607,10 +2206,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -1627,10 +2226,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
@@ -1647,10 +2246,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
@@ -1667,10 +2266,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
@@ -1684,13 +2283,13 @@
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
@@ -1707,10 +2306,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
@@ -1727,10 +2326,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
@@ -1747,10 +2346,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
@@ -1767,10 +2366,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -1787,10 +2386,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
@@ -1807,10 +2406,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
@@ -1827,10 +2426,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
@@ -1847,10 +2446,10 @@
         <v>17</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
@@ -1867,10 +2466,10 @@
         <v>17</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
@@ -1887,10 +2486,10 @@
         <v>17</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
@@ -1907,10 +2506,10 @@
         <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -1924,13 +2523,13 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
@@ -1947,10 +2546,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -1964,13 +2563,13 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
@@ -1987,10 +2586,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
@@ -2007,10 +2606,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
@@ -2027,10 +2626,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
@@ -2047,10 +2646,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
@@ -2067,10 +2666,10 @@
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
@@ -2087,10 +2686,10 @@
         <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
@@ -2107,10 +2706,10 @@
         <v>33</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
@@ -2127,10 +2726,10 @@
         <v>33</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
@@ -2144,13 +2743,13 @@
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
@@ -2167,10 +2766,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
@@ -2187,10 +2786,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -2207,10 +2806,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
@@ -2227,10 +2826,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
@@ -2247,10 +2846,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
@@ -2267,10 +2866,10 @@
         <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
@@ -2287,10 +2886,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
@@ -2307,10 +2906,10 @@
         <v>43</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
@@ -2327,10 +2926,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
@@ -2347,10 +2946,10 @@
         <v>43</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
@@ -2367,10 +2966,10 @@
         <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
@@ -2387,10 +2986,10 @@
         <v>43</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
@@ -2407,10 +3006,10 @@
         <v>43</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
@@ -2427,10 +3026,10 @@
         <v>43</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
@@ -2447,10 +3046,10 @@
         <v>43</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
@@ -2467,10 +3066,10 @@
         <v>43</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
@@ -2487,10 +3086,10 @@
         <v>43</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
@@ -2507,10 +3106,10 @@
         <v>43</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
@@ -2524,13 +3123,13 @@
     </row>
     <row r="61" spans="1:29">
       <c r="A61" s="2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
@@ -2547,10 +3146,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
@@ -2567,10 +3166,10 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
@@ -2584,13 +3183,13 @@
     </row>
     <row r="64" spans="1:29">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
@@ -2607,10 +3206,10 @@
         <v>67</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
@@ -2627,10 +3226,10 @@
         <v>67</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
@@ -2647,10 +3246,10 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
@@ -2667,10 +3266,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
@@ -2687,10 +3286,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
@@ -2707,10 +3306,10 @@
         <v>67</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
@@ -2727,10 +3326,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
@@ -2747,10 +3346,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
@@ -2767,10 +3366,10 @@
         <v>67</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
@@ -2787,10 +3386,10 @@
         <v>67</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
@@ -2807,10 +3406,10 @@
         <v>67</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
@@ -2827,10 +3426,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
@@ -2847,10 +3446,10 @@
         <v>67</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
@@ -2867,10 +3466,10 @@
         <v>67</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
@@ -2887,10 +3486,10 @@
         <v>67</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
@@ -2907,10 +3506,10 @@
         <v>67</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
@@ -2923,14 +3522,14 @@
       <c r="AC80" s="4"/>
     </row>
     <row r="81" spans="1:29">
-      <c r="A81" s="2" t="s">
-        <v>67</v>
+      <c r="A81" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
@@ -2947,10 +3546,10 @@
         <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
@@ -2963,15 +3562,6 @@
       <c r="AC82" s="4"/>
     </row>
     <row r="83" spans="1:29">
-      <c r="A83" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
@@ -6402,17 +6992,6 @@
       <c r="AA394" s="4"/>
       <c r="AB394" s="4"/>
       <c r="AC394" s="4"/>
-    </row>
-    <row r="395" spans="21:29">
-      <c r="U395" s="4"/>
-      <c r="V395" s="4"/>
-      <c r="W395" s="4"/>
-      <c r="X395" s="4"/>
-      <c r="Y395" s="4"/>
-      <c r="Z395" s="4"/>
-      <c r="AA395" s="4"/>
-      <c r="AB395" s="4"/>
-      <c r="AC395" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A839BC-FDCD-48C1-BE08-538CC2ADFC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC4DA4E-C44E-4C31-826A-5005DFBEA4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="197">
   <si>
     <t>英文名稱</t>
   </si>
@@ -769,11 +769,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>擊暈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>爆炸石存在其他強力派生攻擊，如:爆炸投擲、地雷等附加火屬性且高傷害之技能，由於爆炸石本身出現條件嚴苛，故暫且不計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐舌攻擊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力毒彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力水球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水鐵炮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水鐵炮(大)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水鐵炮(必殺)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掃射水流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掃射水流(大)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,6 +903,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1185,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:AJ394"/>
+  <dimension ref="A2:AJ405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1269,63 +1316,63 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:36">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7" t="s">
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7" t="s">
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7" t="s">
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7" t="s">
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7" t="s">
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7" t="s">
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="2" t="s">
@@ -1472,99 +1519,99 @@
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <f>E8*I8</f>
+        <f t="shared" ref="L8:L14" si="0">E8*I8</f>
         <v>192</v>
       </c>
       <c r="M8" s="2">
-        <f>E8*J8</f>
+        <f t="shared" ref="M8:M14" si="1">E8*J8</f>
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <f>E8*K8</f>
+        <f t="shared" ref="N8:N14" si="2">E8*K8</f>
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f>F8*I8</f>
+        <f t="shared" ref="O8:O14" si="3">F8*I8</f>
         <v>264</v>
       </c>
       <c r="P8" s="5">
-        <f>F8*J8</f>
+        <f t="shared" ref="P8:P14" si="4">F8*J8</f>
         <v>0</v>
       </c>
       <c r="Q8" s="5">
-        <f>F8*K8</f>
+        <f t="shared" ref="Q8:Q14" si="5">F8*K8</f>
         <v>0</v>
       </c>
       <c r="R8" s="5">
-        <f>H8*I8</f>
+        <f t="shared" ref="R8:R14" si="6">H8*I8</f>
         <v>0</v>
       </c>
       <c r="S8" s="5">
-        <f>H8*J8</f>
+        <f t="shared" ref="S8:S14" si="7">H8*J8</f>
         <v>0</v>
       </c>
       <c r="T8" s="2">
-        <f>H8*K8</f>
+        <f t="shared" ref="T8:T14" si="8">H8*K8</f>
         <v>0</v>
       </c>
       <c r="U8" s="4">
-        <f>L8*$G$3/$E$3</f>
+        <f t="shared" ref="U8:W14" si="9">L8*$G$3/$E$3</f>
         <v>9.481481481481481E-2</v>
       </c>
       <c r="V8" s="4">
-        <f>M8*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W8" s="4">
-        <f>N8*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X8" s="4">
-        <f>R8*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="X8:Z14" si="10">R8*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Y8" s="4">
-        <f>S8*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z8" s="4">
-        <f>T8*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA8" s="4">
-        <f>O8*$G$3/$E$3</f>
+        <f t="shared" ref="AA8:AC14" si="11">O8*$G$3/$E$3</f>
         <v>0.13037037037037036</v>
       </c>
       <c r="AB8" s="4">
-        <f>P8*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC8" s="4">
-        <f>Q8*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD8" s="2" t="str">
-        <f t="shared" ref="AD8:AI8" si="0">IF((U8+X8)&lt;($J$4/2),"低",IF((U8+X8)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD8:AI8" si="12">IF((U8+X8)&lt;($J$4/2),"低",IF((U8+X8)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE8" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>低</v>
       </c>
       <c r="AF8" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>低</v>
       </c>
       <c r="AG8" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>低</v>
       </c>
       <c r="AH8" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>低</v>
       </c>
       <c r="AI8" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="12"/>
         <v>低</v>
       </c>
     </row>
@@ -1578,8 +1625,8 @@
       <c r="F9" s="6">
         <v>45</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>184</v>
+      <c r="G9" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
@@ -1594,99 +1641,99 @@
         <v>0</v>
       </c>
       <c r="L9" s="6">
-        <f>E9*I9</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="M9" s="6">
-        <f>E9*J9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="6">
-        <f>E9*K9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="6">
-        <f>F9*I9</f>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="P9" s="6">
-        <f>F9*J9</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q9" s="6">
-        <f>F9*K9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R9" s="6">
-        <f>H9*I9</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9" s="6">
-        <f>H9*J9</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T9" s="6">
-        <f>H9*K9</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U9" s="4">
-        <f>L9*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0.12641975308641976</v>
       </c>
       <c r="V9" s="4">
-        <f>M9*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W9" s="4">
-        <f>N9*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X9" s="4">
-        <f>R9*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y9" s="4">
-        <f>S9*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z9" s="4">
-        <f>T9*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA9" s="4">
-        <f>O9*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0.17777777777777776</v>
       </c>
       <c r="AB9" s="4">
-        <f>P9*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC9" s="4">
-        <f>Q9*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD9" s="6" t="str">
-        <f t="shared" ref="AD9" si="1">IF((U9+X9)&lt;($J$4/2),"低",IF((U9+X9)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD9" si="13">IF((U9+X9)&lt;($J$4/2),"低",IF((U9+X9)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE9" s="6" t="str">
-        <f t="shared" ref="AE9" si="2">IF((V9+Y9)&lt;($J$4/2),"低",IF((V9+Y9)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AE9" si="14">IF((V9+Y9)&lt;($J$4/2),"低",IF((V9+Y9)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AF9" s="6" t="str">
-        <f t="shared" ref="AF9" si="3">IF((W9+Z9)&lt;($J$4/2),"低",IF((W9+Z9)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AF9" si="15">IF((W9+Z9)&lt;($J$4/2),"低",IF((W9+Z9)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG9" s="6" t="str">
-        <f t="shared" ref="AG9" si="4">IF((X9+AA9)&lt;($J$4/2),"低",IF((X9+AA9)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AG9" si="16">IF((X9+AA9)&lt;($J$4/2),"低",IF((X9+AA9)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AH9" s="6" t="str">
-        <f t="shared" ref="AH9" si="5">IF((Y9+AB9)&lt;($J$4/2),"低",IF((Y9+AB9)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AH9" si="17">IF((Y9+AB9)&lt;($J$4/2),"低",IF((Y9+AB9)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AI9" s="6" t="str">
-        <f t="shared" ref="AI9" si="6">IF((Z9+AC9)&lt;($J$4/2),"低",IF((Z9+AC9)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AI9" si="18">IF((Z9+AC9)&lt;($J$4/2),"低",IF((Z9+AC9)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
     </row>
@@ -1700,8 +1747,8 @@
       <c r="F10" s="6">
         <v>90</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>184</v>
+      <c r="G10" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -1716,99 +1763,99 @@
         <v>0</v>
       </c>
       <c r="L10" s="6">
-        <f>E10*I10</f>
+        <f t="shared" si="0"/>
         <v>520</v>
       </c>
       <c r="M10" s="6">
-        <f>E10*J10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="6">
-        <f>E10*K10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O10" s="6">
-        <f>F10*I10</f>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
       <c r="P10" s="6">
-        <f>F10*J10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q10" s="6">
-        <f>F10*K10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R10" s="6">
-        <f>H10*I10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S10" s="6">
-        <f>H10*J10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T10" s="6">
-        <f>H10*K10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U10" s="4">
-        <f>L10*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0.25679012345679014</v>
       </c>
       <c r="V10" s="4">
-        <f>M10*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W10" s="4">
-        <f>N10*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X10" s="4">
-        <f>R10*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y10" s="4">
-        <f>S10*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z10" s="4">
-        <f>T10*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA10" s="4">
-        <f>O10*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0.35555555555555551</v>
       </c>
       <c r="AB10" s="4">
-        <f>P10*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC10" s="4">
-        <f>Q10*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD10" s="6" t="str">
-        <f t="shared" ref="AD10:AD12" si="7">IF((U10+X10)&lt;($J$4/2),"低",IF((U10+X10)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD10:AD12" si="19">IF((U10+X10)&lt;($J$4/2),"低",IF((U10+X10)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AE10" s="6" t="str">
-        <f t="shared" ref="AE10:AE12" si="8">IF((V10+Y10)&lt;($J$4/2),"低",IF((V10+Y10)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AE10:AE12" si="20">IF((V10+Y10)&lt;($J$4/2),"低",IF((V10+Y10)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AF10" s="6" t="str">
-        <f t="shared" ref="AF10:AF12" si="9">IF((W10+Z10)&lt;($J$4/2),"低",IF((W10+Z10)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AF10:AF12" si="21">IF((W10+Z10)&lt;($J$4/2),"低",IF((W10+Z10)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG10" s="6" t="str">
-        <f t="shared" ref="AG10:AG12" si="10">IF((X10+AA10)&lt;($J$4/2),"低",IF((X10+AA10)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AG10:AG12" si="22">IF((X10+AA10)&lt;($J$4/2),"低",IF((X10+AA10)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AH10" s="6" t="str">
-        <f t="shared" ref="AH10:AH12" si="11">IF((Y10+AB10)&lt;($J$4/2),"低",IF((Y10+AB10)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AH10:AH12" si="23">IF((Y10+AB10)&lt;($J$4/2),"低",IF((Y10+AB10)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AI10" s="6" t="str">
-        <f t="shared" ref="AI10:AI12" si="12">IF((Z10+AC10)&lt;($J$4/2),"低",IF((Z10+AC10)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AI10:AI12" si="24">IF((Z10+AC10)&lt;($J$4/2),"低",IF((Z10+AC10)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
     </row>
@@ -1838,99 +1885,99 @@
         <v>0</v>
       </c>
       <c r="L11" s="6">
-        <f>E11*I11</f>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="M11" s="6">
-        <f>E11*J11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="6">
-        <f>E11*K11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11" s="6">
-        <f>F11*I11</f>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="P11" s="6">
-        <f>F11*J11</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q11" s="6">
-        <f>F11*K11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R11" s="6">
-        <f>H11*I11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S11" s="6">
-        <f>H11*J11</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T11" s="6">
-        <f>H11*K11</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U11" s="4">
-        <f>L11*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>7.9012345679012344E-2</v>
       </c>
       <c r="V11" s="4">
-        <f>M11*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W11" s="4">
-        <f>N11*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X11" s="4">
-        <f>R11*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y11" s="4">
-        <f>S11*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z11" s="4">
-        <f>T11*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA11" s="4">
-        <f>O11*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0.11061728395061728</v>
       </c>
       <c r="AB11" s="4">
-        <f>P11*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC11" s="4">
-        <f>Q11*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD11" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>低</v>
       </c>
       <c r="AE11" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>低</v>
       </c>
       <c r="AF11" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>低</v>
       </c>
       <c r="AG11" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>低</v>
       </c>
       <c r="AH11" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>低</v>
       </c>
       <c r="AI11" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>低</v>
       </c>
     </row>
@@ -1944,8 +1991,8 @@
       <c r="F12" s="6">
         <v>50</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>184</v>
+      <c r="G12" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -1960,103 +2007,103 @@
         <v>0</v>
       </c>
       <c r="L12" s="6">
-        <f>E12*I12</f>
+        <f t="shared" si="0"/>
         <v>288</v>
       </c>
       <c r="M12" s="6">
-        <f>E12*J12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="6">
-        <f>E12*K12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12" s="6">
-        <f>F12*I12</f>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="P12" s="6">
-        <f>F12*J12</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q12" s="6">
-        <f>F12*K12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R12" s="6">
-        <f>H12*I12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S12" s="6">
-        <f>H12*J12</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T12" s="6">
-        <f>H12*K12</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U12" s="4">
-        <f>L12*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0.14222222222222222</v>
       </c>
       <c r="V12" s="4">
-        <f>M12*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W12" s="4">
-        <f>N12*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X12" s="4">
-        <f>R12*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y12" s="4">
-        <f>S12*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z12" s="4">
-        <f>T12*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA12" s="4">
-        <f>O12*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0.19753086419753085</v>
       </c>
       <c r="AB12" s="4">
-        <f>P12*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC12" s="4">
-        <f>Q12*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD12" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>低</v>
       </c>
       <c r="AE12" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>低</v>
       </c>
       <c r="AF12" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>低</v>
       </c>
       <c r="AG12" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>低</v>
       </c>
       <c r="AH12" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>低</v>
       </c>
       <c r="AI12" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>低</v>
       </c>
       <c r="AJ12" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:36" s="6" customFormat="1">
@@ -2069,8 +2116,8 @@
       <c r="F13" s="6">
         <v>56</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>184</v>
+      <c r="G13" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -2085,99 +2132,99 @@
         <v>0</v>
       </c>
       <c r="L13" s="6">
-        <f>E13*I13</f>
+        <f t="shared" si="0"/>
         <v>320</v>
       </c>
       <c r="M13" s="6">
-        <f>E13*J13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="6">
-        <f>E13*K13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O13" s="6">
-        <f>F13*I13</f>
+        <f t="shared" si="3"/>
         <v>448</v>
       </c>
       <c r="P13" s="6">
-        <f>F13*J13</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q13" s="6">
-        <f>F13*K13</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R13" s="6">
-        <f>H13*I13</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S13" s="6">
-        <f>H13*J13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T13" s="6">
-        <f>H13*K13</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U13" s="4">
-        <f>L13*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0.15802469135802469</v>
       </c>
       <c r="V13" s="4">
-        <f>M13*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W13" s="4">
-        <f>N13*$G$3/$E$3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X13" s="4">
-        <f>R13*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y13" s="4">
-        <f>S13*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z13" s="4">
-        <f>T13*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA13" s="4">
-        <f>O13*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0.22123456790123455</v>
       </c>
       <c r="AB13" s="4">
-        <f>P13*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC13" s="4">
-        <f>Q13*$G$3/$E$3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD13" s="6" t="str">
-        <f t="shared" ref="AD13" si="13">IF((U13+X13)&lt;($J$4/2),"低",IF((U13+X13)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD13:AD14" si="25">IF((U13+X13)&lt;($J$4/2),"低",IF((U13+X13)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE13" s="6" t="str">
-        <f t="shared" ref="AE13" si="14">IF((V13+Y13)&lt;($J$4/2),"低",IF((V13+Y13)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AE13:AE14" si="26">IF((V13+Y13)&lt;($J$4/2),"低",IF((V13+Y13)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AF13" s="6" t="str">
-        <f t="shared" ref="AF13" si="15">IF((W13+Z13)&lt;($J$4/2),"低",IF((W13+Z13)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AF13:AF14" si="27">IF((W13+Z13)&lt;($J$4/2),"低",IF((W13+Z13)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG13" s="6" t="str">
-        <f t="shared" ref="AG13" si="16">IF((X13+AA13)&lt;($J$4/2),"低",IF((X13+AA13)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AG13:AG14" si="28">IF((X13+AA13)&lt;($J$4/2),"低",IF((X13+AA13)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AH13" s="6" t="str">
-        <f t="shared" ref="AH13" si="17">IF((Y13+AB13)&lt;($J$4/2),"低",IF((Y13+AB13)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AH13:AH14" si="29">IF((Y13+AB13)&lt;($J$4/2),"低",IF((Y13+AB13)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AI13" s="6" t="str">
-        <f t="shared" ref="AI13" si="18">IF((Z13+AC13)&lt;($J$4/2),"低",IF((Z13+AC13)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AI13:AI14" si="30">IF((Z13+AC13)&lt;($J$4/2),"低",IF((Z13+AC13)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
     </row>
@@ -2191,265 +2238,1609 @@
       <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-    </row>
-    <row r="15" spans="1:36">
-      <c r="A15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-    </row>
-    <row r="16" spans="1:36">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-    </row>
-    <row r="17" spans="1:29">
-      <c r="A17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="D14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="2">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2">
+        <v>33</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="3"/>
+        <v>313.5</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="9"/>
+        <v>0.11259259259259259</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4">
+        <f t="shared" si="11"/>
+        <v>0.15481481481481482</v>
+      </c>
+      <c r="AB14" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2" t="str">
+        <f t="shared" si="25"/>
+        <v>低</v>
+      </c>
+      <c r="AE14" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>低</v>
+      </c>
+      <c r="AF14" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>低</v>
+      </c>
+      <c r="AG14" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>低</v>
+      </c>
+      <c r="AH14" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>低</v>
+      </c>
+      <c r="AI14" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" s="7" customFormat="1">
+      <c r="D15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="7">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7">
+        <v>62</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" ref="L15" si="31">E15*I15</f>
+        <v>418</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" ref="M15" si="32">E15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" ref="N15" si="33">E15*K15</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" ref="O15" si="34">F15*I15</f>
+        <v>589</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" ref="P15" si="35">F15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <f t="shared" ref="Q15" si="36">F15*K15</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <f t="shared" ref="R15" si="37">H15*I15</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <f t="shared" ref="S15" si="38">H15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="7">
+        <f t="shared" ref="T15" si="39">H15*K15</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" ref="U15" si="40">L15*$G$3/$E$3</f>
+        <v>0.20641975308641974</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" ref="V15" si="41">M15*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <f t="shared" ref="W15" si="42">N15*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" ref="X15" si="43">R15*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <f t="shared" ref="Y15" si="44">S15*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4">
+        <f t="shared" ref="Z15" si="45">T15*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <f t="shared" ref="AA15" si="46">O15*$G$3/$E$3</f>
+        <v>0.29086419753086418</v>
+      </c>
+      <c r="AB15" s="4">
+        <f t="shared" ref="AB15" si="47">P15*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <f t="shared" ref="AC15" si="48">Q15*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="7" t="str">
+        <f t="shared" ref="AD15" si="49">IF((U15+X15)&lt;($J$4/2),"低",IF((U15+X15)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE15" s="7" t="str">
+        <f t="shared" ref="AE15" si="50">IF((V15+Y15)&lt;($J$4/2),"低",IF((V15+Y15)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF15" s="7" t="str">
+        <f t="shared" ref="AF15" si="51">IF((W15+Z15)&lt;($J$4/2),"低",IF((W15+Z15)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG15" s="7" t="str">
+        <f t="shared" ref="AG15" si="52">IF((X15+AA15)&lt;($J$4/2),"低",IF((X15+AA15)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AH15" s="7" t="str">
+        <f t="shared" ref="AH15" si="53">IF((Y15+AB15)&lt;($J$4/2),"低",IF((Y15+AB15)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI15" s="7" t="str">
+        <f t="shared" ref="AI15" si="54">IF((Z15+AC15)&lt;($J$4/2),"低",IF((Z15+AC15)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" s="7" customFormat="1">
+      <c r="D16" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="7">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7">
+        <v>22</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" ref="L16" si="55">E16*I16</f>
+        <v>152</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" ref="M16" si="56">E16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" ref="N16" si="57">E16*K16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" ref="O16" si="58">F16*I16</f>
+        <v>209</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" ref="P16" si="59">F16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" ref="Q16" si="60">F16*K16</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <f t="shared" ref="R16" si="61">H16*I16</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <f t="shared" ref="S16" si="62">H16*J16</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <f t="shared" ref="T16" si="63">H16*K16</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" ref="U16" si="64">L16*$G$3/$E$3</f>
+        <v>7.5061728395061728E-2</v>
+      </c>
+      <c r="V16" s="4">
+        <f t="shared" ref="V16" si="65">M16*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <f t="shared" ref="W16" si="66">N16*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <f t="shared" ref="X16" si="67">R16*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <f t="shared" ref="Y16" si="68">S16*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="4">
+        <f t="shared" ref="Z16" si="69">T16*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <f t="shared" ref="AA16" si="70">O16*$G$3/$E$3</f>
+        <v>0.10320987654320987</v>
+      </c>
+      <c r="AB16" s="4">
+        <f t="shared" ref="AB16" si="71">P16*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
+        <f t="shared" ref="AC16" si="72">Q16*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7" t="str">
+        <f t="shared" ref="AD16" si="73">IF((U16+X16)&lt;($J$4/2),"低",IF((U16+X16)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE16" s="7" t="str">
+        <f t="shared" ref="AE16" si="74">IF((V16+Y16)&lt;($J$4/2),"低",IF((V16+Y16)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF16" s="7" t="str">
+        <f t="shared" ref="AF16" si="75">IF((W16+Z16)&lt;($J$4/2),"低",IF((W16+Z16)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG16" s="7" t="str">
+        <f t="shared" ref="AG16" si="76">IF((X16+AA16)&lt;($J$4/2),"低",IF((X16+AA16)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AH16" s="7" t="str">
+        <f t="shared" ref="AH16" si="77">IF((Y16+AB16)&lt;($J$4/2),"低",IF((Y16+AB16)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI16" s="7" t="str">
+        <f t="shared" ref="AI16" si="78">IF((Z16+AC16)&lt;($J$4/2),"低",IF((Z16+AC16)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" s="7" customFormat="1">
+      <c r="D17" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E17" s="7">
+        <v>44</v>
+      </c>
+      <c r="F17" s="7">
+        <v>62</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" ref="L17:L18" si="79">E17*I17</f>
+        <v>418</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" ref="M17:M18" si="80">E17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" ref="N17:N18" si="81">E17*K17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" ref="O17:O27" si="82">F17*I17</f>
+        <v>589</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" ref="P17:P18" si="83">F17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" ref="Q17:Q18" si="84">F17*K17</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="7">
+        <f t="shared" ref="R17:R18" si="85">H17*I17</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <f t="shared" ref="S17:S18" si="86">H17*J17</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="7">
+        <f t="shared" ref="T17:T18" si="87">H17*K17</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" ref="U17:U18" si="88">L17*$G$3/$E$3</f>
+        <v>0.20641975308641974</v>
+      </c>
+      <c r="V17" s="4">
+        <f t="shared" ref="V17:V18" si="89">M17*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <f t="shared" ref="W17:W18" si="90">N17*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <f t="shared" ref="X17:X18" si="91">R17*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <f t="shared" ref="Y17:Y18" si="92">S17*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <f t="shared" ref="Z17:Z18" si="93">T17*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <f t="shared" ref="AA17:AA18" si="94">O17*$G$3/$E$3</f>
+        <v>0.29086419753086418</v>
+      </c>
+      <c r="AB17" s="4">
+        <f t="shared" ref="AB17:AB18" si="95">P17*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <f t="shared" ref="AC17:AC18" si="96">Q17*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="7" t="str">
+        <f t="shared" ref="AD17:AD18" si="97">IF((U17+X17)&lt;($J$4/2),"低",IF((U17+X17)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE17" s="7" t="str">
+        <f t="shared" ref="AE17:AE18" si="98">IF((V17+Y17)&lt;($J$4/2),"低",IF((V17+Y17)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF17" s="7" t="str">
+        <f t="shared" ref="AF17:AF18" si="99">IF((W17+Z17)&lt;($J$4/2),"低",IF((W17+Z17)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG17" s="7" t="str">
+        <f t="shared" ref="AG17:AG18" si="100">IF((X17+AA17)&lt;($J$4/2),"低",IF((X17+AA17)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AH17" s="7" t="str">
+        <f t="shared" ref="AH17:AH18" si="101">IF((Y17+AB17)&lt;($J$4/2),"低",IF((Y17+AB17)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI17" s="7" t="str">
+        <f t="shared" ref="AI17:AI18" si="102">IF((Z17+AC17)&lt;($J$4/2),"低",IF((Z17+AC17)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-    </row>
-    <row r="19" spans="1:29">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-    </row>
-    <row r="20" spans="1:29">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-    </row>
-    <row r="21" spans="1:29">
-      <c r="A21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-    </row>
-    <row r="22" spans="1:29">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-    </row>
-    <row r="23" spans="1:29">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-    </row>
-    <row r="24" spans="1:29">
-      <c r="A24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-    </row>
-    <row r="25" spans="1:29">
-      <c r="A25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="7">
         <v>24</v>
       </c>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-    </row>
-    <row r="26" spans="1:29">
-      <c r="A26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="F18" s="7">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>7</v>
+      </c>
+      <c r="J18" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="79"/>
+        <v>168</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="80"/>
+        <v>252</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="82"/>
+        <v>231</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="83"/>
+        <v>346.5</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="7">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="88"/>
+        <v>8.2962962962962947E-2</v>
+      </c>
+      <c r="V18" s="4">
+        <f t="shared" si="89"/>
+        <v>0.12444444444444443</v>
+      </c>
+      <c r="W18" s="4">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="4">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4">
+        <f t="shared" si="94"/>
+        <v>0.11407407407407408</v>
+      </c>
+      <c r="AB18" s="4">
+        <f t="shared" si="95"/>
+        <v>0.1711111111111111</v>
+      </c>
+      <c r="AC18" s="4">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7" t="str">
+        <f t="shared" si="97"/>
+        <v>低</v>
+      </c>
+      <c r="AE18" s="2" t="str">
+        <f t="shared" si="98"/>
+        <v>低</v>
+      </c>
+      <c r="AF18" s="2" t="str">
+        <f t="shared" si="99"/>
+        <v>低</v>
+      </c>
+      <c r="AG18" s="7" t="str">
+        <f t="shared" si="100"/>
+        <v>低</v>
+      </c>
+      <c r="AH18" s="5" t="str">
+        <f t="shared" si="101"/>
+        <v>低</v>
+      </c>
+      <c r="AI18" s="5" t="str">
+        <f t="shared" si="102"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" s="7" customFormat="1">
+      <c r="D19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="7">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7">
+        <v>62</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>7</v>
+      </c>
+      <c r="J19" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" ref="L19" si="103">E19*I19</f>
+        <v>308</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" ref="M19" si="104">E19*J19</f>
+        <v>462</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" ref="N19" si="105">E19*K19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" ref="O19" si="106">F19*I19</f>
+        <v>434</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" ref="P19" si="107">F19*J19</f>
+        <v>651</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" ref="Q19" si="108">F19*K19</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" ref="R19" si="109">H19*I19</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" ref="S19" si="110">H19*J19</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <f t="shared" ref="T19" si="111">H19*K19</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" ref="U19" si="112">L19*$G$3/$E$3</f>
+        <v>0.15209876543209874</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" ref="V19" si="113">M19*$G$3/$E$3</f>
+        <v>0.22814814814814816</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" ref="W19" si="114">N19*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" ref="X19" si="115">R19*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" ref="Y19" si="116">S19*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" ref="Z19" si="117">T19*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" ref="AA19" si="118">O19*$G$3/$E$3</f>
+        <v>0.21432098765432098</v>
+      </c>
+      <c r="AB19" s="4">
+        <f t="shared" ref="AB19" si="119">P19*$G$3/$E$3</f>
+        <v>0.32148148148148148</v>
+      </c>
+      <c r="AC19" s="4">
+        <f t="shared" ref="AC19" si="120">Q19*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7" t="str">
+        <f t="shared" ref="AD19" si="121">IF((U19+X19)&lt;($J$4/2),"低",IF((U19+X19)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE19" s="7" t="str">
+        <f t="shared" ref="AE19" si="122">IF((V19+Y19)&lt;($J$4/2),"低",IF((V19+Y19)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF19" s="7" t="str">
+        <f t="shared" ref="AF19" si="123">IF((W19+Z19)&lt;($J$4/2),"低",IF((W19+Z19)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG19" s="7" t="str">
+        <f t="shared" ref="AG19" si="124">IF((X19+AA19)&lt;($J$4/2),"低",IF((X19+AA19)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AH19" s="7" t="str">
+        <f t="shared" ref="AH19" si="125">IF((Y19+AB19)&lt;($J$4/2),"低",IF((Y19+AB19)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AI19" s="7" t="str">
+        <f t="shared" ref="AI19" si="126">IF((Z19+AC19)&lt;($J$4/2),"低",IF((Z19+AC19)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" s="7" customFormat="1">
+      <c r="D20" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="7">
+        <v>52</v>
+      </c>
+      <c r="F20" s="7">
+        <v>70</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="7">
+        <v>35</v>
+      </c>
+      <c r="I20" s="7">
+        <v>7</v>
+      </c>
+      <c r="J20" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" ref="L20" si="127">E20*I20</f>
+        <v>364</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" ref="M20" si="128">E20*J20</f>
+        <v>546</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" ref="N20" si="129">E20*K20</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" ref="O20" si="130">F20*I20</f>
+        <v>490</v>
+      </c>
+      <c r="P20" s="7">
+        <f t="shared" ref="P20" si="131">F20*J20</f>
+        <v>735</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" ref="Q20" si="132">F20*K20</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="7">
+        <f t="shared" ref="R20" si="133">H20*I20</f>
+        <v>245</v>
+      </c>
+      <c r="S20" s="7">
+        <f t="shared" ref="S20" si="134">H20*J20</f>
+        <v>367.5</v>
+      </c>
+      <c r="T20" s="7">
+        <f t="shared" ref="T20" si="135">H20*K20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" ref="U20" si="136">L20*$G$3/$E$3</f>
+        <v>0.17975308641975307</v>
+      </c>
+      <c r="V20" s="4">
+        <f t="shared" ref="V20" si="137">M20*$G$3/$E$3</f>
+        <v>0.26962962962962961</v>
+      </c>
+      <c r="W20" s="4">
+        <f t="shared" ref="W20" si="138">N20*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <f t="shared" ref="X20" si="139">R20*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.12098765432098765</v>
+      </c>
+      <c r="Y20" s="4">
+        <f t="shared" ref="Y20" si="140">S20*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.18148148148148147</v>
+      </c>
+      <c r="Z20" s="4">
+        <f t="shared" ref="Z20" si="141">T20*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
+        <f t="shared" ref="AA20" si="142">O20*$G$3/$E$3</f>
+        <v>0.24197530864197531</v>
+      </c>
+      <c r="AB20" s="4">
+        <f t="shared" ref="AB20" si="143">P20*$G$3/$E$3</f>
+        <v>0.36296296296296293</v>
+      </c>
+      <c r="AC20" s="4">
+        <f t="shared" ref="AC20" si="144">Q20*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="7" t="str">
+        <f t="shared" ref="AD20" si="145">IF((U20+X20)&lt;($J$4/2),"低",IF((U20+X20)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AE20" s="7" t="str">
+        <f t="shared" ref="AE20" si="146">IF((V20+Y20)&lt;($J$4/2),"低",IF((V20+Y20)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AF20" s="7" t="str">
+        <f t="shared" ref="AF20" si="147">IF((W20+Z20)&lt;($J$4/2),"低",IF((W20+Z20)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG20" s="7" t="str">
+        <f t="shared" ref="AG20" si="148">IF((X20+AA20)&lt;($J$4/2),"低",IF((X20+AA20)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AH20" s="7" t="str">
+        <f t="shared" ref="AH20" si="149">IF((Y20+AB20)&lt;($J$4/2),"低",IF((Y20+AB20)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AI20" s="7" t="str">
+        <f t="shared" ref="AI20" si="150">IF((Z20+AC20)&lt;($J$4/2),"低",IF((Z20+AC20)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" s="7" customFormat="1">
+      <c r="D21" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="7">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7">
+        <v>70</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="7">
+        <v>35</v>
+      </c>
+      <c r="I21" s="7">
+        <v>7</v>
+      </c>
+      <c r="J21" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" ref="L21" si="151">E21*I21</f>
+        <v>364</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" ref="M21" si="152">E21*J21</f>
+        <v>546</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" ref="N21" si="153">E21*K21</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" ref="O21" si="154">F21*I21</f>
+        <v>490</v>
+      </c>
+      <c r="P21" s="7">
+        <f t="shared" ref="P21" si="155">F21*J21</f>
+        <v>735</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" ref="Q21" si="156">F21*K21</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="7">
+        <f t="shared" ref="R21" si="157">H21*I21</f>
+        <v>245</v>
+      </c>
+      <c r="S21" s="7">
+        <f t="shared" ref="S21" si="158">H21*J21</f>
+        <v>367.5</v>
+      </c>
+      <c r="T21" s="7">
+        <f t="shared" ref="T21" si="159">H21*K21</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" ref="U21" si="160">L21*$G$3/$E$3</f>
+        <v>0.17975308641975307</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" ref="V21" si="161">M21*$G$3/$E$3</f>
+        <v>0.26962962962962961</v>
+      </c>
+      <c r="W21" s="4">
+        <f t="shared" ref="W21" si="162">N21*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" ref="X21" si="163">R21*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.12098765432098765</v>
+      </c>
+      <c r="Y21" s="4">
+        <f t="shared" ref="Y21" si="164">S21*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.18148148148148147</v>
+      </c>
+      <c r="Z21" s="4">
+        <f t="shared" ref="Z21" si="165">T21*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" ref="AA21" si="166">O21*$G$3/$E$3</f>
+        <v>0.24197530864197531</v>
+      </c>
+      <c r="AB21" s="4">
+        <f t="shared" ref="AB21" si="167">P21*$G$3/$E$3</f>
+        <v>0.36296296296296293</v>
+      </c>
+      <c r="AC21" s="4">
+        <f t="shared" ref="AC21" si="168">Q21*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="7" t="str">
+        <f t="shared" ref="AD21" si="169">IF((U21+X21)&lt;($J$4/2),"低",IF((U21+X21)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AE21" s="7" t="str">
+        <f t="shared" ref="AE21" si="170">IF((V21+Y21)&lt;($J$4/2),"低",IF((V21+Y21)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AF21" s="7" t="str">
+        <f t="shared" ref="AF21" si="171">IF((W21+Z21)&lt;($J$4/2),"低",IF((W21+Z21)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG21" s="7" t="str">
+        <f t="shared" ref="AG21" si="172">IF((X21+AA21)&lt;($J$4/2),"低",IF((X21+AA21)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AH21" s="7" t="str">
+        <f t="shared" ref="AH21" si="173">IF((Y21+AB21)&lt;($J$4/2),"低",IF((Y21+AB21)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AI21" s="7" t="str">
+        <f t="shared" ref="AI21" si="174">IF((Z21+AC21)&lt;($J$4/2),"低",IF((Z21+AC21)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" s="7" customFormat="1">
+      <c r="D22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="7">
+        <v>52</v>
+      </c>
+      <c r="F22" s="7">
+        <v>70</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="7">
+        <v>40</v>
+      </c>
+      <c r="I22" s="7">
+        <v>7</v>
+      </c>
+      <c r="J22" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" ref="L22" si="175">E22*I22</f>
+        <v>364</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" ref="M22" si="176">E22*J22</f>
+        <v>546</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" ref="N22" si="177">E22*K22</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" ref="O22" si="178">F22*I22</f>
+        <v>490</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" ref="P22" si="179">F22*J22</f>
+        <v>735</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" ref="Q22" si="180">F22*K22</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="7">
+        <f t="shared" ref="R22" si="181">H22*I22</f>
+        <v>280</v>
+      </c>
+      <c r="S22" s="7">
+        <f t="shared" ref="S22" si="182">H22*J22</f>
+        <v>420</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" ref="T22" si="183">H22*K22</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" ref="U22" si="184">L22*$G$3/$E$3</f>
+        <v>0.17975308641975307</v>
+      </c>
+      <c r="V22" s="4">
+        <f t="shared" ref="V22" si="185">M22*$G$3/$E$3</f>
+        <v>0.26962962962962961</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" ref="W22" si="186">N22*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" ref="X22" si="187">R22*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.13827160493827159</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" ref="Y22" si="188">S22*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.2074074074074074</v>
+      </c>
+      <c r="Z22" s="4">
+        <f t="shared" ref="Z22" si="189">T22*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" ref="AA22" si="190">O22*$G$3/$E$3</f>
+        <v>0.24197530864197531</v>
+      </c>
+      <c r="AB22" s="4">
+        <f t="shared" ref="AB22" si="191">P22*$G$3/$E$3</f>
+        <v>0.36296296296296293</v>
+      </c>
+      <c r="AC22" s="4">
+        <f t="shared" ref="AC22" si="192">Q22*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="7" t="str">
+        <f t="shared" ref="AD22" si="193">IF((U22+X22)&lt;($J$4/2),"低",IF((U22+X22)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AE22" s="7" t="str">
+        <f t="shared" ref="AE22" si="194">IF((V22+Y22)&lt;($J$4/2),"低",IF((V22+Y22)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AF22" s="7" t="str">
+        <f t="shared" ref="AF22" si="195">IF((W22+Z22)&lt;($J$4/2),"低",IF((W22+Z22)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG22" s="7" t="str">
+        <f t="shared" ref="AG22" si="196">IF((X22+AA22)&lt;($J$4/2),"低",IF((X22+AA22)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AH22" s="7" t="str">
+        <f t="shared" ref="AH22" si="197">IF((Y22+AB22)&lt;($J$4/2),"低",IF((Y22+AB22)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AI22" s="7" t="str">
+        <f t="shared" ref="AI22" si="198">IF((Z22+AC22)&lt;($J$4/2),"低",IF((Z22+AC22)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" s="7" customFormat="1">
+      <c r="D23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="7">
+        <v>64</v>
+      </c>
+      <c r="F23" s="7">
+        <v>86</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="7">
+        <v>50</v>
+      </c>
+      <c r="I23" s="7">
+        <v>7</v>
+      </c>
+      <c r="J23" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" ref="L23" si="199">E23*I23</f>
+        <v>448</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" ref="M23" si="200">E23*J23</f>
+        <v>672</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" ref="N23" si="201">E23*K23</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" ref="O23" si="202">F23*I23</f>
+        <v>602</v>
+      </c>
+      <c r="P23" s="7">
+        <f t="shared" ref="P23" si="203">F23*J23</f>
+        <v>903</v>
+      </c>
+      <c r="Q23" s="7">
+        <f t="shared" ref="Q23" si="204">F23*K23</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="7">
+        <f t="shared" ref="R23" si="205">H23*I23</f>
+        <v>350</v>
+      </c>
+      <c r="S23" s="7">
+        <f t="shared" ref="S23" si="206">H23*J23</f>
+        <v>525</v>
+      </c>
+      <c r="T23" s="7">
+        <f t="shared" ref="T23" si="207">H23*K23</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" ref="U23" si="208">L23*$G$3/$E$3</f>
+        <v>0.22123456790123455</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" ref="V23" si="209">M23*$G$3/$E$3</f>
+        <v>0.33185185185185179</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" ref="W23" si="210">N23*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" ref="X23" si="211">R23*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.1728395061728395</v>
+      </c>
+      <c r="Y23" s="4">
+        <f t="shared" ref="Y23" si="212">S23*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="Z23" s="4">
+        <f t="shared" ref="Z23" si="213">T23*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4">
+        <f t="shared" ref="AA23" si="214">O23*$G$3/$E$3</f>
+        <v>0.29728395061728391</v>
+      </c>
+      <c r="AB23" s="4">
+        <f t="shared" ref="AB23" si="215">P23*$G$3/$E$3</f>
+        <v>0.44592592592592589</v>
+      </c>
+      <c r="AC23" s="4">
+        <f t="shared" ref="AC23" si="216">Q23*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="7" t="str">
+        <f t="shared" ref="AD23" si="217">IF((U23+X23)&lt;($J$4/2),"低",IF((U23+X23)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AE23" s="7" t="str">
+        <f t="shared" ref="AE23" si="218">IF((V23+Y23)&lt;($J$4/2),"低",IF((V23+Y23)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AF23" s="7" t="str">
+        <f t="shared" ref="AF23" si="219">IF((W23+Z23)&lt;($J$4/2),"低",IF((W23+Z23)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG23" s="7" t="str">
+        <f t="shared" ref="AG23" si="220">IF((X23+AA23)&lt;($J$4/2),"低",IF((X23+AA23)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AH23" s="7" t="str">
+        <f t="shared" ref="AH23" si="221">IF((Y23+AB23)&lt;($J$4/2),"低",IF((Y23+AB23)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AI23" s="7" t="str">
+        <f t="shared" ref="AI23" si="222">IF((Z23+AC23)&lt;($J$4/2),"低",IF((Z23+AC23)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" s="7" customFormat="1">
+      <c r="D24" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="7">
+        <v>81</v>
+      </c>
+      <c r="F24" s="7">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H24" s="7">
+        <v>70</v>
+      </c>
+      <c r="I24" s="7">
+        <v>7</v>
+      </c>
+      <c r="J24" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" ref="L24" si="223">E24*I24</f>
+        <v>567</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" ref="M24" si="224">E24*J24</f>
+        <v>850.5</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" ref="N24" si="225">E24*K24</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" ref="O24" si="226">F24*I24</f>
+        <v>756</v>
+      </c>
+      <c r="P24" s="7">
+        <f t="shared" ref="P24" si="227">F24*J24</f>
+        <v>1134</v>
+      </c>
+      <c r="Q24" s="7">
+        <f t="shared" ref="Q24" si="228">F24*K24</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="7">
+        <f t="shared" ref="R24" si="229">H24*I24</f>
+        <v>490</v>
+      </c>
+      <c r="S24" s="7">
+        <f t="shared" ref="S24" si="230">H24*J24</f>
+        <v>735</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" ref="T24" si="231">H24*K24</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" ref="U24" si="232">L24*$G$3/$E$3</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V24" s="4">
+        <f t="shared" ref="V24" si="233">M24*$G$3/$E$3</f>
+        <v>0.42</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" ref="W24" si="234">N24*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" ref="X24" si="235">R24*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.24197530864197531</v>
+      </c>
+      <c r="Y24" s="4">
+        <f t="shared" ref="Y24" si="236">S24*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.36296296296296293</v>
+      </c>
+      <c r="Z24" s="4">
+        <f t="shared" ref="Z24" si="237">T24*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4">
+        <f t="shared" ref="AA24" si="238">O24*$G$3/$E$3</f>
+        <v>0.37333333333333335</v>
+      </c>
+      <c r="AB24" s="4">
+        <f t="shared" ref="AB24" si="239">P24*$G$3/$E$3</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AC24" s="4">
+        <f t="shared" ref="AC24" si="240">Q24*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="7" t="str">
+        <f t="shared" ref="AD24" si="241">IF((U24+X24)&lt;($J$4/2),"低",IF((U24+X24)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AE24" s="7" t="str">
+        <f t="shared" ref="AE24" si="242">IF((V24+Y24)&lt;($J$4/2),"低",IF((V24+Y24)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AF24" s="7" t="str">
+        <f t="shared" ref="AF24" si="243">IF((W24+Z24)&lt;($J$4/2),"低",IF((W24+Z24)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG24" s="7" t="str">
+        <f t="shared" ref="AG24" si="244">IF((X24+AA24)&lt;($J$4/2),"低",IF((X24+AA24)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AH24" s="7" t="str">
+        <f t="shared" ref="AH24" si="245">IF((Y24+AB24)&lt;($J$4/2),"低",IF((Y24+AB24)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AI24" s="7" t="str">
+        <f t="shared" ref="AI24" si="246">IF((Z24+AC24)&lt;($J$4/2),"低",IF((Z24+AC24)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" s="7" customFormat="1">
+      <c r="D25" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="7">
+        <v>52</v>
+      </c>
+      <c r="F25" s="7">
+        <v>70</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="7">
+        <v>40</v>
+      </c>
+      <c r="I25" s="7">
+        <v>7</v>
+      </c>
+      <c r="J25" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" ref="L25" si="247">E25*I25</f>
+        <v>364</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" ref="M25" si="248">E25*J25</f>
+        <v>546</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" ref="N25" si="249">E25*K25</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" ref="O25" si="250">F25*I25</f>
+        <v>490</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" ref="P25" si="251">F25*J25</f>
+        <v>735</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" ref="Q25" si="252">F25*K25</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="7">
+        <f t="shared" ref="R25" si="253">H25*I25</f>
+        <v>280</v>
+      </c>
+      <c r="S25" s="7">
+        <f t="shared" ref="S25" si="254">H25*J25</f>
+        <v>420</v>
+      </c>
+      <c r="T25" s="7">
+        <f t="shared" ref="T25" si="255">H25*K25</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" ref="U25" si="256">L25*$G$3/$E$3</f>
+        <v>0.17975308641975307</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" ref="V25" si="257">M25*$G$3/$E$3</f>
+        <v>0.26962962962962961</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" ref="W25" si="258">N25*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" ref="X25" si="259">R25*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.13827160493827159</v>
+      </c>
+      <c r="Y25" s="4">
+        <f t="shared" ref="Y25" si="260">S25*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.2074074074074074</v>
+      </c>
+      <c r="Z25" s="4">
+        <f t="shared" ref="Z25" si="261">T25*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4">
+        <f t="shared" ref="AA25" si="262">O25*$G$3/$E$3</f>
+        <v>0.24197530864197531</v>
+      </c>
+      <c r="AB25" s="4">
+        <f t="shared" ref="AB25" si="263">P25*$G$3/$E$3</f>
+        <v>0.36296296296296293</v>
+      </c>
+      <c r="AC25" s="4">
+        <f t="shared" ref="AC25" si="264">Q25*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="7" t="str">
+        <f t="shared" ref="AD25" si="265">IF((U25+X25)&lt;($J$4/2),"低",IF((U25+X25)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AE25" s="7" t="str">
+        <f t="shared" ref="AE25" si="266">IF((V25+Y25)&lt;($J$4/2),"低",IF((V25+Y25)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AF25" s="7" t="str">
+        <f t="shared" ref="AF25" si="267">IF((W25+Z25)&lt;($J$4/2),"低",IF((W25+Z25)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG25" s="7" t="str">
+        <f t="shared" ref="AG25" si="268">IF((X25+AA25)&lt;($J$4/2),"低",IF((X25+AA25)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AH25" s="7" t="str">
+        <f t="shared" ref="AH25" si="269">IF((Y25+AB25)&lt;($J$4/2),"低",IF((Y25+AB25)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AI25" s="7" t="str">
+        <f t="shared" ref="AI25" si="270">IF((Z25+AC25)&lt;($J$4/2),"低",IF((Z25+AC25)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" s="7" customFormat="1">
+      <c r="D26" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="7">
+        <v>64</v>
+      </c>
+      <c r="F26" s="7">
+        <v>86</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="7">
+        <v>40</v>
+      </c>
+      <c r="I26" s="7">
+        <v>7</v>
+      </c>
+      <c r="J26" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" ref="L26" si="271">E26*I26</f>
+        <v>448</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" ref="M26" si="272">E26*J26</f>
+        <v>672</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" ref="N26" si="273">E26*K26</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" ref="O26" si="274">F26*I26</f>
+        <v>602</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" ref="P26" si="275">F26*J26</f>
+        <v>903</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" ref="Q26" si="276">F26*K26</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <f t="shared" ref="R26" si="277">H26*I26</f>
+        <v>280</v>
+      </c>
+      <c r="S26" s="7">
+        <f t="shared" ref="S26" si="278">H26*J26</f>
+        <v>420</v>
+      </c>
+      <c r="T26" s="7">
+        <f t="shared" ref="T26" si="279">H26*K26</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" ref="U26" si="280">L26*$G$3/$E$3</f>
+        <v>0.22123456790123455</v>
+      </c>
+      <c r="V26" s="4">
+        <f t="shared" ref="V26" si="281">M26*$G$3/$E$3</f>
+        <v>0.33185185185185179</v>
+      </c>
+      <c r="W26" s="4">
+        <f t="shared" ref="W26" si="282">N26*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="4">
+        <f t="shared" ref="X26" si="283">R26*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.13827160493827159</v>
+      </c>
+      <c r="Y26" s="4">
+        <f t="shared" ref="Y26" si="284">S26*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.2074074074074074</v>
+      </c>
+      <c r="Z26" s="4">
+        <f t="shared" ref="Z26" si="285">T26*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="4">
+        <f t="shared" ref="AA26" si="286">O26*$G$3/$E$3</f>
+        <v>0.29728395061728391</v>
+      </c>
+      <c r="AB26" s="4">
+        <f t="shared" ref="AB26" si="287">P26*$G$3/$E$3</f>
+        <v>0.44592592592592589</v>
+      </c>
+      <c r="AC26" s="4">
+        <f t="shared" ref="AC26" si="288">Q26*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="7" t="str">
+        <f t="shared" ref="AD26" si="289">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AE26" s="7" t="str">
+        <f t="shared" ref="AE26" si="290">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AF26" s="7" t="str">
+        <f t="shared" ref="AF26" si="291">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG26" s="7" t="str">
+        <f t="shared" ref="AG26" si="292">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AH26" s="7" t="str">
+        <f t="shared" ref="AH26" si="293">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AI26" s="7" t="str">
+        <f t="shared" ref="AI26" si="294">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
@@ -2461,15 +3852,15 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:35">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
@@ -2481,15 +3872,15 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:35">
       <c r="A29" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
@@ -2501,15 +3892,15 @@
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:35">
       <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -2521,15 +3912,15 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:35">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
@@ -2541,15 +3932,15 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:35">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -2563,13 +3954,13 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
@@ -2583,13 +3974,13 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
@@ -2603,13 +3994,13 @@
     </row>
     <row r="35" spans="1:29">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
@@ -2623,13 +4014,13 @@
     </row>
     <row r="36" spans="1:29">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
@@ -2643,13 +4034,13 @@
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
@@ -2663,13 +4054,13 @@
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
@@ -2683,13 +4074,13 @@
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
@@ -2703,13 +4094,13 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
@@ -2723,13 +4114,13 @@
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
@@ -2743,13 +4134,13 @@
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
@@ -2763,13 +4154,13 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
@@ -2783,13 +4174,13 @@
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -2803,13 +4194,13 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
@@ -2823,13 +4214,13 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
@@ -2843,13 +4234,13 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
@@ -2863,13 +4254,13 @@
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
@@ -2883,13 +4274,13 @@
     </row>
     <row r="49" spans="1:29">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
@@ -2903,13 +4294,13 @@
     </row>
     <row r="50" spans="1:29">
       <c r="A50" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
@@ -2923,13 +4314,13 @@
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
@@ -2943,13 +4334,13 @@
     </row>
     <row r="52" spans="1:29">
       <c r="A52" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
@@ -2966,10 +4357,10 @@
         <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
@@ -2986,10 +4377,10 @@
         <v>43</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
@@ -3006,10 +4397,10 @@
         <v>43</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
@@ -3026,10 +4417,10 @@
         <v>43</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
@@ -3046,10 +4437,10 @@
         <v>43</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
@@ -3066,10 +4457,10 @@
         <v>43</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
@@ -3086,10 +4477,10 @@
         <v>43</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
@@ -3106,10 +4497,10 @@
         <v>43</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
@@ -3123,13 +4514,13 @@
     </row>
     <row r="61" spans="1:29">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
@@ -3143,13 +4534,13 @@
     </row>
     <row r="62" spans="1:29">
       <c r="A62" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
@@ -3163,13 +4554,13 @@
     </row>
     <row r="63" spans="1:29">
       <c r="A63" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
@@ -3183,13 +4574,13 @@
     </row>
     <row r="64" spans="1:29">
       <c r="A64" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
@@ -3203,13 +4594,13 @@
     </row>
     <row r="65" spans="1:29">
       <c r="A65" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
@@ -3223,13 +4614,13 @@
     </row>
     <row r="66" spans="1:29">
       <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
@@ -3243,13 +4634,13 @@
     </row>
     <row r="67" spans="1:29">
       <c r="A67" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
@@ -3263,13 +4654,13 @@
     </row>
     <row r="68" spans="1:29">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
@@ -3283,13 +4674,13 @@
     </row>
     <row r="69" spans="1:29">
       <c r="A69" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
@@ -3303,13 +4694,13 @@
     </row>
     <row r="70" spans="1:29">
       <c r="A70" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
@@ -3323,13 +4714,13 @@
     </row>
     <row r="71" spans="1:29">
       <c r="A71" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
@@ -3343,13 +4734,13 @@
     </row>
     <row r="72" spans="1:29">
       <c r="A72" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
@@ -3363,13 +4754,13 @@
     </row>
     <row r="73" spans="1:29">
       <c r="A73" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
@@ -3383,13 +4774,13 @@
     </row>
     <row r="74" spans="1:29">
       <c r="A74" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
@@ -3406,10 +4797,10 @@
         <v>67</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
@@ -3426,10 +4817,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
@@ -3446,10 +4837,10 @@
         <v>67</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
@@ -3466,10 +4857,10 @@
         <v>67</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
@@ -3486,10 +4877,10 @@
         <v>67</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
@@ -3506,10 +4897,10 @@
         <v>67</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
@@ -3522,14 +4913,14 @@
       <c r="AC80" s="4"/>
     </row>
     <row r="81" spans="1:29">
-      <c r="A81" s="3" t="s">
-        <v>85</v>
+      <c r="A81" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
@@ -3542,14 +4933,14 @@
       <c r="AC81" s="4"/>
     </row>
     <row r="82" spans="1:29">
-      <c r="A82" s="3" t="s">
-        <v>85</v>
+      <c r="A82" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>88</v>
+        <v>149</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
@@ -3562,6 +4953,15 @@
       <c r="AC82" s="4"/>
     </row>
     <row r="83" spans="1:29">
+      <c r="A83" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
@@ -3573,6 +4973,15 @@
       <c r="AC83" s="4"/>
     </row>
     <row r="84" spans="1:29">
+      <c r="A84" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
@@ -3584,6 +4993,15 @@
       <c r="AC84" s="4"/>
     </row>
     <row r="85" spans="1:29">
+      <c r="A85" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="U85" s="4"/>
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
@@ -3595,6 +5013,15 @@
       <c r="AC85" s="4"/>
     </row>
     <row r="86" spans="1:29">
+      <c r="A86" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="U86" s="4"/>
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
@@ -3606,6 +5033,15 @@
       <c r="AC86" s="4"/>
     </row>
     <row r="87" spans="1:29">
+      <c r="A87" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="U87" s="4"/>
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
@@ -3617,6 +5053,15 @@
       <c r="AC87" s="4"/>
     </row>
     <row r="88" spans="1:29">
+      <c r="A88" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="U88" s="4"/>
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
@@ -3628,6 +5073,15 @@
       <c r="AC88" s="4"/>
     </row>
     <row r="89" spans="1:29">
+      <c r="A89" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="U89" s="4"/>
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
@@ -3639,6 +5093,15 @@
       <c r="AC89" s="4"/>
     </row>
     <row r="90" spans="1:29">
+      <c r="A90" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="U90" s="4"/>
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
@@ -3650,6 +5113,15 @@
       <c r="AC90" s="4"/>
     </row>
     <row r="91" spans="1:29">
+      <c r="A91" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="U91" s="4"/>
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
@@ -3661,6 +5133,15 @@
       <c r="AC91" s="4"/>
     </row>
     <row r="92" spans="1:29">
+      <c r="A92" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="U92" s="4"/>
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
@@ -3672,6 +5153,15 @@
       <c r="AC92" s="4"/>
     </row>
     <row r="93" spans="1:29">
+      <c r="A93" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="U93" s="4"/>
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
@@ -6992,6 +8482,127 @@
       <c r="AA394" s="4"/>
       <c r="AB394" s="4"/>
       <c r="AC394" s="4"/>
+    </row>
+    <row r="395" spans="21:29">
+      <c r="U395" s="4"/>
+      <c r="V395" s="4"/>
+      <c r="W395" s="4"/>
+      <c r="X395" s="4"/>
+      <c r="Y395" s="4"/>
+      <c r="Z395" s="4"/>
+      <c r="AA395" s="4"/>
+      <c r="AB395" s="4"/>
+      <c r="AC395" s="4"/>
+    </row>
+    <row r="396" spans="21:29">
+      <c r="U396" s="4"/>
+      <c r="V396" s="4"/>
+      <c r="W396" s="4"/>
+      <c r="X396" s="4"/>
+      <c r="Y396" s="4"/>
+      <c r="Z396" s="4"/>
+      <c r="AA396" s="4"/>
+      <c r="AB396" s="4"/>
+      <c r="AC396" s="4"/>
+    </row>
+    <row r="397" spans="21:29">
+      <c r="U397" s="4"/>
+      <c r="V397" s="4"/>
+      <c r="W397" s="4"/>
+      <c r="X397" s="4"/>
+      <c r="Y397" s="4"/>
+      <c r="Z397" s="4"/>
+      <c r="AA397" s="4"/>
+      <c r="AB397" s="4"/>
+      <c r="AC397" s="4"/>
+    </row>
+    <row r="398" spans="21:29">
+      <c r="U398" s="4"/>
+      <c r="V398" s="4"/>
+      <c r="W398" s="4"/>
+      <c r="X398" s="4"/>
+      <c r="Y398" s="4"/>
+      <c r="Z398" s="4"/>
+      <c r="AA398" s="4"/>
+      <c r="AB398" s="4"/>
+      <c r="AC398" s="4"/>
+    </row>
+    <row r="399" spans="21:29">
+      <c r="U399" s="4"/>
+      <c r="V399" s="4"/>
+      <c r="W399" s="4"/>
+      <c r="X399" s="4"/>
+      <c r="Y399" s="4"/>
+      <c r="Z399" s="4"/>
+      <c r="AA399" s="4"/>
+      <c r="AB399" s="4"/>
+      <c r="AC399" s="4"/>
+    </row>
+    <row r="400" spans="21:29">
+      <c r="U400" s="4"/>
+      <c r="V400" s="4"/>
+      <c r="W400" s="4"/>
+      <c r="X400" s="4"/>
+      <c r="Y400" s="4"/>
+      <c r="Z400" s="4"/>
+      <c r="AA400" s="4"/>
+      <c r="AB400" s="4"/>
+      <c r="AC400" s="4"/>
+    </row>
+    <row r="401" spans="21:29">
+      <c r="U401" s="4"/>
+      <c r="V401" s="4"/>
+      <c r="W401" s="4"/>
+      <c r="X401" s="4"/>
+      <c r="Y401" s="4"/>
+      <c r="Z401" s="4"/>
+      <c r="AA401" s="4"/>
+      <c r="AB401" s="4"/>
+      <c r="AC401" s="4"/>
+    </row>
+    <row r="402" spans="21:29">
+      <c r="U402" s="4"/>
+      <c r="V402" s="4"/>
+      <c r="W402" s="4"/>
+      <c r="X402" s="4"/>
+      <c r="Y402" s="4"/>
+      <c r="Z402" s="4"/>
+      <c r="AA402" s="4"/>
+      <c r="AB402" s="4"/>
+      <c r="AC402" s="4"/>
+    </row>
+    <row r="403" spans="21:29">
+      <c r="U403" s="4"/>
+      <c r="V403" s="4"/>
+      <c r="W403" s="4"/>
+      <c r="X403" s="4"/>
+      <c r="Y403" s="4"/>
+      <c r="Z403" s="4"/>
+      <c r="AA403" s="4"/>
+      <c r="AB403" s="4"/>
+      <c r="AC403" s="4"/>
+    </row>
+    <row r="404" spans="21:29">
+      <c r="U404" s="4"/>
+      <c r="V404" s="4"/>
+      <c r="W404" s="4"/>
+      <c r="X404" s="4"/>
+      <c r="Y404" s="4"/>
+      <c r="Z404" s="4"/>
+      <c r="AA404" s="4"/>
+      <c r="AB404" s="4"/>
+      <c r="AC404" s="4"/>
+    </row>
+    <row r="405" spans="21:29">
+      <c r="U405" s="4"/>
+      <c r="V405" s="4"/>
+      <c r="W405" s="4"/>
+      <c r="X405" s="4"/>
+      <c r="Y405" s="4"/>
+      <c r="Z405" s="4"/>
+      <c r="AA405" s="4"/>
+      <c r="AB405" s="4"/>
+      <c r="AC405" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFF0D18-A8BE-4400-99D2-01E8385F636F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F3E511-0D08-488D-8D34-F87EC1702361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="214">
   <si>
     <t>英文名稱</t>
   </si>
@@ -830,6 +830,62 @@
   </si>
   <si>
     <t>牽制踢擊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掃尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掃尾(斷尾)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>連啄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中甩尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中甩尾(斷尾)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神鳥之喙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴貫擊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾巴貫擊(斷尾)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>對地火球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掃射火球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機關槍火球</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1397,11 +1453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:AJ408"/>
+  <dimension ref="A2:AJ421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3963,39 +4019,39 @@
         <v>0</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" ref="L26:L92" si="271">E26*I26</f>
+        <f t="shared" ref="L26:L105" si="271">E26*I26</f>
         <v>448</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" ref="M26:M92" si="272">E26*J26</f>
+        <f t="shared" ref="M26:M105" si="272">E26*J26</f>
         <v>672</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" ref="N26:N92" si="273">E26*K26</f>
+        <f t="shared" ref="N26:N105" si="273">E26*K26</f>
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" ref="O26:O92" si="274">F26*I26</f>
+        <f t="shared" ref="O26:O105" si="274">F26*I26</f>
         <v>602</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" ref="P26:P92" si="275">F26*J26</f>
+        <f t="shared" ref="P26:P105" si="275">F26*J26</f>
         <v>903</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" ref="Q26:Q92" si="276">F26*K26</f>
+        <f t="shared" ref="Q26:Q105" si="276">F26*K26</f>
         <v>0</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" ref="R26:R92" si="277">H26*I26</f>
+        <f t="shared" ref="R26:R105" si="277">H26*I26</f>
         <v>280</v>
       </c>
       <c r="S26" s="19">
-        <f t="shared" ref="S26:S92" si="278">H26*J26</f>
+        <f t="shared" ref="S26:S105" si="278">H26*J26</f>
         <v>420</v>
       </c>
       <c r="T26" s="19">
-        <f t="shared" ref="T26:T92" si="279">H26*K26</f>
+        <f t="shared" ref="T26:T105" si="279">H26*K26</f>
         <v>0</v>
       </c>
       <c r="U26" s="18">
@@ -4003,59 +4059,59 @@
         <v>0.22123456790123455</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" ref="V26:V92" si="280">M26*$G$3/$E$3</f>
+        <f t="shared" ref="V26:V105" si="280">M26*$G$3/$E$3</f>
         <v>0.33185185185185179</v>
       </c>
       <c r="W26" s="18">
-        <f t="shared" ref="W26:W92" si="281">N26*$G$3/$E$3</f>
+        <f t="shared" ref="W26:W105" si="281">N26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X26" s="20">
-        <f t="shared" ref="X26:X92" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="X26:X105" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.13827160493827159</v>
       </c>
       <c r="Y26" s="20">
-        <f t="shared" ref="Y26:Y92" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Y26:Y105" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.2074074074074074</v>
       </c>
       <c r="Z26" s="20">
-        <f t="shared" ref="Z26:Z92" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Z26:Z105" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA26" s="16">
-        <f t="shared" ref="AA26:AA92" si="285">O26*$G$3/$E$3</f>
+        <f t="shared" ref="AA26:AA105" si="285">O26*$G$3/$E$3</f>
         <v>0.29728395061728391</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" ref="AB26:AB92" si="286">P26*$G$3/$E$3</f>
+        <f t="shared" ref="AB26:AB105" si="286">P26*$G$3/$E$3</f>
         <v>0.44592592592592589</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" ref="AC26:AC92" si="287">Q26*$G$3/$E$3</f>
+        <f t="shared" ref="AC26:AC105" si="287">Q26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD26" s="17" t="str">
-        <f t="shared" ref="AD26:AD92" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD26:AD105" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AE26" s="17" t="str">
-        <f t="shared" ref="AE26:AE92" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AE26:AE105" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AF26" s="17" t="str">
-        <f t="shared" ref="AF26:AF92" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AF26:AF105" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG26" s="15" t="str">
-        <f t="shared" ref="AG26:AG92" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AG26:AG105" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AH26" s="15" t="str">
-        <f t="shared" ref="AH26:AH92" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AH26:AH105" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AI26" s="15" t="str">
-        <f t="shared" ref="AI26:AI92" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AI26:AI105" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AJ26" s="21"/>
@@ -4131,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" ref="U27:W93" si="294">L27*$G$3/$E$3</f>
+        <f t="shared" ref="U27:W106" si="294">L27*$G$3/$E$3</f>
         <v>5.8074074074074084E-2</v>
       </c>
       <c r="V27" s="18">
@@ -4579,13 +4635,37 @@
       <c r="C31" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="D31" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="8">
+        <v>24</v>
+      </c>
+      <c r="F31" s="8">
+        <v>33</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>9</v>
+      </c>
+      <c r="J31" s="11">
+        <v>13</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
       <c r="L31" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="M31" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="N31" s="14">
         <f t="shared" si="273"/>
@@ -4593,11 +4673,11 @@
       </c>
       <c r="O31" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="P31" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="Q31" s="15">
         <f t="shared" si="276"/>
@@ -4617,11 +4697,11 @@
       </c>
       <c r="U31" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="V31" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.15407407407407406</v>
       </c>
       <c r="W31" s="18">
         <f t="shared" si="281"/>
@@ -4641,11 +4721,11 @@
       </c>
       <c r="AA31" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.14666666666666667</v>
       </c>
       <c r="AB31" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.21185185185185185</v>
       </c>
       <c r="AC31" s="16">
         <f t="shared" si="287"/>
@@ -4676,23 +4756,41 @@
         <v>低</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
-      <c r="A32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>16</v>
+    <row r="32" spans="1:36" s="4" customFormat="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="8">
+        <v>36</v>
+      </c>
+      <c r="F32" s="8">
+        <v>50</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>9</v>
+      </c>
+      <c r="J32" s="11">
+        <v>13</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
       </c>
       <c r="L32" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="M32" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="N32" s="14">
         <f t="shared" si="273"/>
@@ -4700,11 +4798,11 @@
       </c>
       <c r="O32" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="P32" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="Q32" s="15">
         <f t="shared" si="276"/>
@@ -4724,11 +4822,11 @@
       </c>
       <c r="U32" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="V32" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.2311111111111111</v>
       </c>
       <c r="W32" s="18">
         <f t="shared" si="281"/>
@@ -4748,11 +4846,11 @@
       </c>
       <c r="AA32" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.22222222222222218</v>
       </c>
       <c r="AB32" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.32098765432098764</v>
       </c>
       <c r="AC32" s="16">
         <f t="shared" si="287"/>
@@ -4776,1306 +4874,1535 @@
       </c>
       <c r="AH32" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI32" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="33" spans="1:35">
-      <c r="A33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>18</v>
+      <c r="AJ32" s="21"/>
+    </row>
+    <row r="33" spans="1:36" s="4" customFormat="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="8">
+        <v>32</v>
+      </c>
+      <c r="F33" s="8">
+        <v>45</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" s="8">
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <v>9</v>
+      </c>
+      <c r="J33" s="11">
+        <v>13</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0</v>
       </c>
       <c r="L33" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
+        <f t="shared" ref="L33:L34" si="339">E33*I33</f>
+        <v>288</v>
       </c>
       <c r="M33" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
+        <f t="shared" ref="M33:M34" si="340">E33*J33</f>
+        <v>416</v>
       </c>
       <c r="N33" s="14">
-        <f t="shared" si="273"/>
+        <f t="shared" ref="N33:N34" si="341">E33*K33</f>
         <v>0</v>
       </c>
       <c r="O33" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
+        <f t="shared" ref="O33:O34" si="342">F33*I33</f>
+        <v>405</v>
       </c>
       <c r="P33" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
+        <f t="shared" ref="P33:P34" si="343">F33*J33</f>
+        <v>585</v>
       </c>
       <c r="Q33" s="15">
-        <f t="shared" si="276"/>
+        <f t="shared" ref="Q33:Q34" si="344">F33*K33</f>
         <v>0</v>
       </c>
       <c r="R33" s="19">
-        <f t="shared" si="277"/>
+        <f t="shared" ref="R33:R34" si="345">H33*I33</f>
         <v>0</v>
       </c>
       <c r="S33" s="19">
-        <f t="shared" si="278"/>
+        <f t="shared" ref="S33:S34" si="346">H33*J33</f>
         <v>0</v>
       </c>
       <c r="T33" s="19">
-        <f t="shared" si="279"/>
+        <f t="shared" ref="T33:T34" si="347">H33*K33</f>
         <v>0</v>
       </c>
       <c r="U33" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
+        <f t="shared" ref="U33:U34" si="348">L33*$G$3/$E$3</f>
+        <v>0.14222222222222222</v>
       </c>
       <c r="V33" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
+        <f t="shared" ref="V33:V34" si="349">M33*$G$3/$E$3</f>
+        <v>0.20543209876543209</v>
       </c>
       <c r="W33" s="18">
-        <f t="shared" si="281"/>
+        <f t="shared" ref="W33:W34" si="350">N33*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X33" s="20">
-        <f t="shared" si="282"/>
+        <f t="shared" ref="X33:X34" si="351">R33*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Y33" s="20">
-        <f t="shared" si="283"/>
+        <f t="shared" ref="Y33:Y34" si="352">S33*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Z33" s="20">
-        <f t="shared" si="284"/>
+        <f t="shared" ref="Z33:Z34" si="353">T33*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA33" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
+        <f t="shared" ref="AA33:AA34" si="354">O33*$G$3/$E$3</f>
+        <v>0.2</v>
       </c>
       <c r="AB33" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
+        <f t="shared" ref="AB33:AB34" si="355">P33*$G$3/$E$3</f>
+        <v>0.28888888888888886</v>
       </c>
       <c r="AC33" s="16">
-        <f t="shared" si="287"/>
+        <f t="shared" ref="AC33:AC34" si="356">Q33*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD33" s="17" t="str">
-        <f t="shared" si="288"/>
+        <f t="shared" ref="AD33:AD34" si="357">IF((U33+X33)&lt;($J$4/2),"低",IF((U33+X33)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE33" s="17" t="str">
-        <f t="shared" si="289"/>
+        <f t="shared" ref="AE33:AE34" si="358">IF((V33+Y33)&lt;($J$4/2),"低",IF((V33+Y33)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AF33" s="17" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" ref="AF33:AF34" si="359">IF((W33+Z33)&lt;($J$4/2),"低",IF((W33+Z33)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG33" s="15" t="str">
-        <f t="shared" si="291"/>
+        <f t="shared" ref="AG33:AG34" si="360">IF((X33+AA33)&lt;($J$4/2),"低",IF((X33+AA33)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AH33" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
+        <f t="shared" ref="AH33:AH34" si="361">IF((Y33+AB33)&lt;($J$4/2),"低",IF((Y33+AB33)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
       </c>
       <c r="AI33" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35">
-      <c r="A34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>19</v>
+        <f t="shared" ref="AI33:AI34" si="362">IF((Z33+AC33)&lt;($J$4/2),"低",IF((Z33+AC33)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AJ33" s="21"/>
+    </row>
+    <row r="34" spans="1:36" s="4" customFormat="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="8">
+        <v>36</v>
+      </c>
+      <c r="F34" s="8">
+        <v>50</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>9</v>
+      </c>
+      <c r="J34" s="11">
+        <v>13</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0</v>
       </c>
       <c r="L34" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
+        <f t="shared" si="339"/>
+        <v>324</v>
       </c>
       <c r="M34" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
+        <f t="shared" si="340"/>
+        <v>468</v>
       </c>
       <c r="N34" s="14">
-        <f t="shared" si="273"/>
+        <f t="shared" si="341"/>
         <v>0</v>
       </c>
       <c r="O34" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
+        <f t="shared" si="342"/>
+        <v>450</v>
       </c>
       <c r="P34" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
+        <f t="shared" si="343"/>
+        <v>650</v>
       </c>
       <c r="Q34" s="15">
-        <f t="shared" si="276"/>
+        <f t="shared" si="344"/>
         <v>0</v>
       </c>
       <c r="R34" s="19">
-        <f t="shared" si="277"/>
+        <f t="shared" si="345"/>
         <v>0</v>
       </c>
       <c r="S34" s="19">
-        <f t="shared" si="278"/>
+        <f t="shared" si="346"/>
         <v>0</v>
       </c>
       <c r="T34" s="19">
-        <f t="shared" si="279"/>
+        <f t="shared" si="347"/>
         <v>0</v>
       </c>
       <c r="U34" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
+        <f t="shared" si="348"/>
+        <v>0.16</v>
       </c>
       <c r="V34" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
+        <f t="shared" si="349"/>
+        <v>0.2311111111111111</v>
       </c>
       <c r="W34" s="18">
-        <f t="shared" si="281"/>
+        <f t="shared" si="350"/>
         <v>0</v>
       </c>
       <c r="X34" s="20">
-        <f t="shared" si="282"/>
+        <f t="shared" si="351"/>
         <v>0</v>
       </c>
       <c r="Y34" s="20">
-        <f t="shared" si="283"/>
+        <f t="shared" si="352"/>
         <v>0</v>
       </c>
       <c r="Z34" s="20">
-        <f t="shared" si="284"/>
+        <f t="shared" si="353"/>
         <v>0</v>
       </c>
       <c r="AA34" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
+        <f t="shared" si="354"/>
+        <v>0.22222222222222218</v>
       </c>
       <c r="AB34" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
+        <f t="shared" si="355"/>
+        <v>0.32098765432098764</v>
       </c>
       <c r="AC34" s="16">
-        <f t="shared" si="287"/>
+        <f t="shared" si="356"/>
         <v>0</v>
       </c>
       <c r="AD34" s="17" t="str">
-        <f t="shared" si="288"/>
+        <f t="shared" si="357"/>
         <v>低</v>
       </c>
       <c r="AE34" s="17" t="str">
-        <f t="shared" si="289"/>
+        <f t="shared" si="358"/>
         <v>低</v>
       </c>
       <c r="AF34" s="17" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" si="359"/>
         <v>低</v>
       </c>
       <c r="AG34" s="15" t="str">
-        <f t="shared" si="291"/>
+        <f t="shared" si="360"/>
         <v>低</v>
       </c>
       <c r="AH34" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
+        <f t="shared" si="361"/>
+        <v>中</v>
       </c>
       <c r="AI34" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35">
-      <c r="A35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>20</v>
+        <f t="shared" si="362"/>
+        <v>低</v>
+      </c>
+      <c r="AJ34" s="21"/>
+    </row>
+    <row r="35" spans="1:36" s="4" customFormat="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="8">
+        <v>48</v>
+      </c>
+      <c r="F35" s="8">
+        <v>67</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>9</v>
+      </c>
+      <c r="J35" s="11">
+        <v>13</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0</v>
       </c>
       <c r="L35" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
+        <f t="shared" ref="L35:L38" si="363">E35*I35</f>
+        <v>432</v>
       </c>
       <c r="M35" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
+        <f t="shared" ref="M35:M38" si="364">E35*J35</f>
+        <v>624</v>
       </c>
       <c r="N35" s="14">
-        <f t="shared" si="273"/>
+        <f t="shared" ref="N35:N38" si="365">E35*K35</f>
         <v>0</v>
       </c>
       <c r="O35" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
+        <f t="shared" ref="O35:O38" si="366">F35*I35</f>
+        <v>603</v>
       </c>
       <c r="P35" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
+        <f t="shared" ref="P35:P38" si="367">F35*J35</f>
+        <v>871</v>
       </c>
       <c r="Q35" s="15">
-        <f t="shared" si="276"/>
+        <f t="shared" ref="Q35:Q38" si="368">F35*K35</f>
         <v>0</v>
       </c>
       <c r="R35" s="19">
-        <f t="shared" si="277"/>
+        <f t="shared" ref="R35:R38" si="369">H35*I35</f>
         <v>0</v>
       </c>
       <c r="S35" s="19">
-        <f t="shared" si="278"/>
+        <f t="shared" ref="S35:S38" si="370">H35*J35</f>
         <v>0</v>
       </c>
       <c r="T35" s="19">
-        <f t="shared" si="279"/>
+        <f t="shared" ref="T35:T38" si="371">H35*K35</f>
         <v>0</v>
       </c>
       <c r="U35" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
+        <f t="shared" ref="U35:U38" si="372">L35*$G$3/$E$3</f>
+        <v>0.21333333333333335</v>
       </c>
       <c r="V35" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
+        <f t="shared" ref="V35:V38" si="373">M35*$G$3/$E$3</f>
+        <v>0.30814814814814812</v>
       </c>
       <c r="W35" s="18">
-        <f t="shared" si="281"/>
+        <f t="shared" ref="W35:W38" si="374">N35*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X35" s="20">
-        <f t="shared" si="282"/>
+        <f t="shared" ref="X35:X38" si="375">R35*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Y35" s="20">
-        <f t="shared" si="283"/>
+        <f t="shared" ref="Y35:Y38" si="376">S35*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Z35" s="20">
-        <f t="shared" si="284"/>
+        <f t="shared" ref="Z35:Z38" si="377">T35*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA35" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
+        <f t="shared" ref="AA35:AA38" si="378">O35*$G$3/$E$3</f>
+        <v>0.29777777777777775</v>
       </c>
       <c r="AB35" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
+        <f t="shared" ref="AB35:AB38" si="379">P35*$G$3/$E$3</f>
+        <v>0.43012345679012348</v>
       </c>
       <c r="AC35" s="16">
-        <f t="shared" si="287"/>
+        <f t="shared" ref="AC35:AC38" si="380">Q35*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD35" s="17" t="str">
-        <f t="shared" si="288"/>
+        <f t="shared" ref="AD35:AD38" si="381">IF((U35+X35)&lt;($J$4/2),"低",IF((U35+X35)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE35" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
+        <f t="shared" ref="AE35:AE38" si="382">IF((V35+Y35)&lt;($J$4/2),"低",IF((V35+Y35)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
       </c>
       <c r="AF35" s="17" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" ref="AF35:AF38" si="383">IF((W35+Z35)&lt;($J$4/2),"低",IF((W35+Z35)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG35" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
+        <f t="shared" ref="AG35:AG38" si="384">IF((X35+AA35)&lt;($J$4/2),"低",IF((X35+AA35)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
       </c>
       <c r="AH35" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
+        <f t="shared" ref="AH35:AH38" si="385">IF((Y35+AB35)&lt;($J$4/2),"低",IF((Y35+AB35)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
       </c>
       <c r="AI35" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35">
-      <c r="A36" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>21</v>
+        <f t="shared" ref="AI35:AI38" si="386">IF((Z35+AC35)&lt;($J$4/2),"低",IF((Z35+AC35)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AJ35" s="21"/>
+    </row>
+    <row r="36" spans="1:36" s="4" customFormat="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="8">
+        <v>69</v>
+      </c>
+      <c r="F36" s="8">
+        <v>95</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>9</v>
+      </c>
+      <c r="J36" s="11">
+        <v>13</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
       </c>
       <c r="L36" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
+        <f t="shared" si="363"/>
+        <v>621</v>
       </c>
       <c r="M36" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
+        <f t="shared" si="364"/>
+        <v>897</v>
       </c>
       <c r="N36" s="14">
-        <f t="shared" si="273"/>
+        <f t="shared" si="365"/>
         <v>0</v>
       </c>
       <c r="O36" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
+        <f t="shared" si="366"/>
+        <v>855</v>
       </c>
       <c r="P36" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
+        <f t="shared" si="367"/>
+        <v>1235</v>
       </c>
       <c r="Q36" s="15">
-        <f t="shared" si="276"/>
+        <f t="shared" si="368"/>
         <v>0</v>
       </c>
       <c r="R36" s="19">
-        <f t="shared" si="277"/>
+        <f t="shared" si="369"/>
         <v>0</v>
       </c>
       <c r="S36" s="19">
-        <f t="shared" si="278"/>
+        <f t="shared" si="370"/>
         <v>0</v>
       </c>
       <c r="T36" s="19">
-        <f t="shared" si="279"/>
+        <f t="shared" si="371"/>
         <v>0</v>
       </c>
       <c r="U36" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
+        <f t="shared" si="372"/>
+        <v>0.30666666666666664</v>
       </c>
       <c r="V36" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
+        <f t="shared" si="373"/>
+        <v>0.44296296296296295</v>
       </c>
       <c r="W36" s="18">
-        <f t="shared" si="281"/>
+        <f t="shared" si="374"/>
         <v>0</v>
       </c>
       <c r="X36" s="20">
-        <f t="shared" si="282"/>
+        <f t="shared" si="375"/>
         <v>0</v>
       </c>
       <c r="Y36" s="20">
-        <f t="shared" si="283"/>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
       <c r="Z36" s="20">
-        <f t="shared" si="284"/>
+        <f t="shared" si="377"/>
         <v>0</v>
       </c>
       <c r="AA36" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
+        <f t="shared" si="378"/>
+        <v>0.42222222222222217</v>
       </c>
       <c r="AB36" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
+        <f t="shared" si="379"/>
+        <v>0.6098765432098765</v>
       </c>
       <c r="AC36" s="16">
-        <f t="shared" si="287"/>
+        <f t="shared" si="380"/>
         <v>0</v>
       </c>
       <c r="AD36" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
+        <f t="shared" si="381"/>
+        <v>中</v>
       </c>
       <c r="AE36" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
+        <f t="shared" si="382"/>
+        <v>中</v>
       </c>
       <c r="AF36" s="17" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" si="383"/>
         <v>低</v>
       </c>
       <c r="AG36" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
+        <f t="shared" si="384"/>
+        <v>中</v>
       </c>
       <c r="AH36" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
+        <f t="shared" si="385"/>
+        <v>高</v>
       </c>
       <c r="AI36" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35">
-      <c r="A37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="5" t="s">
+        <f t="shared" si="386"/>
+        <v>低</v>
+      </c>
+      <c r="AJ36" s="21"/>
+    </row>
+    <row r="37" spans="1:36" s="4" customFormat="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="8">
+        <v>61</v>
+      </c>
+      <c r="F37" s="8">
+        <v>84</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>9</v>
+      </c>
+      <c r="J37" s="11">
+        <v>13</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0</v>
+      </c>
+      <c r="L37" s="14">
+        <f t="shared" si="363"/>
+        <v>549</v>
+      </c>
+      <c r="M37" s="14">
+        <f t="shared" si="364"/>
+        <v>793</v>
+      </c>
+      <c r="N37" s="14">
+        <f t="shared" si="365"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <f t="shared" si="366"/>
+        <v>756</v>
+      </c>
+      <c r="P37" s="15">
+        <f t="shared" si="367"/>
+        <v>1092</v>
+      </c>
+      <c r="Q37" s="15">
+        <f t="shared" si="368"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="19">
+        <f t="shared" si="369"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="19">
+        <f t="shared" si="370"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="19">
+        <f t="shared" si="371"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="18">
+        <f t="shared" si="372"/>
+        <v>0.27111111111111108</v>
+      </c>
+      <c r="V37" s="18">
+        <f t="shared" si="373"/>
+        <v>0.39160493827160492</v>
+      </c>
+      <c r="W37" s="18">
+        <f t="shared" si="374"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="20">
+        <f t="shared" si="375"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="20">
+        <f t="shared" si="376"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="20">
+        <f t="shared" si="377"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="16">
+        <f t="shared" si="378"/>
+        <v>0.37333333333333335</v>
+      </c>
+      <c r="AB37" s="16">
+        <f t="shared" si="379"/>
+        <v>0.53925925925925922</v>
+      </c>
+      <c r="AC37" s="16">
+        <f t="shared" si="380"/>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="17" t="str">
+        <f t="shared" si="381"/>
+        <v>中</v>
+      </c>
+      <c r="AE37" s="17" t="str">
+        <f t="shared" si="382"/>
+        <v>中</v>
+      </c>
+      <c r="AF37" s="17" t="str">
+        <f t="shared" si="383"/>
+        <v>低</v>
+      </c>
+      <c r="AG37" s="15" t="str">
+        <f t="shared" si="384"/>
+        <v>中</v>
+      </c>
+      <c r="AH37" s="15" t="str">
+        <f t="shared" si="385"/>
+        <v>高</v>
+      </c>
+      <c r="AI37" s="15" t="str">
+        <f t="shared" si="386"/>
+        <v>低</v>
+      </c>
+      <c r="AJ37" s="21"/>
+    </row>
+    <row r="38" spans="1:36" s="4" customFormat="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="8">
+        <v>73</v>
+      </c>
+      <c r="F38" s="8">
         <v>101</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S37" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA37" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD37" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE37" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF37" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG37" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH37" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI37" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35">
-      <c r="A38" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>23</v>
+      <c r="G38" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>9</v>
+      </c>
+      <c r="J38" s="11">
+        <v>13</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
       </c>
       <c r="L38" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
+        <f t="shared" si="363"/>
+        <v>657</v>
       </c>
       <c r="M38" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
+        <f t="shared" si="364"/>
+        <v>949</v>
       </c>
       <c r="N38" s="14">
-        <f t="shared" si="273"/>
+        <f t="shared" si="365"/>
         <v>0</v>
       </c>
       <c r="O38" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
+        <f t="shared" si="366"/>
+        <v>909</v>
       </c>
       <c r="P38" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
+        <f t="shared" si="367"/>
+        <v>1313</v>
       </c>
       <c r="Q38" s="15">
-        <f t="shared" si="276"/>
+        <f t="shared" si="368"/>
         <v>0</v>
       </c>
       <c r="R38" s="19">
-        <f t="shared" si="277"/>
+        <f t="shared" si="369"/>
         <v>0</v>
       </c>
       <c r="S38" s="19">
-        <f t="shared" si="278"/>
+        <f t="shared" si="370"/>
         <v>0</v>
       </c>
       <c r="T38" s="19">
-        <f t="shared" si="279"/>
+        <f t="shared" si="371"/>
         <v>0</v>
       </c>
       <c r="U38" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
+        <f t="shared" si="372"/>
+        <v>0.32444444444444442</v>
       </c>
       <c r="V38" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
+        <f t="shared" si="373"/>
+        <v>0.46864197530864193</v>
       </c>
       <c r="W38" s="18">
-        <f t="shared" si="281"/>
+        <f t="shared" si="374"/>
         <v>0</v>
       </c>
       <c r="X38" s="20">
-        <f t="shared" si="282"/>
+        <f t="shared" si="375"/>
         <v>0</v>
       </c>
       <c r="Y38" s="20">
-        <f t="shared" si="283"/>
+        <f t="shared" si="376"/>
         <v>0</v>
       </c>
       <c r="Z38" s="20">
-        <f t="shared" si="284"/>
+        <f t="shared" si="377"/>
         <v>0</v>
       </c>
       <c r="AA38" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
+        <f t="shared" si="378"/>
+        <v>0.44888888888888884</v>
       </c>
       <c r="AB38" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
+        <f t="shared" si="379"/>
+        <v>0.64839506172839501</v>
       </c>
       <c r="AC38" s="16">
-        <f t="shared" si="287"/>
+        <f t="shared" si="380"/>
         <v>0</v>
       </c>
       <c r="AD38" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
+        <f t="shared" si="381"/>
+        <v>中</v>
       </c>
       <c r="AE38" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
+        <f t="shared" si="382"/>
+        <v>高</v>
       </c>
       <c r="AF38" s="17" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" si="383"/>
         <v>低</v>
       </c>
       <c r="AG38" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
+        <f t="shared" si="384"/>
+        <v>中</v>
       </c>
       <c r="AH38" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
+        <f t="shared" si="385"/>
+        <v>高</v>
       </c>
       <c r="AI38" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35">
-      <c r="A39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>24</v>
+        <f t="shared" si="386"/>
+        <v>低</v>
+      </c>
+      <c r="AJ38" s="21"/>
+    </row>
+    <row r="39" spans="1:36" s="4" customFormat="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E39" s="8">
+        <v>44</v>
+      </c>
+      <c r="F39" s="8">
+        <v>62</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <v>9</v>
+      </c>
+      <c r="J39" s="11">
+        <v>13</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0</v>
       </c>
       <c r="L39" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
+        <f t="shared" ref="L39" si="387">E39*I39</f>
+        <v>396</v>
       </c>
       <c r="M39" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
+        <f t="shared" ref="M39" si="388">E39*J39</f>
+        <v>572</v>
       </c>
       <c r="N39" s="14">
-        <f t="shared" si="273"/>
+        <f t="shared" ref="N39" si="389">E39*K39</f>
         <v>0</v>
       </c>
       <c r="O39" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
+        <f t="shared" ref="O39" si="390">F39*I39</f>
+        <v>558</v>
       </c>
       <c r="P39" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
+        <f t="shared" ref="P39" si="391">F39*J39</f>
+        <v>806</v>
       </c>
       <c r="Q39" s="15">
-        <f t="shared" si="276"/>
+        <f t="shared" ref="Q39" si="392">F39*K39</f>
         <v>0</v>
       </c>
       <c r="R39" s="19">
-        <f t="shared" si="277"/>
+        <f t="shared" ref="R39" si="393">H39*I39</f>
         <v>0</v>
       </c>
       <c r="S39" s="19">
-        <f t="shared" si="278"/>
+        <f t="shared" ref="S39" si="394">H39*J39</f>
         <v>0</v>
       </c>
       <c r="T39" s="19">
-        <f t="shared" si="279"/>
+        <f t="shared" ref="T39" si="395">H39*K39</f>
         <v>0</v>
       </c>
       <c r="U39" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
+        <f t="shared" ref="U39" si="396">L39*$G$3/$E$3</f>
+        <v>0.19555555555555554</v>
       </c>
       <c r="V39" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
+        <f t="shared" ref="V39" si="397">M39*$G$3/$E$3</f>
+        <v>0.28246913580246913</v>
       </c>
       <c r="W39" s="18">
-        <f t="shared" si="281"/>
+        <f t="shared" ref="W39" si="398">N39*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X39" s="20">
-        <f t="shared" si="282"/>
+        <f t="shared" ref="X39" si="399">R39*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Y39" s="20">
-        <f t="shared" si="283"/>
+        <f t="shared" ref="Y39" si="400">S39*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Z39" s="20">
-        <f t="shared" si="284"/>
+        <f t="shared" ref="Z39" si="401">T39*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA39" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
+        <f t="shared" ref="AA39" si="402">O39*$G$3/$E$3</f>
+        <v>0.2755555555555555</v>
       </c>
       <c r="AB39" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
+        <f t="shared" ref="AB39" si="403">P39*$G$3/$E$3</f>
+        <v>0.39802469135802471</v>
       </c>
       <c r="AC39" s="16">
-        <f t="shared" si="287"/>
+        <f t="shared" ref="AC39" si="404">Q39*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD39" s="17" t="str">
-        <f t="shared" si="288"/>
+        <f t="shared" ref="AD39" si="405">IF((U39+X39)&lt;($J$4/2),"低",IF((U39+X39)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE39" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
+        <f t="shared" ref="AE39" si="406">IF((V39+Y39)&lt;($J$4/2),"低",IF((V39+Y39)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
       </c>
       <c r="AF39" s="17" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" ref="AF39" si="407">IF((W39+Z39)&lt;($J$4/2),"低",IF((W39+Z39)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG39" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
+        <f t="shared" ref="AG39" si="408">IF((X39+AA39)&lt;($J$4/2),"低",IF((X39+AA39)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
       </c>
       <c r="AH39" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
+        <f t="shared" ref="AH39" si="409">IF((Y39+AB39)&lt;($J$4/2),"低",IF((Y39+AB39)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
       </c>
       <c r="AI39" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35">
-      <c r="A40" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="5" t="s">
+        <f t="shared" ref="AI39" si="410">IF((Z39+AC39)&lt;($J$4/2),"低",IF((Z39+AC39)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AJ39" s="21"/>
+    </row>
+    <row r="40" spans="1:36" s="4" customFormat="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" s="8">
+        <v>40</v>
+      </c>
+      <c r="F40" s="8">
+        <v>56</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11">
+        <v>9</v>
+      </c>
+      <c r="J40" s="11">
+        <v>13</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="14">
+        <f t="shared" ref="L40:L41" si="411">E40*I40</f>
+        <v>360</v>
+      </c>
+      <c r="M40" s="14">
+        <f t="shared" ref="M40:M41" si="412">E40*J40</f>
+        <v>520</v>
+      </c>
+      <c r="N40" s="14">
+        <f t="shared" ref="N40:N41" si="413">E40*K40</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="15">
+        <f t="shared" ref="O40:O41" si="414">F40*I40</f>
+        <v>504</v>
+      </c>
+      <c r="P40" s="15">
+        <f t="shared" ref="P40:P41" si="415">F40*J40</f>
+        <v>728</v>
+      </c>
+      <c r="Q40" s="15">
+        <f t="shared" ref="Q40:Q41" si="416">F40*K40</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="19">
+        <f t="shared" ref="R40:R41" si="417">H40*I40</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="19">
+        <f t="shared" ref="S40:S41" si="418">H40*J40</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="19">
+        <f t="shared" ref="T40:T41" si="419">H40*K40</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="18">
+        <f t="shared" ref="U40:U41" si="420">L40*$G$3/$E$3</f>
+        <v>0.17777777777777776</v>
+      </c>
+      <c r="V40" s="18">
+        <f t="shared" ref="V40:V41" si="421">M40*$G$3/$E$3</f>
+        <v>0.25679012345679014</v>
+      </c>
+      <c r="W40" s="18">
+        <f t="shared" ref="W40:W41" si="422">N40*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X40" s="20">
+        <f t="shared" ref="X40:X41" si="423">R40*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="20">
+        <f t="shared" ref="Y40:Y41" si="424">S40*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="20">
+        <f t="shared" ref="Z40:Z41" si="425">T40*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="16">
+        <f t="shared" ref="AA40:AA41" si="426">O40*$G$3/$E$3</f>
+        <v>0.24888888888888885</v>
+      </c>
+      <c r="AB40" s="16">
+        <f t="shared" ref="AB40:AB41" si="427">P40*$G$3/$E$3</f>
+        <v>0.35950617283950614</v>
+      </c>
+      <c r="AC40" s="16">
+        <f t="shared" ref="AC40:AC41" si="428">Q40*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="17" t="str">
+        <f t="shared" ref="AD40:AD41" si="429">IF((U40+X40)&lt;($J$4/2),"低",IF((U40+X40)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE40" s="17" t="str">
+        <f t="shared" ref="AE40:AE41" si="430">IF((V40+Y40)&lt;($J$4/2),"低",IF((V40+Y40)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AF40" s="17" t="str">
+        <f t="shared" ref="AF40:AF41" si="431">IF((W40+Z40)&lt;($J$4/2),"低",IF((W40+Z40)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG40" s="15" t="str">
+        <f t="shared" ref="AG40:AG41" si="432">IF((X40+AA40)&lt;($J$4/2),"低",IF((X40+AA40)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AH40" s="15" t="str">
+        <f t="shared" ref="AH40:AH41" si="433">IF((Y40+AB40)&lt;($J$4/2),"低",IF((Y40+AB40)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AI40" s="15" t="str">
+        <f t="shared" ref="AI40:AI41" si="434">IF((Z40+AC40)&lt;($J$4/2),"低",IF((Z40+AC40)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AJ40" s="21"/>
+    </row>
+    <row r="41" spans="1:36" s="4" customFormat="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="8">
+        <v>48</v>
+      </c>
+      <c r="F41" s="8">
+        <v>65</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H41" s="8">
+        <v>30</v>
+      </c>
+      <c r="I41" s="11">
+        <v>9</v>
+      </c>
+      <c r="J41" s="11">
+        <v>13</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0</v>
+      </c>
+      <c r="L41" s="14">
+        <f t="shared" si="411"/>
+        <v>432</v>
+      </c>
+      <c r="M41" s="14">
+        <f t="shared" si="412"/>
+        <v>624</v>
+      </c>
+      <c r="N41" s="14">
+        <f t="shared" si="413"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="15">
+        <f t="shared" si="414"/>
+        <v>585</v>
+      </c>
+      <c r="P41" s="15">
+        <f t="shared" si="415"/>
+        <v>845</v>
+      </c>
+      <c r="Q41" s="15">
+        <f t="shared" si="416"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="19">
+        <f t="shared" si="417"/>
+        <v>270</v>
+      </c>
+      <c r="S41" s="19">
+        <f t="shared" si="418"/>
+        <v>390</v>
+      </c>
+      <c r="T41" s="19">
+        <f t="shared" si="419"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="18">
+        <f t="shared" si="420"/>
+        <v>0.21333333333333335</v>
+      </c>
+      <c r="V41" s="18">
+        <f t="shared" si="421"/>
+        <v>0.30814814814814812</v>
+      </c>
+      <c r="W41" s="18">
+        <f t="shared" si="422"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="20">
+        <f t="shared" si="423"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="Y41" s="20">
+        <f t="shared" si="424"/>
+        <v>0.19259259259259257</v>
+      </c>
+      <c r="Z41" s="20">
+        <f t="shared" si="425"/>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="16">
+        <f t="shared" si="426"/>
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="AB41" s="16">
+        <f t="shared" si="427"/>
+        <v>0.41728395061728391</v>
+      </c>
+      <c r="AC41" s="16">
+        <f t="shared" si="428"/>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="17" t="str">
+        <f t="shared" si="429"/>
+        <v>中</v>
+      </c>
+      <c r="AE41" s="17" t="str">
+        <f t="shared" si="430"/>
+        <v>高</v>
+      </c>
+      <c r="AF41" s="17" t="str">
+        <f t="shared" si="431"/>
+        <v>低</v>
+      </c>
+      <c r="AG41" s="15" t="str">
+        <f t="shared" si="432"/>
+        <v>中</v>
+      </c>
+      <c r="AH41" s="15" t="str">
+        <f t="shared" si="433"/>
+        <v>高</v>
+      </c>
+      <c r="AI41" s="15" t="str">
+        <f t="shared" si="434"/>
+        <v>低</v>
+      </c>
+      <c r="AJ41" s="21"/>
+    </row>
+    <row r="42" spans="1:36" s="4" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" s="8">
+        <v>48</v>
+      </c>
+      <c r="F42" s="8">
+        <v>65</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" s="8">
+        <v>30</v>
+      </c>
+      <c r="I42" s="11">
+        <v>9</v>
+      </c>
+      <c r="J42" s="11">
+        <v>13</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="14">
+        <f t="shared" ref="L42" si="435">E42*I42</f>
+        <v>432</v>
+      </c>
+      <c r="M42" s="14">
+        <f t="shared" ref="M42" si="436">E42*J42</f>
+        <v>624</v>
+      </c>
+      <c r="N42" s="14">
+        <f t="shared" ref="N42" si="437">E42*K42</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="15">
+        <f t="shared" ref="O42" si="438">F42*I42</f>
+        <v>585</v>
+      </c>
+      <c r="P42" s="15">
+        <f t="shared" ref="P42" si="439">F42*J42</f>
+        <v>845</v>
+      </c>
+      <c r="Q42" s="15">
+        <f t="shared" ref="Q42" si="440">F42*K42</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="19">
+        <f t="shared" ref="R42" si="441">H42*I42</f>
+        <v>270</v>
+      </c>
+      <c r="S42" s="19">
+        <f t="shared" ref="S42" si="442">H42*J42</f>
+        <v>390</v>
+      </c>
+      <c r="T42" s="19">
+        <f t="shared" ref="T42" si="443">H42*K42</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="18">
+        <f t="shared" ref="U42" si="444">L42*$G$3/$E$3</f>
+        <v>0.21333333333333335</v>
+      </c>
+      <c r="V42" s="18">
+        <f t="shared" ref="V42" si="445">M42*$G$3/$E$3</f>
+        <v>0.30814814814814812</v>
+      </c>
+      <c r="W42" s="18">
+        <f t="shared" ref="W42" si="446">N42*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X42" s="20">
+        <f t="shared" ref="X42" si="447">R42*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="Y42" s="20">
+        <f t="shared" ref="Y42" si="448">S42*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.19259259259259257</v>
+      </c>
+      <c r="Z42" s="20">
+        <f t="shared" ref="Z42" si="449">T42*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="16">
+        <f t="shared" ref="AA42" si="450">O42*$G$3/$E$3</f>
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="AB42" s="16">
+        <f t="shared" ref="AB42" si="451">P42*$G$3/$E$3</f>
+        <v>0.41728395061728391</v>
+      </c>
+      <c r="AC42" s="16">
+        <f t="shared" ref="AC42" si="452">Q42*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="17" t="str">
+        <f t="shared" ref="AD42" si="453">IF((U42+X42)&lt;($J$4/2),"低",IF((U42+X42)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AE42" s="17" t="str">
+        <f t="shared" ref="AE42" si="454">IF((V42+Y42)&lt;($J$4/2),"低",IF((V42+Y42)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AF42" s="17" t="str">
+        <f t="shared" ref="AF42" si="455">IF((W42+Z42)&lt;($J$4/2),"低",IF((W42+Z42)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG42" s="15" t="str">
+        <f t="shared" ref="AG42" si="456">IF((X42+AA42)&lt;($J$4/2),"低",IF((X42+AA42)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AH42" s="15" t="str">
+        <f t="shared" ref="AH42" si="457">IF((Y42+AB42)&lt;($J$4/2),"低",IF((Y42+AB42)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AI42" s="15" t="str">
+        <f t="shared" ref="AI42" si="458">IF((Z42+AC42)&lt;($J$4/2),"低",IF((Z42+AC42)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AJ42" s="21"/>
+    </row>
+    <row r="43" spans="1:36" s="4" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E43" s="8">
+        <v>56</v>
+      </c>
+      <c r="F43" s="8">
+        <v>76</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H43" s="8">
+        <v>35</v>
+      </c>
+      <c r="I43" s="11">
+        <v>9</v>
+      </c>
+      <c r="J43" s="11">
+        <v>13</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="14">
+        <f t="shared" ref="L43:L44" si="459">E43*I43</f>
+        <v>504</v>
+      </c>
+      <c r="M43" s="14">
+        <f t="shared" ref="M43:M44" si="460">E43*J43</f>
+        <v>728</v>
+      </c>
+      <c r="N43" s="14">
+        <f t="shared" ref="N43:N44" si="461">E43*K43</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="15">
+        <f t="shared" ref="O43:O44" si="462">F43*I43</f>
+        <v>684</v>
+      </c>
+      <c r="P43" s="15">
+        <f t="shared" ref="P43:P44" si="463">F43*J43</f>
+        <v>988</v>
+      </c>
+      <c r="Q43" s="15">
+        <f t="shared" ref="Q43:Q44" si="464">F43*K43</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="19">
+        <f t="shared" ref="R43:R44" si="465">H43*I43</f>
+        <v>315</v>
+      </c>
+      <c r="S43" s="19">
+        <f t="shared" ref="S43:S44" si="466">H43*J43</f>
+        <v>455</v>
+      </c>
+      <c r="T43" s="19">
+        <f t="shared" ref="T43:T44" si="467">H43*K43</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="18">
+        <f t="shared" ref="U43:U44" si="468">L43*$G$3/$E$3</f>
+        <v>0.24888888888888885</v>
+      </c>
+      <c r="V43" s="18">
+        <f t="shared" ref="V43:V44" si="469">M43*$G$3/$E$3</f>
+        <v>0.35950617283950614</v>
+      </c>
+      <c r="W43" s="18">
+        <f t="shared" ref="W43:W44" si="470">N43*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X43" s="20">
+        <f t="shared" ref="X43:X44" si="471">R43*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="Y43" s="20">
+        <f t="shared" ref="Y43:Y44" si="472">S43*$G$3*(1-$H$3)/$E$3</f>
+        <v>0.22469135802469134</v>
+      </c>
+      <c r="Z43" s="20">
+        <f t="shared" ref="Z43:Z44" si="473">T43*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="16">
+        <f t="shared" ref="AA43:AA44" si="474">O43*$G$3/$E$3</f>
+        <v>0.33777777777777779</v>
+      </c>
+      <c r="AB43" s="16">
+        <f t="shared" ref="AB43:AB44" si="475">P43*$G$3/$E$3</f>
+        <v>0.48790123456790119</v>
+      </c>
+      <c r="AC43" s="16">
+        <f t="shared" ref="AC43:AC44" si="476">Q43*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="17" t="str">
+        <f t="shared" ref="AD43:AD44" si="477">IF((U43+X43)&lt;($J$4/2),"低",IF((U43+X43)&gt;$J$4,"高","中"))</f>
+        <v>中</v>
+      </c>
+      <c r="AE43" s="17" t="str">
+        <f t="shared" ref="AE43:AE44" si="478">IF((V43+Y43)&lt;($J$4/2),"低",IF((V43+Y43)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AF43" s="17" t="str">
+        <f t="shared" ref="AF43:AF44" si="479">IF((W43+Z43)&lt;($J$4/2),"低",IF((W43+Z43)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG43" s="15" t="str">
+        <f t="shared" ref="AG43:AG44" si="480">IF((X43+AA43)&lt;($J$4/2),"低",IF((X43+AA43)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AH43" s="15" t="str">
+        <f t="shared" ref="AH43:AH44" si="481">IF((Y43+AB43)&lt;($J$4/2),"低",IF((Y43+AB43)&gt;$J$4,"高","中"))</f>
+        <v>高</v>
+      </c>
+      <c r="AI43" s="15" t="str">
+        <f t="shared" ref="AI43:AI44" si="482">IF((Z43+AC43)&lt;($J$4/2),"低",IF((Z43+AC43)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AJ43" s="21"/>
+    </row>
+    <row r="44" spans="1:36" s="4" customFormat="1">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" s="8">
+        <v>40</v>
+      </c>
+      <c r="F44" s="8">
+        <v>54</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H44" s="8">
         <v>25</v>
       </c>
-      <c r="L40" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M40" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X40" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD40" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE40" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF40" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG40" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH40" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI40" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35">
-      <c r="A41" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L41" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M41" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O41" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB41" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE41" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF41" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG41" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH41" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI41" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35">
-      <c r="A42" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L42" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M42" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O42" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U42" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X42" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE42" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF42" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG42" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH42" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI42" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35">
-      <c r="A43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X43" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z43" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB43" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE43" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF43" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG43" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH43" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI43" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35">
-      <c r="A44" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>29</v>
+      <c r="I44" s="11">
+        <v>9</v>
+      </c>
+      <c r="J44" s="11">
+        <v>13</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
       </c>
       <c r="L44" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
+        <f t="shared" si="459"/>
+        <v>360</v>
       </c>
       <c r="M44" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
+        <f t="shared" si="460"/>
+        <v>520</v>
       </c>
       <c r="N44" s="14">
-        <f t="shared" si="273"/>
+        <f t="shared" si="461"/>
         <v>0</v>
       </c>
       <c r="O44" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
+        <f t="shared" si="462"/>
+        <v>486</v>
       </c>
       <c r="P44" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
+        <f t="shared" si="463"/>
+        <v>702</v>
       </c>
       <c r="Q44" s="15">
-        <f t="shared" si="276"/>
+        <f t="shared" si="464"/>
         <v>0</v>
       </c>
       <c r="R44" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
+        <f t="shared" si="465"/>
+        <v>225</v>
       </c>
       <c r="S44" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
+        <f t="shared" si="466"/>
+        <v>325</v>
       </c>
       <c r="T44" s="19">
-        <f t="shared" si="279"/>
+        <f t="shared" si="467"/>
         <v>0</v>
       </c>
       <c r="U44" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
+        <f t="shared" si="468"/>
+        <v>0.17777777777777776</v>
       </c>
       <c r="V44" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
+        <f t="shared" si="469"/>
+        <v>0.25679012345679014</v>
       </c>
       <c r="W44" s="18">
-        <f t="shared" si="281"/>
+        <f t="shared" si="470"/>
         <v>0</v>
       </c>
       <c r="X44" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
+        <f t="shared" si="471"/>
+        <v>0.11111111111111109</v>
       </c>
       <c r="Y44" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
+        <f t="shared" si="472"/>
+        <v>0.16049382716049382</v>
       </c>
       <c r="Z44" s="20">
-        <f t="shared" si="284"/>
+        <f t="shared" si="473"/>
         <v>0</v>
       </c>
       <c r="AA44" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
+        <f t="shared" si="474"/>
+        <v>0.24</v>
       </c>
       <c r="AB44" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
+        <f t="shared" si="475"/>
+        <v>0.34666666666666668</v>
       </c>
       <c r="AC44" s="16">
-        <f t="shared" si="287"/>
+        <f t="shared" si="476"/>
         <v>0</v>
       </c>
       <c r="AD44" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
+        <f t="shared" si="477"/>
+        <v>中</v>
       </c>
       <c r="AE44" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
+        <f t="shared" si="478"/>
+        <v>中</v>
       </c>
       <c r="AF44" s="17" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" si="479"/>
         <v>低</v>
       </c>
       <c r="AG44" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
+        <f t="shared" si="480"/>
+        <v>中</v>
       </c>
       <c r="AH44" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
+        <f t="shared" si="481"/>
+        <v>高</v>
       </c>
       <c r="AI44" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35">
+        <f t="shared" si="482"/>
+        <v>低</v>
+      </c>
+      <c r="AJ44" s="21"/>
+    </row>
+    <row r="45" spans="1:36">
       <c r="A45" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L45" s="14">
         <f t="shared" si="271"/>
@@ -6174,15 +6501,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:36">
       <c r="A46" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L46" s="14">
         <f t="shared" si="271"/>
@@ -6281,15 +6608,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:36">
       <c r="A47" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="L47" s="14">
         <f t="shared" si="271"/>
@@ -6388,15 +6715,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:36">
       <c r="A48" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L48" s="14">
         <f t="shared" si="271"/>
@@ -6497,13 +6824,13 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="L49" s="14">
         <f t="shared" si="271"/>
@@ -6604,13 +6931,13 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="L50" s="14">
         <f t="shared" si="271"/>
@@ -6711,13 +7038,13 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="L51" s="14">
         <f t="shared" si="271"/>
@@ -6818,13 +7145,13 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L52" s="14">
         <f t="shared" si="271"/>
@@ -6925,13 +7252,13 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L53" s="14">
         <f t="shared" si="271"/>
@@ -7032,13 +7359,13 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="L54" s="14">
         <f t="shared" si="271"/>
@@ -7139,13 +7466,13 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="L55" s="14">
         <f t="shared" si="271"/>
@@ -7246,13 +7573,13 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="L56" s="14">
         <f t="shared" si="271"/>
@@ -7353,13 +7680,13 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="L57" s="14">
         <f t="shared" si="271"/>
@@ -7460,13 +7787,13 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L58" s="14">
         <f t="shared" si="271"/>
@@ -7567,13 +7894,13 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="L59" s="14">
         <f t="shared" si="271"/>
@@ -7674,13 +8001,13 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="L60" s="14">
         <f t="shared" si="271"/>
@@ -7781,13 +8108,13 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="L61" s="14">
         <f t="shared" si="271"/>
@@ -7888,13 +8215,13 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="L62" s="14">
         <f t="shared" si="271"/>
@@ -7995,13 +8322,13 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L63" s="14">
         <f t="shared" si="271"/>
@@ -8102,13 +8429,13 @@
     </row>
     <row r="64" spans="1:35">
       <c r="A64" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="L64" s="14">
         <f t="shared" si="271"/>
@@ -8209,13 +8536,13 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L65" s="14">
         <f t="shared" si="271"/>
@@ -8316,13 +8643,13 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L66" s="14">
         <f t="shared" si="271"/>
@@ -8423,13 +8750,13 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="L67" s="14">
         <f t="shared" si="271"/>
@@ -8530,13 +8857,13 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L68" s="14">
         <f t="shared" si="271"/>
@@ -8640,10 +8967,10 @@
         <v>43</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="L69" s="14">
         <f t="shared" si="271"/>
@@ -8747,10 +9074,10 @@
         <v>43</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L70" s="14">
         <f t="shared" si="271"/>
@@ -8854,10 +9181,10 @@
         <v>43</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L71" s="14">
         <f t="shared" si="271"/>
@@ -8961,10 +9288,10 @@
         <v>43</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L72" s="14">
         <f t="shared" si="271"/>
@@ -9068,10 +9395,10 @@
         <v>43</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="L73" s="14">
         <f t="shared" si="271"/>
@@ -9175,10 +9502,10 @@
         <v>43</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L74" s="14">
         <f t="shared" si="271"/>
@@ -9279,13 +9606,13 @@
     </row>
     <row r="75" spans="1:35">
       <c r="A75" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L75" s="14">
         <f t="shared" si="271"/>
@@ -9386,13 +9713,13 @@
     </row>
     <row r="76" spans="1:35">
       <c r="A76" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="L76" s="14">
         <f t="shared" si="271"/>
@@ -9493,13 +9820,13 @@
     </row>
     <row r="77" spans="1:35">
       <c r="A77" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="L77" s="14">
         <f t="shared" si="271"/>
@@ -9600,13 +9927,13 @@
     </row>
     <row r="78" spans="1:35">
       <c r="A78" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="L78" s="14">
         <f t="shared" si="271"/>
@@ -9707,13 +10034,13 @@
     </row>
     <row r="79" spans="1:35">
       <c r="A79" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="L79" s="14">
         <f t="shared" si="271"/>
@@ -9814,13 +10141,13 @@
     </row>
     <row r="80" spans="1:35">
       <c r="A80" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="L80" s="14">
         <f t="shared" si="271"/>
@@ -9921,13 +10248,13 @@
     </row>
     <row r="81" spans="1:35">
       <c r="A81" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="L81" s="14">
         <f t="shared" si="271"/>
@@ -10028,13 +10355,13 @@
     </row>
     <row r="82" spans="1:35">
       <c r="A82" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="L82" s="14">
         <f t="shared" si="271"/>
@@ -10135,13 +10462,13 @@
     </row>
     <row r="83" spans="1:35">
       <c r="A83" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="L83" s="14">
         <f t="shared" si="271"/>
@@ -10242,13 +10569,13 @@
     </row>
     <row r="84" spans="1:35">
       <c r="A84" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="L84" s="14">
         <f t="shared" si="271"/>
@@ -10349,13 +10676,13 @@
     </row>
     <row r="85" spans="1:35">
       <c r="A85" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="L85" s="14">
         <f t="shared" si="271"/>
@@ -10456,13 +10783,13 @@
     </row>
     <row r="86" spans="1:35">
       <c r="A86" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="L86" s="14">
         <f t="shared" si="271"/>
@@ -10563,13 +10890,13 @@
     </row>
     <row r="87" spans="1:35">
       <c r="A87" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="L87" s="14">
         <f t="shared" si="271"/>
@@ -10670,13 +10997,13 @@
     </row>
     <row r="88" spans="1:35">
       <c r="A88" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="L88" s="14">
         <f t="shared" si="271"/>
@@ -10777,13 +11104,13 @@
     </row>
     <row r="89" spans="1:35">
       <c r="A89" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="L89" s="14">
         <f t="shared" si="271"/>
@@ -10884,13 +11211,13 @@
     </row>
     <row r="90" spans="1:35">
       <c r="A90" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L90" s="14">
         <f t="shared" si="271"/>
@@ -10994,10 +11321,10 @@
         <v>67</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="L91" s="14">
         <f t="shared" si="271"/>
@@ -11101,10 +11428,10 @@
         <v>67</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L92" s="14">
         <f t="shared" si="271"/>
@@ -11208,45 +11535,45 @@
         <v>67</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="L93" s="14">
-        <f t="shared" ref="L93:L96" si="339">E93*I93</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M93" s="14">
-        <f t="shared" ref="M93:M96" si="340">E93*J93</f>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N93" s="14">
-        <f t="shared" ref="N93:N96" si="341">E93*K93</f>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O93" s="15">
-        <f t="shared" ref="O93:O96" si="342">F93*I93</f>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P93" s="15">
-        <f t="shared" ref="P93:P96" si="343">F93*J93</f>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q93" s="15">
-        <f t="shared" ref="Q93:Q96" si="344">F93*K93</f>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R93" s="19">
-        <f t="shared" ref="R93:R96" si="345">H93*I93</f>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S93" s="19">
-        <f t="shared" ref="S93:S96" si="346">H93*J93</f>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T93" s="19">
-        <f t="shared" ref="T93:T96" si="347">H93*K93</f>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U93" s="18">
@@ -11254,59 +11581,59 @@
         <v>0</v>
       </c>
       <c r="V93" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W93" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X93" s="20">
-        <f t="shared" ref="X93:Z96" si="348">R93*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y93" s="20">
-        <f t="shared" si="348"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z93" s="20">
-        <f t="shared" si="348"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA93" s="16">
-        <f t="shared" ref="AA93:AC96" si="349">O93*$G$3/$E$3</f>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB93" s="16">
-        <f t="shared" si="349"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC93" s="16">
-        <f t="shared" si="349"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD93" s="17" t="str">
-        <f t="shared" ref="AD93:AI96" si="350">IF((U93+X93)&lt;($J$4/2),"低",IF((U93+X93)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE93" s="17" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF93" s="17" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG93" s="15" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH93" s="15" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI93" s="15" t="str">
-        <f t="shared" si="350"/>
+        <f t="shared" si="293"/>
         <v>低</v>
       </c>
     </row>
@@ -11315,466 +11642,1714 @@
         <v>67</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L94" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S94" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T94" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U94" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V94" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W94" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X94" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y94" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA94" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB94" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC94" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD94" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE94" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF94" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG94" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH94" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI94" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="95" spans="1:35">
+      <c r="A95" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L95" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P95" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R95" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S95" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T95" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U95" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V95" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W95" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X95" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y95" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z95" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA95" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB95" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC95" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD95" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE95" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF95" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG95" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH95" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI95" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="96" spans="1:35">
+      <c r="A96" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L96" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P96" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R96" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S96" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T96" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U96" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V96" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W96" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X96" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y96" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z96" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA96" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB96" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC96" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD96" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE96" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF96" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG96" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH96" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI96" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="97" spans="1:35">
+      <c r="A97" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L97" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O97" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R97" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S97" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T97" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U97" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V97" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W97" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X97" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y97" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z97" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA97" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB97" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC97" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD97" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE97" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF97" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG97" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH97" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI97" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="98" spans="1:35">
+      <c r="A98" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L98" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R98" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S98" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T98" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V98" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W98" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X98" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y98" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z98" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA98" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB98" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC98" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD98" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE98" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF98" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG98" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH98" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI98" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="99" spans="1:35">
+      <c r="A99" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L99" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O99" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P99" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R99" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S99" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T99" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U99" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V99" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W99" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X99" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y99" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z99" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA99" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB99" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC99" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD99" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE99" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF99" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG99" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH99" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI99" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="100" spans="1:35">
+      <c r="A100" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L100" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O100" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P100" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R100" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S100" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T100" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U100" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V100" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W100" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X100" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y100" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z100" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA100" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB100" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC100" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD100" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE100" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF100" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG100" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH100" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI100" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="101" spans="1:35">
+      <c r="A101" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L101" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P101" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q101" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R101" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S101" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T101" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U101" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V101" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W101" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X101" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y101" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z101" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA101" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB101" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC101" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD101" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE101" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF101" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG101" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH101" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI101" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="102" spans="1:35">
+      <c r="A102" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L102" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O102" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R102" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S102" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T102" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U102" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V102" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W102" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X102" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y102" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z102" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA102" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB102" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC102" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD102" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE102" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF102" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG102" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH102" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI102" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35">
+      <c r="A103" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L103" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O103" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P103" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q103" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R103" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S103" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T103" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U103" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V103" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W103" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X103" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y103" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z103" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA103" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB103" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC103" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD103" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE103" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF103" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG103" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH103" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI103" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="104" spans="1:35">
+      <c r="A104" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L104" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N104" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O104" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P104" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q104" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R104" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S104" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T104" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U104" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V104" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W104" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X104" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y104" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z104" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA104" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB104" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC104" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD104" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE104" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF104" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG104" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH104" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI104" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="105" spans="1:35">
+      <c r="A105" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L105" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N105" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O105" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P105" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q105" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R105" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S105" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T105" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U105" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V105" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W105" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X105" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y105" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z105" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA105" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB105" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC105" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD105" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE105" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF105" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG105" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH105" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI105" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="106" spans="1:35">
+      <c r="A106" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L106" s="14">
+        <f t="shared" ref="L106:L109" si="483">E106*I106</f>
+        <v>0</v>
+      </c>
+      <c r="M106" s="14">
+        <f t="shared" ref="M106:M109" si="484">E106*J106</f>
+        <v>0</v>
+      </c>
+      <c r="N106" s="14">
+        <f t="shared" ref="N106:N109" si="485">E106*K106</f>
+        <v>0</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" ref="O106:O109" si="486">F106*I106</f>
+        <v>0</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" ref="P106:P109" si="487">F106*J106</f>
+        <v>0</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" ref="Q106:Q109" si="488">F106*K106</f>
+        <v>0</v>
+      </c>
+      <c r="R106" s="19">
+        <f t="shared" ref="R106:R109" si="489">H106*I106</f>
+        <v>0</v>
+      </c>
+      <c r="S106" s="19">
+        <f t="shared" ref="S106:S109" si="490">H106*J106</f>
+        <v>0</v>
+      </c>
+      <c r="T106" s="19">
+        <f t="shared" ref="T106:T109" si="491">H106*K106</f>
+        <v>0</v>
+      </c>
+      <c r="U106" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V106" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="W106" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="X106" s="20">
+        <f t="shared" ref="X106:Z109" si="492">R106*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y106" s="20">
+        <f t="shared" si="492"/>
+        <v>0</v>
+      </c>
+      <c r="Z106" s="20">
+        <f t="shared" si="492"/>
+        <v>0</v>
+      </c>
+      <c r="AA106" s="16">
+        <f t="shared" ref="AA106:AC109" si="493">O106*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB106" s="16">
+        <f t="shared" si="493"/>
+        <v>0</v>
+      </c>
+      <c r="AC106" s="16">
+        <f t="shared" si="493"/>
+        <v>0</v>
+      </c>
+      <c r="AD106" s="17" t="str">
+        <f t="shared" ref="AD106:AI109" si="494">IF((U106+X106)&lt;($J$4/2),"低",IF((U106+X106)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE106" s="17" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AF106" s="17" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AG106" s="15" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AH106" s="15" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AI106" s="15" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="107" spans="1:35">
+      <c r="A107" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L94" s="14">
-        <f t="shared" si="339"/>
-        <v>0</v>
-      </c>
-      <c r="M94" s="14">
-        <f t="shared" si="340"/>
-        <v>0</v>
-      </c>
-      <c r="N94" s="14">
-        <f t="shared" si="341"/>
-        <v>0</v>
-      </c>
-      <c r="O94" s="15">
-        <f t="shared" si="342"/>
-        <v>0</v>
-      </c>
-      <c r="P94" s="15">
-        <f t="shared" si="343"/>
-        <v>0</v>
-      </c>
-      <c r="Q94" s="15">
-        <f t="shared" si="344"/>
-        <v>0</v>
-      </c>
-      <c r="R94" s="19">
-        <f t="shared" si="345"/>
-        <v>0</v>
-      </c>
-      <c r="S94" s="19">
-        <f t="shared" si="346"/>
-        <v>0</v>
-      </c>
-      <c r="T94" s="19">
-        <f t="shared" si="347"/>
-        <v>0</v>
-      </c>
-      <c r="U94" s="18">
-        <f t="shared" ref="U94:W96" si="351">L94*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="V94" s="18">
-        <f t="shared" si="351"/>
-        <v>0</v>
-      </c>
-      <c r="W94" s="18">
-        <f t="shared" si="351"/>
-        <v>0</v>
-      </c>
-      <c r="X94" s="20">
-        <f t="shared" si="348"/>
-        <v>0</v>
-      </c>
-      <c r="Y94" s="20">
-        <f t="shared" si="348"/>
-        <v>0</v>
-      </c>
-      <c r="Z94" s="20">
-        <f t="shared" si="348"/>
-        <v>0</v>
-      </c>
-      <c r="AA94" s="16">
-        <f t="shared" si="349"/>
-        <v>0</v>
-      </c>
-      <c r="AB94" s="16">
-        <f t="shared" si="349"/>
-        <v>0</v>
-      </c>
-      <c r="AC94" s="16">
-        <f t="shared" si="349"/>
-        <v>0</v>
-      </c>
-      <c r="AD94" s="17" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AE94" s="17" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AF94" s="17" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AG94" s="15" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AH94" s="15" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AI94" s="15" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="95" spans="1:35">
-      <c r="A95" s="7" t="s">
+      <c r="L107" s="14">
+        <f t="shared" si="483"/>
+        <v>0</v>
+      </c>
+      <c r="M107" s="14">
+        <f t="shared" si="484"/>
+        <v>0</v>
+      </c>
+      <c r="N107" s="14">
+        <f t="shared" si="485"/>
+        <v>0</v>
+      </c>
+      <c r="O107" s="15">
+        <f t="shared" si="486"/>
+        <v>0</v>
+      </c>
+      <c r="P107" s="15">
+        <f t="shared" si="487"/>
+        <v>0</v>
+      </c>
+      <c r="Q107" s="15">
+        <f t="shared" si="488"/>
+        <v>0</v>
+      </c>
+      <c r="R107" s="19">
+        <f t="shared" si="489"/>
+        <v>0</v>
+      </c>
+      <c r="S107" s="19">
+        <f t="shared" si="490"/>
+        <v>0</v>
+      </c>
+      <c r="T107" s="19">
+        <f t="shared" si="491"/>
+        <v>0</v>
+      </c>
+      <c r="U107" s="18">
+        <f t="shared" ref="U107:W109" si="495">L107*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V107" s="18">
+        <f t="shared" si="495"/>
+        <v>0</v>
+      </c>
+      <c r="W107" s="18">
+        <f t="shared" si="495"/>
+        <v>0</v>
+      </c>
+      <c r="X107" s="20">
+        <f t="shared" si="492"/>
+        <v>0</v>
+      </c>
+      <c r="Y107" s="20">
+        <f t="shared" si="492"/>
+        <v>0</v>
+      </c>
+      <c r="Z107" s="20">
+        <f t="shared" si="492"/>
+        <v>0</v>
+      </c>
+      <c r="AA107" s="16">
+        <f t="shared" si="493"/>
+        <v>0</v>
+      </c>
+      <c r="AB107" s="16">
+        <f t="shared" si="493"/>
+        <v>0</v>
+      </c>
+      <c r="AC107" s="16">
+        <f t="shared" si="493"/>
+        <v>0</v>
+      </c>
+      <c r="AD107" s="17" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AE107" s="17" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AF107" s="17" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AG107" s="15" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AH107" s="15" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AI107" s="15" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35">
+      <c r="A108" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B108" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C108" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L95" s="14">
-        <f t="shared" si="339"/>
-        <v>0</v>
-      </c>
-      <c r="M95" s="14">
-        <f t="shared" si="340"/>
-        <v>0</v>
-      </c>
-      <c r="N95" s="14">
-        <f t="shared" si="341"/>
-        <v>0</v>
-      </c>
-      <c r="O95" s="15">
-        <f t="shared" si="342"/>
-        <v>0</v>
-      </c>
-      <c r="P95" s="15">
-        <f t="shared" si="343"/>
-        <v>0</v>
-      </c>
-      <c r="Q95" s="15">
-        <f t="shared" si="344"/>
-        <v>0</v>
-      </c>
-      <c r="R95" s="19">
-        <f t="shared" si="345"/>
-        <v>0</v>
-      </c>
-      <c r="S95" s="19">
-        <f t="shared" si="346"/>
-        <v>0</v>
-      </c>
-      <c r="T95" s="19">
-        <f t="shared" si="347"/>
-        <v>0</v>
-      </c>
-      <c r="U95" s="18">
-        <f t="shared" si="351"/>
-        <v>0</v>
-      </c>
-      <c r="V95" s="18">
-        <f t="shared" si="351"/>
-        <v>0</v>
-      </c>
-      <c r="W95" s="18">
-        <f t="shared" si="351"/>
-        <v>0</v>
-      </c>
-      <c r="X95" s="20">
-        <f t="shared" si="348"/>
-        <v>0</v>
-      </c>
-      <c r="Y95" s="20">
-        <f t="shared" si="348"/>
-        <v>0</v>
-      </c>
-      <c r="Z95" s="20">
-        <f t="shared" si="348"/>
-        <v>0</v>
-      </c>
-      <c r="AA95" s="16">
-        <f t="shared" si="349"/>
-        <v>0</v>
-      </c>
-      <c r="AB95" s="16">
-        <f t="shared" si="349"/>
-        <v>0</v>
-      </c>
-      <c r="AC95" s="16">
-        <f t="shared" si="349"/>
-        <v>0</v>
-      </c>
-      <c r="AD95" s="17" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AE95" s="17" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AF95" s="17" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AG95" s="15" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AH95" s="15" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AI95" s="15" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="96" spans="1:35">
-      <c r="A96" s="7" t="s">
+      <c r="L108" s="14">
+        <f t="shared" si="483"/>
+        <v>0</v>
+      </c>
+      <c r="M108" s="14">
+        <f t="shared" si="484"/>
+        <v>0</v>
+      </c>
+      <c r="N108" s="14">
+        <f t="shared" si="485"/>
+        <v>0</v>
+      </c>
+      <c r="O108" s="15">
+        <f t="shared" si="486"/>
+        <v>0</v>
+      </c>
+      <c r="P108" s="15">
+        <f t="shared" si="487"/>
+        <v>0</v>
+      </c>
+      <c r="Q108" s="15">
+        <f t="shared" si="488"/>
+        <v>0</v>
+      </c>
+      <c r="R108" s="19">
+        <f t="shared" si="489"/>
+        <v>0</v>
+      </c>
+      <c r="S108" s="19">
+        <f t="shared" si="490"/>
+        <v>0</v>
+      </c>
+      <c r="T108" s="19">
+        <f t="shared" si="491"/>
+        <v>0</v>
+      </c>
+      <c r="U108" s="18">
+        <f t="shared" si="495"/>
+        <v>0</v>
+      </c>
+      <c r="V108" s="18">
+        <f t="shared" si="495"/>
+        <v>0</v>
+      </c>
+      <c r="W108" s="18">
+        <f t="shared" si="495"/>
+        <v>0</v>
+      </c>
+      <c r="X108" s="20">
+        <f t="shared" si="492"/>
+        <v>0</v>
+      </c>
+      <c r="Y108" s="20">
+        <f t="shared" si="492"/>
+        <v>0</v>
+      </c>
+      <c r="Z108" s="20">
+        <f t="shared" si="492"/>
+        <v>0</v>
+      </c>
+      <c r="AA108" s="16">
+        <f t="shared" si="493"/>
+        <v>0</v>
+      </c>
+      <c r="AB108" s="16">
+        <f t="shared" si="493"/>
+        <v>0</v>
+      </c>
+      <c r="AC108" s="16">
+        <f t="shared" si="493"/>
+        <v>0</v>
+      </c>
+      <c r="AD108" s="17" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AE108" s="17" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AF108" s="17" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AG108" s="15" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AH108" s="15" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AI108" s="15" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="109" spans="1:35">
+      <c r="A109" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B109" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C109" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L96" s="14">
-        <f t="shared" si="339"/>
-        <v>0</v>
-      </c>
-      <c r="M96" s="14">
-        <f t="shared" si="340"/>
-        <v>0</v>
-      </c>
-      <c r="N96" s="14">
-        <f t="shared" si="341"/>
-        <v>0</v>
-      </c>
-      <c r="O96" s="15">
-        <f t="shared" si="342"/>
-        <v>0</v>
-      </c>
-      <c r="P96" s="15">
-        <f t="shared" si="343"/>
-        <v>0</v>
-      </c>
-      <c r="Q96" s="15">
-        <f t="shared" si="344"/>
-        <v>0</v>
-      </c>
-      <c r="R96" s="19">
-        <f t="shared" si="345"/>
-        <v>0</v>
-      </c>
-      <c r="S96" s="19">
-        <f t="shared" si="346"/>
-        <v>0</v>
-      </c>
-      <c r="T96" s="19">
-        <f t="shared" si="347"/>
-        <v>0</v>
-      </c>
-      <c r="U96" s="18">
-        <f t="shared" si="351"/>
-        <v>0</v>
-      </c>
-      <c r="V96" s="18">
-        <f t="shared" si="351"/>
-        <v>0</v>
-      </c>
-      <c r="W96" s="18">
-        <f t="shared" si="351"/>
-        <v>0</v>
-      </c>
-      <c r="X96" s="20">
-        <f t="shared" si="348"/>
-        <v>0</v>
-      </c>
-      <c r="Y96" s="20">
-        <f t="shared" si="348"/>
-        <v>0</v>
-      </c>
-      <c r="Z96" s="20">
-        <f t="shared" si="348"/>
-        <v>0</v>
-      </c>
-      <c r="AA96" s="16">
-        <f t="shared" si="349"/>
-        <v>0</v>
-      </c>
-      <c r="AB96" s="16">
-        <f t="shared" si="349"/>
-        <v>0</v>
-      </c>
-      <c r="AC96" s="16">
-        <f t="shared" si="349"/>
-        <v>0</v>
-      </c>
-      <c r="AD96" s="17" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AE96" s="17" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AF96" s="17" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AG96" s="15" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AH96" s="15" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-      <c r="AI96" s="15" t="str">
-        <f t="shared" si="350"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="97" spans="21:29">
-      <c r="U97" s="18"/>
-      <c r="V97" s="18"/>
-      <c r="W97" s="18"/>
-      <c r="X97" s="20"/>
-      <c r="Y97" s="20"/>
-      <c r="Z97" s="20"/>
-      <c r="AA97" s="16"/>
-      <c r="AB97" s="16"/>
-      <c r="AC97" s="16"/>
-    </row>
-    <row r="98" spans="21:29">
-      <c r="U98" s="18"/>
-      <c r="V98" s="18"/>
-      <c r="W98" s="18"/>
-      <c r="X98" s="20"/>
-      <c r="Y98" s="20"/>
-      <c r="Z98" s="20"/>
-      <c r="AA98" s="16"/>
-      <c r="AB98" s="16"/>
-      <c r="AC98" s="16"/>
-    </row>
-    <row r="99" spans="21:29">
-      <c r="U99" s="18"/>
-      <c r="V99" s="18"/>
-      <c r="W99" s="18"/>
-      <c r="X99" s="20"/>
-      <c r="Y99" s="20"/>
-      <c r="Z99" s="20"/>
-      <c r="AA99" s="16"/>
-      <c r="AB99" s="16"/>
-      <c r="AC99" s="16"/>
-    </row>
-    <row r="100" spans="21:29">
-      <c r="U100" s="18"/>
-      <c r="V100" s="18"/>
-      <c r="W100" s="18"/>
-      <c r="X100" s="20"/>
-      <c r="Y100" s="20"/>
-      <c r="Z100" s="20"/>
-      <c r="AA100" s="16"/>
-      <c r="AB100" s="16"/>
-      <c r="AC100" s="16"/>
-    </row>
-    <row r="101" spans="21:29">
-      <c r="U101" s="18"/>
-      <c r="V101" s="18"/>
-      <c r="W101" s="18"/>
-      <c r="X101" s="20"/>
-      <c r="Y101" s="20"/>
-      <c r="Z101" s="20"/>
-      <c r="AA101" s="16"/>
-      <c r="AB101" s="16"/>
-      <c r="AC101" s="16"/>
-    </row>
-    <row r="102" spans="21:29">
-      <c r="U102" s="18"/>
-      <c r="V102" s="18"/>
-      <c r="W102" s="18"/>
-      <c r="X102" s="20"/>
-      <c r="Y102" s="20"/>
-      <c r="Z102" s="20"/>
-      <c r="AA102" s="16"/>
-      <c r="AB102" s="16"/>
-      <c r="AC102" s="16"/>
-    </row>
-    <row r="103" spans="21:29">
-      <c r="U103" s="18"/>
-      <c r="V103" s="18"/>
-      <c r="W103" s="18"/>
-      <c r="X103" s="20"/>
-      <c r="Y103" s="20"/>
-      <c r="Z103" s="20"/>
-      <c r="AA103" s="16"/>
-      <c r="AB103" s="16"/>
-      <c r="AC103" s="16"/>
-    </row>
-    <row r="104" spans="21:29">
-      <c r="U104" s="18"/>
-      <c r="V104" s="18"/>
-      <c r="W104" s="18"/>
-      <c r="X104" s="20"/>
-      <c r="Y104" s="20"/>
-      <c r="Z104" s="20"/>
-      <c r="AA104" s="16"/>
-      <c r="AB104" s="16"/>
-      <c r="AC104" s="16"/>
-    </row>
-    <row r="105" spans="21:29">
-      <c r="U105" s="18"/>
-      <c r="V105" s="18"/>
-      <c r="W105" s="18"/>
-      <c r="X105" s="20"/>
-      <c r="Y105" s="20"/>
-      <c r="Z105" s="20"/>
-      <c r="AA105" s="16"/>
-      <c r="AB105" s="16"/>
-      <c r="AC105" s="16"/>
-    </row>
-    <row r="106" spans="21:29">
-      <c r="U106" s="18"/>
-      <c r="V106" s="18"/>
-      <c r="W106" s="18"/>
-      <c r="X106" s="20"/>
-      <c r="Y106" s="20"/>
-      <c r="Z106" s="20"/>
-      <c r="AA106" s="16"/>
-      <c r="AB106" s="16"/>
-      <c r="AC106" s="16"/>
-    </row>
-    <row r="107" spans="21:29">
-      <c r="U107" s="18"/>
-      <c r="V107" s="18"/>
-      <c r="W107" s="18"/>
-      <c r="X107" s="20"/>
-      <c r="Y107" s="20"/>
-      <c r="Z107" s="20"/>
-      <c r="AA107" s="16"/>
-      <c r="AB107" s="16"/>
-      <c r="AC107" s="16"/>
-    </row>
-    <row r="108" spans="21:29">
-      <c r="U108" s="18"/>
-      <c r="V108" s="18"/>
-      <c r="W108" s="18"/>
-      <c r="X108" s="20"/>
-      <c r="Y108" s="20"/>
-      <c r="Z108" s="20"/>
-      <c r="AA108" s="16"/>
-      <c r="AB108" s="16"/>
-      <c r="AC108" s="16"/>
-    </row>
-    <row r="109" spans="21:29">
-      <c r="U109" s="18"/>
-      <c r="V109" s="18"/>
-      <c r="W109" s="18"/>
-      <c r="X109" s="20"/>
-      <c r="Y109" s="20"/>
-      <c r="Z109" s="20"/>
-      <c r="AA109" s="16"/>
-      <c r="AB109" s="16"/>
-      <c r="AC109" s="16"/>
-    </row>
-    <row r="110" spans="21:29">
+      <c r="L109" s="14">
+        <f t="shared" si="483"/>
+        <v>0</v>
+      </c>
+      <c r="M109" s="14">
+        <f t="shared" si="484"/>
+        <v>0</v>
+      </c>
+      <c r="N109" s="14">
+        <f t="shared" si="485"/>
+        <v>0</v>
+      </c>
+      <c r="O109" s="15">
+        <f t="shared" si="486"/>
+        <v>0</v>
+      </c>
+      <c r="P109" s="15">
+        <f t="shared" si="487"/>
+        <v>0</v>
+      </c>
+      <c r="Q109" s="15">
+        <f t="shared" si="488"/>
+        <v>0</v>
+      </c>
+      <c r="R109" s="19">
+        <f t="shared" si="489"/>
+        <v>0</v>
+      </c>
+      <c r="S109" s="19">
+        <f t="shared" si="490"/>
+        <v>0</v>
+      </c>
+      <c r="T109" s="19">
+        <f t="shared" si="491"/>
+        <v>0</v>
+      </c>
+      <c r="U109" s="18">
+        <f t="shared" si="495"/>
+        <v>0</v>
+      </c>
+      <c r="V109" s="18">
+        <f t="shared" si="495"/>
+        <v>0</v>
+      </c>
+      <c r="W109" s="18">
+        <f t="shared" si="495"/>
+        <v>0</v>
+      </c>
+      <c r="X109" s="20">
+        <f t="shared" si="492"/>
+        <v>0</v>
+      </c>
+      <c r="Y109" s="20">
+        <f t="shared" si="492"/>
+        <v>0</v>
+      </c>
+      <c r="Z109" s="20">
+        <f t="shared" si="492"/>
+        <v>0</v>
+      </c>
+      <c r="AA109" s="16">
+        <f t="shared" si="493"/>
+        <v>0</v>
+      </c>
+      <c r="AB109" s="16">
+        <f t="shared" si="493"/>
+        <v>0</v>
+      </c>
+      <c r="AC109" s="16">
+        <f t="shared" si="493"/>
+        <v>0</v>
+      </c>
+      <c r="AD109" s="17" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AE109" s="17" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AF109" s="17" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AG109" s="15" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AH109" s="15" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+      <c r="AI109" s="15" t="str">
+        <f t="shared" si="494"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="110" spans="1:35">
       <c r="U110" s="18"/>
       <c r="V110" s="18"/>
       <c r="W110" s="18"/>
@@ -11785,7 +13360,7 @@
       <c r="AB110" s="16"/>
       <c r="AC110" s="16"/>
     </row>
-    <row r="111" spans="21:29">
+    <row r="111" spans="1:35">
       <c r="U111" s="18"/>
       <c r="V111" s="18"/>
       <c r="W111" s="18"/>
@@ -11796,7 +13371,7 @@
       <c r="AB111" s="16"/>
       <c r="AC111" s="16"/>
     </row>
-    <row r="112" spans="21:29">
+    <row r="112" spans="1:35">
       <c r="U112" s="18"/>
       <c r="V112" s="18"/>
       <c r="W112" s="18"/>
@@ -15062,6 +16637,149 @@
       <c r="AA408" s="16"/>
       <c r="AB408" s="16"/>
       <c r="AC408" s="16"/>
+    </row>
+    <row r="409" spans="21:29">
+      <c r="U409" s="18"/>
+      <c r="V409" s="18"/>
+      <c r="W409" s="18"/>
+      <c r="X409" s="20"/>
+      <c r="Y409" s="20"/>
+      <c r="Z409" s="20"/>
+      <c r="AA409" s="16"/>
+      <c r="AB409" s="16"/>
+      <c r="AC409" s="16"/>
+    </row>
+    <row r="410" spans="21:29">
+      <c r="U410" s="18"/>
+      <c r="V410" s="18"/>
+      <c r="W410" s="18"/>
+      <c r="X410" s="20"/>
+      <c r="Y410" s="20"/>
+      <c r="Z410" s="20"/>
+      <c r="AA410" s="16"/>
+      <c r="AB410" s="16"/>
+      <c r="AC410" s="16"/>
+    </row>
+    <row r="411" spans="21:29">
+      <c r="U411" s="18"/>
+      <c r="V411" s="18"/>
+      <c r="W411" s="18"/>
+      <c r="X411" s="20"/>
+      <c r="Y411" s="20"/>
+      <c r="Z411" s="20"/>
+      <c r="AA411" s="16"/>
+      <c r="AB411" s="16"/>
+      <c r="AC411" s="16"/>
+    </row>
+    <row r="412" spans="21:29">
+      <c r="U412" s="18"/>
+      <c r="V412" s="18"/>
+      <c r="W412" s="18"/>
+      <c r="X412" s="20"/>
+      <c r="Y412" s="20"/>
+      <c r="Z412" s="20"/>
+      <c r="AA412" s="16"/>
+      <c r="AB412" s="16"/>
+      <c r="AC412" s="16"/>
+    </row>
+    <row r="413" spans="21:29">
+      <c r="U413" s="18"/>
+      <c r="V413" s="18"/>
+      <c r="W413" s="18"/>
+      <c r="X413" s="20"/>
+      <c r="Y413" s="20"/>
+      <c r="Z413" s="20"/>
+      <c r="AA413" s="16"/>
+      <c r="AB413" s="16"/>
+      <c r="AC413" s="16"/>
+    </row>
+    <row r="414" spans="21:29">
+      <c r="U414" s="18"/>
+      <c r="V414" s="18"/>
+      <c r="W414" s="18"/>
+      <c r="X414" s="20"/>
+      <c r="Y414" s="20"/>
+      <c r="Z414" s="20"/>
+      <c r="AA414" s="16"/>
+      <c r="AB414" s="16"/>
+      <c r="AC414" s="16"/>
+    </row>
+    <row r="415" spans="21:29">
+      <c r="U415" s="18"/>
+      <c r="V415" s="18"/>
+      <c r="W415" s="18"/>
+      <c r="X415" s="20"/>
+      <c r="Y415" s="20"/>
+      <c r="Z415" s="20"/>
+      <c r="AA415" s="16"/>
+      <c r="AB415" s="16"/>
+      <c r="AC415" s="16"/>
+    </row>
+    <row r="416" spans="21:29">
+      <c r="U416" s="18"/>
+      <c r="V416" s="18"/>
+      <c r="W416" s="18"/>
+      <c r="X416" s="20"/>
+      <c r="Y416" s="20"/>
+      <c r="Z416" s="20"/>
+      <c r="AA416" s="16"/>
+      <c r="AB416" s="16"/>
+      <c r="AC416" s="16"/>
+    </row>
+    <row r="417" spans="21:29">
+      <c r="U417" s="18"/>
+      <c r="V417" s="18"/>
+      <c r="W417" s="18"/>
+      <c r="X417" s="20"/>
+      <c r="Y417" s="20"/>
+      <c r="Z417" s="20"/>
+      <c r="AA417" s="16"/>
+      <c r="AB417" s="16"/>
+      <c r="AC417" s="16"/>
+    </row>
+    <row r="418" spans="21:29">
+      <c r="U418" s="18"/>
+      <c r="V418" s="18"/>
+      <c r="W418" s="18"/>
+      <c r="X418" s="20"/>
+      <c r="Y418" s="20"/>
+      <c r="Z418" s="20"/>
+      <c r="AA418" s="16"/>
+      <c r="AB418" s="16"/>
+      <c r="AC418" s="16"/>
+    </row>
+    <row r="419" spans="21:29">
+      <c r="U419" s="18"/>
+      <c r="V419" s="18"/>
+      <c r="W419" s="18"/>
+      <c r="X419" s="20"/>
+      <c r="Y419" s="20"/>
+      <c r="Z419" s="20"/>
+      <c r="AA419" s="16"/>
+      <c r="AB419" s="16"/>
+      <c r="AC419" s="16"/>
+    </row>
+    <row r="420" spans="21:29">
+      <c r="U420" s="18"/>
+      <c r="V420" s="18"/>
+      <c r="W420" s="18"/>
+      <c r="X420" s="20"/>
+      <c r="Y420" s="20"/>
+      <c r="Z420" s="20"/>
+      <c r="AA420" s="16"/>
+      <c r="AB420" s="16"/>
+      <c r="AC420" s="16"/>
+    </row>
+    <row r="421" spans="21:29">
+      <c r="U421" s="18"/>
+      <c r="V421" s="18"/>
+      <c r="W421" s="18"/>
+      <c r="X421" s="20"/>
+      <c r="Y421" s="20"/>
+      <c r="Z421" s="20"/>
+      <c r="AA421" s="16"/>
+      <c r="AB421" s="16"/>
+      <c r="AC421" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F3E511-0D08-488D-8D34-F87EC1702361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1EB2AF-4CD8-46C5-9EA4-ED91A33E042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -1453,11 +1453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:AJ421"/>
+  <dimension ref="A2:AJ435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+      <pane ySplit="7" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4019,39 +4019,39 @@
         <v>0</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" ref="L26:L105" si="271">E26*I26</f>
+        <f t="shared" ref="L26:L119" si="271">E26*I26</f>
         <v>448</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" ref="M26:M105" si="272">E26*J26</f>
+        <f t="shared" ref="M26:M119" si="272">E26*J26</f>
         <v>672</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" ref="N26:N105" si="273">E26*K26</f>
+        <f t="shared" ref="N26:N119" si="273">E26*K26</f>
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" ref="O26:O105" si="274">F26*I26</f>
+        <f t="shared" ref="O26:O119" si="274">F26*I26</f>
         <v>602</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" ref="P26:P105" si="275">F26*J26</f>
+        <f t="shared" ref="P26:P119" si="275">F26*J26</f>
         <v>903</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" ref="Q26:Q105" si="276">F26*K26</f>
+        <f t="shared" ref="Q26:Q119" si="276">F26*K26</f>
         <v>0</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" ref="R26:R105" si="277">H26*I26</f>
+        <f t="shared" ref="R26:R119" si="277">H26*I26</f>
         <v>280</v>
       </c>
       <c r="S26" s="19">
-        <f t="shared" ref="S26:S105" si="278">H26*J26</f>
+        <f t="shared" ref="S26:S119" si="278">H26*J26</f>
         <v>420</v>
       </c>
       <c r="T26" s="19">
-        <f t="shared" ref="T26:T105" si="279">H26*K26</f>
+        <f t="shared" ref="T26:T119" si="279">H26*K26</f>
         <v>0</v>
       </c>
       <c r="U26" s="18">
@@ -4059,59 +4059,59 @@
         <v>0.22123456790123455</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" ref="V26:V105" si="280">M26*$G$3/$E$3</f>
+        <f t="shared" ref="V26:V119" si="280">M26*$G$3/$E$3</f>
         <v>0.33185185185185179</v>
       </c>
       <c r="W26" s="18">
-        <f t="shared" ref="W26:W105" si="281">N26*$G$3/$E$3</f>
+        <f t="shared" ref="W26:W119" si="281">N26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X26" s="20">
-        <f t="shared" ref="X26:X105" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="X26:X119" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.13827160493827159</v>
       </c>
       <c r="Y26" s="20">
-        <f t="shared" ref="Y26:Y105" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Y26:Y119" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.2074074074074074</v>
       </c>
       <c r="Z26" s="20">
-        <f t="shared" ref="Z26:Z105" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Z26:Z119" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA26" s="16">
-        <f t="shared" ref="AA26:AA105" si="285">O26*$G$3/$E$3</f>
+        <f t="shared" ref="AA26:AA119" si="285">O26*$G$3/$E$3</f>
         <v>0.29728395061728391</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" ref="AB26:AB105" si="286">P26*$G$3/$E$3</f>
+        <f t="shared" ref="AB26:AB119" si="286">P26*$G$3/$E$3</f>
         <v>0.44592592592592589</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" ref="AC26:AC105" si="287">Q26*$G$3/$E$3</f>
+        <f t="shared" ref="AC26:AC119" si="287">Q26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD26" s="17" t="str">
-        <f t="shared" ref="AD26:AD105" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD26:AD119" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AE26" s="17" t="str">
-        <f t="shared" ref="AE26:AE105" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AE26:AE119" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AF26" s="17" t="str">
-        <f t="shared" ref="AF26:AF105" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AF26:AF119" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG26" s="15" t="str">
-        <f t="shared" ref="AG26:AG105" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AG26:AG119" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AH26" s="15" t="str">
-        <f t="shared" ref="AH26:AH105" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AH26:AH119" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AI26" s="15" t="str">
-        <f t="shared" ref="AI26:AI105" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AI26:AI119" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AJ26" s="21"/>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" ref="U27:W106" si="294">L27*$G$3/$E$3</f>
+        <f t="shared" ref="U27:W120" si="294">L27*$G$3/$E$3</f>
         <v>5.8074074074074084E-2</v>
       </c>
       <c r="V27" s="18">
@@ -6404,6 +6404,15 @@
       <c r="C45" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="I45" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J45" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K45" s="11">
+        <v>0</v>
+      </c>
       <c r="L45" s="14">
         <f t="shared" si="271"/>
         <v>0</v>
@@ -6501,15 +6510,23 @@
         <v>低</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
-      <c r="A46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>18</v>
+    <row r="46" spans="1:36" s="4" customFormat="1">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J46" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
       </c>
       <c r="L46" s="14">
         <f t="shared" si="271"/>
@@ -6607,16 +6624,25 @@
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="47" spans="1:36">
-      <c r="A47" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>19</v>
+      <c r="AJ46" s="21"/>
+    </row>
+    <row r="47" spans="1:36" s="4" customFormat="1">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J47" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
       </c>
       <c r="L47" s="14">
         <f t="shared" si="271"/>
@@ -6714,1300 +6740,1409 @@
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="48" spans="1:36">
-      <c r="A48" s="5" t="s">
+      <c r="AJ47" s="21"/>
+    </row>
+    <row r="48" spans="1:36" s="4" customFormat="1">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J48" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="14">
+        <f t="shared" ref="L48" si="483">E48*I48</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="14">
+        <f t="shared" ref="M48" si="484">E48*J48</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="14">
+        <f t="shared" ref="N48" si="485">E48*K48</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="15">
+        <f t="shared" ref="O48" si="486">F48*I48</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="15">
+        <f t="shared" ref="P48" si="487">F48*J48</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="15">
+        <f t="shared" ref="Q48" si="488">F48*K48</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="19">
+        <f t="shared" ref="R48" si="489">H48*I48</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="19">
+        <f t="shared" ref="S48" si="490">H48*J48</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="19">
+        <f t="shared" ref="T48" si="491">H48*K48</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="18">
+        <f t="shared" ref="U48" si="492">L48*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="18">
+        <f t="shared" ref="V48" si="493">M48*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="18">
+        <f t="shared" ref="W48" si="494">N48*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="20">
+        <f t="shared" ref="X48" si="495">R48*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="20">
+        <f t="shared" ref="Y48" si="496">S48*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="20">
+        <f t="shared" ref="Z48" si="497">T48*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="16">
+        <f t="shared" ref="AA48" si="498">O48*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB48" s="16">
+        <f t="shared" ref="AB48" si="499">P48*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="16">
+        <f t="shared" ref="AC48" si="500">Q48*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="17" t="str">
+        <f t="shared" ref="AD48" si="501">IF((U48+X48)&lt;($J$4/2),"低",IF((U48+X48)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE48" s="17" t="str">
+        <f t="shared" ref="AE48" si="502">IF((V48+Y48)&lt;($J$4/2),"低",IF((V48+Y48)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF48" s="17" t="str">
+        <f t="shared" ref="AF48" si="503">IF((W48+Z48)&lt;($J$4/2),"低",IF((W48+Z48)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG48" s="15" t="str">
+        <f t="shared" ref="AG48" si="504">IF((X48+AA48)&lt;($J$4/2),"低",IF((X48+AA48)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AH48" s="15" t="str">
+        <f t="shared" ref="AH48" si="505">IF((Y48+AB48)&lt;($J$4/2),"低",IF((Y48+AB48)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI48" s="15" t="str">
+        <f t="shared" ref="AI48" si="506">IF((Z48+AC48)&lt;($J$4/2),"低",IF((Z48+AC48)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AJ48" s="21"/>
+    </row>
+    <row r="49" spans="1:36" s="4" customFormat="1">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J49" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0</v>
+      </c>
+      <c r="L49" s="14">
+        <f t="shared" ref="L49:L52" si="507">E49*I49</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="14">
+        <f t="shared" ref="M49:M52" si="508">E49*J49</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="14">
+        <f t="shared" ref="N49:N52" si="509">E49*K49</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
+        <f t="shared" ref="O49:O52" si="510">F49*I49</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="15">
+        <f t="shared" ref="P49:P52" si="511">F49*J49</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="15">
+        <f t="shared" ref="Q49:Q52" si="512">F49*K49</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="19">
+        <f t="shared" ref="R49:R52" si="513">H49*I49</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="19">
+        <f t="shared" ref="S49:S52" si="514">H49*J49</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="19">
+        <f t="shared" ref="T49:T52" si="515">H49*K49</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="18">
+        <f t="shared" ref="U49:U52" si="516">L49*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V49" s="18">
+        <f t="shared" ref="V49:V52" si="517">M49*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="18">
+        <f t="shared" ref="W49:W52" si="518">N49*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X49" s="20">
+        <f t="shared" ref="X49:X52" si="519">R49*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="20">
+        <f t="shared" ref="Y49:Y52" si="520">S49*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="20">
+        <f t="shared" ref="Z49:Z52" si="521">T49*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="16">
+        <f t="shared" ref="AA49:AA52" si="522">O49*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB49" s="16">
+        <f t="shared" ref="AB49:AB52" si="523">P49*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="16">
+        <f t="shared" ref="AC49:AC52" si="524">Q49*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="17" t="str">
+        <f t="shared" ref="AD49:AD52" si="525">IF((U49+X49)&lt;($J$4/2),"低",IF((U49+X49)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE49" s="17" t="str">
+        <f t="shared" ref="AE49:AE52" si="526">IF((V49+Y49)&lt;($J$4/2),"低",IF((V49+Y49)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF49" s="17" t="str">
+        <f t="shared" ref="AF49:AF52" si="527">IF((W49+Z49)&lt;($J$4/2),"低",IF((W49+Z49)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG49" s="15" t="str">
+        <f t="shared" ref="AG49:AG52" si="528">IF((X49+AA49)&lt;($J$4/2),"低",IF((X49+AA49)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AH49" s="15" t="str">
+        <f t="shared" ref="AH49:AH52" si="529">IF((Y49+AB49)&lt;($J$4/2),"低",IF((Y49+AB49)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI49" s="15" t="str">
+        <f t="shared" ref="AI49:AI52" si="530">IF((Z49+AC49)&lt;($J$4/2),"低",IF((Z49+AC49)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AJ49" s="21"/>
+    </row>
+    <row r="50" spans="1:36" s="4" customFormat="1">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J50" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0</v>
+      </c>
+      <c r="L50" s="14">
+        <f t="shared" si="507"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="14">
+        <f t="shared" si="508"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="14">
+        <f t="shared" si="509"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="15">
+        <f t="shared" si="510"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="15">
+        <f t="shared" si="511"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="15">
+        <f t="shared" si="512"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="19">
+        <f t="shared" si="513"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="19">
+        <f t="shared" si="514"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="19">
+        <f t="shared" si="515"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="18">
+        <f t="shared" si="516"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="18">
+        <f t="shared" si="517"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="18">
+        <f t="shared" si="518"/>
+        <v>0</v>
+      </c>
+      <c r="X50" s="20">
+        <f t="shared" si="519"/>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="20">
+        <f t="shared" si="520"/>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="20">
+        <f t="shared" si="521"/>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="16">
+        <f t="shared" si="522"/>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="16">
+        <f t="shared" si="523"/>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="16">
+        <f t="shared" si="524"/>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="17" t="str">
+        <f t="shared" si="525"/>
+        <v>低</v>
+      </c>
+      <c r="AE50" s="17" t="str">
+        <f t="shared" si="526"/>
+        <v>低</v>
+      </c>
+      <c r="AF50" s="17" t="str">
+        <f t="shared" si="527"/>
+        <v>低</v>
+      </c>
+      <c r="AG50" s="15" t="str">
+        <f t="shared" si="528"/>
+        <v>低</v>
+      </c>
+      <c r="AH50" s="15" t="str">
+        <f t="shared" si="529"/>
+        <v>低</v>
+      </c>
+      <c r="AI50" s="15" t="str">
+        <f t="shared" si="530"/>
+        <v>低</v>
+      </c>
+      <c r="AJ50" s="21"/>
+    </row>
+    <row r="51" spans="1:36" s="4" customFormat="1">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J51" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0</v>
+      </c>
+      <c r="L51" s="14">
+        <f t="shared" si="507"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="14">
+        <f t="shared" si="508"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="14">
+        <f t="shared" si="509"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="15">
+        <f t="shared" si="510"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="15">
+        <f t="shared" si="511"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="15">
+        <f t="shared" si="512"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="19">
+        <f t="shared" si="513"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="19">
+        <f t="shared" si="514"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="19">
+        <f t="shared" si="515"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="18">
+        <f t="shared" si="516"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="18">
+        <f t="shared" si="517"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="18">
+        <f t="shared" si="518"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="20">
+        <f t="shared" si="519"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="20">
+        <f t="shared" si="520"/>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="20">
+        <f t="shared" si="521"/>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="16">
+        <f t="shared" si="522"/>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="16">
+        <f t="shared" si="523"/>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="16">
+        <f t="shared" si="524"/>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="17" t="str">
+        <f t="shared" si="525"/>
+        <v>低</v>
+      </c>
+      <c r="AE51" s="17" t="str">
+        <f t="shared" si="526"/>
+        <v>低</v>
+      </c>
+      <c r="AF51" s="17" t="str">
+        <f t="shared" si="527"/>
+        <v>低</v>
+      </c>
+      <c r="AG51" s="15" t="str">
+        <f t="shared" si="528"/>
+        <v>低</v>
+      </c>
+      <c r="AH51" s="15" t="str">
+        <f t="shared" si="529"/>
+        <v>低</v>
+      </c>
+      <c r="AI51" s="15" t="str">
+        <f t="shared" si="530"/>
+        <v>低</v>
+      </c>
+      <c r="AJ51" s="21"/>
+    </row>
+    <row r="52" spans="1:36" s="4" customFormat="1">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J52" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0</v>
+      </c>
+      <c r="L52" s="14">
+        <f t="shared" si="507"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="14">
+        <f t="shared" si="508"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="14">
+        <f t="shared" si="509"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="15">
+        <f t="shared" si="510"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="15">
+        <f t="shared" si="511"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="15">
+        <f t="shared" si="512"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="19">
+        <f t="shared" si="513"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="19">
+        <f t="shared" si="514"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="19">
+        <f t="shared" si="515"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="18">
+        <f t="shared" si="516"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="18">
+        <f t="shared" si="517"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="18">
+        <f t="shared" si="518"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="20">
+        <f t="shared" si="519"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="20">
+        <f t="shared" si="520"/>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="20">
+        <f t="shared" si="521"/>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="16">
+        <f t="shared" si="522"/>
+        <v>0</v>
+      </c>
+      <c r="AB52" s="16">
+        <f t="shared" si="523"/>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="16">
+        <f t="shared" si="524"/>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="17" t="str">
+        <f t="shared" si="525"/>
+        <v>低</v>
+      </c>
+      <c r="AE52" s="17" t="str">
+        <f t="shared" si="526"/>
+        <v>低</v>
+      </c>
+      <c r="AF52" s="17" t="str">
+        <f t="shared" si="527"/>
+        <v>低</v>
+      </c>
+      <c r="AG52" s="15" t="str">
+        <f t="shared" si="528"/>
+        <v>低</v>
+      </c>
+      <c r="AH52" s="15" t="str">
+        <f t="shared" si="529"/>
+        <v>低</v>
+      </c>
+      <c r="AI52" s="15" t="str">
+        <f t="shared" si="530"/>
+        <v>低</v>
+      </c>
+      <c r="AJ52" s="21"/>
+    </row>
+    <row r="53" spans="1:36" s="4" customFormat="1">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J53" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0</v>
+      </c>
+      <c r="L53" s="14">
+        <f t="shared" ref="L53:L58" si="531">E53*I53</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="14">
+        <f t="shared" ref="M53:M58" si="532">E53*J53</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="14">
+        <f t="shared" ref="N53:N58" si="533">E53*K53</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <f t="shared" ref="O53:O58" si="534">F53*I53</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <f t="shared" ref="P53:P58" si="535">F53*J53</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <f t="shared" ref="Q53:Q58" si="536">F53*K53</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="19">
+        <f t="shared" ref="R53:R58" si="537">H53*I53</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="19">
+        <f t="shared" ref="S53:S58" si="538">H53*J53</f>
+        <v>0</v>
+      </c>
+      <c r="T53" s="19">
+        <f t="shared" ref="T53:T58" si="539">H53*K53</f>
+        <v>0</v>
+      </c>
+      <c r="U53" s="18">
+        <f t="shared" ref="U53:U58" si="540">L53*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V53" s="18">
+        <f t="shared" ref="V53:V58" si="541">M53*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="18">
+        <f t="shared" ref="W53:W58" si="542">N53*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X53" s="20">
+        <f t="shared" ref="X53:X58" si="543">R53*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="20">
+        <f t="shared" ref="Y53:Y58" si="544">S53*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="20">
+        <f t="shared" ref="Z53:Z58" si="545">T53*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="16">
+        <f t="shared" ref="AA53:AA58" si="546">O53*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="16">
+        <f t="shared" ref="AB53:AB58" si="547">P53*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="16">
+        <f t="shared" ref="AC53:AC58" si="548">Q53*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="17" t="str">
+        <f t="shared" ref="AD53:AD58" si="549">IF((U53+X53)&lt;($J$4/2),"低",IF((U53+X53)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE53" s="17" t="str">
+        <f t="shared" ref="AE53:AE58" si="550">IF((V53+Y53)&lt;($J$4/2),"低",IF((V53+Y53)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF53" s="17" t="str">
+        <f t="shared" ref="AF53:AF58" si="551">IF((W53+Z53)&lt;($J$4/2),"低",IF((W53+Z53)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG53" s="15" t="str">
+        <f t="shared" ref="AG53:AG58" si="552">IF((X53+AA53)&lt;($J$4/2),"低",IF((X53+AA53)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AH53" s="15" t="str">
+        <f t="shared" ref="AH53:AH58" si="553">IF((Y53+AB53)&lt;($J$4/2),"低",IF((Y53+AB53)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI53" s="15" t="str">
+        <f t="shared" ref="AI53:AI58" si="554">IF((Z53+AC53)&lt;($J$4/2),"低",IF((Z53+AC53)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AJ53" s="21"/>
+    </row>
+    <row r="54" spans="1:36" s="4" customFormat="1">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J54" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="14">
+        <f t="shared" si="531"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="14">
+        <f t="shared" si="532"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="14">
+        <f t="shared" si="533"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="15">
+        <f t="shared" si="534"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="15">
+        <f t="shared" si="535"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="15">
+        <f t="shared" si="536"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="19">
+        <f t="shared" si="537"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="19">
+        <f t="shared" si="538"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="19">
+        <f t="shared" si="539"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="18">
+        <f t="shared" si="540"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="18">
+        <f t="shared" si="541"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="18">
+        <f t="shared" si="542"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="20">
+        <f t="shared" si="543"/>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="20">
+        <f t="shared" si="544"/>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="20">
+        <f t="shared" si="545"/>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="16">
+        <f t="shared" si="546"/>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="16">
+        <f t="shared" si="547"/>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="16">
+        <f t="shared" si="548"/>
+        <v>0</v>
+      </c>
+      <c r="AD54" s="17" t="str">
+        <f t="shared" si="549"/>
+        <v>低</v>
+      </c>
+      <c r="AE54" s="17" t="str">
+        <f t="shared" si="550"/>
+        <v>低</v>
+      </c>
+      <c r="AF54" s="17" t="str">
+        <f t="shared" si="551"/>
+        <v>低</v>
+      </c>
+      <c r="AG54" s="15" t="str">
+        <f t="shared" si="552"/>
+        <v>低</v>
+      </c>
+      <c r="AH54" s="15" t="str">
+        <f t="shared" si="553"/>
+        <v>低</v>
+      </c>
+      <c r="AI54" s="15" t="str">
+        <f t="shared" si="554"/>
+        <v>低</v>
+      </c>
+      <c r="AJ54" s="21"/>
+    </row>
+    <row r="55" spans="1:36" s="4" customFormat="1">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J55" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K55" s="11">
+        <v>0</v>
+      </c>
+      <c r="L55" s="14">
+        <f t="shared" si="531"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="14">
+        <f t="shared" si="532"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="14">
+        <f t="shared" si="533"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <f t="shared" si="534"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <f t="shared" si="535"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15">
+        <f t="shared" si="536"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="19">
+        <f t="shared" si="537"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="19">
+        <f t="shared" si="538"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="19">
+        <f t="shared" si="539"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="18">
+        <f t="shared" si="540"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="18">
+        <f t="shared" si="541"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="18">
+        <f t="shared" si="542"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="20">
+        <f t="shared" si="543"/>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="20">
+        <f t="shared" si="544"/>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="20">
+        <f t="shared" si="545"/>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="16">
+        <f t="shared" si="546"/>
+        <v>0</v>
+      </c>
+      <c r="AB55" s="16">
+        <f t="shared" si="547"/>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="16">
+        <f t="shared" si="548"/>
+        <v>0</v>
+      </c>
+      <c r="AD55" s="17" t="str">
+        <f t="shared" si="549"/>
+        <v>低</v>
+      </c>
+      <c r="AE55" s="17" t="str">
+        <f t="shared" si="550"/>
+        <v>低</v>
+      </c>
+      <c r="AF55" s="17" t="str">
+        <f t="shared" si="551"/>
+        <v>低</v>
+      </c>
+      <c r="AG55" s="15" t="str">
+        <f t="shared" si="552"/>
+        <v>低</v>
+      </c>
+      <c r="AH55" s="15" t="str">
+        <f t="shared" si="553"/>
+        <v>低</v>
+      </c>
+      <c r="AI55" s="15" t="str">
+        <f t="shared" si="554"/>
+        <v>低</v>
+      </c>
+      <c r="AJ55" s="21"/>
+    </row>
+    <row r="56" spans="1:36" s="4" customFormat="1">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J56" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="14">
+        <f t="shared" si="531"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="14">
+        <f t="shared" si="532"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="14">
+        <f t="shared" si="533"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="15">
+        <f t="shared" si="534"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="15">
+        <f t="shared" si="535"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="15">
+        <f t="shared" si="536"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="19">
+        <f t="shared" si="537"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="19">
+        <f t="shared" si="538"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="19">
+        <f t="shared" si="539"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="18">
+        <f t="shared" si="540"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="18">
+        <f t="shared" si="541"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="18">
+        <f t="shared" si="542"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="20">
+        <f t="shared" si="543"/>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="20">
+        <f t="shared" si="544"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="20">
+        <f t="shared" si="545"/>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="16">
+        <f t="shared" si="546"/>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="16">
+        <f t="shared" si="547"/>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="16">
+        <f t="shared" si="548"/>
+        <v>0</v>
+      </c>
+      <c r="AD56" s="17" t="str">
+        <f t="shared" si="549"/>
+        <v>低</v>
+      </c>
+      <c r="AE56" s="17" t="str">
+        <f t="shared" si="550"/>
+        <v>低</v>
+      </c>
+      <c r="AF56" s="17" t="str">
+        <f t="shared" si="551"/>
+        <v>低</v>
+      </c>
+      <c r="AG56" s="15" t="str">
+        <f t="shared" si="552"/>
+        <v>低</v>
+      </c>
+      <c r="AH56" s="15" t="str">
+        <f t="shared" si="553"/>
+        <v>低</v>
+      </c>
+      <c r="AI56" s="15" t="str">
+        <f t="shared" si="554"/>
+        <v>低</v>
+      </c>
+      <c r="AJ56" s="21"/>
+    </row>
+    <row r="57" spans="1:36" s="4" customFormat="1">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J57" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K57" s="11">
+        <v>0</v>
+      </c>
+      <c r="L57" s="14">
+        <f t="shared" si="531"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="14">
+        <f t="shared" si="532"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="14">
+        <f t="shared" si="533"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="15">
+        <f t="shared" si="534"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="15">
+        <f t="shared" si="535"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="15">
+        <f t="shared" si="536"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="19">
+        <f t="shared" si="537"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="19">
+        <f t="shared" si="538"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="19">
+        <f t="shared" si="539"/>
+        <v>0</v>
+      </c>
+      <c r="U57" s="18">
+        <f t="shared" si="540"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="18">
+        <f t="shared" si="541"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="18">
+        <f t="shared" si="542"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="20">
+        <f t="shared" si="543"/>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="20">
+        <f t="shared" si="544"/>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="20">
+        <f t="shared" si="545"/>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="16">
+        <f t="shared" si="546"/>
+        <v>0</v>
+      </c>
+      <c r="AB57" s="16">
+        <f t="shared" si="547"/>
+        <v>0</v>
+      </c>
+      <c r="AC57" s="16">
+        <f t="shared" si="548"/>
+        <v>0</v>
+      </c>
+      <c r="AD57" s="17" t="str">
+        <f t="shared" si="549"/>
+        <v>低</v>
+      </c>
+      <c r="AE57" s="17" t="str">
+        <f t="shared" si="550"/>
+        <v>低</v>
+      </c>
+      <c r="AF57" s="17" t="str">
+        <f t="shared" si="551"/>
+        <v>低</v>
+      </c>
+      <c r="AG57" s="15" t="str">
+        <f t="shared" si="552"/>
+        <v>低</v>
+      </c>
+      <c r="AH57" s="15" t="str">
+        <f t="shared" si="553"/>
+        <v>低</v>
+      </c>
+      <c r="AI57" s="15" t="str">
+        <f t="shared" si="554"/>
+        <v>低</v>
+      </c>
+      <c r="AJ57" s="21"/>
+    </row>
+    <row r="58" spans="1:36" s="4" customFormat="1">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J58" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K58" s="11">
+        <v>0</v>
+      </c>
+      <c r="L58" s="14">
+        <f t="shared" si="531"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="14">
+        <f t="shared" si="532"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="14">
+        <f t="shared" si="533"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="15">
+        <f t="shared" si="534"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="15">
+        <f t="shared" si="535"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="15">
+        <f t="shared" si="536"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="19">
+        <f t="shared" si="537"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="19">
+        <f t="shared" si="538"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="19">
+        <f t="shared" si="539"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="18">
+        <f t="shared" si="540"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="18">
+        <f t="shared" si="541"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="18">
+        <f t="shared" si="542"/>
+        <v>0</v>
+      </c>
+      <c r="X58" s="20">
+        <f t="shared" si="543"/>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="20">
+        <f t="shared" si="544"/>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="20">
+        <f t="shared" si="545"/>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="16">
+        <f t="shared" si="546"/>
+        <v>0</v>
+      </c>
+      <c r="AB58" s="16">
+        <f t="shared" si="547"/>
+        <v>0</v>
+      </c>
+      <c r="AC58" s="16">
+        <f t="shared" si="548"/>
+        <v>0</v>
+      </c>
+      <c r="AD58" s="17" t="str">
+        <f t="shared" si="549"/>
+        <v>低</v>
+      </c>
+      <c r="AE58" s="17" t="str">
+        <f t="shared" si="550"/>
+        <v>低</v>
+      </c>
+      <c r="AF58" s="17" t="str">
+        <f t="shared" si="551"/>
+        <v>低</v>
+      </c>
+      <c r="AG58" s="15" t="str">
+        <f t="shared" si="552"/>
+        <v>低</v>
+      </c>
+      <c r="AH58" s="15" t="str">
+        <f t="shared" si="553"/>
+        <v>低</v>
+      </c>
+      <c r="AI58" s="15" t="str">
+        <f t="shared" si="554"/>
+        <v>低</v>
+      </c>
+      <c r="AJ58" s="21"/>
+    </row>
+    <row r="59" spans="1:36" s="4" customFormat="1">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="J59" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0</v>
+      </c>
+      <c r="L59" s="14">
+        <f t="shared" ref="L59" si="555">E59*I59</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="14">
+        <f t="shared" ref="M59" si="556">E59*J59</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="14">
+        <f t="shared" ref="N59" si="557">E59*K59</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="15">
+        <f t="shared" ref="O59" si="558">F59*I59</f>
+        <v>0</v>
+      </c>
+      <c r="P59" s="15">
+        <f t="shared" ref="P59" si="559">F59*J59</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="15">
+        <f t="shared" ref="Q59" si="560">F59*K59</f>
+        <v>0</v>
+      </c>
+      <c r="R59" s="19">
+        <f t="shared" ref="R59" si="561">H59*I59</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="19">
+        <f t="shared" ref="S59" si="562">H59*J59</f>
+        <v>0</v>
+      </c>
+      <c r="T59" s="19">
+        <f t="shared" ref="T59" si="563">H59*K59</f>
+        <v>0</v>
+      </c>
+      <c r="U59" s="18">
+        <f t="shared" ref="U59" si="564">L59*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V59" s="18">
+        <f t="shared" ref="V59" si="565">M59*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W59" s="18">
+        <f t="shared" ref="W59" si="566">N59*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X59" s="20">
+        <f t="shared" ref="X59" si="567">R59*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="20">
+        <f t="shared" ref="Y59" si="568">S59*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="20">
+        <f t="shared" ref="Z59" si="569">T59*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA59" s="16">
+        <f t="shared" ref="AA59" si="570">O59*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB59" s="16">
+        <f t="shared" ref="AB59" si="571">P59*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="16">
+        <f t="shared" ref="AC59" si="572">Q59*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD59" s="17" t="str">
+        <f t="shared" ref="AD59" si="573">IF((U59+X59)&lt;($J$4/2),"低",IF((U59+X59)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE59" s="17" t="str">
+        <f t="shared" ref="AE59" si="574">IF((V59+Y59)&lt;($J$4/2),"低",IF((V59+Y59)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF59" s="17" t="str">
+        <f t="shared" ref="AF59" si="575">IF((W59+Z59)&lt;($J$4/2),"低",IF((W59+Z59)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG59" s="15" t="str">
+        <f t="shared" ref="AG59" si="576">IF((X59+AA59)&lt;($J$4/2),"低",IF((X59+AA59)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AH59" s="15" t="str">
+        <f t="shared" ref="AH59" si="577">IF((Y59+AB59)&lt;($J$4/2),"低",IF((Y59+AB59)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI59" s="15" t="str">
+        <f t="shared" ref="AI59" si="578">IF((Z59+AC59)&lt;($J$4/2),"低",IF((Z59+AC59)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AJ59" s="21"/>
+    </row>
+    <row r="60" spans="1:36">
+      <c r="A60" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W48" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X48" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB48" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE48" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF48" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG48" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH48" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI48" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35">
-      <c r="A49" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U49" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V49" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W49" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X49" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z49" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA49" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB49" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD49" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE49" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF49" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG49" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH49" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI49" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35">
-      <c r="A50" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T50" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U50" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V50" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W50" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X50" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z50" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA50" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB50" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC50" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD50" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE50" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF50" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG50" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH50" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI50" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35">
-      <c r="A51" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L51" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S51" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T51" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V51" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W51" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X51" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y51" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z51" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA51" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB51" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC51" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD51" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE51" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF51" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG51" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH51" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI51" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35">
-      <c r="A52" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M52" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R52" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S52" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T52" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U52" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V52" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W52" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X52" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y52" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z52" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA52" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB52" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC52" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD52" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE52" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF52" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG52" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH52" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI52" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35">
-      <c r="A53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L53" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S53" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W53" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X53" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z53" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA53" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB53" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC53" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD53" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE53" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF53" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG53" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH53" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI53" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35">
-      <c r="A54" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L54" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V54" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W54" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X54" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y54" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z54" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA54" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB54" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC54" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD54" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE54" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF54" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG54" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH54" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI54" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35">
-      <c r="A55" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L55" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M55" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R55" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S55" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T55" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U55" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V55" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W55" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X55" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y55" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z55" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA55" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB55" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC55" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD55" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE55" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF55" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG55" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH55" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI55" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35">
-      <c r="A56" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L56" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S56" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V56" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W56" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X56" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y56" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z56" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA56" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB56" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC56" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD56" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE56" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF56" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG56" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH56" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI56" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35">
-      <c r="A57" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L57" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S57" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V57" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W57" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X57" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z57" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA57" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB57" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC57" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD57" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE57" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF57" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG57" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH57" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI57" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35">
-      <c r="A58" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R58" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S58" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T58" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U58" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V58" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X58" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z58" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA58" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB58" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC58" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD58" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE58" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF58" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG58" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH58" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI58" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35">
-      <c r="A59" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L59" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N59" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R59" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
-      <c r="S59" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
-      </c>
-      <c r="T59" s="19">
-        <f t="shared" si="279"/>
-        <v>0</v>
-      </c>
-      <c r="U59" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
-      </c>
-      <c r="V59" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="W59" s="18">
-        <f t="shared" si="281"/>
-        <v>0</v>
-      </c>
-      <c r="X59" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
-      </c>
-      <c r="Y59" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
-      </c>
-      <c r="Z59" s="20">
-        <f t="shared" si="284"/>
-        <v>0</v>
-      </c>
-      <c r="AA59" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AB59" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
-      </c>
-      <c r="AC59" s="16">
-        <f t="shared" si="287"/>
-        <v>0</v>
-      </c>
-      <c r="AD59" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
-      </c>
-      <c r="AE59" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
-      </c>
-      <c r="AF59" s="17" t="str">
-        <f t="shared" si="290"/>
-        <v>低</v>
-      </c>
-      <c r="AG59" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
-      </c>
-      <c r="AH59" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
-      </c>
-      <c r="AI59" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35">
-      <c r="A60" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="B60" s="5" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="L60" s="14">
         <f t="shared" si="271"/>
@@ -8106,15 +8241,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:36">
       <c r="A61" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L61" s="14">
         <f t="shared" si="271"/>
@@ -8213,15 +8348,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:36">
       <c r="A62" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="L62" s="14">
         <f t="shared" si="271"/>
@@ -8320,15 +8455,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:36">
       <c r="A63" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="L63" s="14">
         <f t="shared" si="271"/>
@@ -8427,15 +8562,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:36">
       <c r="A64" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L64" s="14">
         <f t="shared" si="271"/>
@@ -8536,13 +8671,13 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="L65" s="14">
         <f t="shared" si="271"/>
@@ -8643,13 +8778,13 @@
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L66" s="14">
         <f t="shared" si="271"/>
@@ -8750,13 +8885,13 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="L67" s="14">
         <f t="shared" si="271"/>
@@ -8857,13 +8992,13 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="L68" s="14">
         <f t="shared" si="271"/>
@@ -8964,13 +9099,13 @@
     </row>
     <row r="69" spans="1:35">
       <c r="A69" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="L69" s="14">
         <f t="shared" si="271"/>
@@ -9071,13 +9206,13 @@
     </row>
     <row r="70" spans="1:35">
       <c r="A70" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="L70" s="14">
         <f t="shared" si="271"/>
@@ -9178,13 +9313,13 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="L71" s="14">
         <f t="shared" si="271"/>
@@ -9285,13 +9420,13 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L72" s="14">
         <f t="shared" si="271"/>
@@ -9392,13 +9527,13 @@
     </row>
     <row r="73" spans="1:35">
       <c r="A73" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="L73" s="14">
         <f t="shared" si="271"/>
@@ -9499,13 +9634,13 @@
     </row>
     <row r="74" spans="1:35">
       <c r="A74" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L74" s="14">
         <f t="shared" si="271"/>
@@ -9606,13 +9741,13 @@
     </row>
     <row r="75" spans="1:35">
       <c r="A75" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L75" s="14">
         <f t="shared" si="271"/>
@@ -9713,13 +9848,13 @@
     </row>
     <row r="76" spans="1:35">
       <c r="A76" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L76" s="14">
         <f t="shared" si="271"/>
@@ -9820,13 +9955,13 @@
     </row>
     <row r="77" spans="1:35">
       <c r="A77" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L77" s="14">
         <f t="shared" si="271"/>
@@ -9927,13 +10062,13 @@
     </row>
     <row r="78" spans="1:35">
       <c r="A78" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L78" s="14">
         <f t="shared" si="271"/>
@@ -10034,13 +10169,13 @@
     </row>
     <row r="79" spans="1:35">
       <c r="A79" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="L79" s="14">
         <f t="shared" si="271"/>
@@ -10141,13 +10276,13 @@
     </row>
     <row r="80" spans="1:35">
       <c r="A80" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L80" s="14">
         <f t="shared" si="271"/>
@@ -10248,13 +10383,13 @@
     </row>
     <row r="81" spans="1:35">
       <c r="A81" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L81" s="14">
         <f t="shared" si="271"/>
@@ -10355,13 +10490,13 @@
     </row>
     <row r="82" spans="1:35">
       <c r="A82" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L82" s="14">
         <f t="shared" si="271"/>
@@ -10465,10 +10600,10 @@
         <v>43</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L83" s="14">
         <f t="shared" si="271"/>
@@ -10572,10 +10707,10 @@
         <v>43</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L84" s="14">
         <f t="shared" si="271"/>
@@ -10679,10 +10814,10 @@
         <v>43</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="L85" s="14">
         <f t="shared" si="271"/>
@@ -10786,10 +10921,10 @@
         <v>43</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L86" s="14">
         <f t="shared" si="271"/>
@@ -10893,10 +11028,10 @@
         <v>43</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="L87" s="14">
         <f t="shared" si="271"/>
@@ -10997,13 +11132,13 @@
     </row>
     <row r="88" spans="1:35">
       <c r="A88" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L88" s="14">
         <f t="shared" si="271"/>
@@ -11104,13 +11239,13 @@
     </row>
     <row r="89" spans="1:35">
       <c r="A89" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L89" s="14">
         <f t="shared" si="271"/>
@@ -11211,13 +11346,13 @@
     </row>
     <row r="90" spans="1:35">
       <c r="A90" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L90" s="14">
         <f t="shared" si="271"/>
@@ -11318,13 +11453,13 @@
     </row>
     <row r="91" spans="1:35">
       <c r="A91" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="L91" s="14">
         <f t="shared" si="271"/>
@@ -11425,13 +11560,13 @@
     </row>
     <row r="92" spans="1:35">
       <c r="A92" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L92" s="14">
         <f t="shared" si="271"/>
@@ -11532,13 +11667,13 @@
     </row>
     <row r="93" spans="1:35">
       <c r="A93" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="L93" s="14">
         <f t="shared" si="271"/>
@@ -11639,13 +11774,13 @@
     </row>
     <row r="94" spans="1:35">
       <c r="A94" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="L94" s="14">
         <f t="shared" si="271"/>
@@ -11746,13 +11881,13 @@
     </row>
     <row r="95" spans="1:35">
       <c r="A95" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="L95" s="14">
         <f t="shared" si="271"/>
@@ -11853,13 +11988,13 @@
     </row>
     <row r="96" spans="1:35">
       <c r="A96" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="L96" s="14">
         <f t="shared" si="271"/>
@@ -11960,13 +12095,13 @@
     </row>
     <row r="97" spans="1:35">
       <c r="A97" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="L97" s="14">
         <f t="shared" si="271"/>
@@ -12067,13 +12202,13 @@
     </row>
     <row r="98" spans="1:35">
       <c r="A98" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="L98" s="14">
         <f t="shared" si="271"/>
@@ -12174,13 +12309,13 @@
     </row>
     <row r="99" spans="1:35">
       <c r="A99" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="L99" s="14">
         <f t="shared" si="271"/>
@@ -12281,13 +12416,13 @@
     </row>
     <row r="100" spans="1:35">
       <c r="A100" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="L100" s="14">
         <f t="shared" si="271"/>
@@ -12388,13 +12523,13 @@
     </row>
     <row r="101" spans="1:35">
       <c r="A101" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="L101" s="14">
         <f t="shared" si="271"/>
@@ -12495,13 +12630,13 @@
     </row>
     <row r="102" spans="1:35">
       <c r="A102" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="L102" s="14">
         <f t="shared" si="271"/>
@@ -12602,13 +12737,13 @@
     </row>
     <row r="103" spans="1:35">
       <c r="A103" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="L103" s="14">
         <f t="shared" si="271"/>
@@ -12709,13 +12844,13 @@
     </row>
     <row r="104" spans="1:35">
       <c r="A104" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="L104" s="14">
         <f t="shared" si="271"/>
@@ -12819,10 +12954,10 @@
         <v>67</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="L105" s="14">
         <f t="shared" si="271"/>
@@ -12926,45 +13061,45 @@
         <v>67</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="L106" s="14">
-        <f t="shared" ref="L106:L109" si="483">E106*I106</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M106" s="14">
-        <f t="shared" ref="M106:M109" si="484">E106*J106</f>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N106" s="14">
-        <f t="shared" ref="N106:N109" si="485">E106*K106</f>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O106" s="15">
-        <f t="shared" ref="O106:O109" si="486">F106*I106</f>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P106" s="15">
-        <f t="shared" ref="P106:P109" si="487">F106*J106</f>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q106" s="15">
-        <f t="shared" ref="Q106:Q109" si="488">F106*K106</f>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R106" s="19">
-        <f t="shared" ref="R106:R109" si="489">H106*I106</f>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S106" s="19">
-        <f t="shared" ref="S106:S109" si="490">H106*J106</f>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T106" s="19">
-        <f t="shared" ref="T106:T109" si="491">H106*K106</f>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U106" s="18">
@@ -12972,59 +13107,59 @@
         <v>0</v>
       </c>
       <c r="V106" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W106" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X106" s="20">
-        <f t="shared" ref="X106:Z109" si="492">R106*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y106" s="20">
-        <f t="shared" si="492"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z106" s="20">
-        <f t="shared" si="492"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA106" s="16">
-        <f t="shared" ref="AA106:AC109" si="493">O106*$G$3/$E$3</f>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB106" s="16">
-        <f t="shared" si="493"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC106" s="16">
-        <f t="shared" si="493"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD106" s="17" t="str">
-        <f t="shared" ref="AD106:AI109" si="494">IF((U106+X106)&lt;($J$4/2),"低",IF((U106+X106)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE106" s="17" t="str">
-        <f t="shared" si="494"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF106" s="17" t="str">
-        <f t="shared" si="494"/>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG106" s="15" t="str">
-        <f t="shared" si="494"/>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH106" s="15" t="str">
-        <f t="shared" si="494"/>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI106" s="15" t="str">
-        <f t="shared" si="494"/>
+        <f t="shared" si="293"/>
         <v>低</v>
       </c>
     </row>
@@ -13033,598 +13168,2899 @@
         <v>67</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L107" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M107" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N107" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O107" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P107" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q107" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R107" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S107" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T107" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U107" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V107" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W107" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X107" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y107" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z107" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA107" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB107" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC107" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD107" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE107" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF107" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG107" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH107" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI107" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="108" spans="1:35">
+      <c r="A108" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L108" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M108" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N108" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O108" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P108" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q108" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R108" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S108" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T108" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U108" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V108" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W108" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X108" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y108" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z108" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA108" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB108" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC108" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD108" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE108" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF108" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG108" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH108" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI108" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="109" spans="1:35">
+      <c r="A109" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L109" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M109" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N109" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O109" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P109" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q109" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R109" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S109" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T109" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U109" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V109" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W109" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X109" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y109" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z109" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA109" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB109" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC109" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD109" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE109" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF109" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG109" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH109" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI109" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="110" spans="1:35">
+      <c r="A110" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L110" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M110" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N110" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O110" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P110" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q110" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R110" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S110" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T110" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U110" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V110" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W110" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X110" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y110" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z110" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA110" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB110" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC110" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD110" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE110" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF110" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG110" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH110" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI110" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="111" spans="1:35">
+      <c r="A111" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L111" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N111" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O111" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P111" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q111" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R111" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S111" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T111" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U111" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V111" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W111" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X111" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y111" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z111" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA111" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB111" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC111" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD111" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE111" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF111" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG111" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH111" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI111" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="112" spans="1:35">
+      <c r="A112" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L112" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N112" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O112" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P112" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q112" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R112" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S112" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T112" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U112" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V112" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W112" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X112" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y112" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z112" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA112" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB112" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC112" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD112" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE112" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF112" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG112" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH112" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI112" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="113" spans="1:35">
+      <c r="A113" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L113" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N113" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O113" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P113" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q113" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R113" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S113" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T113" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U113" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V113" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W113" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X113" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y113" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z113" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA113" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB113" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC113" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD113" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE113" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF113" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG113" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH113" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI113" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="114" spans="1:35">
+      <c r="A114" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L114" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N114" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O114" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P114" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q114" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R114" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S114" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T114" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U114" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V114" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W114" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X114" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y114" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z114" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA114" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB114" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC114" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD114" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE114" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF114" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG114" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH114" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI114" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="115" spans="1:35">
+      <c r="A115" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L115" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M115" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N115" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O115" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P115" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q115" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R115" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S115" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T115" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U115" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V115" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W115" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X115" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y115" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z115" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA115" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB115" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC115" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD115" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE115" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF115" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG115" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH115" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI115" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="116" spans="1:35">
+      <c r="A116" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L116" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N116" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O116" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P116" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q116" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R116" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S116" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T116" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U116" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V116" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W116" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X116" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y116" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z116" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA116" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB116" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC116" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD116" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE116" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF116" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG116" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH116" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI116" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="117" spans="1:35">
+      <c r="A117" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L117" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N117" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O117" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P117" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q117" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R117" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S117" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T117" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U117" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V117" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W117" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X117" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y117" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z117" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA117" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB117" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC117" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD117" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE117" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF117" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG117" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH117" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI117" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="118" spans="1:35">
+      <c r="A118" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L118" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M118" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N118" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O118" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P118" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q118" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R118" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S118" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T118" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U118" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V118" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W118" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X118" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y118" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z118" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA118" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB118" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC118" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD118" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE118" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF118" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG118" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH118" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI118" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="119" spans="1:35">
+      <c r="A119" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L119" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M119" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N119" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O119" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P119" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q119" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R119" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S119" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T119" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U119" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V119" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W119" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X119" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y119" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z119" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA119" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB119" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC119" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD119" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE119" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF119" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG119" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH119" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI119" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="120" spans="1:35">
+      <c r="A120" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L120" s="14">
+        <f t="shared" ref="L120:L123" si="579">E120*I120</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="14">
+        <f t="shared" ref="M120:M123" si="580">E120*J120</f>
+        <v>0</v>
+      </c>
+      <c r="N120" s="14">
+        <f t="shared" ref="N120:N123" si="581">E120*K120</f>
+        <v>0</v>
+      </c>
+      <c r="O120" s="15">
+        <f t="shared" ref="O120:O123" si="582">F120*I120</f>
+        <v>0</v>
+      </c>
+      <c r="P120" s="15">
+        <f t="shared" ref="P120:P123" si="583">F120*J120</f>
+        <v>0</v>
+      </c>
+      <c r="Q120" s="15">
+        <f t="shared" ref="Q120:Q123" si="584">F120*K120</f>
+        <v>0</v>
+      </c>
+      <c r="R120" s="19">
+        <f t="shared" ref="R120:R123" si="585">H120*I120</f>
+        <v>0</v>
+      </c>
+      <c r="S120" s="19">
+        <f t="shared" ref="S120:S123" si="586">H120*J120</f>
+        <v>0</v>
+      </c>
+      <c r="T120" s="19">
+        <f t="shared" ref="T120:T123" si="587">H120*K120</f>
+        <v>0</v>
+      </c>
+      <c r="U120" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V120" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="W120" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="X120" s="20">
+        <f t="shared" ref="X120:Z123" si="588">R120*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y120" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="Z120" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="AA120" s="16">
+        <f t="shared" ref="AA120:AC123" si="589">O120*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB120" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AC120" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AD120" s="17" t="str">
+        <f t="shared" ref="AD120:AI123" si="590">IF((U120+X120)&lt;($J$4/2),"低",IF((U120+X120)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE120" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AF120" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AG120" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AH120" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI120" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="121" spans="1:35">
+      <c r="A121" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C121" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L107" s="14">
-        <f t="shared" si="483"/>
-        <v>0</v>
-      </c>
-      <c r="M107" s="14">
-        <f t="shared" si="484"/>
-        <v>0</v>
-      </c>
-      <c r="N107" s="14">
-        <f t="shared" si="485"/>
-        <v>0</v>
-      </c>
-      <c r="O107" s="15">
-        <f t="shared" si="486"/>
-        <v>0</v>
-      </c>
-      <c r="P107" s="15">
-        <f t="shared" si="487"/>
-        <v>0</v>
-      </c>
-      <c r="Q107" s="15">
-        <f t="shared" si="488"/>
-        <v>0</v>
-      </c>
-      <c r="R107" s="19">
-        <f t="shared" si="489"/>
-        <v>0</v>
-      </c>
-      <c r="S107" s="19">
-        <f t="shared" si="490"/>
-        <v>0</v>
-      </c>
-      <c r="T107" s="19">
-        <f t="shared" si="491"/>
-        <v>0</v>
-      </c>
-      <c r="U107" s="18">
-        <f t="shared" ref="U107:W109" si="495">L107*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="V107" s="18">
-        <f t="shared" si="495"/>
-        <v>0</v>
-      </c>
-      <c r="W107" s="18">
-        <f t="shared" si="495"/>
-        <v>0</v>
-      </c>
-      <c r="X107" s="20">
-        <f t="shared" si="492"/>
-        <v>0</v>
-      </c>
-      <c r="Y107" s="20">
-        <f t="shared" si="492"/>
-        <v>0</v>
-      </c>
-      <c r="Z107" s="20">
-        <f t="shared" si="492"/>
-        <v>0</v>
-      </c>
-      <c r="AA107" s="16">
-        <f t="shared" si="493"/>
-        <v>0</v>
-      </c>
-      <c r="AB107" s="16">
-        <f t="shared" si="493"/>
-        <v>0</v>
-      </c>
-      <c r="AC107" s="16">
-        <f t="shared" si="493"/>
-        <v>0</v>
-      </c>
-      <c r="AD107" s="17" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AE107" s="17" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AF107" s="17" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AG107" s="15" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AH107" s="15" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AI107" s="15" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="108" spans="1:35">
-      <c r="A108" s="7" t="s">
+      <c r="L121" s="14">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="M121" s="14">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="N121" s="14">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="O121" s="15">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="P121" s="15">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="Q121" s="15">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="R121" s="19">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="S121" s="19">
+        <f t="shared" si="586"/>
+        <v>0</v>
+      </c>
+      <c r="T121" s="19">
+        <f t="shared" si="587"/>
+        <v>0</v>
+      </c>
+      <c r="U121" s="18">
+        <f t="shared" ref="U121:W123" si="591">L121*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V121" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="W121" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="X121" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="Y121" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="Z121" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="AA121" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AB121" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AC121" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AD121" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AE121" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AF121" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AG121" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AH121" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI121" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="122" spans="1:35">
+      <c r="A122" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B122" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C122" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L108" s="14">
-        <f t="shared" si="483"/>
-        <v>0</v>
-      </c>
-      <c r="M108" s="14">
-        <f t="shared" si="484"/>
-        <v>0</v>
-      </c>
-      <c r="N108" s="14">
-        <f t="shared" si="485"/>
-        <v>0</v>
-      </c>
-      <c r="O108" s="15">
-        <f t="shared" si="486"/>
-        <v>0</v>
-      </c>
-      <c r="P108" s="15">
-        <f t="shared" si="487"/>
-        <v>0</v>
-      </c>
-      <c r="Q108" s="15">
-        <f t="shared" si="488"/>
-        <v>0</v>
-      </c>
-      <c r="R108" s="19">
-        <f t="shared" si="489"/>
-        <v>0</v>
-      </c>
-      <c r="S108" s="19">
-        <f t="shared" si="490"/>
-        <v>0</v>
-      </c>
-      <c r="T108" s="19">
-        <f t="shared" si="491"/>
-        <v>0</v>
-      </c>
-      <c r="U108" s="18">
-        <f t="shared" si="495"/>
-        <v>0</v>
-      </c>
-      <c r="V108" s="18">
-        <f t="shared" si="495"/>
-        <v>0</v>
-      </c>
-      <c r="W108" s="18">
-        <f t="shared" si="495"/>
-        <v>0</v>
-      </c>
-      <c r="X108" s="20">
-        <f t="shared" si="492"/>
-        <v>0</v>
-      </c>
-      <c r="Y108" s="20">
-        <f t="shared" si="492"/>
-        <v>0</v>
-      </c>
-      <c r="Z108" s="20">
-        <f t="shared" si="492"/>
-        <v>0</v>
-      </c>
-      <c r="AA108" s="16">
-        <f t="shared" si="493"/>
-        <v>0</v>
-      </c>
-      <c r="AB108" s="16">
-        <f t="shared" si="493"/>
-        <v>0</v>
-      </c>
-      <c r="AC108" s="16">
-        <f t="shared" si="493"/>
-        <v>0</v>
-      </c>
-      <c r="AD108" s="17" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AE108" s="17" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AF108" s="17" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AG108" s="15" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AH108" s="15" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AI108" s="15" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="109" spans="1:35">
-      <c r="A109" s="7" t="s">
+      <c r="L122" s="14">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="M122" s="14">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="N122" s="14">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="O122" s="15">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="P122" s="15">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="Q122" s="15">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="R122" s="19">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="S122" s="19">
+        <f t="shared" si="586"/>
+        <v>0</v>
+      </c>
+      <c r="T122" s="19">
+        <f t="shared" si="587"/>
+        <v>0</v>
+      </c>
+      <c r="U122" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="V122" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="W122" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="X122" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="Y122" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="Z122" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="AA122" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AB122" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AC122" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AD122" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AE122" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AF122" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AG122" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AH122" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI122" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="123" spans="1:35">
+      <c r="A123" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B123" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C123" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L109" s="14">
-        <f t="shared" si="483"/>
-        <v>0</v>
-      </c>
-      <c r="M109" s="14">
-        <f t="shared" si="484"/>
-        <v>0</v>
-      </c>
-      <c r="N109" s="14">
-        <f t="shared" si="485"/>
-        <v>0</v>
-      </c>
-      <c r="O109" s="15">
-        <f t="shared" si="486"/>
-        <v>0</v>
-      </c>
-      <c r="P109" s="15">
-        <f t="shared" si="487"/>
-        <v>0</v>
-      </c>
-      <c r="Q109" s="15">
-        <f t="shared" si="488"/>
-        <v>0</v>
-      </c>
-      <c r="R109" s="19">
-        <f t="shared" si="489"/>
-        <v>0</v>
-      </c>
-      <c r="S109" s="19">
-        <f t="shared" si="490"/>
-        <v>0</v>
-      </c>
-      <c r="T109" s="19">
-        <f t="shared" si="491"/>
-        <v>0</v>
-      </c>
-      <c r="U109" s="18">
-        <f t="shared" si="495"/>
-        <v>0</v>
-      </c>
-      <c r="V109" s="18">
-        <f t="shared" si="495"/>
-        <v>0</v>
-      </c>
-      <c r="W109" s="18">
-        <f t="shared" si="495"/>
-        <v>0</v>
-      </c>
-      <c r="X109" s="20">
-        <f t="shared" si="492"/>
-        <v>0</v>
-      </c>
-      <c r="Y109" s="20">
-        <f t="shared" si="492"/>
-        <v>0</v>
-      </c>
-      <c r="Z109" s="20">
-        <f t="shared" si="492"/>
-        <v>0</v>
-      </c>
-      <c r="AA109" s="16">
-        <f t="shared" si="493"/>
-        <v>0</v>
-      </c>
-      <c r="AB109" s="16">
-        <f t="shared" si="493"/>
-        <v>0</v>
-      </c>
-      <c r="AC109" s="16">
-        <f t="shared" si="493"/>
-        <v>0</v>
-      </c>
-      <c r="AD109" s="17" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AE109" s="17" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AF109" s="17" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AG109" s="15" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AH109" s="15" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-      <c r="AI109" s="15" t="str">
-        <f t="shared" si="494"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="110" spans="1:35">
-      <c r="U110" s="18"/>
-      <c r="V110" s="18"/>
-      <c r="W110" s="18"/>
-      <c r="X110" s="20"/>
-      <c r="Y110" s="20"/>
-      <c r="Z110" s="20"/>
-      <c r="AA110" s="16"/>
-      <c r="AB110" s="16"/>
-      <c r="AC110" s="16"/>
-    </row>
-    <row r="111" spans="1:35">
-      <c r="U111" s="18"/>
-      <c r="V111" s="18"/>
-      <c r="W111" s="18"/>
-      <c r="X111" s="20"/>
-      <c r="Y111" s="20"/>
-      <c r="Z111" s="20"/>
-      <c r="AA111" s="16"/>
-      <c r="AB111" s="16"/>
-      <c r="AC111" s="16"/>
-    </row>
-    <row r="112" spans="1:35">
-      <c r="U112" s="18"/>
-      <c r="V112" s="18"/>
-      <c r="W112" s="18"/>
-      <c r="X112" s="20"/>
-      <c r="Y112" s="20"/>
-      <c r="Z112" s="20"/>
-      <c r="AA112" s="16"/>
-      <c r="AB112" s="16"/>
-      <c r="AC112" s="16"/>
-    </row>
-    <row r="113" spans="21:29">
-      <c r="U113" s="18"/>
-      <c r="V113" s="18"/>
-      <c r="W113" s="18"/>
-      <c r="X113" s="20"/>
-      <c r="Y113" s="20"/>
-      <c r="Z113" s="20"/>
-      <c r="AA113" s="16"/>
-      <c r="AB113" s="16"/>
-      <c r="AC113" s="16"/>
-    </row>
-    <row r="114" spans="21:29">
-      <c r="U114" s="18"/>
-      <c r="V114" s="18"/>
-      <c r="W114" s="18"/>
-      <c r="X114" s="20"/>
-      <c r="Y114" s="20"/>
-      <c r="Z114" s="20"/>
-      <c r="AA114" s="16"/>
-      <c r="AB114" s="16"/>
-      <c r="AC114" s="16"/>
-    </row>
-    <row r="115" spans="21:29">
-      <c r="U115" s="18"/>
-      <c r="V115" s="18"/>
-      <c r="W115" s="18"/>
-      <c r="X115" s="20"/>
-      <c r="Y115" s="20"/>
-      <c r="Z115" s="20"/>
-      <c r="AA115" s="16"/>
-      <c r="AB115" s="16"/>
-      <c r="AC115" s="16"/>
-    </row>
-    <row r="116" spans="21:29">
-      <c r="U116" s="18"/>
-      <c r="V116" s="18"/>
-      <c r="W116" s="18"/>
-      <c r="X116" s="20"/>
-      <c r="Y116" s="20"/>
-      <c r="Z116" s="20"/>
-      <c r="AA116" s="16"/>
-      <c r="AB116" s="16"/>
-      <c r="AC116" s="16"/>
-    </row>
-    <row r="117" spans="21:29">
-      <c r="U117" s="18"/>
-      <c r="V117" s="18"/>
-      <c r="W117" s="18"/>
-      <c r="X117" s="20"/>
-      <c r="Y117" s="20"/>
-      <c r="Z117" s="20"/>
-      <c r="AA117" s="16"/>
-      <c r="AB117" s="16"/>
-      <c r="AC117" s="16"/>
-    </row>
-    <row r="118" spans="21:29">
-      <c r="U118" s="18"/>
-      <c r="V118" s="18"/>
-      <c r="W118" s="18"/>
-      <c r="X118" s="20"/>
-      <c r="Y118" s="20"/>
-      <c r="Z118" s="20"/>
-      <c r="AA118" s="16"/>
-      <c r="AB118" s="16"/>
-      <c r="AC118" s="16"/>
-    </row>
-    <row r="119" spans="21:29">
-      <c r="U119" s="18"/>
-      <c r="V119" s="18"/>
-      <c r="W119" s="18"/>
-      <c r="X119" s="20"/>
-      <c r="Y119" s="20"/>
-      <c r="Z119" s="20"/>
-      <c r="AA119" s="16"/>
-      <c r="AB119" s="16"/>
-      <c r="AC119" s="16"/>
-    </row>
-    <row r="120" spans="21:29">
-      <c r="U120" s="18"/>
-      <c r="V120" s="18"/>
-      <c r="W120" s="18"/>
-      <c r="X120" s="20"/>
-      <c r="Y120" s="20"/>
-      <c r="Z120" s="20"/>
-      <c r="AA120" s="16"/>
-      <c r="AB120" s="16"/>
-      <c r="AC120" s="16"/>
-    </row>
-    <row r="121" spans="21:29">
-      <c r="U121" s="18"/>
-      <c r="V121" s="18"/>
-      <c r="W121" s="18"/>
-      <c r="X121" s="20"/>
-      <c r="Y121" s="20"/>
-      <c r="Z121" s="20"/>
-      <c r="AA121" s="16"/>
-      <c r="AB121" s="16"/>
-      <c r="AC121" s="16"/>
-    </row>
-    <row r="122" spans="21:29">
-      <c r="U122" s="18"/>
-      <c r="V122" s="18"/>
-      <c r="W122" s="18"/>
-      <c r="X122" s="20"/>
-      <c r="Y122" s="20"/>
-      <c r="Z122" s="20"/>
-      <c r="AA122" s="16"/>
-      <c r="AB122" s="16"/>
-      <c r="AC122" s="16"/>
-    </row>
-    <row r="123" spans="21:29">
-      <c r="U123" s="18"/>
-      <c r="V123" s="18"/>
-      <c r="W123" s="18"/>
-      <c r="X123" s="20"/>
-      <c r="Y123" s="20"/>
-      <c r="Z123" s="20"/>
-      <c r="AA123" s="16"/>
-      <c r="AB123" s="16"/>
-      <c r="AC123" s="16"/>
-    </row>
-    <row r="124" spans="21:29">
-      <c r="U124" s="18"/>
-      <c r="V124" s="18"/>
-      <c r="W124" s="18"/>
-      <c r="X124" s="20"/>
-      <c r="Y124" s="20"/>
-      <c r="Z124" s="20"/>
-      <c r="AA124" s="16"/>
-      <c r="AB124" s="16"/>
-      <c r="AC124" s="16"/>
-    </row>
-    <row r="125" spans="21:29">
-      <c r="U125" s="18"/>
-      <c r="V125" s="18"/>
-      <c r="W125" s="18"/>
-      <c r="X125" s="20"/>
-      <c r="Y125" s="20"/>
-      <c r="Z125" s="20"/>
-      <c r="AA125" s="16"/>
-      <c r="AB125" s="16"/>
-      <c r="AC125" s="16"/>
-    </row>
-    <row r="126" spans="21:29">
-      <c r="U126" s="18"/>
-      <c r="V126" s="18"/>
-      <c r="W126" s="18"/>
-      <c r="X126" s="20"/>
-      <c r="Y126" s="20"/>
-      <c r="Z126" s="20"/>
-      <c r="AA126" s="16"/>
-      <c r="AB126" s="16"/>
-      <c r="AC126" s="16"/>
-    </row>
-    <row r="127" spans="21:29">
-      <c r="U127" s="18"/>
-      <c r="V127" s="18"/>
-      <c r="W127" s="18"/>
-      <c r="X127" s="20"/>
-      <c r="Y127" s="20"/>
-      <c r="Z127" s="20"/>
-      <c r="AA127" s="16"/>
-      <c r="AB127" s="16"/>
-      <c r="AC127" s="16"/>
-    </row>
-    <row r="128" spans="21:29">
-      <c r="U128" s="18"/>
-      <c r="V128" s="18"/>
-      <c r="W128" s="18"/>
-      <c r="X128" s="20"/>
-      <c r="Y128" s="20"/>
-      <c r="Z128" s="20"/>
-      <c r="AA128" s="16"/>
-      <c r="AB128" s="16"/>
-      <c r="AC128" s="16"/>
-    </row>
-    <row r="129" spans="21:29">
-      <c r="U129" s="18"/>
-      <c r="V129" s="18"/>
-      <c r="W129" s="18"/>
-      <c r="X129" s="20"/>
-      <c r="Y129" s="20"/>
-      <c r="Z129" s="20"/>
-      <c r="AA129" s="16"/>
-      <c r="AB129" s="16"/>
-      <c r="AC129" s="16"/>
-    </row>
-    <row r="130" spans="21:29">
-      <c r="U130" s="18"/>
-      <c r="V130" s="18"/>
-      <c r="W130" s="18"/>
-      <c r="X130" s="20"/>
-      <c r="Y130" s="20"/>
-      <c r="Z130" s="20"/>
-      <c r="AA130" s="16"/>
-      <c r="AB130" s="16"/>
-      <c r="AC130" s="16"/>
-    </row>
-    <row r="131" spans="21:29">
-      <c r="U131" s="18"/>
-      <c r="V131" s="18"/>
-      <c r="W131" s="18"/>
-      <c r="X131" s="20"/>
-      <c r="Y131" s="20"/>
-      <c r="Z131" s="20"/>
-      <c r="AA131" s="16"/>
-      <c r="AB131" s="16"/>
-      <c r="AC131" s="16"/>
-    </row>
-    <row r="132" spans="21:29">
-      <c r="U132" s="18"/>
-      <c r="V132" s="18"/>
-      <c r="W132" s="18"/>
-      <c r="X132" s="20"/>
-      <c r="Y132" s="20"/>
-      <c r="Z132" s="20"/>
-      <c r="AA132" s="16"/>
-      <c r="AB132" s="16"/>
-      <c r="AC132" s="16"/>
-    </row>
-    <row r="133" spans="21:29">
-      <c r="U133" s="18"/>
-      <c r="V133" s="18"/>
-      <c r="W133" s="18"/>
-      <c r="X133" s="20"/>
-      <c r="Y133" s="20"/>
-      <c r="Z133" s="20"/>
-      <c r="AA133" s="16"/>
-      <c r="AB133" s="16"/>
-      <c r="AC133" s="16"/>
-    </row>
-    <row r="134" spans="21:29">
-      <c r="U134" s="18"/>
-      <c r="V134" s="18"/>
-      <c r="W134" s="18"/>
-      <c r="X134" s="20"/>
-      <c r="Y134" s="20"/>
-      <c r="Z134" s="20"/>
-      <c r="AA134" s="16"/>
-      <c r="AB134" s="16"/>
-      <c r="AC134" s="16"/>
-    </row>
-    <row r="135" spans="21:29">
+      <c r="L123" s="14">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="14">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="N123" s="14">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="O123" s="15">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="P123" s="15">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="Q123" s="15">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="R123" s="19">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="S123" s="19">
+        <f t="shared" si="586"/>
+        <v>0</v>
+      </c>
+      <c r="T123" s="19">
+        <f t="shared" si="587"/>
+        <v>0</v>
+      </c>
+      <c r="U123" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="V123" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="W123" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="X123" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="Y123" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="Z123" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="AA123" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AB123" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AC123" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AD123" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AE123" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AF123" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AG123" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AH123" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI123" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="124" spans="1:35">
+      <c r="L124" s="14">
+        <f t="shared" ref="L124:L134" si="592">E124*I124</f>
+        <v>0</v>
+      </c>
+      <c r="M124" s="14">
+        <f t="shared" ref="M124:M134" si="593">E124*J124</f>
+        <v>0</v>
+      </c>
+      <c r="N124" s="14">
+        <f t="shared" ref="N124:N134" si="594">E124*K124</f>
+        <v>0</v>
+      </c>
+      <c r="O124" s="15">
+        <f t="shared" ref="O124:O134" si="595">F124*I124</f>
+        <v>0</v>
+      </c>
+      <c r="P124" s="15">
+        <f t="shared" ref="P124:P134" si="596">F124*J124</f>
+        <v>0</v>
+      </c>
+      <c r="Q124" s="15">
+        <f t="shared" ref="Q124:Q134" si="597">F124*K124</f>
+        <v>0</v>
+      </c>
+      <c r="R124" s="19">
+        <f t="shared" ref="R124:R134" si="598">H124*I124</f>
+        <v>0</v>
+      </c>
+      <c r="S124" s="19">
+        <f t="shared" ref="S124:S134" si="599">H124*J124</f>
+        <v>0</v>
+      </c>
+      <c r="T124" s="19">
+        <f t="shared" ref="T124:T134" si="600">H124*K124</f>
+        <v>0</v>
+      </c>
+      <c r="U124" s="18">
+        <f t="shared" ref="U124:U134" si="601">L124*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V124" s="18">
+        <f t="shared" ref="V124:V134" si="602">M124*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W124" s="18">
+        <f t="shared" ref="W124:W134" si="603">N124*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X124" s="20">
+        <f t="shared" ref="X124:X134" si="604">R124*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y124" s="20">
+        <f t="shared" ref="Y124:Y134" si="605">S124*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z124" s="20">
+        <f t="shared" ref="Z124:Z134" si="606">T124*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA124" s="16">
+        <f t="shared" ref="AA124:AA134" si="607">O124*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB124" s="16">
+        <f t="shared" ref="AB124:AB134" si="608">P124*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC124" s="16">
+        <f t="shared" ref="AC124:AC134" si="609">Q124*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD124" s="17" t="str">
+        <f t="shared" ref="AD124:AD134" si="610">IF((U124+X124)&lt;($J$4/2),"低",IF((U124+X124)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE124" s="17" t="str">
+        <f t="shared" ref="AE124:AE134" si="611">IF((V124+Y124)&lt;($J$4/2),"低",IF((V124+Y124)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF124" s="17" t="str">
+        <f t="shared" ref="AF124:AF134" si="612">IF((W124+Z124)&lt;($J$4/2),"低",IF((W124+Z124)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG124" s="15" t="str">
+        <f t="shared" ref="AG124:AG134" si="613">IF((X124+AA124)&lt;($J$4/2),"低",IF((X124+AA124)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AH124" s="15" t="str">
+        <f t="shared" ref="AH124:AH134" si="614">IF((Y124+AB124)&lt;($J$4/2),"低",IF((Y124+AB124)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI124" s="15" t="str">
+        <f t="shared" ref="AI124:AI134" si="615">IF((Z124+AC124)&lt;($J$4/2),"低",IF((Z124+AC124)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="125" spans="1:35">
+      <c r="L125" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N125" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O125" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P125" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q125" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R125" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S125" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T125" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U125" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V125" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W125" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X125" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y125" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z125" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA125" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB125" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC125" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD125" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE125" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF125" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG125" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH125" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI125" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="126" spans="1:35">
+      <c r="L126" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M126" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N126" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O126" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P126" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q126" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R126" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S126" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T126" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U126" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V126" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W126" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X126" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y126" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z126" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA126" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB126" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC126" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD126" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE126" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF126" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG126" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH126" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI126" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="127" spans="1:35">
+      <c r="L127" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M127" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N127" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O127" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P127" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q127" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R127" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S127" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T127" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U127" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V127" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W127" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X127" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y127" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z127" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA127" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB127" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC127" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD127" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE127" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF127" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG127" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH127" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI127" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="128" spans="1:35">
+      <c r="L128" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M128" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N128" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O128" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P128" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q128" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R128" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S128" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T128" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U128" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V128" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W128" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X128" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y128" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z128" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA128" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB128" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC128" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD128" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE128" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF128" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG128" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH128" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI128" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="129" spans="12:35">
+      <c r="L129" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M129" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N129" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O129" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P129" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q129" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R129" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S129" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T129" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U129" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V129" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W129" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X129" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y129" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z129" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA129" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB129" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC129" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD129" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE129" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF129" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG129" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH129" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI129" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="130" spans="12:35">
+      <c r="L130" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M130" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N130" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O130" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P130" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q130" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R130" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S130" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T130" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U130" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V130" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W130" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X130" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y130" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z130" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA130" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB130" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC130" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD130" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE130" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF130" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG130" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH130" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI130" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="131" spans="12:35">
+      <c r="L131" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M131" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N131" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O131" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P131" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q131" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R131" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S131" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T131" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U131" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V131" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W131" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X131" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y131" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z131" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA131" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB131" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC131" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD131" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE131" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF131" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG131" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH131" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI131" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="132" spans="12:35">
+      <c r="L132" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M132" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N132" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O132" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P132" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q132" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R132" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S132" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T132" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U132" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V132" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W132" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X132" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y132" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z132" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA132" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB132" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC132" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD132" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE132" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF132" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG132" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH132" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI132" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="133" spans="12:35">
+      <c r="L133" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M133" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N133" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O133" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P133" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q133" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R133" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S133" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T133" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U133" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V133" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W133" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X133" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y133" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z133" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA133" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB133" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC133" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD133" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE133" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF133" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG133" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH133" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI133" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="134" spans="12:35">
+      <c r="L134" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M134" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N134" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O134" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P134" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q134" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R134" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S134" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T134" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U134" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V134" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W134" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X134" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y134" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z134" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA134" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB134" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC134" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD134" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE134" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF134" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG134" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH134" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI134" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="135" spans="12:35">
       <c r="U135" s="18"/>
       <c r="V135" s="18"/>
       <c r="W135" s="18"/>
@@ -13635,7 +16071,7 @@
       <c r="AB135" s="16"/>
       <c r="AC135" s="16"/>
     </row>
-    <row r="136" spans="21:29">
+    <row r="136" spans="12:35">
       <c r="U136" s="18"/>
       <c r="V136" s="18"/>
       <c r="W136" s="18"/>
@@ -13646,7 +16082,7 @@
       <c r="AB136" s="16"/>
       <c r="AC136" s="16"/>
     </row>
-    <row r="137" spans="21:29">
+    <row r="137" spans="12:35">
       <c r="U137" s="18"/>
       <c r="V137" s="18"/>
       <c r="W137" s="18"/>
@@ -13657,7 +16093,7 @@
       <c r="AB137" s="16"/>
       <c r="AC137" s="16"/>
     </row>
-    <row r="138" spans="21:29">
+    <row r="138" spans="12:35">
       <c r="U138" s="18"/>
       <c r="V138" s="18"/>
       <c r="W138" s="18"/>
@@ -13668,7 +16104,7 @@
       <c r="AB138" s="16"/>
       <c r="AC138" s="16"/>
     </row>
-    <row r="139" spans="21:29">
+    <row r="139" spans="12:35">
       <c r="U139" s="18"/>
       <c r="V139" s="18"/>
       <c r="W139" s="18"/>
@@ -13679,7 +16115,7 @@
       <c r="AB139" s="16"/>
       <c r="AC139" s="16"/>
     </row>
-    <row r="140" spans="21:29">
+    <row r="140" spans="12:35">
       <c r="U140" s="18"/>
       <c r="V140" s="18"/>
       <c r="W140" s="18"/>
@@ -13690,7 +16126,7 @@
       <c r="AB140" s="16"/>
       <c r="AC140" s="16"/>
     </row>
-    <row r="141" spans="21:29">
+    <row r="141" spans="12:35">
       <c r="U141" s="18"/>
       <c r="V141" s="18"/>
       <c r="W141" s="18"/>
@@ -13701,7 +16137,7 @@
       <c r="AB141" s="16"/>
       <c r="AC141" s="16"/>
     </row>
-    <row r="142" spans="21:29">
+    <row r="142" spans="12:35">
       <c r="U142" s="18"/>
       <c r="V142" s="18"/>
       <c r="W142" s="18"/>
@@ -13712,7 +16148,7 @@
       <c r="AB142" s="16"/>
       <c r="AC142" s="16"/>
     </row>
-    <row r="143" spans="21:29">
+    <row r="143" spans="12:35">
       <c r="U143" s="18"/>
       <c r="V143" s="18"/>
       <c r="W143" s="18"/>
@@ -13723,7 +16159,7 @@
       <c r="AB143" s="16"/>
       <c r="AC143" s="16"/>
     </row>
-    <row r="144" spans="21:29">
+    <row r="144" spans="12:35">
       <c r="U144" s="18"/>
       <c r="V144" s="18"/>
       <c r="W144" s="18"/>
@@ -16780,6 +19216,160 @@
       <c r="AA421" s="16"/>
       <c r="AB421" s="16"/>
       <c r="AC421" s="16"/>
+    </row>
+    <row r="422" spans="21:29">
+      <c r="U422" s="18"/>
+      <c r="V422" s="18"/>
+      <c r="W422" s="18"/>
+      <c r="X422" s="20"/>
+      <c r="Y422" s="20"/>
+      <c r="Z422" s="20"/>
+      <c r="AA422" s="16"/>
+      <c r="AB422" s="16"/>
+      <c r="AC422" s="16"/>
+    </row>
+    <row r="423" spans="21:29">
+      <c r="U423" s="18"/>
+      <c r="V423" s="18"/>
+      <c r="W423" s="18"/>
+      <c r="X423" s="20"/>
+      <c r="Y423" s="20"/>
+      <c r="Z423" s="20"/>
+      <c r="AA423" s="16"/>
+      <c r="AB423" s="16"/>
+      <c r="AC423" s="16"/>
+    </row>
+    <row r="424" spans="21:29">
+      <c r="U424" s="18"/>
+      <c r="V424" s="18"/>
+      <c r="W424" s="18"/>
+      <c r="X424" s="20"/>
+      <c r="Y424" s="20"/>
+      <c r="Z424" s="20"/>
+      <c r="AA424" s="16"/>
+      <c r="AB424" s="16"/>
+      <c r="AC424" s="16"/>
+    </row>
+    <row r="425" spans="21:29">
+      <c r="U425" s="18"/>
+      <c r="V425" s="18"/>
+      <c r="W425" s="18"/>
+      <c r="X425" s="20"/>
+      <c r="Y425" s="20"/>
+      <c r="Z425" s="20"/>
+      <c r="AA425" s="16"/>
+      <c r="AB425" s="16"/>
+      <c r="AC425" s="16"/>
+    </row>
+    <row r="426" spans="21:29">
+      <c r="U426" s="18"/>
+      <c r="V426" s="18"/>
+      <c r="W426" s="18"/>
+      <c r="X426" s="20"/>
+      <c r="Y426" s="20"/>
+      <c r="Z426" s="20"/>
+      <c r="AA426" s="16"/>
+      <c r="AB426" s="16"/>
+      <c r="AC426" s="16"/>
+    </row>
+    <row r="427" spans="21:29">
+      <c r="U427" s="18"/>
+      <c r="V427" s="18"/>
+      <c r="W427" s="18"/>
+      <c r="X427" s="20"/>
+      <c r="Y427" s="20"/>
+      <c r="Z427" s="20"/>
+      <c r="AA427" s="16"/>
+      <c r="AB427" s="16"/>
+      <c r="AC427" s="16"/>
+    </row>
+    <row r="428" spans="21:29">
+      <c r="U428" s="18"/>
+      <c r="V428" s="18"/>
+      <c r="W428" s="18"/>
+      <c r="X428" s="20"/>
+      <c r="Y428" s="20"/>
+      <c r="Z428" s="20"/>
+      <c r="AA428" s="16"/>
+      <c r="AB428" s="16"/>
+      <c r="AC428" s="16"/>
+    </row>
+    <row r="429" spans="21:29">
+      <c r="U429" s="18"/>
+      <c r="V429" s="18"/>
+      <c r="W429" s="18"/>
+      <c r="X429" s="20"/>
+      <c r="Y429" s="20"/>
+      <c r="Z429" s="20"/>
+      <c r="AA429" s="16"/>
+      <c r="AB429" s="16"/>
+      <c r="AC429" s="16"/>
+    </row>
+    <row r="430" spans="21:29">
+      <c r="U430" s="18"/>
+      <c r="V430" s="18"/>
+      <c r="W430" s="18"/>
+      <c r="X430" s="20"/>
+      <c r="Y430" s="20"/>
+      <c r="Z430" s="20"/>
+      <c r="AA430" s="16"/>
+      <c r="AB430" s="16"/>
+      <c r="AC430" s="16"/>
+    </row>
+    <row r="431" spans="21:29">
+      <c r="U431" s="18"/>
+      <c r="V431" s="18"/>
+      <c r="W431" s="18"/>
+      <c r="X431" s="20"/>
+      <c r="Y431" s="20"/>
+      <c r="Z431" s="20"/>
+      <c r="AA431" s="16"/>
+      <c r="AB431" s="16"/>
+      <c r="AC431" s="16"/>
+    </row>
+    <row r="432" spans="21:29">
+      <c r="U432" s="18"/>
+      <c r="V432" s="18"/>
+      <c r="W432" s="18"/>
+      <c r="X432" s="20"/>
+      <c r="Y432" s="20"/>
+      <c r="Z432" s="20"/>
+      <c r="AA432" s="16"/>
+      <c r="AB432" s="16"/>
+      <c r="AC432" s="16"/>
+    </row>
+    <row r="433" spans="21:29">
+      <c r="U433" s="18"/>
+      <c r="V433" s="18"/>
+      <c r="W433" s="18"/>
+      <c r="X433" s="20"/>
+      <c r="Y433" s="20"/>
+      <c r="Z433" s="20"/>
+      <c r="AA433" s="16"/>
+      <c r="AB433" s="16"/>
+      <c r="AC433" s="16"/>
+    </row>
+    <row r="434" spans="21:29">
+      <c r="U434" s="18"/>
+      <c r="V434" s="18"/>
+      <c r="W434" s="18"/>
+      <c r="X434" s="20"/>
+      <c r="Y434" s="20"/>
+      <c r="Z434" s="20"/>
+      <c r="AA434" s="16"/>
+      <c r="AB434" s="16"/>
+      <c r="AC434" s="16"/>
+    </row>
+    <row r="435" spans="21:29">
+      <c r="U435" s="18"/>
+      <c r="V435" s="18"/>
+      <c r="W435" s="18"/>
+      <c r="X435" s="20"/>
+      <c r="Y435" s="20"/>
+      <c r="Z435" s="20"/>
+      <c r="AA435" s="16"/>
+      <c r="AB435" s="16"/>
+      <c r="AC435" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1EB2AF-4CD8-46C5-9EA4-ED91A33E042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA2E8B-7A77-407C-8ADD-D7B826338586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="214">
   <si>
     <t>英文名稱</t>
   </si>
@@ -1453,11 +1453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:AJ435"/>
+  <dimension ref="A2:AJ434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
+      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4019,39 +4019,39 @@
         <v>0</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" ref="L26:L119" si="271">E26*I26</f>
+        <f t="shared" ref="L26:L118" si="271">E26*I26</f>
         <v>448</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" ref="M26:M119" si="272">E26*J26</f>
+        <f t="shared" ref="M26:M118" si="272">E26*J26</f>
         <v>672</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" ref="N26:N119" si="273">E26*K26</f>
+        <f t="shared" ref="N26:N118" si="273">E26*K26</f>
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" ref="O26:O119" si="274">F26*I26</f>
+        <f t="shared" ref="O26:O118" si="274">F26*I26</f>
         <v>602</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" ref="P26:P119" si="275">F26*J26</f>
+        <f t="shared" ref="P26:P118" si="275">F26*J26</f>
         <v>903</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" ref="Q26:Q119" si="276">F26*K26</f>
+        <f t="shared" ref="Q26:Q118" si="276">F26*K26</f>
         <v>0</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" ref="R26:R119" si="277">H26*I26</f>
+        <f t="shared" ref="R26:R118" si="277">H26*I26</f>
         <v>280</v>
       </c>
       <c r="S26" s="19">
-        <f t="shared" ref="S26:S119" si="278">H26*J26</f>
+        <f t="shared" ref="S26:S118" si="278">H26*J26</f>
         <v>420</v>
       </c>
       <c r="T26" s="19">
-        <f t="shared" ref="T26:T119" si="279">H26*K26</f>
+        <f t="shared" ref="T26:T118" si="279">H26*K26</f>
         <v>0</v>
       </c>
       <c r="U26" s="18">
@@ -4059,59 +4059,59 @@
         <v>0.22123456790123455</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" ref="V26:V119" si="280">M26*$G$3/$E$3</f>
+        <f t="shared" ref="V26:V118" si="280">M26*$G$3/$E$3</f>
         <v>0.33185185185185179</v>
       </c>
       <c r="W26" s="18">
-        <f t="shared" ref="W26:W119" si="281">N26*$G$3/$E$3</f>
+        <f t="shared" ref="W26:W118" si="281">N26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X26" s="20">
-        <f t="shared" ref="X26:X119" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="X26:X118" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.13827160493827159</v>
       </c>
       <c r="Y26" s="20">
-        <f t="shared" ref="Y26:Y119" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Y26:Y118" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.2074074074074074</v>
       </c>
       <c r="Z26" s="20">
-        <f t="shared" ref="Z26:Z119" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Z26:Z118" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA26" s="16">
-        <f t="shared" ref="AA26:AA119" si="285">O26*$G$3/$E$3</f>
+        <f t="shared" ref="AA26:AA118" si="285">O26*$G$3/$E$3</f>
         <v>0.29728395061728391</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" ref="AB26:AB119" si="286">P26*$G$3/$E$3</f>
+        <f t="shared" ref="AB26:AB118" si="286">P26*$G$3/$E$3</f>
         <v>0.44592592592592589</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" ref="AC26:AC119" si="287">Q26*$G$3/$E$3</f>
+        <f t="shared" ref="AC26:AC118" si="287">Q26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD26" s="17" t="str">
-        <f t="shared" ref="AD26:AD119" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD26:AD118" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AE26" s="17" t="str">
-        <f t="shared" ref="AE26:AE119" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AE26:AE118" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AF26" s="17" t="str">
-        <f t="shared" ref="AF26:AF119" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AF26:AF118" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG26" s="15" t="str">
-        <f t="shared" ref="AG26:AG119" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AG26:AG118" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AH26" s="15" t="str">
-        <f t="shared" ref="AH26:AH119" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AH26:AH118" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AI26" s="15" t="str">
-        <f t="shared" ref="AI26:AI119" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AI26:AI118" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AJ26" s="21"/>
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" ref="U27:W120" si="294">L27*$G$3/$E$3</f>
+        <f t="shared" ref="U27:W119" si="294">L27*$G$3/$E$3</f>
         <v>5.8074074074074084E-2</v>
       </c>
       <c r="V27" s="18">
@@ -6404,6 +6404,21 @@
       <c r="C45" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="D45" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="8">
+        <v>24</v>
+      </c>
+      <c r="F45" s="8">
+        <v>33</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0</v>
+      </c>
       <c r="I45" s="11">
         <v>8.5</v>
       </c>
@@ -6415,11 +6430,11 @@
       </c>
       <c r="L45" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="M45" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="N45" s="14">
         <f t="shared" si="273"/>
@@ -6427,11 +6442,11 @@
       </c>
       <c r="O45" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>280.5</v>
       </c>
       <c r="P45" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>409.2</v>
       </c>
       <c r="Q45" s="15">
         <f t="shared" si="276"/>
@@ -6451,11 +6466,11 @@
       </c>
       <c r="U45" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.10074074074074074</v>
       </c>
       <c r="V45" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.14696296296296296</v>
       </c>
       <c r="W45" s="18">
         <f t="shared" si="281"/>
@@ -6475,11 +6490,11 @@
       </c>
       <c r="AA45" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.13851851851851851</v>
       </c>
       <c r="AB45" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.20207407407407407</v>
       </c>
       <c r="AC45" s="16">
         <f t="shared" si="287"/>
@@ -6514,11 +6529,21 @@
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="D46" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="8">
+        <v>36</v>
+      </c>
+      <c r="F46" s="8">
+        <v>50</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0</v>
+      </c>
       <c r="I46" s="11">
         <v>8.5</v>
       </c>
@@ -6530,11 +6555,11 @@
       </c>
       <c r="L46" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="M46" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>446.40000000000003</v>
       </c>
       <c r="N46" s="14">
         <f t="shared" si="273"/>
@@ -6542,11 +6567,11 @@
       </c>
       <c r="O46" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="P46" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="Q46" s="15">
         <f t="shared" si="276"/>
@@ -6566,11 +6591,11 @@
       </c>
       <c r="U46" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.15111111111111108</v>
       </c>
       <c r="V46" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.22044444444444447</v>
       </c>
       <c r="W46" s="18">
         <f t="shared" si="281"/>
@@ -6590,11 +6615,11 @@
       </c>
       <c r="AA46" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.20987654320987653</v>
       </c>
       <c r="AB46" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.3061728395061728</v>
       </c>
       <c r="AC46" s="16">
         <f t="shared" si="287"/>
@@ -6618,7 +6643,7 @@
       </c>
       <c r="AH46" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI46" s="15" t="str">
         <f t="shared" si="293"/>
@@ -6630,11 +6655,21 @@
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
+      <c r="D47" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="8">
+        <v>32</v>
+      </c>
+      <c r="F47" s="8">
+        <v>45</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0</v>
+      </c>
       <c r="I47" s="11">
         <v>8.5</v>
       </c>
@@ -6646,11 +6681,11 @@
       </c>
       <c r="L47" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="M47" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>396.8</v>
       </c>
       <c r="N47" s="14">
         <f t="shared" si="273"/>
@@ -6658,11 +6693,11 @@
       </c>
       <c r="O47" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>382.5</v>
       </c>
       <c r="P47" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="Q47" s="15">
         <f t="shared" si="276"/>
@@ -6682,11 +6717,11 @@
       </c>
       <c r="U47" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.13432098765432096</v>
       </c>
       <c r="V47" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.19595061728395061</v>
       </c>
       <c r="W47" s="18">
         <f t="shared" si="281"/>
@@ -6706,11 +6741,11 @@
       </c>
       <c r="AA47" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.18888888888888888</v>
       </c>
       <c r="AB47" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.2755555555555555</v>
       </c>
       <c r="AC47" s="16">
         <f t="shared" si="287"/>
@@ -6734,7 +6769,7 @@
       </c>
       <c r="AH47" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI47" s="15" t="str">
         <f t="shared" si="293"/>
@@ -6746,11 +6781,21 @@
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
+      <c r="D48" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="8">
+        <v>36</v>
+      </c>
+      <c r="F48" s="8">
+        <v>50</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0</v>
+      </c>
       <c r="I48" s="11">
         <v>8.5</v>
       </c>
@@ -6762,11 +6807,11 @@
       </c>
       <c r="L48" s="14">
         <f t="shared" ref="L48" si="483">E48*I48</f>
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="M48" s="14">
         <f t="shared" ref="M48" si="484">E48*J48</f>
-        <v>0</v>
+        <v>446.40000000000003</v>
       </c>
       <c r="N48" s="14">
         <f t="shared" ref="N48" si="485">E48*K48</f>
@@ -6774,11 +6819,11 @@
       </c>
       <c r="O48" s="15">
         <f t="shared" ref="O48" si="486">F48*I48</f>
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="P48" s="15">
         <f t="shared" ref="P48" si="487">F48*J48</f>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="Q48" s="15">
         <f t="shared" ref="Q48" si="488">F48*K48</f>
@@ -6798,11 +6843,11 @@
       </c>
       <c r="U48" s="18">
         <f t="shared" ref="U48" si="492">L48*$G$3/$E$3</f>
-        <v>0</v>
+        <v>0.15111111111111108</v>
       </c>
       <c r="V48" s="18">
         <f t="shared" ref="V48" si="493">M48*$G$3/$E$3</f>
-        <v>0</v>
+        <v>0.22044444444444447</v>
       </c>
       <c r="W48" s="18">
         <f t="shared" ref="W48" si="494">N48*$G$3/$E$3</f>
@@ -6822,11 +6867,11 @@
       </c>
       <c r="AA48" s="16">
         <f t="shared" ref="AA48" si="498">O48*$G$3/$E$3</f>
-        <v>0</v>
+        <v>0.20987654320987653</v>
       </c>
       <c r="AB48" s="16">
         <f t="shared" ref="AB48" si="499">P48*$G$3/$E$3</f>
-        <v>0</v>
+        <v>0.3061728395061728</v>
       </c>
       <c r="AC48" s="16">
         <f t="shared" ref="AC48" si="500">Q48*$G$3/$E$3</f>
@@ -6850,7 +6895,7 @@
       </c>
       <c r="AH48" s="15" t="str">
         <f t="shared" ref="AH48" si="505">IF((Y48+AB48)&lt;($J$4/2),"低",IF((Y48+AB48)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI48" s="15" t="str">
         <f t="shared" ref="AI48" si="506">IF((Z48+AC48)&lt;($J$4/2),"低",IF((Z48+AC48)&gt;$J$4,"高","中"))</f>
@@ -6862,11 +6907,21 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="D49" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="8">
+        <v>48</v>
+      </c>
+      <c r="F49" s="8">
+        <v>67</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0</v>
+      </c>
       <c r="I49" s="11">
         <v>8.5</v>
       </c>
@@ -6878,11 +6933,11 @@
       </c>
       <c r="L49" s="14">
         <f t="shared" ref="L49:L52" si="507">E49*I49</f>
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="M49" s="14">
         <f t="shared" ref="M49:M52" si="508">E49*J49</f>
-        <v>0</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="N49" s="14">
         <f t="shared" ref="N49:N52" si="509">E49*K49</f>
@@ -6890,11 +6945,11 @@
       </c>
       <c r="O49" s="15">
         <f t="shared" ref="O49:O52" si="510">F49*I49</f>
-        <v>0</v>
+        <v>569.5</v>
       </c>
       <c r="P49" s="15">
         <f t="shared" ref="P49:P52" si="511">F49*J49</f>
-        <v>0</v>
+        <v>830.80000000000007</v>
       </c>
       <c r="Q49" s="15">
         <f t="shared" ref="Q49:Q52" si="512">F49*K49</f>
@@ -6914,11 +6969,11 @@
       </c>
       <c r="U49" s="18">
         <f t="shared" ref="U49:U52" si="516">L49*$G$3/$E$3</f>
-        <v>0</v>
+        <v>0.20148148148148148</v>
       </c>
       <c r="V49" s="18">
         <f t="shared" ref="V49:V52" si="517">M49*$G$3/$E$3</f>
-        <v>0</v>
+        <v>0.29392592592592592</v>
       </c>
       <c r="W49" s="18">
         <f t="shared" ref="W49:W52" si="518">N49*$G$3/$E$3</f>
@@ -6938,11 +6993,11 @@
       </c>
       <c r="AA49" s="16">
         <f t="shared" ref="AA49:AA52" si="522">O49*$G$3/$E$3</f>
-        <v>0</v>
+        <v>0.28123456790123458</v>
       </c>
       <c r="AB49" s="16">
         <f t="shared" ref="AB49:AB52" si="523">P49*$G$3/$E$3</f>
-        <v>0</v>
+        <v>0.41027160493827164</v>
       </c>
       <c r="AC49" s="16">
         <f t="shared" ref="AC49:AC52" si="524">Q49*$G$3/$E$3</f>
@@ -6954,7 +7009,7 @@
       </c>
       <c r="AE49" s="17" t="str">
         <f t="shared" ref="AE49:AE52" si="526">IF((V49+Y49)&lt;($J$4/2),"低",IF((V49+Y49)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF49" s="17" t="str">
         <f t="shared" ref="AF49:AF52" si="527">IF((W49+Z49)&lt;($J$4/2),"低",IF((W49+Z49)&gt;$J$4,"高","中"))</f>
@@ -6962,11 +7017,11 @@
       </c>
       <c r="AG49" s="15" t="str">
         <f t="shared" ref="AG49:AG52" si="528">IF((X49+AA49)&lt;($J$4/2),"低",IF((X49+AA49)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH49" s="15" t="str">
         <f t="shared" ref="AH49:AH52" si="529">IF((Y49+AB49)&lt;($J$4/2),"低",IF((Y49+AB49)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI49" s="15" t="str">
         <f t="shared" ref="AI49:AI52" si="530">IF((Z49+AC49)&lt;($J$4/2),"低",IF((Z49+AC49)&gt;$J$4,"高","中"))</f>
@@ -6978,11 +7033,21 @@
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
+      <c r="D50" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="8">
+        <v>69</v>
+      </c>
+      <c r="F50" s="8">
+        <v>95</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
       <c r="I50" s="11">
         <v>8.5</v>
       </c>
@@ -6994,11 +7059,11 @@
       </c>
       <c r="L50" s="14">
         <f t="shared" si="507"/>
-        <v>0</v>
+        <v>586.5</v>
       </c>
       <c r="M50" s="14">
         <f t="shared" si="508"/>
-        <v>0</v>
+        <v>855.6</v>
       </c>
       <c r="N50" s="14">
         <f t="shared" si="509"/>
@@ -7006,11 +7071,11 @@
       </c>
       <c r="O50" s="15">
         <f t="shared" si="510"/>
-        <v>0</v>
+        <v>807.5</v>
       </c>
       <c r="P50" s="15">
         <f t="shared" si="511"/>
-        <v>0</v>
+        <v>1178</v>
       </c>
       <c r="Q50" s="15">
         <f t="shared" si="512"/>
@@ -7030,11 +7095,11 @@
       </c>
       <c r="U50" s="18">
         <f t="shared" si="516"/>
-        <v>0</v>
+        <v>0.28962962962962963</v>
       </c>
       <c r="V50" s="18">
         <f t="shared" si="517"/>
-        <v>0</v>
+        <v>0.42251851851851846</v>
       </c>
       <c r="W50" s="18">
         <f t="shared" si="518"/>
@@ -7054,11 +7119,11 @@
       </c>
       <c r="AA50" s="16">
         <f t="shared" si="522"/>
-        <v>0</v>
+        <v>0.39876543209876542</v>
       </c>
       <c r="AB50" s="16">
         <f t="shared" si="523"/>
-        <v>0</v>
+        <v>0.58172839506172835</v>
       </c>
       <c r="AC50" s="16">
         <f t="shared" si="524"/>
@@ -7066,11 +7131,11 @@
       </c>
       <c r="AD50" s="17" t="str">
         <f t="shared" si="525"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE50" s="17" t="str">
         <f t="shared" si="526"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF50" s="17" t="str">
         <f t="shared" si="527"/>
@@ -7078,11 +7143,11 @@
       </c>
       <c r="AG50" s="15" t="str">
         <f t="shared" si="528"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH50" s="15" t="str">
         <f t="shared" si="529"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI50" s="15" t="str">
         <f t="shared" si="530"/>
@@ -7094,11 +7159,21 @@
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
+      <c r="D51" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" s="8">
+        <v>61</v>
+      </c>
+      <c r="F51" s="8">
+        <v>84</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0</v>
+      </c>
       <c r="I51" s="11">
         <v>8.5</v>
       </c>
@@ -7110,11 +7185,11 @@
       </c>
       <c r="L51" s="14">
         <f t="shared" si="507"/>
-        <v>0</v>
+        <v>518.5</v>
       </c>
       <c r="M51" s="14">
         <f t="shared" si="508"/>
-        <v>0</v>
+        <v>756.4</v>
       </c>
       <c r="N51" s="14">
         <f t="shared" si="509"/>
@@ -7122,11 +7197,11 @@
       </c>
       <c r="O51" s="15">
         <f t="shared" si="510"/>
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="P51" s="15">
         <f t="shared" si="511"/>
-        <v>0</v>
+        <v>1041.6000000000001</v>
       </c>
       <c r="Q51" s="15">
         <f t="shared" si="512"/>
@@ -7146,11 +7221,11 @@
       </c>
       <c r="U51" s="18">
         <f t="shared" si="516"/>
-        <v>0</v>
+        <v>0.25604938271604938</v>
       </c>
       <c r="V51" s="18">
         <f t="shared" si="517"/>
-        <v>0</v>
+        <v>0.37353086419753084</v>
       </c>
       <c r="W51" s="18">
         <f t="shared" si="518"/>
@@ -7170,11 +7245,11 @@
       </c>
       <c r="AA51" s="16">
         <f t="shared" si="522"/>
-        <v>0</v>
+        <v>0.35259259259259257</v>
       </c>
       <c r="AB51" s="16">
         <f t="shared" si="523"/>
-        <v>0</v>
+        <v>0.51437037037037048</v>
       </c>
       <c r="AC51" s="16">
         <f t="shared" si="524"/>
@@ -7182,11 +7257,11 @@
       </c>
       <c r="AD51" s="17" t="str">
         <f t="shared" si="525"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE51" s="17" t="str">
         <f t="shared" si="526"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF51" s="17" t="str">
         <f t="shared" si="527"/>
@@ -7194,11 +7269,11 @@
       </c>
       <c r="AG51" s="15" t="str">
         <f t="shared" si="528"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH51" s="15" t="str">
         <f t="shared" si="529"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI51" s="15" t="str">
         <f t="shared" si="530"/>
@@ -7210,11 +7285,21 @@
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
+      <c r="D52" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" s="8">
+        <v>73</v>
+      </c>
+      <c r="F52" s="8">
+        <v>101</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0</v>
+      </c>
       <c r="I52" s="11">
         <v>8.5</v>
       </c>
@@ -7226,11 +7311,11 @@
       </c>
       <c r="L52" s="14">
         <f t="shared" si="507"/>
-        <v>0</v>
+        <v>620.5</v>
       </c>
       <c r="M52" s="14">
         <f t="shared" si="508"/>
-        <v>0</v>
+        <v>905.2</v>
       </c>
       <c r="N52" s="14">
         <f t="shared" si="509"/>
@@ -7238,11 +7323,11 @@
       </c>
       <c r="O52" s="15">
         <f t="shared" si="510"/>
-        <v>0</v>
+        <v>858.5</v>
       </c>
       <c r="P52" s="15">
         <f t="shared" si="511"/>
-        <v>0</v>
+        <v>1252.4000000000001</v>
       </c>
       <c r="Q52" s="15">
         <f t="shared" si="512"/>
@@ -7262,11 +7347,11 @@
       </c>
       <c r="U52" s="18">
         <f t="shared" si="516"/>
-        <v>0</v>
+        <v>0.30641975308641972</v>
       </c>
       <c r="V52" s="18">
         <f t="shared" si="517"/>
-        <v>0</v>
+        <v>0.44701234567901232</v>
       </c>
       <c r="W52" s="18">
         <f t="shared" si="518"/>
@@ -7286,11 +7371,11 @@
       </c>
       <c r="AA52" s="16">
         <f t="shared" si="522"/>
-        <v>0</v>
+        <v>0.42395061728395061</v>
       </c>
       <c r="AB52" s="16">
         <f t="shared" si="523"/>
-        <v>0</v>
+        <v>0.61846913580246909</v>
       </c>
       <c r="AC52" s="16">
         <f t="shared" si="524"/>
@@ -7298,11 +7383,11 @@
       </c>
       <c r="AD52" s="17" t="str">
         <f t="shared" si="525"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE52" s="17" t="str">
         <f t="shared" si="526"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF52" s="17" t="str">
         <f t="shared" si="527"/>
@@ -7310,11 +7395,11 @@
       </c>
       <c r="AG52" s="15" t="str">
         <f t="shared" si="528"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH52" s="15" t="str">
         <f t="shared" si="529"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI52" s="15" t="str">
         <f t="shared" si="530"/>
@@ -7326,11 +7411,21 @@
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
+      <c r="D53" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E53" s="8">
+        <v>44</v>
+      </c>
+      <c r="F53" s="8">
+        <v>62</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0</v>
+      </c>
       <c r="I53" s="11">
         <v>8.5</v>
       </c>
@@ -7342,11 +7437,11 @@
       </c>
       <c r="L53" s="14">
         <f t="shared" ref="L53:L58" si="531">E53*I53</f>
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="M53" s="14">
         <f t="shared" ref="M53:M58" si="532">E53*J53</f>
-        <v>0</v>
+        <v>545.6</v>
       </c>
       <c r="N53" s="14">
         <f t="shared" ref="N53:N58" si="533">E53*K53</f>
@@ -7354,11 +7449,11 @@
       </c>
       <c r="O53" s="15">
         <f t="shared" ref="O53:O58" si="534">F53*I53</f>
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="P53" s="15">
         <f t="shared" ref="P53:P58" si="535">F53*J53</f>
-        <v>0</v>
+        <v>768.80000000000007</v>
       </c>
       <c r="Q53" s="15">
         <f t="shared" ref="Q53:Q58" si="536">F53*K53</f>
@@ -7378,11 +7473,11 @@
       </c>
       <c r="U53" s="18">
         <f t="shared" ref="U53:U58" si="540">L53*$G$3/$E$3</f>
-        <v>0</v>
+        <v>0.18469135802469136</v>
       </c>
       <c r="V53" s="18">
         <f t="shared" ref="V53:V58" si="541">M53*$G$3/$E$3</f>
-        <v>0</v>
+        <v>0.26943209876543206</v>
       </c>
       <c r="W53" s="18">
         <f t="shared" ref="W53:W58" si="542">N53*$G$3/$E$3</f>
@@ -7402,11 +7497,11 @@
       </c>
       <c r="AA53" s="16">
         <f t="shared" ref="AA53:AA58" si="546">O53*$G$3/$E$3</f>
-        <v>0</v>
+        <v>0.26024691358024693</v>
       </c>
       <c r="AB53" s="16">
         <f t="shared" ref="AB53:AB58" si="547">P53*$G$3/$E$3</f>
-        <v>0</v>
+        <v>0.37965432098765434</v>
       </c>
       <c r="AC53" s="16">
         <f t="shared" ref="AC53:AC58" si="548">Q53*$G$3/$E$3</f>
@@ -7418,7 +7513,7 @@
       </c>
       <c r="AE53" s="17" t="str">
         <f t="shared" ref="AE53:AE58" si="550">IF((V53+Y53)&lt;($J$4/2),"低",IF((V53+Y53)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF53" s="17" t="str">
         <f t="shared" ref="AF53:AF58" si="551">IF((W53+Z53)&lt;($J$4/2),"低",IF((W53+Z53)&gt;$J$4,"高","中"))</f>
@@ -7426,11 +7521,11 @@
       </c>
       <c r="AG53" s="15" t="str">
         <f t="shared" ref="AG53:AG58" si="552">IF((X53+AA53)&lt;($J$4/2),"低",IF((X53+AA53)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH53" s="15" t="str">
         <f t="shared" ref="AH53:AH58" si="553">IF((Y53+AB53)&lt;($J$4/2),"低",IF((Y53+AB53)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI53" s="15" t="str">
         <f t="shared" ref="AI53:AI58" si="554">IF((Z53+AC53)&lt;($J$4/2),"低",IF((Z53+AC53)&gt;$J$4,"高","中"))</f>
@@ -7442,11 +7537,21 @@
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
+      <c r="D54" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E54" s="8">
+        <v>40</v>
+      </c>
+      <c r="F54" s="8">
+        <v>56</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0</v>
+      </c>
       <c r="I54" s="11">
         <v>8.5</v>
       </c>
@@ -7458,11 +7563,11 @@
       </c>
       <c r="L54" s="14">
         <f t="shared" si="531"/>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="M54" s="14">
         <f t="shared" si="532"/>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="N54" s="14">
         <f t="shared" si="533"/>
@@ -7470,11 +7575,11 @@
       </c>
       <c r="O54" s="15">
         <f t="shared" si="534"/>
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="P54" s="15">
         <f t="shared" si="535"/>
-        <v>0</v>
+        <v>694.4</v>
       </c>
       <c r="Q54" s="15">
         <f t="shared" si="536"/>
@@ -7494,11 +7599,11 @@
       </c>
       <c r="U54" s="18">
         <f t="shared" si="540"/>
-        <v>0</v>
+        <v>0.16790123456790121</v>
       </c>
       <c r="V54" s="18">
         <f t="shared" si="541"/>
-        <v>0</v>
+        <v>0.24493827160493828</v>
       </c>
       <c r="W54" s="18">
         <f t="shared" si="542"/>
@@ -7518,11 +7623,11 @@
       </c>
       <c r="AA54" s="16">
         <f t="shared" si="546"/>
-        <v>0</v>
+        <v>0.23506172839506173</v>
       </c>
       <c r="AB54" s="16">
         <f t="shared" si="547"/>
-        <v>0</v>
+        <v>0.34291358024691354</v>
       </c>
       <c r="AC54" s="16">
         <f t="shared" si="548"/>
@@ -7534,7 +7639,7 @@
       </c>
       <c r="AE54" s="17" t="str">
         <f t="shared" si="550"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF54" s="17" t="str">
         <f t="shared" si="551"/>
@@ -7542,11 +7647,11 @@
       </c>
       <c r="AG54" s="15" t="str">
         <f t="shared" si="552"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH54" s="15" t="str">
         <f t="shared" si="553"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI54" s="15" t="str">
         <f t="shared" si="554"/>
@@ -7558,11 +7663,21 @@
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
+      <c r="D55" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" s="8">
+        <v>48</v>
+      </c>
+      <c r="F55" s="8">
+        <v>65</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H55" s="8">
+        <v>30</v>
+      </c>
       <c r="I55" s="11">
         <v>8.5</v>
       </c>
@@ -7574,11 +7689,11 @@
       </c>
       <c r="L55" s="14">
         <f t="shared" si="531"/>
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="M55" s="14">
         <f t="shared" si="532"/>
-        <v>0</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="N55" s="14">
         <f t="shared" si="533"/>
@@ -7586,11 +7701,11 @@
       </c>
       <c r="O55" s="15">
         <f t="shared" si="534"/>
-        <v>0</v>
+        <v>552.5</v>
       </c>
       <c r="P55" s="15">
         <f t="shared" si="535"/>
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="Q55" s="15">
         <f t="shared" si="536"/>
@@ -7598,11 +7713,11 @@
       </c>
       <c r="R55" s="19">
         <f t="shared" si="537"/>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="S55" s="19">
         <f t="shared" si="538"/>
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="T55" s="19">
         <f t="shared" si="539"/>
@@ -7610,11 +7725,11 @@
       </c>
       <c r="U55" s="18">
         <f t="shared" si="540"/>
-        <v>0</v>
+        <v>0.20148148148148148</v>
       </c>
       <c r="V55" s="18">
         <f t="shared" si="541"/>
-        <v>0</v>
+        <v>0.29392592592592592</v>
       </c>
       <c r="W55" s="18">
         <f t="shared" si="542"/>
@@ -7622,11 +7737,11 @@
       </c>
       <c r="X55" s="20">
         <f t="shared" si="543"/>
-        <v>0</v>
+        <v>0.12592592592592594</v>
       </c>
       <c r="Y55" s="20">
         <f t="shared" si="544"/>
-        <v>0</v>
+        <v>0.1837037037037037</v>
       </c>
       <c r="Z55" s="20">
         <f t="shared" si="545"/>
@@ -7634,11 +7749,11 @@
       </c>
       <c r="AA55" s="16">
         <f t="shared" si="546"/>
-        <v>0</v>
+        <v>0.27283950617283947</v>
       </c>
       <c r="AB55" s="16">
         <f t="shared" si="547"/>
-        <v>0</v>
+        <v>0.39802469135802471</v>
       </c>
       <c r="AC55" s="16">
         <f t="shared" si="548"/>
@@ -7646,11 +7761,11 @@
       </c>
       <c r="AD55" s="17" t="str">
         <f t="shared" si="549"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE55" s="17" t="str">
         <f t="shared" si="550"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF55" s="17" t="str">
         <f t="shared" si="551"/>
@@ -7658,11 +7773,11 @@
       </c>
       <c r="AG55" s="15" t="str">
         <f t="shared" si="552"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH55" s="15" t="str">
         <f t="shared" si="553"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI55" s="15" t="str">
         <f t="shared" si="554"/>
@@ -7674,11 +7789,21 @@
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
+      <c r="D56" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E56" s="8">
+        <v>48</v>
+      </c>
+      <c r="F56" s="8">
+        <v>65</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H56" s="8">
+        <v>30</v>
+      </c>
       <c r="I56" s="11">
         <v>8.5</v>
       </c>
@@ -7690,11 +7815,11 @@
       </c>
       <c r="L56" s="14">
         <f t="shared" si="531"/>
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="M56" s="14">
         <f t="shared" si="532"/>
-        <v>0</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="N56" s="14">
         <f t="shared" si="533"/>
@@ -7702,11 +7827,11 @@
       </c>
       <c r="O56" s="15">
         <f t="shared" si="534"/>
-        <v>0</v>
+        <v>552.5</v>
       </c>
       <c r="P56" s="15">
         <f t="shared" si="535"/>
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="Q56" s="15">
         <f t="shared" si="536"/>
@@ -7714,11 +7839,11 @@
       </c>
       <c r="R56" s="19">
         <f t="shared" si="537"/>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="S56" s="19">
         <f t="shared" si="538"/>
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="T56" s="19">
         <f t="shared" si="539"/>
@@ -7726,11 +7851,11 @@
       </c>
       <c r="U56" s="18">
         <f t="shared" si="540"/>
-        <v>0</v>
+        <v>0.20148148148148148</v>
       </c>
       <c r="V56" s="18">
         <f t="shared" si="541"/>
-        <v>0</v>
+        <v>0.29392592592592592</v>
       </c>
       <c r="W56" s="18">
         <f t="shared" si="542"/>
@@ -7738,11 +7863,11 @@
       </c>
       <c r="X56" s="20">
         <f t="shared" si="543"/>
-        <v>0</v>
+        <v>0.12592592592592594</v>
       </c>
       <c r="Y56" s="20">
         <f t="shared" si="544"/>
-        <v>0</v>
+        <v>0.1837037037037037</v>
       </c>
       <c r="Z56" s="20">
         <f t="shared" si="545"/>
@@ -7750,11 +7875,11 @@
       </c>
       <c r="AA56" s="16">
         <f t="shared" si="546"/>
-        <v>0</v>
+        <v>0.27283950617283947</v>
       </c>
       <c r="AB56" s="16">
         <f t="shared" si="547"/>
-        <v>0</v>
+        <v>0.39802469135802471</v>
       </c>
       <c r="AC56" s="16">
         <f t="shared" si="548"/>
@@ -7762,11 +7887,11 @@
       </c>
       <c r="AD56" s="17" t="str">
         <f t="shared" si="549"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE56" s="17" t="str">
         <f t="shared" si="550"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF56" s="17" t="str">
         <f t="shared" si="551"/>
@@ -7774,11 +7899,11 @@
       </c>
       <c r="AG56" s="15" t="str">
         <f t="shared" si="552"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH56" s="15" t="str">
         <f t="shared" si="553"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI56" s="15" t="str">
         <f t="shared" si="554"/>
@@ -7790,11 +7915,21 @@
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
+      <c r="D57" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" s="8">
+        <v>56</v>
+      </c>
+      <c r="F57" s="8">
+        <v>76</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H57" s="8">
+        <v>35</v>
+      </c>
       <c r="I57" s="11">
         <v>8.5</v>
       </c>
@@ -7806,11 +7941,11 @@
       </c>
       <c r="L57" s="14">
         <f t="shared" si="531"/>
-        <v>0</v>
+        <v>476</v>
       </c>
       <c r="M57" s="14">
         <f t="shared" si="532"/>
-        <v>0</v>
+        <v>694.4</v>
       </c>
       <c r="N57" s="14">
         <f t="shared" si="533"/>
@@ -7818,11 +7953,11 @@
       </c>
       <c r="O57" s="15">
         <f t="shared" si="534"/>
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="P57" s="15">
         <f t="shared" si="535"/>
-        <v>0</v>
+        <v>942.4</v>
       </c>
       <c r="Q57" s="15">
         <f t="shared" si="536"/>
@@ -7830,11 +7965,11 @@
       </c>
       <c r="R57" s="19">
         <f t="shared" si="537"/>
-        <v>0</v>
+        <v>297.5</v>
       </c>
       <c r="S57" s="19">
         <f t="shared" si="538"/>
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="T57" s="19">
         <f t="shared" si="539"/>
@@ -7842,11 +7977,11 @@
       </c>
       <c r="U57" s="18">
         <f t="shared" si="540"/>
-        <v>0</v>
+        <v>0.23506172839506173</v>
       </c>
       <c r="V57" s="18">
         <f t="shared" si="541"/>
-        <v>0</v>
+        <v>0.34291358024691354</v>
       </c>
       <c r="W57" s="18">
         <f t="shared" si="542"/>
@@ -7854,11 +7989,11 @@
       </c>
       <c r="X57" s="20">
         <f t="shared" si="543"/>
-        <v>0</v>
+        <v>0.14691358024691356</v>
       </c>
       <c r="Y57" s="20">
         <f t="shared" si="544"/>
-        <v>0</v>
+        <v>0.21432098765432098</v>
       </c>
       <c r="Z57" s="20">
         <f t="shared" si="545"/>
@@ -7866,11 +8001,11 @@
       </c>
       <c r="AA57" s="16">
         <f t="shared" si="546"/>
-        <v>0</v>
+        <v>0.31901234567901232</v>
       </c>
       <c r="AB57" s="16">
         <f t="shared" si="547"/>
-        <v>0</v>
+        <v>0.46538271604938264</v>
       </c>
       <c r="AC57" s="16">
         <f t="shared" si="548"/>
@@ -7878,11 +8013,11 @@
       </c>
       <c r="AD57" s="17" t="str">
         <f t="shared" si="549"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE57" s="17" t="str">
         <f t="shared" si="550"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF57" s="17" t="str">
         <f t="shared" si="551"/>
@@ -7890,11 +8025,11 @@
       </c>
       <c r="AG57" s="15" t="str">
         <f t="shared" si="552"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH57" s="15" t="str">
         <f t="shared" si="553"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI57" s="15" t="str">
         <f t="shared" si="554"/>
@@ -7906,11 +8041,21 @@
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
+      <c r="D58" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" s="8">
+        <v>40</v>
+      </c>
+      <c r="F58" s="8">
+        <v>54</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H58" s="8">
+        <v>25</v>
+      </c>
       <c r="I58" s="11">
         <v>8.5</v>
       </c>
@@ -7922,11 +8067,11 @@
       </c>
       <c r="L58" s="14">
         <f t="shared" si="531"/>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="M58" s="14">
         <f t="shared" si="532"/>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="N58" s="14">
         <f t="shared" si="533"/>
@@ -7934,11 +8079,11 @@
       </c>
       <c r="O58" s="15">
         <f t="shared" si="534"/>
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="P58" s="15">
         <f t="shared" si="535"/>
-        <v>0</v>
+        <v>669.6</v>
       </c>
       <c r="Q58" s="15">
         <f t="shared" si="536"/>
@@ -7946,11 +8091,11 @@
       </c>
       <c r="R58" s="19">
         <f t="shared" si="537"/>
-        <v>0</v>
+        <v>212.5</v>
       </c>
       <c r="S58" s="19">
         <f t="shared" si="538"/>
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="T58" s="19">
         <f t="shared" si="539"/>
@@ -7958,11 +8103,11 @@
       </c>
       <c r="U58" s="18">
         <f t="shared" si="540"/>
-        <v>0</v>
+        <v>0.16790123456790121</v>
       </c>
       <c r="V58" s="18">
         <f t="shared" si="541"/>
-        <v>0</v>
+        <v>0.24493827160493828</v>
       </c>
       <c r="W58" s="18">
         <f t="shared" si="542"/>
@@ -7970,11 +8115,11 @@
       </c>
       <c r="X58" s="20">
         <f t="shared" si="543"/>
-        <v>0</v>
+        <v>0.10493827160493827</v>
       </c>
       <c r="Y58" s="20">
         <f t="shared" si="544"/>
-        <v>0</v>
+        <v>0.1530864197530864</v>
       </c>
       <c r="Z58" s="20">
         <f t="shared" si="545"/>
@@ -7982,11 +8127,11 @@
       </c>
       <c r="AA58" s="16">
         <f t="shared" si="546"/>
-        <v>0</v>
+        <v>0.22666666666666666</v>
       </c>
       <c r="AB58" s="16">
         <f t="shared" si="547"/>
-        <v>0</v>
+        <v>0.33066666666666666</v>
       </c>
       <c r="AC58" s="16">
         <f t="shared" si="548"/>
@@ -7994,11 +8139,11 @@
       </c>
       <c r="AD58" s="17" t="str">
         <f t="shared" si="549"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE58" s="17" t="str">
         <f t="shared" si="550"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF58" s="17" t="str">
         <f t="shared" si="551"/>
@@ -8006,11 +8151,11 @@
       </c>
       <c r="AG58" s="15" t="str">
         <f t="shared" si="552"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH58" s="15" t="str">
         <f t="shared" si="553"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI58" s="15" t="str">
         <f t="shared" si="554"/>
@@ -8018,131 +8163,122 @@
       </c>
       <c r="AJ58" s="21"/>
     </row>
-    <row r="59" spans="1:36" s="4" customFormat="1">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="11">
-        <v>8.5</v>
-      </c>
-      <c r="J59" s="11">
-        <v>12.4</v>
-      </c>
-      <c r="K59" s="11">
-        <v>0</v>
+    <row r="59" spans="1:36">
+      <c r="A59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="L59" s="14">
-        <f t="shared" ref="L59" si="555">E59*I59</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M59" s="14">
-        <f t="shared" ref="M59" si="556">E59*J59</f>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N59" s="14">
-        <f t="shared" ref="N59" si="557">E59*K59</f>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O59" s="15">
-        <f t="shared" ref="O59" si="558">F59*I59</f>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P59" s="15">
-        <f t="shared" ref="P59" si="559">F59*J59</f>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q59" s="15">
-        <f t="shared" ref="Q59" si="560">F59*K59</f>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R59" s="19">
-        <f t="shared" ref="R59" si="561">H59*I59</f>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S59" s="19">
-        <f t="shared" ref="S59" si="562">H59*J59</f>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T59" s="19">
-        <f t="shared" ref="T59" si="563">H59*K59</f>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U59" s="18">
-        <f t="shared" ref="U59" si="564">L59*$G$3/$E$3</f>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="V59" s="18">
-        <f t="shared" ref="V59" si="565">M59*$G$3/$E$3</f>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W59" s="18">
-        <f t="shared" ref="W59" si="566">N59*$G$3/$E$3</f>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X59" s="20">
-        <f t="shared" ref="X59" si="567">R59*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y59" s="20">
-        <f t="shared" ref="Y59" si="568">S59*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z59" s="20">
-        <f t="shared" ref="Z59" si="569">T59*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA59" s="16">
-        <f t="shared" ref="AA59" si="570">O59*$G$3/$E$3</f>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB59" s="16">
-        <f t="shared" ref="AB59" si="571">P59*$G$3/$E$3</f>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC59" s="16">
-        <f t="shared" ref="AC59" si="572">Q59*$G$3/$E$3</f>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD59" s="17" t="str">
-        <f t="shared" ref="AD59" si="573">IF((U59+X59)&lt;($J$4/2),"低",IF((U59+X59)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE59" s="17" t="str">
-        <f t="shared" ref="AE59" si="574">IF((V59+Y59)&lt;($J$4/2),"低",IF((V59+Y59)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF59" s="17" t="str">
-        <f t="shared" ref="AF59" si="575">IF((W59+Z59)&lt;($J$4/2),"低",IF((W59+Z59)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG59" s="15" t="str">
-        <f t="shared" ref="AG59" si="576">IF((X59+AA59)&lt;($J$4/2),"低",IF((X59+AA59)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH59" s="15" t="str">
-        <f t="shared" ref="AH59" si="577">IF((Y59+AB59)&lt;($J$4/2),"低",IF((Y59+AB59)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI59" s="15" t="str">
-        <f t="shared" ref="AI59" si="578">IF((Z59+AC59)&lt;($J$4/2),"低",IF((Z59+AC59)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AJ59" s="21"/>
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
     </row>
     <row r="60" spans="1:36">
       <c r="A60" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L60" s="14">
         <f t="shared" si="271"/>
@@ -8246,10 +8382,10 @@
         <v>17</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L61" s="14">
         <f t="shared" si="271"/>
@@ -8353,10 +8489,10 @@
         <v>17</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L62" s="14">
         <f t="shared" si="271"/>
@@ -8460,10 +8596,10 @@
         <v>17</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L63" s="14">
         <f t="shared" si="271"/>
@@ -8567,10 +8703,10 @@
         <v>17</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L64" s="14">
         <f t="shared" si="271"/>
@@ -8674,10 +8810,10 @@
         <v>17</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L65" s="14">
         <f t="shared" si="271"/>
@@ -8781,10 +8917,10 @@
         <v>17</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L66" s="14">
         <f t="shared" si="271"/>
@@ -8888,10 +9024,10 @@
         <v>17</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L67" s="14">
         <f t="shared" si="271"/>
@@ -8995,10 +9131,10 @@
         <v>17</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L68" s="14">
         <f t="shared" si="271"/>
@@ -9102,10 +9238,10 @@
         <v>17</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L69" s="14">
         <f t="shared" si="271"/>
@@ -9209,10 +9345,10 @@
         <v>17</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L70" s="14">
         <f t="shared" si="271"/>
@@ -9313,13 +9449,13 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L71" s="14">
         <f t="shared" si="271"/>
@@ -9423,10 +9559,10 @@
         <v>30</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L72" s="14">
         <f t="shared" si="271"/>
@@ -9527,13 +9663,13 @@
     </row>
     <row r="73" spans="1:35">
       <c r="A73" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L73" s="14">
         <f t="shared" si="271"/>
@@ -9637,10 +9773,10 @@
         <v>33</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L74" s="14">
         <f t="shared" si="271"/>
@@ -9744,10 +9880,10 @@
         <v>33</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L75" s="14">
         <f t="shared" si="271"/>
@@ -9851,10 +9987,10 @@
         <v>33</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L76" s="14">
         <f t="shared" si="271"/>
@@ -9958,10 +10094,10 @@
         <v>33</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L77" s="14">
         <f t="shared" si="271"/>
@@ -10065,10 +10201,10 @@
         <v>33</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L78" s="14">
         <f t="shared" si="271"/>
@@ -10172,10 +10308,10 @@
         <v>33</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L79" s="14">
         <f t="shared" si="271"/>
@@ -10279,10 +10415,10 @@
         <v>33</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L80" s="14">
         <f t="shared" si="271"/>
@@ -10386,10 +10522,10 @@
         <v>33</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L81" s="14">
         <f t="shared" si="271"/>
@@ -10490,13 +10626,13 @@
     </row>
     <row r="82" spans="1:35">
       <c r="A82" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L82" s="14">
         <f t="shared" si="271"/>
@@ -10600,10 +10736,10 @@
         <v>43</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="L83" s="14">
         <f t="shared" si="271"/>
@@ -10707,10 +10843,10 @@
         <v>43</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="L84" s="14">
         <f t="shared" si="271"/>
@@ -10814,10 +10950,10 @@
         <v>43</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L85" s="14">
         <f t="shared" si="271"/>
@@ -10921,10 +11057,10 @@
         <v>43</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L86" s="14">
         <f t="shared" si="271"/>
@@ -11028,10 +11164,10 @@
         <v>43</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L87" s="14">
         <f t="shared" si="271"/>
@@ -11135,10 +11271,10 @@
         <v>43</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L88" s="14">
         <f t="shared" si="271"/>
@@ -11242,10 +11378,10 @@
         <v>43</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L89" s="14">
         <f t="shared" si="271"/>
@@ -11349,10 +11485,10 @@
         <v>43</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L90" s="14">
         <f t="shared" si="271"/>
@@ -11456,10 +11592,10 @@
         <v>43</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L91" s="14">
         <f t="shared" si="271"/>
@@ -11563,10 +11699,10 @@
         <v>43</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L92" s="14">
         <f t="shared" si="271"/>
@@ -11670,10 +11806,10 @@
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L93" s="14">
         <f t="shared" si="271"/>
@@ -11777,10 +11913,10 @@
         <v>43</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L94" s="14">
         <f t="shared" si="271"/>
@@ -11884,10 +12020,10 @@
         <v>43</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L95" s="14">
         <f t="shared" si="271"/>
@@ -11991,10 +12127,10 @@
         <v>43</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L96" s="14">
         <f t="shared" si="271"/>
@@ -12098,10 +12234,10 @@
         <v>43</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L97" s="14">
         <f t="shared" si="271"/>
@@ -12205,10 +12341,10 @@
         <v>43</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L98" s="14">
         <f t="shared" si="271"/>
@@ -12312,10 +12448,10 @@
         <v>43</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L99" s="14">
         <f t="shared" si="271"/>
@@ -12419,10 +12555,10 @@
         <v>43</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L100" s="14">
         <f t="shared" si="271"/>
@@ -12523,13 +12659,13 @@
     </row>
     <row r="101" spans="1:35">
       <c r="A101" s="5" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L101" s="14">
         <f t="shared" si="271"/>
@@ -12633,10 +12769,10 @@
         <v>63</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L102" s="14">
         <f t="shared" si="271"/>
@@ -12740,10 +12876,10 @@
         <v>63</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L103" s="14">
         <f t="shared" si="271"/>
@@ -12844,13 +12980,13 @@
     </row>
     <row r="104" spans="1:35">
       <c r="A104" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L104" s="14">
         <f t="shared" si="271"/>
@@ -12954,10 +13090,10 @@
         <v>67</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L105" s="14">
         <f t="shared" si="271"/>
@@ -13061,10 +13197,10 @@
         <v>67</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L106" s="14">
         <f t="shared" si="271"/>
@@ -13168,10 +13304,10 @@
         <v>67</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L107" s="14">
         <f t="shared" si="271"/>
@@ -13275,10 +13411,10 @@
         <v>67</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L108" s="14">
         <f t="shared" si="271"/>
@@ -13382,10 +13518,10 @@
         <v>67</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L109" s="14">
         <f t="shared" si="271"/>
@@ -13489,10 +13625,10 @@
         <v>67</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L110" s="14">
         <f t="shared" si="271"/>
@@ -13596,10 +13732,10 @@
         <v>67</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L111" s="14">
         <f t="shared" si="271"/>
@@ -13703,10 +13839,10 @@
         <v>67</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L112" s="14">
         <f t="shared" si="271"/>
@@ -13810,10 +13946,10 @@
         <v>67</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L113" s="14">
         <f t="shared" si="271"/>
@@ -13917,10 +14053,10 @@
         <v>67</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L114" s="14">
         <f t="shared" si="271"/>
@@ -14024,10 +14160,10 @@
         <v>67</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L115" s="14">
         <f t="shared" si="271"/>
@@ -14131,10 +14267,10 @@
         <v>67</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L116" s="14">
         <f t="shared" si="271"/>
@@ -14238,10 +14374,10 @@
         <v>67</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L117" s="14">
         <f t="shared" si="271"/>
@@ -14345,10 +14481,10 @@
         <v>67</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L118" s="14">
         <f t="shared" si="271"/>
@@ -14452,45 +14588,45 @@
         <v>67</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L119" s="14">
-        <f t="shared" si="271"/>
+        <f t="shared" ref="L119:L122" si="555">E119*I119</f>
         <v>0</v>
       </c>
       <c r="M119" s="14">
-        <f t="shared" si="272"/>
+        <f t="shared" ref="M119:M122" si="556">E119*J119</f>
         <v>0</v>
       </c>
       <c r="N119" s="14">
-        <f t="shared" si="273"/>
+        <f t="shared" ref="N119:N122" si="557">E119*K119</f>
         <v>0</v>
       </c>
       <c r="O119" s="15">
-        <f t="shared" si="274"/>
+        <f t="shared" ref="O119:O122" si="558">F119*I119</f>
         <v>0</v>
       </c>
       <c r="P119" s="15">
-        <f t="shared" si="275"/>
+        <f t="shared" ref="P119:P122" si="559">F119*J119</f>
         <v>0</v>
       </c>
       <c r="Q119" s="15">
-        <f t="shared" si="276"/>
+        <f t="shared" ref="Q119:Q122" si="560">F119*K119</f>
         <v>0</v>
       </c>
       <c r="R119" s="19">
-        <f t="shared" si="277"/>
+        <f t="shared" ref="R119:R122" si="561">H119*I119</f>
         <v>0</v>
       </c>
       <c r="S119" s="19">
-        <f t="shared" si="278"/>
+        <f t="shared" ref="S119:S122" si="562">H119*J119</f>
         <v>0</v>
       </c>
       <c r="T119" s="19">
-        <f t="shared" si="279"/>
+        <f t="shared" ref="T119:T122" si="563">H119*K119</f>
         <v>0</v>
       </c>
       <c r="U119" s="18">
@@ -14498,59 +14634,59 @@
         <v>0</v>
       </c>
       <c r="V119" s="18">
-        <f t="shared" si="280"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="W119" s="18">
-        <f t="shared" si="281"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="X119" s="20">
-        <f t="shared" si="282"/>
+        <f t="shared" ref="X119:Z122" si="564">R119*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Y119" s="20">
-        <f t="shared" si="283"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="Z119" s="20">
-        <f t="shared" si="284"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="AA119" s="16">
-        <f t="shared" si="285"/>
+        <f t="shared" ref="AA119:AC122" si="565">O119*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AB119" s="16">
-        <f t="shared" si="286"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AC119" s="16">
-        <f t="shared" si="287"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AD119" s="17" t="str">
-        <f t="shared" si="288"/>
+        <f t="shared" ref="AD119:AI122" si="566">IF((U119+X119)&lt;($J$4/2),"低",IF((U119+X119)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE119" s="17" t="str">
-        <f t="shared" si="289"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AF119" s="17" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AG119" s="15" t="str">
-        <f t="shared" si="291"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AH119" s="15" t="str">
-        <f t="shared" si="292"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AI119" s="15" t="str">
-        <f t="shared" si="293"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
@@ -14559,212 +14695,212 @@
         <v>67</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L120" s="14">
-        <f t="shared" ref="L120:L123" si="579">E120*I120</f>
+        <f t="shared" si="555"/>
         <v>0</v>
       </c>
       <c r="M120" s="14">
-        <f t="shared" ref="M120:M123" si="580">E120*J120</f>
+        <f t="shared" si="556"/>
         <v>0</v>
       </c>
       <c r="N120" s="14">
-        <f t="shared" ref="N120:N123" si="581">E120*K120</f>
+        <f t="shared" si="557"/>
         <v>0</v>
       </c>
       <c r="O120" s="15">
-        <f t="shared" ref="O120:O123" si="582">F120*I120</f>
+        <f t="shared" si="558"/>
         <v>0</v>
       </c>
       <c r="P120" s="15">
-        <f t="shared" ref="P120:P123" si="583">F120*J120</f>
+        <f t="shared" si="559"/>
         <v>0</v>
       </c>
       <c r="Q120" s="15">
-        <f t="shared" ref="Q120:Q123" si="584">F120*K120</f>
+        <f t="shared" si="560"/>
         <v>0</v>
       </c>
       <c r="R120" s="19">
-        <f t="shared" ref="R120:R123" si="585">H120*I120</f>
+        <f t="shared" si="561"/>
         <v>0</v>
       </c>
       <c r="S120" s="19">
-        <f t="shared" ref="S120:S123" si="586">H120*J120</f>
+        <f t="shared" si="562"/>
         <v>0</v>
       </c>
       <c r="T120" s="19">
-        <f t="shared" ref="T120:T123" si="587">H120*K120</f>
+        <f t="shared" si="563"/>
         <v>0</v>
       </c>
       <c r="U120" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" ref="U120:W122" si="567">L120*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="V120" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="W120" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="X120" s="20">
-        <f t="shared" ref="X120:Z123" si="588">R120*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="Y120" s="20">
-        <f t="shared" si="588"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="Z120" s="20">
-        <f t="shared" si="588"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="AA120" s="16">
-        <f t="shared" ref="AA120:AC123" si="589">O120*$G$3/$E$3</f>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AB120" s="16">
-        <f t="shared" si="589"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AC120" s="16">
-        <f t="shared" si="589"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AD120" s="17" t="str">
-        <f t="shared" ref="AD120:AI123" si="590">IF((U120+X120)&lt;($J$4/2),"低",IF((U120+X120)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AE120" s="17" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AF120" s="17" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AG120" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AH120" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AI120" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
     <row r="121" spans="1:35">
-      <c r="A121" s="5" t="s">
-        <v>67</v>
+      <c r="A121" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L121" s="14">
-        <f t="shared" si="579"/>
+        <f t="shared" si="555"/>
         <v>0</v>
       </c>
       <c r="M121" s="14">
-        <f t="shared" si="580"/>
+        <f t="shared" si="556"/>
         <v>0</v>
       </c>
       <c r="N121" s="14">
-        <f t="shared" si="581"/>
+        <f t="shared" si="557"/>
         <v>0</v>
       </c>
       <c r="O121" s="15">
-        <f t="shared" si="582"/>
+        <f t="shared" si="558"/>
         <v>0</v>
       </c>
       <c r="P121" s="15">
-        <f t="shared" si="583"/>
+        <f t="shared" si="559"/>
         <v>0</v>
       </c>
       <c r="Q121" s="15">
-        <f t="shared" si="584"/>
+        <f t="shared" si="560"/>
         <v>0</v>
       </c>
       <c r="R121" s="19">
-        <f t="shared" si="585"/>
+        <f t="shared" si="561"/>
         <v>0</v>
       </c>
       <c r="S121" s="19">
-        <f t="shared" si="586"/>
+        <f t="shared" si="562"/>
         <v>0</v>
       </c>
       <c r="T121" s="19">
-        <f t="shared" si="587"/>
+        <f t="shared" si="563"/>
         <v>0</v>
       </c>
       <c r="U121" s="18">
-        <f t="shared" ref="U121:W123" si="591">L121*$G$3/$E$3</f>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="V121" s="18">
-        <f t="shared" si="591"/>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="W121" s="18">
-        <f t="shared" si="591"/>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="X121" s="20">
-        <f t="shared" si="588"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="Y121" s="20">
-        <f t="shared" si="588"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="Z121" s="20">
-        <f t="shared" si="588"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="AA121" s="16">
-        <f t="shared" si="589"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AB121" s="16">
-        <f t="shared" si="589"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AC121" s="16">
-        <f t="shared" si="589"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AD121" s="17" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AE121" s="17" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AF121" s="17" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AG121" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AH121" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AI121" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
@@ -14773,1292 +14909,1196 @@
         <v>85</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L122" s="14">
-        <f t="shared" si="579"/>
+        <f t="shared" si="555"/>
         <v>0</v>
       </c>
       <c r="M122" s="14">
-        <f t="shared" si="580"/>
+        <f t="shared" si="556"/>
         <v>0</v>
       </c>
       <c r="N122" s="14">
-        <f t="shared" si="581"/>
+        <f t="shared" si="557"/>
         <v>0</v>
       </c>
       <c r="O122" s="15">
-        <f t="shared" si="582"/>
+        <f t="shared" si="558"/>
         <v>0</v>
       </c>
       <c r="P122" s="15">
-        <f t="shared" si="583"/>
+        <f t="shared" si="559"/>
         <v>0</v>
       </c>
       <c r="Q122" s="15">
-        <f t="shared" si="584"/>
+        <f t="shared" si="560"/>
         <v>0</v>
       </c>
       <c r="R122" s="19">
-        <f t="shared" si="585"/>
+        <f t="shared" si="561"/>
         <v>0</v>
       </c>
       <c r="S122" s="19">
-        <f t="shared" si="586"/>
+        <f t="shared" si="562"/>
         <v>0</v>
       </c>
       <c r="T122" s="19">
-        <f t="shared" si="587"/>
+        <f t="shared" si="563"/>
         <v>0</v>
       </c>
       <c r="U122" s="18">
-        <f t="shared" si="591"/>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="V122" s="18">
-        <f t="shared" si="591"/>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="W122" s="18">
-        <f t="shared" si="591"/>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="X122" s="20">
-        <f t="shared" si="588"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="Y122" s="20">
-        <f t="shared" si="588"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="Z122" s="20">
-        <f t="shared" si="588"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="AA122" s="16">
-        <f t="shared" si="589"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AB122" s="16">
-        <f t="shared" si="589"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AC122" s="16">
-        <f t="shared" si="589"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AD122" s="17" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AE122" s="17" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AF122" s="17" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AG122" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AH122" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AI122" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
     <row r="123" spans="1:35">
-      <c r="A123" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="L123" s="14">
-        <f t="shared" si="579"/>
+        <f t="shared" ref="L123:L133" si="568">E123*I123</f>
         <v>0</v>
       </c>
       <c r="M123" s="14">
-        <f t="shared" si="580"/>
+        <f t="shared" ref="M123:M133" si="569">E123*J123</f>
         <v>0</v>
       </c>
       <c r="N123" s="14">
-        <f t="shared" si="581"/>
+        <f t="shared" ref="N123:N133" si="570">E123*K123</f>
         <v>0</v>
       </c>
       <c r="O123" s="15">
-        <f t="shared" si="582"/>
+        <f t="shared" ref="O123:O133" si="571">F123*I123</f>
         <v>0</v>
       </c>
       <c r="P123" s="15">
-        <f t="shared" si="583"/>
+        <f t="shared" ref="P123:P133" si="572">F123*J123</f>
         <v>0</v>
       </c>
       <c r="Q123" s="15">
-        <f t="shared" si="584"/>
+        <f t="shared" ref="Q123:Q133" si="573">F123*K123</f>
         <v>0</v>
       </c>
       <c r="R123" s="19">
-        <f t="shared" si="585"/>
+        <f t="shared" ref="R123:R133" si="574">H123*I123</f>
         <v>0</v>
       </c>
       <c r="S123" s="19">
-        <f t="shared" si="586"/>
+        <f t="shared" ref="S123:S133" si="575">H123*J123</f>
         <v>0</v>
       </c>
       <c r="T123" s="19">
-        <f t="shared" si="587"/>
+        <f t="shared" ref="T123:T133" si="576">H123*K123</f>
         <v>0</v>
       </c>
       <c r="U123" s="18">
-        <f t="shared" si="591"/>
+        <f t="shared" ref="U123:U133" si="577">L123*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="V123" s="18">
-        <f t="shared" si="591"/>
+        <f t="shared" ref="V123:V133" si="578">M123*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="W123" s="18">
-        <f t="shared" si="591"/>
+        <f t="shared" ref="W123:W133" si="579">N123*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X123" s="20">
-        <f t="shared" si="588"/>
+        <f t="shared" ref="X123:X133" si="580">R123*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Y123" s="20">
-        <f t="shared" si="588"/>
+        <f t="shared" ref="Y123:Y133" si="581">S123*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Z123" s="20">
-        <f t="shared" si="588"/>
+        <f t="shared" ref="Z123:Z133" si="582">T123*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA123" s="16">
-        <f t="shared" si="589"/>
+        <f t="shared" ref="AA123:AA133" si="583">O123*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AB123" s="16">
-        <f t="shared" si="589"/>
+        <f t="shared" ref="AB123:AB133" si="584">P123*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AC123" s="16">
-        <f t="shared" si="589"/>
+        <f t="shared" ref="AC123:AC133" si="585">Q123*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD123" s="17" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" ref="AD123:AD133" si="586">IF((U123+X123)&lt;($J$4/2),"低",IF((U123+X123)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE123" s="17" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" ref="AE123:AE133" si="587">IF((V123+Y123)&lt;($J$4/2),"低",IF((V123+Y123)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AF123" s="17" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" ref="AF123:AF133" si="588">IF((W123+Z123)&lt;($J$4/2),"低",IF((W123+Z123)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG123" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" ref="AG123:AG133" si="589">IF((X123+AA123)&lt;($J$4/2),"低",IF((X123+AA123)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AH123" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" ref="AH123:AH133" si="590">IF((Y123+AB123)&lt;($J$4/2),"低",IF((Y123+AB123)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AI123" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" ref="AI123:AI133" si="591">IF((Z123+AC123)&lt;($J$4/2),"低",IF((Z123+AC123)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
     </row>
     <row r="124" spans="1:35">
       <c r="L124" s="14">
-        <f t="shared" ref="L124:L134" si="592">E124*I124</f>
+        <f t="shared" si="568"/>
         <v>0</v>
       </c>
       <c r="M124" s="14">
-        <f t="shared" ref="M124:M134" si="593">E124*J124</f>
+        <f t="shared" si="569"/>
         <v>0</v>
       </c>
       <c r="N124" s="14">
-        <f t="shared" ref="N124:N134" si="594">E124*K124</f>
+        <f t="shared" si="570"/>
         <v>0</v>
       </c>
       <c r="O124" s="15">
-        <f t="shared" ref="O124:O134" si="595">F124*I124</f>
+        <f t="shared" si="571"/>
         <v>0</v>
       </c>
       <c r="P124" s="15">
-        <f t="shared" ref="P124:P134" si="596">F124*J124</f>
+        <f t="shared" si="572"/>
         <v>0</v>
       </c>
       <c r="Q124" s="15">
-        <f t="shared" ref="Q124:Q134" si="597">F124*K124</f>
+        <f t="shared" si="573"/>
         <v>0</v>
       </c>
       <c r="R124" s="19">
-        <f t="shared" ref="R124:R134" si="598">H124*I124</f>
+        <f t="shared" si="574"/>
         <v>0</v>
       </c>
       <c r="S124" s="19">
-        <f t="shared" ref="S124:S134" si="599">H124*J124</f>
+        <f t="shared" si="575"/>
         <v>0</v>
       </c>
       <c r="T124" s="19">
-        <f t="shared" ref="T124:T134" si="600">H124*K124</f>
+        <f t="shared" si="576"/>
         <v>0</v>
       </c>
       <c r="U124" s="18">
-        <f t="shared" ref="U124:U134" si="601">L124*$G$3/$E$3</f>
+        <f t="shared" si="577"/>
         <v>0</v>
       </c>
       <c r="V124" s="18">
-        <f t="shared" ref="V124:V134" si="602">M124*$G$3/$E$3</f>
+        <f t="shared" si="578"/>
         <v>0</v>
       </c>
       <c r="W124" s="18">
-        <f t="shared" ref="W124:W134" si="603">N124*$G$3/$E$3</f>
+        <f t="shared" si="579"/>
         <v>0</v>
       </c>
       <c r="X124" s="20">
-        <f t="shared" ref="X124:X134" si="604">R124*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="580"/>
         <v>0</v>
       </c>
       <c r="Y124" s="20">
-        <f t="shared" ref="Y124:Y134" si="605">S124*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="581"/>
         <v>0</v>
       </c>
       <c r="Z124" s="20">
-        <f t="shared" ref="Z124:Z134" si="606">T124*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="582"/>
         <v>0</v>
       </c>
       <c r="AA124" s="16">
-        <f t="shared" ref="AA124:AA134" si="607">O124*$G$3/$E$3</f>
+        <f t="shared" si="583"/>
         <v>0</v>
       </c>
       <c r="AB124" s="16">
-        <f t="shared" ref="AB124:AB134" si="608">P124*$G$3/$E$3</f>
+        <f t="shared" si="584"/>
         <v>0</v>
       </c>
       <c r="AC124" s="16">
-        <f t="shared" ref="AC124:AC134" si="609">Q124*$G$3/$E$3</f>
+        <f t="shared" si="585"/>
         <v>0</v>
       </c>
       <c r="AD124" s="17" t="str">
-        <f t="shared" ref="AD124:AD134" si="610">IF((U124+X124)&lt;($J$4/2),"低",IF((U124+X124)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="586"/>
         <v>低</v>
       </c>
       <c r="AE124" s="17" t="str">
-        <f t="shared" ref="AE124:AE134" si="611">IF((V124+Y124)&lt;($J$4/2),"低",IF((V124+Y124)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="587"/>
         <v>低</v>
       </c>
       <c r="AF124" s="17" t="str">
-        <f t="shared" ref="AF124:AF134" si="612">IF((W124+Z124)&lt;($J$4/2),"低",IF((W124+Z124)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="588"/>
         <v>低</v>
       </c>
       <c r="AG124" s="15" t="str">
-        <f t="shared" ref="AG124:AG134" si="613">IF((X124+AA124)&lt;($J$4/2),"低",IF((X124+AA124)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="589"/>
         <v>低</v>
       </c>
       <c r="AH124" s="15" t="str">
-        <f t="shared" ref="AH124:AH134" si="614">IF((Y124+AB124)&lt;($J$4/2),"低",IF((Y124+AB124)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="590"/>
         <v>低</v>
       </c>
       <c r="AI124" s="15" t="str">
-        <f t="shared" ref="AI124:AI134" si="615">IF((Z124+AC124)&lt;($J$4/2),"低",IF((Z124+AC124)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
     <row r="125" spans="1:35">
       <c r="L125" s="14">
-        <f t="shared" si="592"/>
+        <f t="shared" si="568"/>
         <v>0</v>
       </c>
       <c r="M125" s="14">
-        <f t="shared" si="593"/>
+        <f t="shared" si="569"/>
         <v>0</v>
       </c>
       <c r="N125" s="14">
-        <f t="shared" si="594"/>
+        <f t="shared" si="570"/>
         <v>0</v>
       </c>
       <c r="O125" s="15">
-        <f t="shared" si="595"/>
+        <f t="shared" si="571"/>
         <v>0</v>
       </c>
       <c r="P125" s="15">
-        <f t="shared" si="596"/>
+        <f t="shared" si="572"/>
         <v>0</v>
       </c>
       <c r="Q125" s="15">
-        <f t="shared" si="597"/>
+        <f t="shared" si="573"/>
         <v>0</v>
       </c>
       <c r="R125" s="19">
-        <f t="shared" si="598"/>
+        <f t="shared" si="574"/>
         <v>0</v>
       </c>
       <c r="S125" s="19">
-        <f t="shared" si="599"/>
+        <f t="shared" si="575"/>
         <v>0</v>
       </c>
       <c r="T125" s="19">
-        <f t="shared" si="600"/>
+        <f t="shared" si="576"/>
         <v>0</v>
       </c>
       <c r="U125" s="18">
-        <f t="shared" si="601"/>
+        <f t="shared" si="577"/>
         <v>0</v>
       </c>
       <c r="V125" s="18">
-        <f t="shared" si="602"/>
+        <f t="shared" si="578"/>
         <v>0</v>
       </c>
       <c r="W125" s="18">
-        <f t="shared" si="603"/>
+        <f t="shared" si="579"/>
         <v>0</v>
       </c>
       <c r="X125" s="20">
-        <f t="shared" si="604"/>
+        <f t="shared" si="580"/>
         <v>0</v>
       </c>
       <c r="Y125" s="20">
-        <f t="shared" si="605"/>
+        <f t="shared" si="581"/>
         <v>0</v>
       </c>
       <c r="Z125" s="20">
-        <f t="shared" si="606"/>
+        <f t="shared" si="582"/>
         <v>0</v>
       </c>
       <c r="AA125" s="16">
-        <f t="shared" si="607"/>
+        <f t="shared" si="583"/>
         <v>0</v>
       </c>
       <c r="AB125" s="16">
-        <f t="shared" si="608"/>
+        <f t="shared" si="584"/>
         <v>0</v>
       </c>
       <c r="AC125" s="16">
-        <f t="shared" si="609"/>
+        <f t="shared" si="585"/>
         <v>0</v>
       </c>
       <c r="AD125" s="17" t="str">
-        <f t="shared" si="610"/>
+        <f t="shared" si="586"/>
         <v>低</v>
       </c>
       <c r="AE125" s="17" t="str">
-        <f t="shared" si="611"/>
+        <f t="shared" si="587"/>
         <v>低</v>
       </c>
       <c r="AF125" s="17" t="str">
-        <f t="shared" si="612"/>
+        <f t="shared" si="588"/>
         <v>低</v>
       </c>
       <c r="AG125" s="15" t="str">
-        <f t="shared" si="613"/>
+        <f t="shared" si="589"/>
         <v>低</v>
       </c>
       <c r="AH125" s="15" t="str">
-        <f t="shared" si="614"/>
+        <f t="shared" si="590"/>
         <v>低</v>
       </c>
       <c r="AI125" s="15" t="str">
-        <f t="shared" si="615"/>
+        <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
     <row r="126" spans="1:35">
       <c r="L126" s="14">
-        <f t="shared" si="592"/>
+        <f t="shared" si="568"/>
         <v>0</v>
       </c>
       <c r="M126" s="14">
-        <f t="shared" si="593"/>
+        <f t="shared" si="569"/>
         <v>0</v>
       </c>
       <c r="N126" s="14">
-        <f t="shared" si="594"/>
+        <f t="shared" si="570"/>
         <v>0</v>
       </c>
       <c r="O126" s="15">
-        <f t="shared" si="595"/>
+        <f t="shared" si="571"/>
         <v>0</v>
       </c>
       <c r="P126" s="15">
-        <f t="shared" si="596"/>
+        <f t="shared" si="572"/>
         <v>0</v>
       </c>
       <c r="Q126" s="15">
-        <f t="shared" si="597"/>
+        <f t="shared" si="573"/>
         <v>0</v>
       </c>
       <c r="R126" s="19">
-        <f t="shared" si="598"/>
+        <f t="shared" si="574"/>
         <v>0</v>
       </c>
       <c r="S126" s="19">
-        <f t="shared" si="599"/>
+        <f t="shared" si="575"/>
         <v>0</v>
       </c>
       <c r="T126" s="19">
-        <f t="shared" si="600"/>
+        <f t="shared" si="576"/>
         <v>0</v>
       </c>
       <c r="U126" s="18">
-        <f t="shared" si="601"/>
+        <f t="shared" si="577"/>
         <v>0</v>
       </c>
       <c r="V126" s="18">
-        <f t="shared" si="602"/>
+        <f t="shared" si="578"/>
         <v>0</v>
       </c>
       <c r="W126" s="18">
-        <f t="shared" si="603"/>
+        <f t="shared" si="579"/>
         <v>0</v>
       </c>
       <c r="X126" s="20">
-        <f t="shared" si="604"/>
+        <f t="shared" si="580"/>
         <v>0</v>
       </c>
       <c r="Y126" s="20">
-        <f t="shared" si="605"/>
+        <f t="shared" si="581"/>
         <v>0</v>
       </c>
       <c r="Z126" s="20">
-        <f t="shared" si="606"/>
+        <f t="shared" si="582"/>
         <v>0</v>
       </c>
       <c r="AA126" s="16">
-        <f t="shared" si="607"/>
+        <f t="shared" si="583"/>
         <v>0</v>
       </c>
       <c r="AB126" s="16">
-        <f t="shared" si="608"/>
+        <f t="shared" si="584"/>
         <v>0</v>
       </c>
       <c r="AC126" s="16">
-        <f t="shared" si="609"/>
+        <f t="shared" si="585"/>
         <v>0</v>
       </c>
       <c r="AD126" s="17" t="str">
-        <f t="shared" si="610"/>
+        <f t="shared" si="586"/>
         <v>低</v>
       </c>
       <c r="AE126" s="17" t="str">
-        <f t="shared" si="611"/>
+        <f t="shared" si="587"/>
         <v>低</v>
       </c>
       <c r="AF126" s="17" t="str">
-        <f t="shared" si="612"/>
+        <f t="shared" si="588"/>
         <v>低</v>
       </c>
       <c r="AG126" s="15" t="str">
-        <f t="shared" si="613"/>
+        <f t="shared" si="589"/>
         <v>低</v>
       </c>
       <c r="AH126" s="15" t="str">
-        <f t="shared" si="614"/>
+        <f t="shared" si="590"/>
         <v>低</v>
       </c>
       <c r="AI126" s="15" t="str">
-        <f t="shared" si="615"/>
+        <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
     <row r="127" spans="1:35">
       <c r="L127" s="14">
-        <f t="shared" si="592"/>
+        <f t="shared" si="568"/>
         <v>0</v>
       </c>
       <c r="M127" s="14">
-        <f t="shared" si="593"/>
+        <f t="shared" si="569"/>
         <v>0</v>
       </c>
       <c r="N127" s="14">
-        <f t="shared" si="594"/>
+        <f t="shared" si="570"/>
         <v>0</v>
       </c>
       <c r="O127" s="15">
-        <f t="shared" si="595"/>
+        <f t="shared" si="571"/>
         <v>0</v>
       </c>
       <c r="P127" s="15">
-        <f t="shared" si="596"/>
+        <f t="shared" si="572"/>
         <v>0</v>
       </c>
       <c r="Q127" s="15">
-        <f t="shared" si="597"/>
+        <f t="shared" si="573"/>
         <v>0</v>
       </c>
       <c r="R127" s="19">
-        <f t="shared" si="598"/>
+        <f t="shared" si="574"/>
         <v>0</v>
       </c>
       <c r="S127" s="19">
-        <f t="shared" si="599"/>
+        <f t="shared" si="575"/>
         <v>0</v>
       </c>
       <c r="T127" s="19">
-        <f t="shared" si="600"/>
+        <f t="shared" si="576"/>
         <v>0</v>
       </c>
       <c r="U127" s="18">
-        <f t="shared" si="601"/>
+        <f t="shared" si="577"/>
         <v>0</v>
       </c>
       <c r="V127" s="18">
-        <f t="shared" si="602"/>
+        <f t="shared" si="578"/>
         <v>0</v>
       </c>
       <c r="W127" s="18">
-        <f t="shared" si="603"/>
+        <f t="shared" si="579"/>
         <v>0</v>
       </c>
       <c r="X127" s="20">
-        <f t="shared" si="604"/>
+        <f t="shared" si="580"/>
         <v>0</v>
       </c>
       <c r="Y127" s="20">
-        <f t="shared" si="605"/>
+        <f t="shared" si="581"/>
         <v>0</v>
       </c>
       <c r="Z127" s="20">
-        <f t="shared" si="606"/>
+        <f t="shared" si="582"/>
         <v>0</v>
       </c>
       <c r="AA127" s="16">
-        <f t="shared" si="607"/>
+        <f t="shared" si="583"/>
         <v>0</v>
       </c>
       <c r="AB127" s="16">
-        <f t="shared" si="608"/>
+        <f t="shared" si="584"/>
         <v>0</v>
       </c>
       <c r="AC127" s="16">
-        <f t="shared" si="609"/>
+        <f t="shared" si="585"/>
         <v>0</v>
       </c>
       <c r="AD127" s="17" t="str">
-        <f t="shared" si="610"/>
+        <f t="shared" si="586"/>
         <v>低</v>
       </c>
       <c r="AE127" s="17" t="str">
-        <f t="shared" si="611"/>
+        <f t="shared" si="587"/>
         <v>低</v>
       </c>
       <c r="AF127" s="17" t="str">
-        <f t="shared" si="612"/>
+        <f t="shared" si="588"/>
         <v>低</v>
       </c>
       <c r="AG127" s="15" t="str">
-        <f t="shared" si="613"/>
+        <f t="shared" si="589"/>
         <v>低</v>
       </c>
       <c r="AH127" s="15" t="str">
-        <f t="shared" si="614"/>
+        <f t="shared" si="590"/>
         <v>低</v>
       </c>
       <c r="AI127" s="15" t="str">
-        <f t="shared" si="615"/>
+        <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
     <row r="128" spans="1:35">
       <c r="L128" s="14">
-        <f t="shared" si="592"/>
+        <f t="shared" si="568"/>
         <v>0</v>
       </c>
       <c r="M128" s="14">
-        <f t="shared" si="593"/>
+        <f t="shared" si="569"/>
         <v>0</v>
       </c>
       <c r="N128" s="14">
-        <f t="shared" si="594"/>
+        <f t="shared" si="570"/>
         <v>0</v>
       </c>
       <c r="O128" s="15">
-        <f t="shared" si="595"/>
+        <f t="shared" si="571"/>
         <v>0</v>
       </c>
       <c r="P128" s="15">
-        <f t="shared" si="596"/>
+        <f t="shared" si="572"/>
         <v>0</v>
       </c>
       <c r="Q128" s="15">
-        <f t="shared" si="597"/>
+        <f t="shared" si="573"/>
         <v>0</v>
       </c>
       <c r="R128" s="19">
-        <f t="shared" si="598"/>
+        <f t="shared" si="574"/>
         <v>0</v>
       </c>
       <c r="S128" s="19">
-        <f t="shared" si="599"/>
+        <f t="shared" si="575"/>
         <v>0</v>
       </c>
       <c r="T128" s="19">
-        <f t="shared" si="600"/>
+        <f t="shared" si="576"/>
         <v>0</v>
       </c>
       <c r="U128" s="18">
-        <f t="shared" si="601"/>
+        <f t="shared" si="577"/>
         <v>0</v>
       </c>
       <c r="V128" s="18">
-        <f t="shared" si="602"/>
+        <f t="shared" si="578"/>
         <v>0</v>
       </c>
       <c r="W128" s="18">
-        <f t="shared" si="603"/>
+        <f t="shared" si="579"/>
         <v>0</v>
       </c>
       <c r="X128" s="20">
-        <f t="shared" si="604"/>
+        <f t="shared" si="580"/>
         <v>0</v>
       </c>
       <c r="Y128" s="20">
-        <f t="shared" si="605"/>
+        <f t="shared" si="581"/>
         <v>0</v>
       </c>
       <c r="Z128" s="20">
-        <f t="shared" si="606"/>
+        <f t="shared" si="582"/>
         <v>0</v>
       </c>
       <c r="AA128" s="16">
-        <f t="shared" si="607"/>
+        <f t="shared" si="583"/>
         <v>0</v>
       </c>
       <c r="AB128" s="16">
-        <f t="shared" si="608"/>
+        <f t="shared" si="584"/>
         <v>0</v>
       </c>
       <c r="AC128" s="16">
-        <f t="shared" si="609"/>
+        <f t="shared" si="585"/>
         <v>0</v>
       </c>
       <c r="AD128" s="17" t="str">
-        <f t="shared" si="610"/>
+        <f t="shared" si="586"/>
         <v>低</v>
       </c>
       <c r="AE128" s="17" t="str">
-        <f t="shared" si="611"/>
+        <f t="shared" si="587"/>
         <v>低</v>
       </c>
       <c r="AF128" s="17" t="str">
-        <f t="shared" si="612"/>
+        <f t="shared" si="588"/>
         <v>低</v>
       </c>
       <c r="AG128" s="15" t="str">
-        <f t="shared" si="613"/>
+        <f t="shared" si="589"/>
         <v>低</v>
       </c>
       <c r="AH128" s="15" t="str">
-        <f t="shared" si="614"/>
+        <f t="shared" si="590"/>
         <v>低</v>
       </c>
       <c r="AI128" s="15" t="str">
-        <f t="shared" si="615"/>
+        <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
     <row r="129" spans="12:35">
       <c r="L129" s="14">
-        <f t="shared" si="592"/>
+        <f t="shared" si="568"/>
         <v>0</v>
       </c>
       <c r="M129" s="14">
-        <f t="shared" si="593"/>
+        <f t="shared" si="569"/>
         <v>0</v>
       </c>
       <c r="N129" s="14">
-        <f t="shared" si="594"/>
+        <f t="shared" si="570"/>
         <v>0</v>
       </c>
       <c r="O129" s="15">
-        <f t="shared" si="595"/>
+        <f t="shared" si="571"/>
         <v>0</v>
       </c>
       <c r="P129" s="15">
-        <f t="shared" si="596"/>
+        <f t="shared" si="572"/>
         <v>0</v>
       </c>
       <c r="Q129" s="15">
-        <f t="shared" si="597"/>
+        <f t="shared" si="573"/>
         <v>0</v>
       </c>
       <c r="R129" s="19">
-        <f t="shared" si="598"/>
+        <f t="shared" si="574"/>
         <v>0</v>
       </c>
       <c r="S129" s="19">
-        <f t="shared" si="599"/>
+        <f t="shared" si="575"/>
         <v>0</v>
       </c>
       <c r="T129" s="19">
-        <f t="shared" si="600"/>
+        <f t="shared" si="576"/>
         <v>0</v>
       </c>
       <c r="U129" s="18">
-        <f t="shared" si="601"/>
+        <f t="shared" si="577"/>
         <v>0</v>
       </c>
       <c r="V129" s="18">
-        <f t="shared" si="602"/>
+        <f t="shared" si="578"/>
         <v>0</v>
       </c>
       <c r="W129" s="18">
-        <f t="shared" si="603"/>
+        <f t="shared" si="579"/>
         <v>0</v>
       </c>
       <c r="X129" s="20">
-        <f t="shared" si="604"/>
+        <f t="shared" si="580"/>
         <v>0</v>
       </c>
       <c r="Y129" s="20">
-        <f t="shared" si="605"/>
+        <f t="shared" si="581"/>
         <v>0</v>
       </c>
       <c r="Z129" s="20">
-        <f t="shared" si="606"/>
+        <f t="shared" si="582"/>
         <v>0</v>
       </c>
       <c r="AA129" s="16">
-        <f t="shared" si="607"/>
+        <f t="shared" si="583"/>
         <v>0</v>
       </c>
       <c r="AB129" s="16">
-        <f t="shared" si="608"/>
+        <f t="shared" si="584"/>
         <v>0</v>
       </c>
       <c r="AC129" s="16">
-        <f t="shared" si="609"/>
+        <f t="shared" si="585"/>
         <v>0</v>
       </c>
       <c r="AD129" s="17" t="str">
-        <f t="shared" si="610"/>
+        <f t="shared" si="586"/>
         <v>低</v>
       </c>
       <c r="AE129" s="17" t="str">
-        <f t="shared" si="611"/>
+        <f t="shared" si="587"/>
         <v>低</v>
       </c>
       <c r="AF129" s="17" t="str">
-        <f t="shared" si="612"/>
+        <f t="shared" si="588"/>
         <v>低</v>
       </c>
       <c r="AG129" s="15" t="str">
-        <f t="shared" si="613"/>
+        <f t="shared" si="589"/>
         <v>低</v>
       </c>
       <c r="AH129" s="15" t="str">
-        <f t="shared" si="614"/>
+        <f t="shared" si="590"/>
         <v>低</v>
       </c>
       <c r="AI129" s="15" t="str">
-        <f t="shared" si="615"/>
+        <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
     <row r="130" spans="12:35">
       <c r="L130" s="14">
-        <f t="shared" si="592"/>
+        <f t="shared" si="568"/>
         <v>0</v>
       </c>
       <c r="M130" s="14">
-        <f t="shared" si="593"/>
+        <f t="shared" si="569"/>
         <v>0</v>
       </c>
       <c r="N130" s="14">
-        <f t="shared" si="594"/>
+        <f t="shared" si="570"/>
         <v>0</v>
       </c>
       <c r="O130" s="15">
-        <f t="shared" si="595"/>
+        <f t="shared" si="571"/>
         <v>0</v>
       </c>
       <c r="P130" s="15">
-        <f t="shared" si="596"/>
+        <f t="shared" si="572"/>
         <v>0</v>
       </c>
       <c r="Q130" s="15">
-        <f t="shared" si="597"/>
+        <f t="shared" si="573"/>
         <v>0</v>
       </c>
       <c r="R130" s="19">
-        <f t="shared" si="598"/>
+        <f t="shared" si="574"/>
         <v>0</v>
       </c>
       <c r="S130" s="19">
-        <f t="shared" si="599"/>
+        <f t="shared" si="575"/>
         <v>0</v>
       </c>
       <c r="T130" s="19">
-        <f t="shared" si="600"/>
+        <f t="shared" si="576"/>
         <v>0</v>
       </c>
       <c r="U130" s="18">
-        <f t="shared" si="601"/>
+        <f t="shared" si="577"/>
         <v>0</v>
       </c>
       <c r="V130" s="18">
-        <f t="shared" si="602"/>
+        <f t="shared" si="578"/>
         <v>0</v>
       </c>
       <c r="W130" s="18">
-        <f t="shared" si="603"/>
+        <f t="shared" si="579"/>
         <v>0</v>
       </c>
       <c r="X130" s="20">
-        <f t="shared" si="604"/>
+        <f t="shared" si="580"/>
         <v>0</v>
       </c>
       <c r="Y130" s="20">
-        <f t="shared" si="605"/>
+        <f t="shared" si="581"/>
         <v>0</v>
       </c>
       <c r="Z130" s="20">
-        <f t="shared" si="606"/>
+        <f t="shared" si="582"/>
         <v>0</v>
       </c>
       <c r="AA130" s="16">
-        <f t="shared" si="607"/>
+        <f t="shared" si="583"/>
         <v>0</v>
       </c>
       <c r="AB130" s="16">
-        <f t="shared" si="608"/>
+        <f t="shared" si="584"/>
         <v>0</v>
       </c>
       <c r="AC130" s="16">
-        <f t="shared" si="609"/>
+        <f t="shared" si="585"/>
         <v>0</v>
       </c>
       <c r="AD130" s="17" t="str">
-        <f t="shared" si="610"/>
+        <f t="shared" si="586"/>
         <v>低</v>
       </c>
       <c r="AE130" s="17" t="str">
-        <f t="shared" si="611"/>
+        <f t="shared" si="587"/>
         <v>低</v>
       </c>
       <c r="AF130" s="17" t="str">
-        <f t="shared" si="612"/>
+        <f t="shared" si="588"/>
         <v>低</v>
       </c>
       <c r="AG130" s="15" t="str">
-        <f t="shared" si="613"/>
+        <f t="shared" si="589"/>
         <v>低</v>
       </c>
       <c r="AH130" s="15" t="str">
-        <f t="shared" si="614"/>
+        <f t="shared" si="590"/>
         <v>低</v>
       </c>
       <c r="AI130" s="15" t="str">
-        <f t="shared" si="615"/>
+        <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
     <row r="131" spans="12:35">
       <c r="L131" s="14">
-        <f t="shared" si="592"/>
+        <f t="shared" si="568"/>
         <v>0</v>
       </c>
       <c r="M131" s="14">
-        <f t="shared" si="593"/>
+        <f t="shared" si="569"/>
         <v>0</v>
       </c>
       <c r="N131" s="14">
-        <f t="shared" si="594"/>
+        <f t="shared" si="570"/>
         <v>0</v>
       </c>
       <c r="O131" s="15">
-        <f t="shared" si="595"/>
+        <f t="shared" si="571"/>
         <v>0</v>
       </c>
       <c r="P131" s="15">
-        <f t="shared" si="596"/>
+        <f t="shared" si="572"/>
         <v>0</v>
       </c>
       <c r="Q131" s="15">
-        <f t="shared" si="597"/>
+        <f t="shared" si="573"/>
         <v>0</v>
       </c>
       <c r="R131" s="19">
-        <f t="shared" si="598"/>
+        <f t="shared" si="574"/>
         <v>0</v>
       </c>
       <c r="S131" s="19">
-        <f t="shared" si="599"/>
+        <f t="shared" si="575"/>
         <v>0</v>
       </c>
       <c r="T131" s="19">
-        <f t="shared" si="600"/>
+        <f t="shared" si="576"/>
         <v>0</v>
       </c>
       <c r="U131" s="18">
-        <f t="shared" si="601"/>
+        <f t="shared" si="577"/>
         <v>0</v>
       </c>
       <c r="V131" s="18">
-        <f t="shared" si="602"/>
+        <f t="shared" si="578"/>
         <v>0</v>
       </c>
       <c r="W131" s="18">
-        <f t="shared" si="603"/>
+        <f t="shared" si="579"/>
         <v>0</v>
       </c>
       <c r="X131" s="20">
-        <f t="shared" si="604"/>
+        <f t="shared" si="580"/>
         <v>0</v>
       </c>
       <c r="Y131" s="20">
-        <f t="shared" si="605"/>
+        <f t="shared" si="581"/>
         <v>0</v>
       </c>
       <c r="Z131" s="20">
-        <f t="shared" si="606"/>
+        <f t="shared" si="582"/>
         <v>0</v>
       </c>
       <c r="AA131" s="16">
-        <f t="shared" si="607"/>
+        <f t="shared" si="583"/>
         <v>0</v>
       </c>
       <c r="AB131" s="16">
-        <f t="shared" si="608"/>
+        <f t="shared" si="584"/>
         <v>0</v>
       </c>
       <c r="AC131" s="16">
-        <f t="shared" si="609"/>
+        <f t="shared" si="585"/>
         <v>0</v>
       </c>
       <c r="AD131" s="17" t="str">
-        <f t="shared" si="610"/>
+        <f t="shared" si="586"/>
         <v>低</v>
       </c>
       <c r="AE131" s="17" t="str">
-        <f t="shared" si="611"/>
+        <f t="shared" si="587"/>
         <v>低</v>
       </c>
       <c r="AF131" s="17" t="str">
-        <f t="shared" si="612"/>
+        <f t="shared" si="588"/>
         <v>低</v>
       </c>
       <c r="AG131" s="15" t="str">
-        <f t="shared" si="613"/>
+        <f t="shared" si="589"/>
         <v>低</v>
       </c>
       <c r="AH131" s="15" t="str">
-        <f t="shared" si="614"/>
+        <f t="shared" si="590"/>
         <v>低</v>
       </c>
       <c r="AI131" s="15" t="str">
-        <f t="shared" si="615"/>
+        <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
     <row r="132" spans="12:35">
       <c r="L132" s="14">
-        <f t="shared" si="592"/>
+        <f t="shared" si="568"/>
         <v>0</v>
       </c>
       <c r="M132" s="14">
-        <f t="shared" si="593"/>
+        <f t="shared" si="569"/>
         <v>0</v>
       </c>
       <c r="N132" s="14">
-        <f t="shared" si="594"/>
+        <f t="shared" si="570"/>
         <v>0</v>
       </c>
       <c r="O132" s="15">
-        <f t="shared" si="595"/>
+        <f t="shared" si="571"/>
         <v>0</v>
       </c>
       <c r="P132" s="15">
-        <f t="shared" si="596"/>
+        <f t="shared" si="572"/>
         <v>0</v>
       </c>
       <c r="Q132" s="15">
-        <f t="shared" si="597"/>
+        <f t="shared" si="573"/>
         <v>0</v>
       </c>
       <c r="R132" s="19">
-        <f t="shared" si="598"/>
+        <f t="shared" si="574"/>
         <v>0</v>
       </c>
       <c r="S132" s="19">
-        <f t="shared" si="599"/>
+        <f t="shared" si="575"/>
         <v>0</v>
       </c>
       <c r="T132" s="19">
-        <f t="shared" si="600"/>
+        <f t="shared" si="576"/>
         <v>0</v>
       </c>
       <c r="U132" s="18">
-        <f t="shared" si="601"/>
+        <f t="shared" si="577"/>
         <v>0</v>
       </c>
       <c r="V132" s="18">
-        <f t="shared" si="602"/>
+        <f t="shared" si="578"/>
         <v>0</v>
       </c>
       <c r="W132" s="18">
-        <f t="shared" si="603"/>
+        <f t="shared" si="579"/>
         <v>0</v>
       </c>
       <c r="X132" s="20">
-        <f t="shared" si="604"/>
+        <f t="shared" si="580"/>
         <v>0</v>
       </c>
       <c r="Y132" s="20">
-        <f t="shared" si="605"/>
+        <f t="shared" si="581"/>
         <v>0</v>
       </c>
       <c r="Z132" s="20">
-        <f t="shared" si="606"/>
+        <f t="shared" si="582"/>
         <v>0</v>
       </c>
       <c r="AA132" s="16">
-        <f t="shared" si="607"/>
+        <f t="shared" si="583"/>
         <v>0</v>
       </c>
       <c r="AB132" s="16">
-        <f t="shared" si="608"/>
+        <f t="shared" si="584"/>
         <v>0</v>
       </c>
       <c r="AC132" s="16">
-        <f t="shared" si="609"/>
+        <f t="shared" si="585"/>
         <v>0</v>
       </c>
       <c r="AD132" s="17" t="str">
-        <f t="shared" si="610"/>
+        <f t="shared" si="586"/>
         <v>低</v>
       </c>
       <c r="AE132" s="17" t="str">
-        <f t="shared" si="611"/>
+        <f t="shared" si="587"/>
         <v>低</v>
       </c>
       <c r="AF132" s="17" t="str">
-        <f t="shared" si="612"/>
+        <f t="shared" si="588"/>
         <v>低</v>
       </c>
       <c r="AG132" s="15" t="str">
-        <f t="shared" si="613"/>
+        <f t="shared" si="589"/>
         <v>低</v>
       </c>
       <c r="AH132" s="15" t="str">
-        <f t="shared" si="614"/>
+        <f t="shared" si="590"/>
         <v>低</v>
       </c>
       <c r="AI132" s="15" t="str">
-        <f t="shared" si="615"/>
+        <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
     <row r="133" spans="12:35">
       <c r="L133" s="14">
-        <f t="shared" si="592"/>
+        <f t="shared" si="568"/>
         <v>0</v>
       </c>
       <c r="M133" s="14">
-        <f t="shared" si="593"/>
+        <f t="shared" si="569"/>
         <v>0</v>
       </c>
       <c r="N133" s="14">
-        <f t="shared" si="594"/>
+        <f t="shared" si="570"/>
         <v>0</v>
       </c>
       <c r="O133" s="15">
-        <f t="shared" si="595"/>
+        <f t="shared" si="571"/>
         <v>0</v>
       </c>
       <c r="P133" s="15">
-        <f t="shared" si="596"/>
+        <f t="shared" si="572"/>
         <v>0</v>
       </c>
       <c r="Q133" s="15">
-        <f t="shared" si="597"/>
+        <f t="shared" si="573"/>
         <v>0</v>
       </c>
       <c r="R133" s="19">
-        <f t="shared" si="598"/>
+        <f t="shared" si="574"/>
         <v>0</v>
       </c>
       <c r="S133" s="19">
-        <f t="shared" si="599"/>
+        <f t="shared" si="575"/>
         <v>0</v>
       </c>
       <c r="T133" s="19">
-        <f t="shared" si="600"/>
+        <f t="shared" si="576"/>
         <v>0</v>
       </c>
       <c r="U133" s="18">
-        <f t="shared" si="601"/>
+        <f t="shared" si="577"/>
         <v>0</v>
       </c>
       <c r="V133" s="18">
-        <f t="shared" si="602"/>
+        <f t="shared" si="578"/>
         <v>0</v>
       </c>
       <c r="W133" s="18">
-        <f t="shared" si="603"/>
+        <f t="shared" si="579"/>
         <v>0</v>
       </c>
       <c r="X133" s="20">
-        <f t="shared" si="604"/>
+        <f t="shared" si="580"/>
         <v>0</v>
       </c>
       <c r="Y133" s="20">
-        <f t="shared" si="605"/>
+        <f t="shared" si="581"/>
         <v>0</v>
       </c>
       <c r="Z133" s="20">
-        <f t="shared" si="606"/>
+        <f t="shared" si="582"/>
         <v>0</v>
       </c>
       <c r="AA133" s="16">
-        <f t="shared" si="607"/>
+        <f t="shared" si="583"/>
         <v>0</v>
       </c>
       <c r="AB133" s="16">
-        <f t="shared" si="608"/>
+        <f t="shared" si="584"/>
         <v>0</v>
       </c>
       <c r="AC133" s="16">
-        <f t="shared" si="609"/>
+        <f t="shared" si="585"/>
         <v>0</v>
       </c>
       <c r="AD133" s="17" t="str">
-        <f t="shared" si="610"/>
+        <f t="shared" si="586"/>
         <v>低</v>
       </c>
       <c r="AE133" s="17" t="str">
-        <f t="shared" si="611"/>
+        <f t="shared" si="587"/>
         <v>低</v>
       </c>
       <c r="AF133" s="17" t="str">
-        <f t="shared" si="612"/>
+        <f t="shared" si="588"/>
         <v>低</v>
       </c>
       <c r="AG133" s="15" t="str">
-        <f t="shared" si="613"/>
+        <f t="shared" si="589"/>
         <v>低</v>
       </c>
       <c r="AH133" s="15" t="str">
-        <f t="shared" si="614"/>
+        <f t="shared" si="590"/>
         <v>低</v>
       </c>
       <c r="AI133" s="15" t="str">
-        <f t="shared" si="615"/>
+        <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
     <row r="134" spans="12:35">
-      <c r="L134" s="14">
-        <f t="shared" si="592"/>
-        <v>0</v>
-      </c>
-      <c r="M134" s="14">
-        <f t="shared" si="593"/>
-        <v>0</v>
-      </c>
-      <c r="N134" s="14">
-        <f t="shared" si="594"/>
-        <v>0</v>
-      </c>
-      <c r="O134" s="15">
-        <f t="shared" si="595"/>
-        <v>0</v>
-      </c>
-      <c r="P134" s="15">
-        <f t="shared" si="596"/>
-        <v>0</v>
-      </c>
-      <c r="Q134" s="15">
-        <f t="shared" si="597"/>
-        <v>0</v>
-      </c>
-      <c r="R134" s="19">
-        <f t="shared" si="598"/>
-        <v>0</v>
-      </c>
-      <c r="S134" s="19">
-        <f t="shared" si="599"/>
-        <v>0</v>
-      </c>
-      <c r="T134" s="19">
-        <f t="shared" si="600"/>
-        <v>0</v>
-      </c>
-      <c r="U134" s="18">
-        <f t="shared" si="601"/>
-        <v>0</v>
-      </c>
-      <c r="V134" s="18">
-        <f t="shared" si="602"/>
-        <v>0</v>
-      </c>
-      <c r="W134" s="18">
-        <f t="shared" si="603"/>
-        <v>0</v>
-      </c>
-      <c r="X134" s="20">
-        <f t="shared" si="604"/>
-        <v>0</v>
-      </c>
-      <c r="Y134" s="20">
-        <f t="shared" si="605"/>
-        <v>0</v>
-      </c>
-      <c r="Z134" s="20">
-        <f t="shared" si="606"/>
-        <v>0</v>
-      </c>
-      <c r="AA134" s="16">
-        <f t="shared" si="607"/>
-        <v>0</v>
-      </c>
-      <c r="AB134" s="16">
-        <f t="shared" si="608"/>
-        <v>0</v>
-      </c>
-      <c r="AC134" s="16">
-        <f t="shared" si="609"/>
-        <v>0</v>
-      </c>
-      <c r="AD134" s="17" t="str">
-        <f t="shared" si="610"/>
-        <v>低</v>
-      </c>
-      <c r="AE134" s="17" t="str">
-        <f t="shared" si="611"/>
-        <v>低</v>
-      </c>
-      <c r="AF134" s="17" t="str">
-        <f t="shared" si="612"/>
-        <v>低</v>
-      </c>
-      <c r="AG134" s="15" t="str">
-        <f t="shared" si="613"/>
-        <v>低</v>
-      </c>
-      <c r="AH134" s="15" t="str">
-        <f t="shared" si="614"/>
-        <v>低</v>
-      </c>
-      <c r="AI134" s="15" t="str">
-        <f t="shared" si="615"/>
-        <v>低</v>
-      </c>
+      <c r="U134" s="18"/>
+      <c r="V134" s="18"/>
+      <c r="W134" s="18"/>
+      <c r="X134" s="20"/>
+      <c r="Y134" s="20"/>
+      <c r="Z134" s="20"/>
+      <c r="AA134" s="16"/>
+      <c r="AB134" s="16"/>
+      <c r="AC134" s="16"/>
     </row>
     <row r="135" spans="12:35">
       <c r="U135" s="18"/>
@@ -19359,17 +19399,6 @@
       <c r="AA434" s="16"/>
       <c r="AB434" s="16"/>
       <c r="AC434" s="16"/>
-    </row>
-    <row r="435" spans="21:29">
-      <c r="U435" s="18"/>
-      <c r="V435" s="18"/>
-      <c r="W435" s="18"/>
-      <c r="X435" s="20"/>
-      <c r="Y435" s="20"/>
-      <c r="Z435" s="20"/>
-      <c r="AA435" s="16"/>
-      <c r="AB435" s="16"/>
-      <c r="AC435" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AA2E8B-7A77-407C-8ADD-D7B826338586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAE6FE9-3FA3-4333-B316-D5BB88459400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="220">
   <si>
     <t>英文名稱</t>
   </si>
@@ -886,6 +886,30 @@
   </si>
   <si>
     <t>機關槍火球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二連咬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三連咬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>墜地重擊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必殺咬合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拘束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰爆發</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1453,11 +1477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:AJ434"/>
+  <dimension ref="A2:AJ441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <pane ySplit="7" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4019,39 +4043,39 @@
         <v>0</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" ref="L26:L118" si="271">E26*I26</f>
+        <f t="shared" ref="L26:L125" si="271">E26*I26</f>
         <v>448</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" ref="M26:M118" si="272">E26*J26</f>
+        <f t="shared" ref="M26:M125" si="272">E26*J26</f>
         <v>672</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" ref="N26:N118" si="273">E26*K26</f>
+        <f t="shared" ref="N26:N125" si="273">E26*K26</f>
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" ref="O26:O118" si="274">F26*I26</f>
+        <f t="shared" ref="O26:O125" si="274">F26*I26</f>
         <v>602</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" ref="P26:P118" si="275">F26*J26</f>
+        <f t="shared" ref="P26:P125" si="275">F26*J26</f>
         <v>903</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" ref="Q26:Q118" si="276">F26*K26</f>
+        <f t="shared" ref="Q26:Q125" si="276">F26*K26</f>
         <v>0</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" ref="R26:R118" si="277">H26*I26</f>
+        <f t="shared" ref="R26:R125" si="277">H26*I26</f>
         <v>280</v>
       </c>
       <c r="S26" s="19">
-        <f t="shared" ref="S26:S118" si="278">H26*J26</f>
+        <f t="shared" ref="S26:S125" si="278">H26*J26</f>
         <v>420</v>
       </c>
       <c r="T26" s="19">
-        <f t="shared" ref="T26:T118" si="279">H26*K26</f>
+        <f t="shared" ref="T26:T125" si="279">H26*K26</f>
         <v>0</v>
       </c>
       <c r="U26" s="18">
@@ -4059,59 +4083,59 @@
         <v>0.22123456790123455</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" ref="V26:V118" si="280">M26*$G$3/$E$3</f>
+        <f t="shared" ref="V26:V125" si="280">M26*$G$3/$E$3</f>
         <v>0.33185185185185179</v>
       </c>
       <c r="W26" s="18">
-        <f t="shared" ref="W26:W118" si="281">N26*$G$3/$E$3</f>
+        <f t="shared" ref="W26:W125" si="281">N26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X26" s="20">
-        <f t="shared" ref="X26:X118" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="X26:X125" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.13827160493827159</v>
       </c>
       <c r="Y26" s="20">
-        <f t="shared" ref="Y26:Y118" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Y26:Y125" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.2074074074074074</v>
       </c>
       <c r="Z26" s="20">
-        <f t="shared" ref="Z26:Z118" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Z26:Z125" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA26" s="16">
-        <f t="shared" ref="AA26:AA118" si="285">O26*$G$3/$E$3</f>
+        <f t="shared" ref="AA26:AA125" si="285">O26*$G$3/$E$3</f>
         <v>0.29728395061728391</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" ref="AB26:AB118" si="286">P26*$G$3/$E$3</f>
+        <f t="shared" ref="AB26:AB125" si="286">P26*$G$3/$E$3</f>
         <v>0.44592592592592589</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" ref="AC26:AC118" si="287">Q26*$G$3/$E$3</f>
+        <f t="shared" ref="AC26:AC125" si="287">Q26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD26" s="17" t="str">
-        <f t="shared" ref="AD26:AD118" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD26:AD125" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AE26" s="17" t="str">
-        <f t="shared" ref="AE26:AE118" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AE26:AE125" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AF26" s="17" t="str">
-        <f t="shared" ref="AF26:AF118" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AF26:AF125" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG26" s="15" t="str">
-        <f t="shared" ref="AG26:AG118" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AG26:AG125" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AH26" s="15" t="str">
-        <f t="shared" ref="AH26:AH118" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AH26:AH125" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AI26" s="15" t="str">
-        <f t="shared" ref="AI26:AI118" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AI26:AI125" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AJ26" s="21"/>
@@ -4187,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" ref="U27:W119" si="294">L27*$G$3/$E$3</f>
+        <f t="shared" ref="U27:W126" si="294">L27*$G$3/$E$3</f>
         <v>5.8074074074074084E-2</v>
       </c>
       <c r="V27" s="18">
@@ -8173,13 +8197,37 @@
       <c r="C59" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="D59" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" s="8">
+        <v>28</v>
+      </c>
+      <c r="F59" s="8">
+        <v>39</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" s="8">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="J59" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0</v>
+      </c>
       <c r="L59" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>254.79999999999998</v>
       </c>
       <c r="M59" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="N59" s="14">
         <f t="shared" si="273"/>
@@ -8187,11 +8235,11 @@
       </c>
       <c r="O59" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>354.9</v>
       </c>
       <c r="P59" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>409.5</v>
       </c>
       <c r="Q59" s="15">
         <f t="shared" si="276"/>
@@ -8211,11 +8259,11 @@
       </c>
       <c r="U59" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.12582716049382717</v>
       </c>
       <c r="V59" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.14518518518518517</v>
       </c>
       <c r="W59" s="18">
         <f t="shared" si="281"/>
@@ -8235,11 +8283,11 @@
       </c>
       <c r="AA59" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.17525925925925923</v>
       </c>
       <c r="AB59" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.20222222222222222</v>
       </c>
       <c r="AC59" s="16">
         <f t="shared" si="287"/>
@@ -8270,23 +8318,41 @@
         <v>低</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
-      <c r="A60" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>19</v>
+    <row r="60" spans="1:36" s="4" customFormat="1">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" s="8">
+        <v>48</v>
+      </c>
+      <c r="F60" s="8">
+        <v>67</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0</v>
+      </c>
+      <c r="I60" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="J60" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="K60" s="11">
+        <v>0</v>
       </c>
       <c r="L60" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>436.79999999999995</v>
       </c>
       <c r="M60" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="N60" s="14">
         <f t="shared" si="273"/>
@@ -8294,11 +8360,11 @@
       </c>
       <c r="O60" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>609.69999999999993</v>
       </c>
       <c r="P60" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>703.5</v>
       </c>
       <c r="Q60" s="15">
         <f t="shared" si="276"/>
@@ -8318,11 +8384,11 @@
       </c>
       <c r="U60" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.21570370370370365</v>
       </c>
       <c r="V60" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.24888888888888885</v>
       </c>
       <c r="W60" s="18">
         <f t="shared" si="281"/>
@@ -8342,11 +8408,11 @@
       </c>
       <c r="AA60" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.30108641975308637</v>
       </c>
       <c r="AB60" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.34740740740740739</v>
       </c>
       <c r="AC60" s="16">
         <f t="shared" si="287"/>
@@ -8358,7 +8424,7 @@
       </c>
       <c r="AE60" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF60" s="17" t="str">
         <f t="shared" si="290"/>
@@ -8366,34 +8432,53 @@
       </c>
       <c r="AG60" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH60" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI60" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="61" spans="1:36">
-      <c r="A61" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>20</v>
+      <c r="AJ60" s="21"/>
+    </row>
+    <row r="61" spans="1:36" s="4" customFormat="1">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="8">
+        <v>52</v>
+      </c>
+      <c r="F61" s="8">
+        <v>73</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H61" s="8">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="J61" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="K61" s="11">
+        <v>0</v>
       </c>
       <c r="L61" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>473.2</v>
       </c>
       <c r="M61" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="N61" s="14">
         <f t="shared" si="273"/>
@@ -8401,11 +8486,11 @@
       </c>
       <c r="O61" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>664.3</v>
       </c>
       <c r="P61" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>766.5</v>
       </c>
       <c r="Q61" s="15">
         <f t="shared" si="276"/>
@@ -8425,11 +8510,11 @@
       </c>
       <c r="U61" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.233679012345679</v>
       </c>
       <c r="V61" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.26962962962962961</v>
       </c>
       <c r="W61" s="18">
         <f t="shared" si="281"/>
@@ -8449,11 +8534,11 @@
       </c>
       <c r="AA61" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.32804938271604933</v>
       </c>
       <c r="AB61" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.37851851851851848</v>
       </c>
       <c r="AC61" s="16">
         <f t="shared" si="287"/>
@@ -8461,11 +8546,11 @@
       </c>
       <c r="AD61" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE61" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF61" s="17" t="str">
         <f t="shared" si="290"/>
@@ -8473,34 +8558,53 @@
       </c>
       <c r="AG61" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH61" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI61" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="62" spans="1:36">
-      <c r="A62" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>21</v>
+      <c r="AJ61" s="21"/>
+    </row>
+    <row r="62" spans="1:36" s="4" customFormat="1">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E62" s="8">
+        <v>40</v>
+      </c>
+      <c r="F62" s="8">
+        <v>56</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H62" s="8">
+        <v>0</v>
+      </c>
+      <c r="I62" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="J62" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="K62" s="11">
+        <v>0</v>
       </c>
       <c r="L62" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="M62" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="N62" s="14">
         <f t="shared" si="273"/>
@@ -8508,11 +8612,11 @@
       </c>
       <c r="O62" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>509.59999999999997</v>
       </c>
       <c r="P62" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="Q62" s="15">
         <f t="shared" si="276"/>
@@ -8532,11 +8636,11 @@
       </c>
       <c r="U62" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.17975308641975307</v>
       </c>
       <c r="V62" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.2074074074074074</v>
       </c>
       <c r="W62" s="18">
         <f t="shared" si="281"/>
@@ -8556,11 +8660,11 @@
       </c>
       <c r="AA62" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.25165432098765433</v>
       </c>
       <c r="AB62" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.29037037037037033</v>
       </c>
       <c r="AC62" s="16">
         <f t="shared" si="287"/>
@@ -8580,34 +8684,53 @@
       </c>
       <c r="AG62" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH62" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI62" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="63" spans="1:36">
-      <c r="A63" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>22</v>
+      <c r="AJ62" s="21"/>
+    </row>
+    <row r="63" spans="1:36" s="4" customFormat="1">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" s="8">
+        <v>65</v>
+      </c>
+      <c r="F63" s="8">
+        <v>90</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" s="8">
+        <v>0</v>
+      </c>
+      <c r="I63" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="J63" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="K63" s="11">
+        <v>0</v>
       </c>
       <c r="L63" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>591.5</v>
       </c>
       <c r="M63" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>682.5</v>
       </c>
       <c r="N63" s="14">
         <f t="shared" si="273"/>
@@ -8615,11 +8738,11 @@
       </c>
       <c r="O63" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="P63" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>945</v>
       </c>
       <c r="Q63" s="15">
         <f t="shared" si="276"/>
@@ -8639,11 +8762,11 @@
       </c>
       <c r="U63" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.29209876543209873</v>
       </c>
       <c r="V63" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.33703703703703702</v>
       </c>
       <c r="W63" s="18">
         <f t="shared" si="281"/>
@@ -8663,11 +8786,11 @@
       </c>
       <c r="AA63" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.40444444444444444</v>
       </c>
       <c r="AB63" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="AC63" s="16">
         <f t="shared" si="287"/>
@@ -8675,11 +8798,11 @@
       </c>
       <c r="AD63" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE63" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF63" s="17" t="str">
         <f t="shared" si="290"/>
@@ -8687,34 +8810,53 @@
       </c>
       <c r="AG63" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH63" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI63" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="64" spans="1:36">
-      <c r="A64" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>23</v>
+      <c r="AJ63" s="21"/>
+    </row>
+    <row r="64" spans="1:36" s="4" customFormat="1">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" s="8">
+        <v>40</v>
+      </c>
+      <c r="F64" s="8">
+        <v>56</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0</v>
+      </c>
+      <c r="I64" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="J64" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="K64" s="11">
+        <v>0</v>
       </c>
       <c r="L64" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="M64" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="N64" s="14">
         <f t="shared" si="273"/>
@@ -8722,11 +8864,11 @@
       </c>
       <c r="O64" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>509.59999999999997</v>
       </c>
       <c r="P64" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="Q64" s="15">
         <f t="shared" si="276"/>
@@ -8746,11 +8888,11 @@
       </c>
       <c r="U64" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.17975308641975307</v>
       </c>
       <c r="V64" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.2074074074074074</v>
       </c>
       <c r="W64" s="18">
         <f t="shared" si="281"/>
@@ -8770,11 +8912,11 @@
       </c>
       <c r="AA64" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.25165432098765433</v>
       </c>
       <c r="AB64" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.29037037037037033</v>
       </c>
       <c r="AC64" s="16">
         <f t="shared" si="287"/>
@@ -8794,34 +8936,53 @@
       </c>
       <c r="AG64" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH64" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI64" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="65" spans="1:35">
-      <c r="A65" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>24</v>
+      <c r="AJ64" s="21"/>
+    </row>
+    <row r="65" spans="1:36" s="4" customFormat="1">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" s="8">
+        <v>57</v>
+      </c>
+      <c r="F65" s="8">
+        <v>78</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" s="8">
+        <v>0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="J65" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="K65" s="11">
+        <v>0</v>
       </c>
       <c r="L65" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>518.69999999999993</v>
       </c>
       <c r="M65" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>598.5</v>
       </c>
       <c r="N65" s="14">
         <f t="shared" si="273"/>
@@ -8829,11 +8990,11 @@
       </c>
       <c r="O65" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>709.8</v>
       </c>
       <c r="P65" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="Q65" s="15">
         <f t="shared" si="276"/>
@@ -8853,11 +9014,11 @@
       </c>
       <c r="U65" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.25614814814814812</v>
       </c>
       <c r="V65" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.29555555555555552</v>
       </c>
       <c r="W65" s="18">
         <f t="shared" si="281"/>
@@ -8877,11 +9038,11 @@
       </c>
       <c r="AA65" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.35051851851851845</v>
       </c>
       <c r="AB65" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.40444444444444444</v>
       </c>
       <c r="AC65" s="16">
         <f t="shared" si="287"/>
@@ -8889,11 +9050,11 @@
       </c>
       <c r="AD65" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE65" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF65" s="17" t="str">
         <f t="shared" si="290"/>
@@ -8901,34 +9062,53 @@
       </c>
       <c r="AG65" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH65" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI65" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="66" spans="1:35">
-      <c r="A66" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>25</v>
+      <c r="AJ65" s="21"/>
+    </row>
+    <row r="66" spans="1:36" s="4" customFormat="1">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" s="8">
+        <v>113</v>
+      </c>
+      <c r="F66" s="8">
+        <v>152</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H66" s="8">
+        <v>100</v>
+      </c>
+      <c r="I66" s="11">
+        <v>9.1</v>
+      </c>
+      <c r="J66" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="K66" s="11">
+        <v>0</v>
       </c>
       <c r="L66" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>1028.3</v>
       </c>
       <c r="M66" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>1186.5</v>
       </c>
       <c r="N66" s="14">
         <f t="shared" si="273"/>
@@ -8936,11 +9116,11 @@
       </c>
       <c r="O66" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>1383.2</v>
       </c>
       <c r="P66" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1596</v>
       </c>
       <c r="Q66" s="15">
         <f t="shared" si="276"/>
@@ -8948,11 +9128,11 @@
       </c>
       <c r="R66" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="S66" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="T66" s="19">
         <f t="shared" si="279"/>
@@ -8960,11 +9140,11 @@
       </c>
       <c r="U66" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.5078024691358024</v>
       </c>
       <c r="V66" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.58592592592592585</v>
       </c>
       <c r="W66" s="18">
         <f t="shared" si="281"/>
@@ -8972,11 +9152,11 @@
       </c>
       <c r="X66" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>0.44938271604938268</v>
       </c>
       <c r="Y66" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="Z66" s="20">
         <f t="shared" si="284"/>
@@ -8984,11 +9164,11 @@
       </c>
       <c r="AA66" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.68306172839506174</v>
       </c>
       <c r="AB66" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.78814814814814804</v>
       </c>
       <c r="AC66" s="16">
         <f t="shared" si="287"/>
@@ -8996,11 +9176,11 @@
       </c>
       <c r="AD66" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AE66" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF66" s="17" t="str">
         <f t="shared" si="290"/>
@@ -9008,26 +9188,27 @@
       </c>
       <c r="AG66" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH66" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI66" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="67" spans="1:35">
+      <c r="AJ66" s="21"/>
+    </row>
+    <row r="67" spans="1:36">
       <c r="A67" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L67" s="14">
         <f t="shared" si="271"/>
@@ -9126,15 +9307,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:36">
       <c r="A68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L68" s="14">
         <f t="shared" si="271"/>
@@ -9233,15 +9414,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:36">
       <c r="A69" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L69" s="14">
         <f t="shared" si="271"/>
@@ -9340,15 +9521,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:36">
       <c r="A70" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="L70" s="14">
         <f t="shared" si="271"/>
@@ -9447,15 +9628,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:36">
       <c r="A71" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L71" s="14">
         <f t="shared" si="271"/>
@@ -9554,15 +9735,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:36">
       <c r="A72" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L72" s="14">
         <f t="shared" si="271"/>
@@ -9661,15 +9842,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:36">
       <c r="A73" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L73" s="14">
         <f t="shared" si="271"/>
@@ -9768,15 +9949,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:36">
       <c r="A74" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L74" s="14">
         <f t="shared" si="271"/>
@@ -9875,15 +10056,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:36">
       <c r="A75" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L75" s="14">
         <f t="shared" si="271"/>
@@ -9982,15 +10163,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:36">
       <c r="A76" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L76" s="14">
         <f t="shared" si="271"/>
@@ -10089,15 +10270,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:36">
       <c r="A77" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L77" s="14">
         <f t="shared" si="271"/>
@@ -10196,15 +10377,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:36">
       <c r="A78" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L78" s="14">
         <f t="shared" si="271"/>
@@ -10303,15 +10484,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:36">
       <c r="A79" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L79" s="14">
         <f t="shared" si="271"/>
@@ -10410,15 +10591,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:36">
       <c r="A80" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L80" s="14">
         <f t="shared" si="271"/>
@@ -10522,10 +10703,10 @@
         <v>33</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L81" s="14">
         <f t="shared" si="271"/>
@@ -10626,13 +10807,13 @@
     </row>
     <row r="82" spans="1:35">
       <c r="A82" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L82" s="14">
         <f t="shared" si="271"/>
@@ -10733,13 +10914,13 @@
     </row>
     <row r="83" spans="1:35">
       <c r="A83" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="L83" s="14">
         <f t="shared" si="271"/>
@@ -10840,13 +11021,13 @@
     </row>
     <row r="84" spans="1:35">
       <c r="A84" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L84" s="14">
         <f t="shared" si="271"/>
@@ -10947,13 +11128,13 @@
     </row>
     <row r="85" spans="1:35">
       <c r="A85" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L85" s="14">
         <f t="shared" si="271"/>
@@ -11054,13 +11235,13 @@
     </row>
     <row r="86" spans="1:35">
       <c r="A86" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L86" s="14">
         <f t="shared" si="271"/>
@@ -11161,13 +11342,13 @@
     </row>
     <row r="87" spans="1:35">
       <c r="A87" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L87" s="14">
         <f t="shared" si="271"/>
@@ -11268,13 +11449,13 @@
     </row>
     <row r="88" spans="1:35">
       <c r="A88" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L88" s="14">
         <f t="shared" si="271"/>
@@ -11378,10 +11559,10 @@
         <v>43</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L89" s="14">
         <f t="shared" si="271"/>
@@ -11485,10 +11666,10 @@
         <v>43</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="L90" s="14">
         <f t="shared" si="271"/>
@@ -11592,10 +11773,10 @@
         <v>43</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L91" s="14">
         <f t="shared" si="271"/>
@@ -11699,10 +11880,10 @@
         <v>43</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L92" s="14">
         <f t="shared" si="271"/>
@@ -11806,10 +11987,10 @@
         <v>43</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L93" s="14">
         <f t="shared" si="271"/>
@@ -11913,10 +12094,10 @@
         <v>43</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L94" s="14">
         <f t="shared" si="271"/>
@@ -12020,10 +12201,10 @@
         <v>43</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L95" s="14">
         <f t="shared" si="271"/>
@@ -12127,10 +12308,10 @@
         <v>43</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L96" s="14">
         <f t="shared" si="271"/>
@@ -12234,10 +12415,10 @@
         <v>43</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L97" s="14">
         <f t="shared" si="271"/>
@@ -12341,10 +12522,10 @@
         <v>43</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L98" s="14">
         <f t="shared" si="271"/>
@@ -12448,10 +12629,10 @@
         <v>43</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L99" s="14">
         <f t="shared" si="271"/>
@@ -12555,10 +12736,10 @@
         <v>43</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L100" s="14">
         <f t="shared" si="271"/>
@@ -12659,13 +12840,13 @@
     </row>
     <row r="101" spans="1:35">
       <c r="A101" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L101" s="14">
         <f t="shared" si="271"/>
@@ -12766,13 +12947,13 @@
     </row>
     <row r="102" spans="1:35">
       <c r="A102" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L102" s="14">
         <f t="shared" si="271"/>
@@ -12873,13 +13054,13 @@
     </row>
     <row r="103" spans="1:35">
       <c r="A103" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L103" s="14">
         <f t="shared" si="271"/>
@@ -12980,13 +13161,13 @@
     </row>
     <row r="104" spans="1:35">
       <c r="A104" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L104" s="14">
         <f t="shared" si="271"/>
@@ -13087,13 +13268,13 @@
     </row>
     <row r="105" spans="1:35">
       <c r="A105" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L105" s="14">
         <f t="shared" si="271"/>
@@ -13194,13 +13375,13 @@
     </row>
     <row r="106" spans="1:35">
       <c r="A106" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L106" s="14">
         <f t="shared" si="271"/>
@@ -13301,13 +13482,13 @@
     </row>
     <row r="107" spans="1:35">
       <c r="A107" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L107" s="14">
         <f t="shared" si="271"/>
@@ -13408,13 +13589,13 @@
     </row>
     <row r="108" spans="1:35">
       <c r="A108" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L108" s="14">
         <f t="shared" si="271"/>
@@ -13515,13 +13696,13 @@
     </row>
     <row r="109" spans="1:35">
       <c r="A109" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L109" s="14">
         <f t="shared" si="271"/>
@@ -13622,13 +13803,13 @@
     </row>
     <row r="110" spans="1:35">
       <c r="A110" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L110" s="14">
         <f t="shared" si="271"/>
@@ -13732,10 +13913,10 @@
         <v>67</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L111" s="14">
         <f t="shared" si="271"/>
@@ -13839,10 +14020,10 @@
         <v>67</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L112" s="14">
         <f t="shared" si="271"/>
@@ -13946,10 +14127,10 @@
         <v>67</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L113" s="14">
         <f t="shared" si="271"/>
@@ -14053,10 +14234,10 @@
         <v>67</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L114" s="14">
         <f t="shared" si="271"/>
@@ -14160,10 +14341,10 @@
         <v>67</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L115" s="14">
         <f t="shared" si="271"/>
@@ -14267,10 +14448,10 @@
         <v>67</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L116" s="14">
         <f t="shared" si="271"/>
@@ -14374,10 +14555,10 @@
         <v>67</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L117" s="14">
         <f t="shared" si="271"/>
@@ -14481,10 +14662,10 @@
         <v>67</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L118" s="14">
         <f t="shared" si="271"/>
@@ -14588,45 +14769,45 @@
         <v>67</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L119" s="14">
-        <f t="shared" ref="L119:L122" si="555">E119*I119</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M119" s="14">
-        <f t="shared" ref="M119:M122" si="556">E119*J119</f>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N119" s="14">
-        <f t="shared" ref="N119:N122" si="557">E119*K119</f>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O119" s="15">
-        <f t="shared" ref="O119:O122" si="558">F119*I119</f>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P119" s="15">
-        <f t="shared" ref="P119:P122" si="559">F119*J119</f>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q119" s="15">
-        <f t="shared" ref="Q119:Q122" si="560">F119*K119</f>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R119" s="19">
-        <f t="shared" ref="R119:R122" si="561">H119*I119</f>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S119" s="19">
-        <f t="shared" ref="S119:S122" si="562">H119*J119</f>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T119" s="19">
-        <f t="shared" ref="T119:T122" si="563">H119*K119</f>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U119" s="18">
@@ -14634,59 +14815,59 @@
         <v>0</v>
       </c>
       <c r="V119" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W119" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X119" s="20">
-        <f t="shared" ref="X119:Z122" si="564">R119*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y119" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z119" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA119" s="16">
-        <f t="shared" ref="AA119:AC122" si="565">O119*$G$3/$E$3</f>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB119" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC119" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD119" s="17" t="str">
-        <f t="shared" ref="AD119:AI122" si="566">IF((U119+X119)&lt;($J$4/2),"低",IF((U119+X119)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE119" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF119" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG119" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH119" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI119" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="293"/>
         <v>低</v>
       </c>
     </row>
@@ -14695,1107 +14876,1170 @@
         <v>67</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L120" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M120" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N120" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O120" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P120" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q120" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R120" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S120" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T120" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U120" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V120" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W120" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X120" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y120" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z120" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA120" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB120" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC120" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD120" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE120" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF120" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG120" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH120" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI120" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="121" spans="1:35">
+      <c r="A121" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L121" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M121" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N121" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O121" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P121" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q121" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R121" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S121" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T121" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U121" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V121" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W121" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X121" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y121" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z121" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA121" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB121" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC121" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD121" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE121" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF121" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG121" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH121" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI121" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="122" spans="1:35">
+      <c r="A122" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L122" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M122" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N122" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O122" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P122" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q122" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R122" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S122" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T122" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U122" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V122" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W122" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X122" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y122" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z122" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA122" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB122" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC122" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD122" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE122" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF122" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG122" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH122" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI122" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="123" spans="1:35">
+      <c r="A123" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L123" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N123" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O123" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P123" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q123" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R123" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S123" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T123" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U123" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V123" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W123" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X123" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y123" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z123" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA123" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB123" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC123" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD123" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE123" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF123" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG123" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH123" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI123" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="124" spans="1:35">
+      <c r="A124" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L124" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M124" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N124" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O124" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P124" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q124" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R124" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S124" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T124" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U124" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V124" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W124" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X124" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y124" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z124" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA124" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB124" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC124" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD124" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE124" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF124" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG124" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH124" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI124" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="125" spans="1:35">
+      <c r="A125" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L125" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N125" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O125" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P125" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q125" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R125" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S125" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T125" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U125" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V125" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W125" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X125" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y125" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z125" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA125" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB125" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC125" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD125" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE125" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF125" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG125" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH125" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI125" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="126" spans="1:35">
+      <c r="A126" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L126" s="14">
+        <f t="shared" ref="L126:L129" si="555">E126*I126</f>
+        <v>0</v>
+      </c>
+      <c r="M126" s="14">
+        <f t="shared" ref="M126:M129" si="556">E126*J126</f>
+        <v>0</v>
+      </c>
+      <c r="N126" s="14">
+        <f t="shared" ref="N126:N129" si="557">E126*K126</f>
+        <v>0</v>
+      </c>
+      <c r="O126" s="15">
+        <f t="shared" ref="O126:O129" si="558">F126*I126</f>
+        <v>0</v>
+      </c>
+      <c r="P126" s="15">
+        <f t="shared" ref="P126:P129" si="559">F126*J126</f>
+        <v>0</v>
+      </c>
+      <c r="Q126" s="15">
+        <f t="shared" ref="Q126:Q129" si="560">F126*K126</f>
+        <v>0</v>
+      </c>
+      <c r="R126" s="19">
+        <f t="shared" ref="R126:R129" si="561">H126*I126</f>
+        <v>0</v>
+      </c>
+      <c r="S126" s="19">
+        <f t="shared" ref="S126:S129" si="562">H126*J126</f>
+        <v>0</v>
+      </c>
+      <c r="T126" s="19">
+        <f t="shared" ref="T126:T129" si="563">H126*K126</f>
+        <v>0</v>
+      </c>
+      <c r="U126" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V126" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="W126" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="X126" s="20">
+        <f t="shared" ref="X126:Z129" si="564">R126*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y126" s="20">
+        <f t="shared" si="564"/>
+        <v>0</v>
+      </c>
+      <c r="Z126" s="20">
+        <f t="shared" si="564"/>
+        <v>0</v>
+      </c>
+      <c r="AA126" s="16">
+        <f t="shared" ref="AA126:AC129" si="565">O126*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB126" s="16">
+        <f t="shared" si="565"/>
+        <v>0</v>
+      </c>
+      <c r="AC126" s="16">
+        <f t="shared" si="565"/>
+        <v>0</v>
+      </c>
+      <c r="AD126" s="17" t="str">
+        <f t="shared" ref="AD126:AI129" si="566">IF((U126+X126)&lt;($J$4/2),"低",IF((U126+X126)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE126" s="17" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AF126" s="17" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AG126" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AH126" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AI126" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="127" spans="1:35">
+      <c r="A127" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C127" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L120" s="14">
+      <c r="L127" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M120" s="14">
+      <c r="M127" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N120" s="14">
+      <c r="N127" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O120" s="15">
+      <c r="O127" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P120" s="15">
+      <c r="P127" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q120" s="15">
+      <c r="Q127" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R120" s="19">
+      <c r="R127" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S120" s="19">
+      <c r="S127" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T120" s="19">
+      <c r="T127" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U120" s="18">
-        <f t="shared" ref="U120:W122" si="567">L120*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="V120" s="18">
+      <c r="U127" s="18">
+        <f t="shared" ref="U127:W129" si="567">L127*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V127" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W120" s="18">
+      <c r="W127" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X120" s="20">
+      <c r="X127" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y120" s="20">
+      <c r="Y127" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z120" s="20">
+      <c r="Z127" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA120" s="16">
+      <c r="AA127" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB120" s="16">
+      <c r="AB127" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC120" s="16">
+      <c r="AC127" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD120" s="17" t="str">
+      <c r="AD127" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE120" s="17" t="str">
+      <c r="AE127" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF120" s="17" t="str">
+      <c r="AF127" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG120" s="15" t="str">
+      <c r="AG127" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH120" s="15" t="str">
+      <c r="AH127" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI120" s="15" t="str">
+      <c r="AI127" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
-    <row r="121" spans="1:35">
-      <c r="A121" s="7" t="s">
+    <row r="128" spans="1:35">
+      <c r="A128" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B128" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C128" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L121" s="14">
+      <c r="L128" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M121" s="14">
+      <c r="M128" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N121" s="14">
+      <c r="N128" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O121" s="15">
+      <c r="O128" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P121" s="15">
+      <c r="P128" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q121" s="15">
+      <c r="Q128" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R121" s="19">
+      <c r="R128" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S121" s="19">
+      <c r="S128" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T121" s="19">
+      <c r="T128" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U121" s="18">
+      <c r="U128" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="V121" s="18">
+      <c r="V128" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W121" s="18">
+      <c r="W128" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X121" s="20">
+      <c r="X128" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y121" s="20">
+      <c r="Y128" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z121" s="20">
+      <c r="Z128" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA121" s="16">
+      <c r="AA128" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB121" s="16">
+      <c r="AB128" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC121" s="16">
+      <c r="AC128" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD121" s="17" t="str">
+      <c r="AD128" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE121" s="17" t="str">
+      <c r="AE128" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF121" s="17" t="str">
+      <c r="AF128" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG121" s="15" t="str">
+      <c r="AG128" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH121" s="15" t="str">
+      <c r="AH128" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI121" s="15" t="str">
+      <c r="AI128" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
-    <row r="122" spans="1:35">
-      <c r="A122" s="7" t="s">
+    <row r="129" spans="1:35">
+      <c r="A129" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B129" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C129" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L122" s="14">
+      <c r="L129" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M122" s="14">
+      <c r="M129" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N122" s="14">
+      <c r="N129" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O122" s="15">
+      <c r="O129" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P122" s="15">
+      <c r="P129" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q122" s="15">
+      <c r="Q129" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R122" s="19">
+      <c r="R129" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S122" s="19">
+      <c r="S129" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T122" s="19">
+      <c r="T129" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U122" s="18">
+      <c r="U129" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="V122" s="18">
+      <c r="V129" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W122" s="18">
+      <c r="W129" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X122" s="20">
+      <c r="X129" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y122" s="20">
+      <c r="Y129" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z122" s="20">
+      <c r="Z129" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA122" s="16">
+      <c r="AA129" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB122" s="16">
+      <c r="AB129" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC122" s="16">
+      <c r="AC129" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD122" s="17" t="str">
+      <c r="AD129" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE122" s="17" t="str">
+      <c r="AE129" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF122" s="17" t="str">
+      <c r="AF129" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG122" s="15" t="str">
+      <c r="AG129" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH122" s="15" t="str">
+      <c r="AH129" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI122" s="15" t="str">
+      <c r="AI129" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
-    <row r="123" spans="1:35">
-      <c r="L123" s="14">
-        <f t="shared" ref="L123:L133" si="568">E123*I123</f>
-        <v>0</v>
-      </c>
-      <c r="M123" s="14">
-        <f t="shared" ref="M123:M133" si="569">E123*J123</f>
-        <v>0</v>
-      </c>
-      <c r="N123" s="14">
-        <f t="shared" ref="N123:N133" si="570">E123*K123</f>
-        <v>0</v>
-      </c>
-      <c r="O123" s="15">
-        <f t="shared" ref="O123:O133" si="571">F123*I123</f>
-        <v>0</v>
-      </c>
-      <c r="P123" s="15">
-        <f t="shared" ref="P123:P133" si="572">F123*J123</f>
-        <v>0</v>
-      </c>
-      <c r="Q123" s="15">
-        <f t="shared" ref="Q123:Q133" si="573">F123*K123</f>
-        <v>0</v>
-      </c>
-      <c r="R123" s="19">
-        <f t="shared" ref="R123:R133" si="574">H123*I123</f>
-        <v>0</v>
-      </c>
-      <c r="S123" s="19">
-        <f t="shared" ref="S123:S133" si="575">H123*J123</f>
-        <v>0</v>
-      </c>
-      <c r="T123" s="19">
-        <f t="shared" ref="T123:T133" si="576">H123*K123</f>
-        <v>0</v>
-      </c>
-      <c r="U123" s="18">
-        <f t="shared" ref="U123:U133" si="577">L123*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="V123" s="18">
-        <f t="shared" ref="V123:V133" si="578">M123*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="W123" s="18">
-        <f t="shared" ref="W123:W133" si="579">N123*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="X123" s="20">
-        <f t="shared" ref="X123:X133" si="580">R123*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="Y123" s="20">
-        <f t="shared" ref="Y123:Y133" si="581">S123*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="Z123" s="20">
-        <f t="shared" ref="Z123:Z133" si="582">T123*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AA123" s="16">
-        <f t="shared" ref="AA123:AA133" si="583">O123*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AB123" s="16">
-        <f t="shared" ref="AB123:AB133" si="584">P123*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AC123" s="16">
-        <f t="shared" ref="AC123:AC133" si="585">Q123*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AD123" s="17" t="str">
-        <f t="shared" ref="AD123:AD133" si="586">IF((U123+X123)&lt;($J$4/2),"低",IF((U123+X123)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AE123" s="17" t="str">
-        <f t="shared" ref="AE123:AE133" si="587">IF((V123+Y123)&lt;($J$4/2),"低",IF((V123+Y123)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AF123" s="17" t="str">
-        <f t="shared" ref="AF123:AF133" si="588">IF((W123+Z123)&lt;($J$4/2),"低",IF((W123+Z123)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AG123" s="15" t="str">
-        <f t="shared" ref="AG123:AG133" si="589">IF((X123+AA123)&lt;($J$4/2),"低",IF((X123+AA123)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AH123" s="15" t="str">
-        <f t="shared" ref="AH123:AH133" si="590">IF((Y123+AB123)&lt;($J$4/2),"低",IF((Y123+AB123)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AI123" s="15" t="str">
-        <f t="shared" ref="AI123:AI133" si="591">IF((Z123+AC123)&lt;($J$4/2),"低",IF((Z123+AC123)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="124" spans="1:35">
-      <c r="L124" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M124" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N124" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O124" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P124" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q124" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R124" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S124" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T124" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U124" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V124" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W124" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X124" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y124" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z124" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA124" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB124" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC124" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD124" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE124" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF124" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG124" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH124" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI124" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="125" spans="1:35">
-      <c r="L125" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M125" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N125" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O125" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P125" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q125" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R125" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S125" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T125" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U125" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V125" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W125" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X125" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y125" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z125" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA125" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB125" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC125" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD125" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE125" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF125" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG125" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH125" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI125" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="126" spans="1:35">
-      <c r="L126" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M126" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N126" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O126" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P126" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q126" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R126" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S126" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T126" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U126" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V126" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W126" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X126" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y126" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z126" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA126" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB126" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC126" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD126" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE126" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF126" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG126" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH126" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI126" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="127" spans="1:35">
-      <c r="L127" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M127" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N127" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O127" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P127" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q127" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R127" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S127" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T127" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U127" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V127" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W127" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X127" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y127" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z127" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA127" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB127" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC127" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD127" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE127" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF127" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG127" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH127" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI127" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="128" spans="1:35">
-      <c r="L128" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M128" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N128" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O128" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P128" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q128" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R128" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S128" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T128" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U128" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V128" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W128" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X128" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y128" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z128" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA128" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB128" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC128" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD128" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE128" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF128" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG128" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH128" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI128" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="129" spans="12:35">
-      <c r="L129" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M129" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N129" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O129" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P129" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q129" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R129" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S129" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T129" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U129" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V129" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W129" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X129" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y129" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z129" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA129" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB129" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC129" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD129" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE129" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF129" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG129" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH129" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI129" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="130" spans="12:35">
+    <row r="130" spans="1:35">
       <c r="L130" s="14">
-        <f t="shared" si="568"/>
+        <f t="shared" ref="L130:L140" si="568">E130*I130</f>
         <v>0</v>
       </c>
       <c r="M130" s="14">
-        <f t="shared" si="569"/>
+        <f t="shared" ref="M130:M140" si="569">E130*J130</f>
         <v>0</v>
       </c>
       <c r="N130" s="14">
-        <f t="shared" si="570"/>
+        <f t="shared" ref="N130:N140" si="570">E130*K130</f>
         <v>0</v>
       </c>
       <c r="O130" s="15">
-        <f t="shared" si="571"/>
+        <f t="shared" ref="O130:O140" si="571">F130*I130</f>
         <v>0</v>
       </c>
       <c r="P130" s="15">
-        <f t="shared" si="572"/>
+        <f t="shared" ref="P130:P140" si="572">F130*J130</f>
         <v>0</v>
       </c>
       <c r="Q130" s="15">
-        <f t="shared" si="573"/>
+        <f t="shared" ref="Q130:Q140" si="573">F130*K130</f>
         <v>0</v>
       </c>
       <c r="R130" s="19">
-        <f t="shared" si="574"/>
+        <f t="shared" ref="R130:R140" si="574">H130*I130</f>
         <v>0</v>
       </c>
       <c r="S130" s="19">
-        <f t="shared" si="575"/>
+        <f t="shared" ref="S130:S140" si="575">H130*J130</f>
         <v>0</v>
       </c>
       <c r="T130" s="19">
-        <f t="shared" si="576"/>
+        <f t="shared" ref="T130:T140" si="576">H130*K130</f>
         <v>0</v>
       </c>
       <c r="U130" s="18">
-        <f t="shared" si="577"/>
+        <f t="shared" ref="U130:U140" si="577">L130*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="V130" s="18">
-        <f t="shared" si="578"/>
+        <f t="shared" ref="V130:V140" si="578">M130*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="W130" s="18">
-        <f t="shared" si="579"/>
+        <f t="shared" ref="W130:W140" si="579">N130*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X130" s="20">
-        <f t="shared" si="580"/>
+        <f t="shared" ref="X130:X140" si="580">R130*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Y130" s="20">
-        <f t="shared" si="581"/>
+        <f t="shared" ref="Y130:Y140" si="581">S130*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Z130" s="20">
-        <f t="shared" si="582"/>
+        <f t="shared" ref="Z130:Z140" si="582">T130*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA130" s="16">
-        <f t="shared" si="583"/>
+        <f t="shared" ref="AA130:AA140" si="583">O130*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AB130" s="16">
-        <f t="shared" si="584"/>
+        <f t="shared" ref="AB130:AB140" si="584">P130*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AC130" s="16">
-        <f t="shared" si="585"/>
+        <f t="shared" ref="AC130:AC140" si="585">Q130*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD130" s="17" t="str">
-        <f t="shared" si="586"/>
+        <f t="shared" ref="AD130:AD140" si="586">IF((U130+X130)&lt;($J$4/2),"低",IF((U130+X130)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE130" s="17" t="str">
-        <f t="shared" si="587"/>
+        <f t="shared" ref="AE130:AE140" si="587">IF((V130+Y130)&lt;($J$4/2),"低",IF((V130+Y130)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AF130" s="17" t="str">
-        <f t="shared" si="588"/>
+        <f t="shared" ref="AF130:AF140" si="588">IF((W130+Z130)&lt;($J$4/2),"低",IF((W130+Z130)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG130" s="15" t="str">
-        <f t="shared" si="589"/>
+        <f t="shared" ref="AG130:AG140" si="589">IF((X130+AA130)&lt;($J$4/2),"低",IF((X130+AA130)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AH130" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" ref="AH130:AH140" si="590">IF((Y130+AB130)&lt;($J$4/2),"低",IF((Y130+AB130)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AI130" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="131" spans="12:35">
+        <f t="shared" ref="AI130:AI140" si="591">IF((Z130+AC130)&lt;($J$4/2),"低",IF((Z130+AC130)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="131" spans="1:35">
       <c r="L131" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
@@ -15893,7 +16137,7 @@
         <v>低</v>
       </c>
     </row>
-    <row r="132" spans="12:35">
+    <row r="132" spans="1:35">
       <c r="L132" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
@@ -15991,7 +16235,7 @@
         <v>低</v>
       </c>
     </row>
-    <row r="133" spans="12:35">
+    <row r="133" spans="1:35">
       <c r="L133" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
@@ -16089,84 +16333,693 @@
         <v>低</v>
       </c>
     </row>
-    <row r="134" spans="12:35">
-      <c r="U134" s="18"/>
-      <c r="V134" s="18"/>
-      <c r="W134" s="18"/>
-      <c r="X134" s="20"/>
-      <c r="Y134" s="20"/>
-      <c r="Z134" s="20"/>
-      <c r="AA134" s="16"/>
-      <c r="AB134" s="16"/>
-      <c r="AC134" s="16"/>
-    </row>
-    <row r="135" spans="12:35">
-      <c r="U135" s="18"/>
-      <c r="V135" s="18"/>
-      <c r="W135" s="18"/>
-      <c r="X135" s="20"/>
-      <c r="Y135" s="20"/>
-      <c r="Z135" s="20"/>
-      <c r="AA135" s="16"/>
-      <c r="AB135" s="16"/>
-      <c r="AC135" s="16"/>
-    </row>
-    <row r="136" spans="12:35">
-      <c r="U136" s="18"/>
-      <c r="V136" s="18"/>
-      <c r="W136" s="18"/>
-      <c r="X136" s="20"/>
-      <c r="Y136" s="20"/>
-      <c r="Z136" s="20"/>
-      <c r="AA136" s="16"/>
-      <c r="AB136" s="16"/>
-      <c r="AC136" s="16"/>
-    </row>
-    <row r="137" spans="12:35">
-      <c r="U137" s="18"/>
-      <c r="V137" s="18"/>
-      <c r="W137" s="18"/>
-      <c r="X137" s="20"/>
-      <c r="Y137" s="20"/>
-      <c r="Z137" s="20"/>
-      <c r="AA137" s="16"/>
-      <c r="AB137" s="16"/>
-      <c r="AC137" s="16"/>
-    </row>
-    <row r="138" spans="12:35">
-      <c r="U138" s="18"/>
-      <c r="V138" s="18"/>
-      <c r="W138" s="18"/>
-      <c r="X138" s="20"/>
-      <c r="Y138" s="20"/>
-      <c r="Z138" s="20"/>
-      <c r="AA138" s="16"/>
-      <c r="AB138" s="16"/>
-      <c r="AC138" s="16"/>
-    </row>
-    <row r="139" spans="12:35">
-      <c r="U139" s="18"/>
-      <c r="V139" s="18"/>
-      <c r="W139" s="18"/>
-      <c r="X139" s="20"/>
-      <c r="Y139" s="20"/>
-      <c r="Z139" s="20"/>
-      <c r="AA139" s="16"/>
-      <c r="AB139" s="16"/>
-      <c r="AC139" s="16"/>
-    </row>
-    <row r="140" spans="12:35">
-      <c r="U140" s="18"/>
-      <c r="V140" s="18"/>
-      <c r="W140" s="18"/>
-      <c r="X140" s="20"/>
-      <c r="Y140" s="20"/>
-      <c r="Z140" s="20"/>
-      <c r="AA140" s="16"/>
-      <c r="AB140" s="16"/>
-      <c r="AC140" s="16"/>
-    </row>
-    <row r="141" spans="12:35">
+    <row r="134" spans="1:35">
+      <c r="L134" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M134" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N134" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O134" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P134" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q134" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R134" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S134" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T134" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U134" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V134" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W134" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X134" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y134" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z134" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA134" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB134" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC134" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD134" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE134" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF134" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG134" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH134" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI134" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="135" spans="1:35">
+      <c r="L135" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M135" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N135" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O135" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P135" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q135" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R135" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S135" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T135" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U135" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V135" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W135" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X135" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y135" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z135" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA135" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB135" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC135" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD135" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE135" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF135" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG135" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH135" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI135" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="136" spans="1:35">
+      <c r="L136" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M136" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N136" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O136" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P136" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q136" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R136" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S136" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T136" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U136" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V136" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W136" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X136" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y136" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z136" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA136" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB136" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC136" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD136" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE136" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF136" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG136" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH136" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI136" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="137" spans="1:35">
+      <c r="L137" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M137" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N137" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O137" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P137" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q137" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R137" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S137" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T137" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U137" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V137" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W137" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X137" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y137" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z137" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA137" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB137" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC137" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD137" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE137" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF137" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG137" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH137" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI137" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="138" spans="1:35">
+      <c r="L138" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M138" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N138" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O138" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P138" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q138" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R138" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S138" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T138" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U138" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V138" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W138" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X138" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y138" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z138" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA138" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB138" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC138" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD138" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE138" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF138" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG138" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH138" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI138" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="139" spans="1:35">
+      <c r="L139" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M139" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N139" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O139" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P139" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q139" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R139" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S139" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T139" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U139" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V139" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W139" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X139" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y139" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z139" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA139" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB139" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC139" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD139" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE139" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF139" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG139" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH139" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI139" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="140" spans="1:35">
+      <c r="L140" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M140" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N140" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O140" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P140" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q140" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R140" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S140" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T140" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U140" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V140" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W140" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X140" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y140" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z140" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA140" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB140" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC140" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD140" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE140" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF140" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG140" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH140" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI140" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="141" spans="1:35">
       <c r="U141" s="18"/>
       <c r="V141" s="18"/>
       <c r="W141" s="18"/>
@@ -16177,7 +17030,7 @@
       <c r="AB141" s="16"/>
       <c r="AC141" s="16"/>
     </row>
-    <row r="142" spans="12:35">
+    <row r="142" spans="1:35">
       <c r="U142" s="18"/>
       <c r="V142" s="18"/>
       <c r="W142" s="18"/>
@@ -16188,7 +17041,7 @@
       <c r="AB142" s="16"/>
       <c r="AC142" s="16"/>
     </row>
-    <row r="143" spans="12:35">
+    <row r="143" spans="1:35">
       <c r="U143" s="18"/>
       <c r="V143" s="18"/>
       <c r="W143" s="18"/>
@@ -16199,7 +17052,7 @@
       <c r="AB143" s="16"/>
       <c r="AC143" s="16"/>
     </row>
-    <row r="144" spans="12:35">
+    <row r="144" spans="1:35">
       <c r="U144" s="18"/>
       <c r="V144" s="18"/>
       <c r="W144" s="18"/>
@@ -19399,6 +20252,83 @@
       <c r="AA434" s="16"/>
       <c r="AB434" s="16"/>
       <c r="AC434" s="16"/>
+    </row>
+    <row r="435" spans="21:29">
+      <c r="U435" s="18"/>
+      <c r="V435" s="18"/>
+      <c r="W435" s="18"/>
+      <c r="X435" s="20"/>
+      <c r="Y435" s="20"/>
+      <c r="Z435" s="20"/>
+      <c r="AA435" s="16"/>
+      <c r="AB435" s="16"/>
+      <c r="AC435" s="16"/>
+    </row>
+    <row r="436" spans="21:29">
+      <c r="U436" s="18"/>
+      <c r="V436" s="18"/>
+      <c r="W436" s="18"/>
+      <c r="X436" s="20"/>
+      <c r="Y436" s="20"/>
+      <c r="Z436" s="20"/>
+      <c r="AA436" s="16"/>
+      <c r="AB436" s="16"/>
+      <c r="AC436" s="16"/>
+    </row>
+    <row r="437" spans="21:29">
+      <c r="U437" s="18"/>
+      <c r="V437" s="18"/>
+      <c r="W437" s="18"/>
+      <c r="X437" s="20"/>
+      <c r="Y437" s="20"/>
+      <c r="Z437" s="20"/>
+      <c r="AA437" s="16"/>
+      <c r="AB437" s="16"/>
+      <c r="AC437" s="16"/>
+    </row>
+    <row r="438" spans="21:29">
+      <c r="U438" s="18"/>
+      <c r="V438" s="18"/>
+      <c r="W438" s="18"/>
+      <c r="X438" s="20"/>
+      <c r="Y438" s="20"/>
+      <c r="Z438" s="20"/>
+      <c r="AA438" s="16"/>
+      <c r="AB438" s="16"/>
+      <c r="AC438" s="16"/>
+    </row>
+    <row r="439" spans="21:29">
+      <c r="U439" s="18"/>
+      <c r="V439" s="18"/>
+      <c r="W439" s="18"/>
+      <c r="X439" s="20"/>
+      <c r="Y439" s="20"/>
+      <c r="Z439" s="20"/>
+      <c r="AA439" s="16"/>
+      <c r="AB439" s="16"/>
+      <c r="AC439" s="16"/>
+    </row>
+    <row r="440" spans="21:29">
+      <c r="U440" s="18"/>
+      <c r="V440" s="18"/>
+      <c r="W440" s="18"/>
+      <c r="X440" s="20"/>
+      <c r="Y440" s="20"/>
+      <c r="Z440" s="20"/>
+      <c r="AA440" s="16"/>
+      <c r="AB440" s="16"/>
+      <c r="AC440" s="16"/>
+    </row>
+    <row r="441" spans="21:29">
+      <c r="U441" s="18"/>
+      <c r="V441" s="18"/>
+      <c r="W441" s="18"/>
+      <c r="X441" s="20"/>
+      <c r="Y441" s="20"/>
+      <c r="Z441" s="20"/>
+      <c r="AA441" s="16"/>
+      <c r="AB441" s="16"/>
+      <c r="AC441" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAE6FE9-3FA3-4333-B316-D5BB88459400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A02124-92BB-4F94-9928-C9B5F031D1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="228">
   <si>
     <t>英文名稱</t>
   </si>
@@ -910,6 +910,38 @@
   </si>
   <si>
     <t>火焰爆發</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亞種帶電-雷鳴一咬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無帶電皆同於蠻顎龍僅列出帶電狀態技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷鼻水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放電</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷鼻水三連</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每段攻擊傷害會不斷提升，因為傷害提升幅度不大(&lt;10%)，故只列出最後一下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>傷害與普通黑狼鳥沒有區別，反而因為難度成數下降而變少了，主要差在AI(招式選擇及攻擊頻率)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1477,11 +1509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:AJ441"/>
+  <dimension ref="A2:AJ450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <pane ySplit="7" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ46" sqref="AJ46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1489,7 +1521,7 @@
     <col min="1" max="1" width="8" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8" style="8" customWidth="1"/>
     <col min="9" max="9" width="8.375" style="11" customWidth="1"/>
@@ -4043,39 +4075,39 @@
         <v>0</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" ref="L26:L125" si="271">E26*I26</f>
+        <f t="shared" ref="L26:L134" si="271">E26*I26</f>
         <v>448</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" ref="M26:M125" si="272">E26*J26</f>
+        <f t="shared" ref="M26:M134" si="272">E26*J26</f>
         <v>672</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" ref="N26:N125" si="273">E26*K26</f>
+        <f t="shared" ref="N26:N134" si="273">E26*K26</f>
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" ref="O26:O125" si="274">F26*I26</f>
+        <f t="shared" ref="O26:O134" si="274">F26*I26</f>
         <v>602</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" ref="P26:P125" si="275">F26*J26</f>
+        <f t="shared" ref="P26:P134" si="275">F26*J26</f>
         <v>903</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" ref="Q26:Q125" si="276">F26*K26</f>
+        <f t="shared" ref="Q26:Q134" si="276">F26*K26</f>
         <v>0</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" ref="R26:R125" si="277">H26*I26</f>
+        <f t="shared" ref="R26:R134" si="277">H26*I26</f>
         <v>280</v>
       </c>
       <c r="S26" s="19">
-        <f t="shared" ref="S26:S125" si="278">H26*J26</f>
+        <f t="shared" ref="S26:S134" si="278">H26*J26</f>
         <v>420</v>
       </c>
       <c r="T26" s="19">
-        <f t="shared" ref="T26:T125" si="279">H26*K26</f>
+        <f t="shared" ref="T26:T134" si="279">H26*K26</f>
         <v>0</v>
       </c>
       <c r="U26" s="18">
@@ -4083,59 +4115,59 @@
         <v>0.22123456790123455</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" ref="V26:V125" si="280">M26*$G$3/$E$3</f>
+        <f t="shared" ref="V26:V134" si="280">M26*$G$3/$E$3</f>
         <v>0.33185185185185179</v>
       </c>
       <c r="W26" s="18">
-        <f t="shared" ref="W26:W125" si="281">N26*$G$3/$E$3</f>
+        <f t="shared" ref="W26:W134" si="281">N26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X26" s="20">
-        <f t="shared" ref="X26:X125" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="X26:X134" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.13827160493827159</v>
       </c>
       <c r="Y26" s="20">
-        <f t="shared" ref="Y26:Y125" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Y26:Y134" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.2074074074074074</v>
       </c>
       <c r="Z26" s="20">
-        <f t="shared" ref="Z26:Z125" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Z26:Z134" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA26" s="16">
-        <f t="shared" ref="AA26:AA125" si="285">O26*$G$3/$E$3</f>
+        <f t="shared" ref="AA26:AA134" si="285">O26*$G$3/$E$3</f>
         <v>0.29728395061728391</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" ref="AB26:AB125" si="286">P26*$G$3/$E$3</f>
+        <f t="shared" ref="AB26:AB134" si="286">P26*$G$3/$E$3</f>
         <v>0.44592592592592589</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" ref="AC26:AC125" si="287">Q26*$G$3/$E$3</f>
+        <f t="shared" ref="AC26:AC134" si="287">Q26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD26" s="17" t="str">
-        <f t="shared" ref="AD26:AD125" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD26:AD134" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AE26" s="17" t="str">
-        <f t="shared" ref="AE26:AE125" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AE26:AE134" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AF26" s="17" t="str">
-        <f t="shared" ref="AF26:AF125" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AF26:AF134" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG26" s="15" t="str">
-        <f t="shared" ref="AG26:AG125" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AG26:AG134" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AH26" s="15" t="str">
-        <f t="shared" ref="AH26:AH125" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AH26:AH134" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AI26" s="15" t="str">
-        <f t="shared" ref="AI26:AI125" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AI26:AI134" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AJ26" s="21"/>
@@ -4211,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" ref="U27:W126" si="294">L27*$G$3/$E$3</f>
+        <f t="shared" ref="U27:W135" si="294">L27*$G$3/$E$3</f>
         <v>5.8074074074074084E-2</v>
       </c>
       <c r="V27" s="18">
@@ -6548,6 +6580,9 @@
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
+      <c r="AJ45" s="21" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="46" spans="1:36" s="4" customFormat="1">
       <c r="A46" s="5"/>
@@ -8442,7 +8477,9 @@
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-      <c r="AJ60" s="21"/>
+      <c r="AJ60" s="21" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="61" spans="1:36" s="4" customFormat="1">
       <c r="A61" s="5"/>
@@ -8568,7 +8605,9 @@
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-      <c r="AJ61" s="21"/>
+      <c r="AJ61" s="21" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="62" spans="1:36" s="4" customFormat="1">
       <c r="A62" s="5"/>
@@ -9210,13 +9249,37 @@
       <c r="C67" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="D67" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E67" s="8">
+        <v>24</v>
+      </c>
+      <c r="F67" s="8">
+        <v>32</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H67" s="8">
+        <v>10</v>
+      </c>
+      <c r="I67" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="J67" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="K67" s="11">
+        <v>0</v>
+      </c>
       <c r="L67" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>230.39999999999998</v>
       </c>
       <c r="M67" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="N67" s="14">
         <f t="shared" si="273"/>
@@ -9224,11 +9287,11 @@
       </c>
       <c r="O67" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>307.2</v>
       </c>
       <c r="P67" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="Q67" s="15">
         <f t="shared" si="276"/>
@@ -9236,11 +9299,11 @@
       </c>
       <c r="R67" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="S67" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="T67" s="19">
         <f t="shared" si="279"/>
@@ -9248,11 +9311,11 @@
       </c>
       <c r="U67" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.11377777777777776</v>
       </c>
       <c r="V67" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.13629629629629628</v>
       </c>
       <c r="W67" s="18">
         <f t="shared" si="281"/>
@@ -9260,11 +9323,11 @@
       </c>
       <c r="X67" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>4.7407407407407405E-2</v>
       </c>
       <c r="Y67" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>5.6790123456790118E-2</v>
       </c>
       <c r="Z67" s="20">
         <f t="shared" si="284"/>
@@ -9272,11 +9335,11 @@
       </c>
       <c r="AA67" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.15170370370370367</v>
       </c>
       <c r="AB67" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.18172839506172839</v>
       </c>
       <c r="AC67" s="16">
         <f t="shared" si="287"/>
@@ -9300,30 +9363,51 @@
       </c>
       <c r="AH67" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI67" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="68" spans="1:36">
-      <c r="A68" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>20</v>
+      <c r="AJ67" s="21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" s="4" customFormat="1">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" s="8">
+        <v>52</v>
+      </c>
+      <c r="F68" s="8">
+        <v>72</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H68" s="8">
+        <v>10</v>
+      </c>
+      <c r="I68" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="J68" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="K68" s="11">
+        <v>0</v>
       </c>
       <c r="L68" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>499.2</v>
       </c>
       <c r="M68" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="N68" s="14">
         <f t="shared" si="273"/>
@@ -9331,11 +9415,11 @@
       </c>
       <c r="O68" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>691.19999999999993</v>
       </c>
       <c r="P68" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="Q68" s="15">
         <f t="shared" si="276"/>
@@ -9343,11 +9427,11 @@
       </c>
       <c r="R68" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="S68" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="T68" s="19">
         <f t="shared" si="279"/>
@@ -9355,11 +9439,11 @@
       </c>
       <c r="U68" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.2465185185185185</v>
       </c>
       <c r="V68" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.29530864197530859</v>
       </c>
       <c r="W68" s="18">
         <f t="shared" si="281"/>
@@ -9367,11 +9451,11 @@
       </c>
       <c r="X68" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>4.7407407407407405E-2</v>
       </c>
       <c r="Y68" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>5.6790123456790118E-2</v>
       </c>
       <c r="Z68" s="20">
         <f t="shared" si="284"/>
@@ -9379,11 +9463,11 @@
       </c>
       <c r="AA68" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.34133333333333327</v>
       </c>
       <c r="AB68" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.40888888888888886</v>
       </c>
       <c r="AC68" s="16">
         <f t="shared" si="287"/>
@@ -9391,11 +9475,11 @@
       </c>
       <c r="AD68" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE68" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF68" s="17" t="str">
         <f t="shared" si="290"/>
@@ -9403,34 +9487,55 @@
       </c>
       <c r="AG68" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH68" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI68" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="69" spans="1:36">
-      <c r="A69" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>21</v>
+      <c r="AJ68" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" s="4" customFormat="1">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E69" s="8">
+        <v>60</v>
+      </c>
+      <c r="F69" s="8">
+        <v>83</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H69" s="8">
+        <v>10</v>
+      </c>
+      <c r="I69" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="J69" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="K69" s="11">
+        <v>0</v>
       </c>
       <c r="L69" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="M69" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="N69" s="14">
         <f t="shared" si="273"/>
@@ -9438,11 +9543,11 @@
       </c>
       <c r="O69" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>796.8</v>
       </c>
       <c r="P69" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>954.5</v>
       </c>
       <c r="Q69" s="15">
         <f t="shared" si="276"/>
@@ -9450,11 +9555,11 @@
       </c>
       <c r="R69" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="S69" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="T69" s="19">
         <f t="shared" si="279"/>
@@ -9462,11 +9567,11 @@
       </c>
       <c r="U69" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.28444444444444444</v>
       </c>
       <c r="V69" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.34074074074074073</v>
       </c>
       <c r="W69" s="18">
         <f t="shared" si="281"/>
@@ -9474,11 +9579,11 @@
       </c>
       <c r="X69" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>4.7407407407407405E-2</v>
       </c>
       <c r="Y69" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>5.6790123456790118E-2</v>
       </c>
       <c r="Z69" s="20">
         <f t="shared" si="284"/>
@@ -9486,11 +9591,11 @@
       </c>
       <c r="AA69" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.39348148148148143</v>
       </c>
       <c r="AB69" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.47135802469135796</v>
       </c>
       <c r="AC69" s="16">
         <f t="shared" si="287"/>
@@ -9498,11 +9603,11 @@
       </c>
       <c r="AD69" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE69" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF69" s="17" t="str">
         <f t="shared" si="290"/>
@@ -9510,34 +9615,55 @@
       </c>
       <c r="AG69" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH69" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI69" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="70" spans="1:36">
-      <c r="A70" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>22</v>
+      <c r="AJ69" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" s="4" customFormat="1">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E70" s="8">
+        <v>40</v>
+      </c>
+      <c r="F70" s="8">
+        <v>56</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H70" s="8">
+        <v>0</v>
+      </c>
+      <c r="I70" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="J70" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="K70" s="11">
+        <v>0</v>
       </c>
       <c r="L70" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="M70" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="N70" s="14">
         <f t="shared" si="273"/>
@@ -9545,11 +9671,11 @@
       </c>
       <c r="O70" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>537.6</v>
       </c>
       <c r="P70" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="Q70" s="15">
         <f t="shared" si="276"/>
@@ -9569,11 +9695,11 @@
       </c>
       <c r="U70" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.18962962962962962</v>
       </c>
       <c r="V70" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.22716049382716047</v>
       </c>
       <c r="W70" s="18">
         <f t="shared" si="281"/>
@@ -9593,11 +9719,11 @@
       </c>
       <c r="AA70" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.26548148148148148</v>
       </c>
       <c r="AB70" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.31802469135802469</v>
       </c>
       <c r="AC70" s="16">
         <f t="shared" si="287"/>
@@ -9617,34 +9743,53 @@
       </c>
       <c r="AG70" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH70" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI70" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="71" spans="1:36">
-      <c r="A71" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>23</v>
+      <c r="AJ70" s="21"/>
+    </row>
+    <row r="71" spans="1:36" s="4" customFormat="1">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71" s="8">
+        <v>65</v>
+      </c>
+      <c r="F71" s="8">
+        <v>90</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H71" s="8">
+        <v>0</v>
+      </c>
+      <c r="I71" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="J71" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="K71" s="11">
+        <v>0</v>
       </c>
       <c r="L71" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="M71" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>747.5</v>
       </c>
       <c r="N71" s="14">
         <f t="shared" si="273"/>
@@ -9652,11 +9797,11 @@
       </c>
       <c r="O71" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="P71" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="Q71" s="15">
         <f t="shared" si="276"/>
@@ -9676,11 +9821,11 @@
       </c>
       <c r="U71" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.30814814814814812</v>
       </c>
       <c r="V71" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.3691358024691358</v>
       </c>
       <c r="W71" s="18">
         <f t="shared" si="281"/>
@@ -9700,11 +9845,11 @@
       </c>
       <c r="AA71" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="AB71" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="AC71" s="16">
         <f t="shared" si="287"/>
@@ -9712,11 +9857,11 @@
       </c>
       <c r="AD71" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE71" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF71" s="17" t="str">
         <f t="shared" si="290"/>
@@ -9724,34 +9869,53 @@
       </c>
       <c r="AG71" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH71" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI71" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="72" spans="1:36">
-      <c r="A72" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>24</v>
+      <c r="AJ71" s="21"/>
+    </row>
+    <row r="72" spans="1:36" s="4" customFormat="1">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E72" s="8">
+        <v>48</v>
+      </c>
+      <c r="F72" s="8">
+        <v>66</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H72" s="8">
+        <v>10</v>
+      </c>
+      <c r="I72" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="J72" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="K72" s="11">
+        <v>0</v>
       </c>
       <c r="L72" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>460.79999999999995</v>
       </c>
       <c r="M72" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="N72" s="14">
         <f t="shared" si="273"/>
@@ -9759,11 +9923,11 @@
       </c>
       <c r="O72" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>633.6</v>
       </c>
       <c r="P72" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="Q72" s="15">
         <f t="shared" si="276"/>
@@ -9771,11 +9935,11 @@
       </c>
       <c r="R72" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="S72" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="T72" s="19">
         <f t="shared" si="279"/>
@@ -9783,11 +9947,11 @@
       </c>
       <c r="U72" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.22755555555555551</v>
       </c>
       <c r="V72" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.27259259259259255</v>
       </c>
       <c r="W72" s="18">
         <f t="shared" si="281"/>
@@ -9795,11 +9959,11 @@
       </c>
       <c r="X72" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>4.7407407407407405E-2</v>
       </c>
       <c r="Y72" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>5.6790123456790118E-2</v>
       </c>
       <c r="Z72" s="20">
         <f t="shared" si="284"/>
@@ -9807,11 +9971,11 @@
       </c>
       <c r="AA72" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.31288888888888888</v>
       </c>
       <c r="AB72" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.37481481481481482</v>
       </c>
       <c r="AC72" s="16">
         <f t="shared" si="287"/>
@@ -9819,11 +9983,11 @@
       </c>
       <c r="AD72" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE72" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF72" s="17" t="str">
         <f t="shared" si="290"/>
@@ -9831,34 +9995,53 @@
       </c>
       <c r="AG72" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH72" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI72" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="73" spans="1:36">
-      <c r="A73" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>25</v>
+      <c r="AJ72" s="21"/>
+    </row>
+    <row r="73" spans="1:36" s="4" customFormat="1">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="8">
+        <v>121</v>
+      </c>
+      <c r="F73" s="8">
+        <v>165</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H73" s="8">
+        <v>60</v>
+      </c>
+      <c r="I73" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="J73" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="K73" s="11">
+        <v>0</v>
       </c>
       <c r="L73" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>1161.5999999999999</v>
       </c>
       <c r="M73" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>1391.5</v>
       </c>
       <c r="N73" s="14">
         <f t="shared" si="273"/>
@@ -9866,11 +10049,11 @@
       </c>
       <c r="O73" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>1584</v>
       </c>
       <c r="P73" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1897.5</v>
       </c>
       <c r="Q73" s="15">
         <f t="shared" si="276"/>
@@ -9878,11 +10061,11 @@
       </c>
       <c r="R73" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="S73" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="T73" s="19">
         <f t="shared" si="279"/>
@@ -9890,11 +10073,11 @@
       </c>
       <c r="U73" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.5736296296296296</v>
       </c>
       <c r="V73" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.68716049382716038</v>
       </c>
       <c r="W73" s="18">
         <f t="shared" si="281"/>
@@ -9902,11 +10085,11 @@
       </c>
       <c r="X73" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>0.28444444444444444</v>
       </c>
       <c r="Y73" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.34074074074074073</v>
       </c>
       <c r="Z73" s="20">
         <f t="shared" si="284"/>
@@ -9914,11 +10097,11 @@
       </c>
       <c r="AA73" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.78222222222222215</v>
       </c>
       <c r="AB73" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.937037037037037</v>
       </c>
       <c r="AC73" s="16">
         <f t="shared" si="287"/>
@@ -9926,11 +10109,11 @@
       </c>
       <c r="AD73" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AE73" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF73" s="17" t="str">
         <f t="shared" si="290"/>
@@ -9938,34 +10121,53 @@
       </c>
       <c r="AG73" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH73" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI73" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="74" spans="1:36">
-      <c r="A74" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>26</v>
+      <c r="AJ73" s="21"/>
+    </row>
+    <row r="74" spans="1:36" s="4" customFormat="1">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" s="8">
+        <v>56</v>
+      </c>
+      <c r="F74" s="8">
+        <v>75</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H74" s="8">
+        <v>40</v>
+      </c>
+      <c r="I74" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="J74" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="K74" s="11">
+        <v>0</v>
       </c>
       <c r="L74" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>537.6</v>
       </c>
       <c r="M74" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="N74" s="14">
         <f t="shared" si="273"/>
@@ -9973,11 +10175,11 @@
       </c>
       <c r="O74" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="P74" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>862.5</v>
       </c>
       <c r="Q74" s="15">
         <f t="shared" si="276"/>
@@ -9985,11 +10187,11 @@
       </c>
       <c r="R74" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="S74" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="T74" s="19">
         <f t="shared" si="279"/>
@@ -9997,11 +10199,11 @@
       </c>
       <c r="U74" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.26548148148148148</v>
       </c>
       <c r="V74" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.31802469135802469</v>
       </c>
       <c r="W74" s="18">
         <f t="shared" si="281"/>
@@ -10009,11 +10211,11 @@
       </c>
       <c r="X74" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>0.18962962962962962</v>
       </c>
       <c r="Y74" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.22716049382716047</v>
       </c>
       <c r="Z74" s="20">
         <f t="shared" si="284"/>
@@ -10021,11 +10223,11 @@
       </c>
       <c r="AA74" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.35555555555555551</v>
       </c>
       <c r="AB74" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.42592592592592593</v>
       </c>
       <c r="AC74" s="16">
         <f t="shared" si="287"/>
@@ -10033,11 +10235,11 @@
       </c>
       <c r="AD74" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE74" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF74" s="17" t="str">
         <f t="shared" si="290"/>
@@ -10045,34 +10247,53 @@
       </c>
       <c r="AG74" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH74" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI74" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="75" spans="1:36">
-      <c r="A75" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>27</v>
+      <c r="AJ74" s="21"/>
+    </row>
+    <row r="75" spans="1:36" s="4" customFormat="1">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E75" s="8">
+        <v>40</v>
+      </c>
+      <c r="F75" s="8">
+        <v>53</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H75" s="8">
+        <v>40</v>
+      </c>
+      <c r="I75" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="J75" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="K75" s="11">
+        <v>0</v>
       </c>
       <c r="L75" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="M75" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="N75" s="14">
         <f t="shared" si="273"/>
@@ -10080,11 +10301,11 @@
       </c>
       <c r="O75" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>508.79999999999995</v>
       </c>
       <c r="P75" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>609.5</v>
       </c>
       <c r="Q75" s="15">
         <f t="shared" si="276"/>
@@ -10092,11 +10313,11 @@
       </c>
       <c r="R75" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="S75" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="T75" s="19">
         <f t="shared" si="279"/>
@@ -10104,11 +10325,11 @@
       </c>
       <c r="U75" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.18962962962962962</v>
       </c>
       <c r="V75" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.22716049382716047</v>
       </c>
       <c r="W75" s="18">
         <f t="shared" si="281"/>
@@ -10116,11 +10337,11 @@
       </c>
       <c r="X75" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>0.18962962962962962</v>
       </c>
       <c r="Y75" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.22716049382716047</v>
       </c>
       <c r="Z75" s="20">
         <f t="shared" si="284"/>
@@ -10128,11 +10349,11 @@
       </c>
       <c r="AA75" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.25125925925925924</v>
       </c>
       <c r="AB75" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.30098765432098762</v>
       </c>
       <c r="AC75" s="16">
         <f t="shared" si="287"/>
@@ -10140,11 +10361,11 @@
       </c>
       <c r="AD75" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE75" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF75" s="17" t="str">
         <f t="shared" si="290"/>
@@ -10152,34 +10373,53 @@
       </c>
       <c r="AG75" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH75" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI75" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="76" spans="1:36">
-      <c r="A76" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>28</v>
+      <c r="AJ75" s="21"/>
+    </row>
+    <row r="76" spans="1:36" s="4" customFormat="1">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E76" s="8">
+        <v>48</v>
+      </c>
+      <c r="F76" s="8">
+        <v>64</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H76" s="8">
+        <v>40</v>
+      </c>
+      <c r="I76" s="11">
+        <v>9.6</v>
+      </c>
+      <c r="J76" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="K76" s="11">
+        <v>0</v>
       </c>
       <c r="L76" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>460.79999999999995</v>
       </c>
       <c r="M76" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="N76" s="14">
         <f t="shared" si="273"/>
@@ -10187,11 +10427,11 @@
       </c>
       <c r="O76" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>614.4</v>
       </c>
       <c r="P76" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="Q76" s="15">
         <f t="shared" si="276"/>
@@ -10199,11 +10439,11 @@
       </c>
       <c r="R76" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="S76" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="T76" s="19">
         <f t="shared" si="279"/>
@@ -10211,11 +10451,11 @@
       </c>
       <c r="U76" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.22755555555555551</v>
       </c>
       <c r="V76" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.27259259259259255</v>
       </c>
       <c r="W76" s="18">
         <f t="shared" si="281"/>
@@ -10223,11 +10463,11 @@
       </c>
       <c r="X76" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>0.18962962962962962</v>
       </c>
       <c r="Y76" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.22716049382716047</v>
       </c>
       <c r="Z76" s="20">
         <f t="shared" si="284"/>
@@ -10235,11 +10475,11 @@
       </c>
       <c r="AA76" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.30340740740740735</v>
       </c>
       <c r="AB76" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.36345679012345677</v>
       </c>
       <c r="AC76" s="16">
         <f t="shared" si="287"/>
@@ -10247,11 +10487,11 @@
       </c>
       <c r="AD76" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE76" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF76" s="17" t="str">
         <f t="shared" si="290"/>
@@ -10259,26 +10499,27 @@
       </c>
       <c r="AG76" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH76" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI76" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
+      <c r="AJ76" s="21"/>
     </row>
     <row r="77" spans="1:36">
       <c r="A77" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L77" s="14">
         <f t="shared" si="271"/>
@@ -10379,13 +10620,13 @@
     </row>
     <row r="78" spans="1:36">
       <c r="A78" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="L78" s="14">
         <f t="shared" si="271"/>
@@ -10486,13 +10727,13 @@
     </row>
     <row r="79" spans="1:36">
       <c r="A79" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="L79" s="14">
         <f t="shared" si="271"/>
@@ -10593,13 +10834,13 @@
     </row>
     <row r="80" spans="1:36">
       <c r="A80" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="L80" s="14">
         <f t="shared" si="271"/>
@@ -10700,13 +10941,13 @@
     </row>
     <row r="81" spans="1:35">
       <c r="A81" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L81" s="14">
         <f t="shared" si="271"/>
@@ -10807,13 +11048,13 @@
     </row>
     <row r="82" spans="1:35">
       <c r="A82" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L82" s="14">
         <f t="shared" si="271"/>
@@ -10914,13 +11155,13 @@
     </row>
     <row r="83" spans="1:35">
       <c r="A83" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L83" s="14">
         <f t="shared" si="271"/>
@@ -11021,13 +11262,13 @@
     </row>
     <row r="84" spans="1:35">
       <c r="A84" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L84" s="14">
         <f t="shared" si="271"/>
@@ -11128,13 +11369,13 @@
     </row>
     <row r="85" spans="1:35">
       <c r="A85" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="L85" s="14">
         <f t="shared" si="271"/>
@@ -11235,13 +11476,13 @@
     </row>
     <row r="86" spans="1:35">
       <c r="A86" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="L86" s="14">
         <f t="shared" si="271"/>
@@ -11342,13 +11583,13 @@
     </row>
     <row r="87" spans="1:35">
       <c r="A87" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L87" s="14">
         <f t="shared" si="271"/>
@@ -11449,13 +11690,13 @@
     </row>
     <row r="88" spans="1:35">
       <c r="A88" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L88" s="14">
         <f t="shared" si="271"/>
@@ -11556,13 +11797,13 @@
     </row>
     <row r="89" spans="1:35">
       <c r="A89" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L89" s="14">
         <f t="shared" si="271"/>
@@ -11663,13 +11904,13 @@
     </row>
     <row r="90" spans="1:35">
       <c r="A90" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="L90" s="14">
         <f t="shared" si="271"/>
@@ -11770,13 +12011,13 @@
     </row>
     <row r="91" spans="1:35">
       <c r="A91" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L91" s="14">
         <f t="shared" si="271"/>
@@ -11877,13 +12118,13 @@
     </row>
     <row r="92" spans="1:35">
       <c r="A92" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L92" s="14">
         <f t="shared" si="271"/>
@@ -11984,13 +12225,13 @@
     </row>
     <row r="93" spans="1:35">
       <c r="A93" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="L93" s="14">
         <f t="shared" si="271"/>
@@ -12091,13 +12332,13 @@
     </row>
     <row r="94" spans="1:35">
       <c r="A94" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L94" s="14">
         <f t="shared" si="271"/>
@@ -12198,13 +12439,13 @@
     </row>
     <row r="95" spans="1:35">
       <c r="A95" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="L95" s="14">
         <f t="shared" si="271"/>
@@ -12305,13 +12546,13 @@
     </row>
     <row r="96" spans="1:35">
       <c r="A96" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L96" s="14">
         <f t="shared" si="271"/>
@@ -12412,13 +12653,13 @@
     </row>
     <row r="97" spans="1:35">
       <c r="A97" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="L97" s="14">
         <f t="shared" si="271"/>
@@ -12522,10 +12763,10 @@
         <v>43</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L98" s="14">
         <f t="shared" si="271"/>
@@ -12629,10 +12870,10 @@
         <v>43</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L99" s="14">
         <f t="shared" si="271"/>
@@ -12736,10 +12977,10 @@
         <v>43</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L100" s="14">
         <f t="shared" si="271"/>
@@ -12843,10 +13084,10 @@
         <v>43</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L101" s="14">
         <f t="shared" si="271"/>
@@ -12950,10 +13191,10 @@
         <v>43</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="L102" s="14">
         <f t="shared" si="271"/>
@@ -13057,10 +13298,10 @@
         <v>43</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="L103" s="14">
         <f t="shared" si="271"/>
@@ -13164,10 +13405,10 @@
         <v>43</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L104" s="14">
         <f t="shared" si="271"/>
@@ -13271,10 +13512,10 @@
         <v>43</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L105" s="14">
         <f t="shared" si="271"/>
@@ -13378,10 +13619,10 @@
         <v>43</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L106" s="14">
         <f t="shared" si="271"/>
@@ -13485,10 +13726,10 @@
         <v>43</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L107" s="14">
         <f t="shared" si="271"/>
@@ -13589,13 +13830,13 @@
     </row>
     <row r="108" spans="1:35">
       <c r="A108" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="L108" s="14">
         <f t="shared" si="271"/>
@@ -13696,13 +13937,13 @@
     </row>
     <row r="109" spans="1:35">
       <c r="A109" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="L109" s="14">
         <f t="shared" si="271"/>
@@ -13803,13 +14044,13 @@
     </row>
     <row r="110" spans="1:35">
       <c r="A110" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="L110" s="14">
         <f t="shared" si="271"/>
@@ -13910,13 +14151,13 @@
     </row>
     <row r="111" spans="1:35">
       <c r="A111" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="L111" s="14">
         <f t="shared" si="271"/>
@@ -14017,13 +14258,13 @@
     </row>
     <row r="112" spans="1:35">
       <c r="A112" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="L112" s="14">
         <f t="shared" si="271"/>
@@ -14124,13 +14365,13 @@
     </row>
     <row r="113" spans="1:35">
       <c r="A113" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="L113" s="14">
         <f t="shared" si="271"/>
@@ -14231,13 +14472,13 @@
     </row>
     <row r="114" spans="1:35">
       <c r="A114" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="L114" s="14">
         <f t="shared" si="271"/>
@@ -14338,13 +14579,13 @@
     </row>
     <row r="115" spans="1:35">
       <c r="A115" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="L115" s="14">
         <f t="shared" si="271"/>
@@ -14445,13 +14686,13 @@
     </row>
     <row r="116" spans="1:35">
       <c r="A116" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="L116" s="14">
         <f t="shared" si="271"/>
@@ -14552,13 +14793,13 @@
     </row>
     <row r="117" spans="1:35">
       <c r="A117" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L117" s="14">
         <f t="shared" si="271"/>
@@ -14659,13 +14900,13 @@
     </row>
     <row r="118" spans="1:35">
       <c r="A118" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="L118" s="14">
         <f t="shared" si="271"/>
@@ -14766,13 +15007,13 @@
     </row>
     <row r="119" spans="1:35">
       <c r="A119" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="L119" s="14">
         <f t="shared" si="271"/>
@@ -14876,10 +15117,10 @@
         <v>67</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L120" s="14">
         <f t="shared" si="271"/>
@@ -14983,10 +15224,10 @@
         <v>67</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L121" s="14">
         <f t="shared" si="271"/>
@@ -15090,10 +15331,10 @@
         <v>67</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L122" s="14">
         <f t="shared" si="271"/>
@@ -15197,10 +15438,10 @@
         <v>67</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L123" s="14">
         <f t="shared" si="271"/>
@@ -15304,10 +15545,10 @@
         <v>67</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L124" s="14">
         <f t="shared" si="271"/>
@@ -15411,10 +15652,10 @@
         <v>67</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L125" s="14">
         <f t="shared" si="271"/>
@@ -15518,45 +15759,45 @@
         <v>67</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L126" s="14">
-        <f t="shared" ref="L126:L129" si="555">E126*I126</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M126" s="14">
-        <f t="shared" ref="M126:M129" si="556">E126*J126</f>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N126" s="14">
-        <f t="shared" ref="N126:N129" si="557">E126*K126</f>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O126" s="15">
-        <f t="shared" ref="O126:O129" si="558">F126*I126</f>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P126" s="15">
-        <f t="shared" ref="P126:P129" si="559">F126*J126</f>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q126" s="15">
-        <f t="shared" ref="Q126:Q129" si="560">F126*K126</f>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R126" s="19">
-        <f t="shared" ref="R126:R129" si="561">H126*I126</f>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S126" s="19">
-        <f t="shared" ref="S126:S129" si="562">H126*J126</f>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T126" s="19">
-        <f t="shared" ref="T126:T129" si="563">H126*K126</f>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U126" s="18">
@@ -15564,59 +15805,59 @@
         <v>0</v>
       </c>
       <c r="V126" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W126" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X126" s="20">
-        <f t="shared" ref="X126:Z129" si="564">R126*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y126" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z126" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA126" s="16">
-        <f t="shared" ref="AA126:AC129" si="565">O126*$G$3/$E$3</f>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB126" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC126" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD126" s="17" t="str">
-        <f t="shared" ref="AD126:AI129" si="566">IF((U126+X126)&lt;($J$4/2),"低",IF((U126+X126)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE126" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF126" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG126" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH126" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI126" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="293"/>
         <v>低</v>
       </c>
     </row>
@@ -15625,1299 +15866,1380 @@
         <v>67</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L127" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M127" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N127" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O127" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P127" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q127" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R127" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S127" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T127" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U127" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V127" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W127" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X127" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y127" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z127" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA127" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB127" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC127" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD127" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE127" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF127" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG127" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH127" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI127" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="128" spans="1:35">
+      <c r="A128" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L128" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M128" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N128" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O128" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P128" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q128" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R128" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S128" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T128" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U128" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V128" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W128" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X128" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y128" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z128" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA128" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB128" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC128" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD128" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE128" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF128" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG128" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH128" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI128" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="129" spans="1:35">
+      <c r="A129" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L129" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M129" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N129" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O129" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P129" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q129" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R129" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S129" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T129" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U129" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V129" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W129" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X129" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y129" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z129" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA129" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB129" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC129" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD129" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE129" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF129" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG129" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH129" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI129" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="130" spans="1:35">
+      <c r="A130" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L130" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M130" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N130" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O130" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P130" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q130" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R130" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S130" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T130" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U130" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V130" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W130" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X130" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y130" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z130" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA130" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB130" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC130" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD130" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE130" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF130" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG130" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH130" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI130" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="131" spans="1:35">
+      <c r="A131" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L131" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M131" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N131" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O131" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P131" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q131" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R131" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S131" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T131" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U131" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V131" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W131" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X131" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y131" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z131" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA131" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB131" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC131" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD131" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE131" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF131" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG131" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH131" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI131" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="132" spans="1:35">
+      <c r="A132" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L132" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M132" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N132" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O132" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P132" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q132" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R132" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S132" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T132" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U132" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V132" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W132" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X132" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y132" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z132" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA132" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB132" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC132" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD132" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE132" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF132" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG132" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH132" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI132" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="133" spans="1:35">
+      <c r="A133" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L133" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M133" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N133" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O133" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P133" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q133" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R133" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S133" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T133" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U133" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V133" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W133" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X133" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y133" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z133" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA133" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB133" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC133" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD133" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE133" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF133" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG133" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH133" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI133" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="134" spans="1:35">
+      <c r="A134" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L134" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M134" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N134" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O134" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P134" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q134" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R134" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S134" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T134" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U134" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V134" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W134" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X134" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y134" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z134" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA134" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB134" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC134" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD134" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE134" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF134" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG134" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH134" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI134" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="135" spans="1:35">
+      <c r="A135" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L135" s="14">
+        <f t="shared" ref="L135:L138" si="555">E135*I135</f>
+        <v>0</v>
+      </c>
+      <c r="M135" s="14">
+        <f t="shared" ref="M135:M138" si="556">E135*J135</f>
+        <v>0</v>
+      </c>
+      <c r="N135" s="14">
+        <f t="shared" ref="N135:N138" si="557">E135*K135</f>
+        <v>0</v>
+      </c>
+      <c r="O135" s="15">
+        <f t="shared" ref="O135:O138" si="558">F135*I135</f>
+        <v>0</v>
+      </c>
+      <c r="P135" s="15">
+        <f t="shared" ref="P135:P138" si="559">F135*J135</f>
+        <v>0</v>
+      </c>
+      <c r="Q135" s="15">
+        <f t="shared" ref="Q135:Q138" si="560">F135*K135</f>
+        <v>0</v>
+      </c>
+      <c r="R135" s="19">
+        <f t="shared" ref="R135:R138" si="561">H135*I135</f>
+        <v>0</v>
+      </c>
+      <c r="S135" s="19">
+        <f t="shared" ref="S135:S138" si="562">H135*J135</f>
+        <v>0</v>
+      </c>
+      <c r="T135" s="19">
+        <f t="shared" ref="T135:T138" si="563">H135*K135</f>
+        <v>0</v>
+      </c>
+      <c r="U135" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V135" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="W135" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="X135" s="20">
+        <f t="shared" ref="X135:Z138" si="564">R135*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y135" s="20">
+        <f t="shared" si="564"/>
+        <v>0</v>
+      </c>
+      <c r="Z135" s="20">
+        <f t="shared" si="564"/>
+        <v>0</v>
+      </c>
+      <c r="AA135" s="16">
+        <f t="shared" ref="AA135:AC138" si="565">O135*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB135" s="16">
+        <f t="shared" si="565"/>
+        <v>0</v>
+      </c>
+      <c r="AC135" s="16">
+        <f t="shared" si="565"/>
+        <v>0</v>
+      </c>
+      <c r="AD135" s="17" t="str">
+        <f t="shared" ref="AD135:AI138" si="566">IF((U135+X135)&lt;($J$4/2),"低",IF((U135+X135)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE135" s="17" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AF135" s="17" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AG135" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AH135" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AI135" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="136" spans="1:35">
+      <c r="A136" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B136" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C136" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L127" s="14">
+      <c r="L136" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M127" s="14">
+      <c r="M136" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N127" s="14">
+      <c r="N136" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O127" s="15">
+      <c r="O136" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P127" s="15">
+      <c r="P136" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q127" s="15">
+      <c r="Q136" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R127" s="19">
+      <c r="R136" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S127" s="19">
+      <c r="S136" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T127" s="19">
+      <c r="T136" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U127" s="18">
-        <f t="shared" ref="U127:W129" si="567">L127*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="V127" s="18">
+      <c r="U136" s="18">
+        <f t="shared" ref="U136:W138" si="567">L136*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V136" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W127" s="18">
+      <c r="W136" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X127" s="20">
+      <c r="X136" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y127" s="20">
+      <c r="Y136" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z127" s="20">
+      <c r="Z136" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA127" s="16">
+      <c r="AA136" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB127" s="16">
+      <c r="AB136" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC127" s="16">
+      <c r="AC136" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD127" s="17" t="str">
+      <c r="AD136" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE127" s="17" t="str">
+      <c r="AE136" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF127" s="17" t="str">
+      <c r="AF136" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG127" s="15" t="str">
+      <c r="AG136" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH127" s="15" t="str">
+      <c r="AH136" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI127" s="15" t="str">
+      <c r="AI136" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
-    <row r="128" spans="1:35">
-      <c r="A128" s="7" t="s">
+    <row r="137" spans="1:35">
+      <c r="A137" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B137" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C137" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L128" s="14">
+      <c r="L137" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M128" s="14">
+      <c r="M137" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N128" s="14">
+      <c r="N137" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O128" s="15">
+      <c r="O137" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P128" s="15">
+      <c r="P137" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q128" s="15">
+      <c r="Q137" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R128" s="19">
+      <c r="R137" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S128" s="19">
+      <c r="S137" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T128" s="19">
+      <c r="T137" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U128" s="18">
+      <c r="U137" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="V128" s="18">
+      <c r="V137" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W128" s="18">
+      <c r="W137" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X128" s="20">
+      <c r="X137" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y128" s="20">
+      <c r="Y137" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z128" s="20">
+      <c r="Z137" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA128" s="16">
+      <c r="AA137" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB128" s="16">
+      <c r="AB137" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC128" s="16">
+      <c r="AC137" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD128" s="17" t="str">
+      <c r="AD137" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE128" s="17" t="str">
+      <c r="AE137" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF128" s="17" t="str">
+      <c r="AF137" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG128" s="15" t="str">
+      <c r="AG137" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH128" s="15" t="str">
+      <c r="AH137" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI128" s="15" t="str">
+      <c r="AI137" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
-    <row r="129" spans="1:35">
-      <c r="A129" s="7" t="s">
+    <row r="138" spans="1:35">
+      <c r="A138" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B138" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C138" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L129" s="14">
+      <c r="L138" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M129" s="14">
+      <c r="M138" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N129" s="14">
+      <c r="N138" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O129" s="15">
+      <c r="O138" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P129" s="15">
+      <c r="P138" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q129" s="15">
+      <c r="Q138" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R129" s="19">
+      <c r="R138" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S129" s="19">
+      <c r="S138" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T129" s="19">
+      <c r="T138" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U129" s="18">
+      <c r="U138" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="V129" s="18">
+      <c r="V138" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W129" s="18">
+      <c r="W138" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X129" s="20">
+      <c r="X138" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y129" s="20">
+      <c r="Y138" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z129" s="20">
+      <c r="Z138" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA129" s="16">
+      <c r="AA138" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB129" s="16">
+      <c r="AB138" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC129" s="16">
+      <c r="AC138" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD129" s="17" t="str">
+      <c r="AD138" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE129" s="17" t="str">
+      <c r="AE138" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF129" s="17" t="str">
+      <c r="AF138" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG129" s="15" t="str">
+      <c r="AG138" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH129" s="15" t="str">
+      <c r="AH138" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI129" s="15" t="str">
+      <c r="AI138" s="15" t="str">
         <f t="shared" si="566"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="130" spans="1:35">
-      <c r="L130" s="14">
-        <f t="shared" ref="L130:L140" si="568">E130*I130</f>
-        <v>0</v>
-      </c>
-      <c r="M130" s="14">
-        <f t="shared" ref="M130:M140" si="569">E130*J130</f>
-        <v>0</v>
-      </c>
-      <c r="N130" s="14">
-        <f t="shared" ref="N130:N140" si="570">E130*K130</f>
-        <v>0</v>
-      </c>
-      <c r="O130" s="15">
-        <f t="shared" ref="O130:O140" si="571">F130*I130</f>
-        <v>0</v>
-      </c>
-      <c r="P130" s="15">
-        <f t="shared" ref="P130:P140" si="572">F130*J130</f>
-        <v>0</v>
-      </c>
-      <c r="Q130" s="15">
-        <f t="shared" ref="Q130:Q140" si="573">F130*K130</f>
-        <v>0</v>
-      </c>
-      <c r="R130" s="19">
-        <f t="shared" ref="R130:R140" si="574">H130*I130</f>
-        <v>0</v>
-      </c>
-      <c r="S130" s="19">
-        <f t="shared" ref="S130:S140" si="575">H130*J130</f>
-        <v>0</v>
-      </c>
-      <c r="T130" s="19">
-        <f t="shared" ref="T130:T140" si="576">H130*K130</f>
-        <v>0</v>
-      </c>
-      <c r="U130" s="18">
-        <f t="shared" ref="U130:U140" si="577">L130*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="V130" s="18">
-        <f t="shared" ref="V130:V140" si="578">M130*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="W130" s="18">
-        <f t="shared" ref="W130:W140" si="579">N130*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="X130" s="20">
-        <f t="shared" ref="X130:X140" si="580">R130*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="Y130" s="20">
-        <f t="shared" ref="Y130:Y140" si="581">S130*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="Z130" s="20">
-        <f t="shared" ref="Z130:Z140" si="582">T130*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AA130" s="16">
-        <f t="shared" ref="AA130:AA140" si="583">O130*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AB130" s="16">
-        <f t="shared" ref="AB130:AB140" si="584">P130*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AC130" s="16">
-        <f t="shared" ref="AC130:AC140" si="585">Q130*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AD130" s="17" t="str">
-        <f t="shared" ref="AD130:AD140" si="586">IF((U130+X130)&lt;($J$4/2),"低",IF((U130+X130)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AE130" s="17" t="str">
-        <f t="shared" ref="AE130:AE140" si="587">IF((V130+Y130)&lt;($J$4/2),"低",IF((V130+Y130)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AF130" s="17" t="str">
-        <f t="shared" ref="AF130:AF140" si="588">IF((W130+Z130)&lt;($J$4/2),"低",IF((W130+Z130)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AG130" s="15" t="str">
-        <f t="shared" ref="AG130:AG140" si="589">IF((X130+AA130)&lt;($J$4/2),"低",IF((X130+AA130)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AH130" s="15" t="str">
-        <f t="shared" ref="AH130:AH140" si="590">IF((Y130+AB130)&lt;($J$4/2),"低",IF((Y130+AB130)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AI130" s="15" t="str">
-        <f t="shared" ref="AI130:AI140" si="591">IF((Z130+AC130)&lt;($J$4/2),"低",IF((Z130+AC130)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="131" spans="1:35">
-      <c r="L131" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M131" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N131" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O131" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P131" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q131" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R131" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S131" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T131" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U131" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V131" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W131" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X131" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y131" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z131" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA131" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB131" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC131" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD131" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE131" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF131" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG131" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH131" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI131" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="132" spans="1:35">
-      <c r="L132" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M132" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N132" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O132" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P132" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q132" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R132" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S132" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T132" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U132" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V132" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W132" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X132" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y132" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z132" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA132" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB132" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC132" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD132" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE132" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF132" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG132" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH132" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI132" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="133" spans="1:35">
-      <c r="L133" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M133" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N133" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O133" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P133" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q133" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R133" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S133" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T133" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U133" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V133" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W133" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X133" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y133" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z133" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA133" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB133" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC133" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD133" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE133" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF133" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG133" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH133" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI133" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="134" spans="1:35">
-      <c r="L134" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M134" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N134" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O134" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P134" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q134" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R134" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S134" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T134" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U134" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V134" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W134" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X134" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y134" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z134" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA134" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB134" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC134" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD134" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE134" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF134" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG134" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH134" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI134" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="135" spans="1:35">
-      <c r="L135" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M135" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N135" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O135" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P135" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q135" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R135" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S135" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T135" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U135" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V135" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W135" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X135" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y135" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z135" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA135" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB135" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC135" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD135" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE135" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF135" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG135" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH135" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI135" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="136" spans="1:35">
-      <c r="L136" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M136" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N136" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O136" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P136" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q136" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R136" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S136" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T136" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U136" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V136" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W136" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X136" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y136" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z136" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA136" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB136" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC136" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD136" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE136" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF136" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG136" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH136" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI136" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="137" spans="1:35">
-      <c r="L137" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M137" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N137" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O137" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P137" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q137" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R137" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S137" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T137" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U137" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V137" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W137" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X137" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y137" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z137" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA137" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB137" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC137" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD137" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE137" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF137" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG137" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH137" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI137" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="138" spans="1:35">
-      <c r="L138" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M138" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N138" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O138" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P138" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q138" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R138" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S138" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T138" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U138" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V138" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W138" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X138" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y138" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z138" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA138" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB138" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC138" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD138" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE138" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF138" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG138" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH138" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI138" s="15" t="str">
-        <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
     <row r="139" spans="1:35">
       <c r="L139" s="14">
-        <f t="shared" si="568"/>
+        <f t="shared" ref="L139:L149" si="568">E139*I139</f>
         <v>0</v>
       </c>
       <c r="M139" s="14">
-        <f t="shared" si="569"/>
+        <f t="shared" ref="M139:M149" si="569">E139*J139</f>
         <v>0</v>
       </c>
       <c r="N139" s="14">
-        <f t="shared" si="570"/>
+        <f t="shared" ref="N139:N149" si="570">E139*K139</f>
         <v>0</v>
       </c>
       <c r="O139" s="15">
-        <f t="shared" si="571"/>
+        <f t="shared" ref="O139:O149" si="571">F139*I139</f>
         <v>0</v>
       </c>
       <c r="P139" s="15">
-        <f t="shared" si="572"/>
+        <f t="shared" ref="P139:P149" si="572">F139*J139</f>
         <v>0</v>
       </c>
       <c r="Q139" s="15">
-        <f t="shared" si="573"/>
+        <f t="shared" ref="Q139:Q149" si="573">F139*K139</f>
         <v>0</v>
       </c>
       <c r="R139" s="19">
-        <f t="shared" si="574"/>
+        <f t="shared" ref="R139:R149" si="574">H139*I139</f>
         <v>0</v>
       </c>
       <c r="S139" s="19">
-        <f t="shared" si="575"/>
+        <f t="shared" ref="S139:S149" si="575">H139*J139</f>
         <v>0</v>
       </c>
       <c r="T139" s="19">
-        <f t="shared" si="576"/>
+        <f t="shared" ref="T139:T149" si="576">H139*K139</f>
         <v>0</v>
       </c>
       <c r="U139" s="18">
-        <f t="shared" si="577"/>
+        <f t="shared" ref="U139:U149" si="577">L139*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="V139" s="18">
-        <f t="shared" si="578"/>
+        <f t="shared" ref="V139:V149" si="578">M139*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="W139" s="18">
-        <f t="shared" si="579"/>
+        <f t="shared" ref="W139:W149" si="579">N139*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X139" s="20">
-        <f t="shared" si="580"/>
+        <f t="shared" ref="X139:X149" si="580">R139*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Y139" s="20">
-        <f t="shared" si="581"/>
+        <f t="shared" ref="Y139:Y149" si="581">S139*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Z139" s="20">
-        <f t="shared" si="582"/>
+        <f t="shared" ref="Z139:Z149" si="582">T139*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA139" s="16">
-        <f t="shared" si="583"/>
+        <f t="shared" ref="AA139:AA149" si="583">O139*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AB139" s="16">
-        <f t="shared" si="584"/>
+        <f t="shared" ref="AB139:AB149" si="584">P139*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AC139" s="16">
-        <f t="shared" si="585"/>
+        <f t="shared" ref="AC139:AC149" si="585">Q139*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD139" s="17" t="str">
-        <f t="shared" si="586"/>
+        <f t="shared" ref="AD139:AD149" si="586">IF((U139+X139)&lt;($J$4/2),"低",IF((U139+X139)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE139" s="17" t="str">
-        <f t="shared" si="587"/>
+        <f t="shared" ref="AE139:AE149" si="587">IF((V139+Y139)&lt;($J$4/2),"低",IF((V139+Y139)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AF139" s="17" t="str">
-        <f t="shared" si="588"/>
+        <f t="shared" ref="AF139:AF149" si="588">IF((W139+Z139)&lt;($J$4/2),"低",IF((W139+Z139)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG139" s="15" t="str">
-        <f t="shared" si="589"/>
+        <f t="shared" ref="AG139:AG149" si="589">IF((X139+AA139)&lt;($J$4/2),"低",IF((X139+AA139)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AH139" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" ref="AH139:AH149" si="590">IF((Y139+AB139)&lt;($J$4/2),"低",IF((Y139+AB139)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AI139" s="15" t="str">
-        <f t="shared" si="591"/>
+        <f t="shared" ref="AI139:AI149" si="591">IF((Z139+AC139)&lt;($J$4/2),"低",IF((Z139+AC139)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
     </row>
@@ -17020,105 +17342,888 @@
       </c>
     </row>
     <row r="141" spans="1:35">
-      <c r="U141" s="18"/>
-      <c r="V141" s="18"/>
-      <c r="W141" s="18"/>
-      <c r="X141" s="20"/>
-      <c r="Y141" s="20"/>
-      <c r="Z141" s="20"/>
-      <c r="AA141" s="16"/>
-      <c r="AB141" s="16"/>
-      <c r="AC141" s="16"/>
+      <c r="L141" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M141" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N141" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O141" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P141" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q141" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R141" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S141" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T141" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U141" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V141" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W141" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X141" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y141" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z141" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA141" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB141" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC141" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD141" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE141" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF141" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG141" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH141" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI141" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
     </row>
     <row r="142" spans="1:35">
-      <c r="U142" s="18"/>
-      <c r="V142" s="18"/>
-      <c r="W142" s="18"/>
-      <c r="X142" s="20"/>
-      <c r="Y142" s="20"/>
-      <c r="Z142" s="20"/>
-      <c r="AA142" s="16"/>
-      <c r="AB142" s="16"/>
-      <c r="AC142" s="16"/>
+      <c r="L142" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M142" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N142" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O142" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P142" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q142" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R142" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S142" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T142" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U142" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V142" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W142" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X142" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y142" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z142" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA142" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB142" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC142" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD142" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE142" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF142" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG142" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH142" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI142" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
     </row>
     <row r="143" spans="1:35">
-      <c r="U143" s="18"/>
-      <c r="V143" s="18"/>
-      <c r="W143" s="18"/>
-      <c r="X143" s="20"/>
-      <c r="Y143" s="20"/>
-      <c r="Z143" s="20"/>
-      <c r="AA143" s="16"/>
-      <c r="AB143" s="16"/>
-      <c r="AC143" s="16"/>
+      <c r="L143" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M143" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N143" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O143" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P143" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q143" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R143" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S143" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T143" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U143" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V143" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W143" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X143" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y143" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z143" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA143" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB143" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC143" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD143" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE143" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF143" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG143" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH143" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI143" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
     </row>
     <row r="144" spans="1:35">
-      <c r="U144" s="18"/>
-      <c r="V144" s="18"/>
-      <c r="W144" s="18"/>
-      <c r="X144" s="20"/>
-      <c r="Y144" s="20"/>
-      <c r="Z144" s="20"/>
-      <c r="AA144" s="16"/>
-      <c r="AB144" s="16"/>
-      <c r="AC144" s="16"/>
-    </row>
-    <row r="145" spans="21:29">
-      <c r="U145" s="18"/>
-      <c r="V145" s="18"/>
-      <c r="W145" s="18"/>
-      <c r="X145" s="20"/>
-      <c r="Y145" s="20"/>
-      <c r="Z145" s="20"/>
-      <c r="AA145" s="16"/>
-      <c r="AB145" s="16"/>
-      <c r="AC145" s="16"/>
-    </row>
-    <row r="146" spans="21:29">
-      <c r="U146" s="18"/>
-      <c r="V146" s="18"/>
-      <c r="W146" s="18"/>
-      <c r="X146" s="20"/>
-      <c r="Y146" s="20"/>
-      <c r="Z146" s="20"/>
-      <c r="AA146" s="16"/>
-      <c r="AB146" s="16"/>
-      <c r="AC146" s="16"/>
-    </row>
-    <row r="147" spans="21:29">
-      <c r="U147" s="18"/>
-      <c r="V147" s="18"/>
-      <c r="W147" s="18"/>
-      <c r="X147" s="20"/>
-      <c r="Y147" s="20"/>
-      <c r="Z147" s="20"/>
-      <c r="AA147" s="16"/>
-      <c r="AB147" s="16"/>
-      <c r="AC147" s="16"/>
-    </row>
-    <row r="148" spans="21:29">
-      <c r="U148" s="18"/>
-      <c r="V148" s="18"/>
-      <c r="W148" s="18"/>
-      <c r="X148" s="20"/>
-      <c r="Y148" s="20"/>
-      <c r="Z148" s="20"/>
-      <c r="AA148" s="16"/>
-      <c r="AB148" s="16"/>
-      <c r="AC148" s="16"/>
-    </row>
-    <row r="149" spans="21:29">
-      <c r="U149" s="18"/>
-      <c r="V149" s="18"/>
-      <c r="W149" s="18"/>
-      <c r="X149" s="20"/>
-      <c r="Y149" s="20"/>
-      <c r="Z149" s="20"/>
-      <c r="AA149" s="16"/>
-      <c r="AB149" s="16"/>
-      <c r="AC149" s="16"/>
-    </row>
-    <row r="150" spans="21:29">
+      <c r="L144" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M144" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N144" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O144" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P144" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q144" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R144" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S144" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T144" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U144" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V144" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W144" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X144" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y144" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z144" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA144" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB144" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC144" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD144" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE144" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF144" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG144" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH144" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI144" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="145" spans="12:35">
+      <c r="L145" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M145" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N145" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O145" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P145" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q145" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R145" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S145" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T145" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U145" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V145" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W145" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X145" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y145" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z145" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA145" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB145" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC145" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD145" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE145" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF145" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG145" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH145" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI145" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="146" spans="12:35">
+      <c r="L146" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M146" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N146" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O146" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P146" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q146" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R146" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S146" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T146" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U146" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V146" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W146" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X146" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y146" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z146" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA146" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB146" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC146" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD146" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE146" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF146" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG146" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH146" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI146" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="147" spans="12:35">
+      <c r="L147" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M147" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N147" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O147" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P147" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q147" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R147" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S147" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T147" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U147" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V147" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W147" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X147" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y147" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z147" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA147" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB147" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC147" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD147" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE147" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF147" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG147" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH147" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI147" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="148" spans="12:35">
+      <c r="L148" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M148" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N148" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O148" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P148" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q148" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R148" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S148" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T148" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U148" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V148" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W148" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X148" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y148" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z148" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA148" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB148" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC148" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD148" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE148" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF148" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG148" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH148" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI148" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="149" spans="12:35">
+      <c r="L149" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M149" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N149" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O149" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P149" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q149" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R149" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S149" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T149" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U149" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V149" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W149" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X149" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y149" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z149" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA149" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB149" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC149" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD149" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE149" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF149" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG149" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH149" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI149" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="150" spans="12:35">
       <c r="U150" s="18"/>
       <c r="V150" s="18"/>
       <c r="W150" s="18"/>
@@ -17129,7 +18234,7 @@
       <c r="AB150" s="16"/>
       <c r="AC150" s="16"/>
     </row>
-    <row r="151" spans="21:29">
+    <row r="151" spans="12:35">
       <c r="U151" s="18"/>
       <c r="V151" s="18"/>
       <c r="W151" s="18"/>
@@ -17140,7 +18245,7 @@
       <c r="AB151" s="16"/>
       <c r="AC151" s="16"/>
     </row>
-    <row r="152" spans="21:29">
+    <row r="152" spans="12:35">
       <c r="U152" s="18"/>
       <c r="V152" s="18"/>
       <c r="W152" s="18"/>
@@ -17151,7 +18256,7 @@
       <c r="AB152" s="16"/>
       <c r="AC152" s="16"/>
     </row>
-    <row r="153" spans="21:29">
+    <row r="153" spans="12:35">
       <c r="U153" s="18"/>
       <c r="V153" s="18"/>
       <c r="W153" s="18"/>
@@ -17162,7 +18267,7 @@
       <c r="AB153" s="16"/>
       <c r="AC153" s="16"/>
     </row>
-    <row r="154" spans="21:29">
+    <row r="154" spans="12:35">
       <c r="U154" s="18"/>
       <c r="V154" s="18"/>
       <c r="W154" s="18"/>
@@ -17173,7 +18278,7 @@
       <c r="AB154" s="16"/>
       <c r="AC154" s="16"/>
     </row>
-    <row r="155" spans="21:29">
+    <row r="155" spans="12:35">
       <c r="U155" s="18"/>
       <c r="V155" s="18"/>
       <c r="W155" s="18"/>
@@ -17184,7 +18289,7 @@
       <c r="AB155" s="16"/>
       <c r="AC155" s="16"/>
     </row>
-    <row r="156" spans="21:29">
+    <row r="156" spans="12:35">
       <c r="U156" s="18"/>
       <c r="V156" s="18"/>
       <c r="W156" s="18"/>
@@ -17195,7 +18300,7 @@
       <c r="AB156" s="16"/>
       <c r="AC156" s="16"/>
     </row>
-    <row r="157" spans="21:29">
+    <row r="157" spans="12:35">
       <c r="U157" s="18"/>
       <c r="V157" s="18"/>
       <c r="W157" s="18"/>
@@ -17206,7 +18311,7 @@
       <c r="AB157" s="16"/>
       <c r="AC157" s="16"/>
     </row>
-    <row r="158" spans="21:29">
+    <row r="158" spans="12:35">
       <c r="U158" s="18"/>
       <c r="V158" s="18"/>
       <c r="W158" s="18"/>
@@ -17217,7 +18322,7 @@
       <c r="AB158" s="16"/>
       <c r="AC158" s="16"/>
     </row>
-    <row r="159" spans="21:29">
+    <row r="159" spans="12:35">
       <c r="U159" s="18"/>
       <c r="V159" s="18"/>
       <c r="W159" s="18"/>
@@ -17228,7 +18333,7 @@
       <c r="AB159" s="16"/>
       <c r="AC159" s="16"/>
     </row>
-    <row r="160" spans="21:29">
+    <row r="160" spans="12:35">
       <c r="U160" s="18"/>
       <c r="V160" s="18"/>
       <c r="W160" s="18"/>
@@ -20329,6 +21434,105 @@
       <c r="AA441" s="16"/>
       <c r="AB441" s="16"/>
       <c r="AC441" s="16"/>
+    </row>
+    <row r="442" spans="21:29">
+      <c r="U442" s="18"/>
+      <c r="V442" s="18"/>
+      <c r="W442" s="18"/>
+      <c r="X442" s="20"/>
+      <c r="Y442" s="20"/>
+      <c r="Z442" s="20"/>
+      <c r="AA442" s="16"/>
+      <c r="AB442" s="16"/>
+      <c r="AC442" s="16"/>
+    </row>
+    <row r="443" spans="21:29">
+      <c r="U443" s="18"/>
+      <c r="V443" s="18"/>
+      <c r="W443" s="18"/>
+      <c r="X443" s="20"/>
+      <c r="Y443" s="20"/>
+      <c r="Z443" s="20"/>
+      <c r="AA443" s="16"/>
+      <c r="AB443" s="16"/>
+      <c r="AC443" s="16"/>
+    </row>
+    <row r="444" spans="21:29">
+      <c r="U444" s="18"/>
+      <c r="V444" s="18"/>
+      <c r="W444" s="18"/>
+      <c r="X444" s="20"/>
+      <c r="Y444" s="20"/>
+      <c r="Z444" s="20"/>
+      <c r="AA444" s="16"/>
+      <c r="AB444" s="16"/>
+      <c r="AC444" s="16"/>
+    </row>
+    <row r="445" spans="21:29">
+      <c r="U445" s="18"/>
+      <c r="V445" s="18"/>
+      <c r="W445" s="18"/>
+      <c r="X445" s="20"/>
+      <c r="Y445" s="20"/>
+      <c r="Z445" s="20"/>
+      <c r="AA445" s="16"/>
+      <c r="AB445" s="16"/>
+      <c r="AC445" s="16"/>
+    </row>
+    <row r="446" spans="21:29">
+      <c r="U446" s="18"/>
+      <c r="V446" s="18"/>
+      <c r="W446" s="18"/>
+      <c r="X446" s="20"/>
+      <c r="Y446" s="20"/>
+      <c r="Z446" s="20"/>
+      <c r="AA446" s="16"/>
+      <c r="AB446" s="16"/>
+      <c r="AC446" s="16"/>
+    </row>
+    <row r="447" spans="21:29">
+      <c r="U447" s="18"/>
+      <c r="V447" s="18"/>
+      <c r="W447" s="18"/>
+      <c r="X447" s="20"/>
+      <c r="Y447" s="20"/>
+      <c r="Z447" s="20"/>
+      <c r="AA447" s="16"/>
+      <c r="AB447" s="16"/>
+      <c r="AC447" s="16"/>
+    </row>
+    <row r="448" spans="21:29">
+      <c r="U448" s="18"/>
+      <c r="V448" s="18"/>
+      <c r="W448" s="18"/>
+      <c r="X448" s="20"/>
+      <c r="Y448" s="20"/>
+      <c r="Z448" s="20"/>
+      <c r="AA448" s="16"/>
+      <c r="AB448" s="16"/>
+      <c r="AC448" s="16"/>
+    </row>
+    <row r="449" spans="21:29">
+      <c r="U449" s="18"/>
+      <c r="V449" s="18"/>
+      <c r="W449" s="18"/>
+      <c r="X449" s="20"/>
+      <c r="Y449" s="20"/>
+      <c r="Z449" s="20"/>
+      <c r="AA449" s="16"/>
+      <c r="AB449" s="16"/>
+      <c r="AC449" s="16"/>
+    </row>
+    <row r="450" spans="21:29">
+      <c r="U450" s="18"/>
+      <c r="V450" s="18"/>
+      <c r="W450" s="18"/>
+      <c r="X450" s="20"/>
+      <c r="Y450" s="20"/>
+      <c r="Z450" s="20"/>
+      <c r="AA450" s="16"/>
+      <c r="AB450" s="16"/>
+      <c r="AC450" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A02124-92BB-4F94-9928-C9B5F031D1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8E78B4-4CB2-4EEC-8065-793EBAD645D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="247">
   <si>
     <t>英文名稱</t>
   </si>
@@ -942,6 +942,82 @@
   </si>
   <si>
     <t>傷害與普通黑狼鳥沒有區別，反而因為難度成數下降而變少了，主要差在AI(招式選擇及攻擊頻率)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甩尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛牛突進</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>突進上挑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>突進砸擊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡衝鋒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僅對其他大型魔物使用，可能波及玩家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滾石突進</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滾石投擲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滾石爆裂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滾石投擲-泥巴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滾石投擲-水苔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滾石投擲-瘴氣岩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滾石投擲-熔岩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滾石投擲-雪球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滾石投擲-樹木</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滾石投擲-骨片飛散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滾石投擲-結晶飛散</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1509,11 +1585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:AJ450"/>
+  <dimension ref="A2:AJ468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ46" sqref="AJ46"/>
+      <pane ySplit="7" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4075,39 +4151,39 @@
         <v>0</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" ref="L26:L134" si="271">E26*I26</f>
+        <f t="shared" ref="L26:L152" si="271">E26*I26</f>
         <v>448</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" ref="M26:M134" si="272">E26*J26</f>
+        <f t="shared" ref="M26:M152" si="272">E26*J26</f>
         <v>672</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" ref="N26:N134" si="273">E26*K26</f>
+        <f t="shared" ref="N26:N152" si="273">E26*K26</f>
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" ref="O26:O134" si="274">F26*I26</f>
+        <f t="shared" ref="O26:O152" si="274">F26*I26</f>
         <v>602</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" ref="P26:P134" si="275">F26*J26</f>
+        <f t="shared" ref="P26:P152" si="275">F26*J26</f>
         <v>903</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" ref="Q26:Q134" si="276">F26*K26</f>
+        <f t="shared" ref="Q26:Q152" si="276">F26*K26</f>
         <v>0</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" ref="R26:R134" si="277">H26*I26</f>
+        <f t="shared" ref="R26:R152" si="277">H26*I26</f>
         <v>280</v>
       </c>
       <c r="S26" s="19">
-        <f t="shared" ref="S26:S134" si="278">H26*J26</f>
+        <f t="shared" ref="S26:S152" si="278">H26*J26</f>
         <v>420</v>
       </c>
       <c r="T26" s="19">
-        <f t="shared" ref="T26:T134" si="279">H26*K26</f>
+        <f t="shared" ref="T26:T152" si="279">H26*K26</f>
         <v>0</v>
       </c>
       <c r="U26" s="18">
@@ -4115,59 +4191,59 @@
         <v>0.22123456790123455</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" ref="V26:V134" si="280">M26*$G$3/$E$3</f>
+        <f t="shared" ref="V26:V152" si="280">M26*$G$3/$E$3</f>
         <v>0.33185185185185179</v>
       </c>
       <c r="W26" s="18">
-        <f t="shared" ref="W26:W134" si="281">N26*$G$3/$E$3</f>
+        <f t="shared" ref="W26:W152" si="281">N26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X26" s="20">
-        <f t="shared" ref="X26:X134" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="X26:X152" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.13827160493827159</v>
       </c>
       <c r="Y26" s="20">
-        <f t="shared" ref="Y26:Y134" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Y26:Y152" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.2074074074074074</v>
       </c>
       <c r="Z26" s="20">
-        <f t="shared" ref="Z26:Z134" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Z26:Z152" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA26" s="16">
-        <f t="shared" ref="AA26:AA134" si="285">O26*$G$3/$E$3</f>
+        <f t="shared" ref="AA26:AA152" si="285">O26*$G$3/$E$3</f>
         <v>0.29728395061728391</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" ref="AB26:AB134" si="286">P26*$G$3/$E$3</f>
+        <f t="shared" ref="AB26:AB152" si="286">P26*$G$3/$E$3</f>
         <v>0.44592592592592589</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" ref="AC26:AC134" si="287">Q26*$G$3/$E$3</f>
+        <f t="shared" ref="AC26:AC152" si="287">Q26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD26" s="17" t="str">
-        <f t="shared" ref="AD26:AD134" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD26:AD152" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AE26" s="17" t="str">
-        <f t="shared" ref="AE26:AE134" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AE26:AE152" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AF26" s="17" t="str">
-        <f t="shared" ref="AF26:AF134" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AF26:AF152" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG26" s="15" t="str">
-        <f t="shared" ref="AG26:AG134" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AG26:AG152" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AH26" s="15" t="str">
-        <f t="shared" ref="AH26:AH134" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AH26:AH152" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AI26" s="15" t="str">
-        <f t="shared" ref="AI26:AI134" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AI26:AI152" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AJ26" s="21"/>
@@ -4243,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" ref="U27:W135" si="294">L27*$G$3/$E$3</f>
+        <f t="shared" ref="U27:W153" si="294">L27*$G$3/$E$3</f>
         <v>5.8074074074074084E-2</v>
       </c>
       <c r="V27" s="18">
@@ -10521,13 +10597,37 @@
       <c r="C77" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="D77" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="8">
+        <v>28</v>
+      </c>
+      <c r="F77" s="8">
+        <v>39</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H77" s="8">
+        <v>0</v>
+      </c>
+      <c r="I77" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J77" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K77" s="11">
+        <v>0</v>
+      </c>
       <c r="L77" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>137.20000000000002</v>
       </c>
       <c r="M77" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="N77" s="14">
         <f t="shared" si="273"/>
@@ -10535,11 +10635,11 @@
       </c>
       <c r="O77" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>191.10000000000002</v>
       </c>
       <c r="P77" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>370.5</v>
       </c>
       <c r="Q77" s="15">
         <f t="shared" si="276"/>
@@ -10559,11 +10659,11 @@
       </c>
       <c r="U77" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>6.7753086419753084E-2</v>
       </c>
       <c r="V77" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.13135802469135802</v>
       </c>
       <c r="W77" s="18">
         <f t="shared" si="281"/>
@@ -10583,11 +10683,11 @@
       </c>
       <c r="AA77" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>9.4370370370370382E-2</v>
       </c>
       <c r="AB77" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.18296296296296297</v>
       </c>
       <c r="AC77" s="16">
         <f t="shared" si="287"/>
@@ -10618,23 +10718,41 @@
         <v>低</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
-      <c r="A78" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>21</v>
+    <row r="78" spans="1:36" s="4" customFormat="1">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E78" s="8">
+        <v>52</v>
+      </c>
+      <c r="F78" s="8">
+        <v>73</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H78" s="8">
+        <v>0</v>
+      </c>
+      <c r="I78" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J78" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K78" s="11">
+        <v>0</v>
       </c>
       <c r="L78" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>254.8</v>
       </c>
       <c r="M78" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="N78" s="14">
         <f t="shared" si="273"/>
@@ -10642,11 +10760,11 @@
       </c>
       <c r="O78" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>357.70000000000005</v>
       </c>
       <c r="P78" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>693.5</v>
       </c>
       <c r="Q78" s="15">
         <f t="shared" si="276"/>
@@ -10666,11 +10784,11 @@
       </c>
       <c r="U78" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.12582716049382717</v>
       </c>
       <c r="V78" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.24395061728395059</v>
       </c>
       <c r="W78" s="18">
         <f t="shared" si="281"/>
@@ -10690,11 +10808,11 @@
       </c>
       <c r="AA78" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.17664197530864198</v>
       </c>
       <c r="AB78" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.34246913580246913</v>
       </c>
       <c r="AC78" s="16">
         <f t="shared" si="287"/>
@@ -10706,7 +10824,7 @@
       </c>
       <c r="AE78" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF78" s="17" t="str">
         <f t="shared" si="290"/>
@@ -10718,30 +10836,49 @@
       </c>
       <c r="AH78" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI78" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="79" spans="1:36">
-      <c r="A79" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="5" t="s">
+      <c r="AJ78" s="21"/>
+    </row>
+    <row r="79" spans="1:36" s="4" customFormat="1">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E79" s="8">
+        <v>73</v>
+      </c>
+      <c r="F79" s="8">
         <v>101</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>22</v>
+      <c r="G79" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H79" s="8">
+        <v>0</v>
+      </c>
+      <c r="I79" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J79" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K79" s="11">
+        <v>0</v>
       </c>
       <c r="L79" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>357.70000000000005</v>
       </c>
       <c r="M79" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>693.5</v>
       </c>
       <c r="N79" s="14">
         <f t="shared" si="273"/>
@@ -10749,11 +10886,11 @@
       </c>
       <c r="O79" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>494.90000000000003</v>
       </c>
       <c r="P79" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>959.5</v>
       </c>
       <c r="Q79" s="15">
         <f t="shared" si="276"/>
@@ -10773,11 +10910,11 @@
       </c>
       <c r="U79" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.17664197530864198</v>
       </c>
       <c r="V79" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.34246913580246913</v>
       </c>
       <c r="W79" s="18">
         <f t="shared" si="281"/>
@@ -10797,11 +10934,11 @@
       </c>
       <c r="AA79" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.24439506172839506</v>
       </c>
       <c r="AB79" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.47382716049382717</v>
       </c>
       <c r="AC79" s="16">
         <f t="shared" si="287"/>
@@ -10813,7 +10950,7 @@
       </c>
       <c r="AE79" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF79" s="17" t="str">
         <f t="shared" si="290"/>
@@ -10821,34 +10958,53 @@
       </c>
       <c r="AG79" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH79" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI79" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="80" spans="1:36">
-      <c r="A80" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>23</v>
+      <c r="AJ79" s="21"/>
+    </row>
+    <row r="80" spans="1:36" s="4" customFormat="1">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E80" s="8">
+        <v>57</v>
+      </c>
+      <c r="F80" s="8">
+        <v>78</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H80" s="8">
+        <v>0</v>
+      </c>
+      <c r="I80" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J80" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K80" s="11">
+        <v>0</v>
       </c>
       <c r="L80" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>279.3</v>
       </c>
       <c r="M80" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>541.5</v>
       </c>
       <c r="N80" s="14">
         <f t="shared" si="273"/>
@@ -10856,11 +11012,11 @@
       </c>
       <c r="O80" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>382.20000000000005</v>
       </c>
       <c r="P80" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="Q80" s="15">
         <f t="shared" si="276"/>
@@ -10880,11 +11036,11 @@
       </c>
       <c r="U80" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.13792592592592592</v>
       </c>
       <c r="V80" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.26740740740740737</v>
       </c>
       <c r="W80" s="18">
         <f t="shared" si="281"/>
@@ -10904,11 +11060,11 @@
       </c>
       <c r="AA80" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.18874074074074076</v>
       </c>
       <c r="AB80" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.36592592592592593</v>
       </c>
       <c r="AC80" s="16">
         <f t="shared" si="287"/>
@@ -10920,7 +11076,7 @@
       </c>
       <c r="AE80" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF80" s="17" t="str">
         <f t="shared" si="290"/>
@@ -10932,30 +11088,49 @@
       </c>
       <c r="AH80" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI80" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="81" spans="1:35">
-      <c r="A81" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>24</v>
+      <c r="AJ80" s="21"/>
+    </row>
+    <row r="81" spans="1:36" s="4" customFormat="1">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E81" s="8">
+        <v>57</v>
+      </c>
+      <c r="F81" s="8">
+        <v>78</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H81" s="8">
+        <v>0</v>
+      </c>
+      <c r="I81" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J81" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K81" s="11">
+        <v>0</v>
       </c>
       <c r="L81" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>279.3</v>
       </c>
       <c r="M81" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>541.5</v>
       </c>
       <c r="N81" s="14">
         <f t="shared" si="273"/>
@@ -10963,11 +11138,11 @@
       </c>
       <c r="O81" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>382.20000000000005</v>
       </c>
       <c r="P81" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="Q81" s="15">
         <f t="shared" si="276"/>
@@ -10987,11 +11162,11 @@
       </c>
       <c r="U81" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.13792592592592592</v>
       </c>
       <c r="V81" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.26740740740740737</v>
       </c>
       <c r="W81" s="18">
         <f t="shared" si="281"/>
@@ -11011,11 +11186,11 @@
       </c>
       <c r="AA81" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.18874074074074076</v>
       </c>
       <c r="AB81" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.36592592592592593</v>
       </c>
       <c r="AC81" s="16">
         <f t="shared" si="287"/>
@@ -11027,7 +11202,7 @@
       </c>
       <c r="AE81" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF81" s="17" t="str">
         <f t="shared" si="290"/>
@@ -11039,30 +11214,49 @@
       </c>
       <c r="AH81" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI81" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="82" spans="1:35">
-      <c r="A82" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>25</v>
+      <c r="AJ81" s="21"/>
+    </row>
+    <row r="82" spans="1:36" s="4" customFormat="1">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E82" s="8">
+        <v>57</v>
+      </c>
+      <c r="F82" s="8">
+        <v>78</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H82" s="8">
+        <v>0</v>
+      </c>
+      <c r="I82" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J82" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K82" s="11">
+        <v>0</v>
       </c>
       <c r="L82" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>279.3</v>
       </c>
       <c r="M82" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>541.5</v>
       </c>
       <c r="N82" s="14">
         <f t="shared" si="273"/>
@@ -11070,11 +11264,11 @@
       </c>
       <c r="O82" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>382.20000000000005</v>
       </c>
       <c r="P82" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="Q82" s="15">
         <f t="shared" si="276"/>
@@ -11094,11 +11288,11 @@
       </c>
       <c r="U82" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.13792592592592592</v>
       </c>
       <c r="V82" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.26740740740740737</v>
       </c>
       <c r="W82" s="18">
         <f t="shared" si="281"/>
@@ -11118,11 +11312,11 @@
       </c>
       <c r="AA82" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.18874074074074076</v>
       </c>
       <c r="AB82" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.36592592592592593</v>
       </c>
       <c r="AC82" s="16">
         <f t="shared" si="287"/>
@@ -11134,7 +11328,7 @@
       </c>
       <c r="AE82" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF82" s="17" t="str">
         <f t="shared" si="290"/>
@@ -11146,30 +11340,49 @@
       </c>
       <c r="AH82" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI82" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="83" spans="1:35">
-      <c r="A83" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>26</v>
+      <c r="AJ82" s="21"/>
+    </row>
+    <row r="83" spans="1:36" s="4" customFormat="1">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E83" s="8">
+        <v>52</v>
+      </c>
+      <c r="F83" s="8">
+        <v>73</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H83" s="8">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J83" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K83" s="11">
+        <v>0</v>
       </c>
       <c r="L83" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>254.8</v>
       </c>
       <c r="M83" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="N83" s="14">
         <f t="shared" si="273"/>
@@ -11177,11 +11390,11 @@
       </c>
       <c r="O83" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>357.70000000000005</v>
       </c>
       <c r="P83" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>693.5</v>
       </c>
       <c r="Q83" s="15">
         <f t="shared" si="276"/>
@@ -11201,11 +11414,11 @@
       </c>
       <c r="U83" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.12582716049382717</v>
       </c>
       <c r="V83" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.24395061728395059</v>
       </c>
       <c r="W83" s="18">
         <f t="shared" si="281"/>
@@ -11225,11 +11438,11 @@
       </c>
       <c r="AA83" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.17664197530864198</v>
       </c>
       <c r="AB83" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.34246913580246913</v>
       </c>
       <c r="AC83" s="16">
         <f t="shared" si="287"/>
@@ -11241,7 +11454,7 @@
       </c>
       <c r="AE83" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF83" s="17" t="str">
         <f t="shared" si="290"/>
@@ -11253,30 +11466,49 @@
       </c>
       <c r="AH83" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI83" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="84" spans="1:35">
-      <c r="A84" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>27</v>
+      <c r="AJ83" s="21"/>
+    </row>
+    <row r="84" spans="1:36" s="4" customFormat="1">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E84" s="8">
+        <v>407</v>
+      </c>
+      <c r="F84" s="8">
+        <v>564</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H84" s="8">
+        <v>0</v>
+      </c>
+      <c r="I84" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J84" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K84" s="11">
+        <v>0</v>
       </c>
       <c r="L84" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>1994.3000000000002</v>
       </c>
       <c r="M84" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>3866.5</v>
       </c>
       <c r="N84" s="14">
         <f t="shared" si="273"/>
@@ -11284,11 +11516,11 @@
       </c>
       <c r="O84" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>2763.6000000000004</v>
       </c>
       <c r="P84" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>5358</v>
       </c>
       <c r="Q84" s="15">
         <f t="shared" si="276"/>
@@ -11308,11 +11540,11 @@
       </c>
       <c r="U84" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.98483950617283955</v>
       </c>
       <c r="V84" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>1.9093827160493826</v>
       </c>
       <c r="W84" s="18">
         <f t="shared" si="281"/>
@@ -11332,11 +11564,11 @@
       </c>
       <c r="AA84" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>1.3647407407407408</v>
       </c>
       <c r="AB84" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>2.6459259259259258</v>
       </c>
       <c r="AC84" s="16">
         <f t="shared" si="287"/>
@@ -11344,11 +11576,11 @@
       </c>
       <c r="AD84" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AE84" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF84" s="17" t="str">
         <f t="shared" si="290"/>
@@ -11356,34 +11588,55 @@
       </c>
       <c r="AG84" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH84" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI84" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="85" spans="1:35">
-      <c r="A85" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>28</v>
+      <c r="AJ84" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:36" s="4" customFormat="1">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E85" s="8">
+        <v>73</v>
+      </c>
+      <c r="F85" s="8">
+        <v>101</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H85" s="8">
+        <v>0</v>
+      </c>
+      <c r="I85" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J85" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K85" s="11">
+        <v>0</v>
       </c>
       <c r="L85" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>357.70000000000005</v>
       </c>
       <c r="M85" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>693.5</v>
       </c>
       <c r="N85" s="14">
         <f t="shared" si="273"/>
@@ -11391,11 +11644,11 @@
       </c>
       <c r="O85" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>494.90000000000003</v>
       </c>
       <c r="P85" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>959.5</v>
       </c>
       <c r="Q85" s="15">
         <f t="shared" si="276"/>
@@ -11415,11 +11668,11 @@
       </c>
       <c r="U85" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.17664197530864198</v>
       </c>
       <c r="V85" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.34246913580246913</v>
       </c>
       <c r="W85" s="18">
         <f t="shared" si="281"/>
@@ -11439,11 +11692,11 @@
       </c>
       <c r="AA85" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.24439506172839506</v>
       </c>
       <c r="AB85" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.47382716049382717</v>
       </c>
       <c r="AC85" s="16">
         <f t="shared" si="287"/>
@@ -11455,7 +11708,7 @@
       </c>
       <c r="AE85" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF85" s="17" t="str">
         <f t="shared" si="290"/>
@@ -11463,34 +11716,53 @@
       </c>
       <c r="AG85" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH85" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI85" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="86" spans="1:35">
-      <c r="A86" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>29</v>
+      <c r="AJ85" s="21"/>
+    </row>
+    <row r="86" spans="1:36" s="4" customFormat="1">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E86" s="8">
+        <v>57</v>
+      </c>
+      <c r="F86" s="8">
+        <v>78</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H86" s="8">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J86" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K86" s="11">
+        <v>0</v>
       </c>
       <c r="L86" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>279.3</v>
       </c>
       <c r="M86" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>541.5</v>
       </c>
       <c r="N86" s="14">
         <f t="shared" si="273"/>
@@ -11498,11 +11770,11 @@
       </c>
       <c r="O86" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>382.20000000000005</v>
       </c>
       <c r="P86" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="Q86" s="15">
         <f t="shared" si="276"/>
@@ -11522,11 +11794,11 @@
       </c>
       <c r="U86" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.13792592592592592</v>
       </c>
       <c r="V86" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.26740740740740737</v>
       </c>
       <c r="W86" s="18">
         <f t="shared" si="281"/>
@@ -11546,11 +11818,11 @@
       </c>
       <c r="AA86" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.18874074074074076</v>
       </c>
       <c r="AB86" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.36592592592592593</v>
       </c>
       <c r="AC86" s="16">
         <f t="shared" si="287"/>
@@ -11562,7 +11834,7 @@
       </c>
       <c r="AE86" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF86" s="17" t="str">
         <f t="shared" si="290"/>
@@ -11574,30 +11846,49 @@
       </c>
       <c r="AH86" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI86" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="87" spans="1:35">
-      <c r="A87" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>31</v>
+      <c r="AJ86" s="21"/>
+    </row>
+    <row r="87" spans="1:36" s="4" customFormat="1">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E87" s="8">
+        <v>57</v>
+      </c>
+      <c r="F87" s="8">
+        <v>78</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H87" s="8">
+        <v>0</v>
+      </c>
+      <c r="I87" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J87" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K87" s="11">
+        <v>0</v>
       </c>
       <c r="L87" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>279.3</v>
       </c>
       <c r="M87" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>541.5</v>
       </c>
       <c r="N87" s="14">
         <f t="shared" si="273"/>
@@ -11605,11 +11896,11 @@
       </c>
       <c r="O87" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>382.20000000000005</v>
       </c>
       <c r="P87" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="Q87" s="15">
         <f t="shared" si="276"/>
@@ -11629,11 +11920,11 @@
       </c>
       <c r="U87" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.13792592592592592</v>
       </c>
       <c r="V87" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.26740740740740737</v>
       </c>
       <c r="W87" s="18">
         <f t="shared" si="281"/>
@@ -11653,11 +11944,11 @@
       </c>
       <c r="AA87" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.18874074074074076</v>
       </c>
       <c r="AB87" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.36592592592592593</v>
       </c>
       <c r="AC87" s="16">
         <f t="shared" si="287"/>
@@ -11669,7 +11960,7 @@
       </c>
       <c r="AE87" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF87" s="17" t="str">
         <f t="shared" si="290"/>
@@ -11681,30 +11972,49 @@
       </c>
       <c r="AH87" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI87" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="88" spans="1:35">
-      <c r="A88" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>32</v>
+      <c r="AJ87" s="21"/>
+    </row>
+    <row r="88" spans="1:36" s="4" customFormat="1">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E88" s="8">
+        <v>24</v>
+      </c>
+      <c r="F88" s="8">
+        <v>33</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H88" s="8">
+        <v>0</v>
+      </c>
+      <c r="I88" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J88" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K88" s="11">
+        <v>0</v>
       </c>
       <c r="L88" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>117.60000000000001</v>
       </c>
       <c r="M88" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="N88" s="14">
         <f t="shared" si="273"/>
@@ -11712,11 +12022,11 @@
       </c>
       <c r="O88" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>161.70000000000002</v>
       </c>
       <c r="P88" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>313.5</v>
       </c>
       <c r="Q88" s="15">
         <f t="shared" si="276"/>
@@ -11736,11 +12046,11 @@
       </c>
       <c r="U88" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>5.8074074074074084E-2</v>
       </c>
       <c r="V88" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.11259259259259259</v>
       </c>
       <c r="W88" s="18">
         <f t="shared" si="281"/>
@@ -11760,11 +12070,11 @@
       </c>
       <c r="AA88" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>7.9851851851851854E-2</v>
       </c>
       <c r="AB88" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.15481481481481482</v>
       </c>
       <c r="AC88" s="16">
         <f t="shared" si="287"/>
@@ -11794,24 +12104,43 @@
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="89" spans="1:35">
-      <c r="A89" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>34</v>
+      <c r="AJ88" s="21"/>
+    </row>
+    <row r="89" spans="1:36" s="4" customFormat="1">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E89" s="8">
+        <v>57</v>
+      </c>
+      <c r="F89" s="8">
+        <v>78</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="H89" s="8">
+        <v>0</v>
+      </c>
+      <c r="I89" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J89" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K89" s="11">
+        <v>0</v>
       </c>
       <c r="L89" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>279.3</v>
       </c>
       <c r="M89" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>541.5</v>
       </c>
       <c r="N89" s="14">
         <f t="shared" si="273"/>
@@ -11819,11 +12148,11 @@
       </c>
       <c r="O89" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>382.20000000000005</v>
       </c>
       <c r="P89" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="Q89" s="15">
         <f t="shared" si="276"/>
@@ -11843,11 +12172,11 @@
       </c>
       <c r="U89" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.13792592592592592</v>
       </c>
       <c r="V89" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.26740740740740737</v>
       </c>
       <c r="W89" s="18">
         <f t="shared" si="281"/>
@@ -11867,11 +12196,11 @@
       </c>
       <c r="AA89" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.18874074074074076</v>
       </c>
       <c r="AB89" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.36592592592592593</v>
       </c>
       <c r="AC89" s="16">
         <f t="shared" si="287"/>
@@ -11883,7 +12212,7 @@
       </c>
       <c r="AE89" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF89" s="17" t="str">
         <f t="shared" si="290"/>
@@ -11895,30 +12224,49 @@
       </c>
       <c r="AH89" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI89" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="90" spans="1:35">
-      <c r="A90" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>35</v>
+      <c r="AJ89" s="21"/>
+    </row>
+    <row r="90" spans="1:36" s="4" customFormat="1">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E90" s="8">
+        <v>73</v>
+      </c>
+      <c r="F90" s="8">
+        <v>101</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H90" s="8">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J90" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K90" s="11">
+        <v>0</v>
       </c>
       <c r="L90" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>357.70000000000005</v>
       </c>
       <c r="M90" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>693.5</v>
       </c>
       <c r="N90" s="14">
         <f t="shared" si="273"/>
@@ -11926,11 +12274,11 @@
       </c>
       <c r="O90" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>494.90000000000003</v>
       </c>
       <c r="P90" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>959.5</v>
       </c>
       <c r="Q90" s="15">
         <f t="shared" si="276"/>
@@ -11950,11 +12298,11 @@
       </c>
       <c r="U90" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.17664197530864198</v>
       </c>
       <c r="V90" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.34246913580246913</v>
       </c>
       <c r="W90" s="18">
         <f t="shared" si="281"/>
@@ -11974,11 +12322,11 @@
       </c>
       <c r="AA90" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.24439506172839506</v>
       </c>
       <c r="AB90" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.47382716049382717</v>
       </c>
       <c r="AC90" s="16">
         <f t="shared" si="287"/>
@@ -11990,7 +12338,7 @@
       </c>
       <c r="AE90" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF90" s="17" t="str">
         <f t="shared" si="290"/>
@@ -11998,34 +12346,53 @@
       </c>
       <c r="AG90" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH90" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI90" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="91" spans="1:35">
-      <c r="A91" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>36</v>
+      <c r="AJ90" s="21"/>
+    </row>
+    <row r="91" spans="1:36" s="4" customFormat="1">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E91" s="8">
+        <v>73</v>
+      </c>
+      <c r="F91" s="8">
+        <v>101</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H91" s="8">
+        <v>0</v>
+      </c>
+      <c r="I91" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J91" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K91" s="11">
+        <v>0</v>
       </c>
       <c r="L91" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>357.70000000000005</v>
       </c>
       <c r="M91" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>693.5</v>
       </c>
       <c r="N91" s="14">
         <f t="shared" si="273"/>
@@ -12033,11 +12400,11 @@
       </c>
       <c r="O91" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>494.90000000000003</v>
       </c>
       <c r="P91" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>959.5</v>
       </c>
       <c r="Q91" s="15">
         <f t="shared" si="276"/>
@@ -12057,11 +12424,11 @@
       </c>
       <c r="U91" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.17664197530864198</v>
       </c>
       <c r="V91" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.34246913580246913</v>
       </c>
       <c r="W91" s="18">
         <f t="shared" si="281"/>
@@ -12081,11 +12448,11 @@
       </c>
       <c r="AA91" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.24439506172839506</v>
       </c>
       <c r="AB91" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.47382716049382717</v>
       </c>
       <c r="AC91" s="16">
         <f t="shared" si="287"/>
@@ -12097,7 +12464,7 @@
       </c>
       <c r="AE91" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF91" s="17" t="str">
         <f t="shared" si="290"/>
@@ -12105,34 +12472,53 @@
       </c>
       <c r="AG91" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH91" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI91" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="92" spans="1:35">
-      <c r="A92" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>37</v>
+      <c r="AJ91" s="21"/>
+    </row>
+    <row r="92" spans="1:36" s="4" customFormat="1">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E92" s="8">
+        <v>73</v>
+      </c>
+      <c r="F92" s="8">
+        <v>101</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H92" s="8">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J92" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K92" s="11">
+        <v>0</v>
       </c>
       <c r="L92" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>357.70000000000005</v>
       </c>
       <c r="M92" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>693.5</v>
       </c>
       <c r="N92" s="14">
         <f t="shared" si="273"/>
@@ -12140,11 +12526,11 @@
       </c>
       <c r="O92" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>494.90000000000003</v>
       </c>
       <c r="P92" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>959.5</v>
       </c>
       <c r="Q92" s="15">
         <f t="shared" si="276"/>
@@ -12164,11 +12550,11 @@
       </c>
       <c r="U92" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.17664197530864198</v>
       </c>
       <c r="V92" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.34246913580246913</v>
       </c>
       <c r="W92" s="18">
         <f t="shared" si="281"/>
@@ -12188,11 +12574,11 @@
       </c>
       <c r="AA92" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.24439506172839506</v>
       </c>
       <c r="AB92" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.47382716049382717</v>
       </c>
       <c r="AC92" s="16">
         <f t="shared" si="287"/>
@@ -12204,7 +12590,7 @@
       </c>
       <c r="AE92" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF92" s="17" t="str">
         <f t="shared" si="290"/>
@@ -12212,34 +12598,53 @@
       </c>
       <c r="AG92" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH92" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI92" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="93" spans="1:35">
-      <c r="A93" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>38</v>
+      <c r="AJ92" s="21"/>
+    </row>
+    <row r="93" spans="1:36" s="4" customFormat="1">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E93" s="8">
+        <v>73</v>
+      </c>
+      <c r="F93" s="8">
+        <v>101</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H93" s="8">
+        <v>0</v>
+      </c>
+      <c r="I93" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J93" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K93" s="11">
+        <v>0</v>
       </c>
       <c r="L93" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>357.70000000000005</v>
       </c>
       <c r="M93" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>693.5</v>
       </c>
       <c r="N93" s="14">
         <f t="shared" si="273"/>
@@ -12247,11 +12652,11 @@
       </c>
       <c r="O93" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>494.90000000000003</v>
       </c>
       <c r="P93" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>959.5</v>
       </c>
       <c r="Q93" s="15">
         <f t="shared" si="276"/>
@@ -12271,11 +12676,11 @@
       </c>
       <c r="U93" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.17664197530864198</v>
       </c>
       <c r="V93" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.34246913580246913</v>
       </c>
       <c r="W93" s="18">
         <f t="shared" si="281"/>
@@ -12295,11 +12700,11 @@
       </c>
       <c r="AA93" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.24439506172839506</v>
       </c>
       <c r="AB93" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.47382716049382717</v>
       </c>
       <c r="AC93" s="16">
         <f t="shared" si="287"/>
@@ -12311,7 +12716,7 @@
       </c>
       <c r="AE93" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF93" s="17" t="str">
         <f t="shared" si="290"/>
@@ -12319,34 +12724,53 @@
       </c>
       <c r="AG93" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH93" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI93" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="94" spans="1:35">
-      <c r="A94" s="5" t="s">
+      <c r="AJ93" s="21"/>
+    </row>
+    <row r="94" spans="1:36" s="4" customFormat="1">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E94" s="8">
+        <v>24</v>
+      </c>
+      <c r="F94" s="8">
         <v>33</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>39</v>
+      <c r="G94" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H94" s="8">
+        <v>0</v>
+      </c>
+      <c r="I94" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J94" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K94" s="11">
+        <v>0</v>
       </c>
       <c r="L94" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>117.60000000000001</v>
       </c>
       <c r="M94" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="N94" s="14">
         <f t="shared" si="273"/>
@@ -12354,11 +12778,11 @@
       </c>
       <c r="O94" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>161.70000000000002</v>
       </c>
       <c r="P94" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>313.5</v>
       </c>
       <c r="Q94" s="15">
         <f t="shared" si="276"/>
@@ -12378,11 +12802,11 @@
       </c>
       <c r="U94" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>5.8074074074074084E-2</v>
       </c>
       <c r="V94" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.11259259259259259</v>
       </c>
       <c r="W94" s="18">
         <f t="shared" si="281"/>
@@ -12402,11 +12826,11 @@
       </c>
       <c r="AA94" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>7.9851851851851854E-2</v>
       </c>
       <c r="AB94" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.15481481481481482</v>
       </c>
       <c r="AC94" s="16">
         <f t="shared" si="287"/>
@@ -12436,24 +12860,43 @@
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="95" spans="1:35">
-      <c r="A95" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>40</v>
+      <c r="AJ94" s="21"/>
+    </row>
+    <row r="95" spans="1:36" s="4" customFormat="1">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E95" s="8">
+        <v>57</v>
+      </c>
+      <c r="F95" s="8">
+        <v>78</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H95" s="8">
+        <v>0</v>
+      </c>
+      <c r="I95" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J95" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K95" s="11">
+        <v>0</v>
       </c>
       <c r="L95" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>279.3</v>
       </c>
       <c r="M95" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>541.5</v>
       </c>
       <c r="N95" s="14">
         <f t="shared" si="273"/>
@@ -12461,11 +12904,11 @@
       </c>
       <c r="O95" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>382.20000000000005</v>
       </c>
       <c r="P95" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="Q95" s="15">
         <f t="shared" si="276"/>
@@ -12485,11 +12928,11 @@
       </c>
       <c r="U95" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.13792592592592592</v>
       </c>
       <c r="V95" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.26740740740740737</v>
       </c>
       <c r="W95" s="18">
         <f t="shared" si="281"/>
@@ -12509,11 +12952,11 @@
       </c>
       <c r="AA95" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.18874074074074076</v>
       </c>
       <c r="AB95" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.36592592592592593</v>
       </c>
       <c r="AC95" s="16">
         <f t="shared" si="287"/>
@@ -12525,7 +12968,7 @@
       </c>
       <c r="AE95" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF95" s="17" t="str">
         <f t="shared" si="290"/>
@@ -12537,22 +12980,23 @@
       </c>
       <c r="AH95" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI95" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="96" spans="1:35">
+      <c r="AJ95" s="21"/>
+    </row>
+    <row r="96" spans="1:36">
       <c r="A96" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L96" s="14">
         <f t="shared" si="271"/>
@@ -12653,13 +13097,13 @@
     </row>
     <row r="97" spans="1:35">
       <c r="A97" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="L97" s="14">
         <f t="shared" si="271"/>
@@ -12760,13 +13204,13 @@
     </row>
     <row r="98" spans="1:35">
       <c r="A98" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="L98" s="14">
         <f t="shared" si="271"/>
@@ -12867,13 +13311,13 @@
     </row>
     <row r="99" spans="1:35">
       <c r="A99" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="L99" s="14">
         <f t="shared" si="271"/>
@@ -12974,13 +13418,13 @@
     </row>
     <row r="100" spans="1:35">
       <c r="A100" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="L100" s="14">
         <f t="shared" si="271"/>
@@ -13081,13 +13525,13 @@
     </row>
     <row r="101" spans="1:35">
       <c r="A101" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="L101" s="14">
         <f t="shared" si="271"/>
@@ -13188,13 +13632,13 @@
     </row>
     <row r="102" spans="1:35">
       <c r="A102" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="L102" s="14">
         <f t="shared" si="271"/>
@@ -13295,13 +13739,13 @@
     </row>
     <row r="103" spans="1:35">
       <c r="A103" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="L103" s="14">
         <f t="shared" si="271"/>
@@ -13402,13 +13846,13 @@
     </row>
     <row r="104" spans="1:35">
       <c r="A104" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="L104" s="14">
         <f t="shared" si="271"/>
@@ -13509,13 +13953,13 @@
     </row>
     <row r="105" spans="1:35">
       <c r="A105" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L105" s="14">
         <f t="shared" si="271"/>
@@ -13616,13 +14060,13 @@
     </row>
     <row r="106" spans="1:35">
       <c r="A106" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L106" s="14">
         <f t="shared" si="271"/>
@@ -13723,13 +14167,13 @@
     </row>
     <row r="107" spans="1:35">
       <c r="A107" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="L107" s="14">
         <f t="shared" si="271"/>
@@ -13830,13 +14274,13 @@
     </row>
     <row r="108" spans="1:35">
       <c r="A108" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="L108" s="14">
         <f t="shared" si="271"/>
@@ -13937,13 +14381,13 @@
     </row>
     <row r="109" spans="1:35">
       <c r="A109" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="L109" s="14">
         <f t="shared" si="271"/>
@@ -14044,13 +14488,13 @@
     </row>
     <row r="110" spans="1:35">
       <c r="A110" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="L110" s="14">
         <f t="shared" si="271"/>
@@ -14151,13 +14595,13 @@
     </row>
     <row r="111" spans="1:35">
       <c r="A111" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="L111" s="14">
         <f t="shared" si="271"/>
@@ -14258,13 +14702,13 @@
     </row>
     <row r="112" spans="1:35">
       <c r="A112" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L112" s="14">
         <f t="shared" si="271"/>
@@ -14365,13 +14809,13 @@
     </row>
     <row r="113" spans="1:35">
       <c r="A113" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="L113" s="14">
         <f t="shared" si="271"/>
@@ -14472,13 +14916,13 @@
     </row>
     <row r="114" spans="1:35">
       <c r="A114" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L114" s="14">
         <f t="shared" si="271"/>
@@ -14579,13 +15023,13 @@
     </row>
     <row r="115" spans="1:35">
       <c r="A115" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="L115" s="14">
         <f t="shared" si="271"/>
@@ -14689,10 +15133,10 @@
         <v>43</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="L116" s="14">
         <f t="shared" si="271"/>
@@ -14793,13 +15237,13 @@
     </row>
     <row r="117" spans="1:35">
       <c r="A117" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L117" s="14">
         <f t="shared" si="271"/>
@@ -14900,13 +15344,13 @@
     </row>
     <row r="118" spans="1:35">
       <c r="A118" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="L118" s="14">
         <f t="shared" si="271"/>
@@ -15007,13 +15451,13 @@
     </row>
     <row r="119" spans="1:35">
       <c r="A119" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="L119" s="14">
         <f t="shared" si="271"/>
@@ -15114,13 +15558,13 @@
     </row>
     <row r="120" spans="1:35">
       <c r="A120" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="L120" s="14">
         <f t="shared" si="271"/>
@@ -15221,13 +15665,13 @@
     </row>
     <row r="121" spans="1:35">
       <c r="A121" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="L121" s="14">
         <f t="shared" si="271"/>
@@ -15328,13 +15772,13 @@
     </row>
     <row r="122" spans="1:35">
       <c r="A122" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="L122" s="14">
         <f t="shared" si="271"/>
@@ -15435,13 +15879,13 @@
     </row>
     <row r="123" spans="1:35">
       <c r="A123" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="L123" s="14">
         <f t="shared" si="271"/>
@@ -15542,13 +15986,13 @@
     </row>
     <row r="124" spans="1:35">
       <c r="A124" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="L124" s="14">
         <f t="shared" si="271"/>
@@ -15649,13 +16093,13 @@
     </row>
     <row r="125" spans="1:35">
       <c r="A125" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="L125" s="14">
         <f t="shared" si="271"/>
@@ -15756,13 +16200,13 @@
     </row>
     <row r="126" spans="1:35">
       <c r="A126" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="L126" s="14">
         <f t="shared" si="271"/>
@@ -15863,13 +16307,13 @@
     </row>
     <row r="127" spans="1:35">
       <c r="A127" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="L127" s="14">
         <f t="shared" si="271"/>
@@ -15970,13 +16414,13 @@
     </row>
     <row r="128" spans="1:35">
       <c r="A128" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="L128" s="14">
         <f t="shared" si="271"/>
@@ -16077,13 +16521,13 @@
     </row>
     <row r="129" spans="1:35">
       <c r="A129" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="L129" s="14">
         <f t="shared" si="271"/>
@@ -16184,13 +16628,13 @@
     </row>
     <row r="130" spans="1:35">
       <c r="A130" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="L130" s="14">
         <f t="shared" si="271"/>
@@ -16291,13 +16735,13 @@
     </row>
     <row r="131" spans="1:35">
       <c r="A131" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="L131" s="14">
         <f t="shared" si="271"/>
@@ -16398,13 +16842,13 @@
     </row>
     <row r="132" spans="1:35">
       <c r="A132" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="L132" s="14">
         <f t="shared" si="271"/>
@@ -16505,13 +16949,13 @@
     </row>
     <row r="133" spans="1:35">
       <c r="A133" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="L133" s="14">
         <f t="shared" si="271"/>
@@ -16612,13 +17056,13 @@
     </row>
     <row r="134" spans="1:35">
       <c r="A134" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="L134" s="14">
         <f t="shared" si="271"/>
@@ -16719,48 +17163,48 @@
     </row>
     <row r="135" spans="1:35">
       <c r="A135" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="L135" s="14">
-        <f t="shared" ref="L135:L138" si="555">E135*I135</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M135" s="14">
-        <f t="shared" ref="M135:M138" si="556">E135*J135</f>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N135" s="14">
-        <f t="shared" ref="N135:N138" si="557">E135*K135</f>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O135" s="15">
-        <f t="shared" ref="O135:O138" si="558">F135*I135</f>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P135" s="15">
-        <f t="shared" ref="P135:P138" si="559">F135*J135</f>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q135" s="15">
-        <f t="shared" ref="Q135:Q138" si="560">F135*K135</f>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R135" s="19">
-        <f t="shared" ref="R135:R138" si="561">H135*I135</f>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S135" s="19">
-        <f t="shared" ref="S135:S138" si="562">H135*J135</f>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T135" s="19">
-        <f t="shared" ref="T135:T138" si="563">H135*K135</f>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U135" s="18">
@@ -16768,1660 +17212,3388 @@
         <v>0</v>
       </c>
       <c r="V135" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W135" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X135" s="20">
-        <f t="shared" ref="X135:Z138" si="564">R135*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y135" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z135" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA135" s="16">
-        <f t="shared" ref="AA135:AC138" si="565">O135*$G$3/$E$3</f>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB135" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC135" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD135" s="17" t="str">
-        <f t="shared" ref="AD135:AI138" si="566">IF((U135+X135)&lt;($J$4/2),"低",IF((U135+X135)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE135" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF135" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG135" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH135" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI135" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="293"/>
         <v>低</v>
       </c>
     </row>
     <row r="136" spans="1:35">
       <c r="A136" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L136" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M136" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N136" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O136" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P136" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q136" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R136" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S136" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T136" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U136" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V136" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W136" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X136" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y136" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z136" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA136" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB136" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC136" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD136" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE136" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF136" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG136" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH136" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI136" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="137" spans="1:35">
+      <c r="A137" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L137" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M137" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N137" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O137" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P137" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q137" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R137" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S137" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T137" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U137" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V137" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W137" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X137" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y137" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z137" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA137" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB137" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC137" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD137" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE137" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF137" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG137" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH137" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI137" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="138" spans="1:35">
+      <c r="A138" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B138" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L138" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M138" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N138" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O138" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P138" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q138" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R138" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S138" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T138" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U138" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V138" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W138" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X138" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y138" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z138" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA138" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB138" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC138" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD138" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE138" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF138" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG138" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH138" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI138" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="139" spans="1:35">
+      <c r="A139" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L139" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M139" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N139" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O139" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P139" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q139" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R139" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S139" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T139" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U139" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V139" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W139" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X139" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y139" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z139" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA139" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB139" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC139" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD139" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE139" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF139" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG139" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH139" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI139" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="140" spans="1:35">
+      <c r="A140" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L140" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M140" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N140" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O140" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P140" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q140" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R140" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S140" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T140" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U140" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V140" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W140" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X140" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y140" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z140" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA140" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB140" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC140" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD140" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE140" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF140" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG140" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH140" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI140" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="141" spans="1:35">
+      <c r="A141" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L141" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M141" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N141" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O141" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P141" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q141" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R141" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S141" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T141" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U141" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V141" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W141" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X141" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y141" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z141" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA141" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB141" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC141" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD141" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE141" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF141" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG141" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH141" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI141" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="142" spans="1:35">
+      <c r="A142" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L142" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M142" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N142" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O142" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P142" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q142" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R142" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S142" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T142" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U142" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V142" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W142" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X142" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y142" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z142" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA142" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB142" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC142" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD142" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE142" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF142" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG142" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH142" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI142" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="143" spans="1:35">
+      <c r="A143" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L143" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M143" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N143" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O143" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P143" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q143" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R143" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S143" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T143" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U143" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V143" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W143" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X143" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y143" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z143" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA143" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB143" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC143" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD143" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE143" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF143" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG143" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH143" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI143" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="144" spans="1:35">
+      <c r="A144" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L144" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M144" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N144" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O144" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P144" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q144" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R144" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S144" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T144" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U144" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V144" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W144" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X144" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y144" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z144" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA144" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB144" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC144" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD144" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE144" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF144" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG144" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH144" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI144" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="145" spans="1:35">
+      <c r="A145" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L145" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M145" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N145" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O145" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P145" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q145" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R145" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S145" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T145" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U145" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V145" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W145" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X145" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y145" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z145" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA145" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB145" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC145" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD145" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE145" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF145" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG145" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH145" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI145" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="146" spans="1:35">
+      <c r="A146" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L146" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M146" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N146" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O146" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P146" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q146" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R146" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S146" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T146" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U146" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V146" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W146" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X146" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y146" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z146" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA146" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB146" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC146" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD146" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE146" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF146" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG146" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH146" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI146" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="147" spans="1:35">
+      <c r="A147" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L147" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M147" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N147" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O147" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P147" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q147" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R147" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S147" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T147" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U147" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V147" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W147" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X147" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y147" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z147" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA147" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB147" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC147" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD147" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE147" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF147" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG147" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH147" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI147" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="148" spans="1:35">
+      <c r="A148" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L148" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M148" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N148" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O148" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P148" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q148" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R148" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S148" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T148" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U148" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V148" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W148" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X148" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y148" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z148" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA148" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB148" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC148" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD148" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE148" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF148" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG148" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH148" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI148" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="149" spans="1:35">
+      <c r="A149" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L149" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M149" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N149" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O149" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P149" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q149" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R149" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S149" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T149" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U149" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V149" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W149" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X149" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y149" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z149" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA149" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB149" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC149" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD149" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE149" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF149" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG149" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH149" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI149" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="150" spans="1:35">
+      <c r="A150" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L150" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M150" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N150" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O150" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P150" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q150" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R150" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S150" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T150" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U150" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V150" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W150" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X150" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y150" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z150" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA150" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB150" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC150" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD150" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE150" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF150" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG150" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH150" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI150" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="151" spans="1:35">
+      <c r="A151" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L151" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M151" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N151" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O151" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P151" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q151" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R151" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S151" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T151" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U151" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V151" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W151" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X151" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y151" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z151" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA151" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB151" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC151" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD151" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE151" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF151" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG151" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH151" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI151" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="152" spans="1:35">
+      <c r="A152" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L152" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M152" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N152" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O152" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P152" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q152" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R152" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S152" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T152" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U152" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V152" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W152" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X152" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y152" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z152" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA152" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB152" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC152" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD152" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE152" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF152" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG152" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH152" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI152" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="153" spans="1:35">
+      <c r="A153" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L153" s="14">
+        <f t="shared" ref="L153:L156" si="555">E153*I153</f>
+        <v>0</v>
+      </c>
+      <c r="M153" s="14">
+        <f t="shared" ref="M153:M156" si="556">E153*J153</f>
+        <v>0</v>
+      </c>
+      <c r="N153" s="14">
+        <f t="shared" ref="N153:N156" si="557">E153*K153</f>
+        <v>0</v>
+      </c>
+      <c r="O153" s="15">
+        <f t="shared" ref="O153:O156" si="558">F153*I153</f>
+        <v>0</v>
+      </c>
+      <c r="P153" s="15">
+        <f t="shared" ref="P153:P156" si="559">F153*J153</f>
+        <v>0</v>
+      </c>
+      <c r="Q153" s="15">
+        <f t="shared" ref="Q153:Q156" si="560">F153*K153</f>
+        <v>0</v>
+      </c>
+      <c r="R153" s="19">
+        <f t="shared" ref="R153:R156" si="561">H153*I153</f>
+        <v>0</v>
+      </c>
+      <c r="S153" s="19">
+        <f t="shared" ref="S153:S156" si="562">H153*J153</f>
+        <v>0</v>
+      </c>
+      <c r="T153" s="19">
+        <f t="shared" ref="T153:T156" si="563">H153*K153</f>
+        <v>0</v>
+      </c>
+      <c r="U153" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V153" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="W153" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="X153" s="20">
+        <f t="shared" ref="X153:Z156" si="564">R153*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y153" s="20">
+        <f t="shared" si="564"/>
+        <v>0</v>
+      </c>
+      <c r="Z153" s="20">
+        <f t="shared" si="564"/>
+        <v>0</v>
+      </c>
+      <c r="AA153" s="16">
+        <f t="shared" ref="AA153:AC156" si="565">O153*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB153" s="16">
+        <f t="shared" si="565"/>
+        <v>0</v>
+      </c>
+      <c r="AC153" s="16">
+        <f t="shared" si="565"/>
+        <v>0</v>
+      </c>
+      <c r="AD153" s="17" t="str">
+        <f t="shared" ref="AD153:AI156" si="566">IF((U153+X153)&lt;($J$4/2),"低",IF((U153+X153)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE153" s="17" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AF153" s="17" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AG153" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AH153" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AI153" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="154" spans="1:35">
+      <c r="A154" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C154" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L136" s="14">
+      <c r="L154" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M136" s="14">
+      <c r="M154" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N136" s="14">
+      <c r="N154" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O136" s="15">
+      <c r="O154" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P136" s="15">
+      <c r="P154" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q136" s="15">
+      <c r="Q154" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R136" s="19">
+      <c r="R154" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S136" s="19">
+      <c r="S154" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T136" s="19">
+      <c r="T154" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U136" s="18">
-        <f t="shared" ref="U136:W138" si="567">L136*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="V136" s="18">
+      <c r="U154" s="18">
+        <f t="shared" ref="U154:W156" si="567">L154*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V154" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W136" s="18">
+      <c r="W154" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X136" s="20">
+      <c r="X154" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y136" s="20">
+      <c r="Y154" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z136" s="20">
+      <c r="Z154" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA136" s="16">
+      <c r="AA154" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB136" s="16">
+      <c r="AB154" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC136" s="16">
+      <c r="AC154" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD136" s="17" t="str">
+      <c r="AD154" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE136" s="17" t="str">
+      <c r="AE154" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF136" s="17" t="str">
+      <c r="AF154" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG136" s="15" t="str">
+      <c r="AG154" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH136" s="15" t="str">
+      <c r="AH154" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI136" s="15" t="str">
+      <c r="AI154" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
-    <row r="137" spans="1:35">
-      <c r="A137" s="7" t="s">
+    <row r="155" spans="1:35">
+      <c r="A155" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B155" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C155" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L137" s="14">
+      <c r="L155" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M137" s="14">
+      <c r="M155" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N137" s="14">
+      <c r="N155" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O137" s="15">
+      <c r="O155" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P137" s="15">
+      <c r="P155" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q137" s="15">
+      <c r="Q155" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R137" s="19">
+      <c r="R155" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S137" s="19">
+      <c r="S155" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T137" s="19">
+      <c r="T155" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U137" s="18">
+      <c r="U155" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="V137" s="18">
+      <c r="V155" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W137" s="18">
+      <c r="W155" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X137" s="20">
+      <c r="X155" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y137" s="20">
+      <c r="Y155" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z137" s="20">
+      <c r="Z155" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA137" s="16">
+      <c r="AA155" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB137" s="16">
+      <c r="AB155" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC137" s="16">
+      <c r="AC155" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD137" s="17" t="str">
+      <c r="AD155" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE137" s="17" t="str">
+      <c r="AE155" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF137" s="17" t="str">
+      <c r="AF155" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG137" s="15" t="str">
+      <c r="AG155" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH137" s="15" t="str">
+      <c r="AH155" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI137" s="15" t="str">
+      <c r="AI155" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
-    <row r="138" spans="1:35">
-      <c r="A138" s="7" t="s">
+    <row r="156" spans="1:35">
+      <c r="A156" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B156" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C156" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L138" s="14">
+      <c r="L156" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M138" s="14">
+      <c r="M156" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N138" s="14">
+      <c r="N156" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O138" s="15">
+      <c r="O156" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P138" s="15">
+      <c r="P156" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q138" s="15">
+      <c r="Q156" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R138" s="19">
+      <c r="R156" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S138" s="19">
+      <c r="S156" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T138" s="19">
+      <c r="T156" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U138" s="18">
+      <c r="U156" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="V138" s="18">
+      <c r="V156" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W138" s="18">
+      <c r="W156" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X138" s="20">
+      <c r="X156" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y138" s="20">
+      <c r="Y156" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z138" s="20">
+      <c r="Z156" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA138" s="16">
+      <c r="AA156" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB138" s="16">
+      <c r="AB156" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC138" s="16">
+      <c r="AC156" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD138" s="17" t="str">
+      <c r="AD156" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE138" s="17" t="str">
+      <c r="AE156" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF138" s="17" t="str">
+      <c r="AF156" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG138" s="15" t="str">
+      <c r="AG156" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH138" s="15" t="str">
+      <c r="AH156" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI138" s="15" t="str">
+      <c r="AI156" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
-    <row r="139" spans="1:35">
-      <c r="L139" s="14">
-        <f t="shared" ref="L139:L149" si="568">E139*I139</f>
-        <v>0</v>
-      </c>
-      <c r="M139" s="14">
-        <f t="shared" ref="M139:M149" si="569">E139*J139</f>
-        <v>0</v>
-      </c>
-      <c r="N139" s="14">
-        <f t="shared" ref="N139:N149" si="570">E139*K139</f>
-        <v>0</v>
-      </c>
-      <c r="O139" s="15">
-        <f t="shared" ref="O139:O149" si="571">F139*I139</f>
-        <v>0</v>
-      </c>
-      <c r="P139" s="15">
-        <f t="shared" ref="P139:P149" si="572">F139*J139</f>
-        <v>0</v>
-      </c>
-      <c r="Q139" s="15">
-        <f t="shared" ref="Q139:Q149" si="573">F139*K139</f>
-        <v>0</v>
-      </c>
-      <c r="R139" s="19">
-        <f t="shared" ref="R139:R149" si="574">H139*I139</f>
-        <v>0</v>
-      </c>
-      <c r="S139" s="19">
-        <f t="shared" ref="S139:S149" si="575">H139*J139</f>
-        <v>0</v>
-      </c>
-      <c r="T139" s="19">
-        <f t="shared" ref="T139:T149" si="576">H139*K139</f>
-        <v>0</v>
-      </c>
-      <c r="U139" s="18">
-        <f t="shared" ref="U139:U149" si="577">L139*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="V139" s="18">
-        <f t="shared" ref="V139:V149" si="578">M139*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="W139" s="18">
-        <f t="shared" ref="W139:W149" si="579">N139*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="X139" s="20">
-        <f t="shared" ref="X139:X149" si="580">R139*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="Y139" s="20">
-        <f t="shared" ref="Y139:Y149" si="581">S139*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="Z139" s="20">
-        <f t="shared" ref="Z139:Z149" si="582">T139*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AA139" s="16">
-        <f t="shared" ref="AA139:AA149" si="583">O139*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AB139" s="16">
-        <f t="shared" ref="AB139:AB149" si="584">P139*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AC139" s="16">
-        <f t="shared" ref="AC139:AC149" si="585">Q139*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AD139" s="17" t="str">
-        <f t="shared" ref="AD139:AD149" si="586">IF((U139+X139)&lt;($J$4/2),"低",IF((U139+X139)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AE139" s="17" t="str">
-        <f t="shared" ref="AE139:AE149" si="587">IF((V139+Y139)&lt;($J$4/2),"低",IF((V139+Y139)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AF139" s="17" t="str">
-        <f t="shared" ref="AF139:AF149" si="588">IF((W139+Z139)&lt;($J$4/2),"低",IF((W139+Z139)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AG139" s="15" t="str">
-        <f t="shared" ref="AG139:AG149" si="589">IF((X139+AA139)&lt;($J$4/2),"低",IF((X139+AA139)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AH139" s="15" t="str">
-        <f t="shared" ref="AH139:AH149" si="590">IF((Y139+AB139)&lt;($J$4/2),"低",IF((Y139+AB139)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AI139" s="15" t="str">
-        <f t="shared" ref="AI139:AI149" si="591">IF((Z139+AC139)&lt;($J$4/2),"低",IF((Z139+AC139)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="140" spans="1:35">
-      <c r="L140" s="14">
+    <row r="157" spans="1:35">
+      <c r="L157" s="14">
+        <f t="shared" ref="L157:L167" si="568">E157*I157</f>
+        <v>0</v>
+      </c>
+      <c r="M157" s="14">
+        <f t="shared" ref="M157:M167" si="569">E157*J157</f>
+        <v>0</v>
+      </c>
+      <c r="N157" s="14">
+        <f t="shared" ref="N157:N167" si="570">E157*K157</f>
+        <v>0</v>
+      </c>
+      <c r="O157" s="15">
+        <f t="shared" ref="O157:O167" si="571">F157*I157</f>
+        <v>0</v>
+      </c>
+      <c r="P157" s="15">
+        <f t="shared" ref="P157:P167" si="572">F157*J157</f>
+        <v>0</v>
+      </c>
+      <c r="Q157" s="15">
+        <f t="shared" ref="Q157:Q167" si="573">F157*K157</f>
+        <v>0</v>
+      </c>
+      <c r="R157" s="19">
+        <f t="shared" ref="R157:R167" si="574">H157*I157</f>
+        <v>0</v>
+      </c>
+      <c r="S157" s="19">
+        <f t="shared" ref="S157:S167" si="575">H157*J157</f>
+        <v>0</v>
+      </c>
+      <c r="T157" s="19">
+        <f t="shared" ref="T157:T167" si="576">H157*K157</f>
+        <v>0</v>
+      </c>
+      <c r="U157" s="18">
+        <f t="shared" ref="U157:U167" si="577">L157*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V157" s="18">
+        <f t="shared" ref="V157:V167" si="578">M157*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W157" s="18">
+        <f t="shared" ref="W157:W167" si="579">N157*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X157" s="20">
+        <f t="shared" ref="X157:X167" si="580">R157*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y157" s="20">
+        <f t="shared" ref="Y157:Y167" si="581">S157*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z157" s="20">
+        <f t="shared" ref="Z157:Z167" si="582">T157*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA157" s="16">
+        <f t="shared" ref="AA157:AA167" si="583">O157*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB157" s="16">
+        <f t="shared" ref="AB157:AB167" si="584">P157*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC157" s="16">
+        <f t="shared" ref="AC157:AC167" si="585">Q157*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD157" s="17" t="str">
+        <f t="shared" ref="AD157:AD167" si="586">IF((U157+X157)&lt;($J$4/2),"低",IF((U157+X157)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE157" s="17" t="str">
+        <f t="shared" ref="AE157:AE167" si="587">IF((V157+Y157)&lt;($J$4/2),"低",IF((V157+Y157)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF157" s="17" t="str">
+        <f t="shared" ref="AF157:AF167" si="588">IF((W157+Z157)&lt;($J$4/2),"低",IF((W157+Z157)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG157" s="15" t="str">
+        <f t="shared" ref="AG157:AG167" si="589">IF((X157+AA157)&lt;($J$4/2),"低",IF((X157+AA157)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AH157" s="15" t="str">
+        <f t="shared" ref="AH157:AH167" si="590">IF((Y157+AB157)&lt;($J$4/2),"低",IF((Y157+AB157)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI157" s="15" t="str">
+        <f t="shared" ref="AI157:AI167" si="591">IF((Z157+AC157)&lt;($J$4/2),"低",IF((Z157+AC157)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="158" spans="1:35">
+      <c r="L158" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M140" s="14">
+      <c r="M158" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N140" s="14">
+      <c r="N158" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O140" s="15">
+      <c r="O158" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P140" s="15">
+      <c r="P158" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q140" s="15">
+      <c r="Q158" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R140" s="19">
+      <c r="R158" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S140" s="19">
+      <c r="S158" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T140" s="19">
+      <c r="T158" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U140" s="18">
+      <c r="U158" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V140" s="18">
+      <c r="V158" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W140" s="18">
+      <c r="W158" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X140" s="20">
+      <c r="X158" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y140" s="20">
+      <c r="Y158" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z140" s="20">
+      <c r="Z158" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA140" s="16">
+      <c r="AA158" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB140" s="16">
+      <c r="AB158" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC140" s="16">
+      <c r="AC158" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD140" s="17" t="str">
+      <c r="AD158" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE140" s="17" t="str">
+      <c r="AE158" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF140" s="17" t="str">
+      <c r="AF158" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG140" s="15" t="str">
+      <c r="AG158" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH140" s="15" t="str">
+      <c r="AH158" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI140" s="15" t="str">
+      <c r="AI158" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="141" spans="1:35">
-      <c r="L141" s="14">
+    <row r="159" spans="1:35">
+      <c r="L159" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M141" s="14">
+      <c r="M159" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N141" s="14">
+      <c r="N159" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O141" s="15">
+      <c r="O159" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P141" s="15">
+      <c r="P159" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q141" s="15">
+      <c r="Q159" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R141" s="19">
+      <c r="R159" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S141" s="19">
+      <c r="S159" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T141" s="19">
+      <c r="T159" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U141" s="18">
+      <c r="U159" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V141" s="18">
+      <c r="V159" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W141" s="18">
+      <c r="W159" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X141" s="20">
+      <c r="X159" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y141" s="20">
+      <c r="Y159" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z141" s="20">
+      <c r="Z159" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA141" s="16">
+      <c r="AA159" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB141" s="16">
+      <c r="AB159" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC141" s="16">
+      <c r="AC159" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD141" s="17" t="str">
+      <c r="AD159" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE141" s="17" t="str">
+      <c r="AE159" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF141" s="17" t="str">
+      <c r="AF159" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG141" s="15" t="str">
+      <c r="AG159" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH141" s="15" t="str">
+      <c r="AH159" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI141" s="15" t="str">
+      <c r="AI159" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="142" spans="1:35">
-      <c r="L142" s="14">
+    <row r="160" spans="1:35">
+      <c r="L160" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M142" s="14">
+      <c r="M160" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N142" s="14">
+      <c r="N160" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O142" s="15">
+      <c r="O160" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P142" s="15">
+      <c r="P160" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q142" s="15">
+      <c r="Q160" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R142" s="19">
+      <c r="R160" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S142" s="19">
+      <c r="S160" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T142" s="19">
+      <c r="T160" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U142" s="18">
+      <c r="U160" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V142" s="18">
+      <c r="V160" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W142" s="18">
+      <c r="W160" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X142" s="20">
+      <c r="X160" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y142" s="20">
+      <c r="Y160" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z142" s="20">
+      <c r="Z160" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA142" s="16">
+      <c r="AA160" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB142" s="16">
+      <c r="AB160" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC142" s="16">
+      <c r="AC160" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD142" s="17" t="str">
+      <c r="AD160" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE142" s="17" t="str">
+      <c r="AE160" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF142" s="17" t="str">
+      <c r="AF160" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG142" s="15" t="str">
+      <c r="AG160" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH142" s="15" t="str">
+      <c r="AH160" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI142" s="15" t="str">
+      <c r="AI160" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="143" spans="1:35">
-      <c r="L143" s="14">
+    <row r="161" spans="12:35">
+      <c r="L161" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M143" s="14">
+      <c r="M161" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N143" s="14">
+      <c r="N161" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O143" s="15">
+      <c r="O161" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P143" s="15">
+      <c r="P161" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q143" s="15">
+      <c r="Q161" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R143" s="19">
+      <c r="R161" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S143" s="19">
+      <c r="S161" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T143" s="19">
+      <c r="T161" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U143" s="18">
+      <c r="U161" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V143" s="18">
+      <c r="V161" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W143" s="18">
+      <c r="W161" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X143" s="20">
+      <c r="X161" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y143" s="20">
+      <c r="Y161" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z143" s="20">
+      <c r="Z161" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA143" s="16">
+      <c r="AA161" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB143" s="16">
+      <c r="AB161" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC143" s="16">
+      <c r="AC161" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD143" s="17" t="str">
+      <c r="AD161" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE143" s="17" t="str">
+      <c r="AE161" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF143" s="17" t="str">
+      <c r="AF161" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG143" s="15" t="str">
+      <c r="AG161" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH143" s="15" t="str">
+      <c r="AH161" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI143" s="15" t="str">
+      <c r="AI161" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="144" spans="1:35">
-      <c r="L144" s="14">
+    <row r="162" spans="12:35">
+      <c r="L162" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M144" s="14">
+      <c r="M162" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N144" s="14">
+      <c r="N162" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O144" s="15">
+      <c r="O162" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P144" s="15">
+      <c r="P162" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q144" s="15">
+      <c r="Q162" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R144" s="19">
+      <c r="R162" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S144" s="19">
+      <c r="S162" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T144" s="19">
+      <c r="T162" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U144" s="18">
+      <c r="U162" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V144" s="18">
+      <c r="V162" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W144" s="18">
+      <c r="W162" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X144" s="20">
+      <c r="X162" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y144" s="20">
+      <c r="Y162" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z144" s="20">
+      <c r="Z162" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA144" s="16">
+      <c r="AA162" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB144" s="16">
+      <c r="AB162" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC144" s="16">
+      <c r="AC162" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD144" s="17" t="str">
+      <c r="AD162" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE144" s="17" t="str">
+      <c r="AE162" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF144" s="17" t="str">
+      <c r="AF162" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG144" s="15" t="str">
+      <c r="AG162" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH144" s="15" t="str">
+      <c r="AH162" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI144" s="15" t="str">
+      <c r="AI162" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="145" spans="12:35">
-      <c r="L145" s="14">
+    <row r="163" spans="12:35">
+      <c r="L163" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M145" s="14">
+      <c r="M163" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N145" s="14">
+      <c r="N163" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O145" s="15">
+      <c r="O163" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P145" s="15">
+      <c r="P163" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q145" s="15">
+      <c r="Q163" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R145" s="19">
+      <c r="R163" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S145" s="19">
+      <c r="S163" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T145" s="19">
+      <c r="T163" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U145" s="18">
+      <c r="U163" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V145" s="18">
+      <c r="V163" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W145" s="18">
+      <c r="W163" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X145" s="20">
+      <c r="X163" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y145" s="20">
+      <c r="Y163" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z145" s="20">
+      <c r="Z163" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA145" s="16">
+      <c r="AA163" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB145" s="16">
+      <c r="AB163" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC145" s="16">
+      <c r="AC163" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD145" s="17" t="str">
+      <c r="AD163" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE145" s="17" t="str">
+      <c r="AE163" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF145" s="17" t="str">
+      <c r="AF163" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG145" s="15" t="str">
+      <c r="AG163" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH145" s="15" t="str">
+      <c r="AH163" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI145" s="15" t="str">
+      <c r="AI163" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="146" spans="12:35">
-      <c r="L146" s="14">
+    <row r="164" spans="12:35">
+      <c r="L164" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M146" s="14">
+      <c r="M164" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N146" s="14">
+      <c r="N164" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O146" s="15">
+      <c r="O164" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P146" s="15">
+      <c r="P164" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q146" s="15">
+      <c r="Q164" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R146" s="19">
+      <c r="R164" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S146" s="19">
+      <c r="S164" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T146" s="19">
+      <c r="T164" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U146" s="18">
+      <c r="U164" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V146" s="18">
+      <c r="V164" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W146" s="18">
+      <c r="W164" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X146" s="20">
+      <c r="X164" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y146" s="20">
+      <c r="Y164" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z146" s="20">
+      <c r="Z164" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA146" s="16">
+      <c r="AA164" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB146" s="16">
+      <c r="AB164" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC146" s="16">
+      <c r="AC164" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD146" s="17" t="str">
+      <c r="AD164" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE146" s="17" t="str">
+      <c r="AE164" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF146" s="17" t="str">
+      <c r="AF164" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG146" s="15" t="str">
+      <c r="AG164" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH146" s="15" t="str">
+      <c r="AH164" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI146" s="15" t="str">
+      <c r="AI164" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="147" spans="12:35">
-      <c r="L147" s="14">
+    <row r="165" spans="12:35">
+      <c r="L165" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M147" s="14">
+      <c r="M165" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N147" s="14">
+      <c r="N165" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O147" s="15">
+      <c r="O165" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P147" s="15">
+      <c r="P165" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q147" s="15">
+      <c r="Q165" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R147" s="19">
+      <c r="R165" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S147" s="19">
+      <c r="S165" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T147" s="19">
+      <c r="T165" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U147" s="18">
+      <c r="U165" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V147" s="18">
+      <c r="V165" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W147" s="18">
+      <c r="W165" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X147" s="20">
+      <c r="X165" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y147" s="20">
+      <c r="Y165" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z147" s="20">
+      <c r="Z165" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA147" s="16">
+      <c r="AA165" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB147" s="16">
+      <c r="AB165" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC147" s="16">
+      <c r="AC165" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD147" s="17" t="str">
+      <c r="AD165" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE147" s="17" t="str">
+      <c r="AE165" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF147" s="17" t="str">
+      <c r="AF165" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG147" s="15" t="str">
+      <c r="AG165" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH147" s="15" t="str">
+      <c r="AH165" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI147" s="15" t="str">
+      <c r="AI165" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="148" spans="12:35">
-      <c r="L148" s="14">
+    <row r="166" spans="12:35">
+      <c r="L166" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M148" s="14">
+      <c r="M166" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N148" s="14">
+      <c r="N166" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O148" s="15">
+      <c r="O166" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P148" s="15">
+      <c r="P166" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q148" s="15">
+      <c r="Q166" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R148" s="19">
+      <c r="R166" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S148" s="19">
+      <c r="S166" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T148" s="19">
+      <c r="T166" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U148" s="18">
+      <c r="U166" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V148" s="18">
+      <c r="V166" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W148" s="18">
+      <c r="W166" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X148" s="20">
+      <c r="X166" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y148" s="20">
+      <c r="Y166" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z148" s="20">
+      <c r="Z166" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA148" s="16">
+      <c r="AA166" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB148" s="16">
+      <c r="AB166" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC148" s="16">
+      <c r="AC166" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD148" s="17" t="str">
+      <c r="AD166" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE148" s="17" t="str">
+      <c r="AE166" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF148" s="17" t="str">
+      <c r="AF166" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG148" s="15" t="str">
+      <c r="AG166" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH148" s="15" t="str">
+      <c r="AH166" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI148" s="15" t="str">
+      <c r="AI166" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="149" spans="12:35">
-      <c r="L149" s="14">
+    <row r="167" spans="12:35">
+      <c r="L167" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M149" s="14">
+      <c r="M167" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N149" s="14">
+      <c r="N167" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O149" s="15">
+      <c r="O167" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P149" s="15">
+      <c r="P167" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q149" s="15">
+      <c r="Q167" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R149" s="19">
+      <c r="R167" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S149" s="19">
+      <c r="S167" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T149" s="19">
+      <c r="T167" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U149" s="18">
+      <c r="U167" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V149" s="18">
+      <c r="V167" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W149" s="18">
+      <c r="W167" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X149" s="20">
+      <c r="X167" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y149" s="20">
+      <c r="Y167" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z149" s="20">
+      <c r="Z167" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA149" s="16">
+      <c r="AA167" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB149" s="16">
+      <c r="AB167" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC149" s="16">
+      <c r="AC167" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD149" s="17" t="str">
+      <c r="AD167" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE149" s="17" t="str">
+      <c r="AE167" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF149" s="17" t="str">
+      <c r="AF167" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG149" s="15" t="str">
+      <c r="AG167" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH149" s="15" t="str">
+      <c r="AH167" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI149" s="15" t="str">
+      <c r="AI167" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="150" spans="12:35">
-      <c r="U150" s="18"/>
-      <c r="V150" s="18"/>
-      <c r="W150" s="18"/>
-      <c r="X150" s="20"/>
-      <c r="Y150" s="20"/>
-      <c r="Z150" s="20"/>
-      <c r="AA150" s="16"/>
-      <c r="AB150" s="16"/>
-      <c r="AC150" s="16"/>
-    </row>
-    <row r="151" spans="12:35">
-      <c r="U151" s="18"/>
-      <c r="V151" s="18"/>
-      <c r="W151" s="18"/>
-      <c r="X151" s="20"/>
-      <c r="Y151" s="20"/>
-      <c r="Z151" s="20"/>
-      <c r="AA151" s="16"/>
-      <c r="AB151" s="16"/>
-      <c r="AC151" s="16"/>
-    </row>
-    <row r="152" spans="12:35">
-      <c r="U152" s="18"/>
-      <c r="V152" s="18"/>
-      <c r="W152" s="18"/>
-      <c r="X152" s="20"/>
-      <c r="Y152" s="20"/>
-      <c r="Z152" s="20"/>
-      <c r="AA152" s="16"/>
-      <c r="AB152" s="16"/>
-      <c r="AC152" s="16"/>
-    </row>
-    <row r="153" spans="12:35">
-      <c r="U153" s="18"/>
-      <c r="V153" s="18"/>
-      <c r="W153" s="18"/>
-      <c r="X153" s="20"/>
-      <c r="Y153" s="20"/>
-      <c r="Z153" s="20"/>
-      <c r="AA153" s="16"/>
-      <c r="AB153" s="16"/>
-      <c r="AC153" s="16"/>
-    </row>
-    <row r="154" spans="12:35">
-      <c r="U154" s="18"/>
-      <c r="V154" s="18"/>
-      <c r="W154" s="18"/>
-      <c r="X154" s="20"/>
-      <c r="Y154" s="20"/>
-      <c r="Z154" s="20"/>
-      <c r="AA154" s="16"/>
-      <c r="AB154" s="16"/>
-      <c r="AC154" s="16"/>
-    </row>
-    <row r="155" spans="12:35">
-      <c r="U155" s="18"/>
-      <c r="V155" s="18"/>
-      <c r="W155" s="18"/>
-      <c r="X155" s="20"/>
-      <c r="Y155" s="20"/>
-      <c r="Z155" s="20"/>
-      <c r="AA155" s="16"/>
-      <c r="AB155" s="16"/>
-      <c r="AC155" s="16"/>
-    </row>
-    <row r="156" spans="12:35">
-      <c r="U156" s="18"/>
-      <c r="V156" s="18"/>
-      <c r="W156" s="18"/>
-      <c r="X156" s="20"/>
-      <c r="Y156" s="20"/>
-      <c r="Z156" s="20"/>
-      <c r="AA156" s="16"/>
-      <c r="AB156" s="16"/>
-      <c r="AC156" s="16"/>
-    </row>
-    <row r="157" spans="12:35">
-      <c r="U157" s="18"/>
-      <c r="V157" s="18"/>
-      <c r="W157" s="18"/>
-      <c r="X157" s="20"/>
-      <c r="Y157" s="20"/>
-      <c r="Z157" s="20"/>
-      <c r="AA157" s="16"/>
-      <c r="AB157" s="16"/>
-      <c r="AC157" s="16"/>
-    </row>
-    <row r="158" spans="12:35">
-      <c r="U158" s="18"/>
-      <c r="V158" s="18"/>
-      <c r="W158" s="18"/>
-      <c r="X158" s="20"/>
-      <c r="Y158" s="20"/>
-      <c r="Z158" s="20"/>
-      <c r="AA158" s="16"/>
-      <c r="AB158" s="16"/>
-      <c r="AC158" s="16"/>
-    </row>
-    <row r="159" spans="12:35">
-      <c r="U159" s="18"/>
-      <c r="V159" s="18"/>
-      <c r="W159" s="18"/>
-      <c r="X159" s="20"/>
-      <c r="Y159" s="20"/>
-      <c r="Z159" s="20"/>
-      <c r="AA159" s="16"/>
-      <c r="AB159" s="16"/>
-      <c r="AC159" s="16"/>
-    </row>
-    <row r="160" spans="12:35">
-      <c r="U160" s="18"/>
-      <c r="V160" s="18"/>
-      <c r="W160" s="18"/>
-      <c r="X160" s="20"/>
-      <c r="Y160" s="20"/>
-      <c r="Z160" s="20"/>
-      <c r="AA160" s="16"/>
-      <c r="AB160" s="16"/>
-      <c r="AC160" s="16"/>
-    </row>
-    <row r="161" spans="21:29">
-      <c r="U161" s="18"/>
-      <c r="V161" s="18"/>
-      <c r="W161" s="18"/>
-      <c r="X161" s="20"/>
-      <c r="Y161" s="20"/>
-      <c r="Z161" s="20"/>
-      <c r="AA161" s="16"/>
-      <c r="AB161" s="16"/>
-      <c r="AC161" s="16"/>
-    </row>
-    <row r="162" spans="21:29">
-      <c r="U162" s="18"/>
-      <c r="V162" s="18"/>
-      <c r="W162" s="18"/>
-      <c r="X162" s="20"/>
-      <c r="Y162" s="20"/>
-      <c r="Z162" s="20"/>
-      <c r="AA162" s="16"/>
-      <c r="AB162" s="16"/>
-      <c r="AC162" s="16"/>
-    </row>
-    <row r="163" spans="21:29">
-      <c r="U163" s="18"/>
-      <c r="V163" s="18"/>
-      <c r="W163" s="18"/>
-      <c r="X163" s="20"/>
-      <c r="Y163" s="20"/>
-      <c r="Z163" s="20"/>
-      <c r="AA163" s="16"/>
-      <c r="AB163" s="16"/>
-      <c r="AC163" s="16"/>
-    </row>
-    <row r="164" spans="21:29">
-      <c r="U164" s="18"/>
-      <c r="V164" s="18"/>
-      <c r="W164" s="18"/>
-      <c r="X164" s="20"/>
-      <c r="Y164" s="20"/>
-      <c r="Z164" s="20"/>
-      <c r="AA164" s="16"/>
-      <c r="AB164" s="16"/>
-      <c r="AC164" s="16"/>
-    </row>
-    <row r="165" spans="21:29">
-      <c r="U165" s="18"/>
-      <c r="V165" s="18"/>
-      <c r="W165" s="18"/>
-      <c r="X165" s="20"/>
-      <c r="Y165" s="20"/>
-      <c r="Z165" s="20"/>
-      <c r="AA165" s="16"/>
-      <c r="AB165" s="16"/>
-      <c r="AC165" s="16"/>
-    </row>
-    <row r="166" spans="21:29">
-      <c r="U166" s="18"/>
-      <c r="V166" s="18"/>
-      <c r="W166" s="18"/>
-      <c r="X166" s="20"/>
-      <c r="Y166" s="20"/>
-      <c r="Z166" s="20"/>
-      <c r="AA166" s="16"/>
-      <c r="AB166" s="16"/>
-      <c r="AC166" s="16"/>
-    </row>
-    <row r="167" spans="21:29">
-      <c r="U167" s="18"/>
-      <c r="V167" s="18"/>
-      <c r="W167" s="18"/>
-      <c r="X167" s="20"/>
-      <c r="Y167" s="20"/>
-      <c r="Z167" s="20"/>
-      <c r="AA167" s="16"/>
-      <c r="AB167" s="16"/>
-      <c r="AC167" s="16"/>
-    </row>
-    <row r="168" spans="21:29">
+    <row r="168" spans="12:35">
       <c r="U168" s="18"/>
       <c r="V168" s="18"/>
       <c r="W168" s="18"/>
@@ -18432,7 +20604,7 @@
       <c r="AB168" s="16"/>
       <c r="AC168" s="16"/>
     </row>
-    <row r="169" spans="21:29">
+    <row r="169" spans="12:35">
       <c r="U169" s="18"/>
       <c r="V169" s="18"/>
       <c r="W169" s="18"/>
@@ -18443,7 +20615,7 @@
       <c r="AB169" s="16"/>
       <c r="AC169" s="16"/>
     </row>
-    <row r="170" spans="21:29">
+    <row r="170" spans="12:35">
       <c r="U170" s="18"/>
       <c r="V170" s="18"/>
       <c r="W170" s="18"/>
@@ -18454,7 +20626,7 @@
       <c r="AB170" s="16"/>
       <c r="AC170" s="16"/>
     </row>
-    <row r="171" spans="21:29">
+    <row r="171" spans="12:35">
       <c r="U171" s="18"/>
       <c r="V171" s="18"/>
       <c r="W171" s="18"/>
@@ -18465,7 +20637,7 @@
       <c r="AB171" s="16"/>
       <c r="AC171" s="16"/>
     </row>
-    <row r="172" spans="21:29">
+    <row r="172" spans="12:35">
       <c r="U172" s="18"/>
       <c r="V172" s="18"/>
       <c r="W172" s="18"/>
@@ -18476,7 +20648,7 @@
       <c r="AB172" s="16"/>
       <c r="AC172" s="16"/>
     </row>
-    <row r="173" spans="21:29">
+    <row r="173" spans="12:35">
       <c r="U173" s="18"/>
       <c r="V173" s="18"/>
       <c r="W173" s="18"/>
@@ -18487,7 +20659,7 @@
       <c r="AB173" s="16"/>
       <c r="AC173" s="16"/>
     </row>
-    <row r="174" spans="21:29">
+    <row r="174" spans="12:35">
       <c r="U174" s="18"/>
       <c r="V174" s="18"/>
       <c r="W174" s="18"/>
@@ -18498,7 +20670,7 @@
       <c r="AB174" s="16"/>
       <c r="AC174" s="16"/>
     </row>
-    <row r="175" spans="21:29">
+    <row r="175" spans="12:35">
       <c r="U175" s="18"/>
       <c r="V175" s="18"/>
       <c r="W175" s="18"/>
@@ -18509,7 +20681,7 @@
       <c r="AB175" s="16"/>
       <c r="AC175" s="16"/>
     </row>
-    <row r="176" spans="21:29">
+    <row r="176" spans="12:35">
       <c r="U176" s="18"/>
       <c r="V176" s="18"/>
       <c r="W176" s="18"/>
@@ -21533,6 +23705,204 @@
       <c r="AA450" s="16"/>
       <c r="AB450" s="16"/>
       <c r="AC450" s="16"/>
+    </row>
+    <row r="451" spans="21:29">
+      <c r="U451" s="18"/>
+      <c r="V451" s="18"/>
+      <c r="W451" s="18"/>
+      <c r="X451" s="20"/>
+      <c r="Y451" s="20"/>
+      <c r="Z451" s="20"/>
+      <c r="AA451" s="16"/>
+      <c r="AB451" s="16"/>
+      <c r="AC451" s="16"/>
+    </row>
+    <row r="452" spans="21:29">
+      <c r="U452" s="18"/>
+      <c r="V452" s="18"/>
+      <c r="W452" s="18"/>
+      <c r="X452" s="20"/>
+      <c r="Y452" s="20"/>
+      <c r="Z452" s="20"/>
+      <c r="AA452" s="16"/>
+      <c r="AB452" s="16"/>
+      <c r="AC452" s="16"/>
+    </row>
+    <row r="453" spans="21:29">
+      <c r="U453" s="18"/>
+      <c r="V453" s="18"/>
+      <c r="W453" s="18"/>
+      <c r="X453" s="20"/>
+      <c r="Y453" s="20"/>
+      <c r="Z453" s="20"/>
+      <c r="AA453" s="16"/>
+      <c r="AB453" s="16"/>
+      <c r="AC453" s="16"/>
+    </row>
+    <row r="454" spans="21:29">
+      <c r="U454" s="18"/>
+      <c r="V454" s="18"/>
+      <c r="W454" s="18"/>
+      <c r="X454" s="20"/>
+      <c r="Y454" s="20"/>
+      <c r="Z454" s="20"/>
+      <c r="AA454" s="16"/>
+      <c r="AB454" s="16"/>
+      <c r="AC454" s="16"/>
+    </row>
+    <row r="455" spans="21:29">
+      <c r="U455" s="18"/>
+      <c r="V455" s="18"/>
+      <c r="W455" s="18"/>
+      <c r="X455" s="20"/>
+      <c r="Y455" s="20"/>
+      <c r="Z455" s="20"/>
+      <c r="AA455" s="16"/>
+      <c r="AB455" s="16"/>
+      <c r="AC455" s="16"/>
+    </row>
+    <row r="456" spans="21:29">
+      <c r="U456" s="18"/>
+      <c r="V456" s="18"/>
+      <c r="W456" s="18"/>
+      <c r="X456" s="20"/>
+      <c r="Y456" s="20"/>
+      <c r="Z456" s="20"/>
+      <c r="AA456" s="16"/>
+      <c r="AB456" s="16"/>
+      <c r="AC456" s="16"/>
+    </row>
+    <row r="457" spans="21:29">
+      <c r="U457" s="18"/>
+      <c r="V457" s="18"/>
+      <c r="W457" s="18"/>
+      <c r="X457" s="20"/>
+      <c r="Y457" s="20"/>
+      <c r="Z457" s="20"/>
+      <c r="AA457" s="16"/>
+      <c r="AB457" s="16"/>
+      <c r="AC457" s="16"/>
+    </row>
+    <row r="458" spans="21:29">
+      <c r="U458" s="18"/>
+      <c r="V458" s="18"/>
+      <c r="W458" s="18"/>
+      <c r="X458" s="20"/>
+      <c r="Y458" s="20"/>
+      <c r="Z458" s="20"/>
+      <c r="AA458" s="16"/>
+      <c r="AB458" s="16"/>
+      <c r="AC458" s="16"/>
+    </row>
+    <row r="459" spans="21:29">
+      <c r="U459" s="18"/>
+      <c r="V459" s="18"/>
+      <c r="W459" s="18"/>
+      <c r="X459" s="20"/>
+      <c r="Y459" s="20"/>
+      <c r="Z459" s="20"/>
+      <c r="AA459" s="16"/>
+      <c r="AB459" s="16"/>
+      <c r="AC459" s="16"/>
+    </row>
+    <row r="460" spans="21:29">
+      <c r="U460" s="18"/>
+      <c r="V460" s="18"/>
+      <c r="W460" s="18"/>
+      <c r="X460" s="20"/>
+      <c r="Y460" s="20"/>
+      <c r="Z460" s="20"/>
+      <c r="AA460" s="16"/>
+      <c r="AB460" s="16"/>
+      <c r="AC460" s="16"/>
+    </row>
+    <row r="461" spans="21:29">
+      <c r="U461" s="18"/>
+      <c r="V461" s="18"/>
+      <c r="W461" s="18"/>
+      <c r="X461" s="20"/>
+      <c r="Y461" s="20"/>
+      <c r="Z461" s="20"/>
+      <c r="AA461" s="16"/>
+      <c r="AB461" s="16"/>
+      <c r="AC461" s="16"/>
+    </row>
+    <row r="462" spans="21:29">
+      <c r="U462" s="18"/>
+      <c r="V462" s="18"/>
+      <c r="W462" s="18"/>
+      <c r="X462" s="20"/>
+      <c r="Y462" s="20"/>
+      <c r="Z462" s="20"/>
+      <c r="AA462" s="16"/>
+      <c r="AB462" s="16"/>
+      <c r="AC462" s="16"/>
+    </row>
+    <row r="463" spans="21:29">
+      <c r="U463" s="18"/>
+      <c r="V463" s="18"/>
+      <c r="W463" s="18"/>
+      <c r="X463" s="20"/>
+      <c r="Y463" s="20"/>
+      <c r="Z463" s="20"/>
+      <c r="AA463" s="16"/>
+      <c r="AB463" s="16"/>
+      <c r="AC463" s="16"/>
+    </row>
+    <row r="464" spans="21:29">
+      <c r="U464" s="18"/>
+      <c r="V464" s="18"/>
+      <c r="W464" s="18"/>
+      <c r="X464" s="20"/>
+      <c r="Y464" s="20"/>
+      <c r="Z464" s="20"/>
+      <c r="AA464" s="16"/>
+      <c r="AB464" s="16"/>
+      <c r="AC464" s="16"/>
+    </row>
+    <row r="465" spans="21:29">
+      <c r="U465" s="18"/>
+      <c r="V465" s="18"/>
+      <c r="W465" s="18"/>
+      <c r="X465" s="20"/>
+      <c r="Y465" s="20"/>
+      <c r="Z465" s="20"/>
+      <c r="AA465" s="16"/>
+      <c r="AB465" s="16"/>
+      <c r="AC465" s="16"/>
+    </row>
+    <row r="466" spans="21:29">
+      <c r="U466" s="18"/>
+      <c r="V466" s="18"/>
+      <c r="W466" s="18"/>
+      <c r="X466" s="20"/>
+      <c r="Y466" s="20"/>
+      <c r="Z466" s="20"/>
+      <c r="AA466" s="16"/>
+      <c r="AB466" s="16"/>
+      <c r="AC466" s="16"/>
+    </row>
+    <row r="467" spans="21:29">
+      <c r="U467" s="18"/>
+      <c r="V467" s="18"/>
+      <c r="W467" s="18"/>
+      <c r="X467" s="20"/>
+      <c r="Y467" s="20"/>
+      <c r="Z467" s="20"/>
+      <c r="AA467" s="16"/>
+      <c r="AB467" s="16"/>
+      <c r="AC467" s="16"/>
+    </row>
+    <row r="468" spans="21:29">
+      <c r="U468" s="18"/>
+      <c r="V468" s="18"/>
+      <c r="W468" s="18"/>
+      <c r="X468" s="20"/>
+      <c r="Y468" s="20"/>
+      <c r="Z468" s="20"/>
+      <c r="AA468" s="16"/>
+      <c r="AB468" s="16"/>
+      <c r="AC468" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8E78B4-4CB2-4EEC-8065-793EBAD645D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A4ACB-898A-4DF2-A415-B8FFBDA12D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="250">
   <si>
     <t>英文名稱</t>
   </si>
@@ -1018,6 +1018,18 @@
   </si>
   <si>
     <t>滾石投擲-結晶飛散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>突進</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大泥彈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1585,11 +1597,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:AJ468"/>
+  <dimension ref="A2:AJ471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
+      <pane ySplit="7" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4151,39 +4163,39 @@
         <v>0</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" ref="L26:L152" si="271">E26*I26</f>
+        <f t="shared" ref="L26:L155" si="271">E26*I26</f>
         <v>448</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" ref="M26:M152" si="272">E26*J26</f>
+        <f t="shared" ref="M26:M155" si="272">E26*J26</f>
         <v>672</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" ref="N26:N152" si="273">E26*K26</f>
+        <f t="shared" ref="N26:N155" si="273">E26*K26</f>
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" ref="O26:O152" si="274">F26*I26</f>
+        <f t="shared" ref="O26:O155" si="274">F26*I26</f>
         <v>602</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" ref="P26:P152" si="275">F26*J26</f>
+        <f t="shared" ref="P26:P155" si="275">F26*J26</f>
         <v>903</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" ref="Q26:Q152" si="276">F26*K26</f>
+        <f t="shared" ref="Q26:Q155" si="276">F26*K26</f>
         <v>0</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" ref="R26:R152" si="277">H26*I26</f>
+        <f t="shared" ref="R26:R155" si="277">H26*I26</f>
         <v>280</v>
       </c>
       <c r="S26" s="19">
-        <f t="shared" ref="S26:S152" si="278">H26*J26</f>
+        <f t="shared" ref="S26:S155" si="278">H26*J26</f>
         <v>420</v>
       </c>
       <c r="T26" s="19">
-        <f t="shared" ref="T26:T152" si="279">H26*K26</f>
+        <f t="shared" ref="T26:T155" si="279">H26*K26</f>
         <v>0</v>
       </c>
       <c r="U26" s="18">
@@ -4191,59 +4203,59 @@
         <v>0.22123456790123455</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" ref="V26:V152" si="280">M26*$G$3/$E$3</f>
+        <f t="shared" ref="V26:V155" si="280">M26*$G$3/$E$3</f>
         <v>0.33185185185185179</v>
       </c>
       <c r="W26" s="18">
-        <f t="shared" ref="W26:W152" si="281">N26*$G$3/$E$3</f>
+        <f t="shared" ref="W26:W155" si="281">N26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X26" s="20">
-        <f t="shared" ref="X26:X152" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="X26:X155" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.13827160493827159</v>
       </c>
       <c r="Y26" s="20">
-        <f t="shared" ref="Y26:Y152" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Y26:Y155" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.2074074074074074</v>
       </c>
       <c r="Z26" s="20">
-        <f t="shared" ref="Z26:Z152" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Z26:Z155" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA26" s="16">
-        <f t="shared" ref="AA26:AA152" si="285">O26*$G$3/$E$3</f>
+        <f t="shared" ref="AA26:AA155" si="285">O26*$G$3/$E$3</f>
         <v>0.29728395061728391</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" ref="AB26:AB152" si="286">P26*$G$3/$E$3</f>
+        <f t="shared" ref="AB26:AB155" si="286">P26*$G$3/$E$3</f>
         <v>0.44592592592592589</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" ref="AC26:AC152" si="287">Q26*$G$3/$E$3</f>
+        <f t="shared" ref="AC26:AC155" si="287">Q26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD26" s="17" t="str">
-        <f t="shared" ref="AD26:AD152" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD26:AD155" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AE26" s="17" t="str">
-        <f t="shared" ref="AE26:AE152" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AE26:AE155" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AF26" s="17" t="str">
-        <f t="shared" ref="AF26:AF152" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AF26:AF155" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG26" s="15" t="str">
-        <f t="shared" ref="AG26:AG152" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AG26:AG155" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AH26" s="15" t="str">
-        <f t="shared" ref="AH26:AH152" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AH26:AH155" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AI26" s="15" t="str">
-        <f t="shared" ref="AI26:AI152" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AI26:AI155" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AJ26" s="21"/>
@@ -4319,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" ref="U27:W153" si="294">L27*$G$3/$E$3</f>
+        <f t="shared" ref="U27:W156" si="294">L27*$G$3/$E$3</f>
         <v>5.8074074074074084E-2</v>
       </c>
       <c r="V27" s="18">
@@ -12998,13 +13010,37 @@
       <c r="C96" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="D96" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E96" s="8">
+        <v>24</v>
+      </c>
+      <c r="F96" s="8">
+        <v>33</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H96" s="8">
+        <v>0</v>
+      </c>
+      <c r="I96" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J96" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K96" s="11">
+        <v>0</v>
+      </c>
       <c r="L96" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>117.60000000000001</v>
       </c>
       <c r="M96" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="N96" s="14">
         <f t="shared" si="273"/>
@@ -13012,11 +13048,11 @@
       </c>
       <c r="O96" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>161.70000000000002</v>
       </c>
       <c r="P96" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>313.5</v>
       </c>
       <c r="Q96" s="15">
         <f t="shared" si="276"/>
@@ -13036,11 +13072,11 @@
       </c>
       <c r="U96" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>5.8074074074074084E-2</v>
       </c>
       <c r="V96" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.11259259259259259</v>
       </c>
       <c r="W96" s="18">
         <f t="shared" si="281"/>
@@ -13060,11 +13096,11 @@
       </c>
       <c r="AA96" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>7.9851851851851854E-2</v>
       </c>
       <c r="AB96" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.15481481481481482</v>
       </c>
       <c r="AC96" s="16">
         <f t="shared" si="287"/>
@@ -13095,23 +13131,41 @@
         <v>低</v>
       </c>
     </row>
-    <row r="97" spans="1:35">
-      <c r="A97" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>22</v>
+    <row r="97" spans="1:36" s="4" customFormat="1">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E97" s="8">
+        <v>65</v>
+      </c>
+      <c r="F97" s="8">
+        <v>90</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H97" s="8">
+        <v>0</v>
+      </c>
+      <c r="I97" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J97" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K97" s="11">
+        <v>0</v>
       </c>
       <c r="L97" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>318.5</v>
       </c>
       <c r="M97" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>617.5</v>
       </c>
       <c r="N97" s="14">
         <f t="shared" si="273"/>
@@ -13119,11 +13173,11 @@
       </c>
       <c r="O97" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>441.00000000000006</v>
       </c>
       <c r="P97" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="Q97" s="15">
         <f t="shared" si="276"/>
@@ -13143,11 +13197,11 @@
       </c>
       <c r="U97" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.15728395061728395</v>
       </c>
       <c r="V97" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.30493827160493825</v>
       </c>
       <c r="W97" s="18">
         <f t="shared" si="281"/>
@@ -13167,11 +13221,11 @@
       </c>
       <c r="AA97" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.21777777777777782</v>
       </c>
       <c r="AB97" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.42222222222222217</v>
       </c>
       <c r="AC97" s="16">
         <f t="shared" si="287"/>
@@ -13183,7 +13237,7 @@
       </c>
       <c r="AE97" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF97" s="17" t="str">
         <f t="shared" si="290"/>
@@ -13195,30 +13249,49 @@
       </c>
       <c r="AH97" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI97" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="98" spans="1:35">
-      <c r="A98" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>23</v>
+      <c r="AJ97" s="21"/>
+    </row>
+    <row r="98" spans="1:36" s="4" customFormat="1">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E98" s="8">
+        <v>24</v>
+      </c>
+      <c r="F98" s="8">
+        <v>33</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H98" s="8">
+        <v>0</v>
+      </c>
+      <c r="I98" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J98" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K98" s="11">
+        <v>0</v>
       </c>
       <c r="L98" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>117.60000000000001</v>
       </c>
       <c r="M98" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="N98" s="14">
         <f t="shared" si="273"/>
@@ -13226,11 +13299,11 @@
       </c>
       <c r="O98" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>161.70000000000002</v>
       </c>
       <c r="P98" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>313.5</v>
       </c>
       <c r="Q98" s="15">
         <f t="shared" si="276"/>
@@ -13250,11 +13323,11 @@
       </c>
       <c r="U98" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>5.8074074074074084E-2</v>
       </c>
       <c r="V98" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.11259259259259259</v>
       </c>
       <c r="W98" s="18">
         <f t="shared" si="281"/>
@@ -13274,11 +13347,11 @@
       </c>
       <c r="AA98" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>7.9851851851851854E-2</v>
       </c>
       <c r="AB98" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.15481481481481482</v>
       </c>
       <c r="AC98" s="16">
         <f t="shared" si="287"/>
@@ -13308,24 +13381,43 @@
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="99" spans="1:35">
-      <c r="A99" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" s="5" t="s">
+      <c r="AJ98" s="21"/>
+    </row>
+    <row r="99" spans="1:36" s="4" customFormat="1">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E99" s="8">
         <v>24</v>
+      </c>
+      <c r="F99" s="8">
+        <v>33</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H99" s="8">
+        <v>0</v>
+      </c>
+      <c r="I99" s="11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J99" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="K99" s="11">
+        <v>0</v>
       </c>
       <c r="L99" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>117.60000000000001</v>
       </c>
       <c r="M99" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="N99" s="14">
         <f t="shared" si="273"/>
@@ -13333,11 +13425,11 @@
       </c>
       <c r="O99" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>161.70000000000002</v>
       </c>
       <c r="P99" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>313.5</v>
       </c>
       <c r="Q99" s="15">
         <f t="shared" si="276"/>
@@ -13357,11 +13449,11 @@
       </c>
       <c r="U99" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>5.8074074074074084E-2</v>
       </c>
       <c r="V99" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.11259259259259259</v>
       </c>
       <c r="W99" s="18">
         <f t="shared" si="281"/>
@@ -13381,11 +13473,11 @@
       </c>
       <c r="AA99" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>7.9851851851851854E-2</v>
       </c>
       <c r="AB99" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.15481481481481482</v>
       </c>
       <c r="AC99" s="16">
         <f t="shared" si="287"/>
@@ -13415,16 +13507,17 @@
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="100" spans="1:35">
+      <c r="AJ99" s="21"/>
+    </row>
+    <row r="100" spans="1:36">
       <c r="A100" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L100" s="14">
         <f t="shared" si="271"/>
@@ -13523,15 +13616,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="101" spans="1:35">
+    <row r="101" spans="1:36">
       <c r="A101" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L101" s="14">
         <f t="shared" si="271"/>
@@ -13630,15 +13723,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="102" spans="1:35">
+    <row r="102" spans="1:36">
       <c r="A102" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L102" s="14">
         <f t="shared" si="271"/>
@@ -13737,15 +13830,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="103" spans="1:35">
+    <row r="103" spans="1:36">
       <c r="A103" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L103" s="14">
         <f t="shared" si="271"/>
@@ -13844,15 +13937,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="104" spans="1:35">
+    <row r="104" spans="1:36">
       <c r="A104" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L104" s="14">
         <f t="shared" si="271"/>
@@ -13951,15 +14044,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="105" spans="1:35">
+    <row r="105" spans="1:36">
       <c r="A105" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L105" s="14">
         <f t="shared" si="271"/>
@@ -14058,15 +14151,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="106" spans="1:35">
+    <row r="106" spans="1:36">
       <c r="A106" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L106" s="14">
         <f t="shared" si="271"/>
@@ -14165,15 +14258,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="107" spans="1:35">
+    <row r="107" spans="1:36">
       <c r="A107" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L107" s="14">
         <f t="shared" si="271"/>
@@ -14272,15 +14365,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="108" spans="1:35">
+    <row r="108" spans="1:36">
       <c r="A108" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L108" s="14">
         <f t="shared" si="271"/>
@@ -14379,15 +14472,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="109" spans="1:35">
+    <row r="109" spans="1:36">
       <c r="A109" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L109" s="14">
         <f t="shared" si="271"/>
@@ -14486,15 +14579,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="110" spans="1:35">
+    <row r="110" spans="1:36">
       <c r="A110" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L110" s="14">
         <f t="shared" si="271"/>
@@ -14593,15 +14686,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="111" spans="1:35">
+    <row r="111" spans="1:36">
       <c r="A111" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L111" s="14">
         <f t="shared" si="271"/>
@@ -14700,15 +14793,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="112" spans="1:35">
+    <row r="112" spans="1:36">
       <c r="A112" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L112" s="14">
         <f t="shared" si="271"/>
@@ -14812,10 +14905,10 @@
         <v>33</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L113" s="14">
         <f t="shared" si="271"/>
@@ -14919,10 +15012,10 @@
         <v>33</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L114" s="14">
         <f t="shared" si="271"/>
@@ -15026,10 +15119,10 @@
         <v>33</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L115" s="14">
         <f t="shared" si="271"/>
@@ -15130,13 +15223,13 @@
     </row>
     <row r="116" spans="1:35">
       <c r="A116" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L116" s="14">
         <f t="shared" si="271"/>
@@ -15237,13 +15330,13 @@
     </row>
     <row r="117" spans="1:35">
       <c r="A117" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="L117" s="14">
         <f t="shared" si="271"/>
@@ -15344,13 +15437,13 @@
     </row>
     <row r="118" spans="1:35">
       <c r="A118" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L118" s="14">
         <f t="shared" si="271"/>
@@ -15454,10 +15547,10 @@
         <v>43</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L119" s="14">
         <f t="shared" si="271"/>
@@ -15561,10 +15654,10 @@
         <v>43</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="L120" s="14">
         <f t="shared" si="271"/>
@@ -15668,10 +15761,10 @@
         <v>43</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L121" s="14">
         <f t="shared" si="271"/>
@@ -15775,10 +15868,10 @@
         <v>43</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L122" s="14">
         <f t="shared" si="271"/>
@@ -15882,10 +15975,10 @@
         <v>43</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L123" s="14">
         <f t="shared" si="271"/>
@@ -15989,10 +16082,10 @@
         <v>43</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L124" s="14">
         <f t="shared" si="271"/>
@@ -16096,10 +16189,10 @@
         <v>43</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L125" s="14">
         <f t="shared" si="271"/>
@@ -16203,10 +16296,10 @@
         <v>43</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L126" s="14">
         <f t="shared" si="271"/>
@@ -16310,10 +16403,10 @@
         <v>43</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L127" s="14">
         <f t="shared" si="271"/>
@@ -16417,10 +16510,10 @@
         <v>43</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L128" s="14">
         <f t="shared" si="271"/>
@@ -16524,10 +16617,10 @@
         <v>43</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L129" s="14">
         <f t="shared" si="271"/>
@@ -16631,10 +16724,10 @@
         <v>43</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L130" s="14">
         <f t="shared" si="271"/>
@@ -16738,10 +16831,10 @@
         <v>43</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L131" s="14">
         <f t="shared" si="271"/>
@@ -16845,10 +16938,10 @@
         <v>43</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L132" s="14">
         <f t="shared" si="271"/>
@@ -16952,10 +17045,10 @@
         <v>43</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L133" s="14">
         <f t="shared" si="271"/>
@@ -17059,10 +17152,10 @@
         <v>43</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L134" s="14">
         <f t="shared" si="271"/>
@@ -17163,13 +17256,13 @@
     </row>
     <row r="135" spans="1:35">
       <c r="A135" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L135" s="14">
         <f t="shared" si="271"/>
@@ -17270,13 +17363,13 @@
     </row>
     <row r="136" spans="1:35">
       <c r="A136" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L136" s="14">
         <f t="shared" si="271"/>
@@ -17377,13 +17470,13 @@
     </row>
     <row r="137" spans="1:35">
       <c r="A137" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L137" s="14">
         <f t="shared" si="271"/>
@@ -17484,13 +17577,13 @@
     </row>
     <row r="138" spans="1:35">
       <c r="A138" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L138" s="14">
         <f t="shared" si="271"/>
@@ -17591,13 +17684,13 @@
     </row>
     <row r="139" spans="1:35">
       <c r="A139" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="L139" s="14">
         <f t="shared" si="271"/>
@@ -17698,13 +17791,13 @@
     </row>
     <row r="140" spans="1:35">
       <c r="A140" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L140" s="14">
         <f t="shared" si="271"/>
@@ -17808,10 +17901,10 @@
         <v>67</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L141" s="14">
         <f t="shared" si="271"/>
@@ -17915,10 +18008,10 @@
         <v>67</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L142" s="14">
         <f t="shared" si="271"/>
@@ -18022,10 +18115,10 @@
         <v>67</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L143" s="14">
         <f t="shared" si="271"/>
@@ -18129,10 +18222,10 @@
         <v>67</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L144" s="14">
         <f t="shared" si="271"/>
@@ -18236,10 +18329,10 @@
         <v>67</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L145" s="14">
         <f t="shared" si="271"/>
@@ -18343,10 +18436,10 @@
         <v>67</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L146" s="14">
         <f t="shared" si="271"/>
@@ -18450,10 +18543,10 @@
         <v>67</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L147" s="14">
         <f t="shared" si="271"/>
@@ -18557,10 +18650,10 @@
         <v>67</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L148" s="14">
         <f t="shared" si="271"/>
@@ -18664,10 +18757,10 @@
         <v>67</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L149" s="14">
         <f t="shared" si="271"/>
@@ -18771,10 +18864,10 @@
         <v>67</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L150" s="14">
         <f t="shared" si="271"/>
@@ -18878,10 +18971,10 @@
         <v>67</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L151" s="14">
         <f t="shared" si="271"/>
@@ -18985,10 +19078,10 @@
         <v>67</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L152" s="14">
         <f t="shared" si="271"/>
@@ -19092,45 +19185,45 @@
         <v>67</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L153" s="14">
-        <f t="shared" ref="L153:L156" si="555">E153*I153</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M153" s="14">
-        <f t="shared" ref="M153:M156" si="556">E153*J153</f>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N153" s="14">
-        <f t="shared" ref="N153:N156" si="557">E153*K153</f>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O153" s="15">
-        <f t="shared" ref="O153:O156" si="558">F153*I153</f>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P153" s="15">
-        <f t="shared" ref="P153:P156" si="559">F153*J153</f>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q153" s="15">
-        <f t="shared" ref="Q153:Q156" si="560">F153*K153</f>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R153" s="19">
-        <f t="shared" ref="R153:R156" si="561">H153*I153</f>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S153" s="19">
-        <f t="shared" ref="S153:S156" si="562">H153*J153</f>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T153" s="19">
-        <f t="shared" ref="T153:T156" si="563">H153*K153</f>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U153" s="18">
@@ -19138,59 +19231,59 @@
         <v>0</v>
       </c>
       <c r="V153" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W153" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X153" s="20">
-        <f t="shared" ref="X153:Z156" si="564">R153*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y153" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z153" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA153" s="16">
-        <f t="shared" ref="AA153:AC156" si="565">O153*$G$3/$E$3</f>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB153" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC153" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD153" s="17" t="str">
-        <f t="shared" ref="AD153:AI156" si="566">IF((U153+X153)&lt;($J$4/2),"低",IF((U153+X153)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE153" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF153" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG153" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH153" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI153" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="293"/>
         <v>低</v>
       </c>
     </row>
@@ -19199,275 +19292,275 @@
         <v>67</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L154" s="14">
-        <f t="shared" si="555"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M154" s="14">
-        <f t="shared" si="556"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N154" s="14">
-        <f t="shared" si="557"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O154" s="15">
-        <f t="shared" si="558"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P154" s="15">
-        <f t="shared" si="559"/>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q154" s="15">
-        <f t="shared" si="560"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R154" s="19">
-        <f t="shared" si="561"/>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S154" s="19">
-        <f t="shared" si="562"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T154" s="19">
-        <f t="shared" si="563"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U154" s="18">
-        <f t="shared" ref="U154:W156" si="567">L154*$G$3/$E$3</f>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="V154" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W154" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X154" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y154" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z154" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA154" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB154" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC154" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD154" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE154" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF154" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG154" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH154" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI154" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="293"/>
         <v>低</v>
       </c>
     </row>
     <row r="155" spans="1:35">
-      <c r="A155" s="7" t="s">
-        <v>85</v>
+      <c r="A155" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L155" s="14">
-        <f t="shared" si="555"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M155" s="14">
-        <f t="shared" si="556"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N155" s="14">
-        <f t="shared" si="557"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O155" s="15">
-        <f t="shared" si="558"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P155" s="15">
-        <f t="shared" si="559"/>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q155" s="15">
-        <f t="shared" si="560"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R155" s="19">
-        <f t="shared" si="561"/>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S155" s="19">
-        <f t="shared" si="562"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T155" s="19">
-        <f t="shared" si="563"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U155" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="V155" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W155" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X155" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y155" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z155" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA155" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB155" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC155" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD155" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE155" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF155" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG155" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH155" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI155" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="293"/>
         <v>低</v>
       </c>
     </row>
     <row r="156" spans="1:35">
-      <c r="A156" s="7" t="s">
-        <v>85</v>
+      <c r="A156" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L156" s="14">
-        <f t="shared" si="555"/>
+        <f t="shared" ref="L156:L159" si="555">E156*I156</f>
         <v>0</v>
       </c>
       <c r="M156" s="14">
-        <f t="shared" si="556"/>
+        <f t="shared" ref="M156:M159" si="556">E156*J156</f>
         <v>0</v>
       </c>
       <c r="N156" s="14">
-        <f t="shared" si="557"/>
+        <f t="shared" ref="N156:N159" si="557">E156*K156</f>
         <v>0</v>
       </c>
       <c r="O156" s="15">
-        <f t="shared" si="558"/>
+        <f t="shared" ref="O156:O159" si="558">F156*I156</f>
         <v>0</v>
       </c>
       <c r="P156" s="15">
-        <f t="shared" si="559"/>
+        <f t="shared" ref="P156:P159" si="559">F156*J156</f>
         <v>0</v>
       </c>
       <c r="Q156" s="15">
-        <f t="shared" si="560"/>
+        <f t="shared" ref="Q156:Q159" si="560">F156*K156</f>
         <v>0</v>
       </c>
       <c r="R156" s="19">
-        <f t="shared" si="561"/>
+        <f t="shared" ref="R156:R159" si="561">H156*I156</f>
         <v>0</v>
       </c>
       <c r="S156" s="19">
-        <f t="shared" si="562"/>
+        <f t="shared" ref="S156:S159" si="562">H156*J156</f>
         <v>0</v>
       </c>
       <c r="T156" s="19">
-        <f t="shared" si="563"/>
+        <f t="shared" ref="T156:T159" si="563">H156*K156</f>
         <v>0</v>
       </c>
       <c r="U156" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="V156" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="W156" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="X156" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" ref="X156:Z159" si="564">R156*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Y156" s="20">
@@ -19479,7 +19572,7 @@
         <v>0</v>
       </c>
       <c r="AA156" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" ref="AA156:AC159" si="565">O156*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AB156" s="16">
@@ -19491,7 +19584,7 @@
         <v>0</v>
       </c>
       <c r="AD156" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" ref="AD156:AI159" si="566">IF((U156+X156)&lt;($J$4/2),"低",IF((U156+X156)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE156" s="17" t="str">
@@ -19516,394 +19609,421 @@
       </c>
     </row>
     <row r="157" spans="1:35">
+      <c r="A157" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="L157" s="14">
-        <f t="shared" ref="L157:L167" si="568">E157*I157</f>
+        <f t="shared" si="555"/>
         <v>0</v>
       </c>
       <c r="M157" s="14">
-        <f t="shared" ref="M157:M167" si="569">E157*J157</f>
+        <f t="shared" si="556"/>
         <v>0</v>
       </c>
       <c r="N157" s="14">
-        <f t="shared" ref="N157:N167" si="570">E157*K157</f>
+        <f t="shared" si="557"/>
         <v>0</v>
       </c>
       <c r="O157" s="15">
-        <f t="shared" ref="O157:O167" si="571">F157*I157</f>
+        <f t="shared" si="558"/>
         <v>0</v>
       </c>
       <c r="P157" s="15">
-        <f t="shared" ref="P157:P167" si="572">F157*J157</f>
+        <f t="shared" si="559"/>
         <v>0</v>
       </c>
       <c r="Q157" s="15">
-        <f t="shared" ref="Q157:Q167" si="573">F157*K157</f>
+        <f t="shared" si="560"/>
         <v>0</v>
       </c>
       <c r="R157" s="19">
-        <f t="shared" ref="R157:R167" si="574">H157*I157</f>
+        <f t="shared" si="561"/>
         <v>0</v>
       </c>
       <c r="S157" s="19">
-        <f t="shared" ref="S157:S167" si="575">H157*J157</f>
+        <f t="shared" si="562"/>
         <v>0</v>
       </c>
       <c r="T157" s="19">
-        <f t="shared" ref="T157:T167" si="576">H157*K157</f>
+        <f t="shared" si="563"/>
         <v>0</v>
       </c>
       <c r="U157" s="18">
-        <f t="shared" ref="U157:U167" si="577">L157*$G$3/$E$3</f>
+        <f t="shared" ref="U157:W159" si="567">L157*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="V157" s="18">
-        <f t="shared" ref="V157:V167" si="578">M157*$G$3/$E$3</f>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="W157" s="18">
-        <f t="shared" ref="W157:W167" si="579">N157*$G$3/$E$3</f>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="X157" s="20">
-        <f t="shared" ref="X157:X167" si="580">R157*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="Y157" s="20">
-        <f t="shared" ref="Y157:Y167" si="581">S157*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="Z157" s="20">
-        <f t="shared" ref="Z157:Z167" si="582">T157*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="AA157" s="16">
-        <f t="shared" ref="AA157:AA167" si="583">O157*$G$3/$E$3</f>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AB157" s="16">
-        <f t="shared" ref="AB157:AB167" si="584">P157*$G$3/$E$3</f>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AC157" s="16">
-        <f t="shared" ref="AC157:AC167" si="585">Q157*$G$3/$E$3</f>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AD157" s="17" t="str">
-        <f t="shared" ref="AD157:AD167" si="586">IF((U157+X157)&lt;($J$4/2),"低",IF((U157+X157)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AE157" s="17" t="str">
-        <f t="shared" ref="AE157:AE167" si="587">IF((V157+Y157)&lt;($J$4/2),"低",IF((V157+Y157)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AF157" s="17" t="str">
-        <f t="shared" ref="AF157:AF167" si="588">IF((W157+Z157)&lt;($J$4/2),"低",IF((W157+Z157)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AG157" s="15" t="str">
-        <f t="shared" ref="AG157:AG167" si="589">IF((X157+AA157)&lt;($J$4/2),"低",IF((X157+AA157)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AH157" s="15" t="str">
-        <f t="shared" ref="AH157:AH167" si="590">IF((Y157+AB157)&lt;($J$4/2),"低",IF((Y157+AB157)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AI157" s="15" t="str">
-        <f t="shared" ref="AI157:AI167" si="591">IF((Z157+AC157)&lt;($J$4/2),"低",IF((Z157+AC157)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
     <row r="158" spans="1:35">
+      <c r="A158" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="L158" s="14">
-        <f t="shared" si="568"/>
+        <f t="shared" si="555"/>
         <v>0</v>
       </c>
       <c r="M158" s="14">
-        <f t="shared" si="569"/>
+        <f t="shared" si="556"/>
         <v>0</v>
       </c>
       <c r="N158" s="14">
-        <f t="shared" si="570"/>
+        <f t="shared" si="557"/>
         <v>0</v>
       </c>
       <c r="O158" s="15">
-        <f t="shared" si="571"/>
+        <f t="shared" si="558"/>
         <v>0</v>
       </c>
       <c r="P158" s="15">
-        <f t="shared" si="572"/>
+        <f t="shared" si="559"/>
         <v>0</v>
       </c>
       <c r="Q158" s="15">
-        <f t="shared" si="573"/>
+        <f t="shared" si="560"/>
         <v>0</v>
       </c>
       <c r="R158" s="19">
-        <f t="shared" si="574"/>
+        <f t="shared" si="561"/>
         <v>0</v>
       </c>
       <c r="S158" s="19">
-        <f t="shared" si="575"/>
+        <f t="shared" si="562"/>
         <v>0</v>
       </c>
       <c r="T158" s="19">
-        <f t="shared" si="576"/>
+        <f t="shared" si="563"/>
         <v>0</v>
       </c>
       <c r="U158" s="18">
-        <f t="shared" si="577"/>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="V158" s="18">
-        <f t="shared" si="578"/>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="W158" s="18">
-        <f t="shared" si="579"/>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="X158" s="20">
-        <f t="shared" si="580"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="Y158" s="20">
-        <f t="shared" si="581"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="Z158" s="20">
-        <f t="shared" si="582"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="AA158" s="16">
-        <f t="shared" si="583"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AB158" s="16">
-        <f t="shared" si="584"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AC158" s="16">
-        <f t="shared" si="585"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AD158" s="17" t="str">
-        <f t="shared" si="586"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AE158" s="17" t="str">
-        <f t="shared" si="587"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AF158" s="17" t="str">
-        <f t="shared" si="588"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AG158" s="15" t="str">
-        <f t="shared" si="589"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AH158" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AI158" s="15" t="str">
-        <f t="shared" si="591"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
     <row r="159" spans="1:35">
+      <c r="A159" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="L159" s="14">
-        <f t="shared" si="568"/>
+        <f t="shared" si="555"/>
         <v>0</v>
       </c>
       <c r="M159" s="14">
-        <f t="shared" si="569"/>
+        <f t="shared" si="556"/>
         <v>0</v>
       </c>
       <c r="N159" s="14">
-        <f t="shared" si="570"/>
+        <f t="shared" si="557"/>
         <v>0</v>
       </c>
       <c r="O159" s="15">
-        <f t="shared" si="571"/>
+        <f t="shared" si="558"/>
         <v>0</v>
       </c>
       <c r="P159" s="15">
-        <f t="shared" si="572"/>
+        <f t="shared" si="559"/>
         <v>0</v>
       </c>
       <c r="Q159" s="15">
-        <f t="shared" si="573"/>
+        <f t="shared" si="560"/>
         <v>0</v>
       </c>
       <c r="R159" s="19">
-        <f t="shared" si="574"/>
+        <f t="shared" si="561"/>
         <v>0</v>
       </c>
       <c r="S159" s="19">
-        <f t="shared" si="575"/>
+        <f t="shared" si="562"/>
         <v>0</v>
       </c>
       <c r="T159" s="19">
-        <f t="shared" si="576"/>
+        <f t="shared" si="563"/>
         <v>0</v>
       </c>
       <c r="U159" s="18">
-        <f t="shared" si="577"/>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="V159" s="18">
-        <f t="shared" si="578"/>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="W159" s="18">
-        <f t="shared" si="579"/>
+        <f t="shared" si="567"/>
         <v>0</v>
       </c>
       <c r="X159" s="20">
-        <f t="shared" si="580"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="Y159" s="20">
-        <f t="shared" si="581"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="Z159" s="20">
-        <f t="shared" si="582"/>
+        <f t="shared" si="564"/>
         <v>0</v>
       </c>
       <c r="AA159" s="16">
-        <f t="shared" si="583"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AB159" s="16">
-        <f t="shared" si="584"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AC159" s="16">
-        <f t="shared" si="585"/>
+        <f t="shared" si="565"/>
         <v>0</v>
       </c>
       <c r="AD159" s="17" t="str">
-        <f t="shared" si="586"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AE159" s="17" t="str">
-        <f t="shared" si="587"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AF159" s="17" t="str">
-        <f t="shared" si="588"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AG159" s="15" t="str">
-        <f t="shared" si="589"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AH159" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
       <c r="AI159" s="15" t="str">
-        <f t="shared" si="591"/>
+        <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
     <row r="160" spans="1:35">
       <c r="L160" s="14">
-        <f t="shared" si="568"/>
+        <f t="shared" ref="L160:L170" si="568">E160*I160</f>
         <v>0</v>
       </c>
       <c r="M160" s="14">
-        <f t="shared" si="569"/>
+        <f t="shared" ref="M160:M170" si="569">E160*J160</f>
         <v>0</v>
       </c>
       <c r="N160" s="14">
-        <f t="shared" si="570"/>
+        <f t="shared" ref="N160:N170" si="570">E160*K160</f>
         <v>0</v>
       </c>
       <c r="O160" s="15">
-        <f t="shared" si="571"/>
+        <f t="shared" ref="O160:O170" si="571">F160*I160</f>
         <v>0</v>
       </c>
       <c r="P160" s="15">
-        <f t="shared" si="572"/>
+        <f t="shared" ref="P160:P170" si="572">F160*J160</f>
         <v>0</v>
       </c>
       <c r="Q160" s="15">
-        <f t="shared" si="573"/>
+        <f t="shared" ref="Q160:Q170" si="573">F160*K160</f>
         <v>0</v>
       </c>
       <c r="R160" s="19">
-        <f t="shared" si="574"/>
+        <f t="shared" ref="R160:R170" si="574">H160*I160</f>
         <v>0</v>
       </c>
       <c r="S160" s="19">
-        <f t="shared" si="575"/>
+        <f t="shared" ref="S160:S170" si="575">H160*J160</f>
         <v>0</v>
       </c>
       <c r="T160" s="19">
-        <f t="shared" si="576"/>
+        <f t="shared" ref="T160:T170" si="576">H160*K160</f>
         <v>0</v>
       </c>
       <c r="U160" s="18">
-        <f t="shared" si="577"/>
+        <f t="shared" ref="U160:U170" si="577">L160*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="V160" s="18">
-        <f t="shared" si="578"/>
+        <f t="shared" ref="V160:V170" si="578">M160*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="W160" s="18">
-        <f t="shared" si="579"/>
+        <f t="shared" ref="W160:W170" si="579">N160*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X160" s="20">
-        <f t="shared" si="580"/>
+        <f t="shared" ref="X160:X170" si="580">R160*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Y160" s="20">
-        <f t="shared" si="581"/>
+        <f t="shared" ref="Y160:Y170" si="581">S160*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Z160" s="20">
-        <f t="shared" si="582"/>
+        <f t="shared" ref="Z160:Z170" si="582">T160*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA160" s="16">
-        <f t="shared" si="583"/>
+        <f t="shared" ref="AA160:AA170" si="583">O160*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AB160" s="16">
-        <f t="shared" si="584"/>
+        <f t="shared" ref="AB160:AB170" si="584">P160*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AC160" s="16">
-        <f t="shared" si="585"/>
+        <f t="shared" ref="AC160:AC170" si="585">Q160*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD160" s="17" t="str">
-        <f t="shared" si="586"/>
+        <f t="shared" ref="AD160:AD170" si="586">IF((U160+X160)&lt;($J$4/2),"低",IF((U160+X160)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE160" s="17" t="str">
-        <f t="shared" si="587"/>
+        <f t="shared" ref="AE160:AE170" si="587">IF((V160+Y160)&lt;($J$4/2),"低",IF((V160+Y160)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AF160" s="17" t="str">
-        <f t="shared" si="588"/>
+        <f t="shared" ref="AF160:AF170" si="588">IF((W160+Z160)&lt;($J$4/2),"低",IF((W160+Z160)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG160" s="15" t="str">
-        <f t="shared" si="589"/>
+        <f t="shared" ref="AG160:AG170" si="589">IF((X160+AA160)&lt;($J$4/2),"低",IF((X160+AA160)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AH160" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" ref="AH160:AH170" si="590">IF((Y160+AB160)&lt;($J$4/2),"低",IF((Y160+AB160)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AI160" s="15" t="str">
-        <f t="shared" si="591"/>
+        <f t="shared" ref="AI160:AI170" si="591">IF((Z160+AC160)&lt;($J$4/2),"低",IF((Z160+AC160)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
     </row>
@@ -20594,37 +20714,298 @@
       </c>
     </row>
     <row r="168" spans="12:35">
-      <c r="U168" s="18"/>
-      <c r="V168" s="18"/>
-      <c r="W168" s="18"/>
-      <c r="X168" s="20"/>
-      <c r="Y168" s="20"/>
-      <c r="Z168" s="20"/>
-      <c r="AA168" s="16"/>
-      <c r="AB168" s="16"/>
-      <c r="AC168" s="16"/>
+      <c r="L168" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M168" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N168" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O168" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P168" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q168" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R168" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S168" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T168" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U168" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V168" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W168" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X168" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y168" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z168" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA168" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB168" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC168" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD168" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE168" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF168" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG168" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH168" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI168" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
     </row>
     <row r="169" spans="12:35">
-      <c r="U169" s="18"/>
-      <c r="V169" s="18"/>
-      <c r="W169" s="18"/>
-      <c r="X169" s="20"/>
-      <c r="Y169" s="20"/>
-      <c r="Z169" s="20"/>
-      <c r="AA169" s="16"/>
-      <c r="AB169" s="16"/>
-      <c r="AC169" s="16"/>
+      <c r="L169" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M169" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N169" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O169" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P169" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q169" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R169" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S169" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T169" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U169" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V169" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W169" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X169" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y169" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z169" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA169" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB169" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC169" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD169" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE169" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF169" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG169" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH169" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI169" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
     </row>
     <row r="170" spans="12:35">
-      <c r="U170" s="18"/>
-      <c r="V170" s="18"/>
-      <c r="W170" s="18"/>
-      <c r="X170" s="20"/>
-      <c r="Y170" s="20"/>
-      <c r="Z170" s="20"/>
-      <c r="AA170" s="16"/>
-      <c r="AB170" s="16"/>
-      <c r="AC170" s="16"/>
+      <c r="L170" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M170" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N170" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O170" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P170" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q170" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R170" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S170" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T170" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U170" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V170" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W170" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X170" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y170" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z170" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA170" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB170" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC170" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD170" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE170" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF170" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG170" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH170" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI170" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
     </row>
     <row r="171" spans="12:35">
       <c r="U171" s="18"/>
@@ -23903,6 +24284,39 @@
       <c r="AA468" s="16"/>
       <c r="AB468" s="16"/>
       <c r="AC468" s="16"/>
+    </row>
+    <row r="469" spans="21:29">
+      <c r="U469" s="18"/>
+      <c r="V469" s="18"/>
+      <c r="W469" s="18"/>
+      <c r="X469" s="20"/>
+      <c r="Y469" s="20"/>
+      <c r="Z469" s="20"/>
+      <c r="AA469" s="16"/>
+      <c r="AB469" s="16"/>
+      <c r="AC469" s="16"/>
+    </row>
+    <row r="470" spans="21:29">
+      <c r="U470" s="18"/>
+      <c r="V470" s="18"/>
+      <c r="W470" s="18"/>
+      <c r="X470" s="20"/>
+      <c r="Y470" s="20"/>
+      <c r="Z470" s="20"/>
+      <c r="AA470" s="16"/>
+      <c r="AB470" s="16"/>
+      <c r="AC470" s="16"/>
+    </row>
+    <row r="471" spans="21:29">
+      <c r="U471" s="18"/>
+      <c r="V471" s="18"/>
+      <c r="W471" s="18"/>
+      <c r="X471" s="20"/>
+      <c r="Y471" s="20"/>
+      <c r="Z471" s="20"/>
+      <c r="AA471" s="16"/>
+      <c r="AB471" s="16"/>
+      <c r="AC471" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278A4ACB-898A-4DF2-A415-B8FFBDA12D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2B7825-3826-46FA-A4D9-4CC0CB803733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="262">
   <si>
     <t>英文名稱</t>
   </si>
@@ -1030,6 +1030,54 @@
   </si>
   <si>
     <t>大泥彈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咬合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迴旋掃尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貪婪捕食</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>貪婪龍焰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物戰技-活體投擲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物戰技-火種迴旋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物戰技-雷種迴旋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物戰技-冰種迴旋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物戰技-瘴氣迴旋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘴氣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生物戰技-世界繞行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1597,11 +1645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:AJ471"/>
+  <dimension ref="A2:AJ481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+      <pane ySplit="7" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4163,39 +4211,39 @@
         <v>0</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" ref="L26:L155" si="271">E26*I26</f>
+        <f t="shared" ref="L26:L165" si="271">E26*I26</f>
         <v>448</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" ref="M26:M155" si="272">E26*J26</f>
+        <f t="shared" ref="M26:M165" si="272">E26*J26</f>
         <v>672</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" ref="N26:N155" si="273">E26*K26</f>
+        <f t="shared" ref="N26:N165" si="273">E26*K26</f>
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" ref="O26:O155" si="274">F26*I26</f>
+        <f t="shared" ref="O26:O165" si="274">F26*I26</f>
         <v>602</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" ref="P26:P155" si="275">F26*J26</f>
+        <f t="shared" ref="P26:P165" si="275">F26*J26</f>
         <v>903</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" ref="Q26:Q155" si="276">F26*K26</f>
+        <f t="shared" ref="Q26:Q165" si="276">F26*K26</f>
         <v>0</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" ref="R26:R155" si="277">H26*I26</f>
+        <f t="shared" ref="R26:R165" si="277">H26*I26</f>
         <v>280</v>
       </c>
       <c r="S26" s="19">
-        <f t="shared" ref="S26:S155" si="278">H26*J26</f>
+        <f t="shared" ref="S26:S165" si="278">H26*J26</f>
         <v>420</v>
       </c>
       <c r="T26" s="19">
-        <f t="shared" ref="T26:T155" si="279">H26*K26</f>
+        <f t="shared" ref="T26:T165" si="279">H26*K26</f>
         <v>0</v>
       </c>
       <c r="U26" s="18">
@@ -4203,59 +4251,59 @@
         <v>0.22123456790123455</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" ref="V26:V155" si="280">M26*$G$3/$E$3</f>
+        <f t="shared" ref="V26:V165" si="280">M26*$G$3/$E$3</f>
         <v>0.33185185185185179</v>
       </c>
       <c r="W26" s="18">
-        <f t="shared" ref="W26:W155" si="281">N26*$G$3/$E$3</f>
+        <f t="shared" ref="W26:W165" si="281">N26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X26" s="20">
-        <f t="shared" ref="X26:X155" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="X26:X165" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.13827160493827159</v>
       </c>
       <c r="Y26" s="20">
-        <f t="shared" ref="Y26:Y155" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Y26:Y165" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.2074074074074074</v>
       </c>
       <c r="Z26" s="20">
-        <f t="shared" ref="Z26:Z155" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Z26:Z165" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA26" s="16">
-        <f t="shared" ref="AA26:AA155" si="285">O26*$G$3/$E$3</f>
+        <f t="shared" ref="AA26:AA165" si="285">O26*$G$3/$E$3</f>
         <v>0.29728395061728391</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" ref="AB26:AB155" si="286">P26*$G$3/$E$3</f>
+        <f t="shared" ref="AB26:AB165" si="286">P26*$G$3/$E$3</f>
         <v>0.44592592592592589</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" ref="AC26:AC155" si="287">Q26*$G$3/$E$3</f>
+        <f t="shared" ref="AC26:AC165" si="287">Q26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD26" s="17" t="str">
-        <f t="shared" ref="AD26:AD155" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD26:AD165" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AE26" s="17" t="str">
-        <f t="shared" ref="AE26:AE155" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AE26:AE165" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AF26" s="17" t="str">
-        <f t="shared" ref="AF26:AF155" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AF26:AF165" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG26" s="15" t="str">
-        <f t="shared" ref="AG26:AG155" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AG26:AG165" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AH26" s="15" t="str">
-        <f t="shared" ref="AH26:AH155" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AH26:AH165" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AI26" s="15" t="str">
-        <f t="shared" ref="AI26:AI155" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AI26:AI165" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AJ26" s="21"/>
@@ -4331,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" ref="U27:W156" si="294">L27*$G$3/$E$3</f>
+        <f t="shared" ref="U27:W166" si="294">L27*$G$3/$E$3</f>
         <v>5.8074074074074084E-2</v>
       </c>
       <c r="V27" s="18">
@@ -13519,13 +13567,37 @@
       <c r="C100" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="D100" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E100" s="8">
+        <v>24</v>
+      </c>
+      <c r="F100" s="8">
+        <v>33</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H100" s="8">
+        <v>0</v>
+      </c>
+      <c r="I100" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="J100" s="11">
+        <v>7.61</v>
+      </c>
+      <c r="K100" s="11">
+        <v>0</v>
+      </c>
       <c r="L100" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>86.4</v>
       </c>
       <c r="M100" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>182.64000000000001</v>
       </c>
       <c r="N100" s="14">
         <f t="shared" si="273"/>
@@ -13533,11 +13605,11 @@
       </c>
       <c r="O100" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>118.8</v>
       </c>
       <c r="P100" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>251.13000000000002</v>
       </c>
       <c r="Q100" s="15">
         <f t="shared" si="276"/>
@@ -13557,11 +13629,11 @@
       </c>
       <c r="U100" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>4.2666666666666672E-2</v>
       </c>
       <c r="V100" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>9.0192592592592602E-2</v>
       </c>
       <c r="W100" s="18">
         <f t="shared" si="281"/>
@@ -13581,11 +13653,11 @@
       </c>
       <c r="AA100" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>5.8666666666666659E-2</v>
       </c>
       <c r="AB100" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.12401481481481483</v>
       </c>
       <c r="AC100" s="16">
         <f t="shared" si="287"/>
@@ -13616,23 +13688,41 @@
         <v>低</v>
       </c>
     </row>
-    <row r="101" spans="1:36">
-      <c r="A101" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>23</v>
+    <row r="101" spans="1:36" s="4" customFormat="1">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E101" s="8">
+        <v>57</v>
+      </c>
+      <c r="F101" s="8">
+        <v>78</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H101" s="8">
+        <v>0</v>
+      </c>
+      <c r="I101" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="J101" s="11">
+        <v>7.61</v>
+      </c>
+      <c r="K101" s="11">
+        <v>0</v>
       </c>
       <c r="L101" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>205.20000000000002</v>
       </c>
       <c r="M101" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>433.77000000000004</v>
       </c>
       <c r="N101" s="14">
         <f t="shared" si="273"/>
@@ -13640,11 +13730,11 @@
       </c>
       <c r="O101" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>280.8</v>
       </c>
       <c r="P101" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>593.58000000000004</v>
       </c>
       <c r="Q101" s="15">
         <f t="shared" si="276"/>
@@ -13664,11 +13754,11 @@
       </c>
       <c r="U101" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.10133333333333334</v>
       </c>
       <c r="V101" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.2142074074074074</v>
       </c>
       <c r="W101" s="18">
         <f t="shared" si="281"/>
@@ -13688,11 +13778,11 @@
       </c>
       <c r="AA101" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.13866666666666666</v>
       </c>
       <c r="AB101" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.29312592592592596</v>
       </c>
       <c r="AC101" s="16">
         <f t="shared" si="287"/>
@@ -13716,30 +13806,49 @@
       </c>
       <c r="AH101" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI101" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="102" spans="1:36">
-      <c r="A102" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>24</v>
+      <c r="AJ101" s="21"/>
+    </row>
+    <row r="102" spans="1:36" s="4" customFormat="1">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E102" s="8">
+        <v>40</v>
+      </c>
+      <c r="F102" s="8">
+        <v>56</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H102" s="8">
+        <v>0</v>
+      </c>
+      <c r="I102" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="J102" s="11">
+        <v>7.61</v>
+      </c>
+      <c r="K102" s="11">
+        <v>0</v>
       </c>
       <c r="L102" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="M102" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>304.40000000000003</v>
       </c>
       <c r="N102" s="14">
         <f t="shared" si="273"/>
@@ -13747,11 +13856,11 @@
       </c>
       <c r="O102" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>201.6</v>
       </c>
       <c r="P102" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>426.16</v>
       </c>
       <c r="Q102" s="15">
         <f t="shared" si="276"/>
@@ -13771,11 +13880,11 @@
       </c>
       <c r="U102" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>7.1111111111111111E-2</v>
       </c>
       <c r="V102" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.150320987654321</v>
       </c>
       <c r="W102" s="18">
         <f t="shared" si="281"/>
@@ -13795,11 +13904,11 @@
       </c>
       <c r="AA102" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>9.955555555555555E-2</v>
       </c>
       <c r="AB102" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.21044938271604938</v>
       </c>
       <c r="AC102" s="16">
         <f t="shared" si="287"/>
@@ -13829,24 +13938,43 @@
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="103" spans="1:36">
-      <c r="A103" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>25</v>
+      <c r="AJ102" s="21"/>
+    </row>
+    <row r="103" spans="1:36" s="4" customFormat="1">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E103" s="8">
+        <v>97</v>
+      </c>
+      <c r="F103" s="8">
+        <v>135</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H103" s="8">
+        <v>0</v>
+      </c>
+      <c r="I103" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="J103" s="11">
+        <v>7.61</v>
+      </c>
+      <c r="K103" s="11">
+        <v>0</v>
       </c>
       <c r="L103" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>349.2</v>
       </c>
       <c r="M103" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>738.17000000000007</v>
       </c>
       <c r="N103" s="14">
         <f t="shared" si="273"/>
@@ -13854,11 +13982,11 @@
       </c>
       <c r="O103" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="P103" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1027.3500000000001</v>
       </c>
       <c r="Q103" s="15">
         <f t="shared" si="276"/>
@@ -13878,11 +14006,11 @@
       </c>
       <c r="U103" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.17244444444444443</v>
       </c>
       <c r="V103" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.36452839506172841</v>
       </c>
       <c r="W103" s="18">
         <f t="shared" si="281"/>
@@ -13902,11 +14030,11 @@
       </c>
       <c r="AA103" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AB103" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.50733333333333341</v>
       </c>
       <c r="AC103" s="16">
         <f t="shared" si="287"/>
@@ -13918,7 +14046,7 @@
       </c>
       <c r="AE103" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF103" s="17" t="str">
         <f t="shared" si="290"/>
@@ -13926,34 +14054,53 @@
       </c>
       <c r="AG103" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH103" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI103" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="104" spans="1:36">
-      <c r="A104" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>26</v>
+      <c r="AJ103" s="21"/>
+    </row>
+    <row r="104" spans="1:36" s="4" customFormat="1">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E104" s="8">
+        <v>56</v>
+      </c>
+      <c r="F104" s="8">
+        <v>75</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H104" s="8">
+        <v>40</v>
+      </c>
+      <c r="I104" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="J104" s="11">
+        <v>7.61</v>
+      </c>
+      <c r="K104" s="11">
+        <v>0</v>
       </c>
       <c r="L104" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>201.6</v>
       </c>
       <c r="M104" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>426.16</v>
       </c>
       <c r="N104" s="14">
         <f t="shared" si="273"/>
@@ -13961,11 +14108,11 @@
       </c>
       <c r="O104" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="P104" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>570.75</v>
       </c>
       <c r="Q104" s="15">
         <f t="shared" si="276"/>
@@ -13973,11 +14120,11 @@
       </c>
       <c r="R104" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="S104" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>304.40000000000003</v>
       </c>
       <c r="T104" s="19">
         <f t="shared" si="279"/>
@@ -13985,11 +14132,11 @@
       </c>
       <c r="U104" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>9.955555555555555E-2</v>
       </c>
       <c r="V104" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.21044938271604938</v>
       </c>
       <c r="W104" s="18">
         <f t="shared" si="281"/>
@@ -13997,11 +14144,11 @@
       </c>
       <c r="X104" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>7.1111111111111111E-2</v>
       </c>
       <c r="Y104" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.150320987654321</v>
       </c>
       <c r="Z104" s="20">
         <f t="shared" si="284"/>
@@ -14009,11 +14156,11 @@
       </c>
       <c r="AA104" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="AB104" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.28185185185185185</v>
       </c>
       <c r="AC104" s="16">
         <f t="shared" si="287"/>
@@ -14025,7 +14172,7 @@
       </c>
       <c r="AE104" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF104" s="17" t="str">
         <f t="shared" si="290"/>
@@ -14037,30 +14184,49 @@
       </c>
       <c r="AH104" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI104" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="105" spans="1:36">
-      <c r="A105" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>27</v>
+      <c r="AJ104" s="21"/>
+    </row>
+    <row r="105" spans="1:36" s="4" customFormat="1">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E105" s="8">
+        <v>89</v>
+      </c>
+      <c r="F105" s="8">
+        <v>124</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H105" s="8">
+        <v>0</v>
+      </c>
+      <c r="I105" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="J105" s="11">
+        <v>7.61</v>
+      </c>
+      <c r="K105" s="11">
+        <v>0</v>
       </c>
       <c r="L105" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>320.40000000000003</v>
       </c>
       <c r="M105" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>677.29000000000008</v>
       </c>
       <c r="N105" s="14">
         <f t="shared" si="273"/>
@@ -14068,11 +14234,11 @@
       </c>
       <c r="O105" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>446.40000000000003</v>
       </c>
       <c r="P105" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>943.64</v>
       </c>
       <c r="Q105" s="15">
         <f t="shared" si="276"/>
@@ -14092,11 +14258,11 @@
       </c>
       <c r="U105" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.15822222222222224</v>
       </c>
       <c r="V105" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.3344641975308642</v>
       </c>
       <c r="W105" s="18">
         <f t="shared" si="281"/>
@@ -14116,11 +14282,11 @@
       </c>
       <c r="AA105" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.22044444444444447</v>
       </c>
       <c r="AB105" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.465995061728395</v>
       </c>
       <c r="AC105" s="16">
         <f t="shared" si="287"/>
@@ -14132,7 +14298,7 @@
       </c>
       <c r="AE105" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF105" s="17" t="str">
         <f t="shared" si="290"/>
@@ -14144,30 +14310,49 @@
       </c>
       <c r="AH105" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI105" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="106" spans="1:36">
-      <c r="A106" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>28</v>
+      <c r="AJ105" s="21"/>
+    </row>
+    <row r="106" spans="1:36" s="4" customFormat="1">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E106" s="8">
+        <v>48</v>
+      </c>
+      <c r="F106" s="8">
+        <v>65</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H106" s="8">
+        <v>30</v>
+      </c>
+      <c r="I106" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="J106" s="11">
+        <v>7.61</v>
+      </c>
+      <c r="K106" s="11">
+        <v>0</v>
       </c>
       <c r="L106" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>172.8</v>
       </c>
       <c r="M106" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>365.28000000000003</v>
       </c>
       <c r="N106" s="14">
         <f t="shared" si="273"/>
@@ -14175,11 +14360,11 @@
       </c>
       <c r="O106" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="P106" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>494.65000000000003</v>
       </c>
       <c r="Q106" s="15">
         <f t="shared" si="276"/>
@@ -14187,11 +14372,11 @@
       </c>
       <c r="R106" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="S106" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>228.3</v>
       </c>
       <c r="T106" s="19">
         <f t="shared" si="279"/>
@@ -14199,11 +14384,11 @@
       </c>
       <c r="U106" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>8.5333333333333344E-2</v>
       </c>
       <c r="V106" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.1803851851851852</v>
       </c>
       <c r="W106" s="18">
         <f t="shared" si="281"/>
@@ -14211,11 +14396,11 @@
       </c>
       <c r="X106" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="Y106" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.11274074074074074</v>
       </c>
       <c r="Z106" s="20">
         <f t="shared" si="284"/>
@@ -14223,11 +14408,11 @@
       </c>
       <c r="AA106" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.11555555555555555</v>
       </c>
       <c r="AB106" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.2442716049382716</v>
       </c>
       <c r="AC106" s="16">
         <f t="shared" si="287"/>
@@ -14239,7 +14424,7 @@
       </c>
       <c r="AE106" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF106" s="17" t="str">
         <f t="shared" si="290"/>
@@ -14251,30 +14436,49 @@
       </c>
       <c r="AH106" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI106" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="107" spans="1:36">
-      <c r="A107" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>29</v>
+      <c r="AJ106" s="21"/>
+    </row>
+    <row r="107" spans="1:36" s="4" customFormat="1">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E107" s="8">
+        <v>48</v>
+      </c>
+      <c r="F107" s="8">
+        <v>65</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H107" s="8">
+        <v>30</v>
+      </c>
+      <c r="I107" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="J107" s="11">
+        <v>7.61</v>
+      </c>
+      <c r="K107" s="11">
+        <v>0</v>
       </c>
       <c r="L107" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>172.8</v>
       </c>
       <c r="M107" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>365.28000000000003</v>
       </c>
       <c r="N107" s="14">
         <f t="shared" si="273"/>
@@ -14282,11 +14486,11 @@
       </c>
       <c r="O107" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="P107" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>494.65000000000003</v>
       </c>
       <c r="Q107" s="15">
         <f t="shared" si="276"/>
@@ -14294,11 +14498,11 @@
       </c>
       <c r="R107" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="S107" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>228.3</v>
       </c>
       <c r="T107" s="19">
         <f t="shared" si="279"/>
@@ -14306,11 +14510,11 @@
       </c>
       <c r="U107" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>8.5333333333333344E-2</v>
       </c>
       <c r="V107" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.1803851851851852</v>
       </c>
       <c r="W107" s="18">
         <f t="shared" si="281"/>
@@ -14318,11 +14522,11 @@
       </c>
       <c r="X107" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="Y107" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.11274074074074074</v>
       </c>
       <c r="Z107" s="20">
         <f t="shared" si="284"/>
@@ -14330,11 +14534,11 @@
       </c>
       <c r="AA107" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.11555555555555555</v>
       </c>
       <c r="AB107" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.2442716049382716</v>
       </c>
       <c r="AC107" s="16">
         <f t="shared" si="287"/>
@@ -14346,7 +14550,7 @@
       </c>
       <c r="AE107" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF107" s="17" t="str">
         <f t="shared" si="290"/>
@@ -14358,30 +14562,49 @@
       </c>
       <c r="AH107" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI107" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="108" spans="1:36">
-      <c r="A108" s="5" t="s">
+      <c r="AJ107" s="21"/>
+    </row>
+    <row r="108" spans="1:36" s="4" customFormat="1">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E108" s="8">
+        <v>48</v>
+      </c>
+      <c r="F108" s="8">
+        <v>65</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H108" s="8">
         <v>30</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>31</v>
+      <c r="I108" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="J108" s="11">
+        <v>7.61</v>
+      </c>
+      <c r="K108" s="11">
+        <v>0</v>
       </c>
       <c r="L108" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>172.8</v>
       </c>
       <c r="M108" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>365.28000000000003</v>
       </c>
       <c r="N108" s="14">
         <f t="shared" si="273"/>
@@ -14389,11 +14612,11 @@
       </c>
       <c r="O108" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="P108" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>494.65000000000003</v>
       </c>
       <c r="Q108" s="15">
         <f t="shared" si="276"/>
@@ -14401,11 +14624,11 @@
       </c>
       <c r="R108" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="S108" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>228.3</v>
       </c>
       <c r="T108" s="19">
         <f t="shared" si="279"/>
@@ -14413,11 +14636,11 @@
       </c>
       <c r="U108" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>8.5333333333333344E-2</v>
       </c>
       <c r="V108" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.1803851851851852</v>
       </c>
       <c r="W108" s="18">
         <f t="shared" si="281"/>
@@ -14425,11 +14648,11 @@
       </c>
       <c r="X108" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="Y108" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.11274074074074074</v>
       </c>
       <c r="Z108" s="20">
         <f t="shared" si="284"/>
@@ -14437,11 +14660,11 @@
       </c>
       <c r="AA108" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.11555555555555555</v>
       </c>
       <c r="AB108" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.2442716049382716</v>
       </c>
       <c r="AC108" s="16">
         <f t="shared" si="287"/>
@@ -14453,7 +14676,7 @@
       </c>
       <c r="AE108" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF108" s="17" t="str">
         <f t="shared" si="290"/>
@@ -14465,30 +14688,49 @@
       </c>
       <c r="AH108" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI108" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="109" spans="1:36">
-      <c r="A109" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>32</v>
+      <c r="AJ108" s="21"/>
+    </row>
+    <row r="109" spans="1:36" s="4" customFormat="1">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E109" s="8">
+        <v>48</v>
+      </c>
+      <c r="F109" s="8">
+        <v>65</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H109" s="8">
+        <v>0</v>
+      </c>
+      <c r="I109" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="J109" s="11">
+        <v>7.61</v>
+      </c>
+      <c r="K109" s="11">
+        <v>0</v>
       </c>
       <c r="L109" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>172.8</v>
       </c>
       <c r="M109" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>365.28000000000003</v>
       </c>
       <c r="N109" s="14">
         <f t="shared" si="273"/>
@@ -14496,11 +14738,11 @@
       </c>
       <c r="O109" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="P109" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>494.65000000000003</v>
       </c>
       <c r="Q109" s="15">
         <f t="shared" si="276"/>
@@ -14520,11 +14762,11 @@
       </c>
       <c r="U109" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>8.5333333333333344E-2</v>
       </c>
       <c r="V109" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.1803851851851852</v>
       </c>
       <c r="W109" s="18">
         <f t="shared" si="281"/>
@@ -14544,11 +14786,11 @@
       </c>
       <c r="AA109" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.11555555555555555</v>
       </c>
       <c r="AB109" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.2442716049382716</v>
       </c>
       <c r="AC109" s="16">
         <f t="shared" si="287"/>
@@ -14572,30 +14814,49 @@
       </c>
       <c r="AH109" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI109" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="110" spans="1:36">
-      <c r="A110" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>34</v>
+      <c r="AJ109" s="21"/>
+    </row>
+    <row r="110" spans="1:36" s="4" customFormat="1">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E110" s="8">
+        <v>81</v>
+      </c>
+      <c r="F110" s="8">
+        <v>112</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H110" s="8">
+        <v>0</v>
+      </c>
+      <c r="I110" s="11">
+        <v>3.6</v>
+      </c>
+      <c r="J110" s="11">
+        <v>7.61</v>
+      </c>
+      <c r="K110" s="11">
+        <v>0</v>
       </c>
       <c r="L110" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>291.60000000000002</v>
       </c>
       <c r="M110" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>616.41000000000008</v>
       </c>
       <c r="N110" s="14">
         <f t="shared" si="273"/>
@@ -14603,11 +14864,11 @@
       </c>
       <c r="O110" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>403.2</v>
       </c>
       <c r="P110" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>852.32</v>
       </c>
       <c r="Q110" s="15">
         <f t="shared" si="276"/>
@@ -14627,11 +14888,11 @@
       </c>
       <c r="U110" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.14400000000000002</v>
       </c>
       <c r="V110" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.3044</v>
       </c>
       <c r="W110" s="18">
         <f t="shared" si="281"/>
@@ -14651,11 +14912,11 @@
       </c>
       <c r="AA110" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.1991111111111111</v>
       </c>
       <c r="AB110" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.42089876543209875</v>
       </c>
       <c r="AC110" s="16">
         <f t="shared" si="287"/>
@@ -14667,7 +14928,7 @@
       </c>
       <c r="AE110" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF110" s="17" t="str">
         <f t="shared" si="290"/>
@@ -14679,22 +14940,23 @@
       </c>
       <c r="AH110" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI110" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
+      <c r="AJ110" s="21"/>
     </row>
     <row r="111" spans="1:36">
       <c r="A111" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L111" s="14">
         <f t="shared" si="271"/>
@@ -14795,13 +15057,13 @@
     </row>
     <row r="112" spans="1:36">
       <c r="A112" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L112" s="14">
         <f t="shared" si="271"/>
@@ -14902,13 +15164,13 @@
     </row>
     <row r="113" spans="1:35">
       <c r="A113" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L113" s="14">
         <f t="shared" si="271"/>
@@ -15009,13 +15271,13 @@
     </row>
     <row r="114" spans="1:35">
       <c r="A114" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L114" s="14">
         <f t="shared" si="271"/>
@@ -15116,13 +15378,13 @@
     </row>
     <row r="115" spans="1:35">
       <c r="A115" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="L115" s="14">
         <f t="shared" si="271"/>
@@ -15223,13 +15485,13 @@
     </row>
     <row r="116" spans="1:35">
       <c r="A116" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L116" s="14">
         <f t="shared" si="271"/>
@@ -15330,13 +15592,13 @@
     </row>
     <row r="117" spans="1:35">
       <c r="A117" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="L117" s="14">
         <f t="shared" si="271"/>
@@ -15437,13 +15699,13 @@
     </row>
     <row r="118" spans="1:35">
       <c r="A118" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L118" s="14">
         <f t="shared" si="271"/>
@@ -15544,13 +15806,13 @@
     </row>
     <row r="119" spans="1:35">
       <c r="A119" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="L119" s="14">
         <f t="shared" si="271"/>
@@ -15651,13 +15913,13 @@
     </row>
     <row r="120" spans="1:35">
       <c r="A120" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="L120" s="14">
         <f t="shared" si="271"/>
@@ -15758,13 +16020,13 @@
     </row>
     <row r="121" spans="1:35">
       <c r="A121" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L121" s="14">
         <f t="shared" si="271"/>
@@ -15865,13 +16127,13 @@
     </row>
     <row r="122" spans="1:35">
       <c r="A122" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L122" s="14">
         <f t="shared" si="271"/>
@@ -15972,13 +16234,13 @@
     </row>
     <row r="123" spans="1:35">
       <c r="A123" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="L123" s="14">
         <f t="shared" si="271"/>
@@ -16079,13 +16341,13 @@
     </row>
     <row r="124" spans="1:35">
       <c r="A124" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L124" s="14">
         <f t="shared" si="271"/>
@@ -16186,13 +16448,13 @@
     </row>
     <row r="125" spans="1:35">
       <c r="A125" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L125" s="14">
         <f t="shared" si="271"/>
@@ -16293,13 +16555,13 @@
     </row>
     <row r="126" spans="1:35">
       <c r="A126" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L126" s="14">
         <f t="shared" si="271"/>
@@ -16400,13 +16662,13 @@
     </row>
     <row r="127" spans="1:35">
       <c r="A127" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L127" s="14">
         <f t="shared" si="271"/>
@@ -16507,13 +16769,13 @@
     </row>
     <row r="128" spans="1:35">
       <c r="A128" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="L128" s="14">
         <f t="shared" si="271"/>
@@ -16617,10 +16879,10 @@
         <v>43</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L129" s="14">
         <f t="shared" si="271"/>
@@ -16724,10 +16986,10 @@
         <v>43</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L130" s="14">
         <f t="shared" si="271"/>
@@ -16831,10 +17093,10 @@
         <v>43</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="L131" s="14">
         <f t="shared" si="271"/>
@@ -16938,10 +17200,10 @@
         <v>43</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L132" s="14">
         <f t="shared" si="271"/>
@@ -17045,10 +17307,10 @@
         <v>43</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="L133" s="14">
         <f t="shared" si="271"/>
@@ -17152,10 +17414,10 @@
         <v>43</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L134" s="14">
         <f t="shared" si="271"/>
@@ -17259,10 +17521,10 @@
         <v>43</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="L135" s="14">
         <f t="shared" si="271"/>
@@ -17366,10 +17628,10 @@
         <v>43</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L136" s="14">
         <f t="shared" si="271"/>
@@ -17473,10 +17735,10 @@
         <v>43</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="L137" s="14">
         <f t="shared" si="271"/>
@@ -17577,13 +17839,13 @@
     </row>
     <row r="138" spans="1:35">
       <c r="A138" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="L138" s="14">
         <f t="shared" si="271"/>
@@ -17684,13 +17946,13 @@
     </row>
     <row r="139" spans="1:35">
       <c r="A139" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="L139" s="14">
         <f t="shared" si="271"/>
@@ -17791,13 +18053,13 @@
     </row>
     <row r="140" spans="1:35">
       <c r="A140" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="L140" s="14">
         <f t="shared" si="271"/>
@@ -17898,13 +18160,13 @@
     </row>
     <row r="141" spans="1:35">
       <c r="A141" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="L141" s="14">
         <f t="shared" si="271"/>
@@ -18005,13 +18267,13 @@
     </row>
     <row r="142" spans="1:35">
       <c r="A142" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L142" s="14">
         <f t="shared" si="271"/>
@@ -18112,13 +18374,13 @@
     </row>
     <row r="143" spans="1:35">
       <c r="A143" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="L143" s="14">
         <f t="shared" si="271"/>
@@ -18219,13 +18481,13 @@
     </row>
     <row r="144" spans="1:35">
       <c r="A144" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="L144" s="14">
         <f t="shared" si="271"/>
@@ -18326,13 +18588,13 @@
     </row>
     <row r="145" spans="1:35">
       <c r="A145" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="L145" s="14">
         <f t="shared" si="271"/>
@@ -18433,13 +18695,13 @@
     </row>
     <row r="146" spans="1:35">
       <c r="A146" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="L146" s="14">
         <f t="shared" si="271"/>
@@ -18540,13 +18802,13 @@
     </row>
     <row r="147" spans="1:35">
       <c r="A147" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L147" s="14">
         <f t="shared" si="271"/>
@@ -18647,13 +18909,13 @@
     </row>
     <row r="148" spans="1:35">
       <c r="A148" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L148" s="14">
         <f t="shared" si="271"/>
@@ -18754,13 +19016,13 @@
     </row>
     <row r="149" spans="1:35">
       <c r="A149" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="L149" s="14">
         <f t="shared" si="271"/>
@@ -18861,13 +19123,13 @@
     </row>
     <row r="150" spans="1:35">
       <c r="A150" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="L150" s="14">
         <f t="shared" si="271"/>
@@ -18971,10 +19233,10 @@
         <v>67</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L151" s="14">
         <f t="shared" si="271"/>
@@ -19078,10 +19340,10 @@
         <v>67</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="L152" s="14">
         <f t="shared" si="271"/>
@@ -19185,10 +19447,10 @@
         <v>67</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L153" s="14">
         <f t="shared" si="271"/>
@@ -19292,10 +19554,10 @@
         <v>67</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L154" s="14">
         <f t="shared" si="271"/>
@@ -19399,10 +19661,10 @@
         <v>67</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L155" s="14">
         <f t="shared" si="271"/>
@@ -19506,45 +19768,45 @@
         <v>67</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L156" s="14">
-        <f t="shared" ref="L156:L159" si="555">E156*I156</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M156" s="14">
-        <f t="shared" ref="M156:M159" si="556">E156*J156</f>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N156" s="14">
-        <f t="shared" ref="N156:N159" si="557">E156*K156</f>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O156" s="15">
-        <f t="shared" ref="O156:O159" si="558">F156*I156</f>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P156" s="15">
-        <f t="shared" ref="P156:P159" si="559">F156*J156</f>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q156" s="15">
-        <f t="shared" ref="Q156:Q159" si="560">F156*K156</f>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R156" s="19">
-        <f t="shared" ref="R156:R159" si="561">H156*I156</f>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S156" s="19">
-        <f t="shared" ref="S156:S159" si="562">H156*J156</f>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T156" s="19">
-        <f t="shared" ref="T156:T159" si="563">H156*K156</f>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U156" s="18">
@@ -19552,59 +19814,59 @@
         <v>0</v>
       </c>
       <c r="V156" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W156" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X156" s="20">
-        <f t="shared" ref="X156:Z159" si="564">R156*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y156" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z156" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA156" s="16">
-        <f t="shared" ref="AA156:AC159" si="565">O156*$G$3/$E$3</f>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB156" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC156" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD156" s="17" t="str">
-        <f t="shared" ref="AD156:AI159" si="566">IF((U156+X156)&lt;($J$4/2),"低",IF((U156+X156)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE156" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF156" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG156" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH156" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI156" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="293"/>
         <v>低</v>
       </c>
     </row>
@@ -19613,1511 +19875,2471 @@
         <v>67</v>
       </c>
       <c r="B157" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L157" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M157" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N157" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O157" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P157" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q157" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R157" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S157" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T157" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U157" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V157" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W157" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X157" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y157" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z157" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA157" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB157" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC157" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD157" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE157" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF157" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG157" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH157" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI157" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="158" spans="1:35">
+      <c r="A158" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L158" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M158" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N158" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O158" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P158" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q158" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R158" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S158" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T158" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U158" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V158" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W158" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X158" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y158" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z158" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA158" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB158" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC158" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD158" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE158" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF158" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG158" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH158" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI158" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="159" spans="1:35">
+      <c r="A159" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L159" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M159" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N159" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O159" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P159" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q159" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R159" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S159" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T159" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U159" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V159" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W159" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X159" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y159" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z159" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA159" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB159" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC159" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD159" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE159" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF159" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG159" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH159" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI159" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="160" spans="1:35">
+      <c r="A160" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L160" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M160" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N160" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O160" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P160" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q160" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R160" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S160" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T160" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U160" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V160" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W160" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X160" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y160" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z160" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA160" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB160" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC160" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD160" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE160" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF160" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG160" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH160" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI160" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="161" spans="1:35">
+      <c r="A161" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L161" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M161" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N161" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O161" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P161" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q161" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R161" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S161" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T161" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U161" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V161" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W161" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X161" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y161" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z161" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA161" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB161" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC161" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD161" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE161" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF161" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG161" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH161" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI161" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="162" spans="1:35">
+      <c r="A162" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L162" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M162" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N162" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O162" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P162" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q162" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R162" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S162" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T162" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U162" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V162" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W162" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X162" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y162" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z162" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA162" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB162" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC162" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD162" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE162" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF162" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG162" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH162" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI162" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="163" spans="1:35">
+      <c r="A163" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L163" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M163" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N163" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O163" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P163" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q163" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R163" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S163" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T163" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U163" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V163" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W163" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X163" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y163" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z163" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA163" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB163" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC163" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD163" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE163" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF163" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG163" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH163" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI163" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="164" spans="1:35">
+      <c r="A164" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L164" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M164" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N164" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O164" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P164" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q164" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R164" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S164" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T164" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U164" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V164" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W164" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X164" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y164" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z164" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA164" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB164" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC164" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD164" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE164" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF164" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG164" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH164" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI164" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="165" spans="1:35">
+      <c r="A165" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L165" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M165" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N165" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O165" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P165" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q165" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R165" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S165" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T165" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U165" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V165" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W165" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X165" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y165" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z165" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA165" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB165" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC165" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD165" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE165" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF165" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG165" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH165" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI165" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="166" spans="1:35">
+      <c r="A166" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L166" s="14">
+        <f t="shared" ref="L166:L169" si="555">E166*I166</f>
+        <v>0</v>
+      </c>
+      <c r="M166" s="14">
+        <f t="shared" ref="M166:M169" si="556">E166*J166</f>
+        <v>0</v>
+      </c>
+      <c r="N166" s="14">
+        <f t="shared" ref="N166:N169" si="557">E166*K166</f>
+        <v>0</v>
+      </c>
+      <c r="O166" s="15">
+        <f t="shared" ref="O166:O169" si="558">F166*I166</f>
+        <v>0</v>
+      </c>
+      <c r="P166" s="15">
+        <f t="shared" ref="P166:P169" si="559">F166*J166</f>
+        <v>0</v>
+      </c>
+      <c r="Q166" s="15">
+        <f t="shared" ref="Q166:Q169" si="560">F166*K166</f>
+        <v>0</v>
+      </c>
+      <c r="R166" s="19">
+        <f t="shared" ref="R166:R169" si="561">H166*I166</f>
+        <v>0</v>
+      </c>
+      <c r="S166" s="19">
+        <f t="shared" ref="S166:S169" si="562">H166*J166</f>
+        <v>0</v>
+      </c>
+      <c r="T166" s="19">
+        <f t="shared" ref="T166:T169" si="563">H166*K166</f>
+        <v>0</v>
+      </c>
+      <c r="U166" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V166" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="W166" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="X166" s="20">
+        <f t="shared" ref="X166:Z169" si="564">R166*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y166" s="20">
+        <f t="shared" si="564"/>
+        <v>0</v>
+      </c>
+      <c r="Z166" s="20">
+        <f t="shared" si="564"/>
+        <v>0</v>
+      </c>
+      <c r="AA166" s="16">
+        <f t="shared" ref="AA166:AC169" si="565">O166*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB166" s="16">
+        <f t="shared" si="565"/>
+        <v>0</v>
+      </c>
+      <c r="AC166" s="16">
+        <f t="shared" si="565"/>
+        <v>0</v>
+      </c>
+      <c r="AD166" s="17" t="str">
+        <f t="shared" ref="AD166:AI169" si="566">IF((U166+X166)&lt;($J$4/2),"低",IF((U166+X166)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE166" s="17" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AF166" s="17" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AG166" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AH166" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AI166" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="167" spans="1:35">
+      <c r="A167" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B167" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C167" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L157" s="14">
+      <c r="L167" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M157" s="14">
+      <c r="M167" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N157" s="14">
+      <c r="N167" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O157" s="15">
+      <c r="O167" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P157" s="15">
+      <c r="P167" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q157" s="15">
+      <c r="Q167" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R157" s="19">
+      <c r="R167" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S157" s="19">
+      <c r="S167" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T157" s="19">
+      <c r="T167" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U157" s="18">
-        <f t="shared" ref="U157:W159" si="567">L157*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="V157" s="18">
+      <c r="U167" s="18">
+        <f t="shared" ref="U167:W169" si="567">L167*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V167" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W157" s="18">
+      <c r="W167" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X157" s="20">
+      <c r="X167" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y157" s="20">
+      <c r="Y167" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z157" s="20">
+      <c r="Z167" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA157" s="16">
+      <c r="AA167" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB157" s="16">
+      <c r="AB167" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC157" s="16">
+      <c r="AC167" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD157" s="17" t="str">
+      <c r="AD167" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE157" s="17" t="str">
+      <c r="AE167" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF157" s="17" t="str">
+      <c r="AF167" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG157" s="15" t="str">
+      <c r="AG167" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH157" s="15" t="str">
+      <c r="AH167" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI157" s="15" t="str">
+      <c r="AI167" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
-    <row r="158" spans="1:35">
-      <c r="A158" s="7" t="s">
+    <row r="168" spans="1:35">
+      <c r="A168" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B168" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C168" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L158" s="14">
+      <c r="L168" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M158" s="14">
+      <c r="M168" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N158" s="14">
+      <c r="N168" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O158" s="15">
+      <c r="O168" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P158" s="15">
+      <c r="P168" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q158" s="15">
+      <c r="Q168" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R158" s="19">
+      <c r="R168" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S158" s="19">
+      <c r="S168" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T158" s="19">
+      <c r="T168" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U158" s="18">
+      <c r="U168" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="V158" s="18">
+      <c r="V168" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W158" s="18">
+      <c r="W168" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X158" s="20">
+      <c r="X168" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y158" s="20">
+      <c r="Y168" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z158" s="20">
+      <c r="Z168" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA158" s="16">
+      <c r="AA168" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB158" s="16">
+      <c r="AB168" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC158" s="16">
+      <c r="AC168" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD158" s="17" t="str">
+      <c r="AD168" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE158" s="17" t="str">
+      <c r="AE168" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF158" s="17" t="str">
+      <c r="AF168" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG158" s="15" t="str">
+      <c r="AG168" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH158" s="15" t="str">
+      <c r="AH168" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI158" s="15" t="str">
+      <c r="AI168" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
-    <row r="159" spans="1:35">
-      <c r="A159" s="7" t="s">
+    <row r="169" spans="1:35">
+      <c r="A169" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B169" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C169" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L159" s="14">
+      <c r="L169" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M159" s="14">
+      <c r="M169" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N159" s="14">
+      <c r="N169" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O159" s="15">
+      <c r="O169" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P159" s="15">
+      <c r="P169" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q159" s="15">
+      <c r="Q169" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R159" s="19">
+      <c r="R169" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S159" s="19">
+      <c r="S169" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T159" s="19">
+      <c r="T169" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U159" s="18">
+      <c r="U169" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="V159" s="18">
+      <c r="V169" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W159" s="18">
+      <c r="W169" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X159" s="20">
+      <c r="X169" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y159" s="20">
+      <c r="Y169" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z159" s="20">
+      <c r="Z169" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA159" s="16">
+      <c r="AA169" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB159" s="16">
+      <c r="AB169" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC159" s="16">
+      <c r="AC169" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD159" s="17" t="str">
+      <c r="AD169" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE159" s="17" t="str">
+      <c r="AE169" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF159" s="17" t="str">
+      <c r="AF169" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG159" s="15" t="str">
+      <c r="AG169" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH159" s="15" t="str">
+      <c r="AH169" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI159" s="15" t="str">
+      <c r="AI169" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
-    <row r="160" spans="1:35">
-      <c r="L160" s="14">
-        <f t="shared" ref="L160:L170" si="568">E160*I160</f>
-        <v>0</v>
-      </c>
-      <c r="M160" s="14">
-        <f t="shared" ref="M160:M170" si="569">E160*J160</f>
-        <v>0</v>
-      </c>
-      <c r="N160" s="14">
-        <f t="shared" ref="N160:N170" si="570">E160*K160</f>
-        <v>0</v>
-      </c>
-      <c r="O160" s="15">
-        <f t="shared" ref="O160:O170" si="571">F160*I160</f>
-        <v>0</v>
-      </c>
-      <c r="P160" s="15">
-        <f t="shared" ref="P160:P170" si="572">F160*J160</f>
-        <v>0</v>
-      </c>
-      <c r="Q160" s="15">
-        <f t="shared" ref="Q160:Q170" si="573">F160*K160</f>
-        <v>0</v>
-      </c>
-      <c r="R160" s="19">
-        <f t="shared" ref="R160:R170" si="574">H160*I160</f>
-        <v>0</v>
-      </c>
-      <c r="S160" s="19">
-        <f t="shared" ref="S160:S170" si="575">H160*J160</f>
-        <v>0</v>
-      </c>
-      <c r="T160" s="19">
-        <f t="shared" ref="T160:T170" si="576">H160*K160</f>
-        <v>0</v>
-      </c>
-      <c r="U160" s="18">
-        <f t="shared" ref="U160:U170" si="577">L160*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="V160" s="18">
-        <f t="shared" ref="V160:V170" si="578">M160*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="W160" s="18">
-        <f t="shared" ref="W160:W170" si="579">N160*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="X160" s="20">
-        <f t="shared" ref="X160:X170" si="580">R160*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="Y160" s="20">
-        <f t="shared" ref="Y160:Y170" si="581">S160*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="Z160" s="20">
-        <f t="shared" ref="Z160:Z170" si="582">T160*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AA160" s="16">
-        <f t="shared" ref="AA160:AA170" si="583">O160*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AB160" s="16">
-        <f t="shared" ref="AB160:AB170" si="584">P160*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AC160" s="16">
-        <f t="shared" ref="AC160:AC170" si="585">Q160*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AD160" s="17" t="str">
-        <f t="shared" ref="AD160:AD170" si="586">IF((U160+X160)&lt;($J$4/2),"低",IF((U160+X160)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AE160" s="17" t="str">
-        <f t="shared" ref="AE160:AE170" si="587">IF((V160+Y160)&lt;($J$4/2),"低",IF((V160+Y160)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AF160" s="17" t="str">
-        <f t="shared" ref="AF160:AF170" si="588">IF((W160+Z160)&lt;($J$4/2),"低",IF((W160+Z160)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AG160" s="15" t="str">
-        <f t="shared" ref="AG160:AG170" si="589">IF((X160+AA160)&lt;($J$4/2),"低",IF((X160+AA160)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AH160" s="15" t="str">
-        <f t="shared" ref="AH160:AH170" si="590">IF((Y160+AB160)&lt;($J$4/2),"低",IF((Y160+AB160)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AI160" s="15" t="str">
-        <f t="shared" ref="AI160:AI170" si="591">IF((Z160+AC160)&lt;($J$4/2),"低",IF((Z160+AC160)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="161" spans="12:35">
-      <c r="L161" s="14">
+    <row r="170" spans="1:35">
+      <c r="L170" s="14">
+        <f t="shared" ref="L170:L180" si="568">E170*I170</f>
+        <v>0</v>
+      </c>
+      <c r="M170" s="14">
+        <f t="shared" ref="M170:M180" si="569">E170*J170</f>
+        <v>0</v>
+      </c>
+      <c r="N170" s="14">
+        <f t="shared" ref="N170:N180" si="570">E170*K170</f>
+        <v>0</v>
+      </c>
+      <c r="O170" s="15">
+        <f t="shared" ref="O170:O180" si="571">F170*I170</f>
+        <v>0</v>
+      </c>
+      <c r="P170" s="15">
+        <f t="shared" ref="P170:P180" si="572">F170*J170</f>
+        <v>0</v>
+      </c>
+      <c r="Q170" s="15">
+        <f t="shared" ref="Q170:Q180" si="573">F170*K170</f>
+        <v>0</v>
+      </c>
+      <c r="R170" s="19">
+        <f t="shared" ref="R170:R180" si="574">H170*I170</f>
+        <v>0</v>
+      </c>
+      <c r="S170" s="19">
+        <f t="shared" ref="S170:S180" si="575">H170*J170</f>
+        <v>0</v>
+      </c>
+      <c r="T170" s="19">
+        <f t="shared" ref="T170:T180" si="576">H170*K170</f>
+        <v>0</v>
+      </c>
+      <c r="U170" s="18">
+        <f t="shared" ref="U170:U180" si="577">L170*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V170" s="18">
+        <f t="shared" ref="V170:V180" si="578">M170*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W170" s="18">
+        <f t="shared" ref="W170:W180" si="579">N170*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X170" s="20">
+        <f t="shared" ref="X170:X180" si="580">R170*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y170" s="20">
+        <f t="shared" ref="Y170:Y180" si="581">S170*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z170" s="20">
+        <f t="shared" ref="Z170:Z180" si="582">T170*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA170" s="16">
+        <f t="shared" ref="AA170:AA180" si="583">O170*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB170" s="16">
+        <f t="shared" ref="AB170:AB180" si="584">P170*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC170" s="16">
+        <f t="shared" ref="AC170:AC180" si="585">Q170*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD170" s="17" t="str">
+        <f t="shared" ref="AD170:AD180" si="586">IF((U170+X170)&lt;($J$4/2),"低",IF((U170+X170)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE170" s="17" t="str">
+        <f t="shared" ref="AE170:AE180" si="587">IF((V170+Y170)&lt;($J$4/2),"低",IF((V170+Y170)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF170" s="17" t="str">
+        <f t="shared" ref="AF170:AF180" si="588">IF((W170+Z170)&lt;($J$4/2),"低",IF((W170+Z170)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG170" s="15" t="str">
+        <f t="shared" ref="AG170:AG180" si="589">IF((X170+AA170)&lt;($J$4/2),"低",IF((X170+AA170)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AH170" s="15" t="str">
+        <f t="shared" ref="AH170:AH180" si="590">IF((Y170+AB170)&lt;($J$4/2),"低",IF((Y170+AB170)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI170" s="15" t="str">
+        <f t="shared" ref="AI170:AI180" si="591">IF((Z170+AC170)&lt;($J$4/2),"低",IF((Z170+AC170)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="171" spans="1:35">
+      <c r="L171" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M161" s="14">
+      <c r="M171" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N161" s="14">
+      <c r="N171" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O161" s="15">
+      <c r="O171" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P161" s="15">
+      <c r="P171" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q161" s="15">
+      <c r="Q171" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R161" s="19">
+      <c r="R171" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S161" s="19">
+      <c r="S171" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T161" s="19">
+      <c r="T171" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U161" s="18">
+      <c r="U171" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V161" s="18">
+      <c r="V171" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W161" s="18">
+      <c r="W171" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X161" s="20">
+      <c r="X171" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y161" s="20">
+      <c r="Y171" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z161" s="20">
+      <c r="Z171" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA161" s="16">
+      <c r="AA171" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB161" s="16">
+      <c r="AB171" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC161" s="16">
+      <c r="AC171" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD161" s="17" t="str">
+      <c r="AD171" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE161" s="17" t="str">
+      <c r="AE171" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF161" s="17" t="str">
+      <c r="AF171" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG161" s="15" t="str">
+      <c r="AG171" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH161" s="15" t="str">
+      <c r="AH171" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI161" s="15" t="str">
+      <c r="AI171" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="162" spans="12:35">
-      <c r="L162" s="14">
+    <row r="172" spans="1:35">
+      <c r="L172" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M162" s="14">
+      <c r="M172" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N162" s="14">
+      <c r="N172" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O162" s="15">
+      <c r="O172" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P162" s="15">
+      <c r="P172" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q162" s="15">
+      <c r="Q172" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R162" s="19">
+      <c r="R172" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S162" s="19">
+      <c r="S172" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T162" s="19">
+      <c r="T172" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U162" s="18">
+      <c r="U172" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V162" s="18">
+      <c r="V172" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W162" s="18">
+      <c r="W172" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X162" s="20">
+      <c r="X172" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y162" s="20">
+      <c r="Y172" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z162" s="20">
+      <c r="Z172" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA162" s="16">
+      <c r="AA172" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB162" s="16">
+      <c r="AB172" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC162" s="16">
+      <c r="AC172" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD162" s="17" t="str">
+      <c r="AD172" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE162" s="17" t="str">
+      <c r="AE172" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF162" s="17" t="str">
+      <c r="AF172" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG162" s="15" t="str">
+      <c r="AG172" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH162" s="15" t="str">
+      <c r="AH172" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI162" s="15" t="str">
+      <c r="AI172" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="163" spans="12:35">
-      <c r="L163" s="14">
+    <row r="173" spans="1:35">
+      <c r="L173" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M163" s="14">
+      <c r="M173" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N163" s="14">
+      <c r="N173" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O163" s="15">
+      <c r="O173" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P163" s="15">
+      <c r="P173" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q163" s="15">
+      <c r="Q173" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R163" s="19">
+      <c r="R173" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S163" s="19">
+      <c r="S173" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T163" s="19">
+      <c r="T173" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U163" s="18">
+      <c r="U173" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V163" s="18">
+      <c r="V173" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W163" s="18">
+      <c r="W173" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X163" s="20">
+      <c r="X173" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y163" s="20">
+      <c r="Y173" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z163" s="20">
+      <c r="Z173" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA163" s="16">
+      <c r="AA173" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB163" s="16">
+      <c r="AB173" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC163" s="16">
+      <c r="AC173" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD163" s="17" t="str">
+      <c r="AD173" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE163" s="17" t="str">
+      <c r="AE173" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF163" s="17" t="str">
+      <c r="AF173" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG163" s="15" t="str">
+      <c r="AG173" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH163" s="15" t="str">
+      <c r="AH173" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI163" s="15" t="str">
+      <c r="AI173" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="164" spans="12:35">
-      <c r="L164" s="14">
+    <row r="174" spans="1:35">
+      <c r="L174" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M164" s="14">
+      <c r="M174" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N164" s="14">
+      <c r="N174" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O164" s="15">
+      <c r="O174" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P164" s="15">
+      <c r="P174" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q164" s="15">
+      <c r="Q174" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R164" s="19">
+      <c r="R174" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S164" s="19">
+      <c r="S174" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T164" s="19">
+      <c r="T174" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U164" s="18">
+      <c r="U174" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V164" s="18">
+      <c r="V174" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W164" s="18">
+      <c r="W174" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X164" s="20">
+      <c r="X174" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y164" s="20">
+      <c r="Y174" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z164" s="20">
+      <c r="Z174" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA164" s="16">
+      <c r="AA174" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB164" s="16">
+      <c r="AB174" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC164" s="16">
+      <c r="AC174" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD164" s="17" t="str">
+      <c r="AD174" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE164" s="17" t="str">
+      <c r="AE174" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF164" s="17" t="str">
+      <c r="AF174" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG164" s="15" t="str">
+      <c r="AG174" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH164" s="15" t="str">
+      <c r="AH174" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI164" s="15" t="str">
+      <c r="AI174" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="165" spans="12:35">
-      <c r="L165" s="14">
+    <row r="175" spans="1:35">
+      <c r="L175" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M165" s="14">
+      <c r="M175" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N165" s="14">
+      <c r="N175" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O165" s="15">
+      <c r="O175" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P165" s="15">
+      <c r="P175" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q165" s="15">
+      <c r="Q175" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R165" s="19">
+      <c r="R175" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S165" s="19">
+      <c r="S175" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T165" s="19">
+      <c r="T175" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U165" s="18">
+      <c r="U175" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V165" s="18">
+      <c r="V175" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W165" s="18">
+      <c r="W175" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X165" s="20">
+      <c r="X175" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y165" s="20">
+      <c r="Y175" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z165" s="20">
+      <c r="Z175" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA165" s="16">
+      <c r="AA175" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB165" s="16">
+      <c r="AB175" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC165" s="16">
+      <c r="AC175" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD165" s="17" t="str">
+      <c r="AD175" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE165" s="17" t="str">
+      <c r="AE175" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF165" s="17" t="str">
+      <c r="AF175" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG165" s="15" t="str">
+      <c r="AG175" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH165" s="15" t="str">
+      <c r="AH175" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI165" s="15" t="str">
+      <c r="AI175" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="166" spans="12:35">
-      <c r="L166" s="14">
+    <row r="176" spans="1:35">
+      <c r="L176" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M166" s="14">
+      <c r="M176" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N166" s="14">
+      <c r="N176" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O166" s="15">
+      <c r="O176" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P166" s="15">
+      <c r="P176" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q166" s="15">
+      <c r="Q176" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R166" s="19">
+      <c r="R176" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S166" s="19">
+      <c r="S176" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T166" s="19">
+      <c r="T176" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U166" s="18">
+      <c r="U176" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V166" s="18">
+      <c r="V176" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W166" s="18">
+      <c r="W176" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X166" s="20">
+      <c r="X176" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y166" s="20">
+      <c r="Y176" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z166" s="20">
+      <c r="Z176" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA166" s="16">
+      <c r="AA176" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB166" s="16">
+      <c r="AB176" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC166" s="16">
+      <c r="AC176" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD166" s="17" t="str">
+      <c r="AD176" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE166" s="17" t="str">
+      <c r="AE176" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF166" s="17" t="str">
+      <c r="AF176" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG166" s="15" t="str">
+      <c r="AG176" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH166" s="15" t="str">
+      <c r="AH176" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI166" s="15" t="str">
+      <c r="AI176" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="167" spans="12:35">
-      <c r="L167" s="14">
+    <row r="177" spans="12:35">
+      <c r="L177" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M167" s="14">
+      <c r="M177" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N167" s="14">
+      <c r="N177" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O167" s="15">
+      <c r="O177" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P167" s="15">
+      <c r="P177" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q167" s="15">
+      <c r="Q177" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R167" s="19">
+      <c r="R177" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S167" s="19">
+      <c r="S177" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T167" s="19">
+      <c r="T177" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U167" s="18">
+      <c r="U177" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V167" s="18">
+      <c r="V177" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W167" s="18">
+      <c r="W177" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X167" s="20">
+      <c r="X177" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y167" s="20">
+      <c r="Y177" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z167" s="20">
+      <c r="Z177" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA167" s="16">
+      <c r="AA177" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB167" s="16">
+      <c r="AB177" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC167" s="16">
+      <c r="AC177" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD167" s="17" t="str">
+      <c r="AD177" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE167" s="17" t="str">
+      <c r="AE177" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF167" s="17" t="str">
+      <c r="AF177" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG167" s="15" t="str">
+      <c r="AG177" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH167" s="15" t="str">
+      <c r="AH177" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI167" s="15" t="str">
+      <c r="AI177" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="168" spans="12:35">
-      <c r="L168" s="14">
+    <row r="178" spans="12:35">
+      <c r="L178" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M168" s="14">
+      <c r="M178" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N168" s="14">
+      <c r="N178" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O168" s="15">
+      <c r="O178" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P168" s="15">
+      <c r="P178" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q168" s="15">
+      <c r="Q178" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R168" s="19">
+      <c r="R178" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S168" s="19">
+      <c r="S178" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T168" s="19">
+      <c r="T178" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U168" s="18">
+      <c r="U178" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V168" s="18">
+      <c r="V178" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W168" s="18">
+      <c r="W178" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X168" s="20">
+      <c r="X178" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y168" s="20">
+      <c r="Y178" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z168" s="20">
+      <c r="Z178" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA168" s="16">
+      <c r="AA178" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB168" s="16">
+      <c r="AB178" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC168" s="16">
+      <c r="AC178" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD168" s="17" t="str">
+      <c r="AD178" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE168" s="17" t="str">
+      <c r="AE178" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF168" s="17" t="str">
+      <c r="AF178" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG168" s="15" t="str">
+      <c r="AG178" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH168" s="15" t="str">
+      <c r="AH178" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI168" s="15" t="str">
+      <c r="AI178" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="169" spans="12:35">
-      <c r="L169" s="14">
+    <row r="179" spans="12:35">
+      <c r="L179" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M169" s="14">
+      <c r="M179" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N169" s="14">
+      <c r="N179" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O169" s="15">
+      <c r="O179" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P169" s="15">
+      <c r="P179" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q169" s="15">
+      <c r="Q179" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R169" s="19">
+      <c r="R179" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S169" s="19">
+      <c r="S179" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T169" s="19">
+      <c r="T179" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U169" s="18">
+      <c r="U179" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V169" s="18">
+      <c r="V179" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W169" s="18">
+      <c r="W179" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X169" s="20">
+      <c r="X179" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y169" s="20">
+      <c r="Y179" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z169" s="20">
+      <c r="Z179" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA169" s="16">
+      <c r="AA179" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB169" s="16">
+      <c r="AB179" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC169" s="16">
+      <c r="AC179" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD169" s="17" t="str">
+      <c r="AD179" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE169" s="17" t="str">
+      <c r="AE179" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF169" s="17" t="str">
+      <c r="AF179" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG169" s="15" t="str">
+      <c r="AG179" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH169" s="15" t="str">
+      <c r="AH179" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI169" s="15" t="str">
+      <c r="AI179" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="170" spans="12:35">
-      <c r="L170" s="14">
+    <row r="180" spans="12:35">
+      <c r="L180" s="14">
         <f t="shared" si="568"/>
         <v>0</v>
       </c>
-      <c r="M170" s="14">
+      <c r="M180" s="14">
         <f t="shared" si="569"/>
         <v>0</v>
       </c>
-      <c r="N170" s="14">
+      <c r="N180" s="14">
         <f t="shared" si="570"/>
         <v>0</v>
       </c>
-      <c r="O170" s="15">
+      <c r="O180" s="15">
         <f t="shared" si="571"/>
         <v>0</v>
       </c>
-      <c r="P170" s="15">
+      <c r="P180" s="15">
         <f t="shared" si="572"/>
         <v>0</v>
       </c>
-      <c r="Q170" s="15">
+      <c r="Q180" s="15">
         <f t="shared" si="573"/>
         <v>0</v>
       </c>
-      <c r="R170" s="19">
+      <c r="R180" s="19">
         <f t="shared" si="574"/>
         <v>0</v>
       </c>
-      <c r="S170" s="19">
+      <c r="S180" s="19">
         <f t="shared" si="575"/>
         <v>0</v>
       </c>
-      <c r="T170" s="19">
+      <c r="T180" s="19">
         <f t="shared" si="576"/>
         <v>0</v>
       </c>
-      <c r="U170" s="18">
+      <c r="U180" s="18">
         <f t="shared" si="577"/>
         <v>0</v>
       </c>
-      <c r="V170" s="18">
+      <c r="V180" s="18">
         <f t="shared" si="578"/>
         <v>0</v>
       </c>
-      <c r="W170" s="18">
+      <c r="W180" s="18">
         <f t="shared" si="579"/>
         <v>0</v>
       </c>
-      <c r="X170" s="20">
+      <c r="X180" s="20">
         <f t="shared" si="580"/>
         <v>0</v>
       </c>
-      <c r="Y170" s="20">
+      <c r="Y180" s="20">
         <f t="shared" si="581"/>
         <v>0</v>
       </c>
-      <c r="Z170" s="20">
+      <c r="Z180" s="20">
         <f t="shared" si="582"/>
         <v>0</v>
       </c>
-      <c r="AA170" s="16">
+      <c r="AA180" s="16">
         <f t="shared" si="583"/>
         <v>0</v>
       </c>
-      <c r="AB170" s="16">
+      <c r="AB180" s="16">
         <f t="shared" si="584"/>
         <v>0</v>
       </c>
-      <c r="AC170" s="16">
+      <c r="AC180" s="16">
         <f t="shared" si="585"/>
         <v>0</v>
       </c>
-      <c r="AD170" s="17" t="str">
+      <c r="AD180" s="17" t="str">
         <f t="shared" si="586"/>
         <v>低</v>
       </c>
-      <c r="AE170" s="17" t="str">
+      <c r="AE180" s="17" t="str">
         <f t="shared" si="587"/>
         <v>低</v>
       </c>
-      <c r="AF170" s="17" t="str">
+      <c r="AF180" s="17" t="str">
         <f t="shared" si="588"/>
         <v>低</v>
       </c>
-      <c r="AG170" s="15" t="str">
+      <c r="AG180" s="15" t="str">
         <f t="shared" si="589"/>
         <v>低</v>
       </c>
-      <c r="AH170" s="15" t="str">
+      <c r="AH180" s="15" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI170" s="15" t="str">
+      <c r="AI180" s="15" t="str">
         <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
-    <row r="171" spans="12:35">
-      <c r="U171" s="18"/>
-      <c r="V171" s="18"/>
-      <c r="W171" s="18"/>
-      <c r="X171" s="20"/>
-      <c r="Y171" s="20"/>
-      <c r="Z171" s="20"/>
-      <c r="AA171" s="16"/>
-      <c r="AB171" s="16"/>
-      <c r="AC171" s="16"/>
-    </row>
-    <row r="172" spans="12:35">
-      <c r="U172" s="18"/>
-      <c r="V172" s="18"/>
-      <c r="W172" s="18"/>
-      <c r="X172" s="20"/>
-      <c r="Y172" s="20"/>
-      <c r="Z172" s="20"/>
-      <c r="AA172" s="16"/>
-      <c r="AB172" s="16"/>
-      <c r="AC172" s="16"/>
-    </row>
-    <row r="173" spans="12:35">
-      <c r="U173" s="18"/>
-      <c r="V173" s="18"/>
-      <c r="W173" s="18"/>
-      <c r="X173" s="20"/>
-      <c r="Y173" s="20"/>
-      <c r="Z173" s="20"/>
-      <c r="AA173" s="16"/>
-      <c r="AB173" s="16"/>
-      <c r="AC173" s="16"/>
-    </row>
-    <row r="174" spans="12:35">
-      <c r="U174" s="18"/>
-      <c r="V174" s="18"/>
-      <c r="W174" s="18"/>
-      <c r="X174" s="20"/>
-      <c r="Y174" s="20"/>
-      <c r="Z174" s="20"/>
-      <c r="AA174" s="16"/>
-      <c r="AB174" s="16"/>
-      <c r="AC174" s="16"/>
-    </row>
-    <row r="175" spans="12:35">
-      <c r="U175" s="18"/>
-      <c r="V175" s="18"/>
-      <c r="W175" s="18"/>
-      <c r="X175" s="20"/>
-      <c r="Y175" s="20"/>
-      <c r="Z175" s="20"/>
-      <c r="AA175" s="16"/>
-      <c r="AB175" s="16"/>
-      <c r="AC175" s="16"/>
-    </row>
-    <row r="176" spans="12:35">
-      <c r="U176" s="18"/>
-      <c r="V176" s="18"/>
-      <c r="W176" s="18"/>
-      <c r="X176" s="20"/>
-      <c r="Y176" s="20"/>
-      <c r="Z176" s="20"/>
-      <c r="AA176" s="16"/>
-      <c r="AB176" s="16"/>
-      <c r="AC176" s="16"/>
-    </row>
-    <row r="177" spans="21:29">
-      <c r="U177" s="18"/>
-      <c r="V177" s="18"/>
-      <c r="W177" s="18"/>
-      <c r="X177" s="20"/>
-      <c r="Y177" s="20"/>
-      <c r="Z177" s="20"/>
-      <c r="AA177" s="16"/>
-      <c r="AB177" s="16"/>
-      <c r="AC177" s="16"/>
-    </row>
-    <row r="178" spans="21:29">
-      <c r="U178" s="18"/>
-      <c r="V178" s="18"/>
-      <c r="W178" s="18"/>
-      <c r="X178" s="20"/>
-      <c r="Y178" s="20"/>
-      <c r="Z178" s="20"/>
-      <c r="AA178" s="16"/>
-      <c r="AB178" s="16"/>
-      <c r="AC178" s="16"/>
-    </row>
-    <row r="179" spans="21:29">
-      <c r="U179" s="18"/>
-      <c r="V179" s="18"/>
-      <c r="W179" s="18"/>
-      <c r="X179" s="20"/>
-      <c r="Y179" s="20"/>
-      <c r="Z179" s="20"/>
-      <c r="AA179" s="16"/>
-      <c r="AB179" s="16"/>
-      <c r="AC179" s="16"/>
-    </row>
-    <row r="180" spans="21:29">
-      <c r="U180" s="18"/>
-      <c r="V180" s="18"/>
-      <c r="W180" s="18"/>
-      <c r="X180" s="20"/>
-      <c r="Y180" s="20"/>
-      <c r="Z180" s="20"/>
-      <c r="AA180" s="16"/>
-      <c r="AB180" s="16"/>
-      <c r="AC180" s="16"/>
-    </row>
-    <row r="181" spans="21:29">
+    <row r="181" spans="12:35">
       <c r="U181" s="18"/>
       <c r="V181" s="18"/>
       <c r="W181" s="18"/>
@@ -21128,7 +22350,7 @@
       <c r="AB181" s="16"/>
       <c r="AC181" s="16"/>
     </row>
-    <row r="182" spans="21:29">
+    <row r="182" spans="12:35">
       <c r="U182" s="18"/>
       <c r="V182" s="18"/>
       <c r="W182" s="18"/>
@@ -21139,7 +22361,7 @@
       <c r="AB182" s="16"/>
       <c r="AC182" s="16"/>
     </row>
-    <row r="183" spans="21:29">
+    <row r="183" spans="12:35">
       <c r="U183" s="18"/>
       <c r="V183" s="18"/>
       <c r="W183" s="18"/>
@@ -21150,7 +22372,7 @@
       <c r="AB183" s="16"/>
       <c r="AC183" s="16"/>
     </row>
-    <row r="184" spans="21:29">
+    <row r="184" spans="12:35">
       <c r="U184" s="18"/>
       <c r="V184" s="18"/>
       <c r="W184" s="18"/>
@@ -21161,7 +22383,7 @@
       <c r="AB184" s="16"/>
       <c r="AC184" s="16"/>
     </row>
-    <row r="185" spans="21:29">
+    <row r="185" spans="12:35">
       <c r="U185" s="18"/>
       <c r="V185" s="18"/>
       <c r="W185" s="18"/>
@@ -21172,7 +22394,7 @@
       <c r="AB185" s="16"/>
       <c r="AC185" s="16"/>
     </row>
-    <row r="186" spans="21:29">
+    <row r="186" spans="12:35">
       <c r="U186" s="18"/>
       <c r="V186" s="18"/>
       <c r="W186" s="18"/>
@@ -21183,7 +22405,7 @@
       <c r="AB186" s="16"/>
       <c r="AC186" s="16"/>
     </row>
-    <row r="187" spans="21:29">
+    <row r="187" spans="12:35">
       <c r="U187" s="18"/>
       <c r="V187" s="18"/>
       <c r="W187" s="18"/>
@@ -21194,7 +22416,7 @@
       <c r="AB187" s="16"/>
       <c r="AC187" s="16"/>
     </row>
-    <row r="188" spans="21:29">
+    <row r="188" spans="12:35">
       <c r="U188" s="18"/>
       <c r="V188" s="18"/>
       <c r="W188" s="18"/>
@@ -21205,7 +22427,7 @@
       <c r="AB188" s="16"/>
       <c r="AC188" s="16"/>
     </row>
-    <row r="189" spans="21:29">
+    <row r="189" spans="12:35">
       <c r="U189" s="18"/>
       <c r="V189" s="18"/>
       <c r="W189" s="18"/>
@@ -21216,7 +22438,7 @@
       <c r="AB189" s="16"/>
       <c r="AC189" s="16"/>
     </row>
-    <row r="190" spans="21:29">
+    <row r="190" spans="12:35">
       <c r="U190" s="18"/>
       <c r="V190" s="18"/>
       <c r="W190" s="18"/>
@@ -21227,7 +22449,7 @@
       <c r="AB190" s="16"/>
       <c r="AC190" s="16"/>
     </row>
-    <row r="191" spans="21:29">
+    <row r="191" spans="12:35">
       <c r="U191" s="18"/>
       <c r="V191" s="18"/>
       <c r="W191" s="18"/>
@@ -21238,7 +22460,7 @@
       <c r="AB191" s="16"/>
       <c r="AC191" s="16"/>
     </row>
-    <row r="192" spans="21:29">
+    <row r="192" spans="12:35">
       <c r="U192" s="18"/>
       <c r="V192" s="18"/>
       <c r="W192" s="18"/>
@@ -24317,6 +25539,116 @@
       <c r="AA471" s="16"/>
       <c r="AB471" s="16"/>
       <c r="AC471" s="16"/>
+    </row>
+    <row r="472" spans="21:29">
+      <c r="U472" s="18"/>
+      <c r="V472" s="18"/>
+      <c r="W472" s="18"/>
+      <c r="X472" s="20"/>
+      <c r="Y472" s="20"/>
+      <c r="Z472" s="20"/>
+      <c r="AA472" s="16"/>
+      <c r="AB472" s="16"/>
+      <c r="AC472" s="16"/>
+    </row>
+    <row r="473" spans="21:29">
+      <c r="U473" s="18"/>
+      <c r="V473" s="18"/>
+      <c r="W473" s="18"/>
+      <c r="X473" s="20"/>
+      <c r="Y473" s="20"/>
+      <c r="Z473" s="20"/>
+      <c r="AA473" s="16"/>
+      <c r="AB473" s="16"/>
+      <c r="AC473" s="16"/>
+    </row>
+    <row r="474" spans="21:29">
+      <c r="U474" s="18"/>
+      <c r="V474" s="18"/>
+      <c r="W474" s="18"/>
+      <c r="X474" s="20"/>
+      <c r="Y474" s="20"/>
+      <c r="Z474" s="20"/>
+      <c r="AA474" s="16"/>
+      <c r="AB474" s="16"/>
+      <c r="AC474" s="16"/>
+    </row>
+    <row r="475" spans="21:29">
+      <c r="U475" s="18"/>
+      <c r="V475" s="18"/>
+      <c r="W475" s="18"/>
+      <c r="X475" s="20"/>
+      <c r="Y475" s="20"/>
+      <c r="Z475" s="20"/>
+      <c r="AA475" s="16"/>
+      <c r="AB475" s="16"/>
+      <c r="AC475" s="16"/>
+    </row>
+    <row r="476" spans="21:29">
+      <c r="U476" s="18"/>
+      <c r="V476" s="18"/>
+      <c r="W476" s="18"/>
+      <c r="X476" s="20"/>
+      <c r="Y476" s="20"/>
+      <c r="Z476" s="20"/>
+      <c r="AA476" s="16"/>
+      <c r="AB476" s="16"/>
+      <c r="AC476" s="16"/>
+    </row>
+    <row r="477" spans="21:29">
+      <c r="U477" s="18"/>
+      <c r="V477" s="18"/>
+      <c r="W477" s="18"/>
+      <c r="X477" s="20"/>
+      <c r="Y477" s="20"/>
+      <c r="Z477" s="20"/>
+      <c r="AA477" s="16"/>
+      <c r="AB477" s="16"/>
+      <c r="AC477" s="16"/>
+    </row>
+    <row r="478" spans="21:29">
+      <c r="U478" s="18"/>
+      <c r="V478" s="18"/>
+      <c r="W478" s="18"/>
+      <c r="X478" s="20"/>
+      <c r="Y478" s="20"/>
+      <c r="Z478" s="20"/>
+      <c r="AA478" s="16"/>
+      <c r="AB478" s="16"/>
+      <c r="AC478" s="16"/>
+    </row>
+    <row r="479" spans="21:29">
+      <c r="U479" s="18"/>
+      <c r="V479" s="18"/>
+      <c r="W479" s="18"/>
+      <c r="X479" s="20"/>
+      <c r="Y479" s="20"/>
+      <c r="Z479" s="20"/>
+      <c r="AA479" s="16"/>
+      <c r="AB479" s="16"/>
+      <c r="AC479" s="16"/>
+    </row>
+    <row r="480" spans="21:29">
+      <c r="U480" s="18"/>
+      <c r="V480" s="18"/>
+      <c r="W480" s="18"/>
+      <c r="X480" s="20"/>
+      <c r="Y480" s="20"/>
+      <c r="Z480" s="20"/>
+      <c r="AA480" s="16"/>
+      <c r="AB480" s="16"/>
+      <c r="AC480" s="16"/>
+    </row>
+    <row r="481" spans="21:29">
+      <c r="U481" s="18"/>
+      <c r="V481" s="18"/>
+      <c r="W481" s="18"/>
+      <c r="X481" s="20"/>
+      <c r="Y481" s="20"/>
+      <c r="Z481" s="20"/>
+      <c r="AA481" s="16"/>
+      <c r="AB481" s="16"/>
+      <c r="AC481" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2B7825-3826-46FA-A4D9-4CC0CB803733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A8E964-D277-4A82-A56B-0610FA12974D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="267">
   <si>
     <t>英文名稱</t>
   </si>
@@ -1078,6 +1078,26 @@
   </si>
   <si>
     <t>生物戰技-世界繞行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反擊龍焰(落穴)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煌怒-貫通龍焰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煌怒-橫掃龍焰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煌怒-集中龍焰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍焰接觸傷害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1645,11 +1665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:AJ481"/>
+  <dimension ref="A2:AJ488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
+      <pane ySplit="7" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4211,39 +4231,39 @@
         <v>0</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" ref="L26:L165" si="271">E26*I26</f>
+        <f t="shared" ref="L26:L172" si="271">E26*I26</f>
         <v>448</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" ref="M26:M165" si="272">E26*J26</f>
+        <f t="shared" ref="M26:M172" si="272">E26*J26</f>
         <v>672</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" ref="N26:N165" si="273">E26*K26</f>
+        <f t="shared" ref="N26:N172" si="273">E26*K26</f>
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" ref="O26:O165" si="274">F26*I26</f>
+        <f t="shared" ref="O26:O172" si="274">F26*I26</f>
         <v>602</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" ref="P26:P165" si="275">F26*J26</f>
+        <f t="shared" ref="P26:P172" si="275">F26*J26</f>
         <v>903</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" ref="Q26:Q165" si="276">F26*K26</f>
+        <f t="shared" ref="Q26:Q172" si="276">F26*K26</f>
         <v>0</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" ref="R26:R165" si="277">H26*I26</f>
+        <f t="shared" ref="R26:R172" si="277">H26*I26</f>
         <v>280</v>
       </c>
       <c r="S26" s="19">
-        <f t="shared" ref="S26:S165" si="278">H26*J26</f>
+        <f t="shared" ref="S26:S172" si="278">H26*J26</f>
         <v>420</v>
       </c>
       <c r="T26" s="19">
-        <f t="shared" ref="T26:T165" si="279">H26*K26</f>
+        <f t="shared" ref="T26:T172" si="279">H26*K26</f>
         <v>0</v>
       </c>
       <c r="U26" s="18">
@@ -4251,59 +4271,59 @@
         <v>0.22123456790123455</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" ref="V26:V165" si="280">M26*$G$3/$E$3</f>
+        <f t="shared" ref="V26:V172" si="280">M26*$G$3/$E$3</f>
         <v>0.33185185185185179</v>
       </c>
       <c r="W26" s="18">
-        <f t="shared" ref="W26:W165" si="281">N26*$G$3/$E$3</f>
+        <f t="shared" ref="W26:W172" si="281">N26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X26" s="20">
-        <f t="shared" ref="X26:X165" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="X26:X172" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.13827160493827159</v>
       </c>
       <c r="Y26" s="20">
-        <f t="shared" ref="Y26:Y165" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Y26:Y172" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.2074074074074074</v>
       </c>
       <c r="Z26" s="20">
-        <f t="shared" ref="Z26:Z165" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Z26:Z172" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA26" s="16">
-        <f t="shared" ref="AA26:AA165" si="285">O26*$G$3/$E$3</f>
+        <f t="shared" ref="AA26:AA172" si="285">O26*$G$3/$E$3</f>
         <v>0.29728395061728391</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" ref="AB26:AB165" si="286">P26*$G$3/$E$3</f>
+        <f t="shared" ref="AB26:AB172" si="286">P26*$G$3/$E$3</f>
         <v>0.44592592592592589</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" ref="AC26:AC165" si="287">Q26*$G$3/$E$3</f>
+        <f t="shared" ref="AC26:AC172" si="287">Q26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD26" s="17" t="str">
-        <f t="shared" ref="AD26:AD165" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD26:AD172" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AE26" s="17" t="str">
-        <f t="shared" ref="AE26:AE165" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AE26:AE172" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AF26" s="17" t="str">
-        <f t="shared" ref="AF26:AF165" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AF26:AF172" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG26" s="15" t="str">
-        <f t="shared" ref="AG26:AG165" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AG26:AG172" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AH26" s="15" t="str">
-        <f t="shared" ref="AH26:AH165" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AH26:AH172" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AI26" s="15" t="str">
-        <f t="shared" ref="AI26:AI165" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AI26:AI172" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AJ26" s="21"/>
@@ -4379,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" ref="U27:W166" si="294">L27*$G$3/$E$3</f>
+        <f t="shared" ref="U27:W173" si="294">L27*$G$3/$E$3</f>
         <v>5.8074074074074084E-2</v>
       </c>
       <c r="V27" s="18">
@@ -14958,13 +14978,37 @@
       <c r="C111" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="D111" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E111" s="8">
+        <v>24</v>
+      </c>
+      <c r="F111" s="8">
+        <v>33</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H111" s="8">
+        <v>0</v>
+      </c>
+      <c r="I111" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="J111" s="11">
+        <v>13</v>
+      </c>
+      <c r="K111" s="11">
+        <v>0</v>
+      </c>
       <c r="L111" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="M111" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="N111" s="14">
         <f t="shared" si="273"/>
@@ -14972,11 +15016,11 @@
       </c>
       <c r="O111" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>346.5</v>
       </c>
       <c r="P111" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="Q111" s="15">
         <f t="shared" si="276"/>
@@ -14996,11 +15040,11 @@
       </c>
       <c r="U111" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.12444444444444443</v>
       </c>
       <c r="V111" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.15407407407407406</v>
       </c>
       <c r="W111" s="18">
         <f t="shared" si="281"/>
@@ -15020,11 +15064,11 @@
       </c>
       <c r="AA111" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.1711111111111111</v>
       </c>
       <c r="AB111" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.21185185185185185</v>
       </c>
       <c r="AC111" s="16">
         <f t="shared" si="287"/>
@@ -15055,23 +15099,41 @@
         <v>低</v>
       </c>
     </row>
-    <row r="112" spans="1:36">
-      <c r="A112" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>24</v>
+    <row r="112" spans="1:36" s="4" customFormat="1">
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E112" s="8">
+        <v>56</v>
+      </c>
+      <c r="F112" s="8">
+        <v>75</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H112" s="8">
+        <v>40</v>
+      </c>
+      <c r="I112" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="J112" s="11">
+        <v>13</v>
+      </c>
+      <c r="K112" s="11">
+        <v>0</v>
       </c>
       <c r="L112" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="M112" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="N112" s="14">
         <f t="shared" si="273"/>
@@ -15079,11 +15141,11 @@
       </c>
       <c r="O112" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>787.5</v>
       </c>
       <c r="P112" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="Q112" s="15">
         <f t="shared" si="276"/>
@@ -15091,11 +15153,11 @@
       </c>
       <c r="R112" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="S112" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="T112" s="19">
         <f t="shared" si="279"/>
@@ -15103,11 +15165,11 @@
       </c>
       <c r="U112" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.29037037037037033</v>
       </c>
       <c r="V112" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.35950617283950614</v>
       </c>
       <c r="W112" s="18">
         <f t="shared" si="281"/>
@@ -15115,11 +15177,11 @@
       </c>
       <c r="X112" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>0.2074074074074074</v>
       </c>
       <c r="Y112" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.25679012345679014</v>
       </c>
       <c r="Z112" s="20">
         <f t="shared" si="284"/>
@@ -15127,11 +15189,11 @@
       </c>
       <c r="AA112" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.38888888888888884</v>
       </c>
       <c r="AB112" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.48148148148148145</v>
       </c>
       <c r="AC112" s="16">
         <f t="shared" si="287"/>
@@ -15139,11 +15201,11 @@
       </c>
       <c r="AD112" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AE112" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF112" s="17" t="str">
         <f t="shared" si="290"/>
@@ -15151,34 +15213,53 @@
       </c>
       <c r="AG112" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH112" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI112" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="113" spans="1:35">
-      <c r="A113" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>25</v>
+      <c r="AJ112" s="21"/>
+    </row>
+    <row r="113" spans="1:36" s="4" customFormat="1">
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E113" s="8">
+        <v>73</v>
+      </c>
+      <c r="F113" s="8">
+        <v>101</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H113" s="8">
+        <v>0</v>
+      </c>
+      <c r="I113" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="J113" s="11">
+        <v>13</v>
+      </c>
+      <c r="K113" s="11">
+        <v>0</v>
       </c>
       <c r="L113" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>766.5</v>
       </c>
       <c r="M113" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>949</v>
       </c>
       <c r="N113" s="14">
         <f t="shared" si="273"/>
@@ -15186,11 +15267,11 @@
       </c>
       <c r="O113" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>1060.5</v>
       </c>
       <c r="P113" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1313</v>
       </c>
       <c r="Q113" s="15">
         <f t="shared" si="276"/>
@@ -15210,11 +15291,11 @@
       </c>
       <c r="U113" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.37851851851851848</v>
       </c>
       <c r="V113" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.46864197530864193</v>
       </c>
       <c r="W113" s="18">
         <f t="shared" si="281"/>
@@ -15234,11 +15315,11 @@
       </c>
       <c r="AA113" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.52370370370370367</v>
       </c>
       <c r="AB113" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.64839506172839501</v>
       </c>
       <c r="AC113" s="16">
         <f t="shared" si="287"/>
@@ -15246,11 +15327,11 @@
       </c>
       <c r="AD113" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE113" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF113" s="17" t="str">
         <f t="shared" si="290"/>
@@ -15258,34 +15339,53 @@
       </c>
       <c r="AG113" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH113" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI113" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="114" spans="1:35">
-      <c r="A114" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>26</v>
+      <c r="AJ113" s="21"/>
+    </row>
+    <row r="114" spans="1:36" s="4" customFormat="1">
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E114" s="8">
+        <v>56</v>
+      </c>
+      <c r="F114" s="8">
+        <v>75</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H114" s="8">
+        <v>40</v>
+      </c>
+      <c r="I114" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="J114" s="11">
+        <v>13</v>
+      </c>
+      <c r="K114" s="11">
+        <v>0</v>
       </c>
       <c r="L114" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="M114" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="N114" s="14">
         <f t="shared" si="273"/>
@@ -15293,11 +15393,11 @@
       </c>
       <c r="O114" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>787.5</v>
       </c>
       <c r="P114" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="Q114" s="15">
         <f t="shared" si="276"/>
@@ -15305,11 +15405,11 @@
       </c>
       <c r="R114" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="S114" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="T114" s="19">
         <f t="shared" si="279"/>
@@ -15317,11 +15417,11 @@
       </c>
       <c r="U114" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.29037037037037033</v>
       </c>
       <c r="V114" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.35950617283950614</v>
       </c>
       <c r="W114" s="18">
         <f t="shared" si="281"/>
@@ -15329,11 +15429,11 @@
       </c>
       <c r="X114" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>0.2074074074074074</v>
       </c>
       <c r="Y114" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.25679012345679014</v>
       </c>
       <c r="Z114" s="20">
         <f t="shared" si="284"/>
@@ -15341,11 +15441,11 @@
       </c>
       <c r="AA114" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.38888888888888884</v>
       </c>
       <c r="AB114" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.48148148148148145</v>
       </c>
       <c r="AC114" s="16">
         <f t="shared" si="287"/>
@@ -15353,11 +15453,11 @@
       </c>
       <c r="AD114" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AE114" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF114" s="17" t="str">
         <f t="shared" si="290"/>
@@ -15365,34 +15465,53 @@
       </c>
       <c r="AG114" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH114" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI114" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="115" spans="1:35">
-      <c r="A115" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>27</v>
+      <c r="AJ114" s="21"/>
+    </row>
+    <row r="115" spans="1:36" s="4" customFormat="1">
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E115" s="8">
+        <v>72</v>
+      </c>
+      <c r="F115" s="8">
+        <v>98</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H115" s="8">
+        <v>45</v>
+      </c>
+      <c r="I115" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="J115" s="11">
+        <v>13</v>
+      </c>
+      <c r="K115" s="11">
+        <v>0</v>
       </c>
       <c r="L115" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="M115" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="N115" s="14">
         <f t="shared" si="273"/>
@@ -15400,11 +15519,11 @@
       </c>
       <c r="O115" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="P115" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1274</v>
       </c>
       <c r="Q115" s="15">
         <f t="shared" si="276"/>
@@ -15412,11 +15531,11 @@
       </c>
       <c r="R115" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>472.5</v>
       </c>
       <c r="S115" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="T115" s="19">
         <f t="shared" si="279"/>
@@ -15424,11 +15543,11 @@
       </c>
       <c r="U115" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.37333333333333335</v>
       </c>
       <c r="V115" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.4622222222222222</v>
       </c>
       <c r="W115" s="18">
         <f t="shared" si="281"/>
@@ -15436,11 +15555,11 @@
       </c>
       <c r="X115" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="Y115" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="Z115" s="20">
         <f t="shared" si="284"/>
@@ -15448,11 +15567,11 @@
       </c>
       <c r="AA115" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.50814814814814813</v>
       </c>
       <c r="AB115" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.62913580246913581</v>
       </c>
       <c r="AC115" s="16">
         <f t="shared" si="287"/>
@@ -15460,11 +15579,11 @@
       </c>
       <c r="AD115" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AE115" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF115" s="17" t="str">
         <f t="shared" si="290"/>
@@ -15472,34 +15591,53 @@
       </c>
       <c r="AG115" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH115" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI115" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="116" spans="1:35">
-      <c r="A116" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>28</v>
+      <c r="AJ115" s="21"/>
+    </row>
+    <row r="116" spans="1:36" s="4" customFormat="1">
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E116" s="8">
+        <v>64</v>
+      </c>
+      <c r="F116" s="8">
+        <v>87</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H116" s="8">
+        <v>40</v>
+      </c>
+      <c r="I116" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="J116" s="11">
+        <v>13</v>
+      </c>
+      <c r="K116" s="11">
+        <v>0</v>
       </c>
       <c r="L116" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="M116" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="N116" s="14">
         <f t="shared" si="273"/>
@@ -15507,11 +15645,11 @@
       </c>
       <c r="O116" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>913.5</v>
       </c>
       <c r="P116" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="Q116" s="15">
         <f t="shared" si="276"/>
@@ -15519,11 +15657,11 @@
       </c>
       <c r="R116" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="S116" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="T116" s="19">
         <f t="shared" si="279"/>
@@ -15531,11 +15669,11 @@
       </c>
       <c r="U116" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.33185185185185179</v>
       </c>
       <c r="V116" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.41086419753086417</v>
       </c>
       <c r="W116" s="18">
         <f t="shared" si="281"/>
@@ -15543,11 +15681,11 @@
       </c>
       <c r="X116" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>0.2074074074074074</v>
       </c>
       <c r="Y116" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.25679012345679014</v>
       </c>
       <c r="Z116" s="20">
         <f t="shared" si="284"/>
@@ -15555,11 +15693,11 @@
       </c>
       <c r="AA116" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.45111111111111107</v>
       </c>
       <c r="AB116" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.55851851851851853</v>
       </c>
       <c r="AC116" s="16">
         <f t="shared" si="287"/>
@@ -15567,11 +15705,11 @@
       </c>
       <c r="AD116" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AE116" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF116" s="17" t="str">
         <f t="shared" si="290"/>
@@ -15579,34 +15717,53 @@
       </c>
       <c r="AG116" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH116" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI116" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="117" spans="1:35">
-      <c r="A117" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>29</v>
+      <c r="AJ116" s="21"/>
+    </row>
+    <row r="117" spans="1:36" s="4" customFormat="1">
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E117" s="8">
+        <v>56</v>
+      </c>
+      <c r="F117" s="8">
+        <v>75</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H117" s="8">
+        <v>40</v>
+      </c>
+      <c r="I117" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="J117" s="11">
+        <v>13</v>
+      </c>
+      <c r="K117" s="11">
+        <v>0</v>
       </c>
       <c r="L117" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="M117" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="N117" s="14">
         <f t="shared" si="273"/>
@@ -15614,11 +15771,11 @@
       </c>
       <c r="O117" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>787.5</v>
       </c>
       <c r="P117" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>975</v>
       </c>
       <c r="Q117" s="15">
         <f t="shared" si="276"/>
@@ -15626,11 +15783,11 @@
       </c>
       <c r="R117" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="S117" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="T117" s="19">
         <f t="shared" si="279"/>
@@ -15638,11 +15795,11 @@
       </c>
       <c r="U117" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.29037037037037033</v>
       </c>
       <c r="V117" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.35950617283950614</v>
       </c>
       <c r="W117" s="18">
         <f t="shared" si="281"/>
@@ -15650,11 +15807,11 @@
       </c>
       <c r="X117" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>0.2074074074074074</v>
       </c>
       <c r="Y117" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.25679012345679014</v>
       </c>
       <c r="Z117" s="20">
         <f t="shared" si="284"/>
@@ -15662,11 +15819,11 @@
       </c>
       <c r="AA117" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.38888888888888884</v>
       </c>
       <c r="AB117" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.48148148148148145</v>
       </c>
       <c r="AC117" s="16">
         <f t="shared" si="287"/>
@@ -15674,11 +15831,11 @@
       </c>
       <c r="AD117" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AE117" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF117" s="17" t="str">
         <f t="shared" si="290"/>
@@ -15686,34 +15843,53 @@
       </c>
       <c r="AG117" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH117" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI117" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="118" spans="1:35">
-      <c r="A118" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>31</v>
+      <c r="AJ117" s="21"/>
+    </row>
+    <row r="118" spans="1:36" s="4" customFormat="1">
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E118" s="8">
+        <v>4</v>
+      </c>
+      <c r="F118" s="8">
+        <v>6</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H118" s="8">
+        <v>6</v>
+      </c>
+      <c r="I118" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="J118" s="11">
+        <v>13</v>
+      </c>
+      <c r="K118" s="11">
+        <v>0</v>
       </c>
       <c r="L118" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M118" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N118" s="14">
         <f t="shared" si="273"/>
@@ -15721,11 +15897,11 @@
       </c>
       <c r="O118" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="P118" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="Q118" s="15">
         <f t="shared" si="276"/>
@@ -15733,11 +15909,11 @@
       </c>
       <c r="R118" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="S118" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="T118" s="19">
         <f t="shared" si="279"/>
@@ -15745,11 +15921,11 @@
       </c>
       <c r="U118" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>2.0740740740740737E-2</v>
       </c>
       <c r="V118" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>2.5679012345679011E-2</v>
       </c>
       <c r="W118" s="18">
         <f t="shared" si="281"/>
@@ -15757,11 +15933,11 @@
       </c>
       <c r="X118" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>3.1111111111111107E-2</v>
       </c>
       <c r="Y118" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>3.8518518518518514E-2</v>
       </c>
       <c r="Z118" s="20">
         <f t="shared" si="284"/>
@@ -15769,11 +15945,11 @@
       </c>
       <c r="AA118" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>3.1111111111111107E-2</v>
       </c>
       <c r="AB118" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>3.8518518518518514E-2</v>
       </c>
       <c r="AC118" s="16">
         <f t="shared" si="287"/>
@@ -15803,16 +15979,17 @@
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="119" spans="1:35">
+      <c r="AJ118" s="21"/>
+    </row>
+    <row r="119" spans="1:36">
       <c r="A119" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L119" s="14">
         <f t="shared" si="271"/>
@@ -15911,15 +16088,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="120" spans="1:35">
+    <row r="120" spans="1:36">
       <c r="A120" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L120" s="14">
         <f t="shared" si="271"/>
@@ -16018,15 +16195,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="121" spans="1:35">
+    <row r="121" spans="1:36">
       <c r="A121" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L121" s="14">
         <f t="shared" si="271"/>
@@ -16125,15 +16302,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="122" spans="1:35">
+    <row r="122" spans="1:36">
       <c r="A122" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="L122" s="14">
         <f t="shared" si="271"/>
@@ -16232,15 +16409,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="123" spans="1:35">
+    <row r="123" spans="1:36">
       <c r="A123" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L123" s="14">
         <f t="shared" si="271"/>
@@ -16339,15 +16516,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="124" spans="1:35">
+    <row r="124" spans="1:36">
       <c r="A124" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L124" s="14">
         <f t="shared" si="271"/>
@@ -16446,15 +16623,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="125" spans="1:35">
+    <row r="125" spans="1:36">
       <c r="A125" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L125" s="14">
         <f t="shared" si="271"/>
@@ -16553,15 +16730,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="126" spans="1:35">
+    <row r="126" spans="1:36">
       <c r="A126" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L126" s="14">
         <f t="shared" si="271"/>
@@ -16660,15 +16837,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="127" spans="1:35">
+    <row r="127" spans="1:36">
       <c r="A127" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L127" s="14">
         <f t="shared" si="271"/>
@@ -16767,15 +16944,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="128" spans="1:35">
+    <row r="128" spans="1:36">
       <c r="A128" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L128" s="14">
         <f t="shared" si="271"/>
@@ -16876,13 +17053,13 @@
     </row>
     <row r="129" spans="1:35">
       <c r="A129" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L129" s="14">
         <f t="shared" si="271"/>
@@ -16983,13 +17160,13 @@
     </row>
     <row r="130" spans="1:35">
       <c r="A130" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="L130" s="14">
         <f t="shared" si="271"/>
@@ -17090,13 +17267,13 @@
     </row>
     <row r="131" spans="1:35">
       <c r="A131" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L131" s="14">
         <f t="shared" si="271"/>
@@ -17197,13 +17374,13 @@
     </row>
     <row r="132" spans="1:35">
       <c r="A132" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L132" s="14">
         <f t="shared" si="271"/>
@@ -17304,13 +17481,13 @@
     </row>
     <row r="133" spans="1:35">
       <c r="A133" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L133" s="14">
         <f t="shared" si="271"/>
@@ -17411,13 +17588,13 @@
     </row>
     <row r="134" spans="1:35">
       <c r="A134" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L134" s="14">
         <f t="shared" si="271"/>
@@ -17518,13 +17695,13 @@
     </row>
     <row r="135" spans="1:35">
       <c r="A135" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L135" s="14">
         <f t="shared" si="271"/>
@@ -17628,10 +17805,10 @@
         <v>43</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L136" s="14">
         <f t="shared" si="271"/>
@@ -17735,10 +17912,10 @@
         <v>43</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="L137" s="14">
         <f t="shared" si="271"/>
@@ -17842,10 +18019,10 @@
         <v>43</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L138" s="14">
         <f t="shared" si="271"/>
@@ -17949,10 +18126,10 @@
         <v>43</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L139" s="14">
         <f t="shared" si="271"/>
@@ -18056,10 +18233,10 @@
         <v>43</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L140" s="14">
         <f t="shared" si="271"/>
@@ -18163,10 +18340,10 @@
         <v>43</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L141" s="14">
         <f t="shared" si="271"/>
@@ -18270,10 +18447,10 @@
         <v>43</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="L142" s="14">
         <f t="shared" si="271"/>
@@ -18377,10 +18554,10 @@
         <v>43</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L143" s="14">
         <f t="shared" si="271"/>
@@ -18484,10 +18661,10 @@
         <v>43</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L144" s="14">
         <f t="shared" si="271"/>
@@ -18591,10 +18768,10 @@
         <v>43</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L145" s="14">
         <f t="shared" si="271"/>
@@ -18698,10 +18875,10 @@
         <v>43</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L146" s="14">
         <f t="shared" si="271"/>
@@ -18805,10 +18982,10 @@
         <v>43</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L147" s="14">
         <f t="shared" si="271"/>
@@ -18909,13 +19086,13 @@
     </row>
     <row r="148" spans="1:35">
       <c r="A148" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L148" s="14">
         <f t="shared" si="271"/>
@@ -19016,13 +19193,13 @@
     </row>
     <row r="149" spans="1:35">
       <c r="A149" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L149" s="14">
         <f t="shared" si="271"/>
@@ -19123,13 +19300,13 @@
     </row>
     <row r="150" spans="1:35">
       <c r="A150" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L150" s="14">
         <f t="shared" si="271"/>
@@ -19230,13 +19407,13 @@
     </row>
     <row r="151" spans="1:35">
       <c r="A151" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="L151" s="14">
         <f t="shared" si="271"/>
@@ -19337,13 +19514,13 @@
     </row>
     <row r="152" spans="1:35">
       <c r="A152" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L152" s="14">
         <f t="shared" si="271"/>
@@ -19444,13 +19621,13 @@
     </row>
     <row r="153" spans="1:35">
       <c r="A153" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L153" s="14">
         <f t="shared" si="271"/>
@@ -19551,13 +19728,13 @@
     </row>
     <row r="154" spans="1:35">
       <c r="A154" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L154" s="14">
         <f t="shared" si="271"/>
@@ -19658,13 +19835,13 @@
     </row>
     <row r="155" spans="1:35">
       <c r="A155" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L155" s="14">
         <f t="shared" si="271"/>
@@ -19765,13 +19942,13 @@
     </row>
     <row r="156" spans="1:35">
       <c r="A156" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L156" s="14">
         <f t="shared" si="271"/>
@@ -19872,13 +20049,13 @@
     </row>
     <row r="157" spans="1:35">
       <c r="A157" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L157" s="14">
         <f t="shared" si="271"/>
@@ -19982,10 +20159,10 @@
         <v>67</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L158" s="14">
         <f t="shared" si="271"/>
@@ -20089,10 +20266,10 @@
         <v>67</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L159" s="14">
         <f t="shared" si="271"/>
@@ -20196,10 +20373,10 @@
         <v>67</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L160" s="14">
         <f t="shared" si="271"/>
@@ -20303,10 +20480,10 @@
         <v>67</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L161" s="14">
         <f t="shared" si="271"/>
@@ -20410,10 +20587,10 @@
         <v>67</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="L162" s="14">
         <f t="shared" si="271"/>
@@ -20517,10 +20694,10 @@
         <v>67</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L163" s="14">
         <f t="shared" si="271"/>
@@ -20624,10 +20801,10 @@
         <v>67</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L164" s="14">
         <f t="shared" si="271"/>
@@ -20731,10 +20908,10 @@
         <v>67</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L165" s="14">
         <f t="shared" si="271"/>
@@ -20838,45 +21015,45 @@
         <v>67</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L166" s="14">
-        <f t="shared" ref="L166:L169" si="555">E166*I166</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M166" s="14">
-        <f t="shared" ref="M166:M169" si="556">E166*J166</f>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N166" s="14">
-        <f t="shared" ref="N166:N169" si="557">E166*K166</f>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O166" s="15">
-        <f t="shared" ref="O166:O169" si="558">F166*I166</f>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P166" s="15">
-        <f t="shared" ref="P166:P169" si="559">F166*J166</f>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q166" s="15">
-        <f t="shared" ref="Q166:Q169" si="560">F166*K166</f>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R166" s="19">
-        <f t="shared" ref="R166:R169" si="561">H166*I166</f>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S166" s="19">
-        <f t="shared" ref="S166:S169" si="562">H166*J166</f>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T166" s="19">
-        <f t="shared" ref="T166:T169" si="563">H166*K166</f>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U166" s="18">
@@ -20884,59 +21061,59 @@
         <v>0</v>
       </c>
       <c r="V166" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W166" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X166" s="20">
-        <f t="shared" ref="X166:Z169" si="564">R166*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y166" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z166" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA166" s="16">
-        <f t="shared" ref="AA166:AC169" si="565">O166*$G$3/$E$3</f>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB166" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC166" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD166" s="17" t="str">
-        <f t="shared" ref="AD166:AI169" si="566">IF((U166+X166)&lt;($J$4/2),"低",IF((U166+X166)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE166" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF166" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG166" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH166" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI166" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="293"/>
         <v>低</v>
       </c>
     </row>
@@ -20945,1103 +21122,1166 @@
         <v>67</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L167" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M167" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N167" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O167" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P167" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q167" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R167" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S167" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T167" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U167" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V167" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W167" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X167" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y167" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z167" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA167" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB167" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC167" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD167" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE167" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF167" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG167" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH167" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI167" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="168" spans="1:35">
+      <c r="A168" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L168" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M168" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N168" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O168" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P168" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q168" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R168" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S168" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T168" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U168" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V168" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W168" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X168" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y168" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z168" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA168" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB168" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC168" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD168" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE168" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF168" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG168" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH168" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI168" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="169" spans="1:35">
+      <c r="A169" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L169" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M169" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N169" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O169" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P169" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q169" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R169" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S169" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T169" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U169" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V169" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W169" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X169" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y169" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z169" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA169" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB169" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC169" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD169" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE169" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF169" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG169" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH169" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI169" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="170" spans="1:35">
+      <c r="A170" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L170" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M170" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N170" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O170" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P170" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q170" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R170" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S170" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T170" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U170" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V170" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W170" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X170" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y170" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z170" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA170" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB170" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC170" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD170" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE170" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF170" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG170" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH170" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI170" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="171" spans="1:35">
+      <c r="A171" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L171" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M171" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N171" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O171" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P171" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q171" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R171" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S171" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T171" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U171" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V171" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W171" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X171" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y171" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z171" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA171" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB171" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC171" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD171" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE171" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF171" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG171" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH171" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI171" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="172" spans="1:35">
+      <c r="A172" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L172" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M172" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N172" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O172" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P172" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q172" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R172" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S172" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T172" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U172" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V172" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W172" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X172" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y172" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z172" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA172" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB172" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC172" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD172" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE172" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF172" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG172" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH172" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI172" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="173" spans="1:35">
+      <c r="A173" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L173" s="14">
+        <f t="shared" ref="L173:L176" si="555">E173*I173</f>
+        <v>0</v>
+      </c>
+      <c r="M173" s="14">
+        <f t="shared" ref="M173:M176" si="556">E173*J173</f>
+        <v>0</v>
+      </c>
+      <c r="N173" s="14">
+        <f t="shared" ref="N173:N176" si="557">E173*K173</f>
+        <v>0</v>
+      </c>
+      <c r="O173" s="15">
+        <f t="shared" ref="O173:O176" si="558">F173*I173</f>
+        <v>0</v>
+      </c>
+      <c r="P173" s="15">
+        <f t="shared" ref="P173:P176" si="559">F173*J173</f>
+        <v>0</v>
+      </c>
+      <c r="Q173" s="15">
+        <f t="shared" ref="Q173:Q176" si="560">F173*K173</f>
+        <v>0</v>
+      </c>
+      <c r="R173" s="19">
+        <f t="shared" ref="R173:R176" si="561">H173*I173</f>
+        <v>0</v>
+      </c>
+      <c r="S173" s="19">
+        <f t="shared" ref="S173:S176" si="562">H173*J173</f>
+        <v>0</v>
+      </c>
+      <c r="T173" s="19">
+        <f t="shared" ref="T173:T176" si="563">H173*K173</f>
+        <v>0</v>
+      </c>
+      <c r="U173" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V173" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="W173" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="X173" s="20">
+        <f t="shared" ref="X173:Z176" si="564">R173*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y173" s="20">
+        <f t="shared" si="564"/>
+        <v>0</v>
+      </c>
+      <c r="Z173" s="20">
+        <f t="shared" si="564"/>
+        <v>0</v>
+      </c>
+      <c r="AA173" s="16">
+        <f t="shared" ref="AA173:AC176" si="565">O173*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB173" s="16">
+        <f t="shared" si="565"/>
+        <v>0</v>
+      </c>
+      <c r="AC173" s="16">
+        <f t="shared" si="565"/>
+        <v>0</v>
+      </c>
+      <c r="AD173" s="17" t="str">
+        <f t="shared" ref="AD173:AI176" si="566">IF((U173+X173)&lt;($J$4/2),"低",IF((U173+X173)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE173" s="17" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AF173" s="17" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AG173" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AH173" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+      <c r="AI173" s="15" t="str">
+        <f t="shared" si="566"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="174" spans="1:35">
+      <c r="A174" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B174" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C174" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="L167" s="14">
+      <c r="L174" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M167" s="14">
+      <c r="M174" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N167" s="14">
+      <c r="N174" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O167" s="15">
+      <c r="O174" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P167" s="15">
+      <c r="P174" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q167" s="15">
+      <c r="Q174" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R167" s="19">
+      <c r="R174" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S167" s="19">
+      <c r="S174" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T167" s="19">
+      <c r="T174" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U167" s="18">
-        <f t="shared" ref="U167:W169" si="567">L167*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="V167" s="18">
+      <c r="U174" s="18">
+        <f t="shared" ref="U174:W176" si="567">L174*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V174" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W167" s="18">
+      <c r="W174" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X167" s="20">
+      <c r="X174" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y167" s="20">
+      <c r="Y174" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z167" s="20">
+      <c r="Z174" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA167" s="16">
+      <c r="AA174" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB167" s="16">
+      <c r="AB174" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC167" s="16">
+      <c r="AC174" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD167" s="17" t="str">
+      <c r="AD174" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE167" s="17" t="str">
+      <c r="AE174" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF167" s="17" t="str">
+      <c r="AF174" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG167" s="15" t="str">
+      <c r="AG174" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH167" s="15" t="str">
+      <c r="AH174" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI167" s="15" t="str">
+      <c r="AI174" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
-    <row r="168" spans="1:35">
-      <c r="A168" s="7" t="s">
+    <row r="175" spans="1:35">
+      <c r="A175" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B175" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C175" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L168" s="14">
+      <c r="L175" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M168" s="14">
+      <c r="M175" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N168" s="14">
+      <c r="N175" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O168" s="15">
+      <c r="O175" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P168" s="15">
+      <c r="P175" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q168" s="15">
+      <c r="Q175" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R168" s="19">
+      <c r="R175" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S168" s="19">
+      <c r="S175" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T168" s="19">
+      <c r="T175" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U168" s="18">
+      <c r="U175" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="V168" s="18">
+      <c r="V175" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W168" s="18">
+      <c r="W175" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X168" s="20">
+      <c r="X175" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y168" s="20">
+      <c r="Y175" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z168" s="20">
+      <c r="Z175" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA168" s="16">
+      <c r="AA175" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB168" s="16">
+      <c r="AB175" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC168" s="16">
+      <c r="AC175" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD168" s="17" t="str">
+      <c r="AD175" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE168" s="17" t="str">
+      <c r="AE175" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF168" s="17" t="str">
+      <c r="AF175" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG168" s="15" t="str">
+      <c r="AG175" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH168" s="15" t="str">
+      <c r="AH175" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI168" s="15" t="str">
+      <c r="AI175" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
     </row>
-    <row r="169" spans="1:35">
-      <c r="A169" s="7" t="s">
+    <row r="176" spans="1:35">
+      <c r="A176" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B176" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C176" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L169" s="14">
+      <c r="L176" s="14">
         <f t="shared" si="555"/>
         <v>0</v>
       </c>
-      <c r="M169" s="14">
+      <c r="M176" s="14">
         <f t="shared" si="556"/>
         <v>0</v>
       </c>
-      <c r="N169" s="14">
+      <c r="N176" s="14">
         <f t="shared" si="557"/>
         <v>0</v>
       </c>
-      <c r="O169" s="15">
+      <c r="O176" s="15">
         <f t="shared" si="558"/>
         <v>0</v>
       </c>
-      <c r="P169" s="15">
+      <c r="P176" s="15">
         <f t="shared" si="559"/>
         <v>0</v>
       </c>
-      <c r="Q169" s="15">
+      <c r="Q176" s="15">
         <f t="shared" si="560"/>
         <v>0</v>
       </c>
-      <c r="R169" s="19">
+      <c r="R176" s="19">
         <f t="shared" si="561"/>
         <v>0</v>
       </c>
-      <c r="S169" s="19">
+      <c r="S176" s="19">
         <f t="shared" si="562"/>
         <v>0</v>
       </c>
-      <c r="T169" s="19">
+      <c r="T176" s="19">
         <f t="shared" si="563"/>
         <v>0</v>
       </c>
-      <c r="U169" s="18">
+      <c r="U176" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="V169" s="18">
+      <c r="V176" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="W169" s="18">
+      <c r="W176" s="18">
         <f t="shared" si="567"/>
         <v>0</v>
       </c>
-      <c r="X169" s="20">
+      <c r="X176" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Y169" s="20">
+      <c r="Y176" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="Z169" s="20">
+      <c r="Z176" s="20">
         <f t="shared" si="564"/>
         <v>0</v>
       </c>
-      <c r="AA169" s="16">
+      <c r="AA176" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AB169" s="16">
+      <c r="AB176" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AC169" s="16">
+      <c r="AC176" s="16">
         <f t="shared" si="565"/>
         <v>0</v>
       </c>
-      <c r="AD169" s="17" t="str">
+      <c r="AD176" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AE169" s="17" t="str">
+      <c r="AE176" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AF169" s="17" t="str">
+      <c r="AF176" s="17" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AG169" s="15" t="str">
+      <c r="AG176" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AH169" s="15" t="str">
+      <c r="AH176" s="15" t="str">
         <f t="shared" si="566"/>
         <v>低</v>
       </c>
-      <c r="AI169" s="15" t="str">
+      <c r="AI176" s="15" t="str">
         <f t="shared" si="566"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="170" spans="1:35">
-      <c r="L170" s="14">
-        <f t="shared" ref="L170:L180" si="568">E170*I170</f>
-        <v>0</v>
-      </c>
-      <c r="M170" s="14">
-        <f t="shared" ref="M170:M180" si="569">E170*J170</f>
-        <v>0</v>
-      </c>
-      <c r="N170" s="14">
-        <f t="shared" ref="N170:N180" si="570">E170*K170</f>
-        <v>0</v>
-      </c>
-      <c r="O170" s="15">
-        <f t="shared" ref="O170:O180" si="571">F170*I170</f>
-        <v>0</v>
-      </c>
-      <c r="P170" s="15">
-        <f t="shared" ref="P170:P180" si="572">F170*J170</f>
-        <v>0</v>
-      </c>
-      <c r="Q170" s="15">
-        <f t="shared" ref="Q170:Q180" si="573">F170*K170</f>
-        <v>0</v>
-      </c>
-      <c r="R170" s="19">
-        <f t="shared" ref="R170:R180" si="574">H170*I170</f>
-        <v>0</v>
-      </c>
-      <c r="S170" s="19">
-        <f t="shared" ref="S170:S180" si="575">H170*J170</f>
-        <v>0</v>
-      </c>
-      <c r="T170" s="19">
-        <f t="shared" ref="T170:T180" si="576">H170*K170</f>
-        <v>0</v>
-      </c>
-      <c r="U170" s="18">
-        <f t="shared" ref="U170:U180" si="577">L170*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="V170" s="18">
-        <f t="shared" ref="V170:V180" si="578">M170*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="W170" s="18">
-        <f t="shared" ref="W170:W180" si="579">N170*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="X170" s="20">
-        <f t="shared" ref="X170:X180" si="580">R170*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="Y170" s="20">
-        <f t="shared" ref="Y170:Y180" si="581">S170*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="Z170" s="20">
-        <f t="shared" ref="Z170:Z180" si="582">T170*$G$3*(1-$H$3)/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AA170" s="16">
-        <f t="shared" ref="AA170:AA180" si="583">O170*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AB170" s="16">
-        <f t="shared" ref="AB170:AB180" si="584">P170*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AC170" s="16">
-        <f t="shared" ref="AC170:AC180" si="585">Q170*$G$3/$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="AD170" s="17" t="str">
-        <f t="shared" ref="AD170:AD180" si="586">IF((U170+X170)&lt;($J$4/2),"低",IF((U170+X170)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AE170" s="17" t="str">
-        <f t="shared" ref="AE170:AE180" si="587">IF((V170+Y170)&lt;($J$4/2),"低",IF((V170+Y170)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AF170" s="17" t="str">
-        <f t="shared" ref="AF170:AF180" si="588">IF((W170+Z170)&lt;($J$4/2),"低",IF((W170+Z170)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AG170" s="15" t="str">
-        <f t="shared" ref="AG170:AG180" si="589">IF((X170+AA170)&lt;($J$4/2),"低",IF((X170+AA170)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AH170" s="15" t="str">
-        <f t="shared" ref="AH170:AH180" si="590">IF((Y170+AB170)&lt;($J$4/2),"低",IF((Y170+AB170)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-      <c r="AI170" s="15" t="str">
-        <f t="shared" ref="AI170:AI180" si="591">IF((Z170+AC170)&lt;($J$4/2),"低",IF((Z170+AC170)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="171" spans="1:35">
-      <c r="L171" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M171" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N171" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O171" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P171" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q171" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R171" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S171" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T171" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U171" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V171" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W171" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X171" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y171" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z171" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA171" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB171" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC171" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD171" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE171" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF171" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG171" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH171" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI171" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="172" spans="1:35">
-      <c r="L172" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M172" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N172" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O172" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P172" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q172" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R172" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S172" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T172" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U172" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V172" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W172" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X172" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y172" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z172" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA172" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB172" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC172" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD172" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE172" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF172" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG172" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH172" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI172" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="173" spans="1:35">
-      <c r="L173" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M173" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N173" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O173" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P173" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q173" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R173" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S173" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T173" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U173" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V173" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W173" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X173" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y173" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z173" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA173" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB173" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC173" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD173" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE173" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF173" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG173" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH173" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI173" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="174" spans="1:35">
-      <c r="L174" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M174" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N174" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O174" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P174" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q174" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R174" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S174" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T174" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U174" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V174" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W174" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X174" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y174" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z174" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA174" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB174" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC174" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD174" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE174" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF174" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG174" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH174" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI174" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="175" spans="1:35">
-      <c r="L175" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M175" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N175" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O175" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P175" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q175" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R175" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S175" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T175" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U175" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V175" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W175" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X175" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y175" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z175" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA175" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB175" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC175" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD175" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE175" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF175" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG175" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH175" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI175" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="176" spans="1:35">
-      <c r="L176" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M176" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N176" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O176" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P176" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q176" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R176" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S176" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T176" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U176" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V176" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W176" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X176" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y176" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z176" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA176" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB176" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC176" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD176" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE176" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF176" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG176" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH176" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI176" s="15" t="str">
-        <f t="shared" si="591"/>
         <v>低</v>
       </c>
     </row>
     <row r="177" spans="12:35">
       <c r="L177" s="14">
-        <f t="shared" si="568"/>
+        <f t="shared" ref="L177:L187" si="568">E177*I177</f>
         <v>0</v>
       </c>
       <c r="M177" s="14">
-        <f t="shared" si="569"/>
+        <f t="shared" ref="M177:M187" si="569">E177*J177</f>
         <v>0</v>
       </c>
       <c r="N177" s="14">
-        <f t="shared" si="570"/>
+        <f t="shared" ref="N177:N187" si="570">E177*K177</f>
         <v>0</v>
       </c>
       <c r="O177" s="15">
-        <f t="shared" si="571"/>
+        <f t="shared" ref="O177:O187" si="571">F177*I177</f>
         <v>0</v>
       </c>
       <c r="P177" s="15">
-        <f t="shared" si="572"/>
+        <f t="shared" ref="P177:P187" si="572">F177*J177</f>
         <v>0</v>
       </c>
       <c r="Q177" s="15">
-        <f t="shared" si="573"/>
+        <f t="shared" ref="Q177:Q187" si="573">F177*K177</f>
         <v>0</v>
       </c>
       <c r="R177" s="19">
-        <f t="shared" si="574"/>
+        <f t="shared" ref="R177:R187" si="574">H177*I177</f>
         <v>0</v>
       </c>
       <c r="S177" s="19">
-        <f t="shared" si="575"/>
+        <f t="shared" ref="S177:S187" si="575">H177*J177</f>
         <v>0</v>
       </c>
       <c r="T177" s="19">
-        <f t="shared" si="576"/>
+        <f t="shared" ref="T177:T187" si="576">H177*K177</f>
         <v>0</v>
       </c>
       <c r="U177" s="18">
-        <f t="shared" si="577"/>
+        <f t="shared" ref="U177:U187" si="577">L177*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="V177" s="18">
-        <f t="shared" si="578"/>
+        <f t="shared" ref="V177:V187" si="578">M177*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="W177" s="18">
-        <f t="shared" si="579"/>
+        <f t="shared" ref="W177:W187" si="579">N177*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X177" s="20">
-        <f t="shared" si="580"/>
+        <f t="shared" ref="X177:X187" si="580">R177*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Y177" s="20">
-        <f t="shared" si="581"/>
+        <f t="shared" ref="Y177:Y187" si="581">S177*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="Z177" s="20">
-        <f t="shared" si="582"/>
+        <f t="shared" ref="Z177:Z187" si="582">T177*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA177" s="16">
-        <f t="shared" si="583"/>
+        <f t="shared" ref="AA177:AA187" si="583">O177*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AB177" s="16">
-        <f t="shared" si="584"/>
+        <f t="shared" ref="AB177:AB187" si="584">P177*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AC177" s="16">
-        <f t="shared" si="585"/>
+        <f t="shared" ref="AC177:AC187" si="585">Q177*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD177" s="17" t="str">
-        <f t="shared" si="586"/>
+        <f t="shared" ref="AD177:AD187" si="586">IF((U177+X177)&lt;($J$4/2),"低",IF((U177+X177)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE177" s="17" t="str">
-        <f t="shared" si="587"/>
+        <f t="shared" ref="AE177:AE187" si="587">IF((V177+Y177)&lt;($J$4/2),"低",IF((V177+Y177)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AF177" s="17" t="str">
-        <f t="shared" si="588"/>
+        <f t="shared" ref="AF177:AF187" si="588">IF((W177+Z177)&lt;($J$4/2),"低",IF((W177+Z177)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG177" s="15" t="str">
-        <f t="shared" si="589"/>
+        <f t="shared" ref="AG177:AG187" si="589">IF((X177+AA177)&lt;($J$4/2),"低",IF((X177+AA177)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AH177" s="15" t="str">
-        <f t="shared" si="590"/>
+        <f t="shared" ref="AH177:AH187" si="590">IF((Y177+AB177)&lt;($J$4/2),"低",IF((Y177+AB177)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AI177" s="15" t="str">
-        <f t="shared" si="591"/>
+        <f t="shared" ref="AI177:AI187" si="591">IF((Z177+AC177)&lt;($J$4/2),"低",IF((Z177+AC177)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
     </row>
@@ -22340,81 +22580,690 @@
       </c>
     </row>
     <row r="181" spans="12:35">
-      <c r="U181" s="18"/>
-      <c r="V181" s="18"/>
-      <c r="W181" s="18"/>
-      <c r="X181" s="20"/>
-      <c r="Y181" s="20"/>
-      <c r="Z181" s="20"/>
-      <c r="AA181" s="16"/>
-      <c r="AB181" s="16"/>
-      <c r="AC181" s="16"/>
+      <c r="L181" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M181" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N181" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O181" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P181" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q181" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R181" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S181" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T181" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U181" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V181" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W181" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X181" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y181" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z181" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA181" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB181" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC181" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD181" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE181" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF181" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG181" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH181" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI181" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
     </row>
     <row r="182" spans="12:35">
-      <c r="U182" s="18"/>
-      <c r="V182" s="18"/>
-      <c r="W182" s="18"/>
-      <c r="X182" s="20"/>
-      <c r="Y182" s="20"/>
-      <c r="Z182" s="20"/>
-      <c r="AA182" s="16"/>
-      <c r="AB182" s="16"/>
-      <c r="AC182" s="16"/>
+      <c r="L182" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M182" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N182" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O182" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P182" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q182" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R182" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S182" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T182" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U182" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V182" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W182" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X182" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y182" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z182" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA182" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB182" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC182" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD182" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE182" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF182" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG182" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH182" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI182" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
     </row>
     <row r="183" spans="12:35">
-      <c r="U183" s="18"/>
-      <c r="V183" s="18"/>
-      <c r="W183" s="18"/>
-      <c r="X183" s="20"/>
-      <c r="Y183" s="20"/>
-      <c r="Z183" s="20"/>
-      <c r="AA183" s="16"/>
-      <c r="AB183" s="16"/>
-      <c r="AC183" s="16"/>
+      <c r="L183" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M183" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N183" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O183" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P183" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q183" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R183" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S183" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T183" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U183" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V183" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W183" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X183" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y183" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z183" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA183" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB183" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC183" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD183" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE183" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF183" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG183" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH183" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI183" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
     </row>
     <row r="184" spans="12:35">
-      <c r="U184" s="18"/>
-      <c r="V184" s="18"/>
-      <c r="W184" s="18"/>
-      <c r="X184" s="20"/>
-      <c r="Y184" s="20"/>
-      <c r="Z184" s="20"/>
-      <c r="AA184" s="16"/>
-      <c r="AB184" s="16"/>
-      <c r="AC184" s="16"/>
+      <c r="L184" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M184" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N184" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O184" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P184" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q184" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R184" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S184" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T184" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U184" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V184" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W184" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X184" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y184" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z184" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA184" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB184" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC184" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD184" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE184" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF184" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG184" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH184" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI184" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
     </row>
     <row r="185" spans="12:35">
-      <c r="U185" s="18"/>
-      <c r="V185" s="18"/>
-      <c r="W185" s="18"/>
-      <c r="X185" s="20"/>
-      <c r="Y185" s="20"/>
-      <c r="Z185" s="20"/>
-      <c r="AA185" s="16"/>
-      <c r="AB185" s="16"/>
-      <c r="AC185" s="16"/>
+      <c r="L185" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M185" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N185" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O185" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P185" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q185" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R185" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S185" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T185" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U185" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V185" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W185" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X185" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y185" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z185" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA185" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB185" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC185" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD185" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE185" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF185" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG185" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH185" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI185" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
     </row>
     <row r="186" spans="12:35">
-      <c r="U186" s="18"/>
-      <c r="V186" s="18"/>
-      <c r="W186" s="18"/>
-      <c r="X186" s="20"/>
-      <c r="Y186" s="20"/>
-      <c r="Z186" s="20"/>
-      <c r="AA186" s="16"/>
-      <c r="AB186" s="16"/>
-      <c r="AC186" s="16"/>
+      <c r="L186" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M186" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N186" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O186" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P186" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q186" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R186" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S186" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T186" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U186" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V186" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W186" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X186" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y186" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z186" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA186" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB186" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC186" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD186" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE186" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF186" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG186" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH186" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI186" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
     </row>
     <row r="187" spans="12:35">
-      <c r="U187" s="18"/>
-      <c r="V187" s="18"/>
-      <c r="W187" s="18"/>
-      <c r="X187" s="20"/>
-      <c r="Y187" s="20"/>
-      <c r="Z187" s="20"/>
-      <c r="AA187" s="16"/>
-      <c r="AB187" s="16"/>
-      <c r="AC187" s="16"/>
+      <c r="L187" s="14">
+        <f t="shared" si="568"/>
+        <v>0</v>
+      </c>
+      <c r="M187" s="14">
+        <f t="shared" si="569"/>
+        <v>0</v>
+      </c>
+      <c r="N187" s="14">
+        <f t="shared" si="570"/>
+        <v>0</v>
+      </c>
+      <c r="O187" s="15">
+        <f t="shared" si="571"/>
+        <v>0</v>
+      </c>
+      <c r="P187" s="15">
+        <f t="shared" si="572"/>
+        <v>0</v>
+      </c>
+      <c r="Q187" s="15">
+        <f t="shared" si="573"/>
+        <v>0</v>
+      </c>
+      <c r="R187" s="19">
+        <f t="shared" si="574"/>
+        <v>0</v>
+      </c>
+      <c r="S187" s="19">
+        <f t="shared" si="575"/>
+        <v>0</v>
+      </c>
+      <c r="T187" s="19">
+        <f t="shared" si="576"/>
+        <v>0</v>
+      </c>
+      <c r="U187" s="18">
+        <f t="shared" si="577"/>
+        <v>0</v>
+      </c>
+      <c r="V187" s="18">
+        <f t="shared" si="578"/>
+        <v>0</v>
+      </c>
+      <c r="W187" s="18">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="X187" s="20">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="Y187" s="20">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="Z187" s="20">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="AA187" s="16">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="AB187" s="16">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="AC187" s="16">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="AD187" s="17" t="str">
+        <f t="shared" si="586"/>
+        <v>低</v>
+      </c>
+      <c r="AE187" s="17" t="str">
+        <f t="shared" si="587"/>
+        <v>低</v>
+      </c>
+      <c r="AF187" s="17" t="str">
+        <f t="shared" si="588"/>
+        <v>低</v>
+      </c>
+      <c r="AG187" s="15" t="str">
+        <f t="shared" si="589"/>
+        <v>低</v>
+      </c>
+      <c r="AH187" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI187" s="15" t="str">
+        <f t="shared" si="591"/>
+        <v>低</v>
+      </c>
     </row>
     <row r="188" spans="12:35">
       <c r="U188" s="18"/>
@@ -25649,6 +26498,83 @@
       <c r="AA481" s="16"/>
       <c r="AB481" s="16"/>
       <c r="AC481" s="16"/>
+    </row>
+    <row r="482" spans="21:29">
+      <c r="U482" s="18"/>
+      <c r="V482" s="18"/>
+      <c r="W482" s="18"/>
+      <c r="X482" s="20"/>
+      <c r="Y482" s="20"/>
+      <c r="Z482" s="20"/>
+      <c r="AA482" s="16"/>
+      <c r="AB482" s="16"/>
+      <c r="AC482" s="16"/>
+    </row>
+    <row r="483" spans="21:29">
+      <c r="U483" s="18"/>
+      <c r="V483" s="18"/>
+      <c r="W483" s="18"/>
+      <c r="X483" s="20"/>
+      <c r="Y483" s="20"/>
+      <c r="Z483" s="20"/>
+      <c r="AA483" s="16"/>
+      <c r="AB483" s="16"/>
+      <c r="AC483" s="16"/>
+    </row>
+    <row r="484" spans="21:29">
+      <c r="U484" s="18"/>
+      <c r="V484" s="18"/>
+      <c r="W484" s="18"/>
+      <c r="X484" s="20"/>
+      <c r="Y484" s="20"/>
+      <c r="Z484" s="20"/>
+      <c r="AA484" s="16"/>
+      <c r="AB484" s="16"/>
+      <c r="AC484" s="16"/>
+    </row>
+    <row r="485" spans="21:29">
+      <c r="U485" s="18"/>
+      <c r="V485" s="18"/>
+      <c r="W485" s="18"/>
+      <c r="X485" s="20"/>
+      <c r="Y485" s="20"/>
+      <c r="Z485" s="20"/>
+      <c r="AA485" s="16"/>
+      <c r="AB485" s="16"/>
+      <c r="AC485" s="16"/>
+    </row>
+    <row r="486" spans="21:29">
+      <c r="U486" s="18"/>
+      <c r="V486" s="18"/>
+      <c r="W486" s="18"/>
+      <c r="X486" s="20"/>
+      <c r="Y486" s="20"/>
+      <c r="Z486" s="20"/>
+      <c r="AA486" s="16"/>
+      <c r="AB486" s="16"/>
+      <c r="AC486" s="16"/>
+    </row>
+    <row r="487" spans="21:29">
+      <c r="U487" s="18"/>
+      <c r="V487" s="18"/>
+      <c r="W487" s="18"/>
+      <c r="X487" s="20"/>
+      <c r="Y487" s="20"/>
+      <c r="Z487" s="20"/>
+      <c r="AA487" s="16"/>
+      <c r="AB487" s="16"/>
+      <c r="AC487" s="16"/>
+    </row>
+    <row r="488" spans="21:29">
+      <c r="U488" s="18"/>
+      <c r="V488" s="18"/>
+      <c r="W488" s="18"/>
+      <c r="X488" s="20"/>
+      <c r="Y488" s="20"/>
+      <c r="Z488" s="20"/>
+      <c r="AA488" s="16"/>
+      <c r="AB488" s="16"/>
+      <c r="AC488" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/Damage Table.xlsx
+++ b/Damage Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\329058.D007\Desktop\others\16Labs\MHWGB\Monster-Hunter-World-Guide-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A8E964-D277-4A82-A56B-0610FA12974D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E56B02-BEF4-4E03-8A19-E190CD4E8335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9DC5599-DDE8-4A66-810A-B29D278398A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="281">
   <si>
     <t>英文名稱</t>
   </si>
@@ -1100,6 +1100,62 @@
     <t>龍焰接觸傷害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>拔刀斬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真拔刀斬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迴旋斬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真迴巡斬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真反手斬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反手斬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>長刀斬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真長刀斬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>納刀居合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真納刀居合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迴旋斬-火屑風</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面延燒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無之納刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>歷戰限定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1665,11 +1721,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7AF2C8-D971-4852-B202-CB4F3D2BC098}">
-  <dimension ref="A2:AJ488"/>
+  <dimension ref="A2:AJ502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
+      <pane ySplit="7" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4231,39 +4287,39 @@
         <v>0</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" ref="L26:L172" si="271">E26*I26</f>
+        <f t="shared" ref="L26:L186" si="271">E26*I26</f>
         <v>448</v>
       </c>
       <c r="M26" s="14">
-        <f t="shared" ref="M26:M172" si="272">E26*J26</f>
+        <f t="shared" ref="M26:M186" si="272">E26*J26</f>
         <v>672</v>
       </c>
       <c r="N26" s="14">
-        <f t="shared" ref="N26:N172" si="273">E26*K26</f>
+        <f t="shared" ref="N26:N186" si="273">E26*K26</f>
         <v>0</v>
       </c>
       <c r="O26" s="15">
-        <f t="shared" ref="O26:O172" si="274">F26*I26</f>
+        <f t="shared" ref="O26:O186" si="274">F26*I26</f>
         <v>602</v>
       </c>
       <c r="P26" s="15">
-        <f t="shared" ref="P26:P172" si="275">F26*J26</f>
+        <f t="shared" ref="P26:P186" si="275">F26*J26</f>
         <v>903</v>
       </c>
       <c r="Q26" s="15">
-        <f t="shared" ref="Q26:Q172" si="276">F26*K26</f>
+        <f t="shared" ref="Q26:Q186" si="276">F26*K26</f>
         <v>0</v>
       </c>
       <c r="R26" s="19">
-        <f t="shared" ref="R26:R172" si="277">H26*I26</f>
+        <f t="shared" ref="R26:R186" si="277">H26*I26</f>
         <v>280</v>
       </c>
       <c r="S26" s="19">
-        <f t="shared" ref="S26:S172" si="278">H26*J26</f>
+        <f t="shared" ref="S26:S186" si="278">H26*J26</f>
         <v>420</v>
       </c>
       <c r="T26" s="19">
-        <f t="shared" ref="T26:T172" si="279">H26*K26</f>
+        <f t="shared" ref="T26:T186" si="279">H26*K26</f>
         <v>0</v>
       </c>
       <c r="U26" s="18">
@@ -4271,59 +4327,59 @@
         <v>0.22123456790123455</v>
       </c>
       <c r="V26" s="18">
-        <f t="shared" ref="V26:V172" si="280">M26*$G$3/$E$3</f>
+        <f t="shared" ref="V26:V186" si="280">M26*$G$3/$E$3</f>
         <v>0.33185185185185179</v>
       </c>
       <c r="W26" s="18">
-        <f t="shared" ref="W26:W172" si="281">N26*$G$3/$E$3</f>
+        <f t="shared" ref="W26:W186" si="281">N26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X26" s="20">
-        <f t="shared" ref="X26:X172" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="X26:X186" si="282">R26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.13827160493827159</v>
       </c>
       <c r="Y26" s="20">
-        <f t="shared" ref="Y26:Y172" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Y26:Y186" si="283">S26*$G$3*(1-$H$3)/$E$3</f>
         <v>0.2074074074074074</v>
       </c>
       <c r="Z26" s="20">
-        <f t="shared" ref="Z26:Z172" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" ref="Z26:Z186" si="284">T26*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA26" s="16">
-        <f t="shared" ref="AA26:AA172" si="285">O26*$G$3/$E$3</f>
+        <f t="shared" ref="AA26:AA186" si="285">O26*$G$3/$E$3</f>
         <v>0.29728395061728391</v>
       </c>
       <c r="AB26" s="16">
-        <f t="shared" ref="AB26:AB172" si="286">P26*$G$3/$E$3</f>
+        <f t="shared" ref="AB26:AB186" si="286">P26*$G$3/$E$3</f>
         <v>0.44592592592592589</v>
       </c>
       <c r="AC26" s="16">
-        <f t="shared" ref="AC26:AC172" si="287">Q26*$G$3/$E$3</f>
+        <f t="shared" ref="AC26:AC186" si="287">Q26*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD26" s="17" t="str">
-        <f t="shared" ref="AD26:AD172" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AD26:AD186" si="288">IF((U26+X26)&lt;($J$4/2),"低",IF((U26+X26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AE26" s="17" t="str">
-        <f t="shared" ref="AE26:AE172" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AE26:AE186" si="289">IF((V26+Y26)&lt;($J$4/2),"低",IF((V26+Y26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AF26" s="17" t="str">
-        <f t="shared" ref="AF26:AF172" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AF26:AF186" si="290">IF((W26+Z26)&lt;($J$4/2),"低",IF((W26+Z26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG26" s="15" t="str">
-        <f t="shared" ref="AG26:AG172" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AG26:AG186" si="291">IF((X26+AA26)&lt;($J$4/2),"低",IF((X26+AA26)&gt;$J$4,"高","中"))</f>
         <v>中</v>
       </c>
       <c r="AH26" s="15" t="str">
-        <f t="shared" ref="AH26:AH172" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AH26:AH186" si="292">IF((Y26+AB26)&lt;($J$4/2),"低",IF((Y26+AB26)&gt;$J$4,"高","中"))</f>
         <v>高</v>
       </c>
       <c r="AI26" s="15" t="str">
-        <f t="shared" ref="AI26:AI172" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
+        <f t="shared" ref="AI26:AI186" si="293">IF((Z26+AC26)&lt;($J$4/2),"低",IF((Z26+AC26)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AJ26" s="21"/>
@@ -4399,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" ref="U27:W173" si="294">L27*$G$3/$E$3</f>
+        <f t="shared" ref="U27:W187" si="294">L27*$G$3/$E$3</f>
         <v>5.8074074074074084E-2</v>
       </c>
       <c r="V27" s="18">
@@ -14966,7 +15022,9 @@
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-      <c r="AJ110" s="21"/>
+      <c r="AJ110" s="21" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="111" spans="1:36">
       <c r="A111" s="5" t="s">
@@ -15991,13 +16049,37 @@
       <c r="C119" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="D119" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E119" s="8">
+        <v>24</v>
+      </c>
+      <c r="F119" s="8">
+        <v>33</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H119" s="8">
+        <v>0</v>
+      </c>
+      <c r="I119" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J119" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K119" s="11">
+        <v>0</v>
+      </c>
       <c r="L119" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="M119" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="N119" s="14">
         <f t="shared" si="273"/>
@@ -16005,11 +16087,11 @@
       </c>
       <c r="O119" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>379.5</v>
       </c>
       <c r="P119" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>409.2</v>
       </c>
       <c r="Q119" s="15">
         <f t="shared" si="276"/>
@@ -16029,11 +16111,11 @@
       </c>
       <c r="U119" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.13629629629629628</v>
       </c>
       <c r="V119" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.14696296296296296</v>
       </c>
       <c r="W119" s="18">
         <f t="shared" si="281"/>
@@ -16053,11 +16135,11 @@
       </c>
       <c r="AA119" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.18740740740740741</v>
       </c>
       <c r="AB119" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.20207407407407407</v>
       </c>
       <c r="AC119" s="16">
         <f t="shared" si="287"/>
@@ -16088,23 +16170,41 @@
         <v>低</v>
       </c>
     </row>
-    <row r="120" spans="1:36">
-      <c r="A120" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>25</v>
+    <row r="120" spans="1:36" s="4" customFormat="1">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E120" s="8">
+        <v>48</v>
+      </c>
+      <c r="F120" s="8">
+        <v>67</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H120" s="8">
+        <v>0</v>
+      </c>
+      <c r="I120" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J120" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K120" s="11">
+        <v>0</v>
       </c>
       <c r="L120" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="M120" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="N120" s="14">
         <f t="shared" si="273"/>
@@ -16112,11 +16212,11 @@
       </c>
       <c r="O120" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>770.5</v>
       </c>
       <c r="P120" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>830.80000000000007</v>
       </c>
       <c r="Q120" s="15">
         <f t="shared" si="276"/>
@@ -16136,11 +16236,11 @@
       </c>
       <c r="U120" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.27259259259259255</v>
       </c>
       <c r="V120" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.29392592592592592</v>
       </c>
       <c r="W120" s="18">
         <f t="shared" si="281"/>
@@ -16160,11 +16260,11 @@
       </c>
       <c r="AA120" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.38049382716049379</v>
       </c>
       <c r="AB120" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.41027160493827164</v>
       </c>
       <c r="AC120" s="16">
         <f t="shared" si="287"/>
@@ -16172,11 +16272,11 @@
       </c>
       <c r="AD120" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE120" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF120" s="17" t="str">
         <f t="shared" si="290"/>
@@ -16184,34 +16284,53 @@
       </c>
       <c r="AG120" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH120" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI120" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="121" spans="1:36">
-      <c r="A121" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>26</v>
+      <c r="AJ120" s="21"/>
+    </row>
+    <row r="121" spans="1:36" s="4" customFormat="1">
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E121" s="8">
+        <v>56</v>
+      </c>
+      <c r="F121" s="8">
+        <v>77</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H121" s="8">
+        <v>10</v>
+      </c>
+      <c r="I121" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J121" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K121" s="11">
+        <v>0</v>
       </c>
       <c r="L121" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="M121" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>694.4</v>
       </c>
       <c r="N121" s="14">
         <f t="shared" si="273"/>
@@ -16219,11 +16338,11 @@
       </c>
       <c r="O121" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>885.5</v>
       </c>
       <c r="P121" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>954.80000000000007</v>
       </c>
       <c r="Q121" s="15">
         <f t="shared" si="276"/>
@@ -16231,11 +16350,11 @@
       </c>
       <c r="R121" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="S121" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="T121" s="19">
         <f t="shared" si="279"/>
@@ -16243,11 +16362,11 @@
       </c>
       <c r="U121" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.31802469135802469</v>
       </c>
       <c r="V121" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.34291358024691354</v>
       </c>
       <c r="W121" s="18">
         <f t="shared" si="281"/>
@@ -16255,11 +16374,11 @@
       </c>
       <c r="X121" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>5.6790123456790118E-2</v>
       </c>
       <c r="Y121" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>6.123456790123457E-2</v>
       </c>
       <c r="Z121" s="20">
         <f t="shared" si="284"/>
@@ -16267,11 +16386,11 @@
       </c>
       <c r="AA121" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.43728395061728398</v>
       </c>
       <c r="AB121" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.47150617283950613</v>
       </c>
       <c r="AC121" s="16">
         <f t="shared" si="287"/>
@@ -16279,11 +16398,11 @@
       </c>
       <c r="AD121" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE121" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF121" s="17" t="str">
         <f t="shared" si="290"/>
@@ -16291,34 +16410,53 @@
       </c>
       <c r="AG121" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH121" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI121" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="122" spans="1:36">
-      <c r="A122" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>27</v>
+      <c r="AJ121" s="21"/>
+    </row>
+    <row r="122" spans="1:36" s="4" customFormat="1">
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E122" s="8">
+        <v>48</v>
+      </c>
+      <c r="F122" s="8">
+        <v>67</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H122" s="8">
+        <v>0</v>
+      </c>
+      <c r="I122" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J122" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K122" s="11">
+        <v>0</v>
       </c>
       <c r="L122" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="M122" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="N122" s="14">
         <f t="shared" si="273"/>
@@ -16326,11 +16464,11 @@
       </c>
       <c r="O122" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>770.5</v>
       </c>
       <c r="P122" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>830.80000000000007</v>
       </c>
       <c r="Q122" s="15">
         <f t="shared" si="276"/>
@@ -16350,11 +16488,11 @@
       </c>
       <c r="U122" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.27259259259259255</v>
       </c>
       <c r="V122" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.29392592592592592</v>
       </c>
       <c r="W122" s="18">
         <f t="shared" si="281"/>
@@ -16374,11 +16512,11 @@
       </c>
       <c r="AA122" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.38049382716049379</v>
       </c>
       <c r="AB122" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.41027160493827164</v>
       </c>
       <c r="AC122" s="16">
         <f t="shared" si="287"/>
@@ -16386,11 +16524,11 @@
       </c>
       <c r="AD122" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE122" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF122" s="17" t="str">
         <f t="shared" si="290"/>
@@ -16398,34 +16536,53 @@
       </c>
       <c r="AG122" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH122" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI122" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="123" spans="1:36">
-      <c r="A123" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>28</v>
+      <c r="AJ122" s="21"/>
+    </row>
+    <row r="123" spans="1:36" s="4" customFormat="1">
+      <c r="A123" s="5"/>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E123" s="8">
+        <v>56</v>
+      </c>
+      <c r="F123" s="8">
+        <v>77</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H123" s="8">
+        <v>10</v>
+      </c>
+      <c r="I123" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J123" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K123" s="11">
+        <v>0</v>
       </c>
       <c r="L123" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="M123" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>694.4</v>
       </c>
       <c r="N123" s="14">
         <f t="shared" si="273"/>
@@ -16433,11 +16590,11 @@
       </c>
       <c r="O123" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>885.5</v>
       </c>
       <c r="P123" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>954.80000000000007</v>
       </c>
       <c r="Q123" s="15">
         <f t="shared" si="276"/>
@@ -16445,11 +16602,11 @@
       </c>
       <c r="R123" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="S123" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="T123" s="19">
         <f t="shared" si="279"/>
@@ -16457,11 +16614,11 @@
       </c>
       <c r="U123" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.31802469135802469</v>
       </c>
       <c r="V123" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.34291358024691354</v>
       </c>
       <c r="W123" s="18">
         <f t="shared" si="281"/>
@@ -16469,11 +16626,11 @@
       </c>
       <c r="X123" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>5.6790123456790118E-2</v>
       </c>
       <c r="Y123" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>6.123456790123457E-2</v>
       </c>
       <c r="Z123" s="20">
         <f t="shared" si="284"/>
@@ -16481,11 +16638,11 @@
       </c>
       <c r="AA123" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.43728395061728398</v>
       </c>
       <c r="AB123" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.47150617283950613</v>
       </c>
       <c r="AC123" s="16">
         <f t="shared" si="287"/>
@@ -16493,11 +16650,11 @@
       </c>
       <c r="AD123" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE123" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF123" s="17" t="str">
         <f t="shared" si="290"/>
@@ -16505,34 +16662,53 @@
       </c>
       <c r="AG123" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH123" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI123" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="124" spans="1:36">
-      <c r="A124" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>29</v>
+      <c r="AJ123" s="21"/>
+    </row>
+    <row r="124" spans="1:36" s="4" customFormat="1">
+      <c r="A124" s="5"/>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E124" s="8">
+        <v>32</v>
+      </c>
+      <c r="F124" s="8">
+        <v>45</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H124" s="8">
+        <v>0</v>
+      </c>
+      <c r="I124" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J124" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K124" s="11">
+        <v>0</v>
       </c>
       <c r="L124" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="M124" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>396.8</v>
       </c>
       <c r="N124" s="14">
         <f t="shared" si="273"/>
@@ -16540,11 +16716,11 @@
       </c>
       <c r="O124" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>517.5</v>
       </c>
       <c r="P124" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="Q124" s="15">
         <f t="shared" si="276"/>
@@ -16564,11 +16740,11 @@
       </c>
       <c r="U124" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.18172839506172839</v>
       </c>
       <c r="V124" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.19595061728395061</v>
       </c>
       <c r="W124" s="18">
         <f t="shared" si="281"/>
@@ -16588,11 +16764,11 @@
       </c>
       <c r="AA124" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.25555555555555554</v>
       </c>
       <c r="AB124" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.2755555555555555</v>
       </c>
       <c r="AC124" s="16">
         <f t="shared" si="287"/>
@@ -16612,34 +16788,53 @@
       </c>
       <c r="AG124" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH124" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI124" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="125" spans="1:36">
-      <c r="A125" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>31</v>
+      <c r="AJ124" s="21"/>
+    </row>
+    <row r="125" spans="1:36" s="4" customFormat="1">
+      <c r="A125" s="5"/>
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E125" s="8">
+        <v>40</v>
+      </c>
+      <c r="F125" s="8">
+        <v>55</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H125" s="8">
+        <v>10</v>
+      </c>
+      <c r="I125" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J125" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K125" s="11">
+        <v>0</v>
       </c>
       <c r="L125" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="M125" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="N125" s="14">
         <f t="shared" si="273"/>
@@ -16647,11 +16842,11 @@
       </c>
       <c r="O125" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>632.5</v>
       </c>
       <c r="P125" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>682</v>
       </c>
       <c r="Q125" s="15">
         <f t="shared" si="276"/>
@@ -16659,11 +16854,11 @@
       </c>
       <c r="R125" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="S125" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="T125" s="19">
         <f t="shared" si="279"/>
@@ -16671,11 +16866,11 @@
       </c>
       <c r="U125" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.22716049382716047</v>
       </c>
       <c r="V125" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.24493827160493828</v>
       </c>
       <c r="W125" s="18">
         <f t="shared" si="281"/>
@@ -16683,11 +16878,11 @@
       </c>
       <c r="X125" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>5.6790123456790118E-2</v>
       </c>
       <c r="Y125" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>6.123456790123457E-2</v>
       </c>
       <c r="Z125" s="20">
         <f t="shared" si="284"/>
@@ -16695,11 +16890,11 @@
       </c>
       <c r="AA125" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.31234567901234567</v>
       </c>
       <c r="AB125" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.3367901234567901</v>
       </c>
       <c r="AC125" s="16">
         <f t="shared" si="287"/>
@@ -16707,11 +16902,11 @@
       </c>
       <c r="AD125" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE125" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF125" s="17" t="str">
         <f t="shared" si="290"/>
@@ -16719,34 +16914,53 @@
       </c>
       <c r="AG125" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH125" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI125" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="126" spans="1:36">
-      <c r="A126" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>32</v>
+      <c r="AJ125" s="21"/>
+    </row>
+    <row r="126" spans="1:36" s="4" customFormat="1">
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E126" s="8">
+        <v>48</v>
+      </c>
+      <c r="F126" s="8">
+        <v>67</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H126" s="8">
+        <v>0</v>
+      </c>
+      <c r="I126" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J126" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K126" s="11">
+        <v>0</v>
       </c>
       <c r="L126" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="M126" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="N126" s="14">
         <f t="shared" si="273"/>
@@ -16754,11 +16968,11 @@
       </c>
       <c r="O126" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>770.5</v>
       </c>
       <c r="P126" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>830.80000000000007</v>
       </c>
       <c r="Q126" s="15">
         <f t="shared" si="276"/>
@@ -16778,11 +16992,11 @@
       </c>
       <c r="U126" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.27259259259259255</v>
       </c>
       <c r="V126" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.29392592592592592</v>
       </c>
       <c r="W126" s="18">
         <f t="shared" si="281"/>
@@ -16802,11 +17016,11 @@
       </c>
       <c r="AA126" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.38049382716049379</v>
       </c>
       <c r="AB126" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.41027160493827164</v>
       </c>
       <c r="AC126" s="16">
         <f t="shared" si="287"/>
@@ -16814,11 +17028,11 @@
       </c>
       <c r="AD126" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE126" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF126" s="17" t="str">
         <f t="shared" si="290"/>
@@ -16826,34 +17040,53 @@
       </c>
       <c r="AG126" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AH126" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AI126" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="127" spans="1:36">
-      <c r="A127" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>34</v>
+      <c r="AJ126" s="21"/>
+    </row>
+    <row r="127" spans="1:36" s="4" customFormat="1">
+      <c r="A127" s="5"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E127" s="8">
+        <v>56</v>
+      </c>
+      <c r="F127" s="8">
+        <v>77</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H127" s="8">
+        <v>10</v>
+      </c>
+      <c r="I127" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J127" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K127" s="11">
+        <v>0</v>
       </c>
       <c r="L127" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="M127" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>694.4</v>
       </c>
       <c r="N127" s="14">
         <f t="shared" si="273"/>
@@ -16861,11 +17094,11 @@
       </c>
       <c r="O127" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>885.5</v>
       </c>
       <c r="P127" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>954.80000000000007</v>
       </c>
       <c r="Q127" s="15">
         <f t="shared" si="276"/>
@@ -16873,11 +17106,11 @@
       </c>
       <c r="R127" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="S127" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="T127" s="19">
         <f t="shared" si="279"/>
@@ -16885,11 +17118,11 @@
       </c>
       <c r="U127" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.31802469135802469</v>
       </c>
       <c r="V127" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.34291358024691354</v>
       </c>
       <c r="W127" s="18">
         <f t="shared" si="281"/>
@@ -16897,11 +17130,11 @@
       </c>
       <c r="X127" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>5.6790123456790118E-2</v>
       </c>
       <c r="Y127" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>6.123456790123457E-2</v>
       </c>
       <c r="Z127" s="20">
         <f t="shared" si="284"/>
@@ -16909,11 +17142,11 @@
       </c>
       <c r="AA127" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.43728395061728398</v>
       </c>
       <c r="AB127" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.47150617283950613</v>
       </c>
       <c r="AC127" s="16">
         <f t="shared" si="287"/>
@@ -16921,11 +17154,11 @@
       </c>
       <c r="AD127" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE127" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF127" s="17" t="str">
         <f t="shared" si="290"/>
@@ -16933,34 +17166,53 @@
       </c>
       <c r="AG127" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH127" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI127" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="128" spans="1:36">
-      <c r="A128" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>35</v>
+      <c r="AJ127" s="21"/>
+    </row>
+    <row r="128" spans="1:36" s="4" customFormat="1">
+      <c r="A128" s="5"/>
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="E128" s="8">
+        <v>73</v>
+      </c>
+      <c r="F128" s="8">
+        <v>101</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H128" s="8">
+        <v>0</v>
+      </c>
+      <c r="I128" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J128" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K128" s="11">
+        <v>0</v>
       </c>
       <c r="L128" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>839.5</v>
       </c>
       <c r="M128" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>905.2</v>
       </c>
       <c r="N128" s="14">
         <f t="shared" si="273"/>
@@ -16968,11 +17220,11 @@
       </c>
       <c r="O128" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>1161.5</v>
       </c>
       <c r="P128" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1252.4000000000001</v>
       </c>
       <c r="Q128" s="15">
         <f t="shared" si="276"/>
@@ -16992,11 +17244,11 @@
       </c>
       <c r="U128" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.41456790123456788</v>
       </c>
       <c r="V128" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.44701234567901232</v>
       </c>
       <c r="W128" s="18">
         <f t="shared" si="281"/>
@@ -17016,11 +17268,11 @@
       </c>
       <c r="AA128" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.57358024691358023</v>
       </c>
       <c r="AB128" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.61846913580246909</v>
       </c>
       <c r="AC128" s="16">
         <f t="shared" si="287"/>
@@ -17028,11 +17280,11 @@
       </c>
       <c r="AD128" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE128" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AF128" s="17" t="str">
         <f t="shared" si="290"/>
@@ -17040,34 +17292,53 @@
       </c>
       <c r="AG128" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH128" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI128" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="129" spans="1:35">
-      <c r="A129" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>36</v>
+      <c r="AJ128" s="21"/>
+    </row>
+    <row r="129" spans="1:36" s="4" customFormat="1">
+      <c r="A129" s="5"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E129" s="8">
+        <v>85</v>
+      </c>
+      <c r="F129" s="8">
+        <v>117</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H129" s="8">
+        <v>15</v>
+      </c>
+      <c r="I129" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J129" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K129" s="11">
+        <v>0</v>
       </c>
       <c r="L129" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="M129" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="N129" s="14">
         <f t="shared" si="273"/>
@@ -17075,11 +17346,11 @@
       </c>
       <c r="O129" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>1345.5</v>
       </c>
       <c r="P129" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>1450.8</v>
       </c>
       <c r="Q129" s="15">
         <f t="shared" si="276"/>
@@ -17087,11 +17358,11 @@
       </c>
       <c r="R129" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>172.5</v>
       </c>
       <c r="S129" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="T129" s="19">
         <f t="shared" si="279"/>
@@ -17099,11 +17370,11 @@
       </c>
       <c r="U129" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.48271604938271601</v>
       </c>
       <c r="V129" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.52049382716049386</v>
       </c>
       <c r="W129" s="18">
         <f t="shared" si="281"/>
@@ -17111,11 +17382,11 @@
       </c>
       <c r="X129" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>8.5185185185185183E-2</v>
       </c>
       <c r="Y129" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>9.1851851851851851E-2</v>
       </c>
       <c r="Z129" s="20">
         <f t="shared" si="284"/>
@@ -17123,11 +17394,11 @@
       </c>
       <c r="AA129" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.66444444444444439</v>
       </c>
       <c r="AB129" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.71644444444444433</v>
       </c>
       <c r="AC129" s="16">
         <f t="shared" si="287"/>
@@ -17135,11 +17406,11 @@
       </c>
       <c r="AD129" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AE129" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF129" s="17" t="str">
         <f t="shared" si="290"/>
@@ -17147,34 +17418,53 @@
       </c>
       <c r="AG129" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH129" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI129" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="130" spans="1:35">
-      <c r="A130" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>37</v>
+      <c r="AJ129" s="21"/>
+    </row>
+    <row r="130" spans="1:36" s="4" customFormat="1">
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E130" s="8">
+        <v>48</v>
+      </c>
+      <c r="F130" s="8">
+        <v>65</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H130" s="8">
+        <v>30</v>
+      </c>
+      <c r="I130" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J130" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K130" s="11">
+        <v>0</v>
       </c>
       <c r="L130" s="14">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="M130" s="14">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="N130" s="14">
         <f t="shared" si="273"/>
@@ -17182,11 +17472,11 @@
       </c>
       <c r="O130" s="15">
         <f t="shared" si="274"/>
-        <v>0</v>
+        <v>747.5</v>
       </c>
       <c r="P130" s="15">
         <f t="shared" si="275"/>
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="Q130" s="15">
         <f t="shared" si="276"/>
@@ -17194,11 +17484,11 @@
       </c>
       <c r="R130" s="19">
         <f t="shared" si="277"/>
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="S130" s="19">
         <f t="shared" si="278"/>
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="T130" s="19">
         <f t="shared" si="279"/>
@@ -17206,11 +17496,11 @@
       </c>
       <c r="U130" s="18">
         <f t="shared" si="294"/>
-        <v>0</v>
+        <v>0.27259259259259255</v>
       </c>
       <c r="V130" s="18">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>0.29392592592592592</v>
       </c>
       <c r="W130" s="18">
         <f t="shared" si="281"/>
@@ -17218,11 +17508,11 @@
       </c>
       <c r="X130" s="20">
         <f t="shared" si="282"/>
-        <v>0</v>
+        <v>0.17037037037037037</v>
       </c>
       <c r="Y130" s="20">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>0.1837037037037037</v>
       </c>
       <c r="Z130" s="20">
         <f t="shared" si="284"/>
@@ -17230,11 +17520,11 @@
       </c>
       <c r="AA130" s="16">
         <f t="shared" si="285"/>
-        <v>0</v>
+        <v>0.3691358024691358</v>
       </c>
       <c r="AB130" s="16">
         <f t="shared" si="286"/>
-        <v>0</v>
+        <v>0.39802469135802471</v>
       </c>
       <c r="AC130" s="16">
         <f t="shared" si="287"/>
@@ -17242,11 +17532,11 @@
       </c>
       <c r="AD130" s="17" t="str">
         <f t="shared" si="288"/>
-        <v>低</v>
+        <v>中</v>
       </c>
       <c r="AE130" s="17" t="str">
         <f t="shared" si="289"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AF130" s="17" t="str">
         <f t="shared" si="290"/>
@@ -17254,347 +17544,416 @@
       </c>
       <c r="AG130" s="15" t="str">
         <f t="shared" si="291"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AH130" s="15" t="str">
         <f t="shared" si="292"/>
-        <v>低</v>
+        <v>高</v>
       </c>
       <c r="AI130" s="15" t="str">
         <f t="shared" si="293"/>
         <v>低</v>
       </c>
-    </row>
-    <row r="131" spans="1:35">
-      <c r="A131" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B131" s="5" t="s">
+      <c r="AJ130" s="21"/>
+    </row>
+    <row r="131" spans="1:36" s="4" customFormat="1">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E131" s="8">
+        <v>16</v>
+      </c>
+      <c r="F131" s="8">
+        <v>21</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H131" s="8">
+        <v>10</v>
+      </c>
+      <c r="I131" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J131" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K131" s="11">
+        <v>0</v>
+      </c>
+      <c r="L131" s="14">
+        <f t="shared" ref="L131:L133" si="555">E131*I131</f>
+        <v>184</v>
+      </c>
+      <c r="M131" s="14">
+        <f t="shared" ref="M131:M133" si="556">E131*J131</f>
+        <v>198.4</v>
+      </c>
+      <c r="N131" s="14">
+        <f t="shared" ref="N131:N133" si="557">E131*K131</f>
+        <v>0</v>
+      </c>
+      <c r="O131" s="15">
+        <f t="shared" ref="O131:O133" si="558">F131*I131</f>
+        <v>241.5</v>
+      </c>
+      <c r="P131" s="15">
+        <f t="shared" ref="P131:P133" si="559">F131*J131</f>
+        <v>260.40000000000003</v>
+      </c>
+      <c r="Q131" s="15">
+        <f t="shared" ref="Q131:Q133" si="560">F131*K131</f>
+        <v>0</v>
+      </c>
+      <c r="R131" s="19">
+        <f t="shared" ref="R131:R133" si="561">H131*I131</f>
         <v>115</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L131" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
-      </c>
-      <c r="M131" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
-      </c>
-      <c r="N131" s="14">
-        <f t="shared" si="273"/>
-        <v>0</v>
-      </c>
-      <c r="O131" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
-      </c>
-      <c r="P131" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
-      </c>
-      <c r="Q131" s="15">
-        <f t="shared" si="276"/>
-        <v>0</v>
-      </c>
-      <c r="R131" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
-      </c>
       <c r="S131" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
+        <f t="shared" ref="S131:S133" si="562">H131*J131</f>
+        <v>124</v>
       </c>
       <c r="T131" s="19">
-        <f t="shared" si="279"/>
+        <f t="shared" ref="T131:T133" si="563">H131*K131</f>
         <v>0</v>
       </c>
       <c r="U131" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
+        <f t="shared" ref="U131:U133" si="564">L131*$G$3/$E$3</f>
+        <v>9.0864197530864194E-2</v>
       </c>
       <c r="V131" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
+        <f t="shared" ref="V131:V133" si="565">M131*$G$3/$E$3</f>
+        <v>9.7975308641975303E-2</v>
       </c>
       <c r="W131" s="18">
-        <f t="shared" si="281"/>
+        <f t="shared" ref="W131:W133" si="566">N131*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="X131" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
+        <f t="shared" ref="X131:X133" si="567">R131*$G$3*(1-$H$3)/$E$3</f>
+        <v>5.6790123456790118E-2</v>
       </c>
       <c r="Y131" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
+        <f t="shared" ref="Y131:Y133" si="568">S131*$G$3*(1-$H$3)/$E$3</f>
+        <v>6.123456790123457E-2</v>
       </c>
       <c r="Z131" s="20">
-        <f t="shared" si="284"/>
+        <f t="shared" ref="Z131:Z133" si="569">T131*$G$3*(1-$H$3)/$E$3</f>
         <v>0</v>
       </c>
       <c r="AA131" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
+        <f t="shared" ref="AA131:AA133" si="570">O131*$G$3/$E$3</f>
+        <v>0.11925925925925926</v>
       </c>
       <c r="AB131" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
+        <f t="shared" ref="AB131:AB133" si="571">P131*$G$3/$E$3</f>
+        <v>0.12859259259259262</v>
       </c>
       <c r="AC131" s="16">
-        <f t="shared" si="287"/>
+        <f t="shared" ref="AC131:AC133" si="572">Q131*$G$3/$E$3</f>
         <v>0</v>
       </c>
       <c r="AD131" s="17" t="str">
-        <f t="shared" si="288"/>
+        <f t="shared" ref="AD131:AD133" si="573">IF((U131+X131)&lt;($J$4/2),"低",IF((U131+X131)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AE131" s="17" t="str">
-        <f t="shared" si="289"/>
+        <f t="shared" ref="AE131:AE133" si="574">IF((V131+Y131)&lt;($J$4/2),"低",IF((V131+Y131)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AF131" s="17" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" ref="AF131:AF133" si="575">IF((W131+Z131)&lt;($J$4/2),"低",IF((W131+Z131)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AG131" s="15" t="str">
-        <f t="shared" si="291"/>
+        <f t="shared" ref="AG131:AG133" si="576">IF((X131+AA131)&lt;($J$4/2),"低",IF((X131+AA131)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AH131" s="15" t="str">
-        <f t="shared" si="292"/>
+        <f t="shared" ref="AH131:AH133" si="577">IF((Y131+AB131)&lt;($J$4/2),"低",IF((Y131+AB131)&gt;$J$4,"高","中"))</f>
         <v>低</v>
       </c>
       <c r="AI131" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="132" spans="1:35">
-      <c r="A132" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>39</v>
+        <f t="shared" ref="AI131:AI133" si="578">IF((Z131+AC131)&lt;($J$4/2),"低",IF((Z131+AC131)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AJ131" s="21"/>
+    </row>
+    <row r="132" spans="1:36" s="4" customFormat="1">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E132" s="8">
+        <v>48</v>
+      </c>
+      <c r="F132" s="8">
+        <v>65</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H132" s="8">
+        <v>30</v>
+      </c>
+      <c r="I132" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J132" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K132" s="11">
+        <v>0</v>
       </c>
       <c r="L132" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
+        <f t="shared" si="555"/>
+        <v>552</v>
       </c>
       <c r="M132" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
+        <f t="shared" si="556"/>
+        <v>595.20000000000005</v>
       </c>
       <c r="N132" s="14">
-        <f t="shared" si="273"/>
+        <f t="shared" si="557"/>
         <v>0</v>
       </c>
       <c r="O132" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
+        <f t="shared" si="558"/>
+        <v>747.5</v>
       </c>
       <c r="P132" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
+        <f t="shared" si="559"/>
+        <v>806</v>
       </c>
       <c r="Q132" s="15">
-        <f t="shared" si="276"/>
+        <f t="shared" si="560"/>
         <v>0</v>
       </c>
       <c r="R132" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
+        <f t="shared" si="561"/>
+        <v>345</v>
       </c>
       <c r="S132" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
+        <f t="shared" si="562"/>
+        <v>372</v>
       </c>
       <c r="T132" s="19">
-        <f t="shared" si="279"/>
+        <f t="shared" si="563"/>
         <v>0</v>
       </c>
       <c r="U132" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
+        <f t="shared" si="564"/>
+        <v>0.27259259259259255</v>
       </c>
       <c r="V132" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
+        <f t="shared" si="565"/>
+        <v>0.29392592592592592</v>
       </c>
       <c r="W132" s="18">
-        <f t="shared" si="281"/>
+        <f t="shared" si="566"/>
         <v>0</v>
       </c>
       <c r="X132" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
+        <f t="shared" si="567"/>
+        <v>0.17037037037037037</v>
       </c>
       <c r="Y132" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
+        <f t="shared" si="568"/>
+        <v>0.1837037037037037</v>
       </c>
       <c r="Z132" s="20">
-        <f t="shared" si="284"/>
+        <f t="shared" si="569"/>
         <v>0</v>
       </c>
       <c r="AA132" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
+        <f t="shared" si="570"/>
+        <v>0.3691358024691358</v>
       </c>
       <c r="AB132" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
+        <f t="shared" si="571"/>
+        <v>0.39802469135802471</v>
       </c>
       <c r="AC132" s="16">
-        <f t="shared" si="287"/>
+        <f t="shared" si="572"/>
         <v>0</v>
       </c>
       <c r="AD132" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
+        <f t="shared" si="573"/>
+        <v>中</v>
       </c>
       <c r="AE132" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
+        <f t="shared" si="574"/>
+        <v>高</v>
       </c>
       <c r="AF132" s="17" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" si="575"/>
         <v>低</v>
       </c>
       <c r="AG132" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
+        <f t="shared" si="576"/>
+        <v>高</v>
       </c>
       <c r="AH132" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
+        <f t="shared" si="577"/>
+        <v>高</v>
       </c>
       <c r="AI132" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="133" spans="1:35">
-      <c r="A133" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>40</v>
+        <f t="shared" si="578"/>
+        <v>低</v>
+      </c>
+      <c r="AJ132" s="21"/>
+    </row>
+    <row r="133" spans="1:36" s="4" customFormat="1">
+      <c r="A133" s="5"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E133" s="8">
+        <v>81</v>
+      </c>
+      <c r="F133" s="8">
+        <v>111</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H133" s="8">
+        <v>10</v>
+      </c>
+      <c r="I133" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J133" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K133" s="11">
+        <v>0</v>
       </c>
       <c r="L133" s="14">
-        <f t="shared" si="271"/>
-        <v>0</v>
+        <f t="shared" si="555"/>
+        <v>931.5</v>
       </c>
       <c r="M133" s="14">
-        <f t="shared" si="272"/>
-        <v>0</v>
+        <f t="shared" si="556"/>
+        <v>1004.4</v>
       </c>
       <c r="N133" s="14">
-        <f t="shared" si="273"/>
+        <f t="shared" si="557"/>
         <v>0</v>
       </c>
       <c r="O133" s="15">
-        <f t="shared" si="274"/>
-        <v>0</v>
+        <f t="shared" si="558"/>
+        <v>1276.5</v>
       </c>
       <c r="P133" s="15">
-        <f t="shared" si="275"/>
-        <v>0</v>
+        <f t="shared" si="559"/>
+        <v>1376.4</v>
       </c>
       <c r="Q133" s="15">
-        <f t="shared" si="276"/>
+        <f t="shared" si="560"/>
         <v>0</v>
       </c>
       <c r="R133" s="19">
-        <f t="shared" si="277"/>
-        <v>0</v>
+        <f t="shared" si="561"/>
+        <v>115</v>
       </c>
       <c r="S133" s="19">
-        <f t="shared" si="278"/>
-        <v>0</v>
+        <f t="shared" si="562"/>
+        <v>124</v>
       </c>
       <c r="T133" s="19">
-        <f t="shared" si="279"/>
+        <f t="shared" si="563"/>
         <v>0</v>
       </c>
       <c r="U133" s="18">
-        <f t="shared" si="294"/>
-        <v>0</v>
+        <f t="shared" si="564"/>
+        <v>0.46</v>
       </c>
       <c r="V133" s="18">
-        <f t="shared" si="280"/>
-        <v>0</v>
+        <f t="shared" si="565"/>
+        <v>0.49599999999999994</v>
       </c>
       <c r="W133" s="18">
-        <f t="shared" si="281"/>
+        <f t="shared" si="566"/>
         <v>0</v>
       </c>
       <c r="X133" s="20">
-        <f t="shared" si="282"/>
-        <v>0</v>
+        <f t="shared" si="567"/>
+        <v>5.6790123456790118E-2</v>
       </c>
       <c r="Y133" s="20">
-        <f t="shared" si="283"/>
-        <v>0</v>
+        <f t="shared" si="568"/>
+        <v>6.123456790123457E-2</v>
       </c>
       <c r="Z133" s="20">
-        <f t="shared" si="284"/>
+        <f t="shared" si="569"/>
         <v>0</v>
       </c>
       <c r="AA133" s="16">
-        <f t="shared" si="285"/>
-        <v>0</v>
+        <f t="shared" si="570"/>
+        <v>0.63037037037037036</v>
       </c>
       <c r="AB133" s="16">
-        <f t="shared" si="286"/>
-        <v>0</v>
+        <f t="shared" si="571"/>
+        <v>0.6797037037037037</v>
       </c>
       <c r="AC133" s="16">
-        <f t="shared" si="287"/>
+        <f t="shared" si="572"/>
         <v>0</v>
       </c>
       <c r="AD133" s="17" t="str">
-        <f t="shared" si="288"/>
-        <v>低</v>
+        <f t="shared" si="573"/>
+        <v>高</v>
       </c>
       <c r="AE133" s="17" t="str">
-        <f t="shared" si="289"/>
-        <v>低</v>
+        <f t="shared" si="574"/>
+        <v>高</v>
       </c>
       <c r="AF133" s="17" t="str">
-        <f t="shared" si="290"/>
+        <f t="shared" si="575"/>
         <v>低</v>
       </c>
       <c r="AG133" s="15" t="str">
-        <f t="shared" si="291"/>
-        <v>低</v>
+        <f t="shared" si="576"/>
+        <v>高</v>
       </c>
       <c r="AH133" s="15" t="str">
-        <f t="shared" si="292"/>
-        <v>低</v>
+        <f t="shared" si="577"/>
+        <v>高</v>
       </c>
       <c r="AI133" s="15" t="str">
-        <f t="shared" si="293"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="134" spans="1:35">
+        <f t="shared" si="578"/>
+        <v>低</v>
+      </c>
+      <c r="AJ133" s="21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="134" spans="1:36">
       <c r="A134" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="I134" s="11">
+        <v>11.5</v>
+      </c>
+      <c r="J134" s="11">
+        <v>12.4</v>
+      </c>
+      <c r="K134" s="11">
+        <v>0</v>
       </c>
       <c r="L134" s="14">
         <f t="shared" si="271"/>
@@ -17693,15 +18052,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="135" spans="1:35">
+    <row r="135" spans="1:36">
       <c r="A135" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="L135" s="14">
         <f t="shared" si="271"/>
@@ -17800,15 +18159,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="136" spans="1:35">
+    <row r="136" spans="1:36">
       <c r="A136" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="L136" s="14">
         <f t="shared" si="271"/>
@@ -17907,15 +18266,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="137" spans="1:35">
+    <row r="137" spans="1:36">
       <c r="A137" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="L137" s="14">
         <f t="shared" si="271"/>
@@ -18014,15 +18373,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="138" spans="1:35">
+    <row r="138" spans="1:36">
       <c r="A138" s="5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="L138" s="14">
         <f t="shared" si="271"/>
@@ -18121,15 +18480,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="139" spans="1:35">
+    <row r="139" spans="1:36">
       <c r="A139" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L139" s="14">
         <f t="shared" si="271"/>
@@ -18228,15 +18587,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="140" spans="1:35">
+    <row r="140" spans="1:36">
       <c r="A140" s="5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="L140" s="14">
         <f t="shared" si="271"/>
@@ -18335,15 +18694,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="141" spans="1:35">
+    <row r="141" spans="1:36">
       <c r="A141" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L141" s="14">
         <f t="shared" si="271"/>
@@ -18442,15 +18801,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="142" spans="1:35">
+    <row r="142" spans="1:36">
       <c r="A142" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="L142" s="14">
         <f t="shared" si="271"/>
@@ -18549,15 +18908,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="143" spans="1:35">
+    <row r="143" spans="1:36">
       <c r="A143" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L143" s="14">
         <f t="shared" si="271"/>
@@ -18656,15 +19015,15 @@
         <v>低</v>
       </c>
     </row>
-    <row r="144" spans="1:35">
+    <row r="144" spans="1:36">
       <c r="A144" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="L144" s="14">
         <f t="shared" si="271"/>
@@ -18765,13 +19124,13 @@
     </row>
     <row r="145" spans="1:35">
       <c r="A145" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="L145" s="14">
         <f t="shared" si="271"/>
@@ -18872,13 +19231,13 @@
     </row>
     <row r="146" spans="1:35">
       <c r="A146" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="L146" s="14">
         <f t="shared" si="271"/>
@@ -18979,13 +19338,13 @@
     </row>
     <row r="147" spans="1:35">
       <c r="A147" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L147" s="14">
         <f t="shared" si="271"/>
@@ -19086,13 +19445,13 @@
     </row>
     <row r="148" spans="1:35">
       <c r="A148" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="L148" s="14">
         <f t="shared" si="271"/>
@@ -19193,13 +19552,13 @@
     </row>
     <row r="149" spans="1:35">
       <c r="A149" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L149" s="14">
         <f t="shared" si="271"/>
@@ -19303,10 +19662,10 @@
         <v>43</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L150" s="14">
         <f t="shared" si="271"/>
@@ -19410,10 +19769,10 @@
         <v>43</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L151" s="14">
         <f t="shared" si="271"/>
@@ -19517,10 +19876,10 @@
         <v>43</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="L152" s="14">
         <f t="shared" si="271"/>
@@ -19624,10 +19983,10 @@
         <v>43</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L153" s="14">
         <f t="shared" si="271"/>
@@ -19731,10 +20090,10 @@
         <v>43</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="L154" s="14">
         <f t="shared" si="271"/>
@@ -19835,13 +20194,13 @@
     </row>
     <row r="155" spans="1:35">
       <c r="A155" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L155" s="14">
         <f t="shared" si="271"/>
@@ -19942,13 +20301,13 @@
     </row>
     <row r="156" spans="1:35">
       <c r="A156" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L156" s="14">
         <f t="shared" si="271"/>
@@ -20049,13 +20408,13 @@
     </row>
     <row r="157" spans="1:35">
       <c r="A157" s="5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L157" s="14">
         <f t="shared" si="271"/>
@@ -20156,13 +20515,13 @@
     </row>
     <row r="158" spans="1:35">
       <c r="A158" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="L158" s="14">
         <f t="shared" si="271"/>
@@ -20263,13 +20622,13 @@
     </row>
     <row r="159" spans="1:35">
       <c r="A159" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="L159" s="14">
         <f t="shared" si="271"/>
@@ -20370,13 +20729,13 @@
     </row>
     <row r="160" spans="1:35">
       <c r="A160" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="L160" s="14">
         <f t="shared" si="271"/>
@@ -20477,13 +20836,13 @@
     </row>
     <row r="161" spans="1:35">
       <c r="A161" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="L161" s="14">
         <f t="shared" si="271"/>
@@ -20584,13 +20943,13 @@
     </row>
     <row r="162" spans="1:35">
       <c r="A162" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="L162" s="14">
         <f t="shared" si="271"/>
@@ -20691,13 +21050,13 @@
     </row>
     <row r="163" spans="1:35">
       <c r="A163" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="L163" s="14">
         <f t="shared" si="271"/>
@@ -20798,13 +21157,13 @@
     </row>
     <row r="164" spans="1:35">
       <c r="A164" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="L164" s="14">
         <f t="shared" si="271"/>
@@ -20905,13 +21264,13 @@
     </row>
     <row r="165" spans="1:35">
       <c r="A165" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="L165" s="14">
         <f t="shared" si="271"/>
@@ -21012,13 +21371,13 @@
     </row>
     <row r="166" spans="1:35">
       <c r="A166" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="L166" s="14">
         <f t="shared" si="271"/>
@@ -21119,13 +21478,13 @@
     </row>
     <row r="167" spans="1:35">
       <c r="A167" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="L167" s="14">
         <f t="shared" si="271"/>
@@ -21226,13 +21585,13 @@
     </row>
     <row r="168" spans="1:35">
       <c r="A168" s="5" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="L168" s="14">
         <f t="shared" si="271"/>
@@ -21333,13 +21692,13 @@
     </row>
     <row r="169" spans="1:35">
       <c r="A169" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="L169" s="14">
         <f t="shared" si="271"/>
@@ -21440,13 +21799,13 @@
     </row>
     <row r="170" spans="1:35">
       <c r="A170" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="L170" s="14">
         <f t="shared" si="271"/>
@@ -21547,13 +21906,13 @@
     </row>
     <row r="171" spans="1:35">
       <c r="A171" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="L171" s="14">
         <f t="shared" si="271"/>
@@ -21657,10 +22016,10 @@
         <v>67</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="L172" s="14">
         <f t="shared" si="271"/>
@@ -21764,45 +22123,45 @@
         <v>67</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="L173" s="14">
-        <f t="shared" ref="L173:L176" si="555">E173*I173</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M173" s="14">
-        <f t="shared" ref="M173:M176" si="556">E173*J173</f>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N173" s="14">
-        <f t="shared" ref="N173:N176" si="557">E173*K173</f>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O173" s="15">
-        <f t="shared" ref="O173:O176" si="558">F173*I173</f>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P173" s="15">
-        <f t="shared" ref="P173:P176" si="559">F173*J173</f>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q173" s="15">
-        <f t="shared" ref="Q173:Q176" si="560">F173*K173</f>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R173" s="19">
-        <f t="shared" ref="R173:R176" si="561">H173*I173</f>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S173" s="19">
-        <f t="shared" ref="S173:S176" si="562">H173*J173</f>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T173" s="19">
-        <f t="shared" ref="T173:T176" si="563">H173*K173</f>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U173" s="18">
@@ -21810,59 +22169,59 @@
         <v>0</v>
       </c>
       <c r="V173" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W173" s="18">
-        <f t="shared" si="294"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X173" s="20">
-        <f t="shared" ref="X173:Z176" si="564">R173*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y173" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z173" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA173" s="16">
-        <f t="shared" ref="AA173:AC176" si="565">O173*$G$3/$E$3</f>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB173" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC173" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD173" s="17" t="str">
-        <f t="shared" ref="AD173:AI176" si="566">IF((U173+X173)&lt;($J$4/2),"低",IF((U173+X173)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE173" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF173" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG173" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH173" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI173" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="293"/>
         <v>低</v>
       </c>
     </row>
@@ -21871,1389 +22230,1488 @@
         <v>67</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="L174" s="14">
-        <f t="shared" si="555"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M174" s="14">
-        <f t="shared" si="556"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N174" s="14">
-        <f t="shared" si="557"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O174" s="15">
-        <f t="shared" si="558"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P174" s="15">
-        <f t="shared" si="559"/>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q174" s="15">
-        <f t="shared" si="560"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R174" s="19">
-        <f t="shared" si="561"/>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S174" s="19">
-        <f t="shared" si="562"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T174" s="19">
-        <f t="shared" si="563"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U174" s="18">
-        <f t="shared" ref="U174:W176" si="567">L174*$G$3/$E$3</f>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="V174" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W174" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X174" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y174" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z174" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA174" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB174" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC174" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD174" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE174" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF174" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG174" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH174" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI174" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="293"/>
         <v>低</v>
       </c>
     </row>
     <row r="175" spans="1:35">
-      <c r="A175" s="7" t="s">
-        <v>85</v>
+      <c r="A175" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="L175" s="14">
-        <f t="shared" si="555"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M175" s="14">
-        <f t="shared" si="556"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N175" s="14">
-        <f t="shared" si="557"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O175" s="15">
-        <f t="shared" si="558"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P175" s="15">
-        <f t="shared" si="559"/>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q175" s="15">
-        <f t="shared" si="560"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R175" s="19">
-        <f t="shared" si="561"/>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S175" s="19">
-        <f t="shared" si="562"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T175" s="19">
-        <f t="shared" si="563"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U175" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="V175" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W175" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X175" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y175" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z175" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA175" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB175" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC175" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD175" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE175" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF175" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG175" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH175" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI175" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="293"/>
         <v>低</v>
       </c>
     </row>
     <row r="176" spans="1:35">
-      <c r="A176" s="7" t="s">
-        <v>85</v>
+      <c r="A176" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="L176" s="14">
-        <f t="shared" si="555"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M176" s="14">
-        <f t="shared" si="556"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N176" s="14">
-        <f t="shared" si="557"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O176" s="15">
-        <f t="shared" si="558"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P176" s="15">
-        <f t="shared" si="559"/>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q176" s="15">
-        <f t="shared" si="560"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R176" s="19">
-        <f t="shared" si="561"/>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S176" s="19">
-        <f t="shared" si="562"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T176" s="19">
-        <f t="shared" si="563"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U176" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="V176" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W176" s="18">
-        <f t="shared" si="567"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X176" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y176" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z176" s="20">
-        <f t="shared" si="564"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA176" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB176" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC176" s="16">
-        <f t="shared" si="565"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD176" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE176" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF176" s="17" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG176" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH176" s="15" t="str">
-        <f t="shared" si="566"/>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI176" s="15" t="str">
-        <f t="shared" si="566"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="177" spans="12:35">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="177" spans="1:35">
+      <c r="A177" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="L177" s="14">
-        <f t="shared" ref="L177:L187" si="568">E177*I177</f>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M177" s="14">
-        <f t="shared" ref="M177:M187" si="569">E177*J177</f>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N177" s="14">
-        <f t="shared" ref="N177:N187" si="570">E177*K177</f>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O177" s="15">
-        <f t="shared" ref="O177:O187" si="571">F177*I177</f>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P177" s="15">
-        <f t="shared" ref="P177:P187" si="572">F177*J177</f>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q177" s="15">
-        <f t="shared" ref="Q177:Q187" si="573">F177*K177</f>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R177" s="19">
-        <f t="shared" ref="R177:R187" si="574">H177*I177</f>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S177" s="19">
-        <f t="shared" ref="S177:S187" si="575">H177*J177</f>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T177" s="19">
-        <f t="shared" ref="T177:T187" si="576">H177*K177</f>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U177" s="18">
-        <f t="shared" ref="U177:U187" si="577">L177*$G$3/$E$3</f>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="V177" s="18">
-        <f t="shared" ref="V177:V187" si="578">M177*$G$3/$E$3</f>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W177" s="18">
-        <f t="shared" ref="W177:W187" si="579">N177*$G$3/$E$3</f>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X177" s="20">
-        <f t="shared" ref="X177:X187" si="580">R177*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y177" s="20">
-        <f t="shared" ref="Y177:Y187" si="581">S177*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z177" s="20">
-        <f t="shared" ref="Z177:Z187" si="582">T177*$G$3*(1-$H$3)/$E$3</f>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA177" s="16">
-        <f t="shared" ref="AA177:AA187" si="583">O177*$G$3/$E$3</f>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB177" s="16">
-        <f t="shared" ref="AB177:AB187" si="584">P177*$G$3/$E$3</f>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC177" s="16">
-        <f t="shared" ref="AC177:AC187" si="585">Q177*$G$3/$E$3</f>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD177" s="17" t="str">
-        <f t="shared" ref="AD177:AD187" si="586">IF((U177+X177)&lt;($J$4/2),"低",IF((U177+X177)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE177" s="17" t="str">
-        <f t="shared" ref="AE177:AE187" si="587">IF((V177+Y177)&lt;($J$4/2),"低",IF((V177+Y177)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF177" s="17" t="str">
-        <f t="shared" ref="AF177:AF187" si="588">IF((W177+Z177)&lt;($J$4/2),"低",IF((W177+Z177)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="290"/>
         <v>低</v>
       </c>
       <c r="AG177" s="15" t="str">
-        <f t="shared" ref="AG177:AG187" si="589">IF((X177+AA177)&lt;($J$4/2),"低",IF((X177+AA177)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="291"/>
         <v>低</v>
       </c>
       <c r="AH177" s="15" t="str">
-        <f t="shared" ref="AH177:AH187" si="590">IF((Y177+AB177)&lt;($J$4/2),"低",IF((Y177+AB177)&gt;$J$4,"高","中"))</f>
+        <f t="shared" si="292"/>
         <v>低</v>
       </c>
       <c r="AI177" s="15" t="str">
-        <f t="shared" ref="AI177:AI187" si="591">IF((Z177+AC177)&lt;($J$4/2),"低",IF((Z177+AC177)&gt;$J$4,"高","中"))</f>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="178" spans="12:35">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="178" spans="1:35">
+      <c r="A178" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="L178" s="14">
-        <f t="shared" si="568"/>
+        <f t="shared" si="271"/>
         <v>0</v>
       </c>
       <c r="M178" s="14">
-        <f t="shared" si="569"/>
+        <f t="shared" si="272"/>
         <v>0</v>
       </c>
       <c r="N178" s="14">
-        <f t="shared" si="570"/>
+        <f t="shared" si="273"/>
         <v>0</v>
       </c>
       <c r="O178" s="15">
-        <f t="shared" si="571"/>
+        <f t="shared" si="274"/>
         <v>0</v>
       </c>
       <c r="P178" s="15">
-        <f t="shared" si="572"/>
+        <f t="shared" si="275"/>
         <v>0</v>
       </c>
       <c r="Q178" s="15">
-        <f t="shared" si="573"/>
+        <f t="shared" si="276"/>
         <v>0</v>
       </c>
       <c r="R178" s="19">
-        <f t="shared" si="574"/>
+        <f t="shared" si="277"/>
         <v>0</v>
       </c>
       <c r="S178" s="19">
-        <f t="shared" si="575"/>
+        <f t="shared" si="278"/>
         <v>0</v>
       </c>
       <c r="T178" s="19">
-        <f t="shared" si="576"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="U178" s="18">
-        <f t="shared" si="577"/>
+        <f t="shared" si="294"/>
         <v>0</v>
       </c>
       <c r="V178" s="18">
-        <f t="shared" si="578"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="W178" s="18">
-        <f t="shared" si="579"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="X178" s="20">
-        <f t="shared" si="580"/>
+        <f t="shared" si="282"/>
         <v>0</v>
       </c>
       <c r="Y178" s="20">
-        <f t="shared" si="581"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="Z178" s="20">
-        <f t="shared" si="582"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AA178" s="16">
-        <f t="shared" si="583"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AB178" s="16">
-        <f t="shared" si="584"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AC178" s="16">
-        <f t="shared" si="585"/>
+        <f t="shared" si="287"/>
         <v>0</v>
       </c>
       <c r="AD178" s="17" t="str">
-        <f t="shared" si="586"/>
+        <f t="shared" si="288"/>
         <v>低</v>
       </c>
       <c r="AE178" s="17" t="str">
-        <f t="shared" si="587"/>
+        <f t="shared" si="289"/>
         <v>低</v>
       </c>
       <c r="AF178" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG178" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH178" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI178" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="179" spans="1:35">
+      <c r="A179" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L179" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M179" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N179" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O179" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P179" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q179" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R179" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S179" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T179" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U179" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V179" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W179" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X179" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y179" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z179" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA179" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB179" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC179" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD179" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE179" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF179" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG179" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH179" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI179" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="180" spans="1:35">
+      <c r="A180" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L180" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M180" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N180" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O180" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P180" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q180" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R180" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S180" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T180" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U180" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V180" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W180" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X180" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y180" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z180" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA180" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB180" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC180" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD180" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE180" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF180" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG180" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH180" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI180" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="181" spans="1:35">
+      <c r="A181" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L181" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M181" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N181" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O181" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P181" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q181" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R181" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S181" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T181" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U181" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V181" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W181" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X181" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y181" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z181" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA181" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB181" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC181" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD181" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE181" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF181" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG181" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH181" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI181" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="182" spans="1:35">
+      <c r="A182" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L182" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M182" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N182" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O182" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P182" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q182" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R182" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S182" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T182" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U182" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V182" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W182" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X182" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y182" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z182" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA182" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB182" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC182" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD182" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE182" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF182" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG182" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH182" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI182" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="183" spans="1:35">
+      <c r="A183" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L183" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M183" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N183" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O183" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P183" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q183" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R183" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S183" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T183" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U183" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V183" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W183" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X183" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y183" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z183" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA183" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB183" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC183" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD183" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE183" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF183" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG183" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH183" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI183" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="184" spans="1:35">
+      <c r="A184" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L184" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M184" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N184" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O184" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P184" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q184" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R184" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S184" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T184" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U184" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V184" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W184" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X184" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y184" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z184" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA184" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB184" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC184" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD184" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE184" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF184" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG184" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH184" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI184" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="185" spans="1:35">
+      <c r="A185" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L185" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M185" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N185" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O185" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P185" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q185" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R185" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S185" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T185" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U185" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V185" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W185" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X185" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y185" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z185" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA185" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB185" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC185" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD185" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE185" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF185" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG185" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH185" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI185" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="186" spans="1:35">
+      <c r="A186" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L186" s="14">
+        <f t="shared" si="271"/>
+        <v>0</v>
+      </c>
+      <c r="M186" s="14">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+      <c r="N186" s="14">
+        <f t="shared" si="273"/>
+        <v>0</v>
+      </c>
+      <c r="O186" s="15">
+        <f t="shared" si="274"/>
+        <v>0</v>
+      </c>
+      <c r="P186" s="15">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+      <c r="Q186" s="15">
+        <f t="shared" si="276"/>
+        <v>0</v>
+      </c>
+      <c r="R186" s="19">
+        <f t="shared" si="277"/>
+        <v>0</v>
+      </c>
+      <c r="S186" s="19">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+      <c r="T186" s="19">
+        <f t="shared" si="279"/>
+        <v>0</v>
+      </c>
+      <c r="U186" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V186" s="18">
+        <f t="shared" si="280"/>
+        <v>0</v>
+      </c>
+      <c r="W186" s="18">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="X186" s="20">
+        <f t="shared" si="282"/>
+        <v>0</v>
+      </c>
+      <c r="Y186" s="20">
+        <f t="shared" si="283"/>
+        <v>0</v>
+      </c>
+      <c r="Z186" s="20">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+      <c r="AA186" s="16">
+        <f t="shared" si="285"/>
+        <v>0</v>
+      </c>
+      <c r="AB186" s="16">
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AC186" s="16">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+      <c r="AD186" s="17" t="str">
+        <f t="shared" si="288"/>
+        <v>低</v>
+      </c>
+      <c r="AE186" s="17" t="str">
+        <f t="shared" si="289"/>
+        <v>低</v>
+      </c>
+      <c r="AF186" s="17" t="str">
+        <f t="shared" si="290"/>
+        <v>低</v>
+      </c>
+      <c r="AG186" s="15" t="str">
+        <f t="shared" si="291"/>
+        <v>低</v>
+      </c>
+      <c r="AH186" s="15" t="str">
+        <f t="shared" si="292"/>
+        <v>低</v>
+      </c>
+      <c r="AI186" s="15" t="str">
+        <f t="shared" si="293"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="187" spans="1:35">
+      <c r="A187" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L187" s="14">
+        <f t="shared" ref="L187:L190" si="579">E187*I187</f>
+        <v>0</v>
+      </c>
+      <c r="M187" s="14">
+        <f t="shared" ref="M187:M190" si="580">E187*J187</f>
+        <v>0</v>
+      </c>
+      <c r="N187" s="14">
+        <f t="shared" ref="N187:N190" si="581">E187*K187</f>
+        <v>0</v>
+      </c>
+      <c r="O187" s="15">
+        <f t="shared" ref="O187:O190" si="582">F187*I187</f>
+        <v>0</v>
+      </c>
+      <c r="P187" s="15">
+        <f t="shared" ref="P187:P190" si="583">F187*J187</f>
+        <v>0</v>
+      </c>
+      <c r="Q187" s="15">
+        <f t="shared" ref="Q187:Q190" si="584">F187*K187</f>
+        <v>0</v>
+      </c>
+      <c r="R187" s="19">
+        <f t="shared" ref="R187:R190" si="585">H187*I187</f>
+        <v>0</v>
+      </c>
+      <c r="S187" s="19">
+        <f t="shared" ref="S187:S190" si="586">H187*J187</f>
+        <v>0</v>
+      </c>
+      <c r="T187" s="19">
+        <f t="shared" ref="T187:T190" si="587">H187*K187</f>
+        <v>0</v>
+      </c>
+      <c r="U187" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="V187" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="W187" s="18">
+        <f t="shared" si="294"/>
+        <v>0</v>
+      </c>
+      <c r="X187" s="20">
+        <f t="shared" ref="X187:Z190" si="588">R187*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y187" s="20">
         <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG178" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="Z187" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="AA187" s="16">
+        <f t="shared" ref="AA187:AC190" si="589">O187*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB187" s="16">
         <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH178" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="AC187" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AD187" s="17" t="str">
+        <f t="shared" ref="AD187:AI190" si="590">IF((U187+X187)&lt;($J$4/2),"低",IF((U187+X187)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE187" s="17" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI178" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="179" spans="12:35">
-      <c r="L179" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M179" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N179" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O179" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P179" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q179" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R179" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S179" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T179" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U179" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V179" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W179" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X179" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y179" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z179" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA179" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB179" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC179" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD179" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE179" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF179" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG179" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH179" s="15" t="str">
+      <c r="AF187" s="17" t="str">
         <f t="shared" si="590"/>
         <v>低</v>
       </c>
-      <c r="AI179" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="180" spans="12:35">
-      <c r="L180" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M180" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N180" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O180" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P180" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q180" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R180" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S180" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T180" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U180" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V180" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W180" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X180" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y180" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z180" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA180" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB180" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC180" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD180" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE180" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF180" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG180" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH180" s="15" t="str">
+      <c r="AG187" s="15" t="str">
         <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI180" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="181" spans="12:35">
-      <c r="L181" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M181" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N181" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O181" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P181" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q181" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R181" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S181" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T181" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U181" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V181" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W181" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X181" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y181" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z181" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA181" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB181" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC181" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD181" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE181" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF181" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG181" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH181" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI181" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="182" spans="12:35">
-      <c r="L182" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M182" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N182" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O182" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P182" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q182" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R182" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S182" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T182" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U182" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V182" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W182" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X182" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y182" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z182" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA182" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB182" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC182" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD182" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE182" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF182" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG182" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH182" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI182" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="183" spans="12:35">
-      <c r="L183" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M183" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N183" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O183" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P183" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q183" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R183" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S183" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T183" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U183" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V183" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W183" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X183" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y183" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z183" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA183" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB183" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC183" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD183" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE183" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF183" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG183" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH183" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI183" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="184" spans="12:35">
-      <c r="L184" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M184" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N184" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O184" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P184" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q184" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R184" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S184" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T184" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U184" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V184" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W184" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X184" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y184" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z184" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA184" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB184" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC184" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD184" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE184" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF184" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG184" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH184" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI184" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="185" spans="12:35">
-      <c r="L185" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M185" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N185" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O185" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P185" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q185" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R185" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S185" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T185" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U185" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V185" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W185" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X185" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y185" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z185" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA185" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB185" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC185" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD185" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE185" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF185" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG185" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH185" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI185" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="186" spans="12:35">
-      <c r="L186" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M186" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N186" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O186" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P186" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q186" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R186" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S186" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T186" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U186" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V186" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W186" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X186" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y186" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z186" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA186" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB186" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC186" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD186" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE186" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF186" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG186" s="15" t="str">
-        <f t="shared" si="589"/>
-        <v>低</v>
-      </c>
-      <c r="AH186" s="15" t="str">
-        <f t="shared" si="590"/>
-        <v>低</v>
-      </c>
-      <c r="AI186" s="15" t="str">
-        <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="187" spans="12:35">
-      <c r="L187" s="14">
-        <f t="shared" si="568"/>
-        <v>0</v>
-      </c>
-      <c r="M187" s="14">
-        <f t="shared" si="569"/>
-        <v>0</v>
-      </c>
-      <c r="N187" s="14">
-        <f t="shared" si="570"/>
-        <v>0</v>
-      </c>
-      <c r="O187" s="15">
-        <f t="shared" si="571"/>
-        <v>0</v>
-      </c>
-      <c r="P187" s="15">
-        <f t="shared" si="572"/>
-        <v>0</v>
-      </c>
-      <c r="Q187" s="15">
-        <f t="shared" si="573"/>
-        <v>0</v>
-      </c>
-      <c r="R187" s="19">
-        <f t="shared" si="574"/>
-        <v>0</v>
-      </c>
-      <c r="S187" s="19">
-        <f t="shared" si="575"/>
-        <v>0</v>
-      </c>
-      <c r="T187" s="19">
-        <f t="shared" si="576"/>
-        <v>0</v>
-      </c>
-      <c r="U187" s="18">
-        <f t="shared" si="577"/>
-        <v>0</v>
-      </c>
-      <c r="V187" s="18">
-        <f t="shared" si="578"/>
-        <v>0</v>
-      </c>
-      <c r="W187" s="18">
-        <f t="shared" si="579"/>
-        <v>0</v>
-      </c>
-      <c r="X187" s="20">
-        <f t="shared" si="580"/>
-        <v>0</v>
-      </c>
-      <c r="Y187" s="20">
-        <f t="shared" si="581"/>
-        <v>0</v>
-      </c>
-      <c r="Z187" s="20">
-        <f t="shared" si="582"/>
-        <v>0</v>
-      </c>
-      <c r="AA187" s="16">
-        <f t="shared" si="583"/>
-        <v>0</v>
-      </c>
-      <c r="AB187" s="16">
-        <f t="shared" si="584"/>
-        <v>0</v>
-      </c>
-      <c r="AC187" s="16">
-        <f t="shared" si="585"/>
-        <v>0</v>
-      </c>
-      <c r="AD187" s="17" t="str">
-        <f t="shared" si="586"/>
-        <v>低</v>
-      </c>
-      <c r="AE187" s="17" t="str">
-        <f t="shared" si="587"/>
-        <v>低</v>
-      </c>
-      <c r="AF187" s="17" t="str">
-        <f t="shared" si="588"/>
-        <v>低</v>
-      </c>
-      <c r="AG187" s="15" t="str">
-        <f t="shared" si="589"/>
         <v>低</v>
       </c>
       <c r="AH187" s="15" t="str">
@@ -23261,165 +23719,1410 @@
         <v>低</v>
       </c>
       <c r="AI187" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="188" spans="1:35">
+      <c r="A188" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L188" s="14">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="M188" s="14">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="N188" s="14">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="O188" s="15">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="P188" s="15">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="Q188" s="15">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="R188" s="19">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="S188" s="19">
+        <f t="shared" si="586"/>
+        <v>0</v>
+      </c>
+      <c r="T188" s="19">
+        <f t="shared" si="587"/>
+        <v>0</v>
+      </c>
+      <c r="U188" s="18">
+        <f t="shared" ref="U188:W190" si="591">L188*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V188" s="18">
         <f t="shared" si="591"/>
-        <v>低</v>
-      </c>
-    </row>
-    <row r="188" spans="12:35">
-      <c r="U188" s="18"/>
-      <c r="V188" s="18"/>
-      <c r="W188" s="18"/>
-      <c r="X188" s="20"/>
-      <c r="Y188" s="20"/>
-      <c r="Z188" s="20"/>
-      <c r="AA188" s="16"/>
-      <c r="AB188" s="16"/>
-      <c r="AC188" s="16"/>
-    </row>
-    <row r="189" spans="12:35">
-      <c r="U189" s="18"/>
-      <c r="V189" s="18"/>
-      <c r="W189" s="18"/>
-      <c r="X189" s="20"/>
-      <c r="Y189" s="20"/>
-      <c r="Z189" s="20"/>
-      <c r="AA189" s="16"/>
-      <c r="AB189" s="16"/>
-      <c r="AC189" s="16"/>
-    </row>
-    <row r="190" spans="12:35">
-      <c r="U190" s="18"/>
-      <c r="V190" s="18"/>
-      <c r="W190" s="18"/>
-      <c r="X190" s="20"/>
-      <c r="Y190" s="20"/>
-      <c r="Z190" s="20"/>
-      <c r="AA190" s="16"/>
-      <c r="AB190" s="16"/>
-      <c r="AC190" s="16"/>
-    </row>
-    <row r="191" spans="12:35">
-      <c r="U191" s="18"/>
-      <c r="V191" s="18"/>
-      <c r="W191" s="18"/>
-      <c r="X191" s="20"/>
-      <c r="Y191" s="20"/>
-      <c r="Z191" s="20"/>
-      <c r="AA191" s="16"/>
-      <c r="AB191" s="16"/>
-      <c r="AC191" s="16"/>
-    </row>
-    <row r="192" spans="12:35">
-      <c r="U192" s="18"/>
-      <c r="V192" s="18"/>
-      <c r="W192" s="18"/>
-      <c r="X192" s="20"/>
-      <c r="Y192" s="20"/>
-      <c r="Z192" s="20"/>
-      <c r="AA192" s="16"/>
-      <c r="AB192" s="16"/>
-      <c r="AC192" s="16"/>
-    </row>
-    <row r="193" spans="21:29">
-      <c r="U193" s="18"/>
-      <c r="V193" s="18"/>
-      <c r="W193" s="18"/>
-      <c r="X193" s="20"/>
-      <c r="Y193" s="20"/>
-      <c r="Z193" s="20"/>
-      <c r="AA193" s="16"/>
-      <c r="AB193" s="16"/>
-      <c r="AC193" s="16"/>
-    </row>
-    <row r="194" spans="21:29">
-      <c r="U194" s="18"/>
-      <c r="V194" s="18"/>
-      <c r="W194" s="18"/>
-      <c r="X194" s="20"/>
-      <c r="Y194" s="20"/>
-      <c r="Z194" s="20"/>
-      <c r="AA194" s="16"/>
-      <c r="AB194" s="16"/>
-      <c r="AC194" s="16"/>
-    </row>
-    <row r="195" spans="21:29">
-      <c r="U195" s="18"/>
-      <c r="V195" s="18"/>
-      <c r="W195" s="18"/>
-      <c r="X195" s="20"/>
-      <c r="Y195" s="20"/>
-      <c r="Z195" s="20"/>
-      <c r="AA195" s="16"/>
-      <c r="AB195" s="16"/>
-      <c r="AC195" s="16"/>
-    </row>
-    <row r="196" spans="21:29">
-      <c r="U196" s="18"/>
-      <c r="V196" s="18"/>
-      <c r="W196" s="18"/>
-      <c r="X196" s="20"/>
-      <c r="Y196" s="20"/>
-      <c r="Z196" s="20"/>
-      <c r="AA196" s="16"/>
-      <c r="AB196" s="16"/>
-      <c r="AC196" s="16"/>
-    </row>
-    <row r="197" spans="21:29">
-      <c r="U197" s="18"/>
-      <c r="V197" s="18"/>
-      <c r="W197" s="18"/>
-      <c r="X197" s="20"/>
-      <c r="Y197" s="20"/>
-      <c r="Z197" s="20"/>
-      <c r="AA197" s="16"/>
-      <c r="AB197" s="16"/>
-      <c r="AC197" s="16"/>
-    </row>
-    <row r="198" spans="21:29">
-      <c r="U198" s="18"/>
-      <c r="V198" s="18"/>
-      <c r="W198" s="18"/>
-      <c r="X198" s="20"/>
-      <c r="Y198" s="20"/>
-      <c r="Z198" s="20"/>
-      <c r="AA198" s="16"/>
-      <c r="AB198" s="16"/>
-      <c r="AC198" s="16"/>
-    </row>
-    <row r="199" spans="21:29">
-      <c r="U199" s="18"/>
-      <c r="V199" s="18"/>
-      <c r="W199" s="18"/>
-      <c r="X199" s="20"/>
-      <c r="Y199" s="20"/>
-      <c r="Z199" s="20"/>
-      <c r="AA199" s="16"/>
-      <c r="AB199" s="16"/>
-      <c r="AC199" s="16"/>
-    </row>
-    <row r="200" spans="21:29">
-      <c r="U200" s="18"/>
-      <c r="V200" s="18"/>
-      <c r="W200" s="18"/>
-      <c r="X200" s="20"/>
-      <c r="Y200" s="20"/>
-      <c r="Z200" s="20"/>
-      <c r="AA200" s="16"/>
-      <c r="AB200" s="16"/>
-      <c r="AC200" s="16"/>
-    </row>
-    <row r="201" spans="21:29">
-      <c r="U201" s="18"/>
-      <c r="V201" s="18"/>
-      <c r="W201" s="18"/>
-      <c r="X201" s="20"/>
-      <c r="Y201" s="20"/>
-      <c r="Z201" s="20"/>
-      <c r="AA201" s="16"/>
-      <c r="AB201" s="16"/>
-      <c r="AC201" s="16"/>
-    </row>
-    <row r="202" spans="21:29">
+        <v>0</v>
+      </c>
+      <c r="W188" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="X188" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="Y188" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="Z188" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="AA188" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AB188" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AC188" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AD188" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AE188" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AF188" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AG188" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AH188" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI188" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="189" spans="1:35">
+      <c r="A189" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L189" s="14">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="M189" s="14">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="N189" s="14">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="O189" s="15">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="P189" s="15">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="Q189" s="15">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="R189" s="19">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="S189" s="19">
+        <f t="shared" si="586"/>
+        <v>0</v>
+      </c>
+      <c r="T189" s="19">
+        <f t="shared" si="587"/>
+        <v>0</v>
+      </c>
+      <c r="U189" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="V189" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="W189" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="X189" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="Y189" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="Z189" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="AA189" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AB189" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AC189" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AD189" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AE189" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AF189" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AG189" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AH189" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI189" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="190" spans="1:35">
+      <c r="A190" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L190" s="14">
+        <f t="shared" si="579"/>
+        <v>0</v>
+      </c>
+      <c r="M190" s="14">
+        <f t="shared" si="580"/>
+        <v>0</v>
+      </c>
+      <c r="N190" s="14">
+        <f t="shared" si="581"/>
+        <v>0</v>
+      </c>
+      <c r="O190" s="15">
+        <f t="shared" si="582"/>
+        <v>0</v>
+      </c>
+      <c r="P190" s="15">
+        <f t="shared" si="583"/>
+        <v>0</v>
+      </c>
+      <c r="Q190" s="15">
+        <f t="shared" si="584"/>
+        <v>0</v>
+      </c>
+      <c r="R190" s="19">
+        <f t="shared" si="585"/>
+        <v>0</v>
+      </c>
+      <c r="S190" s="19">
+        <f t="shared" si="586"/>
+        <v>0</v>
+      </c>
+      <c r="T190" s="19">
+        <f t="shared" si="587"/>
+        <v>0</v>
+      </c>
+      <c r="U190" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="V190" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="W190" s="18">
+        <f t="shared" si="591"/>
+        <v>0</v>
+      </c>
+      <c r="X190" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="Y190" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="Z190" s="20">
+        <f t="shared" si="588"/>
+        <v>0</v>
+      </c>
+      <c r="AA190" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AB190" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AC190" s="16">
+        <f t="shared" si="589"/>
+        <v>0</v>
+      </c>
+      <c r="AD190" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AE190" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AF190" s="17" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AG190" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AH190" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+      <c r="AI190" s="15" t="str">
+        <f t="shared" si="590"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="191" spans="1:35">
+      <c r="L191" s="14">
+        <f t="shared" ref="L191:L201" si="592">E191*I191</f>
+        <v>0</v>
+      </c>
+      <c r="M191" s="14">
+        <f t="shared" ref="M191:M201" si="593">E191*J191</f>
+        <v>0</v>
+      </c>
+      <c r="N191" s="14">
+        <f t="shared" ref="N191:N201" si="594">E191*K191</f>
+        <v>0</v>
+      </c>
+      <c r="O191" s="15">
+        <f t="shared" ref="O191:O201" si="595">F191*I191</f>
+        <v>0</v>
+      </c>
+      <c r="P191" s="15">
+        <f t="shared" ref="P191:P201" si="596">F191*J191</f>
+        <v>0</v>
+      </c>
+      <c r="Q191" s="15">
+        <f t="shared" ref="Q191:Q201" si="597">F191*K191</f>
+        <v>0</v>
+      </c>
+      <c r="R191" s="19">
+        <f t="shared" ref="R191:R201" si="598">H191*I191</f>
+        <v>0</v>
+      </c>
+      <c r="S191" s="19">
+        <f t="shared" ref="S191:S201" si="599">H191*J191</f>
+        <v>0</v>
+      </c>
+      <c r="T191" s="19">
+        <f t="shared" ref="T191:T201" si="600">H191*K191</f>
+        <v>0</v>
+      </c>
+      <c r="U191" s="18">
+        <f t="shared" ref="U191:U201" si="601">L191*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="V191" s="18">
+        <f t="shared" ref="V191:V201" si="602">M191*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="W191" s="18">
+        <f t="shared" ref="W191:W201" si="603">N191*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="X191" s="20">
+        <f t="shared" ref="X191:X201" si="604">R191*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Y191" s="20">
+        <f t="shared" ref="Y191:Y201" si="605">S191*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="Z191" s="20">
+        <f t="shared" ref="Z191:Z201" si="606">T191*$G$3*(1-$H$3)/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AA191" s="16">
+        <f t="shared" ref="AA191:AA201" si="607">O191*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AB191" s="16">
+        <f t="shared" ref="AB191:AB201" si="608">P191*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AC191" s="16">
+        <f t="shared" ref="AC191:AC201" si="609">Q191*$G$3/$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="AD191" s="17" t="str">
+        <f t="shared" ref="AD191:AD201" si="610">IF((U191+X191)&lt;($J$4/2),"低",IF((U191+X191)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AE191" s="17" t="str">
+        <f t="shared" ref="AE191:AE201" si="611">IF((V191+Y191)&lt;($J$4/2),"低",IF((V191+Y191)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AF191" s="17" t="str">
+        <f t="shared" ref="AF191:AF201" si="612">IF((W191+Z191)&lt;($J$4/2),"低",IF((W191+Z191)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AG191" s="15" t="str">
+        <f t="shared" ref="AG191:AG201" si="613">IF((X191+AA191)&lt;($J$4/2),"低",IF((X191+AA191)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AH191" s="15" t="str">
+        <f t="shared" ref="AH191:AH201" si="614">IF((Y191+AB191)&lt;($J$4/2),"低",IF((Y191+AB191)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+      <c r="AI191" s="15" t="str">
+        <f t="shared" ref="AI191:AI201" si="615">IF((Z191+AC191)&lt;($J$4/2),"低",IF((Z191+AC191)&gt;$J$4,"高","中"))</f>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="192" spans="1:35">
+      <c r="L192" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M192" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N192" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O192" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P192" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q192" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R192" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S192" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T192" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U192" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V192" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W192" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X192" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y192" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z192" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA192" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB192" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC192" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD192" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE192" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF192" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG192" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH192" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI192" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="193" spans="12:35">
+      <c r="L193" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M193" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N193" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O193" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P193" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q193" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R193" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S193" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T193" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U193" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V193" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W193" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X193" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y193" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z193" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA193" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB193" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC193" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD193" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE193" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF193" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG193" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH193" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI193" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="194" spans="12:35">
+      <c r="L194" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M194" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N194" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O194" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P194" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q194" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R194" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S194" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T194" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U194" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V194" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W194" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X194" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y194" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z194" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA194" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB194" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC194" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD194" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE194" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF194" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG194" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH194" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI194" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="195" spans="12:35">
+      <c r="L195" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M195" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N195" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O195" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P195" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q195" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R195" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S195" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T195" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U195" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V195" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W195" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X195" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y195" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z195" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA195" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB195" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC195" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD195" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE195" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF195" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG195" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH195" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI195" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="196" spans="12:35">
+      <c r="L196" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M196" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N196" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O196" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P196" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q196" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R196" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S196" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T196" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U196" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V196" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W196" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X196" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y196" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z196" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA196" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB196" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC196" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD196" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE196" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF196" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG196" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH196" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI196" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="197" spans="12:35">
+      <c r="L197" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M197" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N197" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O197" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P197" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q197" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R197" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S197" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T197" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U197" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V197" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W197" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X197" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y197" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z197" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA197" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB197" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC197" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD197" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE197" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF197" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG197" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH197" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI197" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="198" spans="12:35">
+      <c r="L198" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M198" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N198" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O198" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P198" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q198" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R198" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S198" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T198" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U198" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V198" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W198" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X198" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y198" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z198" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA198" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB198" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC198" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD198" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE198" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF198" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG198" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH198" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI198" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="199" spans="12:35">
+      <c r="L199" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M199" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N199" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O199" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P199" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q199" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R199" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S199" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T199" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U199" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V199" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W199" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X199" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y199" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z199" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA199" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB199" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC199" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD199" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE199" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF199" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG199" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH199" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI199" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="200" spans="12:35">
+      <c r="L200" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M200" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N200" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O200" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P200" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q200" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R200" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S200" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T200" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U200" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V200" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W200" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X200" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y200" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z200" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA200" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB200" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC200" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD200" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE200" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF200" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG200" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH200" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI200" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="201" spans="12:35">
+      <c r="L201" s="14">
+        <f t="shared" si="592"/>
+        <v>0</v>
+      </c>
+      <c r="M201" s="14">
+        <f t="shared" si="593"/>
+        <v>0</v>
+      </c>
+      <c r="N201" s="14">
+        <f t="shared" si="594"/>
+        <v>0</v>
+      </c>
+      <c r="O201" s="15">
+        <f t="shared" si="595"/>
+        <v>0</v>
+      </c>
+      <c r="P201" s="15">
+        <f t="shared" si="596"/>
+        <v>0</v>
+      </c>
+      <c r="Q201" s="15">
+        <f t="shared" si="597"/>
+        <v>0</v>
+      </c>
+      <c r="R201" s="19">
+        <f t="shared" si="598"/>
+        <v>0</v>
+      </c>
+      <c r="S201" s="19">
+        <f t="shared" si="599"/>
+        <v>0</v>
+      </c>
+      <c r="T201" s="19">
+        <f t="shared" si="600"/>
+        <v>0</v>
+      </c>
+      <c r="U201" s="18">
+        <f t="shared" si="601"/>
+        <v>0</v>
+      </c>
+      <c r="V201" s="18">
+        <f t="shared" si="602"/>
+        <v>0</v>
+      </c>
+      <c r="W201" s="18">
+        <f t="shared" si="603"/>
+        <v>0</v>
+      </c>
+      <c r="X201" s="20">
+        <f t="shared" si="604"/>
+        <v>0</v>
+      </c>
+      <c r="Y201" s="20">
+        <f t="shared" si="605"/>
+        <v>0</v>
+      </c>
+      <c r="Z201" s="20">
+        <f t="shared" si="606"/>
+        <v>0</v>
+      </c>
+      <c r="AA201" s="16">
+        <f t="shared" si="607"/>
+        <v>0</v>
+      </c>
+      <c r="AB201" s="16">
+        <f t="shared" si="608"/>
+        <v>0</v>
+      </c>
+      <c r="AC201" s="16">
+        <f t="shared" si="609"/>
+        <v>0</v>
+      </c>
+      <c r="AD201" s="17" t="str">
+        <f t="shared" si="610"/>
+        <v>低</v>
+      </c>
+      <c r="AE201" s="17" t="str">
+        <f t="shared" si="611"/>
+        <v>低</v>
+      </c>
+      <c r="AF201" s="17" t="str">
+        <f t="shared" si="612"/>
+        <v>低</v>
+      </c>
+      <c r="AG201" s="15" t="str">
+        <f t="shared" si="613"/>
+        <v>低</v>
+      </c>
+      <c r="AH201" s="15" t="str">
+        <f t="shared" si="614"/>
+        <v>低</v>
+      </c>
+      <c r="AI201" s="15" t="str">
+        <f t="shared" si="615"/>
+        <v>低</v>
+      </c>
+    </row>
+    <row r="202" spans="12:35">
       <c r="U202" s="18"/>
       <c r="V202" s="18"/>
       <c r="W202" s="18"/>
@@ -23430,7 +25133,7 @@
       <c r="AB202" s="16"/>
       <c r="AC202" s="16"/>
     </row>
-    <row r="203" spans="21:29">
+    <row r="203" spans="12:35">
       <c r="U203" s="18"/>
       <c r="V203" s="18"/>
       <c r="W203" s="18"/>
@@ -23441,7 +25144,7 @@
       <c r="AB203" s="16"/>
       <c r="AC203" s="16"/>
     </row>
-    <row r="204" spans="21:29">
+    <row r="204" spans="12:35">
       <c r="U204" s="18"/>
       <c r="V204" s="18"/>
       <c r="W204" s="18"/>
@@ -23452,7 +25155,7 @@
       <c r="AB204" s="16"/>
       <c r="AC204" s="16"/>
     </row>
-    <row r="205" spans="21:29">
+    <row r="205" spans="12:35">
       <c r="U205" s="18"/>
       <c r="V205" s="18"/>
       <c r="W205" s="18"/>
@@ -23463,7 +25166,7 @@
       <c r="AB205" s="16"/>
       <c r="AC205" s="16"/>
     </row>
-    <row r="206" spans="21:29">
+    <row r="206" spans="12:35">
       <c r="U206" s="18"/>
       <c r="V206" s="18"/>
       <c r="W206" s="18"/>
@@ -23474,7 +25177,7 @@
       <c r="AB206" s="16"/>
       <c r="AC206" s="16"/>
     </row>
-    <row r="207" spans="21:29">
+    <row r="207" spans="12:35">
       <c r="U207" s="18"/>
       <c r="V207" s="18"/>
       <c r="W207" s="18"/>
@@ -23485,7 +25188,7 @@
       <c r="AB207" s="16"/>
       <c r="AC207" s="16"/>
     </row>
-    <row r="208" spans="21:29">
+    <row r="208" spans="12:35">
       <c r="U208" s="18"/>
       <c r="V208" s="18"/>
       <c r="W208" s="18"/>
@@ -26575,6 +28278,160 @@
       <c r="AA488" s="16"/>
       <c r="AB488" s="16"/>
       <c r="AC488" s="16"/>
+    </row>
+    <row r="489" spans="21:29">
+      <c r="U489" s="18"/>
+      <c r="V489" s="18"/>
+      <c r="W489" s="18"/>
+      <c r="X489" s="20"/>
+      <c r="Y489" s="20"/>
+      <c r="Z489" s="20"/>
+      <c r="AA489" s="16"/>
+      <c r="AB489" s="16"/>
+      <c r="AC489" s="16"/>
+    </row>
+    <row r="490" spans="21:29">
+      <c r="U490" s="18"/>
+      <c r="V490" s="18"/>
+      <c r="W490" s="18"/>
+      <c r="X490" s="20"/>
+      <c r="Y490" s="20"/>
+      <c r="Z490" s="20"/>
+      <c r="AA490" s="16"/>
+      <c r="AB490" s="16"/>
+      <c r="AC490" s="16"/>
+    </row>
+    <row r="491" spans="21:29">
+      <c r="U491" s="18"/>
+      <c r="V491" s="18"/>
+      <c r="W491" s="18"/>
+      <c r="X491" s="20"/>
+      <c r="Y491" s="20"/>
+      <c r="Z491" s="20"/>
+      <c r="AA491" s="16"/>
+      <c r="AB491" s="16"/>
+      <c r="AC491" s="16"/>
+    </row>
+    <row r="492" spans="21:29">
+      <c r="U492" s="18"/>
+      <c r="V492" s="18"/>
+      <c r="W492" s="18"/>
+      <c r="X492" s="20"/>
+      <c r="Y492" s="20"/>
+      <c r="Z492" s="20"/>
+      <c r="AA492" s="16"/>
+      <c r="AB492" s="16"/>
+      <c r="AC492" s="16"/>
+    </row>
+    <row r="493" spans="21:29">
+      <c r="U493" s="18"/>
+      <c r="V493" s="18"/>
+      <c r="W493" s="18"/>
+      <c r="X493" s="20"/>
+      <c r="Y493" s="20"/>
+      <c r="Z493" s="20"/>
+      <c r="AA493" s="16"/>
+      <c r="AB493" s="16"/>
+      <c r="AC493" s="16"/>
+    </row>
+    <row r="494" spans="21:29">
+      <c r="U494" s="18"/>
+      <c r="V494" s="18"/>
+      <c r="W494" s="18"/>
+      <c r="X494" s="20"/>
+      <c r="Y494" s="20"/>
+      <c r="Z494" s="20"/>
+      <c r="AA494" s="16"/>
+      <c r="AB494" s="16"/>
+      <c r="AC494" s="16"/>
+    </row>
+    <row r="495" spans="21:29">
+      <c r="U495" s="18"/>
+      <c r="V495" s="18"/>
+      <c r="W495" s="18"/>
+      <c r="X495" s="20"/>
+      <c r="Y495" s="20"/>
+      <c r="Z495" s="20"/>
+      <c r="AA495" s="16"/>
+      <c r="AB495" s="16"/>
+      <c r="AC495" s="16"/>
+    </row>
+    <row r="496" spans="21:29">
+      <c r="U496" s="18"/>
+      <c r="V496" s="18"/>
+      <c r="W496" s="18"/>
+      <c r="X496" s="20"/>
+      <c r="Y496" s="20"/>
+      <c r="Z496" s="20"/>
+      <c r="AA496" s="16"/>
+      <c r="AB496" s="16"/>
+      <c r="AC496" s="16"/>
+    </row>
+    <row r="497" spans="21:29">
+      <c r="U497" s="18"/>
+      <c r="V497" s="18"/>
+      <c r="W497" s="18"/>
+      <c r="X497" s="20"/>
+      <c r="Y497" s="20"/>
+      <c r="Z497" s="20"/>
+      <c r="AA497" s="16"/>
+      <c r="AB497" s="16"/>
+      <c r="AC497" s="16"/>
+    </row>
+    <row r="498" spans="21:29">
+      <c r="U498" s="18"/>
+      <c r="V498" s="18"/>
+      <c r="W498" s="18"/>
+      <c r="X498" s="20"/>
+      <c r="Y498" s="20"/>
+      <c r="Z498" s="20"/>
+      <c r="AA498" s="16"/>
+      <c r="AB498" s="16"/>
+      <c r="AC498" s="16"/>
+    </row>
+    <row r="499" spans="21:29">
+      <c r="U499" s="18"/>
+      <c r="V499" s="18"/>
+      <c r="W499" s="18"/>
+      <c r="X499" s="20"/>
+      <c r="Y499" s="20"/>
+      <c r="Z499" s="20"/>
+      <c r="AA499" s="16"/>
+      <c r="AB499" s="16"/>
+      <c r="AC499" s="16"/>
+    </row>
+    <row r="500" spans="21:29">
+      <c r="U500" s="18"/>
+      <c r="V500" s="18"/>
+      <c r="W500" s="18"/>
+      <c r="X500" s="20"/>
+      <c r="Y500" s="20"/>
+      <c r="Z500" s="20"/>
+      <c r="AA500" s="16"/>
+      <c r="AB500" s="16"/>
+      <c r="AC500" s="16"/>
+    </row>
+    <row r="501" spans="21:29">
+      <c r="U501" s="18"/>
+      <c r="V501" s="18"/>
+      <c r="W501" s="18"/>
+      <c r="X501" s="20"/>
+      <c r="Y501" s="20"/>
+      <c r="Z501" s="20"/>
+      <c r="AA501" s="16"/>
+      <c r="AB501" s="16"/>
+      <c r="AC501" s="16"/>
+    </row>
+    <row r="502" spans="21:29">
+      <c r="U502" s="18"/>
+      <c r="V502" s="18"/>
+      <c r="W502" s="18"/>
+      <c r="X502" s="20"/>
+      <c r="Y502" s="20"/>
+      <c r="Z502" s="20"/>
+      <c r="AA502" s="16"/>
+      <c r="AB502" s="16"/>
+      <c r="AC502" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
